--- a/data/CAI.MI.xlsx
+++ b/data/CAI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="1392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="1393">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,61 +38,61 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07385444641113</t>
+    <t xml:space="preserve">3.07385492324829</t>
   </si>
   <si>
     <t xml:space="preserve">CAI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08614468574524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01786732673645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97690057754517</t>
+    <t xml:space="preserve">3.08614444732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01786708831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97690033912659</t>
   </si>
   <si>
     <t xml:space="preserve">2.98099756240845</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88131165504456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94003081321716</t>
+    <t xml:space="preserve">2.88131189346313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94003105163574</t>
   </si>
   <si>
     <t xml:space="preserve">2.80620694160461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86082887649536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75841236114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73929500579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69013476371765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71744561195374</t>
+    <t xml:space="preserve">2.86082863807678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7584125995636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73929476737976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69013500213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71744608879089</t>
   </si>
   <si>
     <t xml:space="preserve">2.866290807724</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76387500762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7447566986084</t>
+    <t xml:space="preserve">2.76387476921082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74475717544556</t>
   </si>
   <si>
     <t xml:space="preserve">2.7570469379425</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71061825752258</t>
+    <t xml:space="preserve">2.710618019104</t>
   </si>
   <si>
     <t xml:space="preserve">2.73110127449036</t>
@@ -104,70 +104,70 @@
     <t xml:space="preserve">2.72563934326172</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69696259498596</t>
+    <t xml:space="preserve">2.69696283340454</t>
   </si>
   <si>
     <t xml:space="preserve">2.72290802001953</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62868499755859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45935678482056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45799112319946</t>
+    <t xml:space="preserve">2.62868523597717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45935702323914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45799136161804</t>
   </si>
   <si>
     <t xml:space="preserve">2.30095267295837</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38971400260925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53992438316345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50441980361938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67511367797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81713104248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7488534450531</t>
+    <t xml:space="preserve">2.38971352577209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53992462158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50442028045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67511391639709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81713128089905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74885368347168</t>
   </si>
   <si>
     <t xml:space="preserve">2.78162670135498</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68467259407043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86219429969788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8335177898407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84717297554016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8840434551239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88540816307068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89769864082336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85127019882202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94685864448547</t>
+    <t xml:space="preserve">2.68467235565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86219453811646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83351755142212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84717345237732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88404297828674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88540863990784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89769887924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85126996040344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94685840606689</t>
   </si>
   <si>
     <t xml:space="preserve">2.9495894908905</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">3.05883359909058</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12164855003357</t>
+    <t xml:space="preserve">3.12164902687073</t>
   </si>
   <si>
     <t xml:space="preserve">3.16125011444092</t>
@@ -185,34 +185,34 @@
     <t xml:space="preserve">3.18173265457153</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20767879486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1790018081665</t>
+    <t xml:space="preserve">3.20767855644226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17900204658508</t>
   </si>
   <si>
     <t xml:space="preserve">3.17217397689819</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23635506629944</t>
+    <t xml:space="preserve">3.23635482788086</t>
   </si>
   <si>
     <t xml:space="preserve">3.25001072883606</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21040987968445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2226996421814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23089289665222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22952771186829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14076662063599</t>
+    <t xml:space="preserve">3.21040964126587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22269940376282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2308931350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22952747344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14076638221741</t>
   </si>
   <si>
     <t xml:space="preserve">3.14895987510681</t>
@@ -224,19 +224,19 @@
     <t xml:space="preserve">3.29234266281128</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21587204933167</t>
+    <t xml:space="preserve">3.21587181091309</t>
   </si>
   <si>
     <t xml:space="preserve">3.30463290214539</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27732181549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34559893608093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36608266830444</t>
+    <t xml:space="preserve">3.27732157707214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34559917449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36608242988586</t>
   </si>
   <si>
     <t xml:space="preserve">3.40704846382141</t>
@@ -245,34 +245,34 @@
     <t xml:space="preserve">3.38656544685364</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33330917358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34833025932312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32511591911316</t>
+    <t xml:space="preserve">3.33330941200256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34833002090454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32511568069458</t>
   </si>
   <si>
     <t xml:space="preserve">3.32375025749207</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29780459403992</t>
+    <t xml:space="preserve">3.2978048324585</t>
   </si>
   <si>
     <t xml:space="preserve">3.26366639137268</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29097747802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26022267341614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19182658195496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1562032699585</t>
+    <t xml:space="preserve">3.29097676277161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2602231502533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19182634353638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15620279312134</t>
   </si>
   <si>
     <t xml:space="preserve">3.1348295211792</t>
@@ -281,37 +281,37 @@
     <t xml:space="preserve">3.17330241203308</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09208178520203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14907908439636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32291913032532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34856772422791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3343186378479</t>
+    <t xml:space="preserve">3.09208226203918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14907836914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3229193687439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34856820106506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33431839942932</t>
   </si>
   <si>
     <t xml:space="preserve">3.31151986122131</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38419103622437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44403791427612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4198145866394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43406343460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48108601570129</t>
+    <t xml:space="preserve">3.38419055938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44403767585754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41981387138367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43406319618225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48108625411987</t>
   </si>
   <si>
     <t xml:space="preserve">3.47681093215942</t>
@@ -320,25 +320,25 @@
     <t xml:space="preserve">3.43833827972412</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45116209983826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40841436386108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39844059944153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34714317321777</t>
+    <t xml:space="preserve">3.45116233825684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40841484069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39844036102295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34714293479919</t>
   </si>
   <si>
     <t xml:space="preserve">3.20607542991638</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02796030044556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94246530532837</t>
+    <t xml:space="preserve">3.02796053886414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94246506690979</t>
   </si>
   <si>
     <t xml:space="preserve">2.8997175693512</t>
@@ -350,58 +350,58 @@
     <t xml:space="preserve">3.06643319129944</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08495688438416</t>
+    <t xml:space="preserve">3.08495736122131</t>
   </si>
   <si>
     <t xml:space="preserve">3.13197994232178</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14195370674133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02938532829285</t>
+    <t xml:space="preserve">3.14195394515991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02938508987427</t>
   </si>
   <si>
     <t xml:space="preserve">2.84984517097473</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95671439170837</t>
+    <t xml:space="preserve">2.95671463012695</t>
   </si>
   <si>
     <t xml:space="preserve">3.06500840187073</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16332793235779</t>
+    <t xml:space="preserve">3.16332769393921</t>
   </si>
   <si>
     <t xml:space="preserve">2.96526384353638</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9552891254425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99233722686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12058043479919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17045187950134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23599886894226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17757678031921</t>
+    <t xml:space="preserve">2.95528936386108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9923369884491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12058019638062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1704523563385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23599910736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17757749557495</t>
   </si>
   <si>
     <t xml:space="preserve">3.13625454902649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83702087402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91966605186462</t>
+    <t xml:space="preserve">2.83702063560486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9196662902832</t>
   </si>
   <si>
     <t xml:space="preserve">2.86551904678345</t>
@@ -410,28 +410,28 @@
     <t xml:space="preserve">2.90399217605591</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84129571914673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87549352645874</t>
+    <t xml:space="preserve">2.84129548072815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87549328804016</t>
   </si>
   <si>
     <t xml:space="preserve">2.83559584617615</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79854822158813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73442625999451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7771737575531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88546800613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87406873703003</t>
+    <t xml:space="preserve">2.79854774475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73442649841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77717399597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88546824455261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87406849861145</t>
   </si>
   <si>
     <t xml:space="preserve">2.84272050857544</t>
@@ -443,7 +443,7 @@
     <t xml:space="preserve">2.92821574211121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92109107971191</t>
+    <t xml:space="preserve">2.92109131813049</t>
   </si>
   <si>
     <t xml:space="preserve">2.9410400390625</t>
@@ -452,43 +452,43 @@
     <t xml:space="preserve">2.86694431304932</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85839509963989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86409425735474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81707215309143</t>
+    <t xml:space="preserve">2.85839462280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86409401893616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81707191467285</t>
   </si>
   <si>
     <t xml:space="preserve">2.76007509231567</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80567240715027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77289938926697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75865006446838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77859902381897</t>
+    <t xml:space="preserve">2.80567264556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77289891242981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75864958763123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77859878540039</t>
   </si>
   <si>
     <t xml:space="preserve">2.68597912788391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62470769882202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59478402137756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5477614402771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58480954170227</t>
+    <t xml:space="preserve">2.62470722198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59478378295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54776120185852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58480930328369</t>
   </si>
   <si>
     <t xml:space="preserve">2.65605568885803</t>
@@ -500,22 +500,22 @@
     <t xml:space="preserve">2.63610672950745</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60333323478699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57198476791382</t>
+    <t xml:space="preserve">2.60333347320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5719850063324</t>
   </si>
   <si>
     <t xml:space="preserve">2.45086693763733</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44516682624817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42379331588745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44374227523804</t>
+    <t xml:space="preserve">2.44516706466675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42379307746887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44374203681946</t>
   </si>
   <si>
     <t xml:space="preserve">2.41666865348816</t>
@@ -530,25 +530,25 @@
     <t xml:space="preserve">2.61045813560486</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54918670654297</t>
+    <t xml:space="preserve">2.54918622970581</t>
   </si>
   <si>
     <t xml:space="preserve">2.57910966873169</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55061149597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52353811264038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57340979576111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64465618133545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6931037902832</t>
+    <t xml:space="preserve">2.5506112575531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5235378742218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57341027259827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64465594291687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69310355186462</t>
   </si>
   <si>
     <t xml:space="preserve">2.64038157463074</t>
@@ -557,7 +557,7 @@
     <t xml:space="preserve">2.63895654678345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62898182868958</t>
+    <t xml:space="preserve">2.62898206710815</t>
   </si>
   <si>
     <t xml:space="preserve">2.63325691223145</t>
@@ -569,7 +569,7 @@
     <t xml:space="preserve">2.74867558479309</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73727607727051</t>
+    <t xml:space="preserve">2.73727631568909</t>
   </si>
   <si>
     <t xml:space="preserve">2.67315483093262</t>
@@ -578,7 +578,7 @@
     <t xml:space="preserve">2.70307803153992</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7144775390625</t>
+    <t xml:space="preserve">2.71447730064392</t>
   </si>
   <si>
     <t xml:space="preserve">2.70735287666321</t>
@@ -593,7 +593,7 @@
     <t xml:space="preserve">2.63753151893616</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65748071670532</t>
+    <t xml:space="preserve">2.65748023986816</t>
   </si>
   <si>
     <t xml:space="preserve">2.56486058235168</t>
@@ -602,7 +602,7 @@
     <t xml:space="preserve">2.52211284637451</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51498818397522</t>
+    <t xml:space="preserve">2.5149884223938</t>
   </si>
   <si>
     <t xml:space="preserve">2.41524386405945</t>
@@ -611,34 +611,34 @@
     <t xml:space="preserve">2.43234276771545</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43661761283875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39387011528015</t>
+    <t xml:space="preserve">2.43661737442017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39386963844299</t>
   </si>
   <si>
     <t xml:space="preserve">2.39244508743286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45799136161804</t>
+    <t xml:space="preserve">2.45799160003662</t>
   </si>
   <si>
     <t xml:space="preserve">2.3511221408844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42236852645874</t>
+    <t xml:space="preserve">2.42236828804016</t>
   </si>
   <si>
     <t xml:space="preserve">2.53066253662109</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5776846408844</t>
+    <t xml:space="preserve">2.57768487930298</t>
   </si>
   <si>
     <t xml:space="preserve">2.58908414840698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63468194007874</t>
+    <t xml:space="preserve">2.63468146324158</t>
   </si>
   <si>
     <t xml:space="preserve">2.6959536075592</t>
@@ -647,16 +647,16 @@
     <t xml:space="preserve">2.68027949333191</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69167876243591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69737863540649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74012613296509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74297595024109</t>
+    <t xml:space="preserve">2.69167900085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69737839698792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74012589454651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74297571182251</t>
   </si>
   <si>
     <t xml:space="preserve">2.72445178031921</t>
@@ -674,10 +674,10 @@
     <t xml:space="preserve">2.75152540206909</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7558000087738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71162796020508</t>
+    <t xml:space="preserve">2.75580048561096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71162748336792</t>
   </si>
   <si>
     <t xml:space="preserve">2.69025373458862</t>
@@ -686,16 +686,16 @@
     <t xml:space="preserve">2.65035605430603</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60760831832886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5833842754364</t>
+    <t xml:space="preserve">2.60760807991028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58338451385498</t>
   </si>
   <si>
     <t xml:space="preserve">2.55346131324768</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5206880569458</t>
+    <t xml:space="preserve">2.52068829536438</t>
   </si>
   <si>
     <t xml:space="preserve">2.60618329048157</t>
@@ -710,10 +710,10 @@
     <t xml:space="preserve">2.54063701629639</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50501370429993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49788928031921</t>
+    <t xml:space="preserve">2.50501394271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49788904190063</t>
   </si>
   <si>
     <t xml:space="preserve">2.50643849372864</t>
@@ -734,97 +734,97 @@
     <t xml:space="preserve">2.58195948600769</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55916118621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58623433113098</t>
+    <t xml:space="preserve">2.55916047096252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58623456954956</t>
   </si>
   <si>
     <t xml:space="preserve">2.53636193275452</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48506474494934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54348683357239</t>
+    <t xml:space="preserve">2.48506498336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54348659515381</t>
   </si>
   <si>
     <t xml:space="preserve">2.68740391731262</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69452857971191</t>
+    <t xml:space="preserve">2.69452834129333</t>
   </si>
   <si>
     <t xml:space="preserve">2.75722503662109</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77147459983826</t>
+    <t xml:space="preserve">2.77147436141968</t>
   </si>
   <si>
     <t xml:space="preserve">2.79712319374084</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78857350349426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79997301101685</t>
+    <t xml:space="preserve">2.78857326507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79997277259827</t>
   </si>
   <si>
     <t xml:space="preserve">2.83132100105286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90541696548462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03508472442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06215786933899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15477824211121</t>
+    <t xml:space="preserve">2.9054172039032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03508520126343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06215858459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15477848052979</t>
   </si>
   <si>
     <t xml:space="preserve">3.29727077484131</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25737261772156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07783246040344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16760277748108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16190266609192</t>
+    <t xml:space="preserve">3.25737309455872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0778329372406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16760301589966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16190314292908</t>
   </si>
   <si>
     <t xml:space="preserve">3.16047811508179</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21890020370483</t>
+    <t xml:space="preserve">3.21889972686768</t>
   </si>
   <si>
     <t xml:space="preserve">3.22174954414368</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27589726448059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28159666061401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26877236366272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23172450065613</t>
+    <t xml:space="preserve">3.27589654922485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28159618377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26877212524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23172402381897</t>
   </si>
   <si>
     <t xml:space="preserve">3.12913012504578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19610142707825</t>
+    <t xml:space="preserve">3.19610118865967</t>
   </si>
   <si>
     <t xml:space="preserve">3.10063147544861</t>
@@ -833,109 +833,109 @@
     <t xml:space="preserve">3.19752597808838</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23884892463684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22602438926697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29157114028931</t>
+    <t xml:space="preserve">3.23884868621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22602415084839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29157090187073</t>
   </si>
   <si>
     <t xml:space="preserve">3.32576894760132</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2830216884613</t>
+    <t xml:space="preserve">3.28302145004272</t>
   </si>
   <si>
     <t xml:space="preserve">3.31864452362061</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34001851081848</t>
+    <t xml:space="preserve">3.3400182723999</t>
   </si>
   <si>
     <t xml:space="preserve">3.39559006690979</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35569262504578</t>
+    <t xml:space="preserve">3.3556923866272</t>
   </si>
   <si>
     <t xml:space="preserve">3.23457384109497</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27019762992859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08923244476318</t>
+    <t xml:space="preserve">3.27019739151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08923196792603</t>
   </si>
   <si>
     <t xml:space="preserve">3.06358337402344</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17489004135132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0970664024353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11147809028625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13886070251465</t>
+    <t xml:space="preserve">3.17488980293274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09706687927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11147856712341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13886046409607</t>
   </si>
   <si>
     <t xml:space="preserve">3.14462518692017</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11003756523132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11868405342102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07112574577332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0379786491394</t>
+    <t xml:space="preserve">3.11003732681274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1186842918396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07112598419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03797888755798</t>
   </si>
   <si>
     <t xml:space="preserve">3.04806709289551</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99762630462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00627303123474</t>
+    <t xml:space="preserve">2.99762606620789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0062735080719</t>
   </si>
   <si>
     <t xml:space="preserve">2.97744989395142</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91836214065552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87224507331848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90395069122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89098048210144</t>
+    <t xml:space="preserve">2.91836261749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8722448348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90395045280457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8909797668457</t>
   </si>
   <si>
     <t xml:space="preserve">2.87512731552124</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84918642044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92700886726379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90683317184448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86936259269714</t>
+    <t xml:space="preserve">2.84918618202209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92700862884521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9068329334259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86936235427856</t>
   </si>
   <si>
     <t xml:space="preserve">2.878009557724</t>
@@ -950,100 +950,100 @@
     <t xml:space="preserve">2.87080359458923</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8246865272522</t>
+    <t xml:space="preserve">2.82468628883362</t>
   </si>
   <si>
     <t xml:space="preserve">2.79298067092896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76415753364563</t>
+    <t xml:space="preserve">2.76415729522705</t>
   </si>
   <si>
     <t xml:space="preserve">2.81027483940125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80018663406372</t>
+    <t xml:space="preserve">2.80018615722656</t>
   </si>
   <si>
     <t xml:space="preserve">2.79153966903687</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72956943511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75262808799744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75983381271362</t>
+    <t xml:space="preserve">2.72956919670105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75262784957886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75983357429504</t>
   </si>
   <si>
     <t xml:space="preserve">2.74686360359192</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95439147949219</t>
+    <t xml:space="preserve">2.95439124107361</t>
   </si>
   <si>
     <t xml:space="preserve">2.92124462127686</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92845034599304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92556810379028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83189249038696</t>
+    <t xml:space="preserve">2.92845058441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9255678653717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83189225196838</t>
   </si>
   <si>
     <t xml:space="preserve">2.84342169761658</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80451011657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83045125007629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82612752914429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78865718841553</t>
+    <t xml:space="preserve">2.80450987815857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83045101165771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82612729072571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78865694999695</t>
   </si>
   <si>
     <t xml:space="preserve">2.80739235877991</t>
   </si>
   <si>
-    <t xml:space="preserve">2.808833360672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84053921699524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85495090484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86503934860229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87656855583191</t>
+    <t xml:space="preserve">2.80883359909058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84053897857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85495066642761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86503887176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87656831741333</t>
   </si>
   <si>
     <t xml:space="preserve">2.90827393531799</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83909821510315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73821640014648</t>
+    <t xml:space="preserve">2.83909773826599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73821616172791</t>
   </si>
   <si>
     <t xml:space="preserve">2.7555103302002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76848101615906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70218729972839</t>
+    <t xml:space="preserve">2.76848077774048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70218682289124</t>
   </si>
   <si>
     <t xml:space="preserve">2.72668719291687</t>
@@ -1052,58 +1052,58 @@
     <t xml:space="preserve">2.71371650695801</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7252459526062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68056988716125</t>
+    <t xml:space="preserve">2.72524571418762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68057012557983</t>
   </si>
   <si>
     <t xml:space="preserve">2.67480492591858</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67336416244507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65895199775696</t>
+    <t xml:space="preserve">2.67336392402649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65895223617554</t>
   </si>
   <si>
     <t xml:space="preserve">2.67624616622925</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75406932830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79442191123962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79874563217163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74542212486267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78577494621277</t>
+    <t xml:space="preserve">2.75406908988953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7944221496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79874539375305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74542236328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78577470779419</t>
   </si>
   <si>
     <t xml:space="preserve">2.92268586158752</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02500820159912</t>
+    <t xml:space="preserve">3.0250084400177</t>
   </si>
   <si>
     <t xml:space="preserve">3.02644944190979</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06968450546265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10571360588074</t>
+    <t xml:space="preserve">3.0696849822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10571384429932</t>
   </si>
   <si>
     <t xml:space="preserve">3.12156629562378</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17056608200073</t>
+    <t xml:space="preserve">3.17056632041931</t>
   </si>
   <si>
     <t xml:space="preserve">3.14174294471741</t>
@@ -1112,37 +1112,37 @@
     <t xml:space="preserve">3.13597846031189</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09850811958313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05671405792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07689046859741</t>
+    <t xml:space="preserve">3.09850788116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05671429634094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07689070701599</t>
   </si>
   <si>
     <t xml:space="preserve">3.08409667015076</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0740077495575</t>
+    <t xml:space="preserve">3.07400798797607</t>
   </si>
   <si>
     <t xml:space="preserve">3.04086112976074</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05383133888245</t>
+    <t xml:space="preserve">3.0538318157196</t>
   </si>
   <si>
     <t xml:space="preserve">3.17921328544617</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12588977813721</t>
+    <t xml:space="preserve">3.12589001655579</t>
   </si>
   <si>
     <t xml:space="preserve">3.05527281761169</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07977318763733</t>
+    <t xml:space="preserve">3.07977294921875</t>
   </si>
   <si>
     <t xml:space="preserve">3.14894843101501</t>
@@ -1151,37 +1151,37 @@
     <t xml:space="preserve">3.16191911697388</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14750742912292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0999493598938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13453674316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15903687477112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15471291542053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12877249717712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11580204963684</t>
+    <t xml:space="preserve">3.1475076675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09994912147522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13453698158264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15903663635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15471315383911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12877202033997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11580181121826</t>
   </si>
   <si>
     <t xml:space="preserve">3.10427260398865</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12012529373169</t>
+    <t xml:space="preserve">3.12012553215027</t>
   </si>
   <si>
     <t xml:space="preserve">3.05815529823303</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00483202934265</t>
+    <t xml:space="preserve">3.00483226776123</t>
   </si>
   <si>
     <t xml:space="preserve">2.9716854095459</t>
@@ -1193,19 +1193,19 @@
     <t xml:space="preserve">2.82180404663086</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8679211139679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89674472808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88233304023743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85062742233276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8290102481842</t>
+    <t xml:space="preserve">2.86792159080505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8967444896698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88233327865601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85062718391418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82900977134705</t>
   </si>
   <si>
     <t xml:space="preserve">2.82324528694153</t>
@@ -1220,10 +1220,10 @@
     <t xml:space="preserve">2.70506954193115</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71227550506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65607023239136</t>
+    <t xml:space="preserve">2.71227526664734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65606999397278</t>
   </si>
   <si>
     <t xml:space="preserve">2.69858431816101</t>
@@ -1232,25 +1232,25 @@
     <t xml:space="preserve">2.76703953742981</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78505444526672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72740769386292</t>
+    <t xml:space="preserve">2.78505420684814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72740745544434</t>
   </si>
   <si>
     <t xml:space="preserve">2.69498133659363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73461365699768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7057900428772</t>
+    <t xml:space="preserve">2.73461318016052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70579028129578</t>
   </si>
   <si>
     <t xml:space="preserve">2.7310106754303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72020173072815</t>
+    <t xml:space="preserve">2.72020196914673</t>
   </si>
   <si>
     <t xml:space="preserve">2.79226016998291</t>
@@ -1259,10 +1259,10 @@
     <t xml:space="preserve">2.84630393981934</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77424573898315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77064275741577</t>
+    <t xml:space="preserve">2.77424550056458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77064251899719</t>
   </si>
   <si>
     <t xml:space="preserve">2.70939302444458</t>
@@ -1271,28 +1271,28 @@
     <t xml:space="preserve">2.74181938171387</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71299600601196</t>
+    <t xml:space="preserve">2.71299624443054</t>
   </si>
   <si>
     <t xml:space="preserve">2.63373160362244</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62652611732483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64093732833862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65534901618958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64814329147339</t>
+    <t xml:space="preserve">2.62652587890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6409375667572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65534949302673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64814352989197</t>
   </si>
   <si>
     <t xml:space="preserve">2.58689379692078</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5724823474884</t>
+    <t xml:space="preserve">2.57248210906982</t>
   </si>
   <si>
     <t xml:space="preserve">2.57968807220459</t>
@@ -1301,7 +1301,7 @@
     <t xml:space="preserve">2.55807042121887</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56167316436768</t>
+    <t xml:space="preserve">2.56167364120483</t>
   </si>
   <si>
     <t xml:space="preserve">2.55086469650269</t>
@@ -1310,10 +1310,10 @@
     <t xml:space="preserve">2.56887936592102</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43557167053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37432169914246</t>
+    <t xml:space="preserve">2.43557143211365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37432193756104</t>
   </si>
   <si>
     <t xml:space="preserve">2.30946922302246</t>
@@ -1328,25 +1328,25 @@
     <t xml:space="preserve">2.41395378112793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36351323127747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3599100112915</t>
+    <t xml:space="preserve">2.36351275444031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35991024971008</t>
   </si>
   <si>
     <t xml:space="preserve">2.29505753517151</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44998335838318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35270428657532</t>
+    <t xml:space="preserve">2.4499831199646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3527045249939</t>
   </si>
   <si>
     <t xml:space="preserve">2.52204155921936</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42836546897888</t>
+    <t xml:space="preserve">2.4283652305603</t>
   </si>
   <si>
     <t xml:space="preserve">2.44638013839722</t>
@@ -1355,19 +1355,19 @@
     <t xml:space="preserve">2.4211597442627</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50762987136841</t>
+    <t xml:space="preserve">2.50762963294983</t>
   </si>
   <si>
     <t xml:space="preserve">2.59409976005554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56527638435364</t>
+    <t xml:space="preserve">2.56527590751648</t>
   </si>
   <si>
     <t xml:space="preserve">2.63012909889221</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65174651145935</t>
+    <t xml:space="preserve">2.65174627304077</t>
   </si>
   <si>
     <t xml:space="preserve">2.62292313575745</t>
@@ -1376,25 +1376,25 @@
     <t xml:space="preserve">2.60130524635315</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60851144790649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6373348236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68417263031006</t>
+    <t xml:space="preserve">2.60851120948792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63733458518982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68417239189148</t>
   </si>
   <si>
     <t xml:space="preserve">2.66615796089172</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69137835502625</t>
+    <t xml:space="preserve">2.69137859344482</t>
   </si>
   <si>
     <t xml:space="preserve">2.67696666717529</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73281216621399</t>
+    <t xml:space="preserve">2.73281192779541</t>
   </si>
   <si>
     <t xml:space="preserve">2.62172198295593</t>
@@ -1406,16 +1406,16 @@
     <t xml:space="preserve">2.48841404914856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40324521064758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43657207489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45879006385803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39213609695435</t>
+    <t xml:space="preserve">2.403244972229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43657183647156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45878982543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39213585853577</t>
   </si>
   <si>
     <t xml:space="preserve">2.40694832801819</t>
@@ -1424,10 +1424,10 @@
     <t xml:space="preserve">2.36991810798645</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29956126213074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21068906784058</t>
+    <t xml:space="preserve">2.29956102371216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21068930625916</t>
   </si>
   <si>
     <t xml:space="preserve">2.32548236846924</t>
@@ -1448,7 +1448,7 @@
     <t xml:space="preserve">2.46989917755127</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50322651863098</t>
+    <t xml:space="preserve">2.5032262802124</t>
   </si>
   <si>
     <t xml:space="preserve">2.52174115180969</t>
@@ -1460,7 +1460,7 @@
     <t xml:space="preserve">2.57728600502014</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52544450759888</t>
+    <t xml:space="preserve">2.52544403076172</t>
   </si>
   <si>
     <t xml:space="preserve">2.45508718490601</t>
@@ -1475,10 +1475,10 @@
     <t xml:space="preserve">2.4736020565033</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44768142700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53655290603638</t>
+    <t xml:space="preserve">2.44768118858337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53655314445496</t>
   </si>
   <si>
     <t xml:space="preserve">2.4773051738739</t>
@@ -1493,7 +1493,7 @@
     <t xml:space="preserve">2.46619606018066</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39583873748779</t>
+    <t xml:space="preserve">2.39583921432495</t>
   </si>
   <si>
     <t xml:space="preserve">2.41065120697021</t>
@@ -1502,7 +1502,7 @@
     <t xml:space="preserve">2.35140323638916</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36621499061584</t>
+    <t xml:space="preserve">2.36621522903442</t>
   </si>
   <si>
     <t xml:space="preserve">2.34399724006653</t>
@@ -1511,7 +1511,7 @@
     <t xml:space="preserve">2.35880923271179</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35510635375977</t>
+    <t xml:space="preserve">2.35510611534119</t>
   </si>
   <si>
     <t xml:space="preserve">2.3625123500824</t>
@@ -1523,19 +1523,19 @@
     <t xml:space="preserve">2.3106701374054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32177925109863</t>
+    <t xml:space="preserve">2.32177901268005</t>
   </si>
   <si>
     <t xml:space="preserve">2.39954209327698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38102746009827</t>
+    <t xml:space="preserve">2.38102698326111</t>
   </si>
   <si>
     <t xml:space="preserve">2.41435408592224</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37362122535706</t>
+    <t xml:space="preserve">2.37362098693848</t>
   </si>
   <si>
     <t xml:space="preserve">2.31807637214661</t>
@@ -1559,34 +1559,34 @@
     <t xml:space="preserve">2.27734303474426</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26623439788818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29215526580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27363991737366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28845238685608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28474950790405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38473057746887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20698642730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24031352996826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15514421463013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13292622566223</t>
+    <t xml:space="preserve">2.2662341594696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29215550422668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27364039421082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2884521484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28474926948547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38473010063171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20698618888855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24031329154968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15514445304871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13292670249939</t>
   </si>
   <si>
     <t xml:space="preserve">2.14773845672607</t>
@@ -1595,10 +1595,10 @@
     <t xml:space="preserve">2.1033022403717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09959959983826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08849024772644</t>
+    <t xml:space="preserve">2.09959936141968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08849048614502</t>
   </si>
   <si>
     <t xml:space="preserve">2.10700535774231</t>
@@ -1607,16 +1607,16 @@
     <t xml:space="preserve">2.06256937980652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98850929737091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95147967338562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02553963661194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06627225875854</t>
+    <t xml:space="preserve">1.9885094165802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95147943496704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02553915977478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06627249717712</t>
   </si>
   <si>
     <t xml:space="preserve">2.04775738716125</t>
@@ -1625,22 +1625,22 @@
     <t xml:space="preserve">2.06997537612915</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12922310829163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14403557777405</t>
+    <t xml:space="preserve">2.12922334671021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14403533935547</t>
   </si>
   <si>
     <t xml:space="preserve">2.13662934303284</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18847107887268</t>
+    <t xml:space="preserve">2.18847131729126</t>
   </si>
   <si>
     <t xml:space="preserve">2.21439218521118</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23290753364563</t>
+    <t xml:space="preserve">2.23290705680847</t>
   </si>
   <si>
     <t xml:space="preserve">2.25512528419495</t>
@@ -1655,19 +1655,19 @@
     <t xml:space="preserve">2.21809530258179</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11811423301697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07367849349976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11070847511292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24771928787231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33659100532532</t>
+    <t xml:space="preserve">2.11811399459839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0736780166626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11070823669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24771952629089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3365912437439</t>
   </si>
   <si>
     <t xml:space="preserve">2.51063227653503</t>
@@ -1676,10 +1676,10 @@
     <t xml:space="preserve">2.65504908561707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68096971511841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60320687294006</t>
+    <t xml:space="preserve">2.68096995353699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60320711135864</t>
   </si>
   <si>
     <t xml:space="preserve">2.62912797927856</t>
@@ -1691,19 +1691,19 @@
     <t xml:space="preserve">2.65134596824646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62542486190796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71800017356873</t>
+    <t xml:space="preserve">2.62542510032654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71799993515015</t>
   </si>
   <si>
     <t xml:space="preserve">2.70318794250488</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72910904884338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69207906723022</t>
+    <t xml:space="preserve">2.7291088104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69207882881165</t>
   </si>
   <si>
     <t xml:space="preserve">2.71429705619812</t>
@@ -1718,22 +1718,22 @@
     <t xml:space="preserve">2.81798100471497</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84390187263489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87352585792542</t>
+    <t xml:space="preserve">2.84390163421631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87352609634399</t>
   </si>
   <si>
     <t xml:space="preserve">2.86241674423218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88093185424805</t>
+    <t xml:space="preserve">2.88093161582947</t>
   </si>
   <si>
     <t xml:space="preserve">2.76243591308594</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76984190940857</t>
+    <t xml:space="preserve">2.76984214782715</t>
   </si>
   <si>
     <t xml:space="preserve">2.7994658946991</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">2.75873279571533</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85871386528015</t>
+    <t xml:space="preserve">2.85871362686157</t>
   </si>
   <si>
     <t xml:space="preserve">2.90314984321594</t>
@@ -1760,28 +1760,28 @@
     <t xml:space="preserve">2.89574384689331</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90685296058655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8883376121521</t>
+    <t xml:space="preserve">2.90685272216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88833785057068</t>
   </si>
   <si>
     <t xml:space="preserve">2.962397813797</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98091268539429</t>
+    <t xml:space="preserve">2.98091292381287</t>
   </si>
   <si>
     <t xml:space="preserve">2.91796183586121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94758558273315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95128846168518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93647694587708</t>
+    <t xml:space="preserve">2.94758582115173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95128870010376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9364767074585</t>
   </si>
   <si>
     <t xml:space="preserve">2.95499181747437</t>
@@ -1790,7 +1790,7 @@
     <t xml:space="preserve">2.93277382850647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91055560112</t>
+    <t xml:space="preserve">2.91055607795715</t>
   </si>
   <si>
     <t xml:space="preserve">2.96980381011963</t>
@@ -1808,25 +1808,25 @@
     <t xml:space="preserve">2.81057500839233</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8661196231842</t>
+    <t xml:space="preserve">2.86611986160278</t>
   </si>
   <si>
     <t xml:space="preserve">2.80687189102173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83279299736023</t>
+    <t xml:space="preserve">2.83279275894165</t>
   </si>
   <si>
     <t xml:space="preserve">2.85501098632812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71059417724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70689082145691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61061310768127</t>
+    <t xml:space="preserve">2.71059370040894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70689105987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61061334609985</t>
   </si>
   <si>
     <t xml:space="preserve">2.6402370929718</t>
@@ -1841,28 +1841,28 @@
     <t xml:space="preserve">2.61801910400391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69578194618225</t>
+    <t xml:space="preserve">2.69578218460083</t>
   </si>
   <si>
     <t xml:space="preserve">2.68467283248901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6883761882782</t>
+    <t xml:space="preserve">2.68837594985962</t>
   </si>
   <si>
     <t xml:space="preserve">2.6143159866333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56988024711609</t>
+    <t xml:space="preserve">2.56988000869751</t>
   </si>
   <si>
     <t xml:space="preserve">2.49211716651917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50692915916443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34770035743713</t>
+    <t xml:space="preserve">2.50692892074585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34770011901855</t>
   </si>
   <si>
     <t xml:space="preserve">2.23661041259766</t>
@@ -1871,16 +1871,16 @@
     <t xml:space="preserve">2.18476819992065</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19587731361389</t>
+    <t xml:space="preserve">2.19587707519531</t>
   </si>
   <si>
     <t xml:space="preserve">2.299480676651</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2177734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10883021354675</t>
+    <t xml:space="preserve">2.21777319908142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10882997512817</t>
   </si>
   <si>
     <t xml:space="preserve">2.12439346313477</t>
@@ -1898,10 +1898,10 @@
     <t xml:space="preserve">2.09326696395874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12050271034241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13995695114136</t>
+    <t xml:space="preserve">2.12050247192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13995671272278</t>
   </si>
   <si>
     <t xml:space="preserve">2.12828421592712</t>
@@ -1910,88 +1910,88 @@
     <t xml:space="preserve">2.07770347595215</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05046796798706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04657697677612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03490447998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05435872077942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03101348876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02323174476624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05824947357178</t>
+    <t xml:space="preserve">2.0504674911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04657673835754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03490424156189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05435848236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03101325035095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02323198318481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0582492351532</t>
   </si>
   <si>
     <t xml:space="preserve">2.04268598556519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22944569587708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1866466999054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96876037120819</t>
+    <t xml:space="preserve">2.22944593429565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18664646148682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96876001358032</t>
   </si>
   <si>
     <t xml:space="preserve">2.00377774238586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.929851770401</t>
+    <t xml:space="preserve">1.92985200881958</t>
   </si>
   <si>
     <t xml:space="preserve">2.02712249755859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94152414798737</t>
+    <t xml:space="preserve">1.94152438640594</t>
   </si>
   <si>
     <t xml:space="preserve">1.84425354003906</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79367303848267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76643693447113</t>
+    <t xml:space="preserve">1.79367291927338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76643681526184</t>
   </si>
   <si>
     <t xml:space="preserve">1.8092360496521</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7508739233017</t>
+    <t xml:space="preserve">1.75087368488312</t>
   </si>
   <si>
     <t xml:space="preserve">1.74698269367218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69251132011414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78978180885315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82090866565704</t>
+    <t xml:space="preserve">1.69251108169556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78978192806244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82090842723846</t>
   </si>
   <si>
     <t xml:space="preserve">1.73920106887817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74309206008911</t>
+    <t xml:space="preserve">1.74309194087982</t>
   </si>
   <si>
     <t xml:space="preserve">1.69640207290649</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71196556091309</t>
+    <t xml:space="preserve">1.71196532249451</t>
   </si>
   <si>
     <t xml:space="preserve">1.7197470664978</t>
@@ -2006,13 +2006,13 @@
     <t xml:space="preserve">1.73141944408417</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71585631370544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7353104352951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78200042247772</t>
+    <t xml:space="preserve">1.71585607528687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73531031608582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78200030326843</t>
   </si>
   <si>
     <t xml:space="preserve">1.8325811624527</t>
@@ -2021,61 +2021,61 @@
     <t xml:space="preserve">1.80145454406738</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84036290645599</t>
+    <t xml:space="preserve">1.8403627872467</t>
   </si>
   <si>
     <t xml:space="preserve">1.85592615604401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83647203445435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87927114963531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79756367206573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77032792568207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82869029045105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75476479530334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75865542888641</t>
+    <t xml:space="preserve">1.83647191524506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87927103042603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79756355285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77032780647278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82869017124176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75476455688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75865530967712</t>
   </si>
   <si>
     <t xml:space="preserve">1.76254630088806</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80534517765045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81701791286469</t>
+    <t xml:space="preserve">1.80534529685974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81701767444611</t>
   </si>
   <si>
     <t xml:space="preserve">1.82479953765869</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91428864002228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93374252319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89094376564026</t>
+    <t xml:space="preserve">1.91428852081299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93374264240265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89094364643097</t>
   </si>
   <si>
     <t xml:space="preserve">1.87538027763367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90650701522827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89483439922333</t>
+    <t xml:space="preserve">1.90650689601898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89483428001404</t>
   </si>
   <si>
     <t xml:space="preserve">1.85981702804565</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">1.92207038402557</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01155924797058</t>
+    <t xml:space="preserve">2.01155948638916</t>
   </si>
   <si>
     <t xml:space="preserve">2.16719269752502</t>
@@ -2099,7 +2099,7 @@
     <t xml:space="preserve">2.06214022636414</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13217520713806</t>
+    <t xml:space="preserve">2.13217496871948</t>
   </si>
   <si>
     <t xml:space="preserve">2.2099916934967</t>
@@ -2108,13 +2108,13 @@
     <t xml:space="preserve">2.19053769111633</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15551972389221</t>
+    <t xml:space="preserve">2.15551996231079</t>
   </si>
   <si>
     <t xml:space="preserve">2.19831919670105</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1710832118988</t>
+    <t xml:space="preserve">2.17108345031738</t>
   </si>
   <si>
     <t xml:space="preserve">2.14384770393372</t>
@@ -2123,58 +2123,58 @@
     <t xml:space="preserve">2.11272072792053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08548498153687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01545000076294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98821449279785</t>
+    <t xml:space="preserve">2.08548521995544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01545023918152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98821437358856</t>
   </si>
   <si>
     <t xml:space="preserve">2.15941095352173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.136066198349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01934099197388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87148940563202</t>
+    <t xml:space="preserve">2.13606572151184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01934123039246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87148928642273</t>
   </si>
   <si>
     <t xml:space="preserve">1.91039764881134</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92596113681793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89872539043427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9531968832016</t>
+    <t xml:space="preserve">1.92596101760864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89872527122498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95319676399231</t>
   </si>
   <si>
     <t xml:space="preserve">1.99988687038422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95708787441254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96486961841583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99210524559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72752857208252</t>
+    <t xml:space="preserve">1.95708763599396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96486926078796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99210512638092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72752869129181</t>
   </si>
   <si>
     <t xml:space="preserve">1.68862056732178</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62636709213257</t>
+    <t xml:space="preserve">1.62636697292328</t>
   </si>
   <si>
     <t xml:space="preserve">1.59524047374725</t>
@@ -2186,31 +2186,31 @@
     <t xml:space="preserve">1.48941004276276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45361435413361</t>
+    <t xml:space="preserve">1.45361423492432</t>
   </si>
   <si>
     <t xml:space="preserve">1.33844578266144</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30420637130737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27619230747223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09098875522614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16102385520935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08009457588196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05986213684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08476364612579</t>
+    <t xml:space="preserve">1.30420649051666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27619242668152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09098887443542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16102373600006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08009445667267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05986225605011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0847635269165</t>
   </si>
   <si>
     <t xml:space="preserve">1.10188317298889</t>
@@ -2228,7 +2228,7 @@
     <t xml:space="preserve">1.35400903224945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26685428619385</t>
+    <t xml:space="preserve">1.26685440540314</t>
   </si>
   <si>
     <t xml:space="preserve">1.27152335643768</t>
@@ -2237,7 +2237,7 @@
     <t xml:space="preserve">1.32288241386414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28864300251007</t>
+    <t xml:space="preserve">1.28864312171936</t>
   </si>
   <si>
     <t xml:space="preserve">1.28397405147552</t>
@@ -2255,10 +2255,10 @@
     <t xml:space="preserve">1.26062905788422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29642474651337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29798114299774</t>
+    <t xml:space="preserve">1.29642462730408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29798102378845</t>
   </si>
   <si>
     <t xml:space="preserve">1.33688938617706</t>
@@ -2267,16 +2267,16 @@
     <t xml:space="preserve">1.29953730106354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31354439258575</t>
+    <t xml:space="preserve">1.31354415416718</t>
   </si>
   <si>
     <t xml:space="preserve">1.29175567626953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28241777420044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22950255870819</t>
+    <t xml:space="preserve">1.28241765499115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2295024394989</t>
   </si>
   <si>
     <t xml:space="preserve">1.23884046077728</t>
@@ -2288,13 +2288,13 @@
     <t xml:space="preserve">1.20927011966705</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17503082752228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13300967216492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10343945026398</t>
+    <t xml:space="preserve">1.17503070831299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1330099105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10343956947327</t>
   </si>
   <si>
     <t xml:space="preserve">1.10499584674835</t>
@@ -2312,7 +2312,7 @@
     <t xml:space="preserve">1.12211561203003</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10655224323273</t>
+    <t xml:space="preserve">1.10655212402344</t>
   </si>
   <si>
     <t xml:space="preserve">1.14234793186188</t>
@@ -2321,10 +2321,10 @@
     <t xml:space="preserve">1.15012955665588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13923513889313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1983757019043</t>
+    <t xml:space="preserve">1.13923525810242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19837582111359</t>
   </si>
   <si>
     <t xml:space="preserve">1.2450658082962</t>
@@ -2336,40 +2336,40 @@
     <t xml:space="preserve">1.2217208147049</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28708672523499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27930498123169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17969989776611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16413640975952</t>
+    <t xml:space="preserve">1.28708684444427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27930510044098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17969977855682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1641366481781</t>
   </si>
   <si>
     <t xml:space="preserve">1.23572778701782</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2061573266983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20771396160126</t>
+    <t xml:space="preserve">1.20615744590759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20771384239197</t>
   </si>
   <si>
     <t xml:space="preserve">1.18748152256012</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21082639694214</t>
+    <t xml:space="preserve">1.21082651615143</t>
   </si>
   <si>
     <t xml:space="preserve">1.17814350128174</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18592512607574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13612258434296</t>
+    <t xml:space="preserve">1.18592524528503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13612246513367</t>
   </si>
   <si>
     <t xml:space="preserve">1.1579110622406</t>
@@ -2378,7 +2378,7 @@
     <t xml:space="preserve">1.14079141616821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18436872959137</t>
+    <t xml:space="preserve">1.18436884880066</t>
   </si>
   <si>
     <t xml:space="preserve">1.17036175727844</t>
@@ -2396,34 +2396,34 @@
     <t xml:space="preserve">1.15168583393097</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17191815376282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1656928062439</t>
+    <t xml:space="preserve">1.17191827297211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16569268703461</t>
   </si>
   <si>
     <t xml:space="preserve">1.1563549041748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12522804737091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09565782546997</t>
+    <t xml:space="preserve">1.12522828578949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09565794467926</t>
   </si>
   <si>
     <t xml:space="preserve">1.08165085315704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06608760356903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08320724964142</t>
+    <t xml:space="preserve">1.06608748435974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08320713043213</t>
   </si>
   <si>
     <t xml:space="preserve">1.06297492980957</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04896795749664</t>
+    <t xml:space="preserve">1.04896783828735</t>
   </si>
   <si>
     <t xml:space="preserve">1.09410154819489</t>
@@ -2432,7 +2432,7 @@
     <t xml:space="preserve">1.07075667381287</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09721422195435</t>
+    <t xml:space="preserve">1.09721410274506</t>
   </si>
   <si>
     <t xml:space="preserve">1.0614185333252</t>
@@ -2441,16 +2441,16 @@
     <t xml:space="preserve">1.05052423477173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04585528373718</t>
+    <t xml:space="preserve">1.04585516452789</t>
   </si>
   <si>
     <t xml:space="preserve">1.03962993621826</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04118633270264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03340458869934</t>
+    <t xml:space="preserve">1.04118621349335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03340470790863</t>
   </si>
   <si>
     <t xml:space="preserve">1.03496086597443</t>
@@ -2462,13 +2462,13 @@
     <t xml:space="preserve">1.02251029014587</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996052622795105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01628494262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00850331783295</t>
+    <t xml:space="preserve">0.99605256319046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01628506183624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00850343704224</t>
   </si>
   <si>
     <t xml:space="preserve">1.01005959510803</t>
@@ -2477,103 +2477,103 @@
     <t xml:space="preserve">1.00072157382965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991383612155914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96648234128952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9649258852005</t>
+    <t xml:space="preserve">0.991383731365204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.966482281684875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96492600440979</t>
   </si>
   <si>
     <t xml:space="preserve">0.958700597286224</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954031646251678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975820302963257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.989827334880829</t>
+    <t xml:space="preserve">0.954031586647034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975820243358612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.989827156066895</t>
   </si>
   <si>
     <t xml:space="preserve">0.969595015048981</t>
   </si>
   <si>
-    <t xml:space="preserve">0.949362695217133</t>
+    <t xml:space="preserve">0.949362635612488</t>
   </si>
   <si>
     <t xml:space="preserve">0.968038558959961</t>
   </si>
   <si>
-    <t xml:space="preserve">0.957144320011139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980489253997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999165236949921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06453132629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05830597877502</t>
+    <t xml:space="preserve">0.957144260406494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980489134788513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99916535615921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06453120708466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05830585956573</t>
   </si>
   <si>
     <t xml:space="preserve">1.02406656742096</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988270998001099</t>
+    <t xml:space="preserve">0.988270938396454</t>
   </si>
   <si>
     <t xml:space="preserve">0.985158324241638</t>
   </si>
   <si>
-    <t xml:space="preserve">0.941581070423126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93379932641983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.904228985309601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879327714443207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887109398841858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.888665556907654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891778409481049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.835750341415405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.803067326545715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.787504076957703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.829524993896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.831081390380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.840419352054596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826412498950958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817074358463287</t>
+    <t xml:space="preserve">0.941580951213837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933799266815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.904228925704956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879327654838562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887109279632568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.888665616512299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891778349876404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83575040102005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.80306738615036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.787504136562347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.829525113105774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.831081330776215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.840419471263885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826412379741669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817074418067932</t>
   </si>
   <si>
     <t xml:space="preserve">0.866877019405365</t>
@@ -2582,43 +2582,43 @@
     <t xml:space="preserve">0.89644730091095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.902672588825226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915123283863068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940024495124817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977376699447632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.963369727134705</t>
+    <t xml:space="preserve">0.902672648429871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915123343467712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940024614334106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977376639842987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96336966753006</t>
   </si>
   <si>
     <t xml:space="preserve">0.983601987361908</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978932917118073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.929130375385284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961813151836395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.946249902248383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.943137288093567</t>
+    <t xml:space="preserve">0.978933036327362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92913031578064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961813271045685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.946249961853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.943137347698212</t>
   </si>
   <si>
     <t xml:space="preserve">0.930686712265015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.952475190162659</t>
+    <t xml:space="preserve">0.952475368976593</t>
   </si>
   <si>
     <t xml:space="preserve">0.927573978900909</t>
@@ -2627,13 +2627,13 @@
     <t xml:space="preserve">0.926017701625824</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935355663299561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971151411533356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947806358337402</t>
+    <t xml:space="preserve">0.935355722904205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971151351928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947806477546692</t>
   </si>
   <si>
     <t xml:space="preserve">0.919792354106903</t>
@@ -2645,22 +2645,22 @@
     <t xml:space="preserve">0.907341718673706</t>
   </si>
   <si>
-    <t xml:space="preserve">0.916679680347443</t>
+    <t xml:space="preserve">0.916679620742798</t>
   </si>
   <si>
     <t xml:space="preserve">0.8995600938797</t>
   </si>
   <si>
-    <t xml:space="preserve">0.918236017227173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.908897936344147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.894890904426575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910454332828522</t>
+    <t xml:space="preserve">0.918235957622528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.908897995948792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.894890964031219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.910454213619232</t>
   </si>
   <si>
     <t xml:space="preserve">0.944693624973297</t>
@@ -2675,7 +2675,7 @@
     <t xml:space="preserve">1.13767886161804</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15946745872498</t>
+    <t xml:space="preserve">1.15946757793427</t>
   </si>
   <si>
     <t xml:space="preserve">1.12989723682404</t>
@@ -2693,7 +2693,7 @@
     <t xml:space="preserve">1.12834084033966</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12055909633636</t>
+    <t xml:space="preserve">1.12055921554565</t>
   </si>
   <si>
     <t xml:space="preserve">1.11744654178619</t>
@@ -2702,19 +2702,19 @@
     <t xml:space="preserve">1.15479850769043</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31198799610138</t>
+    <t xml:space="preserve">1.31198811531067</t>
   </si>
   <si>
     <t xml:space="preserve">1.25907278060913</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24662220478058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2528475522995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25440359115601</t>
+    <t xml:space="preserve">1.24662208557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25284743309021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2544037103653</t>
   </si>
   <si>
     <t xml:space="preserve">1.22638976573944</t>
@@ -2732,13 +2732,13 @@
     <t xml:space="preserve">1.26841068267822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27307975292206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36023437976837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38513565063477</t>
+    <t xml:space="preserve">1.27307987213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36023426055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38513553142548</t>
   </si>
   <si>
     <t xml:space="preserve">1.40069901943207</t>
@@ -2750,7 +2750,7 @@
     <t xml:space="preserve">1.37112867832184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39914262294769</t>
+    <t xml:space="preserve">1.3991425037384</t>
   </si>
   <si>
     <t xml:space="preserve">1.39447367191315</t>
@@ -2765,7 +2765,7 @@
     <t xml:space="preserve">1.39136099815369</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40536797046661</t>
+    <t xml:space="preserve">1.4053680896759</t>
   </si>
   <si>
     <t xml:space="preserve">1.4380509853363</t>
@@ -2777,7 +2777,7 @@
     <t xml:space="preserve">1.57189548015594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56022298336029</t>
+    <t xml:space="preserve">1.56022322177887</t>
   </si>
   <si>
     <t xml:space="preserve">1.58745884895325</t>
@@ -2786,13 +2786,13 @@
     <t xml:space="preserve">1.53765606880188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51431131362915</t>
+    <t xml:space="preserve">1.51431119441986</t>
   </si>
   <si>
     <t xml:space="preserve">1.50341689586639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50497317314148</t>
+    <t xml:space="preserve">1.50497329235077</t>
   </si>
   <si>
     <t xml:space="preserve">1.49096620082855</t>
@@ -4188,6 +4188,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.08999991416931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09500002861023</t>
   </si>
 </sst>
 </file>
@@ -60273,13 +60276,13 @@
     </row>
     <row r="2145">
       <c r="A2145" s="1" t="n">
-        <v>45448.6495949074</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B2145" t="n">
         <v>169228</v>
       </c>
       <c r="C2145" t="n">
-        <v>2.08500003814697</v>
+        <v>2.08999991416931</v>
       </c>
       <c r="D2145" t="n">
         <v>2.04999995231628</v>
@@ -60294,6 +60297,32 @@
         <v>1391</v>
       </c>
       <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45449.649525463</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>254910</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>2.09999990463257</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>2.06500005722046</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>2.09999990463257</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>2.09500002861023</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H2146" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CAI.MI.xlsx
+++ b/data/CAI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="1395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="1396">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07385468482971</t>
+    <t xml:space="preserve">3.07385420799255</t>
   </si>
   <si>
     <t xml:space="preserve">CAI.MI</t>
@@ -47,52 +47,52 @@
     <t xml:space="preserve">3.08614468574524</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01786708831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97690057754517</t>
+    <t xml:space="preserve">3.01786684989929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97690010070801</t>
   </si>
   <si>
     <t xml:space="preserve">2.98099732398987</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88131165504456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94003105163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80620670318604</t>
+    <t xml:space="preserve">2.88131189346313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94003057479858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80620718002319</t>
   </si>
   <si>
     <t xml:space="preserve">2.86082863807678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75841212272644</t>
+    <t xml:space="preserve">2.75841236114502</t>
   </si>
   <si>
     <t xml:space="preserve">2.73929476737976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69013500213623</t>
+    <t xml:space="preserve">2.69013476371765</t>
   </si>
   <si>
     <t xml:space="preserve">2.71744585037231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.866290807724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76387476921082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74475693702698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75704717636108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71061825752258</t>
+    <t xml:space="preserve">2.86629104614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76387453079224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7447566986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75704741477966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71061849594116</t>
   </si>
   <si>
     <t xml:space="preserve">2.73110151290894</t>
@@ -101,805 +101,808 @@
     <t xml:space="preserve">2.76114368438721</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72563934326172</t>
+    <t xml:space="preserve">2.72563910484314</t>
   </si>
   <si>
     <t xml:space="preserve">2.69696283340454</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72290825843811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62868499755859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45935678482056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45799136161804</t>
+    <t xml:space="preserve">2.72290802001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62868523597717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45935702323914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45799112319946</t>
   </si>
   <si>
     <t xml:space="preserve">2.30095291137695</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38971376419067</t>
+    <t xml:space="preserve">2.38971400260925</t>
   </si>
   <si>
     <t xml:space="preserve">2.53992438316345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50441980361938</t>
+    <t xml:space="preserve">2.50442004203796</t>
   </si>
   <si>
     <t xml:space="preserve">2.67511391639709</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81713128089905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74885368347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78162693977356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68467259407043</t>
+    <t xml:space="preserve">2.81713080406189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7488534450531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78162670135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68467283248901</t>
   </si>
   <si>
     <t xml:space="preserve">2.8621940612793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8335177898407</t>
+    <t xml:space="preserve">2.83351755142212</t>
   </si>
   <si>
     <t xml:space="preserve">2.84717345237732</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88404273986816</t>
+    <t xml:space="preserve">2.8840434551239</t>
   </si>
   <si>
     <t xml:space="preserve">2.88540863990784</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89769864082336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85126996040344</t>
+    <t xml:space="preserve">2.89769840240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85127019882202</t>
   </si>
   <si>
     <t xml:space="preserve">2.94685840606689</t>
   </si>
   <si>
+    <t xml:space="preserve">2.94958972930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05883359909058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12164902687073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16125011444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18173313140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20767879486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17900252342224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17217397689819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23635482788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25001120567322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21040964126587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22269940376282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2308931350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22952771186829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14076662063599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14895987510681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.225430727005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29234313964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21587181091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30463290214539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2773220539093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34559941291809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36608242988586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40704870223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38656568527222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33330941200256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34833002090454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32511615753174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32375073432922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29780507087708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26366639137268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29097747802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26022267341614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19182658195496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15620374679565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13482975959778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17330288887024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09208202362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1490786075592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32291913032532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34856748580933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3343186378479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31151986122131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38419103622437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44403839111328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41981434822083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43406367301941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48108553886414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.476811170578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43833804130554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45116209983826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40841484069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39843964576721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34714317321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20607590675354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02796030044556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94246482849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89971733093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89686751365662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06643319129944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08495712280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13197946548462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14195394515991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02938532829285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84984517097473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95671391487122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06500816345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16332817077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96526408195496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95528888702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99233722686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12058067321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1704523563385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23599886894226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17757749557495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13625431060791</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.9495894908905</t>
   </si>
   <si>
-    <t xml:space="preserve">3.058833360672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12164902687073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16124963760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18173289299011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2076780796051</t>
+    <t xml:space="preserve">2.83702111244202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9196662902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86551904678345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90399217605591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84129548072815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87549376487732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83559584617615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79854798316956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73442602157593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7771737575531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88546848297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87406873703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84272050857544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87834334373474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92821621894836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92109107971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9410400390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86694431304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85839462280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86409425735474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81707191467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76007485389709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80567216873169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77289891242981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75865006446838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77859926223755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68597865104675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62470746040344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59478402137756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54776167869568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58480930328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65605545043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6546311378479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63610672950745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60333347320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5719850063324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45086669921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44516682624817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42379283905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44374251365662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41666841506958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45941615104675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61900782585144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61045813560486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54918646812439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57910990715027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5506112575531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5235378742218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57341003417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64465618133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6931037902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64038133621216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63895630836487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62898230552673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63325691223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67172980308533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74867582321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73727583885193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67315459251404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70307803153992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7144775390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70735263824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65178060531616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66887950897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63753151893616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65748071670532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56486034393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52211308479309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51498794555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41524362564087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43234276771545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43661761283875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39386987686157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39244508743286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35112190246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42236852645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53066277503967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57768487930298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58908438682556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63468194007874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69595336914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68027949333191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69167876243591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69737839698792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74012637138367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74297595024109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72445154190063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72302722930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72872638702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76434969902039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75152540206909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75580024719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71162748336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69025349617004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65035581588745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60760807991028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5833842754364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55346131324768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52068781852722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60618329048157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56058597564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54491138458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54063701629639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50501370429993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49788904190063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50643849372864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53351211547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57626008987427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60048365592957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59193420410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58195972442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55916094779968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58623456954956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53636193275452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48506474494934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54348707199097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68740391731262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69452834129333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75722479820251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77147436141968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79712295532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78857350349426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79997277259827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83132100105286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9054172039032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03508520126343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06215834617615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15477848052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29727053642273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25737285614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0778329372406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16760301589966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16190314292908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16047835350037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21889996528625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22174954414368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27589678764343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28159642219543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26877188682556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23172426223755</t>
   </si>
   <si>
     <t xml:space="preserve">3.17900228500366</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17217397689819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23635506629944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25001096725464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21041011810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2226996421814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23089265823364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22952747344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14076662063599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14896035194397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.225430727005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2923424243927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21587157249451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30463314056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27732181549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34559917449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36608219146729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40704870223999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38656568527222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33330941200256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34833025932312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32511591911316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32375073432922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29780530929565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26366639137268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29097723960876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26022267341614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19182634353638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15620303153992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1348295211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17330241203308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09208202362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1490786075592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32291913032532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34856820106506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3343186378479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31151986122131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38419103622437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44403767585754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41981410980225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43406319618225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48108601570129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47681093215942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43833827972412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45116233825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40841484069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39844012260437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34714269638062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20607590675354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02796006202698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94246530532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89971733093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89686751365662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06643319129944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08495688438416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13197994232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14195394515991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02938485145569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84984517097473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95671415328979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06500816345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16332769393921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96526408195496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9552891254425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9923369884491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12058019638062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1704523563385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23599863052368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17757725715637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13625431060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83702111244202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9196662902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86551928520203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90399241447449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84129548072815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87549352645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83559560775757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79854798316956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73442649841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77717423439026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88546848297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87406849861145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84272027015686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87834334373474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92821574211121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92109107971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94103980064392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86694407463074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85839438438416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86409449577332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81707167625427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76007485389709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80567240715027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77289938926697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7586498260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77859878540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68597888946533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62470698356628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59478402137756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5477614402771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58480978012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65605545043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65463066101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63610672950745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60333371162415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57198524475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45086693763733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44516682624817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42379331588745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44374227523804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41666865348816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45941638946533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61900782585144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61045813560486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54918646812439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57910943031311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55061149597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5235378742218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57341003417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64465618133545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69310355186462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64038157463074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63895678520203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62898230552673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63325643539429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67172956466675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74867534637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73727631568909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67315459251404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70307803153992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71447730064392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70735263824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65178060531616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66887950897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63753151893616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6574809551239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56486082077026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52211284637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51498818397522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41524386405945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43234276771545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43661761283875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39386987686157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39244484901428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3511221408844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42236828804016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53066277503967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57768487930298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5890839099884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63468146324158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69595336914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68027925491333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69167876243591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69737815856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74012565612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74297571182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72445154190063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72302675247192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7287266254425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76434993743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75152540206909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75580024719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71162748336792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69025373458862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65035581588745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60760831832886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58338451385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55346131324768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52068781852722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60618329048157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56058549880981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5449116230011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54063677787781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50501370429993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49788880348206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50643849372864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53351187705994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57625961303711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60048389434814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59193420410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58195972442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55916094779968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58623456954956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5363621711731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48506474494934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54348635673523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68740391731262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69452857971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75722503662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77147436141968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79712295532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78857326507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79997277259827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83132100105286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9054172039032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03508496284485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06215834617615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15477824211121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29727029800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25737285614014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07783269882202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16760325431824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1619029045105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16047811508179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2188994884491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22175002098083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27589678764343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28159666061401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26877236366272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23172402381897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1790018081665</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.12913012504578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19610142707825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10063123703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19752597808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23884916305542</t>
+    <t xml:space="preserve">3.19610118865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10063147544861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1975257396698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23884868621826</t>
   </si>
   <si>
     <t xml:space="preserve">3.22602438926697</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29157090187073</t>
+    <t xml:space="preserve">3.29157114028931</t>
   </si>
   <si>
     <t xml:space="preserve">3.3257691860199</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28302097320557</t>
+    <t xml:space="preserve">3.28302145004272</t>
   </si>
   <si>
     <t xml:space="preserve">3.31864452362061</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34001851081848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39559006690979</t>
+    <t xml:space="preserve">3.34001874923706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39559054374695</t>
   </si>
   <si>
     <t xml:space="preserve">3.3556923866272</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23457360267639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27019715309143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08923196792603</t>
+    <t xml:space="preserve">3.23457407951355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27019762992859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08923172950745</t>
   </si>
   <si>
     <t xml:space="preserve">3.06358337402344</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17488980293274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09706711769104</t>
+    <t xml:space="preserve">3.17489004135132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0970664024353</t>
   </si>
   <si>
     <t xml:space="preserve">3.11147832870483</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13886070251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14462518692017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11003708839417</t>
+    <t xml:space="preserve">3.13886046409607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14462494850159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11003732681274</t>
   </si>
   <si>
     <t xml:space="preserve">3.1186842918396</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07112622261047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03797912597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04806733131409</t>
+    <t xml:space="preserve">3.07112574577332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03797888755798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04806709289551</t>
   </si>
   <si>
     <t xml:space="preserve">2.99762630462646</t>
@@ -908,22 +911,22 @@
     <t xml:space="preserve">3.00627326965332</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97744965553284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91836261749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8722448348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90395069122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89098000526428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87512707710266</t>
+    <t xml:space="preserve">2.97744989395142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9183623790741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87224507331848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90395045280457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89098024368286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87512731552124</t>
   </si>
   <si>
     <t xml:space="preserve">2.84918618202209</t>
@@ -932,28 +935,28 @@
     <t xml:space="preserve">2.92700886726379</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90683269500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86936259269714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87800931930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85783338546753</t>
+    <t xml:space="preserve">2.9068329334259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86936283111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.878009557724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85783290863037</t>
   </si>
   <si>
     <t xml:space="preserve">2.85350966453552</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87080335617065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82468628883362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79298043251038</t>
+    <t xml:space="preserve">2.87080359458923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8246865272522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79298067092896</t>
   </si>
   <si>
     <t xml:space="preserve">2.76415729522705</t>
@@ -962,28 +965,28 @@
     <t xml:space="preserve">2.81027483940125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80018639564514</t>
+    <t xml:space="preserve">2.80018663406372</t>
   </si>
   <si>
     <t xml:space="preserve">2.79153943061829</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72956967353821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75262808799744</t>
+    <t xml:space="preserve">2.72956943511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75262784957886</t>
   </si>
   <si>
     <t xml:space="preserve">2.75983381271362</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74686336517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95439100265503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92124438285828</t>
+    <t xml:space="preserve">2.74686360359192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95439124107361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92124462127686</t>
   </si>
   <si>
     <t xml:space="preserve">2.92845034599304</t>
@@ -995,16 +998,16 @@
     <t xml:space="preserve">2.83189225196838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.843421459198</t>
+    <t xml:space="preserve">2.84342169761658</t>
   </si>
   <si>
     <t xml:space="preserve">2.80450987815857</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83045101165771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82612729072571</t>
+    <t xml:space="preserve">2.83045077323914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82612752914429</t>
   </si>
   <si>
     <t xml:space="preserve">2.78865718841553</t>
@@ -1013,10 +1016,10 @@
     <t xml:space="preserve">2.80739235877991</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80883383750916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84053921699524</t>
+    <t xml:space="preserve">2.808833360672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84053897857666</t>
   </si>
   <si>
     <t xml:space="preserve">2.85495066642761</t>
@@ -1025,13 +1028,13 @@
     <t xml:space="preserve">2.86503934860229</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87656855583191</t>
+    <t xml:space="preserve">2.87656831741333</t>
   </si>
   <si>
     <t xml:space="preserve">2.90827393531799</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83909821510315</t>
+    <t xml:space="preserve">2.83909797668457</t>
   </si>
   <si>
     <t xml:space="preserve">2.73821640014648</t>
@@ -1040,55 +1043,55 @@
     <t xml:space="preserve">2.75551009178162</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76848101615906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70218729972839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72668695449829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71371626853943</t>
+    <t xml:space="preserve">2.76848077774048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70218706130981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72668719291687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71371650695801</t>
   </si>
   <si>
     <t xml:space="preserve">2.7252459526062</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68056988716125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67480492591858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67336368560791</t>
+    <t xml:space="preserve">2.6805694103241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6748046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67336392402649</t>
   </si>
   <si>
     <t xml:space="preserve">2.65895223617554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67624616622925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75406908988953</t>
+    <t xml:space="preserve">2.67624592781067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75406932830811</t>
   </si>
   <si>
     <t xml:space="preserve">2.79442191123962</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79874515533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74542236328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78577470779419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92268586158752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02500867843628</t>
+    <t xml:space="preserve">2.79874539375305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74542212486267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78577494621277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9226861000061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0250084400177</t>
   </si>
   <si>
     <t xml:space="preserve">3.02644944190979</t>
@@ -1097,19 +1100,19 @@
     <t xml:space="preserve">3.06968474388123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10571360588074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12156653404236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17056632041931</t>
+    <t xml:space="preserve">3.1057140827179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12156629562378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17056655883789</t>
   </si>
   <si>
     <t xml:space="preserve">3.14174294471741</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13597822189331</t>
+    <t xml:space="preserve">3.13597869873047</t>
   </si>
   <si>
     <t xml:space="preserve">3.09850811958313</t>
@@ -1118,25 +1121,25 @@
     <t xml:space="preserve">3.05671405792236</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07689023017883</t>
+    <t xml:space="preserve">3.07689070701599</t>
   </si>
   <si>
     <t xml:space="preserve">3.08409667015076</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07400822639465</t>
+    <t xml:space="preserve">3.07400798797607</t>
   </si>
   <si>
     <t xml:space="preserve">3.04086089134216</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05383133888245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17921328544617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12588977813721</t>
+    <t xml:space="preserve">3.05383157730103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17921376228333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12589001655579</t>
   </si>
   <si>
     <t xml:space="preserve">3.05527257919312</t>
@@ -1145,16 +1148,16 @@
     <t xml:space="preserve">3.07977294921875</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14894843101501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16191911697388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14750790596008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09994888305664</t>
+    <t xml:space="preserve">3.14894890785217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16191959381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14750742912292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09994912147522</t>
   </si>
   <si>
     <t xml:space="preserve">3.13453698158264</t>
@@ -1163,19 +1166,19 @@
     <t xml:space="preserve">3.15903687477112</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15471339225769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12877249717712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11580204963684</t>
+    <t xml:space="preserve">3.15471315383911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12877225875854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11580181121826</t>
   </si>
   <si>
     <t xml:space="preserve">3.10427260398865</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12012529373169</t>
+    <t xml:space="preserve">3.12012553215027</t>
   </si>
   <si>
     <t xml:space="preserve">3.05815529823303</t>
@@ -1184,37 +1187,37 @@
     <t xml:space="preserve">3.00483226776123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97168564796448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7843337059021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82180380821228</t>
+    <t xml:space="preserve">2.9716854095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78433418273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82180428504944</t>
   </si>
   <si>
     <t xml:space="preserve">2.86792135238647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8967444896698</t>
+    <t xml:space="preserve">2.89674472808838</t>
   </si>
   <si>
     <t xml:space="preserve">2.88233304023743</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85062766075134</t>
+    <t xml:space="preserve">2.85062742233276</t>
   </si>
   <si>
     <t xml:space="preserve">2.82901000976562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82324504852295</t>
+    <t xml:space="preserve">2.82324528694153</t>
   </si>
   <si>
     <t xml:space="preserve">2.70362830162048</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72236347198486</t>
+    <t xml:space="preserve">2.72236371040344</t>
   </si>
   <si>
     <t xml:space="preserve">2.70506954193115</t>
@@ -1229,10 +1232,10 @@
     <t xml:space="preserve">2.69858431816101</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76703929901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78505444526672</t>
+    <t xml:space="preserve">2.76703953742981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78505420684814</t>
   </si>
   <si>
     <t xml:space="preserve">2.72740745544434</t>
@@ -1244,16 +1247,16 @@
     <t xml:space="preserve">2.73461365699768</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70579028129578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73101043701172</t>
+    <t xml:space="preserve">2.70578980445862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7310106754303</t>
   </si>
   <si>
     <t xml:space="preserve">2.72020196914673</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79225993156433</t>
+    <t xml:space="preserve">2.79226016998291</t>
   </si>
   <si>
     <t xml:space="preserve">2.84630393981934</t>
@@ -1268,49 +1271,49 @@
     <t xml:space="preserve">2.70939302444458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74181938171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71299600601196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63373160362244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62652587890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64093780517578</t>
+    <t xml:space="preserve">2.74181914329529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71299624443054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63373184204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62652611732483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6409375667572</t>
   </si>
   <si>
     <t xml:space="preserve">2.65534925460815</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64814329147339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5868935585022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57248210906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57968807220459</t>
+    <t xml:space="preserve">2.64814352989197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58689379692078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5724823474884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57968783378601</t>
   </si>
   <si>
     <t xml:space="preserve">2.55807065963745</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56167364120483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55086493492126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56887936592102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43557167053223</t>
+    <t xml:space="preserve">2.56167340278625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55086469650269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56887912750244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43557143211365</t>
   </si>
   <si>
     <t xml:space="preserve">2.37432169914246</t>
@@ -1319,16 +1322,16 @@
     <t xml:space="preserve">2.30946922302246</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39593935012817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41755676269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41395401954651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36351323127747</t>
+    <t xml:space="preserve">2.39593958854675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41755700111389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41395354270935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36351299285889</t>
   </si>
   <si>
     <t xml:space="preserve">2.3599100112915</t>
@@ -1340,34 +1343,34 @@
     <t xml:space="preserve">2.4499831199646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35270428657532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52204155921936</t>
+    <t xml:space="preserve">2.3527045249939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52204132080078</t>
   </si>
   <si>
     <t xml:space="preserve">2.42836546897888</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44638013839722</t>
+    <t xml:space="preserve">2.4463803768158</t>
   </si>
   <si>
     <t xml:space="preserve">2.4211597442627</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50762987136841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59409976005554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56527614593506</t>
+    <t xml:space="preserve">2.50763010978699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59409952163696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56527638435364</t>
   </si>
   <si>
     <t xml:space="preserve">2.63012909889221</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65174674987793</t>
+    <t xml:space="preserve">2.65174651145935</t>
   </si>
   <si>
     <t xml:space="preserve">2.62292313575745</t>
@@ -1376,13 +1379,13 @@
     <t xml:space="preserve">2.60130548477173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60851120948792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6373348236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68417263031006</t>
+    <t xml:space="preserve">2.60851144790649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63733434677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68417239189148</t>
   </si>
   <si>
     <t xml:space="preserve">2.66615796089172</t>
@@ -1391,13 +1394,13 @@
     <t xml:space="preserve">2.69137835502625</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67696690559387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73281192779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62172198295593</t>
+    <t xml:space="preserve">2.67696666717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73281216621399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62172222137451</t>
   </si>
   <si>
     <t xml:space="preserve">2.49582004547119</t>
@@ -1406,10 +1409,10 @@
     <t xml:space="preserve">2.48841404914856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.403244972229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43657207489014</t>
+    <t xml:space="preserve">2.40324521064758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43657231330872</t>
   </si>
   <si>
     <t xml:space="preserve">2.45879006385803</t>
@@ -1421,31 +1424,31 @@
     <t xml:space="preserve">2.40694832801819</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36991834640503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29956150054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21068930625916</t>
+    <t xml:space="preserve">2.36991810798645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29956126213074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21068906784058</t>
   </si>
   <si>
     <t xml:space="preserve">2.32548236846924</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3773238658905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38843297958374</t>
+    <t xml:space="preserve">2.37732434272766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38843321800232</t>
   </si>
   <si>
     <t xml:space="preserve">2.4291660785675</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41805696487427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46989893913269</t>
+    <t xml:space="preserve">2.41805720329285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46989941596985</t>
   </si>
   <si>
     <t xml:space="preserve">2.5032262802124</t>
@@ -1457,37 +1460,37 @@
     <t xml:space="preserve">2.53285026550293</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57728600502014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5254442691803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45508718490601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58098912239075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54395937919617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47360229492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44768095016479</t>
+    <t xml:space="preserve">2.57728624343872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52544403076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45508694648743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58098888397217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54395890235901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4736020565033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44768118858337</t>
   </si>
   <si>
     <t xml:space="preserve">2.53655290603638</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4773051738739</t>
+    <t xml:space="preserve">2.47730493545532</t>
   </si>
   <si>
     <t xml:space="preserve">2.51433515548706</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48100829124451</t>
+    <t xml:space="preserve">2.48100805282593</t>
   </si>
   <si>
     <t xml:space="preserve">2.46619606018066</t>
@@ -1496,31 +1499,31 @@
     <t xml:space="preserve">2.39583897590637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41065120697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35140299797058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36621522903442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34399724006653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35880899429321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35510611534119</t>
+    <t xml:space="preserve">2.41065144538879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35140323638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36621499061584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34399747848511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35880923271179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35510635375977</t>
   </si>
   <si>
     <t xml:space="preserve">2.36251211166382</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30696702003479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31066989898682</t>
+    <t xml:space="preserve">2.30696725845337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3106701374054</t>
   </si>
   <si>
     <t xml:space="preserve">2.32177925109863</t>
@@ -1529,7 +1532,7 @@
     <t xml:space="preserve">2.39954209327698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38102698326111</t>
+    <t xml:space="preserve">2.38102722167969</t>
   </si>
   <si>
     <t xml:space="preserve">2.41435408592224</t>
@@ -1538,64 +1541,64 @@
     <t xml:space="preserve">2.37362122535706</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31807613372803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29585790634155</t>
+    <t xml:space="preserve">2.31807661056519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29585838317871</t>
   </si>
   <si>
     <t xml:space="preserve">2.28104615211487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26993703842163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30326437950134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32918524742126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27734327316284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2662341594696</t>
+    <t xml:space="preserve">2.26993727684021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30326414108276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32918548583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27734303474426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26623439788818</t>
   </si>
   <si>
     <t xml:space="preserve">2.29215526580811</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27363991737366</t>
+    <t xml:space="preserve">2.27364015579224</t>
   </si>
   <si>
     <t xml:space="preserve">2.2884521484375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28474926948547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38473033905029</t>
+    <t xml:space="preserve">2.28474950790405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38473010063171</t>
   </si>
   <si>
     <t xml:space="preserve">2.20698618888855</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24031329154968</t>
+    <t xml:space="preserve">2.24031352996826</t>
   </si>
   <si>
     <t xml:space="preserve">2.15514445304871</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13292622566223</t>
+    <t xml:space="preserve">2.13292646408081</t>
   </si>
   <si>
     <t xml:space="preserve">2.14773845672607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10330247879028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09959936141968</t>
+    <t xml:space="preserve">2.10330200195312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09959959983826</t>
   </si>
   <si>
     <t xml:space="preserve">2.08849048614502</t>
@@ -1607,49 +1610,49 @@
     <t xml:space="preserve">2.0625696182251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98850953578949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95147979259491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02553915977478</t>
+    <t xml:space="preserve">1.98850929737091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95147943496704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02553939819336</t>
   </si>
   <si>
     <t xml:space="preserve">2.06627225875854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04775762557983</t>
+    <t xml:space="preserve">2.04775738716125</t>
   </si>
   <si>
     <t xml:space="preserve">2.06997537612915</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12922358512878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14403510093689</t>
+    <t xml:space="preserve">2.12922310829163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14403557777405</t>
   </si>
   <si>
     <t xml:space="preserve">2.13662934303284</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18847131729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21439218521118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23290753364563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25512528419495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20328307151794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19958019256592</t>
+    <t xml:space="preserve">2.18847155570984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21439242362976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23290729522705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25512552261353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2032835483551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1995804309845</t>
   </si>
   <si>
     <t xml:space="preserve">2.21809530258179</t>
@@ -1661,7 +1664,7 @@
     <t xml:space="preserve">2.07367849349976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11070823669434</t>
+    <t xml:space="preserve">2.11070847511292</t>
   </si>
   <si>
     <t xml:space="preserve">2.24771928787231</t>
@@ -1679,16 +1682,16 @@
     <t xml:space="preserve">2.68096995353699</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60320734977722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62912821769714</t>
+    <t xml:space="preserve">2.60320711135864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62912797927856</t>
   </si>
   <si>
     <t xml:space="preserve">2.65875172615051</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65134620666504</t>
+    <t xml:space="preserve">2.65134596824646</t>
   </si>
   <si>
     <t xml:space="preserve">2.62542510032654</t>
@@ -1697,10 +1700,10 @@
     <t xml:space="preserve">2.71800017356873</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70318794250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7291088104248</t>
+    <t xml:space="preserve">2.70318818092346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72910904884338</t>
   </si>
   <si>
     <t xml:space="preserve">2.69207906723022</t>
@@ -1712,16 +1715,16 @@
     <t xml:space="preserve">2.75502991676331</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8031690120697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81798100471497</t>
+    <t xml:space="preserve">2.80316877365112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81798076629639</t>
   </si>
   <si>
     <t xml:space="preserve">2.84390187263489</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87352609634399</t>
+    <t xml:space="preserve">2.87352585792542</t>
   </si>
   <si>
     <t xml:space="preserve">2.86241674423218</t>
@@ -1739,31 +1742,31 @@
     <t xml:space="preserve">2.7994658946991</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79206013679504</t>
+    <t xml:space="preserve">2.79205989837646</t>
   </si>
   <si>
     <t xml:space="preserve">2.81427788734436</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79576301574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75873303413391</t>
+    <t xml:space="preserve">2.79576325416565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75873279571533</t>
   </si>
   <si>
     <t xml:space="preserve">2.85871386528015</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90314960479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89574408531189</t>
+    <t xml:space="preserve">2.90314984321594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89574384689331</t>
   </si>
   <si>
     <t xml:space="preserve">2.90685272216797</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88833785057068</t>
+    <t xml:space="preserve">2.88833808898926</t>
   </si>
   <si>
     <t xml:space="preserve">2.962397813797</t>
@@ -1775,7 +1778,7 @@
     <t xml:space="preserve">2.91796183586121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94758558273315</t>
+    <t xml:space="preserve">2.94758582115173</t>
   </si>
   <si>
     <t xml:space="preserve">2.95128870010376</t>
@@ -1787,7 +1790,7 @@
     <t xml:space="preserve">2.95499181747437</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93277406692505</t>
+    <t xml:space="preserve">2.93277382850647</t>
   </si>
   <si>
     <t xml:space="preserve">2.91055583953857</t>
@@ -1796,19 +1799,19 @@
     <t xml:space="preserve">2.96980381011963</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97720980644226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9401798248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89944696426392</t>
+    <t xml:space="preserve">2.97720956802368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94018006324768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89944648742676</t>
   </si>
   <si>
     <t xml:space="preserve">2.81057500839233</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86611986160278</t>
+    <t xml:space="preserve">2.8661196231842</t>
   </si>
   <si>
     <t xml:space="preserve">2.80687189102173</t>
@@ -1820,10 +1823,10 @@
     <t xml:space="preserve">2.85501098632812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71059417724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70689082145691</t>
+    <t xml:space="preserve">2.71059370040894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70689105987549</t>
   </si>
   <si>
     <t xml:space="preserve">2.61061334609985</t>
@@ -1835,25 +1838,22 @@
     <t xml:space="preserve">2.6365339756012</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63283109664917</t>
+    <t xml:space="preserve">2.63283085823059</t>
   </si>
   <si>
     <t xml:space="preserve">2.61801910400391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69578218460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68467283248901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6883761882782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61431622505188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56988024711609</t>
+    <t xml:space="preserve">2.69578194618225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68837594985962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6143159866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56987977027893</t>
   </si>
   <si>
     <t xml:space="preserve">2.49211716651917</t>
@@ -1862,10 +1862,10 @@
     <t xml:space="preserve">2.50692915916443</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34770011901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23661017417908</t>
+    <t xml:space="preserve">2.34770035743713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23661041259766</t>
   </si>
   <si>
     <t xml:space="preserve">2.18476819992065</t>
@@ -4197,6 +4197,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.14000010490417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04500007629395</t>
   </si>
 </sst>
 </file>
@@ -8170,7 +8173,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G140" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -8196,7 +8199,7 @@
         <v>3.98200011253357</v>
       </c>
       <c r="G141" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H141" t="s">
         <v>9</v>
@@ -8222,7 +8225,7 @@
         <v>4.09800004959106</v>
       </c>
       <c r="G142" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H142" t="s">
         <v>9</v>
@@ -8248,7 +8251,7 @@
         <v>4.02199983596802</v>
       </c>
       <c r="G143" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H143" t="s">
         <v>9</v>
@@ -8274,7 +8277,7 @@
         <v>4.07600021362305</v>
       </c>
       <c r="G144" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -8326,7 +8329,7 @@
         <v>3.98799991607666</v>
       </c>
       <c r="G146" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -8352,7 +8355,7 @@
         <v>4.03599977493286</v>
       </c>
       <c r="G147" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -8378,7 +8381,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G148" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -8404,7 +8407,7 @@
         <v>3.98799991607666</v>
       </c>
       <c r="G149" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -8430,7 +8433,7 @@
         <v>3.92799997329712</v>
       </c>
       <c r="G150" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -8456,7 +8459,7 @@
         <v>3.83800005912781</v>
       </c>
       <c r="G151" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -8482,7 +8485,7 @@
         <v>3.89800000190735</v>
       </c>
       <c r="G152" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -8508,7 +8511,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G153" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -8534,7 +8537,7 @@
         <v>4.03399991989136</v>
       </c>
       <c r="G154" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -8560,7 +8563,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G155" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -8586,7 +8589,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G156" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -8612,7 +8615,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G157" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -8638,7 +8641,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G158" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -8664,7 +8667,7 @@
         <v>4.12799978256226</v>
       </c>
       <c r="G159" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -8690,7 +8693,7 @@
         <v>4.02199983596802</v>
       </c>
       <c r="G160" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -8716,7 +8719,7 @@
         <v>4.02400016784668</v>
       </c>
       <c r="G161" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -8742,7 +8745,7 @@
         <v>4.01200008392334</v>
       </c>
       <c r="G162" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -8820,7 +8823,7 @@
         <v>4.03399991989136</v>
       </c>
       <c r="G165" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -8846,7 +8849,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G166" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -8924,7 +8927,7 @@
         <v>3.9539999961853</v>
       </c>
       <c r="G169" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -8950,7 +8953,7 @@
         <v>3.87400007247925</v>
       </c>
       <c r="G170" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -9002,7 +9005,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G172" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -9028,7 +9031,7 @@
         <v>3.93799996376038</v>
       </c>
       <c r="G173" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -9054,7 +9057,7 @@
         <v>3.89199995994568</v>
       </c>
       <c r="G174" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -9080,7 +9083,7 @@
         <v>3.87199997901917</v>
       </c>
       <c r="G175" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -9106,7 +9109,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G176" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -9132,7 +9135,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G177" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -9158,7 +9161,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G178" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -9184,7 +9187,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G179" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -9210,7 +9213,7 @@
         <v>3.68400001525879</v>
       </c>
       <c r="G180" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -9236,7 +9239,7 @@
         <v>3.64199995994568</v>
       </c>
       <c r="G181" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -9262,7 +9265,7 @@
         <v>3.57599997520447</v>
       </c>
       <c r="G182" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -9288,7 +9291,7 @@
         <v>3.62800002098083</v>
       </c>
       <c r="G183" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -9314,7 +9317,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G184" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -9340,7 +9343,7 @@
         <v>3.7260000705719</v>
       </c>
       <c r="G185" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -9366,7 +9369,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G186" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -9392,7 +9395,7 @@
         <v>3.65400004386902</v>
       </c>
       <c r="G187" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -9418,7 +9421,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G188" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -9444,7 +9447,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G189" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -9470,7 +9473,7 @@
         <v>3.43199992179871</v>
       </c>
       <c r="G190" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -9496,7 +9499,7 @@
         <v>3.40199995040894</v>
       </c>
       <c r="G191" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -9522,7 +9525,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G192" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -9548,7 +9551,7 @@
         <v>3.39199995994568</v>
       </c>
       <c r="G193" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -9574,7 +9577,7 @@
         <v>3.45199990272522</v>
       </c>
       <c r="G194" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -9600,7 +9603,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G195" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -9626,7 +9629,7 @@
         <v>3.67600011825562</v>
       </c>
       <c r="G196" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -9652,7 +9655,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G197" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -9678,7 +9681,7 @@
         <v>3.57800006866455</v>
       </c>
       <c r="G198" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -9704,7 +9707,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G199" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -9730,7 +9733,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G200" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -9756,7 +9759,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G201" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -9782,7 +9785,7 @@
         <v>3.54200005531311</v>
       </c>
       <c r="G202" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -9808,7 +9811,7 @@
         <v>3.61199998855591</v>
       </c>
       <c r="G203" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -9834,7 +9837,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G204" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -9860,7 +9863,7 @@
         <v>3.71199989318848</v>
       </c>
       <c r="G205" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -9886,7 +9889,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G206" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -9912,7 +9915,7 @@
         <v>3.70600008964539</v>
       </c>
       <c r="G207" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -9938,7 +9941,7 @@
         <v>3.7039999961853</v>
       </c>
       <c r="G208" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -9964,7 +9967,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G209" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -9990,7 +9993,7 @@
         <v>3.69600009918213</v>
       </c>
       <c r="G210" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -10016,7 +10019,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G211" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -10042,7 +10045,7 @@
         <v>3.75</v>
       </c>
       <c r="G212" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -10068,7 +10071,7 @@
         <v>3.85800004005432</v>
       </c>
       <c r="G213" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -10094,7 +10097,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G214" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -10120,7 +10123,7 @@
         <v>3.89800000190735</v>
       </c>
       <c r="G215" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -10146,7 +10149,7 @@
         <v>3.84200000762939</v>
       </c>
       <c r="G216" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -10172,7 +10175,7 @@
         <v>3.75200009346008</v>
       </c>
       <c r="G217" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -10198,7 +10201,7 @@
         <v>3.79399991035461</v>
       </c>
       <c r="G218" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -10224,7 +10227,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G219" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -10250,7 +10253,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G220" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -10276,7 +10279,7 @@
         <v>3.72199988365173</v>
       </c>
       <c r="G221" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -10302,7 +10305,7 @@
         <v>3.74600005149841</v>
       </c>
       <c r="G222" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -10328,7 +10331,7 @@
         <v>3.70199990272522</v>
       </c>
       <c r="G223" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -10354,7 +10357,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G224" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -10380,7 +10383,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G225" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -10406,7 +10409,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G226" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -10432,7 +10435,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G227" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -10458,7 +10461,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G228" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10484,7 +10487,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G229" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -10510,7 +10513,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G230" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -10536,7 +10539,7 @@
         <v>3.40199995040894</v>
       </c>
       <c r="G231" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10562,7 +10565,7 @@
         <v>3.41400003433228</v>
       </c>
       <c r="G232" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -10588,7 +10591,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G233" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10614,7 +10617,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G234" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -10640,7 +10643,7 @@
         <v>3.35800004005432</v>
       </c>
       <c r="G235" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -10666,7 +10669,7 @@
         <v>3.40199995040894</v>
       </c>
       <c r="G236" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10718,7 +10721,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G238" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -10744,7 +10747,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G239" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -10770,7 +10773,7 @@
         <v>3.55200004577637</v>
       </c>
       <c r="G240" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -10796,7 +10799,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G241" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -10822,7 +10825,7 @@
         <v>3.61800003051758</v>
       </c>
       <c r="G242" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -10848,7 +10851,7 @@
         <v>3.6340000629425</v>
       </c>
       <c r="G243" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -10874,7 +10877,7 @@
         <v>3.64199995994568</v>
       </c>
       <c r="G244" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -10900,7 +10903,7 @@
         <v>3.69600009918213</v>
       </c>
       <c r="G245" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -10926,7 +10929,7 @@
         <v>3.69799995422363</v>
       </c>
       <c r="G246" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -10952,7 +10955,7 @@
         <v>3.75</v>
       </c>
       <c r="G247" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -10978,7 +10981,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G248" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -11004,7 +11007,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G249" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -11030,7 +11033,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G250" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -11056,7 +11059,7 @@
         <v>3.78399991989136</v>
       </c>
       <c r="G251" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -11082,7 +11085,7 @@
         <v>3.76200008392334</v>
       </c>
       <c r="G252" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -11108,7 +11111,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G253" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -11134,7 +11137,7 @@
         <v>3.77800011634827</v>
       </c>
       <c r="G254" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -11160,7 +11163,7 @@
         <v>3.78600001335144</v>
       </c>
       <c r="G255" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -11186,7 +11189,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G256" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -11212,7 +11215,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G257" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -11238,7 +11241,7 @@
         <v>3.84599995613098</v>
       </c>
       <c r="G258" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -11264,7 +11267,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G259" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -11290,7 +11293,7 @@
         <v>3.78600001335144</v>
       </c>
       <c r="G260" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -11316,7 +11319,7 @@
         <v>3.82399988174438</v>
       </c>
       <c r="G261" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -11342,7 +11345,7 @@
         <v>3.82200002670288</v>
       </c>
       <c r="G262" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -11368,7 +11371,7 @@
         <v>3.79399991035461</v>
       </c>
       <c r="G263" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -11394,7 +11397,7 @@
         <v>3.75200009346008</v>
       </c>
       <c r="G264" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -11420,7 +11423,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G265" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11446,7 +11449,7 @@
         <v>3.77800011634827</v>
       </c>
       <c r="G266" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -11472,7 +11475,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G267" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -11498,7 +11501,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G268" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11524,7 +11527,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G269" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -11550,7 +11553,7 @@
         <v>3.86199998855591</v>
       </c>
       <c r="G270" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -11576,7 +11579,7 @@
         <v>3.86800003051758</v>
       </c>
       <c r="G271" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -11602,7 +11605,7 @@
         <v>3.86199998855591</v>
       </c>
       <c r="G272" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -11628,7 +11631,7 @@
         <v>3.80599999427795</v>
       </c>
       <c r="G273" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -11654,7 +11657,7 @@
         <v>3.77600002288818</v>
       </c>
       <c r="G274" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -11680,7 +11683,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G275" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -11706,7 +11709,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G276" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -11732,7 +11735,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G277" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -11758,7 +11761,7 @@
         <v>3.62599992752075</v>
       </c>
       <c r="G278" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -11784,7 +11787,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G279" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -11810,7 +11813,7 @@
         <v>3.58400011062622</v>
       </c>
       <c r="G280" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -11836,7 +11839,7 @@
         <v>3.53800010681152</v>
       </c>
       <c r="G281" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -11862,7 +11865,7 @@
         <v>3.65799999237061</v>
       </c>
       <c r="G282" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -11888,7 +11891,7 @@
         <v>3.59400010108948</v>
       </c>
       <c r="G283" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -11914,7 +11917,7 @@
         <v>3.57200002670288</v>
       </c>
       <c r="G284" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -11940,7 +11943,7 @@
         <v>3.56599998474121</v>
       </c>
       <c r="G285" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -11966,7 +11969,7 @@
         <v>3.51600003242493</v>
       </c>
       <c r="G286" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -11992,7 +11995,7 @@
         <v>3.50600004196167</v>
       </c>
       <c r="G287" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -12018,7 +12021,7 @@
         <v>3.51799988746643</v>
       </c>
       <c r="G288" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -12044,7 +12047,7 @@
         <v>3.55599999427795</v>
       </c>
       <c r="G289" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -12070,7 +12073,7 @@
         <v>3.6159999370575</v>
       </c>
       <c r="G290" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -12096,7 +12099,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G291" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -12122,7 +12125,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G292" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -12148,7 +12151,7 @@
         <v>3.62400007247925</v>
       </c>
       <c r="G293" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -12174,7 +12177,7 @@
         <v>3.59200000762939</v>
       </c>
       <c r="G294" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -12200,7 +12203,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G295" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -12226,7 +12229,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G296" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -12252,7 +12255,7 @@
         <v>3.48799991607666</v>
       </c>
       <c r="G297" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -12278,7 +12281,7 @@
         <v>3.54200005531311</v>
       </c>
       <c r="G298" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -12304,7 +12307,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G299" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -12330,7 +12333,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G300" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -12356,7 +12359,7 @@
         <v>3.7720000743866</v>
       </c>
       <c r="G301" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -12382,7 +12385,7 @@
         <v>3.78200006484985</v>
       </c>
       <c r="G302" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -12408,7 +12411,7 @@
         <v>3.7260000705719</v>
       </c>
       <c r="G303" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -12434,7 +12437,7 @@
         <v>3.76200008392334</v>
       </c>
       <c r="G304" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -12460,7 +12463,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G305" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12486,7 +12489,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G306" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12512,7 +12515,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G307" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12538,7 +12541,7 @@
         <v>3.92600011825562</v>
       </c>
       <c r="G308" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -12564,7 +12567,7 @@
         <v>3.91400003433228</v>
       </c>
       <c r="G309" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -12590,7 +12593,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G310" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -12616,7 +12619,7 @@
         <v>3.97399997711182</v>
       </c>
       <c r="G311" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -12642,7 +12645,7 @@
         <v>4.07800006866455</v>
       </c>
       <c r="G312" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -12668,7 +12671,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G313" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -12694,7 +12697,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G314" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -12720,7 +12723,7 @@
         <v>4.2979998588562</v>
       </c>
       <c r="G315" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -12746,7 +12749,7 @@
         <v>4.42799997329712</v>
       </c>
       <c r="G316" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -12772,7 +12775,7 @@
         <v>4.62799978256226</v>
       </c>
       <c r="G317" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -12798,7 +12801,7 @@
         <v>4.57200002670288</v>
       </c>
       <c r="G318" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -12876,7 +12879,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G321" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -12902,7 +12905,7 @@
         <v>4.44600009918213</v>
       </c>
       <c r="G322" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -12928,7 +12931,7 @@
         <v>4.43800020217896</v>
       </c>
       <c r="G323" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -12954,7 +12957,7 @@
         <v>4.43599987030029</v>
       </c>
       <c r="G324" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -12980,7 +12983,7 @@
         <v>4.51800012588501</v>
       </c>
       <c r="G325" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -13006,7 +13009,7 @@
         <v>4.52199983596802</v>
       </c>
       <c r="G326" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -13032,7 +13035,7 @@
         <v>4.59800004959106</v>
       </c>
       <c r="G327" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -13058,7 +13061,7 @@
         <v>4.60599994659424</v>
       </c>
       <c r="G328" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -13084,7 +13087,7 @@
         <v>4.58799982070923</v>
       </c>
       <c r="G329" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -13110,7 +13113,7 @@
         <v>4.53599977493286</v>
       </c>
       <c r="G330" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -13136,7 +13139,7 @@
         <v>4.46199989318848</v>
       </c>
       <c r="G331" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -13162,7 +13165,7 @@
         <v>4.39200019836426</v>
       </c>
       <c r="G332" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -13188,7 +13191,7 @@
         <v>4.48600006103516</v>
       </c>
       <c r="G333" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -13240,7 +13243,7 @@
         <v>4.35200023651123</v>
       </c>
       <c r="G335" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -13266,7 +13269,7 @@
         <v>4.48799991607666</v>
       </c>
       <c r="G336" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -13318,7 +13321,7 @@
         <v>4.5460000038147</v>
       </c>
       <c r="G338" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -13344,7 +13347,7 @@
         <v>4.52799987792969</v>
       </c>
       <c r="G339" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -13396,7 +13399,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G341" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -13422,7 +13425,7 @@
         <v>4.66800022125244</v>
       </c>
       <c r="G342" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -13448,7 +13451,7 @@
         <v>4.60799980163574</v>
       </c>
       <c r="G343" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -13474,7 +13477,7 @@
         <v>4.65799999237061</v>
       </c>
       <c r="G344" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -13500,7 +13503,7 @@
         <v>4.68800020217896</v>
       </c>
       <c r="G345" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -13526,7 +13529,7 @@
         <v>4.76599979400635</v>
       </c>
       <c r="G346" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -13552,7 +13555,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G347" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -13578,7 +13581,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G348" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -13604,7 +13607,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G349" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -13630,7 +13633,7 @@
         <v>4.59000015258789</v>
       </c>
       <c r="G350" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -13682,7 +13685,7 @@
         <v>4.33599996566772</v>
       </c>
       <c r="G352" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -13708,7 +13711,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G353" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -13734,7 +13737,7 @@
         <v>4.43599987030029</v>
       </c>
       <c r="G354" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -13760,7 +13763,7 @@
         <v>4.4060001373291</v>
       </c>
       <c r="G355" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -13786,7 +13789,7 @@
         <v>4.2979998588562</v>
       </c>
       <c r="G356" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -13812,7 +13815,7 @@
         <v>4.31799983978271</v>
       </c>
       <c r="G357" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -13838,7 +13841,7 @@
         <v>4.35599994659424</v>
       </c>
       <c r="G358" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -13864,7 +13867,7 @@
         <v>4.36399984359741</v>
       </c>
       <c r="G359" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -13890,7 +13893,7 @@
         <v>4.31599998474121</v>
       </c>
       <c r="G360" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -13916,7 +13919,7 @@
         <v>4.32800006866455</v>
       </c>
       <c r="G361" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -13942,7 +13945,7 @@
         <v>4.26200008392334</v>
       </c>
       <c r="G362" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -13968,7 +13971,7 @@
         <v>4.21600008010864</v>
       </c>
       <c r="G363" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -13994,7 +13997,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G364" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -14020,7 +14023,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G365" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -14046,7 +14049,7 @@
         <v>4.17199993133545</v>
       </c>
       <c r="G366" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -14072,7 +14075,7 @@
         <v>4.13199996948242</v>
       </c>
       <c r="G367" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -14098,7 +14101,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G368" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -14124,7 +14127,7 @@
         <v>3.98600006103516</v>
       </c>
       <c r="G369" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -14150,7 +14153,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G370" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -14176,7 +14179,7 @@
         <v>4.01200008392334</v>
       </c>
       <c r="G371" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -14202,7 +14205,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G372" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -14228,7 +14231,7 @@
         <v>3.9539999961853</v>
       </c>
       <c r="G373" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -14254,7 +14257,7 @@
         <v>4.06199979782104</v>
       </c>
       <c r="G374" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -14280,7 +14283,7 @@
         <v>4.03399991989136</v>
       </c>
       <c r="G375" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -14306,7 +14309,7 @@
         <v>3.98200011253357</v>
       </c>
       <c r="G376" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -14332,7 +14335,7 @@
         <v>3.99399995803833</v>
       </c>
       <c r="G377" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -14358,7 +14361,7 @@
         <v>3.96600008010864</v>
       </c>
       <c r="G378" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -14384,7 +14387,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G379" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -14410,7 +14413,7 @@
         <v>3.98399996757507</v>
       </c>
       <c r="G380" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -14436,7 +14439,7 @@
         <v>3.9539999961853</v>
       </c>
       <c r="G381" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -14462,7 +14465,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G382" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -14488,7 +14491,7 @@
         <v>3.87599992752075</v>
       </c>
       <c r="G383" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -14514,7 +14517,7 @@
         <v>3.83599996566772</v>
       </c>
       <c r="G384" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -14540,7 +14543,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G385" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -14566,7 +14569,7 @@
         <v>3.88599991798401</v>
       </c>
       <c r="G386" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -14592,7 +14595,7 @@
         <v>3.87400007247925</v>
       </c>
       <c r="G387" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -14618,7 +14621,7 @@
         <v>3.78800010681152</v>
       </c>
       <c r="G388" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -14644,7 +14647,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G389" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -14670,7 +14673,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G390" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -14696,7 +14699,7 @@
         <v>3.81200003623962</v>
       </c>
       <c r="G391" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -14722,7 +14725,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G392" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -14748,7 +14751,7 @@
         <v>4.05399990081787</v>
       </c>
       <c r="G393" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14774,7 +14777,7 @@
         <v>4.06400012969971</v>
       </c>
       <c r="G394" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14800,7 +14803,7 @@
         <v>4.05999994277954</v>
       </c>
       <c r="G395" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -14826,7 +14829,7 @@
         <v>4.01200008392334</v>
       </c>
       <c r="G396" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14852,7 +14855,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G397" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -14878,7 +14881,7 @@
         <v>3.94600009918213</v>
       </c>
       <c r="G398" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14904,7 +14907,7 @@
         <v>3.89199995994568</v>
       </c>
       <c r="G399" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -14930,7 +14933,7 @@
         <v>3.92799997329712</v>
       </c>
       <c r="G400" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -14956,7 +14959,7 @@
         <v>3.92199993133545</v>
       </c>
       <c r="G401" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -14982,7 +14985,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G402" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -15008,7 +15011,7 @@
         <v>3.89599990844727</v>
       </c>
       <c r="G403" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -15034,7 +15037,7 @@
         <v>3.89800000190735</v>
       </c>
       <c r="G404" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -15060,7 +15063,7 @@
         <v>3.94199991226196</v>
       </c>
       <c r="G405" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -15086,7 +15089,7 @@
         <v>3.96199989318848</v>
       </c>
       <c r="G406" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -15112,7 +15115,7 @@
         <v>3.9760000705719</v>
       </c>
       <c r="G407" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -15138,7 +15141,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G408" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -15164,7 +15167,7 @@
         <v>3.99200010299683</v>
       </c>
       <c r="G409" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -15190,7 +15193,7 @@
         <v>3.98200011253357</v>
       </c>
       <c r="G410" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -15216,7 +15219,7 @@
         <v>4.03599977493286</v>
       </c>
       <c r="G411" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -15242,7 +15245,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G412" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -15268,7 +15271,7 @@
         <v>3.88599991798401</v>
       </c>
       <c r="G413" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -15294,7 +15297,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G414" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -15320,7 +15323,7 @@
         <v>3.82399988174438</v>
       </c>
       <c r="G415" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -15346,7 +15349,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G416" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -15372,7 +15375,7 @@
         <v>3.84200000762939</v>
       </c>
       <c r="G417" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -15398,7 +15401,7 @@
         <v>3.75</v>
       </c>
       <c r="G418" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -15424,7 +15427,7 @@
         <v>3.78399991989136</v>
       </c>
       <c r="G419" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -15450,7 +15453,7 @@
         <v>3.76600003242493</v>
       </c>
       <c r="G420" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -15476,7 +15479,7 @@
         <v>3.78200006484985</v>
       </c>
       <c r="G421" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -15502,7 +15505,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G422" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -15528,7 +15531,7 @@
         <v>3.71199989318848</v>
       </c>
       <c r="G423" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -15554,7 +15557,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G424" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -15580,7 +15583,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G425" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -15606,7 +15609,7 @@
         <v>3.71399998664856</v>
       </c>
       <c r="G426" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -15632,7 +15635,7 @@
         <v>3.82200002670288</v>
       </c>
       <c r="G427" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -15658,7 +15661,7 @@
         <v>3.87800002098083</v>
       </c>
       <c r="G428" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -15684,7 +15687,7 @@
         <v>3.8840000629425</v>
       </c>
       <c r="G429" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -15710,7 +15713,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G430" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -15736,7 +15739,7 @@
         <v>3.8659999370575</v>
       </c>
       <c r="G431" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -15762,7 +15765,7 @@
         <v>3.89800000190735</v>
       </c>
       <c r="G432" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -15788,7 +15791,7 @@
         <v>4.05600023269653</v>
       </c>
       <c r="G433" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -15814,7 +15817,7 @@
         <v>4.19799995422363</v>
       </c>
       <c r="G434" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -15840,7 +15843,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G435" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15866,7 +15869,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G436" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -15892,7 +15895,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G437" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -15918,7 +15921,7 @@
         <v>4.33199977874756</v>
       </c>
       <c r="G438" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -15944,7 +15947,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G439" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -15970,7 +15973,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G440" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -15996,7 +15999,7 @@
         <v>4.35200023651123</v>
       </c>
       <c r="G441" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -16022,7 +16025,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G442" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -16048,7 +16051,7 @@
         <v>4.24200010299683</v>
       </c>
       <c r="G443" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -16074,7 +16077,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G444" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -16100,7 +16103,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G445" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -16126,7 +16129,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G446" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -16152,7 +16155,7 @@
         <v>4.26599979400635</v>
       </c>
       <c r="G447" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -16178,7 +16181,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G448" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -16204,7 +16207,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G449" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -16230,7 +16233,7 @@
         <v>4.17199993133545</v>
       </c>
       <c r="G450" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -16256,7 +16259,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G451" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -16282,7 +16285,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G452" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -16308,7 +16311,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G453" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -16334,7 +16337,7 @@
         <v>4.23799991607666</v>
       </c>
       <c r="G454" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -16360,7 +16363,7 @@
         <v>4.2979998588562</v>
       </c>
       <c r="G455" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -16386,7 +16389,7 @@
         <v>4.41200017929077</v>
       </c>
       <c r="G456" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -16412,7 +16415,7 @@
         <v>4.33799982070923</v>
       </c>
       <c r="G457" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -16438,7 +16441,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G458" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -16464,7 +16467,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G459" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -16490,7 +16493,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G460" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -16516,7 +16519,7 @@
         <v>4.27400016784668</v>
       </c>
       <c r="G461" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -16542,7 +16545,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G462" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -16568,7 +16571,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G463" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -16594,7 +16597,7 @@
         <v>4.38800001144409</v>
       </c>
       <c r="G464" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -16620,7 +16623,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G465" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -16646,7 +16649,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G466" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -16672,7 +16675,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G467" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -16698,7 +16701,7 @@
         <v>4.36800003051758</v>
       </c>
       <c r="G468" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -16724,7 +16727,7 @@
         <v>4.30200004577637</v>
       </c>
       <c r="G469" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -16750,7 +16753,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G470" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -16776,7 +16779,7 @@
         <v>4.38399982452393</v>
       </c>
       <c r="G471" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -16802,7 +16805,7 @@
         <v>4.37799978256226</v>
       </c>
       <c r="G472" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -16828,7 +16831,7 @@
         <v>4.34200000762939</v>
       </c>
       <c r="G473" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -16854,7 +16857,7 @@
         <v>4.32399988174438</v>
       </c>
       <c r="G474" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16880,7 +16883,7 @@
         <v>4.30800008773804</v>
       </c>
       <c r="G475" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16906,7 +16909,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G476" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -16932,7 +16935,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G477" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -16958,7 +16961,7 @@
         <v>4.24399995803833</v>
       </c>
       <c r="G478" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -16984,7 +16987,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G479" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -17010,7 +17013,7 @@
         <v>4.12400007247925</v>
       </c>
       <c r="G480" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -17036,7 +17039,7 @@
         <v>3.94199991226196</v>
       </c>
       <c r="G481" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -17062,7 +17065,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G482" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -17088,7 +17091,7 @@
         <v>3.86400008201599</v>
       </c>
       <c r="G483" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -17114,7 +17117,7 @@
         <v>3.91599988937378</v>
       </c>
       <c r="G484" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -17140,7 +17143,7 @@
         <v>3.99399995803833</v>
       </c>
       <c r="G485" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -17166,7 +17169,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G486" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -17192,7 +17195,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G487" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -17218,7 +17221,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G488" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -17244,7 +17247,7 @@
         <v>3.87400007247925</v>
       </c>
       <c r="G489" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -17270,7 +17273,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G490" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -17296,7 +17299,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G491" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -17322,7 +17325,7 @@
         <v>4</v>
       </c>
       <c r="G492" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -17348,7 +17351,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G493" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -17374,7 +17377,7 @@
         <v>3.95600008964539</v>
       </c>
       <c r="G494" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -17400,7 +17403,7 @@
         <v>3.99399995803833</v>
       </c>
       <c r="G495" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17426,7 +17429,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G496" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17452,7 +17455,7 @@
         <v>3.92600011825562</v>
       </c>
       <c r="G497" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -17478,7 +17481,7 @@
         <v>3.91799998283386</v>
       </c>
       <c r="G498" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -17504,7 +17507,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G499" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17530,7 +17533,7 @@
         <v>3.91599988937378</v>
       </c>
       <c r="G500" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -17556,7 +17559,7 @@
         <v>3.84200000762939</v>
       </c>
       <c r="G501" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -17582,7 +17585,7 @@
         <v>3.82399988174438</v>
       </c>
       <c r="G502" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17608,7 +17611,7 @@
         <v>3.84200000762939</v>
       </c>
       <c r="G503" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -17634,7 +17637,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G504" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17660,7 +17663,7 @@
         <v>3.75200009346008</v>
       </c>
       <c r="G505" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17686,7 +17689,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G506" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17712,7 +17715,7 @@
         <v>3.78200006484985</v>
       </c>
       <c r="G507" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17738,7 +17741,7 @@
         <v>3.77800011634827</v>
       </c>
       <c r="G508" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17764,7 +17767,7 @@
         <v>3.75399994850159</v>
       </c>
       <c r="G509" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17790,7 +17793,7 @@
         <v>3.76399993896484</v>
       </c>
       <c r="G510" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17816,7 +17819,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G511" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -17842,7 +17845,7 @@
         <v>3.68600010871887</v>
       </c>
       <c r="G512" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -17868,7 +17871,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G513" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -17894,7 +17897,7 @@
         <v>3.74499988555908</v>
       </c>
       <c r="G514" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -17920,7 +17923,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G515" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -17946,7 +17949,7 @@
         <v>3.86500000953674</v>
       </c>
       <c r="G516" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -17972,7 +17975,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G517" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -17998,7 +18001,7 @@
         <v>3.78500008583069</v>
       </c>
       <c r="G518" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -18024,7 +18027,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G519" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -18050,7 +18053,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G520" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -18076,7 +18079,7 @@
         <v>3.79500007629395</v>
       </c>
       <c r="G521" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -18102,7 +18105,7 @@
         <v>3.75500011444092</v>
       </c>
       <c r="G522" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -18128,7 +18131,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G523" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -18154,7 +18157,7 @@
         <v>3.77500009536743</v>
       </c>
       <c r="G524" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -18180,7 +18183,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G525" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -18206,7 +18209,7 @@
         <v>3.875</v>
       </c>
       <c r="G526" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -18232,7 +18235,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G527" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -18258,7 +18261,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G528" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -18284,7 +18287,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G529" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -18310,7 +18313,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G530" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -18336,7 +18339,7 @@
         <v>3.84500002861023</v>
       </c>
       <c r="G531" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -18362,7 +18365,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G532" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -18388,7 +18391,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G533" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -18414,7 +18417,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G534" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -18440,7 +18443,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G535" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -18466,7 +18469,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G536" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -18492,7 +18495,7 @@
         <v>3.78500008583069</v>
       </c>
       <c r="G537" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -18518,7 +18521,7 @@
         <v>3.8050000667572</v>
       </c>
       <c r="G538" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -18544,7 +18547,7 @@
         <v>3.76500010490417</v>
       </c>
       <c r="G539" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18570,7 +18573,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G540" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -18596,7 +18599,7 @@
         <v>3.65499997138977</v>
       </c>
       <c r="G541" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18622,7 +18625,7 @@
         <v>3.64499998092651</v>
       </c>
       <c r="G542" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18648,7 +18651,7 @@
         <v>3.66499996185303</v>
       </c>
       <c r="G543" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18674,7 +18677,7 @@
         <v>3.68499994277954</v>
       </c>
       <c r="G544" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18700,7 +18703,7 @@
         <v>3.67499995231628</v>
       </c>
       <c r="G545" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18726,7 +18729,7 @@
         <v>3.65499997138977</v>
       </c>
       <c r="G546" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -18752,7 +18755,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G547" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18778,7 +18781,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G548" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18804,7 +18807,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G549" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18830,7 +18833,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G550" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -18856,7 +18859,7 @@
         <v>3.5550000667572</v>
       </c>
       <c r="G551" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -18882,7 +18885,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G552" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -18908,7 +18911,7 @@
         <v>3.56500005722046</v>
       </c>
       <c r="G553" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -18934,7 +18937,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G554" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -18960,7 +18963,7 @@
         <v>3.29500007629395</v>
       </c>
       <c r="G555" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -18986,7 +18989,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G556" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -19012,7 +19015,7 @@
         <v>3.29500007629395</v>
       </c>
       <c r="G557" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -19038,7 +19041,7 @@
         <v>3.32500004768372</v>
       </c>
       <c r="G558" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -19064,7 +19067,7 @@
         <v>3.35500001907349</v>
       </c>
       <c r="G559" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -19090,7 +19093,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G560" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -19116,7 +19119,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G561" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -19142,7 +19145,7 @@
         <v>3.27500009536743</v>
       </c>
       <c r="G562" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -19168,7 +19171,7 @@
         <v>3.18499994277954</v>
       </c>
       <c r="G563" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -19194,7 +19197,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G564" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -19220,7 +19223,7 @@
         <v>3.26500010490417</v>
       </c>
       <c r="G565" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -19246,7 +19249,7 @@
         <v>3.5</v>
       </c>
       <c r="G566" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -19272,7 +19275,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G567" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -19298,7 +19301,7 @@
         <v>3.39499998092651</v>
       </c>
       <c r="G568" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -19324,7 +19327,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G569" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -19350,7 +19353,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G570" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -19376,7 +19379,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G571" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -19402,7 +19405,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G572" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -19428,7 +19431,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G573" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -19454,7 +19457,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G574" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -19480,7 +19483,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G575" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -19506,7 +19509,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G576" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -19532,7 +19535,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G577" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -19558,7 +19561,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G578" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -19584,7 +19587,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G579" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -19610,7 +19613,7 @@
         <v>3.64499998092651</v>
       </c>
       <c r="G580" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -19636,7 +19639,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G581" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19662,7 +19665,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G582" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19688,7 +19691,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G583" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19714,7 +19717,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G584" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19740,7 +19743,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G585" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19766,7 +19769,7 @@
         <v>3.65499997138977</v>
       </c>
       <c r="G586" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -19792,7 +19795,7 @@
         <v>3.72499990463257</v>
       </c>
       <c r="G587" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -19818,7 +19821,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G588" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -19844,7 +19847,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G589" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -19870,7 +19873,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G590" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -19896,7 +19899,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G591" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -19922,7 +19925,7 @@
         <v>3.75</v>
       </c>
       <c r="G592" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -19948,7 +19951,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G593" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -19974,7 +19977,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G594" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -20000,7 +20003,7 @@
         <v>3.73499989509583</v>
       </c>
       <c r="G595" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -20026,7 +20029,7 @@
         <v>3.71499991416931</v>
       </c>
       <c r="G596" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -20052,7 +20055,7 @@
         <v>3.72499990463257</v>
       </c>
       <c r="G597" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -20078,7 +20081,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G598" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -20104,7 +20107,7 @@
         <v>3.67499995231628</v>
       </c>
       <c r="G599" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -20130,7 +20133,7 @@
         <v>3.66499996185303</v>
       </c>
       <c r="G600" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -20156,7 +20159,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G601" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -20182,7 +20185,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G602" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -20208,7 +20211,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G603" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -20234,7 +20237,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G604" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -20260,7 +20263,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G605" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -20286,7 +20289,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G606" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -20312,7 +20315,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G607" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -20338,7 +20341,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G608" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -20364,7 +20367,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G609" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -20390,7 +20393,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G610" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -20416,7 +20419,7 @@
         <v>3.25</v>
       </c>
       <c r="G611" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -20442,7 +20445,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G612" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -20468,7 +20471,7 @@
         <v>3.10500001907349</v>
       </c>
       <c r="G613" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -20494,7 +20497,7 @@
         <v>2.98499989509583</v>
       </c>
       <c r="G614" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -20520,7 +20523,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G615" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -20546,7 +20549,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G616" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -20572,7 +20575,7 @@
         <v>3.22499990463257</v>
       </c>
       <c r="G617" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -20598,7 +20601,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G618" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -20624,7 +20627,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G619" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -20650,7 +20653,7 @@
         <v>3.22499990463257</v>
       </c>
       <c r="G620" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -20676,7 +20679,7 @@
         <v>3.25</v>
       </c>
       <c r="G621" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20702,7 +20705,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G622" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -20728,7 +20731,7 @@
         <v>3.26500010490417</v>
       </c>
       <c r="G623" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -20754,7 +20757,7 @@
         <v>3.33500003814697</v>
       </c>
       <c r="G624" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20780,7 +20783,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G625" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20806,7 +20809,7 @@
         <v>3.40499997138977</v>
       </c>
       <c r="G626" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -20832,7 +20835,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G627" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -20858,7 +20861,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G628" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -20884,7 +20887,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G629" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -20910,7 +20913,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G630" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -20936,7 +20939,7 @@
         <v>3.31500005722046</v>
       </c>
       <c r="G631" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -20962,7 +20965,7 @@
         <v>3.48499989509583</v>
       </c>
       <c r="G632" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -20988,7 +20991,7 @@
         <v>3.43499994277954</v>
       </c>
       <c r="G633" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -21014,7 +21017,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G634" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -21040,7 +21043,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G635" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -21066,7 +21069,7 @@
         <v>3.3050000667572</v>
       </c>
       <c r="G636" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -21092,7 +21095,7 @@
         <v>3.42499995231628</v>
       </c>
       <c r="G637" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -21118,7 +21121,7 @@
         <v>3.34500002861023</v>
       </c>
       <c r="G638" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -21144,7 +21147,7 @@
         <v>3.39499998092651</v>
       </c>
       <c r="G639" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -21170,7 +21173,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G640" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -21196,7 +21199,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G641" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -21222,7 +21225,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G642" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -21248,7 +21251,7 @@
         <v>3.33500003814697</v>
       </c>
       <c r="G643" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -21274,7 +21277,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G644" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -21300,7 +21303,7 @@
         <v>3.23499989509583</v>
       </c>
       <c r="G645" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -21326,7 +21329,7 @@
         <v>3.25500011444092</v>
       </c>
       <c r="G646" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -21352,7 +21355,7 @@
         <v>3.23499989509583</v>
       </c>
       <c r="G647" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -21378,7 +21381,7 @@
         <v>3.17499995231628</v>
       </c>
       <c r="G648" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -21404,7 +21407,7 @@
         <v>3.1949999332428</v>
       </c>
       <c r="G649" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -21430,7 +21433,7 @@
         <v>3.16499996185303</v>
       </c>
       <c r="G650" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21456,7 +21459,7 @@
         <v>3.18499994277954</v>
       </c>
       <c r="G651" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21482,7 +21485,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G652" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21508,7 +21511,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G653" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21534,7 +21537,7 @@
         <v>3.1949999332428</v>
       </c>
       <c r="G654" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21560,7 +21563,7 @@
         <v>3.11500000953674</v>
       </c>
       <c r="G655" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21586,7 +21589,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G656" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -21612,7 +21615,7 @@
         <v>3.13499999046326</v>
       </c>
       <c r="G657" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -21638,7 +21641,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G658" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -21664,7 +21667,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G659" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -21690,7 +21693,7 @@
         <v>3.22499990463257</v>
       </c>
       <c r="G660" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -21716,7 +21719,7 @@
         <v>3.21499991416931</v>
       </c>
       <c r="G661" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -21742,7 +21745,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G662" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -21768,7 +21771,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G663" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21794,7 +21797,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G664" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -21820,7 +21823,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G665" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -21846,7 +21849,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G666" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -21872,7 +21875,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G667" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -21898,7 +21901,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G668" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -21924,7 +21927,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G669" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -21950,7 +21953,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G670" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -21976,7 +21979,7 @@
         <v>3.17499995231628</v>
       </c>
       <c r="G671" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -22002,7 +22005,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G672" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -22028,7 +22031,7 @@
         <v>3.17499995231628</v>
       </c>
       <c r="G673" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -22054,7 +22057,7 @@
         <v>3.21499991416931</v>
       </c>
       <c r="G674" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -22080,7 +22083,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G675" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -22106,7 +22109,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G676" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -22132,7 +22135,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G677" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -22158,7 +22161,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G678" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -22184,7 +22187,7 @@
         <v>3.06500005722046</v>
       </c>
       <c r="G679" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -22210,7 +22213,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G680" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -22236,7 +22239,7 @@
         <v>3.14499998092651</v>
       </c>
       <c r="G681" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -22262,7 +22265,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G682" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22288,7 +22291,7 @@
         <v>3.07500004768372</v>
       </c>
       <c r="G683" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22314,7 +22317,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G684" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -22340,7 +22343,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G685" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22366,7 +22369,7 @@
         <v>3.09500002861023</v>
       </c>
       <c r="G686" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22392,7 +22395,7 @@
         <v>3.07500004768372</v>
       </c>
       <c r="G687" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22418,7 +22421,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G688" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -22444,7 +22447,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G689" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22470,7 +22473,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G690" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -22496,7 +22499,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G691" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -22522,7 +22525,7 @@
         <v>3.10500001907349</v>
       </c>
       <c r="G692" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -22548,7 +22551,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G693" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -22574,7 +22577,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G694" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -22600,7 +22603,7 @@
         <v>3.09500002861023</v>
       </c>
       <c r="G695" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -22626,7 +22629,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G696" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -22652,7 +22655,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G697" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -22678,7 +22681,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G698" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -22704,7 +22707,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G699" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -22730,7 +22733,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G700" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -22756,7 +22759,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G701" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -22782,7 +22785,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G702" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -22808,7 +22811,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G703" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -22834,7 +22837,7 @@
         <v>2.98499989509583</v>
       </c>
       <c r="G704" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -22860,7 +22863,7 @@
         <v>3.02500009536743</v>
       </c>
       <c r="G705" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -22886,7 +22889,7 @@
         <v>2.98499989509583</v>
       </c>
       <c r="G706" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -22912,7 +22915,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G707" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -22938,7 +22941,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G708" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -22964,7 +22967,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G709" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -22990,7 +22993,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G710" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -23016,7 +23019,7 @@
         <v>2.83500003814697</v>
       </c>
       <c r="G711" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -23042,7 +23045,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G712" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -23068,7 +23071,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G713" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -23094,7 +23097,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G714" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -23120,7 +23123,7 @@
         <v>2.84500002861023</v>
       </c>
       <c r="G715" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -23146,7 +23149,7 @@
         <v>2.78500008583069</v>
       </c>
       <c r="G716" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -23172,7 +23175,7 @@
         <v>2.78500008583069</v>
       </c>
       <c r="G717" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -23198,7 +23201,7 @@
         <v>2.68499994277954</v>
       </c>
       <c r="G718" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -23224,7 +23227,7 @@
         <v>2.63499999046326</v>
       </c>
       <c r="G719" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -23250,7 +23253,7 @@
         <v>2.78500008583069</v>
       </c>
       <c r="G720" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -23276,7 +23279,7 @@
         <v>2.73499989509583</v>
       </c>
       <c r="G721" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -23302,7 +23305,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G722" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -23328,7 +23331,7 @@
         <v>2.76500010490417</v>
       </c>
       <c r="G723" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23354,7 +23357,7 @@
         <v>2.79500007629395</v>
       </c>
       <c r="G724" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -23380,7 +23383,7 @@
         <v>2.875</v>
       </c>
       <c r="G725" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -23406,7 +23409,7 @@
         <v>2.89499998092651</v>
       </c>
       <c r="G726" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -23432,7 +23435,7 @@
         <v>2.88499999046326</v>
       </c>
       <c r="G727" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -23458,7 +23461,7 @@
         <v>2.95499992370605</v>
       </c>
       <c r="G728" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -23484,7 +23487,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G729" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -23510,7 +23513,7 @@
         <v>3.01500010490417</v>
       </c>
       <c r="G730" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -23536,7 +23539,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G731" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -23562,7 +23565,7 @@
         <v>3.04500007629395</v>
       </c>
       <c r="G732" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -23588,7 +23591,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G733" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -23614,7 +23617,7 @@
         <v>3.01500010490417</v>
       </c>
       <c r="G734" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -23640,7 +23643,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G735" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -23666,7 +23669,7 @@
         <v>2.99499988555908</v>
       </c>
       <c r="G736" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -23692,7 +23695,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G737" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -23718,7 +23721,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G738" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -23744,7 +23747,7 @@
         <v>2.83500003814697</v>
       </c>
       <c r="G739" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -23770,7 +23773,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G740" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -23796,7 +23799,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G741" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -23822,7 +23825,7 @@
         <v>3.04500007629395</v>
       </c>
       <c r="G742" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -23848,7 +23851,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G743" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -23874,7 +23877,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G744" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -23900,7 +23903,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G745" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -23926,7 +23929,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G746" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -23952,7 +23955,7 @@
         <v>3.21499991416931</v>
       </c>
       <c r="G747" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -23978,7 +23981,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G748" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -24004,7 +24007,7 @@
         <v>3.23499989509583</v>
       </c>
       <c r="G749" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -24030,7 +24033,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G750" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -24056,7 +24059,7 @@
         <v>3.14499998092651</v>
       </c>
       <c r="G751" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -24082,7 +24085,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G752" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -24108,7 +24111,7 @@
         <v>3.03500008583069</v>
       </c>
       <c r="G753" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -24134,7 +24137,7 @@
         <v>3.14499998092651</v>
       </c>
       <c r="G754" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -24160,7 +24163,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G755" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -24186,7 +24189,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G756" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -24212,7 +24215,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G757" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -24238,7 +24241,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G758" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -24264,7 +24267,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G759" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -24290,7 +24293,7 @@
         <v>3.31500005722046</v>
       </c>
       <c r="G760" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -24316,7 +24319,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G761" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -24342,7 +24345,7 @@
         <v>3.40499997138977</v>
       </c>
       <c r="G762" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -24368,7 +24371,7 @@
         <v>3.42499995231628</v>
       </c>
       <c r="G763" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -24394,7 +24397,7 @@
         <v>3.58500003814697</v>
       </c>
       <c r="G764" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -24420,7 +24423,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G765" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -24446,7 +24449,7 @@
         <v>3.51500010490417</v>
       </c>
       <c r="G766" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -24472,7 +24475,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G767" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -24498,7 +24501,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G768" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -24524,7 +24527,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G769" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -24550,7 +24553,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G770" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -24576,7 +24579,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G771" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -24602,7 +24605,7 @@
         <v>3.54500007629395</v>
       </c>
       <c r="G772" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -24628,7 +24631,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G773" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -24654,7 +24657,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G774" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -24680,7 +24683,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G775" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -24706,7 +24709,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G776" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -24732,7 +24735,7 @@
         <v>3.68499994277954</v>
       </c>
       <c r="G777" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -24758,7 +24761,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G778" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -24784,7 +24787,7 @@
         <v>3.63499999046326</v>
       </c>
       <c r="G779" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -24810,7 +24813,7 @@
         <v>3.66499996185303</v>
       </c>
       <c r="G780" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -24836,7 +24839,7 @@
         <v>3.66499996185303</v>
       </c>
       <c r="G781" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -24862,7 +24865,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G782" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -24888,7 +24891,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G783" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -24914,7 +24917,7 @@
         <v>3.78500008583069</v>
       </c>
       <c r="G784" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -24940,7 +24943,7 @@
         <v>3.8050000667572</v>
       </c>
       <c r="G785" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -24966,7 +24969,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G786" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -24992,7 +24995,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G787" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -25018,7 +25021,7 @@
         <v>3.86500000953674</v>
       </c>
       <c r="G788" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -25044,7 +25047,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G789" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -25070,7 +25073,7 @@
         <v>3.8050000667572</v>
       </c>
       <c r="G790" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -25096,7 +25099,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G791" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -25122,7 +25125,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G792" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -25148,7 +25151,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G793" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -25174,7 +25177,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G794" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -25200,7 +25203,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G795" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -25226,7 +25229,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G796" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -25252,7 +25255,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G797" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -25278,7 +25281,7 @@
         <v>3.77500009536743</v>
       </c>
       <c r="G798" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -25304,7 +25307,7 @@
         <v>3.72499990463257</v>
       </c>
       <c r="G799" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -25330,7 +25333,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G800" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -25356,7 +25359,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G801" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -25382,7 +25385,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G802" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25408,7 +25411,7 @@
         <v>3.92499995231628</v>
       </c>
       <c r="G803" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -25434,7 +25437,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G804" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -25460,7 +25463,7 @@
         <v>4</v>
       </c>
       <c r="G805" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -25486,7 +25489,7 @@
         <v>4.02500009536743</v>
       </c>
       <c r="G806" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25512,7 +25515,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G807" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25538,7 +25541,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G808" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -25564,7 +25567,7 @@
         <v>3.98499989509583</v>
       </c>
       <c r="G809" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -25590,7 +25593,7 @@
         <v>3.96499991416931</v>
       </c>
       <c r="G810" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -25616,7 +25619,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G811" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -25642,7 +25645,7 @@
         <v>3.96499991416931</v>
       </c>
       <c r="G812" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -25668,7 +25671,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G813" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -25694,7 +25697,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G814" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -25720,7 +25723,7 @@
         <v>3.98499989509583</v>
       </c>
       <c r="G815" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -25746,7 +25749,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G816" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -25772,7 +25775,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G817" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -25798,7 +25801,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G818" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -25824,7 +25827,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G819" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -25850,7 +25853,7 @@
         <v>3.91499996185303</v>
       </c>
       <c r="G820" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -25876,7 +25879,7 @@
         <v>3.86500000953674</v>
       </c>
       <c r="G821" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -25902,7 +25905,7 @@
         <v>3.79500007629395</v>
       </c>
       <c r="G822" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -25928,7 +25931,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G823" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -25954,7 +25957,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G824" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -25980,7 +25983,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G825" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -26006,7 +26009,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G826" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -26032,7 +26035,7 @@
         <v>3.86500000953674</v>
       </c>
       <c r="G827" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -26058,7 +26061,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G828" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -26084,7 +26087,7 @@
         <v>3.82500004768372</v>
       </c>
       <c r="G829" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -26110,7 +26113,7 @@
         <v>3.85500001907349</v>
       </c>
       <c r="G830" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -26136,7 +26139,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G831" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -26162,7 +26165,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G832" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -26188,7 +26191,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G833" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -26214,7 +26217,7 @@
         <v>3.65499997138977</v>
       </c>
       <c r="G834" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -26240,7 +26243,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G835" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -26266,7 +26269,7 @@
         <v>3.52500009536743</v>
       </c>
       <c r="G836" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -26292,7 +26295,7 @@
         <v>3.56500005722046</v>
       </c>
       <c r="G837" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -26318,7 +26321,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G838" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -26344,7 +26347,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G839" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -26370,7 +26373,7 @@
         <v>3.5550000667572</v>
       </c>
       <c r="G840" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -26396,7 +26399,7 @@
         <v>3.53500008583069</v>
       </c>
       <c r="G841" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -26422,7 +26425,7 @@
         <v>3.51500010490417</v>
       </c>
       <c r="G842" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -26448,7 +26451,7 @@
         <v>3.5550000667572</v>
       </c>
       <c r="G843" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26474,7 +26477,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G844" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -26500,7 +26503,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G845" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -26526,7 +26529,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G846" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -26552,7 +26555,7 @@
         <v>3.625</v>
       </c>
       <c r="G847" t="s">
-        <v>610</v>
+        <v>43</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -26630,7 +26633,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G850" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -26760,7 +26763,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G855" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -26786,7 +26789,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G856" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -26812,7 +26815,7 @@
         <v>3.06500005722046</v>
       </c>
       <c r="G857" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -26864,7 +26867,7 @@
         <v>3.01500010490417</v>
       </c>
       <c r="G859" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -26942,7 +26945,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G862" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -27020,7 +27023,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G865" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -27280,7 +27283,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G875" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27930,7 +27933,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G900" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -30894,7 +30897,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G1014" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -60386,27 +60389,79 @@
     </row>
     <row r="2149">
       <c r="A2149" s="1" t="n">
-        <v>45455.6495023148</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B2149" t="n">
-        <v>192056</v>
+        <v>361090</v>
       </c>
       <c r="C2149" t="n">
-        <v>2.11500000953674</v>
+        <v>2.14499998092651</v>
       </c>
       <c r="D2149" t="n">
         <v>2.06500005722046</v>
       </c>
       <c r="E2149" t="n">
+        <v>2.14499998092651</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>2.07999992370605</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>1388</v>
+      </c>
+      <c r="H2149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B2150" t="n">
+        <v>192056</v>
+      </c>
+      <c r="C2150" t="n">
+        <v>2.11500000953674</v>
+      </c>
+      <c r="D2150" t="n">
+        <v>2.06500005722046</v>
+      </c>
+      <c r="E2150" t="n">
         <v>2.10500001907349</v>
       </c>
-      <c r="F2149" t="n">
+      <c r="F2150" t="n">
         <v>2.10500001907349</v>
       </c>
-      <c r="G2149" t="s">
+      <c r="G2150" t="s">
         <v>1385</v>
       </c>
-      <c r="H2149" t="s">
+      <c r="H2150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="1" t="n">
+        <v>45456.6493287037</v>
+      </c>
+      <c r="B2151" t="n">
+        <v>392605</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>2.11500000953674</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>2.03999996185303</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>2.11500000953674</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>2.04500007629395</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>1395</v>
+      </c>
+      <c r="H2151" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CAI.MI.xlsx
+++ b/data/CAI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="1402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="1403">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07385444641113</t>
+    <t xml:space="preserve">3.07385468482971</t>
   </si>
   <si>
     <t xml:space="preserve">CAI.MI</t>
@@ -47,16 +47,16 @@
     <t xml:space="preserve">3.08614468574524</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01786708831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97690057754517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98099756240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88131165504456</t>
+    <t xml:space="preserve">3.01786732673645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97690081596375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98099732398987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88131189346313</t>
   </si>
   <si>
     <t xml:space="preserve">2.94003081321716</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">2.80620694160461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86082863807678</t>
+    <t xml:space="preserve">2.86082887649536</t>
   </si>
   <si>
     <t xml:space="preserve">2.75841236114502</t>
@@ -74,22 +74,22 @@
     <t xml:space="preserve">2.73929476737976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69013500213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71744585037231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86629104614258</t>
+    <t xml:space="preserve">2.69013476371765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71744608879089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.866290807724</t>
   </si>
   <si>
     <t xml:space="preserve">2.76387476921082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74475693702698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7570469379425</t>
+    <t xml:space="preserve">2.7447566986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75704717636108</t>
   </si>
   <si>
     <t xml:space="preserve">2.71061825752258</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">2.73110127449036</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76114368438721</t>
+    <t xml:space="preserve">2.76114344596863</t>
   </si>
   <si>
     <t xml:space="preserve">2.72563934326172</t>
@@ -113,10 +113,10 @@
     <t xml:space="preserve">2.62868499755859</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45935654640198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45799136161804</t>
+    <t xml:space="preserve">2.45935678482056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45799112319946</t>
   </si>
   <si>
     <t xml:space="preserve">2.30095291137695</t>
@@ -131,22 +131,22 @@
     <t xml:space="preserve">2.50441980361938</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67511343955994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81713128089905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7488534450531</t>
+    <t xml:space="preserve">2.67511367797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81713104248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74885368347168</t>
   </si>
   <si>
     <t xml:space="preserve">2.7816264629364</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68467235565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86219429969788</t>
+    <t xml:space="preserve">2.68467283248901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8621940612793</t>
   </si>
   <si>
     <t xml:space="preserve">2.8335177898407</t>
@@ -158,13 +158,13 @@
     <t xml:space="preserve">2.88404321670532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88540863990784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89769864082336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85127019882202</t>
+    <t xml:space="preserve">2.88540887832642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89769840240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85126996040344</t>
   </si>
   <si>
     <t xml:space="preserve">2.94685816764832</t>
@@ -173,28 +173,28 @@
     <t xml:space="preserve">2.94958972930908</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05883359909058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12164878845215</t>
+    <t xml:space="preserve">3.058833360672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12164902687073</t>
   </si>
   <si>
     <t xml:space="preserve">3.16125011444092</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18173289299011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20767879486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17900252342224</t>
+    <t xml:space="preserve">3.18173313140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20767855644226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1790018081665</t>
   </si>
   <si>
     <t xml:space="preserve">3.17217421531677</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23635506629944</t>
+    <t xml:space="preserve">3.23635458946228</t>
   </si>
   <si>
     <t xml:space="preserve">3.25001096725464</t>
@@ -209,25 +209,25 @@
     <t xml:space="preserve">3.23089289665222</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22952771186829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14076638221741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14896035194397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22543025016785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29234266281128</t>
+    <t xml:space="preserve">3.22952723503113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14076662063599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14895987510681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.225430727005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2923424243927</t>
   </si>
   <si>
     <t xml:space="preserve">3.21587181091309</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30463314056396</t>
+    <t xml:space="preserve">3.30463290214539</t>
   </si>
   <si>
     <t xml:space="preserve">3.27732157707214</t>
@@ -239,40 +239,40 @@
     <t xml:space="preserve">3.36608266830444</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40704870223999</t>
+    <t xml:space="preserve">3.40704917907715</t>
   </si>
   <si>
     <t xml:space="preserve">3.38656544685364</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33330917358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34833002090454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32511591911316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32375073432922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2978048324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26366662979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29097700119019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26022267341614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19182634353638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15620350837708</t>
+    <t xml:space="preserve">3.33330893516541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34833025932312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32511615753174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32375049591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29780507087708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26366639137268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29097723960876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2602231502533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19182658195496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1562032699585</t>
   </si>
   <si>
     <t xml:space="preserve">3.13482975959778</t>
@@ -281,7 +281,7 @@
     <t xml:space="preserve">3.17330265045166</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09208226203918</t>
+    <t xml:space="preserve">3.09208178520203</t>
   </si>
   <si>
     <t xml:space="preserve">3.14907884597778</t>
@@ -290,10 +290,10 @@
     <t xml:space="preserve">3.32291913032532</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34856748580933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33431839942932</t>
+    <t xml:space="preserve">3.34856772422791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33431816101074</t>
   </si>
   <si>
     <t xml:space="preserve">3.31151986122131</t>
@@ -302,13 +302,13 @@
     <t xml:space="preserve">3.38419103622437</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44403791427612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41981387138367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43406319618225</t>
+    <t xml:space="preserve">3.44403767585754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41981434822083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43406295776367</t>
   </si>
   <si>
     <t xml:space="preserve">3.48108601570129</t>
@@ -317,25 +317,25 @@
     <t xml:space="preserve">3.47681069374084</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43833875656128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45116233825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40841484069824</t>
+    <t xml:space="preserve">3.43833804130554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45116209983826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40841460227966</t>
   </si>
   <si>
     <t xml:space="preserve">3.39844012260437</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34714317321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20607590675354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02796030044556</t>
+    <t xml:space="preserve">3.34714269638062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20607566833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02796053886414</t>
   </si>
   <si>
     <t xml:space="preserve">2.94246530532837</t>
@@ -344,7 +344,7 @@
     <t xml:space="preserve">2.89971733093262</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89686751365662</t>
+    <t xml:space="preserve">2.89686727523804</t>
   </si>
   <si>
     <t xml:space="preserve">3.06643319129944</t>
@@ -356,64 +356,67 @@
     <t xml:space="preserve">3.1319797039032</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14195418357849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02938508987427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84984493255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95671439170837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06500792503357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16332793235779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96526408195496</t>
+    <t xml:space="preserve">3.14195370674133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02938532829285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84984517097473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95671391487122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06500816345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16332817077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96526384353638</t>
   </si>
   <si>
     <t xml:space="preserve">2.9552891254425</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99233722686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12058043479919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17045211791992</t>
+    <t xml:space="preserve">2.9923369884491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12058067321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17045259475708</t>
   </si>
   <si>
     <t xml:space="preserve">3.23599886894226</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17757701873779</t>
+    <t xml:space="preserve">3.17757725715637</t>
   </si>
   <si>
     <t xml:space="preserve">3.13625454902649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83702111244202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91966605186462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86551904678345</t>
+    <t xml:space="preserve">2.9495894908905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83702087402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9196662902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86551952362061</t>
   </si>
   <si>
     <t xml:space="preserve">2.90399241447449</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84129548072815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87549352645874</t>
+    <t xml:space="preserve">2.84129524230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87549376487732</t>
   </si>
   <si>
     <t xml:space="preserve">2.83559584617615</t>
@@ -422,7 +425,7 @@
     <t xml:space="preserve">2.79854798316956</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73442625999451</t>
+    <t xml:space="preserve">2.73442602157593</t>
   </si>
   <si>
     <t xml:space="preserve">2.77717399597168</t>
@@ -434,7 +437,7 @@
     <t xml:space="preserve">2.87406873703003</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84272050857544</t>
+    <t xml:space="preserve">2.84272027015686</t>
   </si>
   <si>
     <t xml:space="preserve">2.87834334373474</t>
@@ -443,13 +446,13 @@
     <t xml:space="preserve">2.92821574211121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92109084129333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94103980064392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86694407463074</t>
+    <t xml:space="preserve">2.92109131813049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9410400390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86694431304932</t>
   </si>
   <si>
     <t xml:space="preserve">2.85839486122131</t>
@@ -458,91 +461,91 @@
     <t xml:space="preserve">2.86409425735474</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81707191467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76007485389709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80567264556885</t>
+    <t xml:space="preserve">2.81707215309143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76007509231567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80567240715027</t>
   </si>
   <si>
     <t xml:space="preserve">2.77289938926697</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7586498260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77859902381897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68597912788391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62470698356628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59478378295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54776167869568</t>
+    <t xml:space="preserve">2.75865006446838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77859926223755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68597888946533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62470746040344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59478402137756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5477614402771</t>
   </si>
   <si>
     <t xml:space="preserve">2.58480930328369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65605568885803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65463066101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63610649108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60333323478699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57198476791382</t>
+    <t xml:space="preserve">2.65605545043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65463089942932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63610672950745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60333347320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5719850063324</t>
   </si>
   <si>
     <t xml:space="preserve">2.45086669921875</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44516706466675</t>
+    <t xml:space="preserve">2.44516682624817</t>
   </si>
   <si>
     <t xml:space="preserve">2.42379331588745</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44374179840088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41666865348816</t>
+    <t xml:space="preserve">2.44374227523804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41666841506958</t>
   </si>
   <si>
     <t xml:space="preserve">2.45941615104675</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61900782585144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61045789718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54918646812439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57910943031311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55061149597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52353763580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57341003417969</t>
+    <t xml:space="preserve">2.61900806427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61045813560486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54918670654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57910990715027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5506112575531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5235378742218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57341027259827</t>
   </si>
   <si>
     <t xml:space="preserve">2.64465618133545</t>
@@ -551,7 +554,7 @@
     <t xml:space="preserve">2.6931037902832</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64038157463074</t>
+    <t xml:space="preserve">2.64038109779358</t>
   </si>
   <si>
     <t xml:space="preserve">2.63895654678345</t>
@@ -563,13 +566,13 @@
     <t xml:space="preserve">2.63325691223145</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67172980308533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74867534637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73727583885193</t>
+    <t xml:space="preserve">2.67172956466675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74867558479309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73727607727051</t>
   </si>
   <si>
     <t xml:space="preserve">2.67315483093262</t>
@@ -581,22 +584,22 @@
     <t xml:space="preserve">2.7144775390625</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70735287666321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65178084373474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66887974739075</t>
+    <t xml:space="preserve">2.70735239982605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65178060531616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66887950897217</t>
   </si>
   <si>
     <t xml:space="preserve">2.63753151893616</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65748023986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56486082077026</t>
+    <t xml:space="preserve">2.65748047828674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56486058235168</t>
   </si>
   <si>
     <t xml:space="preserve">2.52211284637451</t>
@@ -605,58 +608,55 @@
     <t xml:space="preserve">2.51498818397522</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41524410247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43234252929688</t>
+    <t xml:space="preserve">2.41524362564087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43234276771545</t>
   </si>
   <si>
     <t xml:space="preserve">2.43661737442017</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39387011528015</t>
+    <t xml:space="preserve">2.39386963844299</t>
   </si>
   <si>
     <t xml:space="preserve">2.39244484901428</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45799112319946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35112237930298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42236852645874</t>
+    <t xml:space="preserve">2.3511221408844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42236828804016</t>
   </si>
   <si>
     <t xml:space="preserve">2.53066253662109</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5776846408844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5890839099884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63468170166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69595336914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68027925491333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69167876243591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69737839698792</t>
+    <t xml:space="preserve">2.57768511772156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58908438682556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63468194007874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69595313072205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68027901649475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69167852401733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69737815856934</t>
   </si>
   <si>
     <t xml:space="preserve">2.74012613296509</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74297571182251</t>
+    <t xml:space="preserve">2.74297547340393</t>
   </si>
   <si>
     <t xml:space="preserve">2.72445178031921</t>
@@ -680,43 +680,43 @@
     <t xml:space="preserve">2.7116277217865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69025349617004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65035581588745</t>
+    <t xml:space="preserve">2.69025373458862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65035557746887</t>
   </si>
   <si>
     <t xml:space="preserve">2.60760831832886</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5833842754364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55346155166626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52068829536438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60618352890015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56058597564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54491138458252</t>
+    <t xml:space="preserve">2.58338451385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5534610748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5206880569458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60618376731873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56058573722839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5449116230011</t>
   </si>
   <si>
     <t xml:space="preserve">2.54063701629639</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50501394271851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49788904190063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50643873214722</t>
+    <t xml:space="preserve">2.50501370429993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49788928031921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50643849372864</t>
   </si>
   <si>
     <t xml:space="preserve">2.53351211547852</t>
@@ -725,37 +725,37 @@
     <t xml:space="preserve">2.57625985145569</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60048365592957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59193396568298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58195924758911</t>
+    <t xml:space="preserve">2.60048413276672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59193420410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58195948600769</t>
   </si>
   <si>
     <t xml:space="preserve">2.55916094779968</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58623480796814</t>
+    <t xml:space="preserve">2.58623456954956</t>
   </si>
   <si>
     <t xml:space="preserve">2.53636193275452</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48506498336792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54348683357239</t>
+    <t xml:space="preserve">2.48506474494934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54348659515381</t>
   </si>
   <si>
     <t xml:space="preserve">2.68740391731262</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69452857971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75722503662109</t>
+    <t xml:space="preserve">2.69452834129333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75722479820251</t>
   </si>
   <si>
     <t xml:space="preserve">2.77147436141968</t>
@@ -779,10 +779,10 @@
     <t xml:space="preserve">3.03508496284485</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06215882301331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15477848052979</t>
+    <t xml:space="preserve">3.06215834617615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15477824211121</t>
   </si>
   <si>
     <t xml:space="preserve">3.29727053642273</t>
@@ -794,16 +794,16 @@
     <t xml:space="preserve">3.0778329372406</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16760301589966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1619029045105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16047811508179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21889996528625</t>
+    <t xml:space="preserve">3.16760277748108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16190314292908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16047787666321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21890020370483</t>
   </si>
   <si>
     <t xml:space="preserve">3.22174978256226</t>
@@ -815,49 +815,49 @@
     <t xml:space="preserve">3.28159666061401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26877236366272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23172378540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1790018081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1291298866272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19610166549683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10063147544861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19752597808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23884892463684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22602486610413</t>
+    <t xml:space="preserve">3.26877212524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23172402381897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17900228500366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12912964820862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19610118865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10063123703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19752621650696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23884868621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22602415084839</t>
   </si>
   <si>
     <t xml:space="preserve">3.29157090187073</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32576894760132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28302121162415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31864452362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34001898765564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39559054374695</t>
+    <t xml:space="preserve">3.3257691860199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28302145004272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31864428520203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34001851081848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39559030532837</t>
   </si>
   <si>
     <t xml:space="preserve">3.3556923866272</t>
@@ -866,7 +866,7 @@
     <t xml:space="preserve">3.23457407951355</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27019691467285</t>
+    <t xml:space="preserve">3.27019739151001</t>
   </si>
   <si>
     <t xml:space="preserve">3.0892322063446</t>
@@ -878,19 +878,19 @@
     <t xml:space="preserve">3.17488980293274</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09706711769104</t>
+    <t xml:space="preserve">3.09706664085388</t>
   </si>
   <si>
     <t xml:space="preserve">3.11147832870483</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13886070251465</t>
+    <t xml:space="preserve">3.13886094093323</t>
   </si>
   <si>
     <t xml:space="preserve">3.14462518692017</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11003708839417</t>
+    <t xml:space="preserve">3.11003732681274</t>
   </si>
   <si>
     <t xml:space="preserve">3.11868405342102</t>
@@ -899,16 +899,16 @@
     <t xml:space="preserve">3.07112574577332</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03797912597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04806733131409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99762630462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00627326965332</t>
+    <t xml:space="preserve">3.03797888755798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04806709289551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99762654304504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00627303123474</t>
   </si>
   <si>
     <t xml:space="preserve">2.97744989395142</t>
@@ -920,13 +920,13 @@
     <t xml:space="preserve">2.8722448348999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90395069122314</t>
+    <t xml:space="preserve">2.90395092964172</t>
   </si>
   <si>
     <t xml:space="preserve">2.89098024368286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87512731552124</t>
+    <t xml:space="preserve">2.87512707710266</t>
   </si>
   <si>
     <t xml:space="preserve">2.84918618202209</t>
@@ -938,10 +938,10 @@
     <t xml:space="preserve">2.9068329334259</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86936283111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87800931930542</t>
+    <t xml:space="preserve">2.86936259269714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.878009557724</t>
   </si>
   <si>
     <t xml:space="preserve">2.85783314704895</t>
@@ -956,10 +956,10 @@
     <t xml:space="preserve">2.82468628883362</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79298067092896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76415705680847</t>
+    <t xml:space="preserve">2.7929801940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76415729522705</t>
   </si>
   <si>
     <t xml:space="preserve">2.81027483940125</t>
@@ -971,16 +971,16 @@
     <t xml:space="preserve">2.79153943061829</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72956967353821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75262784957886</t>
+    <t xml:space="preserve">2.72956943511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75262808799744</t>
   </si>
   <si>
     <t xml:space="preserve">2.75983381271362</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74686336517334</t>
+    <t xml:space="preserve">2.74686360359192</t>
   </si>
   <si>
     <t xml:space="preserve">2.95439124107361</t>
@@ -989,22 +989,22 @@
     <t xml:space="preserve">2.92124438285828</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92845058441162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9255678653717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83189225196838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84342169761658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80451011657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83045101165771</t>
+    <t xml:space="preserve">2.92845034599304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92556810379028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8318920135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.843421459198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80450987815857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83045077323914</t>
   </si>
   <si>
     <t xml:space="preserve">2.82612752914429</t>
@@ -1013,19 +1013,19 @@
     <t xml:space="preserve">2.78865718841553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80739235877991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80883359909058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84053897857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85495066642761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86503911018372</t>
+    <t xml:space="preserve">2.80739212036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.808833360672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84053921699524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85495090484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86503934860229</t>
   </si>
   <si>
     <t xml:space="preserve">2.87656855583191</t>
@@ -1034,22 +1034,22 @@
     <t xml:space="preserve">2.90827393531799</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83909797668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73821640014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7555103302002</t>
+    <t xml:space="preserve">2.83909821510315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73821616172791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75551009178162</t>
   </si>
   <si>
     <t xml:space="preserve">2.76848077774048</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70218729972839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72668695449829</t>
+    <t xml:space="preserve">2.70218682289124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72668671607971</t>
   </si>
   <si>
     <t xml:space="preserve">2.71371626853943</t>
@@ -1058,19 +1058,19 @@
     <t xml:space="preserve">2.7252459526062</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68056964874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67480492591858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67336368560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65895247459412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67624592781067</t>
+    <t xml:space="preserve">2.68056988716125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6748046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67336416244507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65895223617554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67624616622925</t>
   </si>
   <si>
     <t xml:space="preserve">2.75406908988953</t>
@@ -1079,7 +1079,7 @@
     <t xml:space="preserve">2.79442191123962</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79874515533447</t>
+    <t xml:space="preserve">2.79874539375305</t>
   </si>
   <si>
     <t xml:space="preserve">2.74542212486267</t>
@@ -1091,7 +1091,7 @@
     <t xml:space="preserve">2.92268586158752</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02500867843628</t>
+    <t xml:space="preserve">3.0250084400177</t>
   </si>
   <si>
     <t xml:space="preserve">3.02644944190979</t>
@@ -1103,10 +1103,10 @@
     <t xml:space="preserve">3.10571384429932</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12156629562378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17056655883789</t>
+    <t xml:space="preserve">3.12156653404236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17056632041931</t>
   </si>
   <si>
     <t xml:space="preserve">3.14174294471741</t>
@@ -1121,25 +1121,25 @@
     <t xml:space="preserve">3.05671429634094</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07689023017883</t>
+    <t xml:space="preserve">3.07689046859741</t>
   </si>
   <si>
     <t xml:space="preserve">3.08409667015076</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07400822639465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04086089134216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05383157730103</t>
+    <t xml:space="preserve">3.07400798797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04086136817932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0538318157196</t>
   </si>
   <si>
     <t xml:space="preserve">3.17921328544617</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12589001655579</t>
+    <t xml:space="preserve">3.12589025497437</t>
   </si>
   <si>
     <t xml:space="preserve">3.05527281761169</t>
@@ -1154,10 +1154,10 @@
     <t xml:space="preserve">3.16191935539246</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1475076675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09994888305664</t>
+    <t xml:space="preserve">3.14750790596008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09994912147522</t>
   </si>
   <si>
     <t xml:space="preserve">3.13453722000122</t>
@@ -1172,13 +1172,13 @@
     <t xml:space="preserve">3.12877225875854</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11580204963684</t>
+    <t xml:space="preserve">3.11580181121826</t>
   </si>
   <si>
     <t xml:space="preserve">3.10427284240723</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12012529373169</t>
+    <t xml:space="preserve">3.12012553215027</t>
   </si>
   <si>
     <t xml:space="preserve">3.05815529823303</t>
@@ -1190,46 +1190,46 @@
     <t xml:space="preserve">2.97168564796448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7843337059021</t>
+    <t xml:space="preserve">2.78433394432068</t>
   </si>
   <si>
     <t xml:space="preserve">2.82180404663086</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8679211139679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89674472808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88233280181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85062742233276</t>
+    <t xml:space="preserve">2.86792135238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8967444896698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88233304023743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85062766075134</t>
   </si>
   <si>
     <t xml:space="preserve">2.82901000976562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82324504852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70362830162048</t>
+    <t xml:space="preserve">2.82324528694153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70362854003906</t>
   </si>
   <si>
     <t xml:space="preserve">2.72236371040344</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70506978034973</t>
+    <t xml:space="preserve">2.70506954193115</t>
   </si>
   <si>
     <t xml:space="preserve">2.71227550506592</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65607023239136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69858407974243</t>
+    <t xml:space="preserve">2.65606999397278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69858431816101</t>
   </si>
   <si>
     <t xml:space="preserve">2.76703953742981</t>
@@ -1238,10 +1238,10 @@
     <t xml:space="preserve">2.78505420684814</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72740769386292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69498157501221</t>
+    <t xml:space="preserve">2.72740745544434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69498133659363</t>
   </si>
   <si>
     <t xml:space="preserve">2.73461365699768</t>
@@ -1250,10 +1250,10 @@
     <t xml:space="preserve">2.7057900428772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73101043701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72020196914673</t>
+    <t xml:space="preserve">2.7310106754303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72020173072815</t>
   </si>
   <si>
     <t xml:space="preserve">2.79226016998291</t>
@@ -1265,13 +1265,13 @@
     <t xml:space="preserve">2.77424550056458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77064275741577</t>
+    <t xml:space="preserve">2.77064251899719</t>
   </si>
   <si>
     <t xml:space="preserve">2.70939302444458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74181914329529</t>
+    <t xml:space="preserve">2.74181938171387</t>
   </si>
   <si>
     <t xml:space="preserve">2.71299600601196</t>
@@ -1280,10 +1280,10 @@
     <t xml:space="preserve">2.63373184204102</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62652611732483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6409375667572</t>
+    <t xml:space="preserve">2.62652587890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64093732833862</t>
   </si>
   <si>
     <t xml:space="preserve">2.65534925460815</t>
@@ -1292,34 +1292,34 @@
     <t xml:space="preserve">2.64814352989197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58689403533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5724823474884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57968807220459</t>
+    <t xml:space="preserve">2.58689379692078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57248210906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57968783378601</t>
   </si>
   <si>
     <t xml:space="preserve">2.55807042121887</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56167364120483</t>
+    <t xml:space="preserve">2.56167316436768</t>
   </si>
   <si>
     <t xml:space="preserve">2.55086469650269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56887936592102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43557167053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37432169914246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30946922302246</t>
+    <t xml:space="preserve">2.5688796043396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43557143211365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37432193756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30946946144104</t>
   </si>
   <si>
     <t xml:space="preserve">2.39593935012817</t>
@@ -1334,10 +1334,10 @@
     <t xml:space="preserve">2.36351299285889</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35991024971008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29505729675293</t>
+    <t xml:space="preserve">2.3599100112915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29505753517151</t>
   </si>
   <si>
     <t xml:space="preserve">2.44998335838318</t>
@@ -1355,13 +1355,13 @@
     <t xml:space="preserve">2.4463803768158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4211597442627</t>
+    <t xml:space="preserve">2.42115950584412</t>
   </si>
   <si>
     <t xml:space="preserve">2.50762987136841</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59409999847412</t>
+    <t xml:space="preserve">2.59409976005554</t>
   </si>
   <si>
     <t xml:space="preserve">2.56527638435364</t>
@@ -1370,34 +1370,34 @@
     <t xml:space="preserve">2.63012909889221</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65174627304077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62292313575745</t>
+    <t xml:space="preserve">2.65174651145935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62292289733887</t>
   </si>
   <si>
     <t xml:space="preserve">2.60130524635315</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60851120948792</t>
+    <t xml:space="preserve">2.60851144790649</t>
   </si>
   <si>
     <t xml:space="preserve">2.6373348236084</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68417239189148</t>
+    <t xml:space="preserve">2.68417263031006</t>
   </si>
   <si>
     <t xml:space="preserve">2.66615796089172</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69137835502625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67696666717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73281216621399</t>
+    <t xml:space="preserve">2.69137859344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67696642875671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73281192779541</t>
   </si>
   <si>
     <t xml:space="preserve">2.62172198295593</t>
@@ -1412,25 +1412,25 @@
     <t xml:space="preserve">2.40324521064758</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43657207489014</t>
+    <t xml:space="preserve">2.43657231330872</t>
   </si>
   <si>
     <t xml:space="preserve">2.45879006385803</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39213609695435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40694832801819</t>
+    <t xml:space="preserve">2.39213585853577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40694808959961</t>
   </si>
   <si>
     <t xml:space="preserve">2.36991810798645</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29956150054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21068906784058</t>
+    <t xml:space="preserve">2.29956126213074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21068930625916</t>
   </si>
   <si>
     <t xml:space="preserve">2.32548236846924</t>
@@ -1451,10 +1451,10 @@
     <t xml:space="preserve">2.46989917755127</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5032262802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52174115180969</t>
+    <t xml:space="preserve">2.50322604179382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52174091339111</t>
   </si>
   <si>
     <t xml:space="preserve">2.53285002708435</t>
@@ -1478,22 +1478,22 @@
     <t xml:space="preserve">2.4736020565033</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44768118858337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53655290603638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4773051738739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51433491706848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48100781440735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46619606018066</t>
+    <t xml:space="preserve">2.44768095016479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53655314445496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47730493545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51433515548706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48100805282593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46619629859924</t>
   </si>
   <si>
     <t xml:space="preserve">2.39583897590637</t>
@@ -1505,40 +1505,40 @@
     <t xml:space="preserve">2.35140323638916</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36621499061584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34399747848511</t>
+    <t xml:space="preserve">2.36621522903442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34399724006653</t>
   </si>
   <si>
     <t xml:space="preserve">2.35880899429321</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35510611534119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3625123500824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30696725845337</t>
+    <t xml:space="preserve">2.35510635375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36251211166382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30696702003479</t>
   </si>
   <si>
     <t xml:space="preserve">2.3106701374054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32177925109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39954209327698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38102722167969</t>
+    <t xml:space="preserve">2.32177948951721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39954233169556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38102698326111</t>
   </si>
   <si>
     <t xml:space="preserve">2.41435408592224</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37362122535706</t>
+    <t xml:space="preserve">2.37362146377563</t>
   </si>
   <si>
     <t xml:space="preserve">2.31807637214661</t>
@@ -1550,40 +1550,40 @@
     <t xml:space="preserve">2.28104615211487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26993727684021</t>
+    <t xml:space="preserve">2.26993751525879</t>
   </si>
   <si>
     <t xml:space="preserve">2.30326414108276</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32918524742126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27734303474426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26623439788818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29215526580811</t>
+    <t xml:space="preserve">2.32918500900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27734327316284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2662341594696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29215550422668</t>
   </si>
   <si>
     <t xml:space="preserve">2.27364015579224</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2884521484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28474926948547</t>
+    <t xml:space="preserve">2.28845238685608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28474950790405</t>
   </si>
   <si>
     <t xml:space="preserve">2.38473033905029</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20698618888855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24031352996826</t>
+    <t xml:space="preserve">2.20698642730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24031329154968</t>
   </si>
   <si>
     <t xml:space="preserve">2.15514421463013</t>
@@ -1592,304 +1592,304 @@
     <t xml:space="preserve">2.13292622566223</t>
   </si>
   <si>
+    <t xml:space="preserve">2.14773869514465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10330200195312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09959936141968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08849024772644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10700535774231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0625696182251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98850929737091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95147943496704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02553939819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06627249717712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04775738716125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06997537612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12922334671021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14403557777405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13662934303284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18847107887268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21439218521118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23290753364563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25512552261353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20328330993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1995804309845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21809482574463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11811447143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07367825508118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11070847511292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24771928787231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33659100532532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51063203811646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65504908561707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68096995353699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60320711135864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62912797927856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65875196456909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65134596824646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62542510032654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71799993515015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70318818092346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7291088104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69207906723022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71429681777954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75502991676331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80316877365112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81798100471497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84390187263489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87352585792542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86241674423218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88093209266663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76243591308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76984190940857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7994658946991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79206013679504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81427764892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79576301574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75873303413391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85871362686157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90314984321594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89574384689331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90685296058655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88833808898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.962397813797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98091268539429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91796183586121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94758582115173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95128870010376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93647694587708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95499134063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93277382850647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91055583953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96980404853821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97720956802368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9401798248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89944672584534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81057476997375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8661196231842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80687189102173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83279299736023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8550112247467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71059417724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70689105987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61061310768127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6402370929718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6365339756012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63283085823059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61801886558533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69578194618225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68837594985962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61431622505188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56988000869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49211716651917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50692915916443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34770035743713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23661041259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18476819992065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19587731361389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.299480676651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21777319908142</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.14773845672607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10330247879028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09959959983826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08849048614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10700535774231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06256937980652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98850929737091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95147967338562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02553963661194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06627225875854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04775738716125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06997537612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12922310829163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14403533935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13662934303284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18847107887268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21439218521118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23290753364563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25512528419495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20328330993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1995804309845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21809530258179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11811447143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07367849349976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11070847511292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24771952629089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33659100532532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51063203811646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65504908561707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68096971511841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60320687294006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62912797927856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65875172615051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65134620666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62542486190796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71800017356873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70318818092346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72910928726196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69207882881165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71429705619812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75502991676331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8031690120697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81798076629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84390187263489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87352585792542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86241698265076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88093209266663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76243591308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76984190940857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79946613311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79206013679504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81427788734436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79576325416565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75873279571533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85871386528015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90314984321594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89574384689331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90685272216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88833785057068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.962397813797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98091268539429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91796183586121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94758558273315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95128846168518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93647694587708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95499181747437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93277382850647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91055583953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96980381011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97720980644226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94018006324768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89944648742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81057476997375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8661196231842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80687189102173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83279275894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85501098632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71059417724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70689082145691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61061310768127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6402370929718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6365339756012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63283109664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61801910400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69578194618225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68467283248901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68837594985962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6143159866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56988024711609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49211740493774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50692915916443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34770035743713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23661017417908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18476843833923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19587731361389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.299480676651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2177734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10883021354675</t>
+    <t xml:space="preserve">2.10883045196533</t>
   </si>
   <si>
     <t xml:space="preserve">2.12439346313477</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08937573432922</t>
+    <t xml:space="preserve">2.0893759727478</t>
   </si>
   <si>
     <t xml:space="preserve">2.10104846954346</t>
@@ -1904,22 +1904,22 @@
     <t xml:space="preserve">2.12050271034241</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13995695114136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12828421592712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07770347595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05046796798706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04657697677612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03490447998047</t>
+    <t xml:space="preserve">2.13995671272278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12828397750854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07770371437073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05046772956848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04657673835754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03490424156189</t>
   </si>
   <si>
     <t xml:space="preserve">2.05435872077942</t>
@@ -1931,37 +1931,37 @@
     <t xml:space="preserve">2.02323174476624</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05824947357178</t>
+    <t xml:space="preserve">2.0582492351532</t>
   </si>
   <si>
     <t xml:space="preserve">2.04268598556519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22944569587708</t>
+    <t xml:space="preserve">2.22944593429565</t>
   </si>
   <si>
     <t xml:space="preserve">2.1866466999054</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96876037120819</t>
+    <t xml:space="preserve">1.96876013278961</t>
   </si>
   <si>
     <t xml:space="preserve">2.00377774238586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.929851770401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02712249755859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94152414798737</t>
+    <t xml:space="preserve">1.92985200881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02712273597717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94152438640594</t>
   </si>
   <si>
     <t xml:space="preserve">1.84425354003906</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79367303848267</t>
+    <t xml:space="preserve">1.79367291927338</t>
   </si>
   <si>
     <t xml:space="preserve">1.76643693447113</t>
@@ -1970,19 +1970,19 @@
     <t xml:space="preserve">1.8092360496521</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7508739233017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74698269367218</t>
+    <t xml:space="preserve">1.75087380409241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74698281288147</t>
   </si>
   <si>
     <t xml:space="preserve">1.69251132011414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78978180885315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82090866565704</t>
+    <t xml:space="preserve">1.78978204727173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82090854644775</t>
   </si>
   <si>
     <t xml:space="preserve">1.73920106887817</t>
@@ -1994,28 +1994,28 @@
     <t xml:space="preserve">1.69640207290649</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71196556091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7197470664978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7041836977005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78589117527008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73141944408417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71585631370544</t>
+    <t xml:space="preserve">1.71196532249451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71974718570709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70418393611908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78589129447937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73141956329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71585619449615</t>
   </si>
   <si>
     <t xml:space="preserve">1.7353104352951</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78200042247772</t>
+    <t xml:space="preserve">1.78200018405914</t>
   </si>
   <si>
     <t xml:space="preserve">1.8325811624527</t>
@@ -2024,7 +2024,7 @@
     <t xml:space="preserve">1.80145454406738</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84036290645599</t>
+    <t xml:space="preserve">1.8403627872467</t>
   </si>
   <si>
     <t xml:space="preserve">1.85592615604401</t>
@@ -2039,13 +2039,13 @@
     <t xml:space="preserve">1.79756367206573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77032792568207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82869029045105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75476479530334</t>
+    <t xml:space="preserve">1.77032780647278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82869017124176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75476455688477</t>
   </si>
   <si>
     <t xml:space="preserve">1.75865542888641</t>
@@ -2054,7 +2054,7 @@
     <t xml:space="preserve">1.76254630088806</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80534517765045</t>
+    <t xml:space="preserve">1.80534529685974</t>
   </si>
   <si>
     <t xml:space="preserve">1.81701791286469</t>
@@ -2066,7 +2066,7 @@
     <t xml:space="preserve">1.91428864002228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93374252319336</t>
+    <t xml:space="preserve">1.93374276161194</t>
   </si>
   <si>
     <t xml:space="preserve">1.89094376564026</t>
@@ -2075,7 +2075,7 @@
     <t xml:space="preserve">1.87538027763367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90650701522827</t>
+    <t xml:space="preserve">1.90650725364685</t>
   </si>
   <si>
     <t xml:space="preserve">1.89483439922333</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">1.85981702804565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92207038402557</t>
+    <t xml:space="preserve">1.92207026481628</t>
   </si>
   <si>
     <t xml:space="preserve">2.01155924797058</t>
@@ -2096,7 +2096,7 @@
     <t xml:space="preserve">2.16330170631409</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08159422874451</t>
+    <t xml:space="preserve">2.08159446716309</t>
   </si>
   <si>
     <t xml:space="preserve">2.06214022636414</t>
@@ -2111,49 +2111,49 @@
     <t xml:space="preserve">2.19053769111633</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15551972389221</t>
+    <t xml:space="preserve">2.15551996231079</t>
   </si>
   <si>
     <t xml:space="preserve">2.19831919670105</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1710832118988</t>
+    <t xml:space="preserve">2.17108345031738</t>
   </si>
   <si>
     <t xml:space="preserve">2.14384770393372</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11272072792053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08548498153687</t>
+    <t xml:space="preserve">2.11272096633911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08548521995544</t>
   </si>
   <si>
     <t xml:space="preserve">2.01545000076294</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98821449279785</t>
+    <t xml:space="preserve">1.98821425437927</t>
   </si>
   <si>
     <t xml:space="preserve">2.15941095352173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.136066198349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01934099197388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87148940563202</t>
+    <t xml:space="preserve">2.13606572151184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01934123039246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8714896440506</t>
   </si>
   <si>
     <t xml:space="preserve">1.91039764881134</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92596113681793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89872539043427</t>
+    <t xml:space="preserve">1.92596089839935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89872515201569</t>
   </si>
   <si>
     <t xml:space="preserve">1.9531968832016</t>
@@ -2162,19 +2162,19 @@
     <t xml:space="preserve">1.99988687038422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95708787441254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96486961841583</t>
+    <t xml:space="preserve">1.95708763599396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96486937999725</t>
   </si>
   <si>
     <t xml:space="preserve">1.99210524559021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72752857208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68862056732178</t>
+    <t xml:space="preserve">1.7275288105011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68862044811249</t>
   </si>
   <si>
     <t xml:space="preserve">1.62636709213257</t>
@@ -2183,7 +2183,7 @@
     <t xml:space="preserve">1.59524047374725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54232513904572</t>
+    <t xml:space="preserve">1.542325258255</t>
   </si>
   <si>
     <t xml:space="preserve">1.48941004276276</t>
@@ -2195,16 +2195,16 @@
     <t xml:space="preserve">1.33844578266144</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30420637130737</t>
+    <t xml:space="preserve">1.30420625209808</t>
   </si>
   <si>
     <t xml:space="preserve">1.27619230747223</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09098875522614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16102385520935</t>
+    <t xml:space="preserve">1.09098887443542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16102373600006</t>
   </si>
   <si>
     <t xml:space="preserve">1.08009457588196</t>
@@ -2231,10 +2231,10 @@
     <t xml:space="preserve">1.35400903224945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26685428619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27152335643768</t>
+    <t xml:space="preserve">1.26685440540314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27152323722839</t>
   </si>
   <si>
     <t xml:space="preserve">1.32288241386414</t>
@@ -2249,52 +2249,52 @@
     <t xml:space="preserve">1.29331207275391</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39291739463806</t>
+    <t xml:space="preserve">1.39291727542877</t>
   </si>
   <si>
     <t xml:space="preserve">1.36179065704346</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26062905788422</t>
+    <t xml:space="preserve">1.26062917709351</t>
   </si>
   <si>
     <t xml:space="preserve">1.29642474651337</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29798114299774</t>
+    <t xml:space="preserve">1.29798102378845</t>
   </si>
   <si>
     <t xml:space="preserve">1.33688938617706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29953730106354</t>
+    <t xml:space="preserve">1.29953742027283</t>
   </si>
   <si>
     <t xml:space="preserve">1.31354439258575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29175567626953</t>
+    <t xml:space="preserve">1.29175555706024</t>
   </si>
   <si>
     <t xml:space="preserve">1.28241777420044</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22950255870819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23884046077728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24350941181183</t>
+    <t xml:space="preserve">1.2295024394989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23884034156799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24350953102112</t>
   </si>
   <si>
     <t xml:space="preserve">1.20927011966705</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17503082752228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13300967216492</t>
+    <t xml:space="preserve">1.17503094673157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13300979137421</t>
   </si>
   <si>
     <t xml:space="preserve">1.10343945026398</t>
@@ -2306,10 +2306,10 @@
     <t xml:space="preserve">1.08631992340088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05674958229065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06764388084412</t>
+    <t xml:space="preserve">1.05674970149994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06764376163483</t>
   </si>
   <si>
     <t xml:space="preserve">1.12211561203003</t>
@@ -2318,7 +2318,7 @@
     <t xml:space="preserve">1.10655224323273</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14234793186188</t>
+    <t xml:space="preserve">1.14234805107117</t>
   </si>
   <si>
     <t xml:space="preserve">1.15012955665588</t>
@@ -2330,10 +2330,10 @@
     <t xml:space="preserve">1.1983757019043</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2450658082962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23728406429291</t>
+    <t xml:space="preserve">1.24506568908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2372841835022</t>
   </si>
   <si>
     <t xml:space="preserve">1.2217208147049</t>
@@ -2342,22 +2342,22 @@
     <t xml:space="preserve">1.28708672523499</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27930498123169</t>
+    <t xml:space="preserve">1.27930510044098</t>
   </si>
   <si>
     <t xml:space="preserve">1.17969989776611</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16413640975952</t>
+    <t xml:space="preserve">1.16413652896881</t>
   </si>
   <si>
     <t xml:space="preserve">1.23572778701782</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2061573266983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20771396160126</t>
+    <t xml:space="preserve">1.20615744590759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20771384239197</t>
   </si>
   <si>
     <t xml:space="preserve">1.18748152256012</t>
@@ -2372,46 +2372,46 @@
     <t xml:space="preserve">1.18592512607574</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13612258434296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1579110622406</t>
+    <t xml:space="preserve">1.13612246513367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15791118144989</t>
   </si>
   <si>
     <t xml:space="preserve">1.14079141616821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18436872959137</t>
+    <t xml:space="preserve">1.18436884880066</t>
   </si>
   <si>
     <t xml:space="preserve">1.17036175727844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14546036720276</t>
+    <t xml:space="preserve">1.14546048641205</t>
   </si>
   <si>
     <t xml:space="preserve">1.16724920272827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17347455024719</t>
+    <t xml:space="preserve">1.1734744310379</t>
   </si>
   <si>
     <t xml:space="preserve">1.15168583393097</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17191815376282</t>
+    <t xml:space="preserve">1.17191827297211</t>
   </si>
   <si>
     <t xml:space="preserve">1.1656928062439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1563549041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12522804737091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09565782546997</t>
+    <t xml:space="preserve">1.15635466575623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1252281665802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09565794467926</t>
   </si>
   <si>
     <t xml:space="preserve">1.08165085315704</t>
@@ -2426,16 +2426,16 @@
     <t xml:space="preserve">1.06297492980957</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04896795749664</t>
+    <t xml:space="preserve">1.04896807670593</t>
   </si>
   <si>
     <t xml:space="preserve">1.09410154819489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07075667381287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09721422195435</t>
+    <t xml:space="preserve">1.07075643539429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09721410274506</t>
   </si>
   <si>
     <t xml:space="preserve">1.0614185333252</t>
@@ -2444,13 +2444,13 @@
     <t xml:space="preserve">1.05052423477173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04585528373718</t>
+    <t xml:space="preserve">1.04585516452789</t>
   </si>
   <si>
     <t xml:space="preserve">1.03962993621826</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04118633270264</t>
+    <t xml:space="preserve">1.04118621349335</t>
   </si>
   <si>
     <t xml:space="preserve">1.03340458869934</t>
@@ -2459,7 +2459,7 @@
     <t xml:space="preserve">1.03496086597443</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0365172624588</t>
+    <t xml:space="preserve">1.03651738166809</t>
   </si>
   <si>
     <t xml:space="preserve">1.02251029014587</t>
@@ -2471,22 +2471,22 @@
     <t xml:space="preserve">1.01628494262695</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00850331783295</t>
+    <t xml:space="preserve">1.00850319862366</t>
   </si>
   <si>
     <t xml:space="preserve">1.01005959510803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00072157382965</t>
+    <t xml:space="preserve">1.00072169303894</t>
   </si>
   <si>
     <t xml:space="preserve">0.991383612155914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.96648234128952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9649258852005</t>
+    <t xml:space="preserve">0.966482222080231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96492600440979</t>
   </si>
   <si>
     <t xml:space="preserve">0.958700597286224</t>
@@ -2495,7 +2495,7 @@
     <t xml:space="preserve">0.954031646251678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975820302963257</t>
+    <t xml:space="preserve">0.975820183753967</t>
   </si>
   <si>
     <t xml:space="preserve">0.989827334880829</t>
@@ -2504,16 +2504,16 @@
     <t xml:space="preserve">0.969595015048981</t>
   </si>
   <si>
-    <t xml:space="preserve">0.949362695217133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.968038558959961</t>
+    <t xml:space="preserve">0.949362576007843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96803867816925</t>
   </si>
   <si>
     <t xml:space="preserve">0.957144320011139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.980489253997803</t>
+    <t xml:space="preserve">0.980489373207092</t>
   </si>
   <si>
     <t xml:space="preserve">0.999165236949921</t>
@@ -2522,13 +2522,13 @@
     <t xml:space="preserve">1.06453132629395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05830597877502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02406656742096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988270998001099</t>
+    <t xml:space="preserve">1.05830585956573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02406668663025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988270878791809</t>
   </si>
   <si>
     <t xml:space="preserve">0.985158324241638</t>
@@ -2546,34 +2546,34 @@
     <t xml:space="preserve">0.879327714443207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887109398841858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.888665556907654</t>
+    <t xml:space="preserve">0.887109339237213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.888665616512299</t>
   </si>
   <si>
     <t xml:space="preserve">0.891778409481049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835750341415405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.803067326545715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.787504076957703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.829524993896484</t>
+    <t xml:space="preserve">0.83575040102005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.80306738615036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.787504136562347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.829525053501129</t>
   </si>
   <si>
     <t xml:space="preserve">0.831081390380859</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840419352054596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826412498950958</t>
+    <t xml:space="preserve">0.840419411659241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826412439346313</t>
   </si>
   <si>
     <t xml:space="preserve">0.817074358463287</t>
@@ -2582,19 +2582,19 @@
     <t xml:space="preserve">0.866877019405365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89644730091095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.902672588825226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915123283863068</t>
+    <t xml:space="preserve">0.896447360515594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.902672648429871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915123343467712</t>
   </si>
   <si>
     <t xml:space="preserve">0.940024495124817</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977376699447632</t>
+    <t xml:space="preserve">0.977376639842987</t>
   </si>
   <si>
     <t xml:space="preserve">0.963369727134705</t>
@@ -2606,16 +2606,16 @@
     <t xml:space="preserve">0.978932917118073</t>
   </si>
   <si>
-    <t xml:space="preserve">0.929130375385284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961813151836395</t>
+    <t xml:space="preserve">0.92913031578064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961813271045685</t>
   </si>
   <si>
     <t xml:space="preserve">0.946249902248383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943137288093567</t>
+    <t xml:space="preserve">0.943137407302856</t>
   </si>
   <si>
     <t xml:space="preserve">0.930686712265015</t>
@@ -2633,52 +2633,52 @@
     <t xml:space="preserve">0.935355663299561</t>
   </si>
   <si>
-    <t xml:space="preserve">0.971151411533356</t>
+    <t xml:space="preserve">0.971151292324066</t>
   </si>
   <si>
     <t xml:space="preserve">0.947806358337402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.919792354106903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913567006587982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907341718673706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916679680347443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8995600938797</t>
+    <t xml:space="preserve">0.919792294502258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913567066192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907341659069061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916679620742798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.899560034275055</t>
   </si>
   <si>
     <t xml:space="preserve">0.918236017227173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.908897936344147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.894890904426575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910454332828522</t>
+    <t xml:space="preserve">0.908897995948792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.894891023635864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.910454273223877</t>
   </si>
   <si>
     <t xml:space="preserve">0.944693624973297</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01784121990204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05363690853119</t>
+    <t xml:space="preserve">1.01784110069275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05363702774048</t>
   </si>
   <si>
     <t xml:space="preserve">1.13767886161804</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15946745872498</t>
+    <t xml:space="preserve">1.15946757793427</t>
   </si>
   <si>
     <t xml:space="preserve">1.12989723682404</t>
@@ -2696,7 +2696,7 @@
     <t xml:space="preserve">1.12834084033966</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12055909633636</t>
+    <t xml:space="preserve">1.12055921554565</t>
   </si>
   <si>
     <t xml:space="preserve">1.11744654178619</t>
@@ -2705,28 +2705,28 @@
     <t xml:space="preserve">1.15479850769043</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31198799610138</t>
+    <t xml:space="preserve">1.31198811531067</t>
   </si>
   <si>
     <t xml:space="preserve">1.25907278060913</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24662220478058</t>
+    <t xml:space="preserve">1.24662208557129</t>
   </si>
   <si>
     <t xml:space="preserve">1.2528475522995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25440359115601</t>
+    <t xml:space="preserve">1.2544037103653</t>
   </si>
   <si>
     <t xml:space="preserve">1.22638976573944</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23105871677399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2699670791626</t>
+    <t xml:space="preserve">1.23105883598328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26996719837189</t>
   </si>
   <si>
     <t xml:space="preserve">1.25751650333405</t>
@@ -2735,10 +2735,10 @@
     <t xml:space="preserve">1.26841068267822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27307975292206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36023437976837</t>
+    <t xml:space="preserve">1.27307987213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36023426055908</t>
   </si>
   <si>
     <t xml:space="preserve">1.38513565063477</t>
@@ -2762,16 +2762,16 @@
     <t xml:space="preserve">1.38980460166931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39758634567261</t>
+    <t xml:space="preserve">1.39758622646332</t>
   </si>
   <si>
     <t xml:space="preserve">1.39136099815369</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40536797046661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4380509853363</t>
+    <t xml:space="preserve">1.4053680896759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43805110454559</t>
   </si>
   <si>
     <t xml:space="preserve">1.52053654193878</t>
@@ -2780,7 +2780,7 @@
     <t xml:space="preserve">1.57189548015594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56022298336029</t>
+    <t xml:space="preserve">1.56022310256958</t>
   </si>
   <si>
     <t xml:space="preserve">1.58745884895325</t>
@@ -2798,19 +2798,19 @@
     <t xml:space="preserve">1.50497317314148</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49096620082855</t>
+    <t xml:space="preserve">1.49096632003784</t>
   </si>
   <si>
     <t xml:space="preserve">1.51798808574677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46871304512024</t>
+    <t xml:space="preserve">1.46871316432953</t>
   </si>
   <si>
     <t xml:space="preserve">1.45281779766083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46712350845337</t>
+    <t xml:space="preserve">1.46712338924408</t>
   </si>
   <si>
     <t xml:space="preserve">1.47348153591156</t>
@@ -2825,13 +2825,13 @@
     <t xml:space="preserve">1.48142910003662</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54818868637085</t>
+    <t xml:space="preserve">1.54818880558014</t>
   </si>
   <si>
     <t xml:space="preserve">1.55454683303833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5561363697052</t>
+    <t xml:space="preserve">1.55613648891449</t>
   </si>
   <si>
     <t xml:space="preserve">1.57044196128845</t>
@@ -2840,19 +2840,19 @@
     <t xml:space="preserve">1.56567347049713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56726312637329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53706228733063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5275251865387</t>
+    <t xml:space="preserve">1.567263007164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53706216812134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52752506732941</t>
   </si>
   <si>
     <t xml:space="preserve">1.47030258178711</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44328081607819</t>
+    <t xml:space="preserve">1.4432806968689</t>
   </si>
   <si>
     <t xml:space="preserve">1.40672183036804</t>
@@ -2867,7 +2867,7 @@
     <t xml:space="preserve">1.39241623878479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35744678974152</t>
+    <t xml:space="preserve">1.35744690895081</t>
   </si>
   <si>
     <t xml:space="preserve">1.34949922561646</t>
@@ -2876,10 +2876,10 @@
     <t xml:space="preserve">1.34790980815887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33201467990875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35585737228394</t>
+    <t xml:space="preserve">1.33201456069946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35585725307465</t>
   </si>
   <si>
     <t xml:space="preserve">1.31929838657379</t>
@@ -2888,7 +2888,7 @@
     <t xml:space="preserve">1.31453001499176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27638161182404</t>
+    <t xml:space="preserve">1.27638149261475</t>
   </si>
   <si>
     <t xml:space="preserve">1.3018137216568</t>
@@ -2912,7 +2912,7 @@
     <t xml:space="preserve">1.22074854373932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22233784198761</t>
+    <t xml:space="preserve">1.2223379611969</t>
   </si>
   <si>
     <t xml:space="preserve">1.2557178735733</t>
@@ -2927,10 +2927,10 @@
     <t xml:space="preserve">1.28273963928223</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22710657119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21121144294739</t>
+    <t xml:space="preserve">1.2271066904068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2112113237381</t>
   </si>
   <si>
     <t xml:space="preserve">1.2732025384903</t>
@@ -2948,13 +2948,13 @@
     <t xml:space="preserve">1.35267841815948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3749315738678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37970006465912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38128960132599</t>
+    <t xml:space="preserve">1.37493169307709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37969994544983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38128972053528</t>
   </si>
   <si>
     <t xml:space="preserve">1.34314131736755</t>
@@ -2963,16 +2963,16 @@
     <t xml:space="preserve">1.33678317070007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36221539974213</t>
+    <t xml:space="preserve">1.36221528053284</t>
   </si>
   <si>
     <t xml:space="preserve">1.363804936409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39877426624298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42897498607635</t>
+    <t xml:space="preserve">1.39877438545227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42897510528564</t>
   </si>
   <si>
     <t xml:space="preserve">1.40513241291046</t>
@@ -2981,7 +2981,7 @@
     <t xml:space="preserve">1.5338830947876</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49732434749603</t>
+    <t xml:space="preserve">1.49732422828674</t>
   </si>
   <si>
     <t xml:space="preserve">1.47189211845398</t>
@@ -2999,7 +2999,7 @@
     <t xml:space="preserve">1.45917594432831</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46076536178589</t>
+    <t xml:space="preserve">1.46076548099518</t>
   </si>
   <si>
     <t xml:space="preserve">1.41943800449371</t>
@@ -3011,7 +3011,7 @@
     <t xml:space="preserve">1.33996224403381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3415515422821</t>
+    <t xml:space="preserve">1.34155166149139</t>
   </si>
   <si>
     <t xml:space="preserve">1.3351936340332</t>
@@ -3041,10 +3041,10 @@
     <t xml:space="preserve">1.52116715908051</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49573469161987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50845086574554</t>
+    <t xml:space="preserve">1.49573481082916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50845098495483</t>
   </si>
   <si>
     <t xml:space="preserve">1.51162993907928</t>
@@ -3056,7 +3056,7 @@
     <t xml:space="preserve">1.51321947574615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47507107257843</t>
+    <t xml:space="preserve">1.47507095336914</t>
   </si>
   <si>
     <t xml:space="preserve">1.44010174274445</t>
@@ -3065,7 +3065,7 @@
     <t xml:space="preserve">1.4877872467041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47983968257904</t>
+    <t xml:space="preserve">1.47983956336975</t>
   </si>
   <si>
     <t xml:space="preserve">1.45599687099457</t>
@@ -3074,7 +3074,7 @@
     <t xml:space="preserve">1.48301875591278</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51004040241241</t>
+    <t xml:space="preserve">1.51004028320312</t>
   </si>
   <si>
     <t xml:space="preserve">1.56249439716339</t>
@@ -3104,7 +3104,7 @@
     <t xml:space="preserve">1.57362115383148</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43851208686829</t>
+    <t xml:space="preserve">1.43851220607758</t>
   </si>
   <si>
     <t xml:space="preserve">1.44645977020264</t>
@@ -3122,13 +3122,13 @@
     <t xml:space="preserve">1.51639842987061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61335897445679</t>
+    <t xml:space="preserve">1.61335909366608</t>
   </si>
   <si>
     <t xml:space="preserve">1.61733281612396</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63322806358337</t>
+    <t xml:space="preserve">1.63322794437408</t>
   </si>
   <si>
     <t xml:space="preserve">1.62130653858185</t>
@@ -3140,7 +3140,7 @@
     <t xml:space="preserve">1.58792674541473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60143768787384</t>
+    <t xml:space="preserve">1.60143780708313</t>
   </si>
   <si>
     <t xml:space="preserve">1.62925410270691</t>
@@ -3149,7 +3149,7 @@
     <t xml:space="preserve">1.66104435920715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53865170478821</t>
+    <t xml:space="preserve">1.5386518239975</t>
   </si>
   <si>
     <t xml:space="preserve">1.51957750320435</t>
@@ -3161,7 +3161,7 @@
     <t xml:space="preserve">1.52911472320557</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53070402145386</t>
+    <t xml:space="preserve">1.53070414066315</t>
   </si>
   <si>
     <t xml:space="preserve">1.52434611320496</t>
@@ -3173,13 +3173,13 @@
     <t xml:space="preserve">1.37334203720093</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30817198753357</t>
+    <t xml:space="preserve">1.30817186832428</t>
   </si>
   <si>
     <t xml:space="preserve">1.30022442340851</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22869610786438</t>
+    <t xml:space="preserve">1.22869598865509</t>
   </si>
   <si>
     <t xml:space="preserve">1.23346471786499</t>
@@ -3194,64 +3194,64 @@
     <t xml:space="preserve">1.40831136703491</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59746384620667</t>
+    <t xml:space="preserve">1.59746372699738</t>
   </si>
   <si>
     <t xml:space="preserve">1.7484678030014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78423178195953</t>
+    <t xml:space="preserve">1.78423190116882</t>
   </si>
   <si>
     <t xml:space="preserve">1.76038908958435</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77231049537659</t>
+    <t xml:space="preserve">1.77231061458588</t>
   </si>
   <si>
     <t xml:space="preserve">1.78025805950165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74449396133423</t>
+    <t xml:space="preserve">1.74449408054352</t>
   </si>
   <si>
     <t xml:space="preserve">1.81999599933624</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81204843521118</t>
+    <t xml:space="preserve">1.81204855442047</t>
   </si>
   <si>
     <t xml:space="preserve">1.83191752433777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8279435634613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85178625583649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83589112758636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83986508846283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82396984100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77628421783447</t>
+    <t xml:space="preserve">1.82794368267059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85178649425507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83589124679565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83986520767212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82396996021271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77628433704376</t>
   </si>
   <si>
     <t xml:space="preserve">1.79217958450317</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76833665370941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.788205742836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72859871387482</t>
+    <t xml:space="preserve">1.76833689212799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78820586204529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7285989522934</t>
   </si>
   <si>
     <t xml:space="preserve">1.64514923095703</t>
@@ -3260,16 +3260,16 @@
     <t xml:space="preserve">1.71667766571045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73654639720917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75641548633575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76436293125153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80410075187683</t>
+    <t xml:space="preserve">1.73654651641846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75641560554504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76436305046082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80410087108612</t>
   </si>
   <si>
     <t xml:space="preserve">1.7403576374054</t>
@@ -4218,6 +4218,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.17499995231628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10999989509583</t>
   </si>
 </sst>
 </file>
@@ -8191,7 +8194,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G140" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -8217,7 +8220,7 @@
         <v>3.98200011253357</v>
       </c>
       <c r="G141" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H141" t="s">
         <v>9</v>
@@ -8243,7 +8246,7 @@
         <v>4.09800004959106</v>
       </c>
       <c r="G142" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H142" t="s">
         <v>9</v>
@@ -8269,7 +8272,7 @@
         <v>4.02199983596802</v>
       </c>
       <c r="G143" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H143" t="s">
         <v>9</v>
@@ -8295,7 +8298,7 @@
         <v>4.07600021362305</v>
       </c>
       <c r="G144" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -8347,7 +8350,7 @@
         <v>3.98799991607666</v>
       </c>
       <c r="G146" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -8373,7 +8376,7 @@
         <v>4.03599977493286</v>
       </c>
       <c r="G147" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -8399,7 +8402,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G148" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -8425,7 +8428,7 @@
         <v>3.98799991607666</v>
       </c>
       <c r="G149" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -8451,7 +8454,7 @@
         <v>3.92799997329712</v>
       </c>
       <c r="G150" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -8477,7 +8480,7 @@
         <v>3.83800005912781</v>
       </c>
       <c r="G151" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -8503,7 +8506,7 @@
         <v>3.89800000190735</v>
       </c>
       <c r="G152" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -8529,7 +8532,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G153" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -8555,7 +8558,7 @@
         <v>4.03399991989136</v>
       </c>
       <c r="G154" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -8581,7 +8584,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G155" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -8607,7 +8610,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G156" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -8633,7 +8636,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G157" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -8659,7 +8662,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G158" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -8685,7 +8688,7 @@
         <v>4.12799978256226</v>
       </c>
       <c r="G159" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -8711,7 +8714,7 @@
         <v>4.02199983596802</v>
       </c>
       <c r="G160" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -8737,7 +8740,7 @@
         <v>4.02400016784668</v>
       </c>
       <c r="G161" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -8763,7 +8766,7 @@
         <v>4.01200008392334</v>
       </c>
       <c r="G162" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -8841,7 +8844,7 @@
         <v>4.03399991989136</v>
       </c>
       <c r="G165" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -8867,7 +8870,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G166" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -8945,7 +8948,7 @@
         <v>3.9539999961853</v>
       </c>
       <c r="G169" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -8971,7 +8974,7 @@
         <v>3.87400007247925</v>
       </c>
       <c r="G170" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -9023,7 +9026,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G172" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -9049,7 +9052,7 @@
         <v>3.93799996376038</v>
       </c>
       <c r="G173" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -9075,7 +9078,7 @@
         <v>3.89199995994568</v>
       </c>
       <c r="G174" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -9101,7 +9104,7 @@
         <v>3.87199997901917</v>
       </c>
       <c r="G175" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -9127,7 +9130,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G176" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -9153,7 +9156,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G177" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -9179,7 +9182,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G178" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -9205,7 +9208,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G179" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -9231,7 +9234,7 @@
         <v>3.68400001525879</v>
       </c>
       <c r="G180" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -9257,7 +9260,7 @@
         <v>3.64199995994568</v>
       </c>
       <c r="G181" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -9283,7 +9286,7 @@
         <v>3.57599997520447</v>
       </c>
       <c r="G182" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -9309,7 +9312,7 @@
         <v>3.62800002098083</v>
       </c>
       <c r="G183" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -9335,7 +9338,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G184" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -9361,7 +9364,7 @@
         <v>3.7260000705719</v>
       </c>
       <c r="G185" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -9387,7 +9390,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G186" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -9413,7 +9416,7 @@
         <v>3.65400004386902</v>
       </c>
       <c r="G187" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -9439,7 +9442,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G188" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -9465,7 +9468,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G189" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -9491,7 +9494,7 @@
         <v>3.43199992179871</v>
       </c>
       <c r="G190" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -9517,7 +9520,7 @@
         <v>3.40199995040894</v>
       </c>
       <c r="G191" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -9543,7 +9546,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G192" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -9569,7 +9572,7 @@
         <v>3.39199995994568</v>
       </c>
       <c r="G193" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -9595,7 +9598,7 @@
         <v>3.45199990272522</v>
       </c>
       <c r="G194" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -9621,7 +9624,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G195" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -9647,7 +9650,7 @@
         <v>3.67600011825562</v>
       </c>
       <c r="G196" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -9673,7 +9676,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G197" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -9699,7 +9702,7 @@
         <v>3.57800006866455</v>
       </c>
       <c r="G198" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -9725,7 +9728,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G199" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -9751,7 +9754,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G200" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -9777,7 +9780,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G201" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -9803,7 +9806,7 @@
         <v>3.54200005531311</v>
       </c>
       <c r="G202" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -9829,7 +9832,7 @@
         <v>3.61199998855591</v>
       </c>
       <c r="G203" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -9855,7 +9858,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G204" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -9881,7 +9884,7 @@
         <v>3.71199989318848</v>
       </c>
       <c r="G205" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -9907,7 +9910,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G206" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -9933,7 +9936,7 @@
         <v>3.70600008964539</v>
       </c>
       <c r="G207" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -9959,7 +9962,7 @@
         <v>3.7039999961853</v>
       </c>
       <c r="G208" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -9985,7 +9988,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G209" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -10011,7 +10014,7 @@
         <v>3.69600009918213</v>
       </c>
       <c r="G210" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -10037,7 +10040,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G211" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -10063,7 +10066,7 @@
         <v>3.75</v>
       </c>
       <c r="G212" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -10089,7 +10092,7 @@
         <v>3.85800004005432</v>
       </c>
       <c r="G213" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -10115,7 +10118,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G214" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -10141,7 +10144,7 @@
         <v>3.89800000190735</v>
       </c>
       <c r="G215" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -10167,7 +10170,7 @@
         <v>3.84200000762939</v>
       </c>
       <c r="G216" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -10193,7 +10196,7 @@
         <v>3.75200009346008</v>
       </c>
       <c r="G217" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -10219,7 +10222,7 @@
         <v>3.79399991035461</v>
       </c>
       <c r="G218" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -10245,7 +10248,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G219" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -10271,7 +10274,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G220" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -10297,7 +10300,7 @@
         <v>3.72199988365173</v>
       </c>
       <c r="G221" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -10323,7 +10326,7 @@
         <v>3.74600005149841</v>
       </c>
       <c r="G222" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -10349,7 +10352,7 @@
         <v>3.70199990272522</v>
       </c>
       <c r="G223" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -10375,7 +10378,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G224" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -10401,7 +10404,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G225" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -10427,7 +10430,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G226" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -10453,7 +10456,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G227" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -10479,7 +10482,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G228" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10505,7 +10508,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G229" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -10531,7 +10534,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G230" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -10557,7 +10560,7 @@
         <v>3.40199995040894</v>
       </c>
       <c r="G231" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10583,7 +10586,7 @@
         <v>3.41400003433228</v>
       </c>
       <c r="G232" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -10609,7 +10612,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G233" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10635,7 +10638,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G234" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -10661,7 +10664,7 @@
         <v>3.35800004005432</v>
       </c>
       <c r="G235" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -10687,7 +10690,7 @@
         <v>3.40199995040894</v>
       </c>
       <c r="G236" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10713,7 +10716,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G237" t="s">
-        <v>202</v>
+        <v>34</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10817,7 +10820,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G241" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -10895,7 +10898,7 @@
         <v>3.64199995994568</v>
       </c>
       <c r="G244" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -10921,7 +10924,7 @@
         <v>3.69600009918213</v>
       </c>
       <c r="G245" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -10973,7 +10976,7 @@
         <v>3.75</v>
       </c>
       <c r="G247" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -10999,7 +11002,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G248" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -11025,7 +11028,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G249" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -11051,7 +11054,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G250" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -11129,7 +11132,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G253" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -11207,7 +11210,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G256" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -11233,7 +11236,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G257" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -11389,7 +11392,7 @@
         <v>3.79399991035461</v>
       </c>
       <c r="G263" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -11415,7 +11418,7 @@
         <v>3.75200009346008</v>
       </c>
       <c r="G264" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -11441,7 +11444,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G265" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11493,7 +11496,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G267" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -11727,7 +11730,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G276" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -11805,7 +11808,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G279" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -12299,7 +12302,7 @@
         <v>3.54200005531311</v>
       </c>
       <c r="G298" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -12429,7 +12432,7 @@
         <v>3.7260000705719</v>
       </c>
       <c r="G303" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -12689,7 +12692,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G313" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -26573,7 +26576,7 @@
         <v>3.625</v>
       </c>
       <c r="G847" t="s">
-        <v>611</v>
+        <v>43</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -26599,7 +26602,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G848" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -26625,7 +26628,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G849" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -26677,7 +26680,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G851" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -26703,7 +26706,7 @@
         <v>3.36500000953674</v>
       </c>
       <c r="G852" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -26729,7 +26732,7 @@
         <v>3.38499999046326</v>
       </c>
       <c r="G853" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -26755,7 +26758,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G854" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -26859,7 +26862,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G858" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -26911,7 +26914,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G860" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -26937,7 +26940,7 @@
         <v>2.96499991416931</v>
       </c>
       <c r="G861" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -26989,7 +26992,7 @@
         <v>2.95499992370605</v>
       </c>
       <c r="G863" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -27015,7 +27018,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G864" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -27041,7 +27044,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G865" t="s">
-        <v>526</v>
+        <v>622</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -27301,7 +27304,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G875" t="s">
-        <v>526</v>
+        <v>622</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27951,7 +27954,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G900" t="s">
-        <v>526</v>
+        <v>622</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -30655,7 +30658,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1004" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -30915,7 +30918,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G1014" t="s">
-        <v>526</v>
+        <v>622</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -60641,7 +60644,7 @@
     </row>
     <row r="2158">
       <c r="A2158" s="1" t="n">
-        <v>45467.649375</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B2158" t="n">
         <v>190424</v>
@@ -60653,7 +60656,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="E2158" t="n">
-        <v>2.16000008583069</v>
+        <v>2.1800000667572</v>
       </c>
       <c r="F2158" t="n">
         <v>2.17499995231628</v>
@@ -60662,6 +60665,32 @@
         <v>1401</v>
       </c>
       <c r="H2158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="1" t="n">
+        <v>45468.6494444444</v>
+      </c>
+      <c r="B2159" t="n">
+        <v>431261</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>2.17000007629395</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>2.10500001907349</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>2.17000007629395</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>2.10999989509583</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>1402</v>
+      </c>
+      <c r="H2159" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CAI.MI.xlsx
+++ b/data/CAI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="1418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="1419">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07385444641113</t>
+    <t xml:space="preserve">3.07385492324829</t>
   </si>
   <si>
     <t xml:space="preserve">CAI.MI</t>
@@ -50,37 +50,37 @@
     <t xml:space="preserve">3.01786708831787</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97690033912659</t>
+    <t xml:space="preserve">2.97690057754517</t>
   </si>
   <si>
     <t xml:space="preserve">2.98099732398987</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88131213188171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94003081321716</t>
+    <t xml:space="preserve">2.88131189346313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94003105163574</t>
   </si>
   <si>
     <t xml:space="preserve">2.80620694160461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86082887649536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75841236114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73929500579834</t>
+    <t xml:space="preserve">2.86082863807678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7584125995636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73929476737976</t>
   </si>
   <si>
     <t xml:space="preserve">2.69013500213623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71744608879089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.866290807724</t>
+    <t xml:space="preserve">2.71744585037231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86629104614258</t>
   </si>
   <si>
     <t xml:space="preserve">2.76387453079224</t>
@@ -89,16 +89,16 @@
     <t xml:space="preserve">2.74475693702698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75704717636108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71061825752258</t>
+    <t xml:space="preserve">2.7570469379425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.710618019104</t>
   </si>
   <si>
     <t xml:space="preserve">2.73110127449036</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76114392280579</t>
+    <t xml:space="preserve">2.76114368438721</t>
   </si>
   <si>
     <t xml:space="preserve">2.7256395816803</t>
@@ -113,28 +113,28 @@
     <t xml:space="preserve">2.62868499755859</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45935678482056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45799112319946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30095291137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38971352577209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53992438316345</t>
+    <t xml:space="preserve">2.45935702323914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45799136161804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30095267295837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38971400260925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53992462158203</t>
   </si>
   <si>
     <t xml:space="preserve">2.50442004203796</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67511391639709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81713128089905</t>
+    <t xml:space="preserve">2.67511367797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81713080406189</t>
   </si>
   <si>
     <t xml:space="preserve">2.7488534450531</t>
@@ -146,295 +146,298 @@
     <t xml:space="preserve">2.68467283248901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86219429969788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83351755142212</t>
+    <t xml:space="preserve">2.86219453811646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8335177898407</t>
   </si>
   <si>
     <t xml:space="preserve">2.84717321395874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88404321670532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88540840148926</t>
+    <t xml:space="preserve">2.88404297828674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88540863990784</t>
   </si>
   <si>
     <t xml:space="preserve">2.89769840240479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85126972198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94685840606689</t>
+    <t xml:space="preserve">2.85126996040344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94685816764832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94958996772766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05883359909058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12164926528931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1612503528595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18173336982727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20767831802368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17900204658508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17217445373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23635506629944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25001120567322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21041011810303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2226996421814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23089265823364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22952771186829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14076662063599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14895987510681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.225430727005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29234266281128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21587204933167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30463266372681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2773220539093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34559941291809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36608242988586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40704870223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38656544685364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33330941200256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34833025932312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32511591911316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32375025749207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29780435562134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26366639137268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29097723960876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26022291183472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19182634353638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1562032699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13482975959778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17330265045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09208202362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1490786075592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3229193687439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34856796264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3343186378479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31151962280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38419103622437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4440381526947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41981434822083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43406343460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48108553886414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47681069374084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43833804130554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45116186141968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40841484069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39844059944153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34714269638062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20607566833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02796030044556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94246506690979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89971733093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89686751365662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06643319129944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08495712280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13197994232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14195394515991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02938508987427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84984469413757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95671439170837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06500840187073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16332817077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96526408195496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95528888702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99233746528625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12058043479919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17045259475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23599886894226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17757749557495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13625431060791</t>
   </si>
   <si>
     <t xml:space="preserve">2.9495894908905</t>
   </si>
   <si>
-    <t xml:space="preserve">3.058833360672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12164878845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16125011444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18173313140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20767879486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17900204658508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17217421531677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23635482788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25001072883606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21040987968445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22269916534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23089265823364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22952747344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14076685905457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14895987510681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.225430727005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29234290122986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21587228775024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30463290214539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27732157707214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34559893608093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36608242988586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40704917907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38656568527222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33330941200256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34833025932312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32511591911316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32375025749207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29780507087708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26366639137268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29097747802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2602231502533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19182634353638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15620303153992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1348295211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17330241203308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09208202362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1490786075592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32291960716248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34856748580933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33431839942932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31151962280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38419079780579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44403767585754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41981387138367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43406295776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48108625411987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47681093215942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43833827972412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45116233825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40841460227966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39844036102295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34714269638062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20607566833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02796030044556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94246506690979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8997175693512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8968677520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06643295288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08495712280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13197946548462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14195394515991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02938508987427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84984517097473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95671415328979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06500840187073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16332769393921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96526384353638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9552891254425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99233722686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12058019638062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17045211791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23599934577942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17757725715637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13625478744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83702063560486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9196662902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86551880836487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90399241447449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84129571914673</t>
+    <t xml:space="preserve">2.83702087402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91966605186462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86551904678345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90399217605591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84129524230957</t>
   </si>
   <si>
     <t xml:space="preserve">2.87549352645874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83559584617615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79854774475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73442625999451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77717399597168</t>
+    <t xml:space="preserve">2.83559560775757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79854798316956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73442649841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77717423439026</t>
   </si>
   <si>
     <t xml:space="preserve">2.88546824455261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87406897544861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84272027015686</t>
+    <t xml:space="preserve">2.87406873703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84272050857544</t>
   </si>
   <si>
     <t xml:space="preserve">2.87834334373474</t>
@@ -446,16 +449,16 @@
     <t xml:space="preserve">2.92109107971191</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9410400390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86694431304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85839486122131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86409425735474</t>
+    <t xml:space="preserve">2.94103980064392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8669445514679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85839462280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86409449577332</t>
   </si>
   <si>
     <t xml:space="preserve">2.81707191467285</t>
@@ -464,25 +467,25 @@
     <t xml:space="preserve">2.76007485389709</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80567264556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77289891242981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75865006446838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77859902381897</t>
+    <t xml:space="preserve">2.80567193031311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77289915084839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7586498260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77859926223755</t>
   </si>
   <si>
     <t xml:space="preserve">2.68597888946533</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62470722198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59478378295898</t>
+    <t xml:space="preserve">2.62470746040344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59478402137756</t>
   </si>
   <si>
     <t xml:space="preserve">2.5477614402771</t>
@@ -494,43 +497,43 @@
     <t xml:space="preserve">2.65605545043945</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65463066101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63610696792603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60333323478699</t>
+    <t xml:space="preserve">2.6546311378479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63610672950745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60333347320557</t>
   </si>
   <si>
     <t xml:space="preserve">2.5719850063324</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45086669921875</t>
+    <t xml:space="preserve">2.45086646080017</t>
   </si>
   <si>
     <t xml:space="preserve">2.44516682624817</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42379331588745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44374203681946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41666841506958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45941615104675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61900734901428</t>
+    <t xml:space="preserve">2.42379307746887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44374227523804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41666865348816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45941591262817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61900806427002</t>
   </si>
   <si>
     <t xml:space="preserve">2.61045813560486</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54918670654297</t>
+    <t xml:space="preserve">2.54918622970581</t>
   </si>
   <si>
     <t xml:space="preserve">2.57910966873169</t>
@@ -539,25 +542,25 @@
     <t xml:space="preserve">2.5506112575531</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52353763580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57341027259827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64465594291687</t>
+    <t xml:space="preserve">2.52353811264038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57341003417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64465618133545</t>
   </si>
   <si>
     <t xml:space="preserve">2.69310355186462</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64038157463074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63895654678345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62898206710815</t>
+    <t xml:space="preserve">2.64038109779358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63895630836487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62898230552673</t>
   </si>
   <si>
     <t xml:space="preserve">2.63325691223145</t>
@@ -566,10 +569,10 @@
     <t xml:space="preserve">2.67172956466675</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74867558479309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73727583885193</t>
+    <t xml:space="preserve">2.74867582321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73727607727051</t>
   </si>
   <si>
     <t xml:space="preserve">2.67315483093262</t>
@@ -581,7 +584,7 @@
     <t xml:space="preserve">2.7144775390625</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70735287666321</t>
+    <t xml:space="preserve">2.70735239982605</t>
   </si>
   <si>
     <t xml:space="preserve">2.65178084373474</t>
@@ -593,49 +596,46 @@
     <t xml:space="preserve">2.63753151893616</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65748023986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56486034393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52211260795593</t>
+    <t xml:space="preserve">2.65748071670532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56486082077026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52211284637451</t>
   </si>
   <si>
     <t xml:space="preserve">2.5149884223938</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41524410247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43234300613403</t>
+    <t xml:space="preserve">2.41524338722229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43234276771545</t>
   </si>
   <si>
     <t xml:space="preserve">2.43661737442017</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39386940002441</t>
+    <t xml:space="preserve">2.39386987686157</t>
   </si>
   <si>
     <t xml:space="preserve">2.39244484901428</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45799136161804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3511221408844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42236852645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53066229820251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57768487930298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58908414840698</t>
+    <t xml:space="preserve">2.35112190246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42236828804016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53066253662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57768511772156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58908438682556</t>
   </si>
   <si>
     <t xml:space="preserve">2.63468170166016</t>
@@ -650,10 +650,10 @@
     <t xml:space="preserve">2.69167876243591</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69737815856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74012589454651</t>
+    <t xml:space="preserve">2.69737839698792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74012613296509</t>
   </si>
   <si>
     <t xml:space="preserve">2.74297571182251</t>
@@ -662,10 +662,10 @@
     <t xml:space="preserve">2.72445178031921</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72302675247192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72872638702393</t>
+    <t xml:space="preserve">2.7230269908905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7287266254425</t>
   </si>
   <si>
     <t xml:space="preserve">2.76434969902039</t>
@@ -674,16 +674,16 @@
     <t xml:space="preserve">2.75152516365051</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75580048561096</t>
+    <t xml:space="preserve">2.7558000087738</t>
   </si>
   <si>
     <t xml:space="preserve">2.71162748336792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69025373458862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65035581588745</t>
+    <t xml:space="preserve">2.6902539730072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65035605430603</t>
   </si>
   <si>
     <t xml:space="preserve">2.60760855674744</t>
@@ -692,25 +692,25 @@
     <t xml:space="preserve">2.58338451385498</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5534610748291</t>
+    <t xml:space="preserve">2.55346131324768</t>
   </si>
   <si>
     <t xml:space="preserve">2.5206880569458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60618305206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56058597564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54491138458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54063701629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50501394271851</t>
+    <t xml:space="preserve">2.60618329048157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56058573722839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5449116230011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54063653945923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50501370429993</t>
   </si>
   <si>
     <t xml:space="preserve">2.49788904190063</t>
@@ -719,22 +719,22 @@
     <t xml:space="preserve">2.50643849372864</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53351211547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57625961303711</t>
+    <t xml:space="preserve">2.53351235389709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57625985145569</t>
   </si>
   <si>
     <t xml:space="preserve">2.60048341751099</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59193396568298</t>
+    <t xml:space="preserve">2.59193420410156</t>
   </si>
   <si>
     <t xml:space="preserve">2.58195972442627</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55916047096252</t>
+    <t xml:space="preserve">2.55916094779968</t>
   </si>
   <si>
     <t xml:space="preserve">2.58623433113098</t>
@@ -749,10 +749,10 @@
     <t xml:space="preserve">2.54348683357239</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68740367889404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69452834129333</t>
+    <t xml:space="preserve">2.68740391731262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69452857971191</t>
   </si>
   <si>
     <t xml:space="preserve">2.75722503662109</t>
@@ -761,22 +761,22 @@
     <t xml:space="preserve">2.77147436141968</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79712295532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78857350349426</t>
+    <t xml:space="preserve">2.79712271690369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78857326507568</t>
   </si>
   <si>
     <t xml:space="preserve">2.79997277259827</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83132123947144</t>
+    <t xml:space="preserve">2.83132100105286</t>
   </si>
   <si>
     <t xml:space="preserve">2.9054172039032</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03508496284485</t>
+    <t xml:space="preserve">3.03508520126343</t>
   </si>
   <si>
     <t xml:space="preserve">3.06215858459473</t>
@@ -785,16 +785,16 @@
     <t xml:space="preserve">3.15477824211121</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29727053642273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25737309455872</t>
+    <t xml:space="preserve">3.29727029800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25737333297729</t>
   </si>
   <si>
     <t xml:space="preserve">3.0778329372406</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16760301589966</t>
+    <t xml:space="preserve">3.16760277748108</t>
   </si>
   <si>
     <t xml:space="preserve">3.16190338134766</t>
@@ -803,46 +803,46 @@
     <t xml:space="preserve">3.16047811508179</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21889972686768</t>
+    <t xml:space="preserve">3.21889996528625</t>
   </si>
   <si>
     <t xml:space="preserve">3.22174954414368</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27589678764343</t>
+    <t xml:space="preserve">3.27589702606201</t>
   </si>
   <si>
     <t xml:space="preserve">3.28159642219543</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26877188682556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23172378540039</t>
+    <t xml:space="preserve">3.26877212524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23172402381897</t>
   </si>
   <si>
     <t xml:space="preserve">3.1291298866272</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19610118865967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10063171386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19752597808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23884868621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22602438926697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29157090187073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32576942443848</t>
+    <t xml:space="preserve">3.19610095024109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10063147544861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19752621650696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23884844779968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22602415084839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29157114028931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32576894760132</t>
   </si>
   <si>
     <t xml:space="preserve">3.28302121162415</t>
@@ -851,13 +851,13 @@
     <t xml:space="preserve">3.31864452362061</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34001874923706</t>
+    <t xml:space="preserve">3.34001851081848</t>
   </si>
   <si>
     <t xml:space="preserve">3.39559006690979</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3556923866272</t>
+    <t xml:space="preserve">3.35569262504578</t>
   </si>
   <si>
     <t xml:space="preserve">3.23457384109497</t>
@@ -866,7 +866,7 @@
     <t xml:space="preserve">3.27019739151001</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0892322063446</t>
+    <t xml:space="preserve">3.08923172950745</t>
   </si>
   <si>
     <t xml:space="preserve">3.06358361244202</t>
@@ -875,31 +875,31 @@
     <t xml:space="preserve">3.17488980293274</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09706687927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11147832870483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13886046409607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14462542533875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11003732681274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11868453025818</t>
+    <t xml:space="preserve">3.09706664085388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11147856712341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13886070251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14462518692017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11003708839417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11868405342102</t>
   </si>
   <si>
     <t xml:space="preserve">3.07112574577332</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03797912597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04806709289551</t>
+    <t xml:space="preserve">3.03797888755798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04806685447693</t>
   </si>
   <si>
     <t xml:space="preserve">2.99762630462646</t>
@@ -911,13 +911,13 @@
     <t xml:space="preserve">2.97744989395142</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91836261749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87224459648132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90395045280457</t>
+    <t xml:space="preserve">2.9183623790741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8722448348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90395069122314</t>
   </si>
   <si>
     <t xml:space="preserve">2.89098000526428</t>
@@ -929,16 +929,16 @@
     <t xml:space="preserve">2.84918618202209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92700886726379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90683317184448</t>
+    <t xml:space="preserve">2.92700910568237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9068329334259</t>
   </si>
   <si>
     <t xml:space="preserve">2.86936259269714</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87800931930542</t>
+    <t xml:space="preserve">2.878009557724</t>
   </si>
   <si>
     <t xml:space="preserve">2.85783338546753</t>
@@ -947,10 +947,10 @@
     <t xml:space="preserve">2.85350966453552</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87080383300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82468628883362</t>
+    <t xml:space="preserve">2.87080359458923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8246865272522</t>
   </si>
   <si>
     <t xml:space="preserve">2.79298067092896</t>
@@ -968,28 +968,28 @@
     <t xml:space="preserve">2.79153943061829</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72956943511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75262808799744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75983357429504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74686360359192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95439100265503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92124462127686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92845010757446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9255678653717</t>
+    <t xml:space="preserve">2.72956919670105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75262784957886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75983381271362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74686336517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95439124107361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92124438285828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92845034599304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92556810379028</t>
   </si>
   <si>
     <t xml:space="preserve">2.83189225196838</t>
@@ -998,25 +998,25 @@
     <t xml:space="preserve">2.84342169761658</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80450987815857</t>
+    <t xml:space="preserve">2.80451011657715</t>
   </si>
   <si>
     <t xml:space="preserve">2.83045101165771</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82612752914429</t>
+    <t xml:space="preserve">2.82612776756287</t>
   </si>
   <si>
     <t xml:space="preserve">2.78865718841553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80739212036133</t>
+    <t xml:space="preserve">2.80739235877991</t>
   </si>
   <si>
     <t xml:space="preserve">2.80883359909058</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84053897857666</t>
+    <t xml:space="preserve">2.84053921699524</t>
   </si>
   <si>
     <t xml:space="preserve">2.85495066642761</t>
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">2.87656855583191</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90827393531799</t>
+    <t xml:space="preserve">2.90827369689941</t>
   </si>
   <si>
     <t xml:space="preserve">2.83909797668457</t>
@@ -1040,22 +1040,22 @@
     <t xml:space="preserve">2.7555103302002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76848077774048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70218706130981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72668695449829</t>
+    <t xml:space="preserve">2.7684805393219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70218729972839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72668719291687</t>
   </si>
   <si>
     <t xml:space="preserve">2.71371650695801</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72524571418762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68056964874268</t>
+    <t xml:space="preserve">2.7252459526062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68056988716125</t>
   </si>
   <si>
     <t xml:space="preserve">2.67480492591858</t>
@@ -1067,37 +1067,37 @@
     <t xml:space="preserve">2.65895223617554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67624640464783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75406885147095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7944221496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79874539375305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74542236328125</t>
+    <t xml:space="preserve">2.67624616622925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75406932830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79442191123962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79874563217163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74542212486267</t>
   </si>
   <si>
     <t xml:space="preserve">2.78577494621277</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92268586158752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02500867843628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02644944190979</t>
+    <t xml:space="preserve">2.9226861000061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0250084400177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02644920349121</t>
   </si>
   <si>
     <t xml:space="preserve">3.06968474388123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1057140827179</t>
+    <t xml:space="preserve">3.10571384429932</t>
   </si>
   <si>
     <t xml:space="preserve">3.12156653404236</t>
@@ -1106,31 +1106,31 @@
     <t xml:space="preserve">3.17056632041931</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14174270629883</t>
+    <t xml:space="preserve">3.14174294471741</t>
   </si>
   <si>
     <t xml:space="preserve">3.13597869873047</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09850835800171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05671429634094</t>
+    <t xml:space="preserve">3.09850811958313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05671405792236</t>
   </si>
   <si>
     <t xml:space="preserve">3.07689046859741</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08409643173218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07400798797607</t>
+    <t xml:space="preserve">3.08409667015076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07400822639465</t>
   </si>
   <si>
     <t xml:space="preserve">3.04086112976074</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0538318157196</t>
+    <t xml:space="preserve">3.05383157730103</t>
   </si>
   <si>
     <t xml:space="preserve">3.17921352386475</t>
@@ -1148,16 +1148,16 @@
     <t xml:space="preserve">3.14894866943359</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16191935539246</t>
+    <t xml:space="preserve">3.16191911697388</t>
   </si>
   <si>
     <t xml:space="preserve">3.1475076675415</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09994912147522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13453674316406</t>
+    <t xml:space="preserve">3.0999493598938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13453698158264</t>
   </si>
   <si>
     <t xml:space="preserve">3.15903687477112</t>
@@ -1166,43 +1166,43 @@
     <t xml:space="preserve">3.15471339225769</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12877225875854</t>
+    <t xml:space="preserve">3.12877249717712</t>
   </si>
   <si>
     <t xml:space="preserve">3.11580181121826</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10427284240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12012529373169</t>
+    <t xml:space="preserve">3.10427260398865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12012553215027</t>
   </si>
   <si>
     <t xml:space="preserve">3.05815529823303</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00483226776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97168564796448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7843337059021</t>
+    <t xml:space="preserve">3.00483202934265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9716854095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78433346748352</t>
   </si>
   <si>
     <t xml:space="preserve">2.82180380821228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86792159080505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89674472808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88233327865601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85062766075134</t>
+    <t xml:space="preserve">2.8679211139679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8967444896698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88233304023743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85062742233276</t>
   </si>
   <si>
     <t xml:space="preserve">2.82900977134705</t>
@@ -1211,43 +1211,43 @@
     <t xml:space="preserve">2.82324528694153</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70362830162048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72236371040344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70506978034973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71227502822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6560697555542</t>
+    <t xml:space="preserve">2.70362854003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72236394882202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70506954193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71227526664734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65606999397278</t>
   </si>
   <si>
     <t xml:space="preserve">2.69858431816101</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76703953742981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78505396842957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72740793228149</t>
+    <t xml:space="preserve">2.76703977584839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78505420684814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72740745544434</t>
   </si>
   <si>
     <t xml:space="preserve">2.69498133659363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7346134185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7057900428772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7310106754303</t>
+    <t xml:space="preserve">2.73461365699768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70579028129578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73101043701172</t>
   </si>
   <si>
     <t xml:space="preserve">2.72020173072815</t>
@@ -1256,13 +1256,13 @@
     <t xml:space="preserve">2.79226016998291</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84630393981934</t>
+    <t xml:space="preserve">2.84630417823792</t>
   </si>
   <si>
     <t xml:space="preserve">2.774245262146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77064251899719</t>
+    <t xml:space="preserve">2.77064275741577</t>
   </si>
   <si>
     <t xml:space="preserve">2.70939302444458</t>
@@ -1271,7 +1271,7 @@
     <t xml:space="preserve">2.74181938171387</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71299624443054</t>
+    <t xml:space="preserve">2.71299600601196</t>
   </si>
   <si>
     <t xml:space="preserve">2.63373184204102</t>
@@ -1280,16 +1280,16 @@
     <t xml:space="preserve">2.62652587890625</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6409375667572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65534901618958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64814329147339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58689379692078</t>
+    <t xml:space="preserve">2.64093732833862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65534925460815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64814352989197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5868935585022</t>
   </si>
   <si>
     <t xml:space="preserve">2.5724823474884</t>
@@ -1301,28 +1301,28 @@
     <t xml:space="preserve">2.55807065963745</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56167340278625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55086445808411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56887912750244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43557143211365</t>
+    <t xml:space="preserve">2.56167387962341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55086469650269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56887936592102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43557119369507</t>
   </si>
   <si>
     <t xml:space="preserve">2.37432193756104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30946922302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39593911170959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41755700111389</t>
+    <t xml:space="preserve">2.30946898460388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39593958854675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41755676269531</t>
   </si>
   <si>
     <t xml:space="preserve">2.41395354270935</t>
@@ -1331,19 +1331,19 @@
     <t xml:space="preserve">2.36351299285889</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3599100112915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29505753517151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4499831199646</t>
+    <t xml:space="preserve">2.35991024971008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29505777359009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44998288154602</t>
   </si>
   <si>
     <t xml:space="preserve">2.3527045249939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52204155921936</t>
+    <t xml:space="preserve">2.52204132080078</t>
   </si>
   <si>
     <t xml:space="preserve">2.42836546897888</t>
@@ -1352,31 +1352,31 @@
     <t xml:space="preserve">2.44638013839722</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42115950584412</t>
+    <t xml:space="preserve">2.42115998268127</t>
   </si>
   <si>
     <t xml:space="preserve">2.50762987136841</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59409952163696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56527614593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63012886047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65174651145935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62292337417603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60130548477173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60851144790649</t>
+    <t xml:space="preserve">2.59409976005554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56527638435364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63012909889221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65174627304077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62292313575745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60130524635315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60851120948792</t>
   </si>
   <si>
     <t xml:space="preserve">2.6373348236084</t>
@@ -1385,43 +1385,43 @@
     <t xml:space="preserve">2.68417239189148</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6661581993103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69137835502625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67696690559387</t>
+    <t xml:space="preserve">2.66615843772888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69137859344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67696666717529</t>
   </si>
   <si>
     <t xml:space="preserve">2.73281192779541</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62172174453735</t>
+    <t xml:space="preserve">2.62172198295593</t>
   </si>
   <si>
     <t xml:space="preserve">2.49582004547119</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48841381072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40324521064758</t>
+    <t xml:space="preserve">2.48841428756714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.403244972229</t>
   </si>
   <si>
     <t xml:space="preserve">2.43657207489014</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45878982543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39213585853577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40694808959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36991834640503</t>
+    <t xml:space="preserve">2.45879006385803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39213609695435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40694785118103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36991810798645</t>
   </si>
   <si>
     <t xml:space="preserve">2.29956126213074</t>
@@ -1433,13 +1433,13 @@
     <t xml:space="preserve">2.32548236846924</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37732410430908</t>
+    <t xml:space="preserve">2.37732434272766</t>
   </si>
   <si>
     <t xml:space="preserve">2.38843321800232</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4291660785675</t>
+    <t xml:space="preserve">2.42916631698608</t>
   </si>
   <si>
     <t xml:space="preserve">2.41805720329285</t>
@@ -1448,10 +1448,10 @@
     <t xml:space="preserve">2.46989917755127</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5032262802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52174115180969</t>
+    <t xml:space="preserve">2.50322604179382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52174091339111</t>
   </si>
   <si>
     <t xml:space="preserve">2.53285002708435</t>
@@ -1460,7 +1460,7 @@
     <t xml:space="preserve">2.57728600502014</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52544403076172</t>
+    <t xml:space="preserve">2.5254442691803</t>
   </si>
   <si>
     <t xml:space="preserve">2.45508718490601</t>
@@ -1472,13 +1472,13 @@
     <t xml:space="preserve">2.54395890235901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4736020565033</t>
+    <t xml:space="preserve">2.47360229492188</t>
   </si>
   <si>
     <t xml:space="preserve">2.44768118858337</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53655290603638</t>
+    <t xml:space="preserve">2.53655314445496</t>
   </si>
   <si>
     <t xml:space="preserve">2.4773051738739</t>
@@ -1493,10 +1493,10 @@
     <t xml:space="preserve">2.46619606018066</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39583897590637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41065120697021</t>
+    <t xml:space="preserve">2.39583873748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41065144538879</t>
   </si>
   <si>
     <t xml:space="preserve">2.35140323638916</t>
@@ -1505,16 +1505,16 @@
     <t xml:space="preserve">2.36621522903442</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34399724006653</t>
+    <t xml:space="preserve">2.34399747848511</t>
   </si>
   <si>
     <t xml:space="preserve">2.35880923271179</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35510635375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3625123500824</t>
+    <t xml:space="preserve">2.35510659217834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36251211166382</t>
   </si>
   <si>
     <t xml:space="preserve">2.30696725845337</t>
@@ -1523,10 +1523,10 @@
     <t xml:space="preserve">2.3106701374054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32177901268005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39954209327698</t>
+    <t xml:space="preserve">2.32177925109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39954233169556</t>
   </si>
   <si>
     <t xml:space="preserve">2.38102698326111</t>
@@ -1535,49 +1535,49 @@
     <t xml:space="preserve">2.41435408592224</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37362122535706</t>
+    <t xml:space="preserve">2.37362098693848</t>
   </si>
   <si>
     <t xml:space="preserve">2.31807637214661</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29585814476013</t>
+    <t xml:space="preserve">2.29585838317871</t>
   </si>
   <si>
     <t xml:space="preserve">2.28104615211487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26993727684021</t>
+    <t xml:space="preserve">2.26993751525879</t>
   </si>
   <si>
     <t xml:space="preserve">2.30326414108276</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32918500900269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27734327316284</t>
+    <t xml:space="preserve">2.32918524742126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27734303474426</t>
   </si>
   <si>
     <t xml:space="preserve">2.2662341594696</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29215550422668</t>
+    <t xml:space="preserve">2.29215526580811</t>
   </si>
   <si>
     <t xml:space="preserve">2.27364039421082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28845238685608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28474926948547</t>
+    <t xml:space="preserve">2.2884521484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28474950790405</t>
   </si>
   <si>
     <t xml:space="preserve">2.38473010063171</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20698618888855</t>
+    <t xml:space="preserve">2.20698666572571</t>
   </si>
   <si>
     <t xml:space="preserve">2.24031329154968</t>
@@ -1589,7 +1589,7 @@
     <t xml:space="preserve">2.13292646408081</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14773869514465</t>
+    <t xml:space="preserve">2.14773845672607</t>
   </si>
   <si>
     <t xml:space="preserve">2.1033022403717</t>
@@ -1604,28 +1604,28 @@
     <t xml:space="preserve">2.10700535774231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0625696182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9885094165802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95147943496704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02553915977478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06627249717712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04775738716125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06997537612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12922358512878</t>
+    <t xml:space="preserve">2.06256937980652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98850929737091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95147931575775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02553939819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0662727355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04775762557983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06997561454773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12922334671021</t>
   </si>
   <si>
     <t xml:space="preserve">2.14403533935547</t>
@@ -1634,19 +1634,19 @@
     <t xml:space="preserve">2.13662934303284</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18847107887268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21439218521118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23290705680847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25512528419495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20328330993652</t>
+    <t xml:space="preserve">2.18847131729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21439242362976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23290729522705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25512504577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20328307151794</t>
   </si>
   <si>
     <t xml:space="preserve">2.1995804309845</t>
@@ -1655,7 +1655,7 @@
     <t xml:space="preserve">2.21809530258179</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11811399459839</t>
+    <t xml:space="preserve">2.11811447143555</t>
   </si>
   <si>
     <t xml:space="preserve">2.07367825508118</t>
@@ -1664,31 +1664,31 @@
     <t xml:space="preserve">2.11070823669434</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24771928787231</t>
+    <t xml:space="preserve">2.24771952629089</t>
   </si>
   <si>
     <t xml:space="preserve">2.3365912437439</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51063227653503</t>
+    <t xml:space="preserve">2.51063203811646</t>
   </si>
   <si>
     <t xml:space="preserve">2.65504908561707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68096995353699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60320687294006</t>
+    <t xml:space="preserve">2.68096971511841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60320734977722</t>
   </si>
   <si>
     <t xml:space="preserve">2.62912797927856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66615772247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65875196456909</t>
+    <t xml:space="preserve">2.66615796089172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65875172615051</t>
   </si>
   <si>
     <t xml:space="preserve">2.65134596824646</t>
@@ -1697,13 +1697,13 @@
     <t xml:space="preserve">2.62542510032654</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71799993515015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70318794250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7291088104248</t>
+    <t xml:space="preserve">2.71800017356873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70318818092346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72910904884338</t>
   </si>
   <si>
     <t xml:space="preserve">2.69207882881165</t>
@@ -1715,13 +1715,13 @@
     <t xml:space="preserve">2.75502991676331</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8031690120697</t>
+    <t xml:space="preserve">2.80316877365112</t>
   </si>
   <si>
     <t xml:space="preserve">2.81798100471497</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84390163421631</t>
+    <t xml:space="preserve">2.84390187263489</t>
   </si>
   <si>
     <t xml:space="preserve">2.87352585792542</t>
@@ -1730,10 +1730,10 @@
     <t xml:space="preserve">2.86241674423218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88093185424805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76243567466736</t>
+    <t xml:space="preserve">2.88093209266663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76243615150452</t>
   </si>
   <si>
     <t xml:space="preserve">2.76984190940857</t>
@@ -1745,7 +1745,7 @@
     <t xml:space="preserve">2.79205989837646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81427788734436</t>
+    <t xml:space="preserve">2.81427764892578</t>
   </si>
   <si>
     <t xml:space="preserve">2.79576301574707</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">2.75873279571533</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85871362686157</t>
+    <t xml:space="preserve">2.85871386528015</t>
   </si>
   <si>
     <t xml:space="preserve">2.90314984321594</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">2.89574384689331</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90685248374939</t>
+    <t xml:space="preserve">2.90685272216797</t>
   </si>
   <si>
     <t xml:space="preserve">2.88833808898926</t>
@@ -1772,28 +1772,28 @@
     <t xml:space="preserve">2.962397813797</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98091292381287</t>
+    <t xml:space="preserve">2.98091268539429</t>
   </si>
   <si>
     <t xml:space="preserve">2.91796183586121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94758582115173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95128870010376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93647694587708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95499181747437</t>
+    <t xml:space="preserve">2.94758558273315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95128846168518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93647646903992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95499157905579</t>
   </si>
   <si>
     <t xml:space="preserve">2.93277382850647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91055583953857</t>
+    <t xml:space="preserve">2.91055607795715</t>
   </si>
   <si>
     <t xml:space="preserve">2.96980381011963</t>
@@ -1817,7 +1817,7 @@
     <t xml:space="preserve">2.80687189102173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83279275894165</t>
+    <t xml:space="preserve">2.83279299736023</t>
   </si>
   <si>
     <t xml:space="preserve">2.85501098632812</t>
@@ -1838,7 +1838,7 @@
     <t xml:space="preserve">2.6365339756012</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63283085823059</t>
+    <t xml:space="preserve">2.63283109664917</t>
   </si>
   <si>
     <t xml:space="preserve">2.61801910400391</t>
@@ -1847,13 +1847,16 @@
     <t xml:space="preserve">2.69578218460083</t>
   </si>
   <si>
+    <t xml:space="preserve">2.68467307090759</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.68837594985962</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6143159866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56988000869751</t>
+    <t xml:space="preserve">2.61431622505188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56988024711609</t>
   </si>
   <si>
     <t xml:space="preserve">2.49211716651917</t>
@@ -1862,28 +1865,25 @@
     <t xml:space="preserve">2.50692892074585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34770011901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23661017417908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18476819992065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19587731361389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.299480676651</t>
+    <t xml:space="preserve">2.34770035743713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23661041259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18476867675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19587755203247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29948091506958</t>
   </si>
   <si>
     <t xml:space="preserve">2.21777319908142</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14773845672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10882997512817</t>
+    <t xml:space="preserve">2.10883021354675</t>
   </si>
   <si>
     <t xml:space="preserve">2.12439346313477</t>
@@ -1895,52 +1895,52 @@
     <t xml:space="preserve">2.10104846954346</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10493922233582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09326696395874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12050247192383</t>
+    <t xml:space="preserve">2.10493946075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09326672554016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12050271034241</t>
   </si>
   <si>
     <t xml:space="preserve">2.13995671272278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12828421592712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07770347595215</t>
+    <t xml:space="preserve">2.12828397750854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07770371437073</t>
   </si>
   <si>
     <t xml:space="preserve">2.0504674911499</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04657673835754</t>
+    <t xml:space="preserve">2.04657697677612</t>
   </si>
   <si>
     <t xml:space="preserve">2.03490424156189</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05435848236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03101325035095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02323198318481</t>
+    <t xml:space="preserve">2.05435872077942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03101348876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02323174476624</t>
   </si>
   <si>
     <t xml:space="preserve">2.0582492351532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04268598556519</t>
+    <t xml:space="preserve">2.04268622398376</t>
   </si>
   <si>
     <t xml:space="preserve">2.22944593429565</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18664646148682</t>
+    <t xml:space="preserve">2.18664693832397</t>
   </si>
   <si>
     <t xml:space="preserve">1.96876001358032</t>
@@ -1949,10 +1949,10 @@
     <t xml:space="preserve">2.00377774238586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92985200881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02712249755859</t>
+    <t xml:space="preserve">1.92985188961029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02712273597717</t>
   </si>
   <si>
     <t xml:space="preserve">1.94152438640594</t>
@@ -1964,100 +1964,100 @@
     <t xml:space="preserve">1.79367291927338</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76643681526184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8092360496521</t>
+    <t xml:space="preserve">1.76643693447113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80923616886139</t>
   </si>
   <si>
     <t xml:space="preserve">1.75087368488312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74698269367218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69251108169556</t>
+    <t xml:space="preserve">1.74698281288147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69251132011414</t>
   </si>
   <si>
     <t xml:space="preserve">1.78978192806244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82090842723846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73920106887817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74309194087982</t>
+    <t xml:space="preserve">1.82090854644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73920118808746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74309206008911</t>
   </si>
   <si>
     <t xml:space="preserve">1.69640207290649</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71196532249451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7197470664978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7041836977005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78589117527008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73141944408417</t>
+    <t xml:space="preserve">1.7119654417038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71974718570709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70418393611908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78589129447937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73141956329346</t>
   </si>
   <si>
     <t xml:space="preserve">1.71585607528687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73531031608582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78200030326843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8325811624527</t>
+    <t xml:space="preserve">1.7353104352951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78200018405914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83258128166199</t>
   </si>
   <si>
     <t xml:space="preserve">1.80145454406738</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8403627872467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85592615604401</t>
+    <t xml:space="preserve">1.84036290645599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85592603683472</t>
   </si>
   <si>
     <t xml:space="preserve">1.83647191524506</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87927103042603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79756355285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77032780647278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82869017124176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75476455688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75865530967712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76254630088806</t>
+    <t xml:space="preserve">1.8792712688446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79756379127502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77032792568207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82869029045105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75476467609406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75865542888641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76254618167877</t>
   </si>
   <si>
     <t xml:space="preserve">1.80534529685974</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81701767444611</t>
+    <t xml:space="preserve">1.8170177936554</t>
   </si>
   <si>
     <t xml:space="preserve">1.82479953765869</t>
@@ -2066,25 +2066,25 @@
     <t xml:space="preserve">1.91428852081299</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93374264240265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89094364643097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87538027763367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90650689601898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89483428001404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85981702804565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92207038402557</t>
+    <t xml:space="preserve">1.93374276161194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89094376564026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87538015842438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90650713443756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89483439922333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85981714725494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92207050323486</t>
   </si>
   <si>
     <t xml:space="preserve">2.01155948638916</t>
@@ -2099,10 +2099,10 @@
     <t xml:space="preserve">2.08159422874451</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06214022636414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13217496871948</t>
+    <t xml:space="preserve">2.06213998794556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13217520713806</t>
   </si>
   <si>
     <t xml:space="preserve">2.2099916934967</t>
@@ -2111,10 +2111,10 @@
     <t xml:space="preserve">2.19053769111633</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15551996231079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19831919670105</t>
+    <t xml:space="preserve">2.15552020072937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19831943511963</t>
   </si>
   <si>
     <t xml:space="preserve">2.17108345031738</t>
@@ -2132,52 +2132,52 @@
     <t xml:space="preserve">2.01545023918152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98821437358856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15941095352173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13606572151184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01934123039246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87148928642273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91039764881134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92596101760864</t>
+    <t xml:space="preserve">1.98821449279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15941119194031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13606595993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01934099197388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87148940563202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91039776802063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92596089839935</t>
   </si>
   <si>
     <t xml:space="preserve">1.89872527122498</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95319676399231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99988687038422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95708763599396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96486926078796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99210512638092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72752869129181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68862056732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62636697292328</t>
+    <t xml:space="preserve">1.9531968832016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99988675117493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95708775520325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96486937999725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99210524559021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72752857208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68862044811249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62636709213257</t>
   </si>
   <si>
     <t xml:space="preserve">1.59524047374725</t>
@@ -2186,28 +2186,28 @@
     <t xml:space="preserve">1.54232513904572</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48941004276276</t>
+    <t xml:space="preserve">1.48940992355347</t>
   </si>
   <si>
     <t xml:space="preserve">1.45361423492432</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33844578266144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30420649051666</t>
+    <t xml:space="preserve">1.33844566345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30420637130737</t>
   </si>
   <si>
     <t xml:space="preserve">1.27619242668152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09098887443542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16102373600006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08009445667267</t>
+    <t xml:space="preserve">1.09098875522614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16102385520935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08009457588196</t>
   </si>
   <si>
     <t xml:space="preserve">1.05986225605011</t>
@@ -2219,13 +2219,13 @@
     <t xml:space="preserve">1.10188317298889</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22483348846436</t>
+    <t xml:space="preserve">1.22483336925507</t>
   </si>
   <si>
     <t xml:space="preserve">1.31976974010468</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32910764217377</t>
+    <t xml:space="preserve">1.32910776138306</t>
   </si>
   <si>
     <t xml:space="preserve">1.35400903224945</t>
@@ -2237,10 +2237,10 @@
     <t xml:space="preserve">1.27152335643768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32288241386414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28864312171936</t>
+    <t xml:space="preserve">1.32288253307343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28864300251007</t>
   </si>
   <si>
     <t xml:space="preserve">1.28397405147552</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">1.26062905788422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29642462730408</t>
+    <t xml:space="preserve">1.29642474651337</t>
   </si>
   <si>
     <t xml:space="preserve">1.29798102378845</t>
@@ -2270,13 +2270,13 @@
     <t xml:space="preserve">1.29953730106354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31354415416718</t>
+    <t xml:space="preserve">1.31354439258575</t>
   </si>
   <si>
     <t xml:space="preserve">1.29175567626953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28241765499115</t>
+    <t xml:space="preserve">1.28241777420044</t>
   </si>
   <si>
     <t xml:space="preserve">1.2295024394989</t>
@@ -2291,10 +2291,10 @@
     <t xml:space="preserve">1.20927011966705</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17503070831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1330099105835</t>
+    <t xml:space="preserve">1.17503082752228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13300979137421</t>
   </si>
   <si>
     <t xml:space="preserve">1.10343956947327</t>
@@ -2312,10 +2312,10 @@
     <t xml:space="preserve">1.06764388084412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12211561203003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10655212402344</t>
+    <t xml:space="preserve">1.12211549282074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10655224323273</t>
   </si>
   <si>
     <t xml:space="preserve">1.14234793186188</t>
@@ -2324,10 +2324,10 @@
     <t xml:space="preserve">1.15012955665588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13923525810242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19837582111359</t>
+    <t xml:space="preserve">1.13923513889313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19837558269501</t>
   </si>
   <si>
     <t xml:space="preserve">1.2450658082962</t>
@@ -2342,70 +2342,70 @@
     <t xml:space="preserve">1.28708684444427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27930510044098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17969977855682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1641366481781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23572778701782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20615744590759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20771384239197</t>
+    <t xml:space="preserve">1.27930498123169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17969989776611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16413652896881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23572790622711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20615756511688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20771372318268</t>
   </si>
   <si>
     <t xml:space="preserve">1.18748152256012</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21082651615143</t>
+    <t xml:space="preserve">1.21082639694214</t>
   </si>
   <si>
     <t xml:space="preserve">1.17814350128174</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18592524528503</t>
+    <t xml:space="preserve">1.18592512607574</t>
   </si>
   <si>
     <t xml:space="preserve">1.13612246513367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1579110622406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14079141616821</t>
+    <t xml:space="preserve">1.15791118144989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1407915353775</t>
   </si>
   <si>
     <t xml:space="preserve">1.18436884880066</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17036175727844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14546036720276</t>
+    <t xml:space="preserve">1.17036187648773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14546048641205</t>
   </si>
   <si>
     <t xml:space="preserve">1.16724920272827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17347455024719</t>
+    <t xml:space="preserve">1.1734744310379</t>
   </si>
   <si>
     <t xml:space="preserve">1.15168583393097</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17191827297211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16569268703461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1563549041748</t>
+    <t xml:space="preserve">1.17191815376282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1656928062439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15635466575623</t>
   </si>
   <si>
     <t xml:space="preserve">1.12522828578949</t>
@@ -2417,22 +2417,22 @@
     <t xml:space="preserve">1.08165085315704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06608748435974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08320713043213</t>
+    <t xml:space="preserve">1.06608760356903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08320724964142</t>
   </si>
   <si>
     <t xml:space="preserve">1.06297492980957</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04896783828735</t>
+    <t xml:space="preserve">1.04896795749664</t>
   </si>
   <si>
     <t xml:space="preserve">1.09410154819489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07075667381287</t>
+    <t xml:space="preserve">1.07075655460358</t>
   </si>
   <si>
     <t xml:space="preserve">1.09721410274506</t>
@@ -2453,70 +2453,70 @@
     <t xml:space="preserve">1.04118621349335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03340470790863</t>
+    <t xml:space="preserve">1.03340458869934</t>
   </si>
   <si>
     <t xml:space="preserve">1.03496086597443</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0365172624588</t>
+    <t xml:space="preserve">1.03651738166809</t>
   </si>
   <si>
     <t xml:space="preserve">1.02251029014587</t>
   </si>
   <si>
-    <t xml:space="preserve">0.99605256319046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01628506183624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00850343704224</t>
+    <t xml:space="preserve">0.996052622795105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01628494262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00850319862366</t>
   </si>
   <si>
     <t xml:space="preserve">1.01005959510803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00072157382965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.991383731365204</t>
+    <t xml:space="preserve">1.00072169303894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.991383612155914</t>
   </si>
   <si>
     <t xml:space="preserve">0.966482281684875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.96492600440979</t>
+    <t xml:space="preserve">0.964925944805145</t>
   </si>
   <si>
     <t xml:space="preserve">0.958700597286224</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954031586647034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975820243358612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.989827156066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.969595015048981</t>
+    <t xml:space="preserve">0.954031527042389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975820302963257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.989827215671539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.969594955444336</t>
   </si>
   <si>
     <t xml:space="preserve">0.949362635612488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.968038558959961</t>
+    <t xml:space="preserve">0.968038618564606</t>
   </si>
   <si>
     <t xml:space="preserve">0.957144260406494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.980489134788513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99916535615921</t>
+    <t xml:space="preserve">0.980489313602448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999165177345276</t>
   </si>
   <si>
     <t xml:space="preserve">1.06453120708466</t>
@@ -2525,7 +2525,7 @@
     <t xml:space="preserve">1.05830585956573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02406656742096</t>
+    <t xml:space="preserve">1.02406668663025</t>
   </si>
   <si>
     <t xml:space="preserve">0.988270938396454</t>
@@ -2534,19 +2534,19 @@
     <t xml:space="preserve">0.985158324241638</t>
   </si>
   <si>
-    <t xml:space="preserve">0.941580951213837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933799266815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.904228925704956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879327654838562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887109279632568</t>
+    <t xml:space="preserve">0.941581070423126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933799386024475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.904228985309601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879327714443207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887109339237213</t>
   </si>
   <si>
     <t xml:space="preserve">0.888665616512299</t>
@@ -2558,13 +2558,13 @@
     <t xml:space="preserve">0.83575040102005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80306738615036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.787504136562347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.829525113105774</t>
+    <t xml:space="preserve">0.803067326545715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.787504076957703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.829525053501129</t>
   </si>
   <si>
     <t xml:space="preserve">0.831081330776215</t>
@@ -2573,16 +2573,16 @@
     <t xml:space="preserve">0.840419471263885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826412379741669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817074418067932</t>
+    <t xml:space="preserve">0.826412439346313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817074358463287</t>
   </si>
   <si>
     <t xml:space="preserve">0.866877019405365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89644730091095</t>
+    <t xml:space="preserve">0.896447360515594</t>
   </si>
   <si>
     <t xml:space="preserve">0.902672648429871</t>
@@ -2597,16 +2597,16 @@
     <t xml:space="preserve">0.977376639842987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.96336966753006</t>
+    <t xml:space="preserve">0.963369607925415</t>
   </si>
   <si>
     <t xml:space="preserve">0.983601987361908</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978933036327362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92913031578064</t>
+    <t xml:space="preserve">0.978932976722717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.929130256175995</t>
   </si>
   <si>
     <t xml:space="preserve">0.961813271045685</t>
@@ -2615,43 +2615,43 @@
     <t xml:space="preserve">0.946249961853027</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943137347698212</t>
+    <t xml:space="preserve">0.943137407302856</t>
   </si>
   <si>
     <t xml:space="preserve">0.930686712265015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.952475368976593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.927573978900909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.926017701625824</t>
+    <t xml:space="preserve">0.952475309371948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.927573919296265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.926017820835114</t>
   </si>
   <si>
     <t xml:space="preserve">0.935355722904205</t>
   </si>
   <si>
-    <t xml:space="preserve">0.971151351928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947806477546692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.919792354106903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913567006587982</t>
+    <t xml:space="preserve">0.971151411533356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947806298732758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.919792294502258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913567066192627</t>
   </si>
   <si>
     <t xml:space="preserve">0.907341718673706</t>
   </si>
   <si>
-    <t xml:space="preserve">0.916679620742798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8995600938797</t>
+    <t xml:space="preserve">0.916679680347443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89955997467041</t>
   </si>
   <si>
     <t xml:space="preserve">0.918235957622528</t>
@@ -2663,7 +2663,7 @@
     <t xml:space="preserve">0.894890964031219</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910454213619232</t>
+    <t xml:space="preserve">0.910454273223877</t>
   </si>
   <si>
     <t xml:space="preserve">0.944693624973297</t>
@@ -2690,16 +2690,16 @@
     <t xml:space="preserve">1.09877049922943</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07231283187866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12834084033966</t>
+    <t xml:space="preserve">1.07231295108795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12834095954895</t>
   </si>
   <si>
     <t xml:space="preserve">1.12055921554565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11744654178619</t>
+    <t xml:space="preserve">1.1174464225769</t>
   </si>
   <si>
     <t xml:space="preserve">1.15479850769043</t>
@@ -2723,25 +2723,25 @@
     <t xml:space="preserve">1.22638976573944</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23105871677399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2699670791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25751650333405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26841068267822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27307987213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36023426055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38513553142548</t>
+    <t xml:space="preserve">1.23105883598328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26996695995331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25751638412476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26841080188751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27307975292206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36023437976837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38513565063477</t>
   </si>
   <si>
     <t xml:space="preserve">1.40069901943207</t>
@@ -2750,19 +2750,19 @@
     <t xml:space="preserve">1.40381169319153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37112867832184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3991425037384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39447367191315</t>
+    <t xml:space="preserve">1.37112855911255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39914262294769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39447379112244</t>
   </si>
   <si>
     <t xml:space="preserve">1.38980460166931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39758634567261</t>
+    <t xml:space="preserve">1.39758622646332</t>
   </si>
   <si>
     <t xml:space="preserve">1.39136099815369</t>
@@ -2780,13 +2780,13 @@
     <t xml:space="preserve">1.57189548015594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56022322177887</t>
+    <t xml:space="preserve">1.56022310256958</t>
   </si>
   <si>
     <t xml:space="preserve">1.58745884895325</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53765606880188</t>
+    <t xml:space="preserve">1.53765618801117</t>
   </si>
   <si>
     <t xml:space="preserve">1.51431119441986</t>
@@ -2804,31 +2804,34 @@
     <t xml:space="preserve">1.51798808574677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46871304512024</t>
+    <t xml:space="preserve">1.46871316432953</t>
   </si>
   <si>
     <t xml:space="preserve">1.45281779766083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46712350845337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47348153591156</t>
+    <t xml:space="preserve">1.46712338924408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47348165512085</t>
   </si>
   <si>
     <t xml:space="preserve">1.48619771003723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48937678337097</t>
+    <t xml:space="preserve">1.48937666416168</t>
   </si>
   <si>
     <t xml:space="preserve">1.48142910003662</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54818868637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55454683303833</t>
+    <t xml:space="preserve">1.49096632003784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54818880558014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55454695224762</t>
   </si>
   <si>
     <t xml:space="preserve">1.5561363697052</t>
@@ -2840,7 +2843,7 @@
     <t xml:space="preserve">1.56567347049713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56726312637329</t>
+    <t xml:space="preserve">1.567263007164</t>
   </si>
   <si>
     <t xml:space="preserve">1.53706228733063</t>
@@ -2852,22 +2855,22 @@
     <t xml:space="preserve">1.47030258178711</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44328081607819</t>
+    <t xml:space="preserve">1.4432806968689</t>
   </si>
   <si>
     <t xml:space="preserve">1.40672183036804</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43374371528625</t>
+    <t xml:space="preserve">1.43374359607697</t>
   </si>
   <si>
     <t xml:space="preserve">1.44487023353577</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39241623878479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35744678974152</t>
+    <t xml:space="preserve">1.39241635799408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35744690895081</t>
   </si>
   <si>
     <t xml:space="preserve">1.34949922561646</t>
@@ -2876,43 +2879,43 @@
     <t xml:space="preserve">1.34790980815887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33201467990875</t>
+    <t xml:space="preserve">1.33201456069946</t>
   </si>
   <si>
     <t xml:space="preserve">1.35585737228394</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31929838657379</t>
+    <t xml:space="preserve">1.31929850578308</t>
   </si>
   <si>
     <t xml:space="preserve">1.31453001499176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27638161182404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3018137216568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30499279499054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31135094165802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30340337753296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2843291759491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27479195594788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22074854373932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22233784198761</t>
+    <t xml:space="preserve">1.27638149261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30181384086609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30499291419983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31135082244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30340325832367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28432905673981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27479207515717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22074842453003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2223379611969</t>
   </si>
   <si>
     <t xml:space="preserve">1.2557178735733</t>
@@ -2942,22 +2945,22 @@
     <t xml:space="preserve">1.37652099132538</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36698400974274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35267841815948</t>
+    <t xml:space="preserve">1.36698389053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3526782989502</t>
   </si>
   <si>
     <t xml:space="preserve">1.3749315738678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37970006465912</t>
+    <t xml:space="preserve">1.37969994544983</t>
   </si>
   <si>
     <t xml:space="preserve">1.38128960132599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34314131736755</t>
+    <t xml:space="preserve">1.34314119815826</t>
   </si>
   <si>
     <t xml:space="preserve">1.33678317070007</t>
@@ -2981,10 +2984,10 @@
     <t xml:space="preserve">1.5338830947876</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49732434749603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47189211845398</t>
+    <t xml:space="preserve">1.49732422828674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47189199924469</t>
   </si>
   <si>
     <t xml:space="preserve">1.42738556861877</t>
@@ -2993,13 +2996,13 @@
     <t xml:space="preserve">1.4146693944931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42420661449432</t>
+    <t xml:space="preserve">1.42420649528503</t>
   </si>
   <si>
     <t xml:space="preserve">1.45917594432831</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46076536178589</t>
+    <t xml:space="preserve">1.46076548099518</t>
   </si>
   <si>
     <t xml:space="preserve">1.41943800449371</t>
@@ -3011,7 +3014,7 @@
     <t xml:space="preserve">1.33996224403381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3415515422821</t>
+    <t xml:space="preserve">1.34155166149139</t>
   </si>
   <si>
     <t xml:space="preserve">1.3351936340332</t>
@@ -3032,7 +3035,7 @@
     <t xml:space="preserve">1.33837270736694</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38287913799286</t>
+    <t xml:space="preserve">1.38287925720215</t>
   </si>
   <si>
     <t xml:space="preserve">1.50050342082977</t>
@@ -3041,10 +3044,10 @@
     <t xml:space="preserve">1.52116715908051</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49573469161987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50845086574554</t>
+    <t xml:space="preserve">1.49573481082916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50845098495483</t>
   </si>
   <si>
     <t xml:space="preserve">1.51162993907928</t>
@@ -3053,10 +3056,10 @@
     <t xml:space="preserve">1.50209283828735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51321947574615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47507107257843</t>
+    <t xml:space="preserve">1.51321959495544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47507095336914</t>
   </si>
   <si>
     <t xml:space="preserve">1.44010174274445</t>
@@ -3065,7 +3068,7 @@
     <t xml:space="preserve">1.4877872467041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47983968257904</t>
+    <t xml:space="preserve">1.47983956336975</t>
   </si>
   <si>
     <t xml:space="preserve">1.45599687099457</t>
@@ -3089,7 +3092,7 @@
     <t xml:space="preserve">1.67693960666656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70078253746033</t>
+    <t xml:space="preserve">1.70078241825104</t>
   </si>
   <si>
     <t xml:space="preserve">1.65309679508209</t>
@@ -3101,13 +3104,13 @@
     <t xml:space="preserve">1.55772590637207</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57362115383148</t>
+    <t xml:space="preserve">1.57362103462219</t>
   </si>
   <si>
     <t xml:space="preserve">1.43851208686829</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44645977020264</t>
+    <t xml:space="preserve">1.44645988941193</t>
   </si>
   <si>
     <t xml:space="preserve">1.45440745353699</t>
@@ -3119,16 +3122,16 @@
     <t xml:space="preserve">1.49414527416229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51639842987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61335897445679</t>
+    <t xml:space="preserve">1.5163985490799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61335909366608</t>
   </si>
   <si>
     <t xml:space="preserve">1.61733281612396</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63322806358337</t>
+    <t xml:space="preserve">1.63322794437408</t>
   </si>
   <si>
     <t xml:space="preserve">1.62130653858185</t>
@@ -3137,43 +3140,43 @@
     <t xml:space="preserve">1.59349024295807</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58792674541473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60143768787384</t>
+    <t xml:space="preserve">1.58792662620544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60143780708313</t>
   </si>
   <si>
     <t xml:space="preserve">1.62925410270691</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66104435920715</t>
+    <t xml:space="preserve">1.66104447841644</t>
   </si>
   <si>
     <t xml:space="preserve">1.53865170478821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51957750320435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54183077812195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52911472320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53070402145386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52434611320496</t>
+    <t xml:space="preserve">1.51957738399506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54183089733124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52911460399628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53070425987244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52434599399567</t>
   </si>
   <si>
     <t xml:space="preserve">1.43056464195251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37334203720093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30817198753357</t>
+    <t xml:space="preserve">1.37334215641022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30817186832428</t>
   </si>
   <si>
     <t xml:space="preserve">1.30022442340851</t>
@@ -3194,31 +3197,31 @@
     <t xml:space="preserve">1.40831136703491</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59746384620667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7484678030014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78423178195953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76038908958435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77231049537659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78025805950165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74449396133423</t>
+    <t xml:space="preserve">1.59746372699738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74846792221069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78423202037811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76038920879364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77231073379517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78025817871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74449408054352</t>
   </si>
   <si>
     <t xml:space="preserve">1.81999599933624</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81204843521118</t>
+    <t xml:space="preserve">1.81204855442047</t>
   </si>
   <si>
     <t xml:space="preserve">1.83191752433777</t>
@@ -3227,16 +3230,16 @@
     <t xml:space="preserve">1.8279435634613</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85178625583649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83589112758636</t>
+    <t xml:space="preserve">1.85178637504578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83589136600494</t>
   </si>
   <si>
     <t xml:space="preserve">1.83986508846283</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82396984100342</t>
+    <t xml:space="preserve">1.823970079422</t>
   </si>
   <si>
     <t xml:space="preserve">1.77628421783447</t>
@@ -3245,13 +3248,13 @@
     <t xml:space="preserve">1.79217958450317</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76833665370941</t>
+    <t xml:space="preserve">1.7683367729187</t>
   </si>
   <si>
     <t xml:space="preserve">1.788205742836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72859871387482</t>
+    <t xml:space="preserve">1.7285989522934</t>
   </si>
   <si>
     <t xml:space="preserve">1.64514923095703</t>
@@ -3269,7 +3272,7 @@
     <t xml:space="preserve">1.76436293125153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80410075187683</t>
+    <t xml:space="preserve">1.80410087108612</t>
   </si>
   <si>
     <t xml:space="preserve">1.7403576374054</t>
@@ -3524,9 +3527,6 @@
     <t xml:space="preserve">1.39746820926666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43374359607697</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.44929027557373</t>
   </si>
   <si>
@@ -4266,6 +4266,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.29999995231628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35999989509583</t>
   </si>
 </sst>
 </file>
@@ -8239,7 +8242,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G140" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -8265,7 +8268,7 @@
         <v>3.98200011253357</v>
       </c>
       <c r="G141" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H141" t="s">
         <v>9</v>
@@ -8291,7 +8294,7 @@
         <v>4.09800004959106</v>
       </c>
       <c r="G142" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H142" t="s">
         <v>9</v>
@@ -8317,7 +8320,7 @@
         <v>4.02199983596802</v>
       </c>
       <c r="G143" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H143" t="s">
         <v>9</v>
@@ -8343,7 +8346,7 @@
         <v>4.07600021362305</v>
       </c>
       <c r="G144" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -8395,7 +8398,7 @@
         <v>3.98799991607666</v>
       </c>
       <c r="G146" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -8421,7 +8424,7 @@
         <v>4.03599977493286</v>
       </c>
       <c r="G147" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -8447,7 +8450,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G148" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -8473,7 +8476,7 @@
         <v>3.98799991607666</v>
       </c>
       <c r="G149" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -8499,7 +8502,7 @@
         <v>3.92799997329712</v>
       </c>
       <c r="G150" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -8525,7 +8528,7 @@
         <v>3.83800005912781</v>
       </c>
       <c r="G151" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -8551,7 +8554,7 @@
         <v>3.89800000190735</v>
       </c>
       <c r="G152" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -8577,7 +8580,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G153" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -8603,7 +8606,7 @@
         <v>4.03399991989136</v>
       </c>
       <c r="G154" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -8629,7 +8632,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G155" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -8655,7 +8658,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G156" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -8681,7 +8684,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G157" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -8707,7 +8710,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G158" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -8733,7 +8736,7 @@
         <v>4.12799978256226</v>
       </c>
       <c r="G159" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -8759,7 +8762,7 @@
         <v>4.02199983596802</v>
       </c>
       <c r="G160" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -8785,7 +8788,7 @@
         <v>4.02400016784668</v>
       </c>
       <c r="G161" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -8811,7 +8814,7 @@
         <v>4.01200008392334</v>
       </c>
       <c r="G162" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -8889,7 +8892,7 @@
         <v>4.03399991989136</v>
       </c>
       <c r="G165" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -8915,7 +8918,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G166" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -8993,7 +8996,7 @@
         <v>3.9539999961853</v>
       </c>
       <c r="G169" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -9019,7 +9022,7 @@
         <v>3.87400007247925</v>
       </c>
       <c r="G170" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -9071,7 +9074,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G172" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -9097,7 +9100,7 @@
         <v>3.93799996376038</v>
       </c>
       <c r="G173" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -9123,7 +9126,7 @@
         <v>3.89199995994568</v>
       </c>
       <c r="G174" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -9149,7 +9152,7 @@
         <v>3.87199997901917</v>
       </c>
       <c r="G175" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -9175,7 +9178,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G176" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -9201,7 +9204,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G177" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -9227,7 +9230,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G178" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -9253,7 +9256,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G179" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -9279,7 +9282,7 @@
         <v>3.68400001525879</v>
       </c>
       <c r="G180" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -9305,7 +9308,7 @@
         <v>3.64199995994568</v>
       </c>
       <c r="G181" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -9331,7 +9334,7 @@
         <v>3.57599997520447</v>
       </c>
       <c r="G182" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -9357,7 +9360,7 @@
         <v>3.62800002098083</v>
       </c>
       <c r="G183" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -9383,7 +9386,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G184" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -9409,7 +9412,7 @@
         <v>3.7260000705719</v>
       </c>
       <c r="G185" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -9435,7 +9438,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G186" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -9461,7 +9464,7 @@
         <v>3.65400004386902</v>
       </c>
       <c r="G187" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -9487,7 +9490,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G188" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -9513,7 +9516,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G189" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -9539,7 +9542,7 @@
         <v>3.43199992179871</v>
       </c>
       <c r="G190" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -9565,7 +9568,7 @@
         <v>3.40199995040894</v>
       </c>
       <c r="G191" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -9591,7 +9594,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G192" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -9617,7 +9620,7 @@
         <v>3.39199995994568</v>
       </c>
       <c r="G193" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -9643,7 +9646,7 @@
         <v>3.45199990272522</v>
       </c>
       <c r="G194" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -9669,7 +9672,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G195" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -9695,7 +9698,7 @@
         <v>3.67600011825562</v>
       </c>
       <c r="G196" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -9721,7 +9724,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G197" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -9747,7 +9750,7 @@
         <v>3.57800006866455</v>
       </c>
       <c r="G198" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -9773,7 +9776,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G199" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -9799,7 +9802,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G200" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -9825,7 +9828,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G201" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -9851,7 +9854,7 @@
         <v>3.54200005531311</v>
       </c>
       <c r="G202" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -9877,7 +9880,7 @@
         <v>3.61199998855591</v>
       </c>
       <c r="G203" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -9903,7 +9906,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G204" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -9929,7 +9932,7 @@
         <v>3.71199989318848</v>
       </c>
       <c r="G205" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -9955,7 +9958,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G206" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -9981,7 +9984,7 @@
         <v>3.70600008964539</v>
       </c>
       <c r="G207" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -10007,7 +10010,7 @@
         <v>3.7039999961853</v>
       </c>
       <c r="G208" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -10033,7 +10036,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G209" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -10059,7 +10062,7 @@
         <v>3.69600009918213</v>
       </c>
       <c r="G210" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -10085,7 +10088,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G211" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -10111,7 +10114,7 @@
         <v>3.75</v>
       </c>
       <c r="G212" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -10137,7 +10140,7 @@
         <v>3.85800004005432</v>
       </c>
       <c r="G213" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -10163,7 +10166,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G214" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -10189,7 +10192,7 @@
         <v>3.89800000190735</v>
       </c>
       <c r="G215" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -10215,7 +10218,7 @@
         <v>3.84200000762939</v>
       </c>
       <c r="G216" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -10241,7 +10244,7 @@
         <v>3.75200009346008</v>
       </c>
       <c r="G217" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -10267,7 +10270,7 @@
         <v>3.79399991035461</v>
       </c>
       <c r="G218" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -10293,7 +10296,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G219" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -10319,7 +10322,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G220" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -10345,7 +10348,7 @@
         <v>3.72199988365173</v>
       </c>
       <c r="G221" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -10371,7 +10374,7 @@
         <v>3.74600005149841</v>
       </c>
       <c r="G222" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -10397,7 +10400,7 @@
         <v>3.70199990272522</v>
       </c>
       <c r="G223" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -10423,7 +10426,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G224" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -10449,7 +10452,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G225" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -10475,7 +10478,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G226" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -10501,7 +10504,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G227" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -10527,7 +10530,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G228" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10553,7 +10556,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G229" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -10579,7 +10582,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G230" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -10605,7 +10608,7 @@
         <v>3.40199995040894</v>
       </c>
       <c r="G231" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10631,7 +10634,7 @@
         <v>3.41400003433228</v>
       </c>
       <c r="G232" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -10657,7 +10660,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G233" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10683,7 +10686,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G234" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -10709,7 +10712,7 @@
         <v>3.35800004005432</v>
       </c>
       <c r="G235" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -10735,7 +10738,7 @@
         <v>3.40199995040894</v>
       </c>
       <c r="G236" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10761,7 +10764,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G237" t="s">
-        <v>202</v>
+        <v>34</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10865,7 +10868,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G241" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -10943,7 +10946,7 @@
         <v>3.64199995994568</v>
       </c>
       <c r="G244" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -10969,7 +10972,7 @@
         <v>3.69600009918213</v>
       </c>
       <c r="G245" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -11021,7 +11024,7 @@
         <v>3.75</v>
       </c>
       <c r="G247" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -11047,7 +11050,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G248" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -11073,7 +11076,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G249" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -11099,7 +11102,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G250" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -11177,7 +11180,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G253" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -11255,7 +11258,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G256" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -11281,7 +11284,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G257" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -11437,7 +11440,7 @@
         <v>3.79399991035461</v>
       </c>
       <c r="G263" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -11463,7 +11466,7 @@
         <v>3.75200009346008</v>
       </c>
       <c r="G264" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -11489,7 +11492,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G265" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11541,7 +11544,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G267" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -11775,7 +11778,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G276" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -11853,7 +11856,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G279" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -12347,7 +12350,7 @@
         <v>3.54200005531311</v>
       </c>
       <c r="G298" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -12477,7 +12480,7 @@
         <v>3.7260000705719</v>
       </c>
       <c r="G303" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -12737,7 +12740,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G313" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -26621,7 +26624,7 @@
         <v>3.625</v>
       </c>
       <c r="G847" t="s">
-        <v>43</v>
+        <v>611</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -26647,7 +26650,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G848" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -26673,7 +26676,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G849" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -26725,7 +26728,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G851" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -26751,7 +26754,7 @@
         <v>3.36500000953674</v>
       </c>
       <c r="G852" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -26777,7 +26780,7 @@
         <v>3.38499999046326</v>
       </c>
       <c r="G853" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -26803,7 +26806,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G854" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -26907,7 +26910,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G858" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -26959,7 +26962,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G860" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -26985,7 +26988,7 @@
         <v>2.96499991416931</v>
       </c>
       <c r="G861" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -27037,7 +27040,7 @@
         <v>2.95499992370605</v>
       </c>
       <c r="G863" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -27063,7 +27066,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G864" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -27089,7 +27092,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G865" t="s">
-        <v>622</v>
+        <v>525</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -27349,7 +27352,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G875" t="s">
-        <v>622</v>
+        <v>525</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27999,7 +28002,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G900" t="s">
-        <v>622</v>
+        <v>525</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -30703,7 +30706,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1004" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -30963,7 +30966,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G1014" t="s">
-        <v>622</v>
+        <v>525</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -40401,7 +40404,7 @@
         <v>1.87600004673004</v>
       </c>
       <c r="G1377" t="s">
-        <v>928</v>
+        <v>937</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -40453,7 +40456,7 @@
         <v>1.94799995422363</v>
       </c>
       <c r="G1379" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -40479,7 +40482,7 @@
         <v>1.9559999704361</v>
       </c>
       <c r="G1380" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -40505,7 +40508,7 @@
         <v>1.95799994468689</v>
       </c>
       <c r="G1381" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -40531,7 +40534,7 @@
         <v>1.97599995136261</v>
       </c>
       <c r="G1382" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -40557,7 +40560,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1383" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -40583,7 +40586,7 @@
         <v>1.97200000286102</v>
       </c>
       <c r="G1384" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -40609,7 +40612,7 @@
         <v>1.95799994468689</v>
       </c>
       <c r="G1385" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -40635,7 +40638,7 @@
         <v>1.93400001525879</v>
       </c>
       <c r="G1386" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -40661,7 +40664,7 @@
         <v>1.92200005054474</v>
       </c>
       <c r="G1387" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -40687,7 +40690,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G1388" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -40739,7 +40742,7 @@
         <v>1.81599998474121</v>
       </c>
       <c r="G1390" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -40765,7 +40768,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G1391" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -40791,7 +40794,7 @@
         <v>1.80400002002716</v>
       </c>
       <c r="G1392" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -40817,7 +40820,7 @@
         <v>1.817999958992</v>
       </c>
       <c r="G1393" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -40843,7 +40846,7 @@
         <v>1.75199997425079</v>
       </c>
       <c r="G1394" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -40869,7 +40872,7 @@
         <v>1.70799994468689</v>
       </c>
       <c r="G1395" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -40895,7 +40898,7 @@
         <v>1.69799995422363</v>
       </c>
       <c r="G1396" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -40921,7 +40924,7 @@
         <v>1.69599997997284</v>
       </c>
       <c r="G1397" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -40947,7 +40950,7 @@
         <v>1.67599999904633</v>
       </c>
       <c r="G1398" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -40973,7 +40976,7 @@
         <v>1.7059999704361</v>
       </c>
       <c r="G1399" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -40999,7 +41002,7 @@
         <v>1.6599999666214</v>
       </c>
       <c r="G1400" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -41025,7 +41028,7 @@
         <v>1.65400004386902</v>
       </c>
       <c r="G1401" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -41051,7 +41054,7 @@
         <v>1.60599994659424</v>
       </c>
       <c r="G1402" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -41077,7 +41080,7 @@
         <v>1.63800001144409</v>
       </c>
       <c r="G1403" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -41103,7 +41106,7 @@
         <v>1.64199995994568</v>
       </c>
       <c r="G1404" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -41129,7 +41132,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G1405" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -41155,7 +41158,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G1406" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -41181,7 +41184,7 @@
         <v>1.61600005626678</v>
       </c>
       <c r="G1407" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -41207,7 +41210,7 @@
         <v>1.60399997234344</v>
       </c>
       <c r="G1408" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -41233,7 +41236,7 @@
         <v>1.53600001335144</v>
       </c>
       <c r="G1409" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -41259,7 +41262,7 @@
         <v>1.53799998760223</v>
       </c>
       <c r="G1410" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -41285,7 +41288,7 @@
         <v>1.58000004291534</v>
       </c>
       <c r="G1411" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -41311,7 +41314,7 @@
         <v>1.57200002670288</v>
       </c>
       <c r="G1412" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -41337,7 +41340,7 @@
         <v>1.57799994945526</v>
       </c>
       <c r="G1413" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -41363,7 +41366,7 @@
         <v>1.6139999628067</v>
       </c>
       <c r="G1414" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -41389,7 +41392,7 @@
         <v>1.5440000295639</v>
       </c>
       <c r="G1415" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -41415,7 +41418,7 @@
         <v>1.52400004863739</v>
       </c>
       <c r="G1416" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -41441,7 +41444,7 @@
         <v>1.52400004863739</v>
       </c>
       <c r="G1417" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -41467,7 +41470,7 @@
         <v>1.53799998760223</v>
       </c>
       <c r="G1418" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -41493,7 +41496,7 @@
         <v>1.60199999809265</v>
       </c>
       <c r="G1419" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -41519,7 +41522,7 @@
         <v>1.5900000333786</v>
       </c>
       <c r="G1420" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -41545,7 +41548,7 @@
         <v>1.73199999332428</v>
       </c>
       <c r="G1421" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -41571,7 +41574,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G1422" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -41597,7 +41600,7 @@
         <v>1.7059999704361</v>
       </c>
       <c r="G1423" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -41623,7 +41626,7 @@
         <v>1.7059999704361</v>
       </c>
       <c r="G1424" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -41649,7 +41652,7 @@
         <v>1.70200002193451</v>
       </c>
       <c r="G1425" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -41675,7 +41678,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G1426" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -41701,7 +41704,7 @@
         <v>1.73599994182587</v>
       </c>
       <c r="G1427" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -41727,7 +41730,7 @@
         <v>1.73800003528595</v>
       </c>
       <c r="G1428" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -41753,7 +41756,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G1429" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -41779,7 +41782,7 @@
         <v>1.682000041008</v>
       </c>
       <c r="G1430" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -41805,7 +41808,7 @@
         <v>1.70799994468689</v>
       </c>
       <c r="G1431" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -41831,7 +41834,7 @@
         <v>1.71399998664856</v>
       </c>
       <c r="G1432" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -41857,7 +41860,7 @@
         <v>1.71599996089935</v>
       </c>
       <c r="G1433" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -41883,7 +41886,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1434" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -41909,7 +41912,7 @@
         <v>1.79799997806549</v>
       </c>
       <c r="G1435" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -41935,7 +41938,7 @@
         <v>1.76800000667572</v>
       </c>
       <c r="G1436" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -41961,7 +41964,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1437" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -41987,7 +41990,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1438" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -42013,7 +42016,7 @@
         <v>1.92200005054474</v>
       </c>
       <c r="G1439" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -42039,7 +42042,7 @@
         <v>1.88399994373322</v>
       </c>
       <c r="G1440" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -42091,7 +42094,7 @@
         <v>1.85199999809265</v>
       </c>
       <c r="G1442" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -42117,7 +42120,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G1443" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -42169,7 +42172,7 @@
         <v>1.7960000038147</v>
       </c>
       <c r="G1445" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -42195,7 +42198,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G1446" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -42221,7 +42224,7 @@
         <v>1.79799997806549</v>
       </c>
       <c r="G1447" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -42247,7 +42250,7 @@
         <v>1.79200005531311</v>
       </c>
       <c r="G1448" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -42273,7 +42276,7 @@
         <v>1.83599996566772</v>
       </c>
       <c r="G1449" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -42299,7 +42302,7 @@
         <v>1.83800005912781</v>
       </c>
       <c r="G1450" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -42325,7 +42328,7 @@
         <v>1.78600001335144</v>
       </c>
       <c r="G1451" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -42351,7 +42354,7 @@
         <v>1.75</v>
       </c>
       <c r="G1452" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -42377,7 +42380,7 @@
         <v>1.68599998950958</v>
       </c>
       <c r="G1453" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -42403,7 +42406,7 @@
         <v>1.68799996376038</v>
       </c>
       <c r="G1454" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -42429,7 +42432,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G1455" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -42455,7 +42458,7 @@
         <v>1.70200002193451</v>
       </c>
       <c r="G1456" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -42481,7 +42484,7 @@
         <v>1.73199999332428</v>
       </c>
       <c r="G1457" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -42507,7 +42510,7 @@
         <v>1.73399996757507</v>
       </c>
       <c r="G1458" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -42533,7 +42536,7 @@
         <v>1.75</v>
       </c>
       <c r="G1459" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -42559,7 +42562,7 @@
         <v>1.7039999961853</v>
       </c>
       <c r="G1460" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -42585,7 +42588,7 @@
         <v>1.67400002479553</v>
       </c>
       <c r="G1461" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -42611,7 +42614,7 @@
         <v>1.71399998664856</v>
       </c>
       <c r="G1462" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -42637,7 +42640,7 @@
         <v>1.72599995136261</v>
       </c>
       <c r="G1463" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -42663,7 +42666,7 @@
         <v>1.73199999332428</v>
       </c>
       <c r="G1464" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -42689,7 +42692,7 @@
         <v>1.73800003528595</v>
       </c>
       <c r="G1465" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -42715,7 +42718,7 @@
         <v>1.68400001525879</v>
       </c>
       <c r="G1466" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -42741,7 +42744,7 @@
         <v>1.7059999704361</v>
       </c>
       <c r="G1467" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -42767,7 +42770,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G1468" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -42793,7 +42796,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G1469" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -42819,7 +42822,7 @@
         <v>1.81599998474121</v>
       </c>
       <c r="G1470" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -42845,7 +42848,7 @@
         <v>1.88800001144409</v>
       </c>
       <c r="G1471" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -42871,7 +42874,7 @@
         <v>1.91400003433228</v>
       </c>
       <c r="G1472" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -42923,7 +42926,7 @@
         <v>1.88199996948242</v>
       </c>
       <c r="G1474" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -42949,7 +42952,7 @@
         <v>1.89800000190735</v>
       </c>
       <c r="G1475" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -43001,7 +43004,7 @@
         <v>1.90199995040894</v>
       </c>
       <c r="G1477" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -43027,7 +43030,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G1478" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -43053,7 +43056,7 @@
         <v>1.88199996948242</v>
       </c>
       <c r="G1479" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -43079,7 +43082,7 @@
         <v>1.90400004386902</v>
       </c>
       <c r="G1480" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -43105,7 +43108,7 @@
         <v>1.85599994659424</v>
       </c>
       <c r="G1481" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -43131,7 +43134,7 @@
         <v>1.81200003623962</v>
       </c>
       <c r="G1482" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -43157,7 +43160,7 @@
         <v>1.81200003623962</v>
       </c>
       <c r="G1483" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -43183,7 +43186,7 @@
         <v>1.87199997901917</v>
       </c>
       <c r="G1484" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -43209,7 +43212,7 @@
         <v>1.86199998855591</v>
       </c>
       <c r="G1485" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -43235,7 +43238,7 @@
         <v>1.83200001716614</v>
       </c>
       <c r="G1486" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -43261,7 +43264,7 @@
         <v>1.86600005626678</v>
       </c>
       <c r="G1487" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -43287,7 +43290,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1488" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -43313,7 +43316,7 @@
         <v>1.96599996089935</v>
       </c>
       <c r="G1489" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -43339,7 +43342,7 @@
         <v>1.94799995422363</v>
       </c>
       <c r="G1490" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -43365,7 +43368,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1491" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -43391,7 +43394,7 @@
         <v>2.09500002861023</v>
       </c>
       <c r="G1492" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -43417,7 +43420,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1493" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -43443,7 +43446,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1494" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -43469,7 +43472,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1495" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -43495,7 +43498,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1496" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -43521,7 +43524,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1497" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -43547,7 +43550,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1498" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -43573,7 +43576,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1499" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -43599,7 +43602,7 @@
         <v>1.97599995136261</v>
       </c>
       <c r="G1500" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -43625,7 +43628,7 @@
         <v>1.9559999704361</v>
       </c>
       <c r="G1501" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -43651,7 +43654,7 @@
         <v>1.93400001525879</v>
       </c>
       <c r="G1502" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -43703,7 +43706,7 @@
         <v>1.81200003623962</v>
       </c>
       <c r="G1504" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -43729,7 +43732,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G1505" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -43807,7 +43810,7 @@
         <v>1.7960000038147</v>
       </c>
       <c r="G1508" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -43833,7 +43836,7 @@
         <v>1.81599998474121</v>
       </c>
       <c r="G1509" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -43859,7 +43862,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G1510" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -43885,7 +43888,7 @@
         <v>1.817999958992</v>
       </c>
       <c r="G1511" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -43911,7 +43914,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G1512" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -43937,7 +43940,7 @@
         <v>1.82599997520447</v>
       </c>
       <c r="G1513" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -43963,7 +43966,7 @@
         <v>1.79799997806549</v>
       </c>
       <c r="G1514" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -43989,7 +43992,7 @@
         <v>1.7960000038147</v>
       </c>
       <c r="G1515" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -44015,7 +44018,7 @@
         <v>1.817999958992</v>
       </c>
       <c r="G1516" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -44041,7 +44044,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G1517" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -44067,7 +44070,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G1518" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -44093,7 +44096,7 @@
         <v>1.85599994659424</v>
       </c>
       <c r="G1519" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -44145,7 +44148,7 @@
         <v>1.90799999237061</v>
       </c>
       <c r="G1521" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -44171,7 +44174,7 @@
         <v>1.97599995136261</v>
       </c>
       <c r="G1522" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -44197,7 +44200,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1523" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -44223,7 +44226,7 @@
         <v>2.03500008583069</v>
       </c>
       <c r="G1524" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -44249,7 +44252,7 @@
         <v>2.0550000667572</v>
       </c>
       <c r="G1525" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -44275,7 +44278,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1526" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -44301,7 +44304,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1527" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -44327,7 +44330,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1528" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -44353,7 +44356,7 @@
         <v>2.00500011444092</v>
       </c>
       <c r="G1529" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -44379,7 +44382,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1530" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -44405,7 +44408,7 @@
         <v>1.99800002574921</v>
       </c>
       <c r="G1531" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -44431,7 +44434,7 @@
         <v>2.01500010490417</v>
       </c>
       <c r="G1532" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -44457,7 +44460,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1533" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -44483,7 +44486,7 @@
         <v>2.0550000667572</v>
       </c>
       <c r="G1534" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -44509,7 +44512,7 @@
         <v>2.01500010490417</v>
       </c>
       <c r="G1535" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -44535,7 +44538,7 @@
         <v>2.03500008583069</v>
       </c>
       <c r="G1536" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -44561,7 +44564,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1537" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -44587,7 +44590,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1538" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -44613,7 +44616,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1539" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -44639,7 +44642,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1540" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -44665,7 +44668,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1541" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -44691,7 +44694,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G1542" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -44743,7 +44746,7 @@
         <v>1.93599998950958</v>
       </c>
       <c r="G1544" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -44769,7 +44772,7 @@
         <v>1.90199995040894</v>
       </c>
       <c r="G1545" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -44795,7 +44798,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G1546" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -44821,7 +44824,7 @@
         <v>1.90799999237061</v>
       </c>
       <c r="G1547" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -44847,7 +44850,7 @@
         <v>1.91400003433228</v>
       </c>
       <c r="G1548" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -44873,7 +44876,7 @@
         <v>1.90799999237061</v>
       </c>
       <c r="G1549" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -44899,7 +44902,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G1550" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -44925,7 +44928,7 @@
         <v>1.88399994373322</v>
       </c>
       <c r="G1551" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -44951,7 +44954,7 @@
         <v>1.85199999809265</v>
       </c>
       <c r="G1552" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -44977,7 +44980,7 @@
         <v>1.88800001144409</v>
       </c>
       <c r="G1553" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -45003,7 +45006,7 @@
         <v>1.91199994087219</v>
       </c>
       <c r="G1554" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -45029,7 +45032,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1555" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -45055,7 +45058,7 @@
         <v>1.92400002479553</v>
       </c>
       <c r="G1556" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -45081,7 +45084,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G1557" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -45107,7 +45110,7 @@
         <v>1.92599999904633</v>
       </c>
       <c r="G1558" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -45133,7 +45136,7 @@
         <v>1.91799998283386</v>
       </c>
       <c r="G1559" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -45159,7 +45162,7 @@
         <v>1.88199996948242</v>
       </c>
       <c r="G1560" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -45185,7 +45188,7 @@
         <v>1.86199998855591</v>
       </c>
       <c r="G1561" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -45211,7 +45214,7 @@
         <v>1.82599997520447</v>
       </c>
       <c r="G1562" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -45237,7 +45240,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G1563" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -45263,7 +45266,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G1564" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -45289,7 +45292,7 @@
         <v>1.72800004482269</v>
       </c>
       <c r="G1565" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -45315,7 +45318,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G1566" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -45341,7 +45344,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G1567" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -45367,7 +45370,7 @@
         <v>1.682000041008</v>
       </c>
       <c r="G1568" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -45393,7 +45396,7 @@
         <v>1.64600002765656</v>
       </c>
       <c r="G1569" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -45419,7 +45422,7 @@
         <v>1.6360000371933</v>
       </c>
       <c r="G1570" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -45445,7 +45448,7 @@
         <v>1.5460000038147</v>
       </c>
       <c r="G1571" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -45471,7 +45474,7 @@
         <v>1.55200004577637</v>
       </c>
       <c r="G1572" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -45497,7 +45500,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G1573" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -45523,7 +45526,7 @@
         <v>1.68599998950958</v>
       </c>
       <c r="G1574" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -45549,7 +45552,7 @@
         <v>1.6599999666214</v>
       </c>
       <c r="G1575" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -45575,7 +45578,7 @@
         <v>1.64199995994568</v>
       </c>
       <c r="G1576" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -45601,7 +45604,7 @@
         <v>1.71800005435944</v>
       </c>
       <c r="G1577" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -45627,7 +45630,7 @@
         <v>1.71399998664856</v>
       </c>
       <c r="G1578" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -45653,7 +45656,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G1579" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -45679,7 +45682,7 @@
         <v>1.73199999332428</v>
       </c>
       <c r="G1580" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -45705,7 +45708,7 @@
         <v>1.71200001239777</v>
       </c>
       <c r="G1581" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -45731,7 +45734,7 @@
         <v>1.77199995517731</v>
       </c>
       <c r="G1582" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -45757,7 +45760,7 @@
         <v>1.81200003623962</v>
       </c>
       <c r="G1583" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -45783,7 +45786,7 @@
         <v>1.7960000038147</v>
       </c>
       <c r="G1584" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -45809,7 +45812,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1585" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -45835,7 +45838,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1586" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -45861,7 +45864,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1587" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -45887,7 +45890,7 @@
         <v>2.09500002861023</v>
       </c>
       <c r="G1588" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -45913,7 +45916,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1589" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -45939,7 +45942,7 @@
         <v>2.24499988555908</v>
       </c>
       <c r="G1590" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -45965,7 +45968,7 @@
         <v>2.21499991416931</v>
       </c>
       <c r="G1591" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -45991,7 +45994,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1592" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -46017,7 +46020,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1593" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -46043,7 +46046,7 @@
         <v>2.1949999332428</v>
       </c>
       <c r="G1594" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -46069,7 +46072,7 @@
         <v>2.1949999332428</v>
       </c>
       <c r="G1595" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -46095,7 +46098,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1596" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -46121,7 +46124,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1597" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -46147,7 +46150,7 @@
         <v>2.3050000667572</v>
       </c>
       <c r="G1598" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -46173,7 +46176,7 @@
         <v>2.3050000667572</v>
       </c>
       <c r="G1599" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -46199,7 +46202,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1600" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -46225,7 +46228,7 @@
         <v>2.3050000667572</v>
       </c>
       <c r="G1601" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -46251,7 +46254,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1602" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -46277,7 +46280,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1603" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -46303,7 +46306,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1604" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -46329,7 +46332,7 @@
         <v>2.31500005722046</v>
       </c>
       <c r="G1605" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -46355,7 +46358,7 @@
         <v>2.3050000667572</v>
       </c>
       <c r="G1606" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -46381,7 +46384,7 @@
         <v>2.29500007629395</v>
       </c>
       <c r="G1607" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -46407,7 +46410,7 @@
         <v>2.23499989509583</v>
       </c>
       <c r="G1608" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -46433,7 +46436,7 @@
         <v>2.25500011444092</v>
       </c>
       <c r="G1609" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -46459,7 +46462,7 @@
         <v>2.22499990463257</v>
       </c>
       <c r="G1610" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -46485,7 +46488,7 @@
         <v>2.25</v>
       </c>
       <c r="G1611" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -46511,7 +46514,7 @@
         <v>2.22499990463257</v>
       </c>
       <c r="G1612" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -46537,7 +46540,7 @@
         <v>2.21499991416931</v>
       </c>
       <c r="G1613" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -46563,7 +46566,7 @@
         <v>2.17499995231628</v>
       </c>
       <c r="G1614" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -46589,7 +46592,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1615" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -46615,7 +46618,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1616" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -46641,7 +46644,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1617" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -46667,7 +46670,7 @@
         <v>2.18499994277954</v>
       </c>
       <c r="G1618" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -46693,7 +46696,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1619" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -46719,7 +46722,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1620" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -46745,7 +46748,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1621" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -46771,7 +46774,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1622" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -46797,7 +46800,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1623" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -46823,7 +46826,7 @@
         <v>2.25500011444092</v>
       </c>
       <c r="G1624" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -46849,7 +46852,7 @@
         <v>2.07500004768372</v>
       </c>
       <c r="G1625" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -46875,7 +46878,7 @@
         <v>2.01500010490417</v>
       </c>
       <c r="G1626" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -46901,7 +46904,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1627" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -46927,7 +46930,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1628" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -46953,7 +46956,7 @@
         <v>2.03500008583069</v>
       </c>
       <c r="G1629" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -46979,7 +46982,7 @@
         <v>2.0550000667572</v>
       </c>
       <c r="G1630" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -47005,7 +47008,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1631" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -47031,7 +47034,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1632" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -47057,7 +47060,7 @@
         <v>2.0550000667572</v>
       </c>
       <c r="G1633" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -47083,7 +47086,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1634" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -47109,7 +47112,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1635" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -47135,7 +47138,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1636" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -47161,7 +47164,7 @@
         <v>1.94200003147125</v>
       </c>
       <c r="G1637" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -47187,7 +47190,7 @@
         <v>1.90400004386902</v>
       </c>
       <c r="G1638" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -47213,7 +47216,7 @@
         <v>1.80400002002716</v>
       </c>
       <c r="G1639" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -47239,7 +47242,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G1640" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -47265,7 +47268,7 @@
         <v>1.69599997997284</v>
       </c>
       <c r="G1641" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -47291,7 +47294,7 @@
         <v>1.68799996376038</v>
       </c>
       <c r="G1642" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -47317,7 +47320,7 @@
         <v>1.64800000190735</v>
       </c>
       <c r="G1643" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -47343,7 +47346,7 @@
         <v>1.74199998378754</v>
       </c>
       <c r="G1644" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -47369,7 +47372,7 @@
         <v>1.74199998378754</v>
       </c>
       <c r="G1645" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -47395,7 +47398,7 @@
         <v>1.74199998378754</v>
       </c>
       <c r="G1646" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -47421,7 +47424,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G1647" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -47447,7 +47450,7 @@
         <v>1.71200001239777</v>
       </c>
       <c r="G1648" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -47473,7 +47476,7 @@
         <v>1.75600004196167</v>
       </c>
       <c r="G1649" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -47499,7 +47502,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G1650" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -47525,7 +47528,7 @@
         <v>1.75600004196167</v>
       </c>
       <c r="G1651" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -47551,7 +47554,7 @@
         <v>1.71399998664856</v>
       </c>
       <c r="G1652" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -47577,7 +47580,7 @@
         <v>1.72399997711182</v>
       </c>
       <c r="G1653" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -47603,7 +47606,7 @@
         <v>1.71599996089935</v>
       </c>
       <c r="G1654" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -47629,7 +47632,7 @@
         <v>1.70200002193451</v>
       </c>
       <c r="G1655" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -47655,7 +47658,7 @@
         <v>1.63399994373322</v>
       </c>
       <c r="G1656" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -47681,7 +47684,7 @@
         <v>1.60000002384186</v>
       </c>
       <c r="G1657" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -47707,7 +47710,7 @@
         <v>1.62199997901917</v>
       </c>
       <c r="G1658" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -47733,7 +47736,7 @@
         <v>1.65600001811981</v>
       </c>
       <c r="G1659" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -47759,7 +47762,7 @@
         <v>1.62800002098083</v>
       </c>
       <c r="G1660" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -47785,7 +47788,7 @@
         <v>1.59200000762939</v>
       </c>
       <c r="G1661" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -47811,7 +47814,7 @@
         <v>1.5900000333786</v>
       </c>
       <c r="G1662" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -47837,7 +47840,7 @@
         <v>1.55999994277954</v>
       </c>
       <c r="G1663" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -47863,7 +47866,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G1664" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -47889,7 +47892,7 @@
         <v>1.74199998378754</v>
       </c>
       <c r="G1665" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -47915,7 +47918,7 @@
         <v>1.85199999809265</v>
       </c>
       <c r="G1666" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -47941,7 +47944,7 @@
         <v>1.80400002002716</v>
       </c>
       <c r="G1667" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -47967,7 +47970,7 @@
         <v>1.79200005531311</v>
       </c>
       <c r="G1668" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -47993,7 +47996,7 @@
         <v>1.79799997806549</v>
       </c>
       <c r="G1669" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -48019,7 +48022,7 @@
         <v>1.79200005531311</v>
       </c>
       <c r="G1670" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -48045,7 +48048,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G1671" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -48071,7 +48074,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G1672" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -48097,7 +48100,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G1673" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -48123,7 +48126,7 @@
         <v>1.85800004005432</v>
       </c>
       <c r="G1674" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -48149,7 +48152,7 @@
         <v>1.83200001716614</v>
       </c>
       <c r="G1675" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -48175,7 +48178,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G1676" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -48201,7 +48204,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G1677" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -48227,7 +48230,7 @@
         <v>1.77199995517731</v>
       </c>
       <c r="G1678" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -48253,7 +48256,7 @@
         <v>1.76600003242493</v>
       </c>
       <c r="G1679" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -48279,7 +48282,7 @@
         <v>1.75399994850159</v>
       </c>
       <c r="G1680" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -48305,7 +48308,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G1681" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -48331,7 +48334,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G1682" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -48357,7 +48360,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G1683" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -48383,7 +48386,7 @@
         <v>1.74199998378754</v>
       </c>
       <c r="G1684" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -48409,7 +48412,7 @@
         <v>1.73399996757507</v>
       </c>
       <c r="G1685" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -48435,7 +48438,7 @@
         <v>1.70200002193451</v>
       </c>
       <c r="G1686" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -48461,7 +48464,7 @@
         <v>1.69799995422363</v>
       </c>
       <c r="G1687" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -48487,7 +48490,7 @@
         <v>1.68400001525879</v>
       </c>
       <c r="G1688" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -48513,7 +48516,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G1689" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -48539,7 +48542,7 @@
         <v>1.66199994087219</v>
       </c>
       <c r="G1690" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -48565,7 +48568,7 @@
         <v>1.67599999904633</v>
       </c>
       <c r="G1691" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -48591,7 +48594,7 @@
         <v>1.65400004386902</v>
       </c>
       <c r="G1692" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -48617,7 +48620,7 @@
         <v>1.61199998855591</v>
       </c>
       <c r="G1693" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -48643,7 +48646,7 @@
         <v>1.58200001716614</v>
       </c>
       <c r="G1694" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -48669,7 +48672,7 @@
         <v>1.56599998474121</v>
       </c>
       <c r="G1695" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -48695,7 +48698,7 @@
         <v>1.54999995231628</v>
       </c>
       <c r="G1696" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -48721,7 +48724,7 @@
         <v>1.52999997138977</v>
       </c>
       <c r="G1697" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -48747,7 +48750,7 @@
         <v>1.53199994564056</v>
       </c>
       <c r="G1698" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -48773,7 +48776,7 @@
         <v>1.52799999713898</v>
       </c>
       <c r="G1699" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -48799,7 +48802,7 @@
         <v>1.52400004863739</v>
       </c>
       <c r="G1700" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -48825,7 +48828,7 @@
         <v>1.51999998092651</v>
       </c>
       <c r="G1701" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -48851,7 +48854,7 @@
         <v>1.53999996185303</v>
       </c>
       <c r="G1702" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -48877,7 +48880,7 @@
         <v>1.53999996185303</v>
       </c>
       <c r="G1703" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -48903,7 +48906,7 @@
         <v>1.59800004959106</v>
       </c>
       <c r="G1704" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -48929,7 +48932,7 @@
         <v>1.56400001049042</v>
       </c>
       <c r="G1705" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -48955,7 +48958,7 @@
         <v>1.5440000295639</v>
       </c>
       <c r="G1706" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -48981,7 +48984,7 @@
         <v>1.52600002288818</v>
       </c>
       <c r="G1707" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -49007,7 +49010,7 @@
         <v>1.5</v>
       </c>
       <c r="G1708" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -49033,7 +49036,7 @@
         <v>1.46800005435944</v>
       </c>
       <c r="G1709" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -49059,7 +49062,7 @@
         <v>1.432000041008</v>
       </c>
       <c r="G1710" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -49085,7 +49088,7 @@
         <v>1.4559999704361</v>
       </c>
       <c r="G1711" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -49111,7 +49114,7 @@
         <v>1.4559999704361</v>
       </c>
       <c r="G1712" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -49137,7 +49140,7 @@
         <v>1.41799998283386</v>
       </c>
       <c r="G1713" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -49163,7 +49166,7 @@
         <v>1.43400001525879</v>
       </c>
       <c r="G1714" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -49189,7 +49192,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1715" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -49215,7 +49218,7 @@
         <v>1.41600000858307</v>
       </c>
       <c r="G1716" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -49241,7 +49244,7 @@
         <v>1.37600004673004</v>
       </c>
       <c r="G1717" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -49267,7 +49270,7 @@
         <v>1.41199994087219</v>
       </c>
       <c r="G1718" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -49293,7 +49296,7 @@
         <v>1.46000003814697</v>
       </c>
       <c r="G1719" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -49319,7 +49322,7 @@
         <v>1.5</v>
       </c>
       <c r="G1720" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -49345,7 +49348,7 @@
         <v>1.49000000953674</v>
       </c>
       <c r="G1721" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -49371,7 +49374,7 @@
         <v>1.50999999046326</v>
       </c>
       <c r="G1722" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -49397,7 +49400,7 @@
         <v>1.53600001335144</v>
       </c>
       <c r="G1723" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -49423,7 +49426,7 @@
         <v>1.56599998474121</v>
       </c>
       <c r="G1724" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -49449,7 +49452,7 @@
         <v>1.49800002574921</v>
       </c>
       <c r="G1725" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -49475,7 +49478,7 @@
         <v>1.44400000572205</v>
       </c>
       <c r="G1726" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -49501,7 +49504,7 @@
         <v>1.5</v>
       </c>
       <c r="G1727" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -49527,7 +49530,7 @@
         <v>1.47399997711182</v>
       </c>
       <c r="G1728" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -49553,7 +49556,7 @@
         <v>1.52999997138977</v>
       </c>
       <c r="G1729" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -49579,7 +49582,7 @@
         <v>1.52600002288818</v>
       </c>
       <c r="G1730" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -49605,7 +49608,7 @@
         <v>1.57200002670288</v>
       </c>
       <c r="G1731" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -49631,7 +49634,7 @@
         <v>1.61600005626678</v>
       </c>
       <c r="G1732" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -49657,7 +49660,7 @@
         <v>1.56599998474121</v>
       </c>
       <c r="G1733" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -49683,7 +49686,7 @@
         <v>1.61800003051758</v>
       </c>
       <c r="G1734" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -49709,7 +49712,7 @@
         <v>1.6599999666214</v>
       </c>
       <c r="G1735" t="s">
-        <v>1170</v>
+        <v>949</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -49865,7 +49868,7 @@
         <v>1.61800003051758</v>
       </c>
       <c r="G1741" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -49891,7 +49894,7 @@
         <v>1.62199997901917</v>
       </c>
       <c r="G1742" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -49969,7 +49972,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G1745" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -50021,7 +50024,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G1747" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -50073,7 +50076,7 @@
         <v>1.65600001811981</v>
       </c>
       <c r="G1749" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -50281,7 +50284,7 @@
         <v>1.52400004863739</v>
       </c>
       <c r="G1757" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -50359,7 +50362,7 @@
         <v>1.51999998092651</v>
       </c>
       <c r="G1760" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -50385,7 +50388,7 @@
         <v>1.53199994564056</v>
       </c>
       <c r="G1761" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -50437,7 +50440,7 @@
         <v>1.56599998474121</v>
       </c>
       <c r="G1763" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -50489,7 +50492,7 @@
         <v>1.54999995231628</v>
       </c>
       <c r="G1765" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -50541,7 +50544,7 @@
         <v>1.51999998092651</v>
       </c>
       <c r="G1767" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -50619,7 +50622,7 @@
         <v>1.52799999713898</v>
       </c>
       <c r="G1770" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -50671,7 +50674,7 @@
         <v>1.5</v>
       </c>
       <c r="G1772" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -50879,7 +50882,7 @@
         <v>1.47399997711182</v>
       </c>
       <c r="G1780" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -51009,7 +51012,7 @@
         <v>1.53999996185303</v>
       </c>
       <c r="G1785" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -51113,7 +51116,7 @@
         <v>1.53999996185303</v>
       </c>
       <c r="G1789" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -51139,7 +51142,7 @@
         <v>1.52999997138977</v>
       </c>
       <c r="G1790" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -51191,7 +51194,7 @@
         <v>1.53999996185303</v>
       </c>
       <c r="G1792" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -51243,7 +51246,7 @@
         <v>1.54999995231628</v>
       </c>
       <c r="G1794" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -51321,7 +51324,7 @@
         <v>1.5440000295639</v>
       </c>
       <c r="G1797" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -51347,7 +51350,7 @@
         <v>1.54999995231628</v>
       </c>
       <c r="G1798" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -51373,7 +51376,7 @@
         <v>1.53600001335144</v>
       </c>
       <c r="G1799" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -51477,7 +51480,7 @@
         <v>1.66199994087219</v>
       </c>
       <c r="G1803" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -51529,7 +51532,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G1805" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -51893,7 +51896,7 @@
         <v>1.72399997711182</v>
       </c>
       <c r="G1819" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -51945,7 +51948,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G1821" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -51997,7 +52000,7 @@
         <v>1.75600004196167</v>
       </c>
       <c r="G1823" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -52101,7 +52104,7 @@
         <v>1.74199998378754</v>
       </c>
       <c r="G1827" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -52127,7 +52130,7 @@
         <v>1.73399996757507</v>
       </c>
       <c r="G1828" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -52231,7 +52234,7 @@
         <v>1.69599997997284</v>
       </c>
       <c r="G1832" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -52257,7 +52260,7 @@
         <v>1.64800000190735</v>
       </c>
       <c r="G1833" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -52309,7 +52312,7 @@
         <v>1.61800003051758</v>
       </c>
       <c r="G1835" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -52335,7 +52338,7 @@
         <v>1.62800002098083</v>
       </c>
       <c r="G1836" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -52361,7 +52364,7 @@
         <v>1.61800003051758</v>
       </c>
       <c r="G1837" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -52439,7 +52442,7 @@
         <v>1.73399996757507</v>
       </c>
       <c r="G1840" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -52491,7 +52494,7 @@
         <v>1.79799997806549</v>
       </c>
       <c r="G1842" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -52673,7 +52676,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G1849" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -52855,7 +52858,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G1856" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -53115,7 +53118,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G1866" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -53375,7 +53378,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G1876" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -53505,7 +53508,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G1881" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -61339,7 +61342,7 @@
     </row>
     <row r="2183">
       <c r="A2183" s="1" t="n">
-        <v>45502.6493865741</v>
+        <v>45502.2916666667</v>
       </c>
       <c r="B2183" t="n">
         <v>279737</v>
@@ -61360,6 +61363,32 @@
         <v>1417</v>
       </c>
       <c r="H2183" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" s="1" t="n">
+        <v>45503.6494097222</v>
+      </c>
+      <c r="B2184" t="n">
+        <v>459754</v>
+      </c>
+      <c r="C2184" t="n">
+        <v>2.38000011444092</v>
+      </c>
+      <c r="D2184" t="n">
+        <v>2.27999997138977</v>
+      </c>
+      <c r="E2184" t="n">
+        <v>2.29999995231628</v>
+      </c>
+      <c r="F2184" t="n">
+        <v>2.35999989509583</v>
+      </c>
+      <c r="G2184" t="s">
+        <v>1418</v>
+      </c>
+      <c r="H2184" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CAI.MI.xlsx
+++ b/data/CAI.MI.xlsx
@@ -50,31 +50,31 @@
     <t xml:space="preserve">3.01786708831787</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97690081596375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98099756240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88131189346313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94003081321716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80620694160461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86082863807678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75841236114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73929500579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69013500213623</t>
+    <t xml:space="preserve">2.97690057754517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98099732398987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88131165504456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94003105163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80620670318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86082887649536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7584125995636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73929476737976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69013476371765</t>
   </si>
   <si>
     <t xml:space="preserve">2.71744632720947</t>
@@ -83,31 +83,31 @@
     <t xml:space="preserve">2.86629104614258</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76387500762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74475693702698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75704717636108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71061849594116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73110151290894</t>
+    <t xml:space="preserve">2.76387476921082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7447566986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75704669952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71061825752258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73110127449036</t>
   </si>
   <si>
     <t xml:space="preserve">2.76114368438721</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72563910484314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69696283340454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72290802001953</t>
+    <t xml:space="preserve">2.7256395816803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69696259498596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72290825843811</t>
   </si>
   <si>
     <t xml:space="preserve">2.62868499755859</t>
@@ -119,31 +119,31 @@
     <t xml:space="preserve">2.45799136161804</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30095267295837</t>
+    <t xml:space="preserve">2.30095291137695</t>
   </si>
   <si>
     <t xml:space="preserve">2.38971400260925</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53992486000061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50441980361938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67511367797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81713104248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7488534450531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7816264629364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68467259407043</t>
+    <t xml:space="preserve">2.53992438316345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50442004203796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67511391639709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81713080406189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74885368347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78162693977356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68467235565186</t>
   </si>
   <si>
     <t xml:space="preserve">2.86219429969788</t>
@@ -158,22 +158,22 @@
     <t xml:space="preserve">2.88404297828674</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88540863990784</t>
+    <t xml:space="preserve">2.88540840148926</t>
   </si>
   <si>
     <t xml:space="preserve">2.89769864082336</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85126972198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94685816764832</t>
+    <t xml:space="preserve">2.85126996040344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94685840606689</t>
   </si>
   <si>
     <t xml:space="preserve">2.9495894908905</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05883312225342</t>
+    <t xml:space="preserve">3.05883359909058</t>
   </si>
   <si>
     <t xml:space="preserve">3.12164902687073</t>
@@ -182,61 +182,61 @@
     <t xml:space="preserve">3.16125011444092</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18173313140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20767903327942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17900228500366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17217397689819</t>
+    <t xml:space="preserve">3.18173336982727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20767855644226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1790018081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17217421531677</t>
   </si>
   <si>
     <t xml:space="preserve">3.23635530471802</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2500114440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21041011810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22269940376282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23089241981506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22952747344971</t>
+    <t xml:space="preserve">3.25001049041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21040940284729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22269988059998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23089265823364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22952771186829</t>
   </si>
   <si>
     <t xml:space="preserve">3.14076662063599</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14896011352539</t>
+    <t xml:space="preserve">3.14895987510681</t>
   </si>
   <si>
     <t xml:space="preserve">3.225430727005</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2923424243927</t>
+    <t xml:space="preserve">3.29234290122986</t>
   </si>
   <si>
     <t xml:space="preserve">3.21587181091309</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30463314056396</t>
+    <t xml:space="preserve">3.30463266372681</t>
   </si>
   <si>
     <t xml:space="preserve">3.27732181549072</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34559941291809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36608266830444</t>
+    <t xml:space="preserve">3.34559917449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36608219146729</t>
   </si>
   <si>
     <t xml:space="preserve">3.40704870223999</t>
@@ -245,10 +245,10 @@
     <t xml:space="preserve">3.38656568527222</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33330965042114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34832978248596</t>
+    <t xml:space="preserve">3.33330917358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3483304977417</t>
   </si>
   <si>
     <t xml:space="preserve">3.32511591911316</t>
@@ -257,76 +257,76 @@
     <t xml:space="preserve">3.32375073432922</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29780507087708</t>
+    <t xml:space="preserve">3.29780459403992</t>
   </si>
   <si>
     <t xml:space="preserve">3.2636661529541</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29097747802734</t>
+    <t xml:space="preserve">3.29097700119019</t>
   </si>
   <si>
     <t xml:space="preserve">3.26022291183472</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19182658195496</t>
+    <t xml:space="preserve">3.19182634353638</t>
   </si>
   <si>
     <t xml:space="preserve">3.1562032699585</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13482975959778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17330265045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09208202362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1490786075592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32291960716248</t>
+    <t xml:space="preserve">3.1348295211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17330288887024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09208178520203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14907884597778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32291913032532</t>
   </si>
   <si>
     <t xml:space="preserve">3.34856796264648</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33431816101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31151986122131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38419103622437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44403791427612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41981434822083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43406343460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48108601570129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47681069374084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43833756446838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45116209983826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40841484069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39844012260437</t>
+    <t xml:space="preserve">3.3343186378479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31151962280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38419127464294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44403767585754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41981410980225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43406319618225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48108625411987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47681093215942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43833804130554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45116186141968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40841460227966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39843988418579</t>
   </si>
   <si>
     <t xml:space="preserve">3.34714317321777</t>
@@ -335,13 +335,13 @@
     <t xml:space="preserve">3.20607590675354</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02796030044556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94246530532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89971733093262</t>
+    <t xml:space="preserve">3.02796053886414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94246506690979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8997175693512</t>
   </si>
   <si>
     <t xml:space="preserve">2.89686751365662</t>
@@ -350,22 +350,22 @@
     <t xml:space="preserve">3.06643319129944</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08495688438416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1319797039032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14195370674133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02938508987427</t>
+    <t xml:space="preserve">3.08495712280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13197994232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14195394515991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02938532829285</t>
   </si>
   <si>
     <t xml:space="preserve">2.84984493255615</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95671439170837</t>
+    <t xml:space="preserve">2.95671415328979</t>
   </si>
   <si>
     <t xml:space="preserve">3.06500816345215</t>
@@ -374,7 +374,7 @@
     <t xml:space="preserve">3.16332793235779</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96526408195496</t>
+    <t xml:space="preserve">2.96526384353638</t>
   </si>
   <si>
     <t xml:space="preserve">2.9552891254425</t>
@@ -383,64 +383,64 @@
     <t xml:space="preserve">2.99233722686768</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12058067321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17045283317566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23599934577942</t>
+    <t xml:space="preserve">3.12058019638062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1704523563385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23599886894226</t>
   </si>
   <si>
     <t xml:space="preserve">3.17757725715637</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13625454902649</t>
+    <t xml:space="preserve">3.13625431060791</t>
   </si>
   <si>
     <t xml:space="preserve">2.94958925247192</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83702111244202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91966605186462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86551928520203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90399241447449</t>
+    <t xml:space="preserve">2.83702087402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9196662902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86551904678345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90399217605591</t>
   </si>
   <si>
     <t xml:space="preserve">2.84129548072815</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87549376487732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83559584617615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79854822158813</t>
+    <t xml:space="preserve">2.87549328804016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83559608459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79854774475098</t>
   </si>
   <si>
     <t xml:space="preserve">2.73442625999451</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7771737575531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88546848297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87406873703003</t>
+    <t xml:space="preserve">2.77717399597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88546800613403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87406849861145</t>
   </si>
   <si>
     <t xml:space="preserve">2.84272027015686</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87834334373474</t>
+    <t xml:space="preserve">2.87834358215332</t>
   </si>
   <si>
     <t xml:space="preserve">2.92821574211121</t>
@@ -449,25 +449,25 @@
     <t xml:space="preserve">2.92109107971191</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9410400390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8669445514679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85839486122131</t>
+    <t xml:space="preserve">2.94103980064392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86694407463074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85839462280273</t>
   </si>
   <si>
     <t xml:space="preserve">2.86409425735474</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81707215309143</t>
+    <t xml:space="preserve">2.81707191467285</t>
   </si>
   <si>
     <t xml:space="preserve">2.76007509231567</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80567240715027</t>
+    <t xml:space="preserve">2.80567216873169</t>
   </si>
   <si>
     <t xml:space="preserve">2.77289915084839</t>
@@ -476,7 +476,7 @@
     <t xml:space="preserve">2.75865006446838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77859902381897</t>
+    <t xml:space="preserve">2.77859878540039</t>
   </si>
   <si>
     <t xml:space="preserve">2.68597888946533</t>
@@ -488,25 +488,25 @@
     <t xml:space="preserve">2.59478378295898</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5477614402771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58480930328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65605545043945</t>
+    <t xml:space="preserve">2.54776167869568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58480954170227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65605568885803</t>
   </si>
   <si>
     <t xml:space="preserve">2.65463066101074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63610696792603</t>
+    <t xml:space="preserve">2.63610672950745</t>
   </si>
   <si>
     <t xml:space="preserve">2.60333347320557</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5719850063324</t>
+    <t xml:space="preserve">2.57198524475098</t>
   </si>
   <si>
     <t xml:space="preserve">2.45086669921875</t>
@@ -515,13 +515,13 @@
     <t xml:space="preserve">2.44516706466675</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42379331588745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44374227523804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41666865348816</t>
+    <t xml:space="preserve">2.42379355430603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44374203681946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41666841506958</t>
   </si>
   <si>
     <t xml:space="preserve">2.45941615104675</t>
@@ -530,25 +530,25 @@
     <t xml:space="preserve">2.61900782585144</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61045789718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54918646812439</t>
+    <t xml:space="preserve">2.61045813560486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54918670654297</t>
   </si>
   <si>
     <t xml:space="preserve">2.57910966873169</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5506112575531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52353811264038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57341027259827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64465594291687</t>
+    <t xml:space="preserve">2.55061149597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52353763580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57340979576111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64465618133545</t>
   </si>
   <si>
     <t xml:space="preserve">2.69310355186462</t>
@@ -557,16 +557,16 @@
     <t xml:space="preserve">2.64038157463074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63895654678345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62898206710815</t>
+    <t xml:space="preserve">2.63895630836487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62898230552673</t>
   </si>
   <si>
     <t xml:space="preserve">2.63325691223145</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67172980308533</t>
+    <t xml:space="preserve">2.67172956466675</t>
   </si>
   <si>
     <t xml:space="preserve">2.74867558479309</t>
@@ -575,19 +575,19 @@
     <t xml:space="preserve">2.73727631568909</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67315459251404</t>
+    <t xml:space="preserve">2.67315483093262</t>
   </si>
   <si>
     <t xml:space="preserve">2.70307803153992</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71447730064392</t>
+    <t xml:space="preserve">2.7144775390625</t>
   </si>
   <si>
     <t xml:space="preserve">2.70735263824463</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65178060531616</t>
+    <t xml:space="preserve">2.65178084373474</t>
   </si>
   <si>
     <t xml:space="preserve">2.66887998580933</t>
@@ -596,19 +596,19 @@
     <t xml:space="preserve">2.63753175735474</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65748047828674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56486034393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52211284637451</t>
+    <t xml:space="preserve">2.65748071670532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56486058235168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52211308479309</t>
   </si>
   <si>
     <t xml:space="preserve">2.51498818397522</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41524362564087</t>
+    <t xml:space="preserve">2.41524386405945</t>
   </si>
   <si>
     <t xml:space="preserve">2.43234300613403</t>
@@ -623,10 +623,10 @@
     <t xml:space="preserve">2.39244484901428</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35112190246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42236852645874</t>
+    <t xml:space="preserve">2.35112237930298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42236828804016</t>
   </si>
   <si>
     <t xml:space="preserve">2.53066253662109</t>
@@ -635,7 +635,7 @@
     <t xml:space="preserve">2.57768487930298</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58908438682556</t>
+    <t xml:space="preserve">2.58908414840698</t>
   </si>
   <si>
     <t xml:space="preserve">2.63468170166016</t>
@@ -653,7 +653,7 @@
     <t xml:space="preserve">2.69737839698792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74012637138367</t>
+    <t xml:space="preserve">2.74012541770935</t>
   </si>
   <si>
     <t xml:space="preserve">2.74297571182251</t>
@@ -662,52 +662,52 @@
     <t xml:space="preserve">2.72445154190063</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7230269908905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7287266254425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76434969902039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75152516365051</t>
+    <t xml:space="preserve">2.72302675247192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72872638702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76434993743896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75152540206909</t>
   </si>
   <si>
     <t xml:space="preserve">2.75580024719238</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71162748336792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69025373458862</t>
+    <t xml:space="preserve">2.7116277217865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6902539730072</t>
   </si>
   <si>
     <t xml:space="preserve">2.65035581588745</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60760831832886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58338451385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5534610748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52068829536438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60618352890015</t>
+    <t xml:space="preserve">2.60760807991028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5833842754364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55346131324768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5206880569458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60618305206299</t>
   </si>
   <si>
     <t xml:space="preserve">2.56058597564697</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54491138458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54063701629639</t>
+    <t xml:space="preserve">2.5449116230011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54063677787781</t>
   </si>
   <si>
     <t xml:space="preserve">2.50501394271851</t>
@@ -719,13 +719,13 @@
     <t xml:space="preserve">2.50643849372864</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53351235389709</t>
+    <t xml:space="preserve">2.53351211547852</t>
   </si>
   <si>
     <t xml:space="preserve">2.57625985145569</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60048389434814</t>
+    <t xml:space="preserve">2.60048365592957</t>
   </si>
   <si>
     <t xml:space="preserve">2.59193420410156</t>
@@ -740,7 +740,7 @@
     <t xml:space="preserve">2.58623433113098</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53636193275452</t>
+    <t xml:space="preserve">2.53636169433594</t>
   </si>
   <si>
     <t xml:space="preserve">2.48506498336792</t>
@@ -752,13 +752,13 @@
     <t xml:space="preserve">2.68740391731262</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69452834129333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75722479820251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77147459983826</t>
+    <t xml:space="preserve">2.69452857971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75722503662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77147436141968</t>
   </si>
   <si>
     <t xml:space="preserve">2.79712295532227</t>
@@ -767,16 +767,16 @@
     <t xml:space="preserve">2.78857350349426</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79997301101685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83132100105286</t>
+    <t xml:space="preserve">2.79997277259827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83132076263428</t>
   </si>
   <si>
     <t xml:space="preserve">2.9054172039032</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03508520126343</t>
+    <t xml:space="preserve">3.03508496284485</t>
   </si>
   <si>
     <t xml:space="preserve">3.06215834617615</t>
@@ -785,31 +785,31 @@
     <t xml:space="preserve">3.15477824211121</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29727053642273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25737309455872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0778329372406</t>
+    <t xml:space="preserve">3.29727029800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25737285614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07783269882202</t>
   </si>
   <si>
     <t xml:space="preserve">3.16760277748108</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16190338134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16047787666321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21889996528625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22174954414368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27589654922485</t>
+    <t xml:space="preserve">3.16190314292908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16047835350037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21889972686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22175002098083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27589702606201</t>
   </si>
   <si>
     <t xml:space="preserve">3.28159642219543</t>
@@ -818,16 +818,16 @@
     <t xml:space="preserve">3.26877188682556</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23172402381897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12912964820862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19610095024109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10063147544861</t>
+    <t xml:space="preserve">3.23172378540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1291298866272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19610118865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10063123703003</t>
   </si>
   <si>
     <t xml:space="preserve">3.1975257396698</t>
@@ -836,52 +836,52 @@
     <t xml:space="preserve">3.23884868621826</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22602438926697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29157090187073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32576894760132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28302145004272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31864428520203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34001922607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39559030532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35569214820862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23457431793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27019762992859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08923172950745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06358337402344</t>
+    <t xml:space="preserve">3.22602462768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29157114028931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3257691860199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2830216884613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31864452362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34001874923706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39559006690979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35569262504578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23457407951355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27019715309143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08923196792603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06358313560486</t>
   </si>
   <si>
     <t xml:space="preserve">3.17488980293274</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0970664024353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11147809028625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13886070251465</t>
+    <t xml:space="preserve">3.09706687927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11147832870483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13886094093323</t>
   </si>
   <si>
     <t xml:space="preserve">3.14462518692017</t>
@@ -893,7 +893,7 @@
     <t xml:space="preserve">3.1186842918396</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07112574577332</t>
+    <t xml:space="preserve">3.07112622261047</t>
   </si>
   <si>
     <t xml:space="preserve">3.03797888755798</t>
@@ -908,40 +908,40 @@
     <t xml:space="preserve">3.00627326965332</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97745037078857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9183623790741</t>
+    <t xml:space="preserve">2.97744989395142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91836214065552</t>
   </si>
   <si>
     <t xml:space="preserve">2.8722448348999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90395069122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89098024368286</t>
+    <t xml:space="preserve">2.90395092964172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89098000526428</t>
   </si>
   <si>
     <t xml:space="preserve">2.87512707710266</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84918642044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92700886726379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90683269500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86936283111572</t>
+    <t xml:space="preserve">2.84918618202209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92700910568237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9068329334259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86936259269714</t>
   </si>
   <si>
     <t xml:space="preserve">2.87800931930542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85783314704895</t>
+    <t xml:space="preserve">2.85783338546753</t>
   </si>
   <si>
     <t xml:space="preserve">2.85350966453552</t>
@@ -953,10 +953,10 @@
     <t xml:space="preserve">2.82468628883362</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79298043251038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76415729522705</t>
+    <t xml:space="preserve">2.79298067092896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76415705680847</t>
   </si>
   <si>
     <t xml:space="preserve">2.81027460098267</t>
@@ -965,28 +965,28 @@
     <t xml:space="preserve">2.80018639564514</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79153943061829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72956919670105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75262832641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75983381271362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74686336517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95439147949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92124438285828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92845058441162</t>
+    <t xml:space="preserve">2.79153966903687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72956943511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75262808799744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75983357429504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74686312675476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95439124107361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92124462127686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92845034599304</t>
   </si>
   <si>
     <t xml:space="preserve">2.92556810379028</t>
@@ -995,7 +995,7 @@
     <t xml:space="preserve">2.83189225196838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.843421459198</t>
+    <t xml:space="preserve">2.84342169761658</t>
   </si>
   <si>
     <t xml:space="preserve">2.80450987815857</t>
@@ -1007,28 +1007,28 @@
     <t xml:space="preserve">2.82612752914429</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78865694999695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80739235877991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.808833360672</t>
+    <t xml:space="preserve">2.78865742683411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80739212036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80883383750916</t>
   </si>
   <si>
     <t xml:space="preserve">2.84053921699524</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85495090484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86503934860229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87656831741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90827417373657</t>
+    <t xml:space="preserve">2.85495066642761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86503911018372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87656879425049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90827393531799</t>
   </si>
   <si>
     <t xml:space="preserve">2.83909797668457</t>
@@ -1043,13 +1043,13 @@
     <t xml:space="preserve">2.76848101615906</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70218682289124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72668695449829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71371650695801</t>
+    <t xml:space="preserve">2.70218706130981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72668719291687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71371674537659</t>
   </si>
   <si>
     <t xml:space="preserve">2.7252459526062</t>
@@ -1058,7 +1058,7 @@
     <t xml:space="preserve">2.68056964874268</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67480492591858</t>
+    <t xml:space="preserve">2.67480516433716</t>
   </si>
   <si>
     <t xml:space="preserve">2.67336392402649</t>
@@ -1070,16 +1070,16 @@
     <t xml:space="preserve">2.67624616622925</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75406932830811</t>
+    <t xml:space="preserve">2.75406908988953</t>
   </si>
   <si>
     <t xml:space="preserve">2.79442191123962</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79874539375305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74542188644409</t>
+    <t xml:space="preserve">2.79874563217163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74542236328125</t>
   </si>
   <si>
     <t xml:space="preserve">2.78577494621277</t>
@@ -1088,25 +1088,25 @@
     <t xml:space="preserve">2.92268586158752</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02500820159912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02644944190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06968474388123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10571384429932</t>
+    <t xml:space="preserve">3.02500867843628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02644968032837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0696849822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10571360588074</t>
   </si>
   <si>
     <t xml:space="preserve">3.12156653404236</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17056655883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14174318313599</t>
+    <t xml:space="preserve">3.17056632041931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14174294471741</t>
   </si>
   <si>
     <t xml:space="preserve">3.13597846031189</t>
@@ -1115,10 +1115,10 @@
     <t xml:space="preserve">3.09850788116455</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05671429634094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07689070701599</t>
+    <t xml:space="preserve">3.05671453475952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07689046859741</t>
   </si>
   <si>
     <t xml:space="preserve">3.08409643173218</t>
@@ -1127,7 +1127,7 @@
     <t xml:space="preserve">3.07400798797607</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04086136817932</t>
+    <t xml:space="preserve">3.04086089134216</t>
   </si>
   <si>
     <t xml:space="preserve">3.05383157730103</t>
@@ -1136,49 +1136,49 @@
     <t xml:space="preserve">3.17921328544617</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12589001655579</t>
+    <t xml:space="preserve">3.12589025497437</t>
   </si>
   <si>
     <t xml:space="preserve">3.05527281761169</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07977294921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14894866943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16191935539246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14750790596008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0999493598938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13453698158264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15903687477112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15471339225769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1287727355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11580181121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10427308082581</t>
+    <t xml:space="preserve">3.07977318763733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14894843101501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16191911697388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1475076675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09994888305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13453722000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15903663635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15471315383911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12877249717712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11580204963684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10427260398865</t>
   </si>
   <si>
     <t xml:space="preserve">3.12012553215027</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05815553665161</t>
+    <t xml:space="preserve">3.05815529823303</t>
   </si>
   <si>
     <t xml:space="preserve">3.00483226776123</t>
@@ -1187,52 +1187,52 @@
     <t xml:space="preserve">2.9716854095459</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7843337059021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82180428504944</t>
+    <t xml:space="preserve">2.78433394432068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82180380821228</t>
   </si>
   <si>
     <t xml:space="preserve">2.86792135238647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8967444896698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88233304023743</t>
+    <t xml:space="preserve">2.89674472808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88233280181885</t>
   </si>
   <si>
     <t xml:space="preserve">2.85062742233276</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82901000976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82324528694153</t>
+    <t xml:space="preserve">2.82900977134705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82324504852295</t>
   </si>
   <si>
     <t xml:space="preserve">2.70362830162048</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72236347198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70506930351257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71227526664734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65607023239136</t>
+    <t xml:space="preserve">2.72236371040344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70506954193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71227550506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65606999397278</t>
   </si>
   <si>
     <t xml:space="preserve">2.69858431816101</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76703977584839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78505420684814</t>
+    <t xml:space="preserve">2.76703953742981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78505444526672</t>
   </si>
   <si>
     <t xml:space="preserve">2.72740769386292</t>
@@ -1241,19 +1241,19 @@
     <t xml:space="preserve">2.69498133659363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7346134185791</t>
+    <t xml:space="preserve">2.73461365699768</t>
   </si>
   <si>
     <t xml:space="preserve">2.70579028129578</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73101043701172</t>
+    <t xml:space="preserve">2.7310106754303</t>
   </si>
   <si>
     <t xml:space="preserve">2.72020173072815</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79226016998291</t>
+    <t xml:space="preserve">2.79226040840149</t>
   </si>
   <si>
     <t xml:space="preserve">2.84630393981934</t>
@@ -1262,10 +1262,10 @@
     <t xml:space="preserve">2.774245262146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77064275741577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70939302444458</t>
+    <t xml:space="preserve">2.77064251899719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70939326286316</t>
   </si>
   <si>
     <t xml:space="preserve">2.74181938171387</t>
@@ -1280,10 +1280,10 @@
     <t xml:space="preserve">2.62652587890625</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6409375667572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65534949302673</t>
+    <t xml:space="preserve">2.64093780517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65534925460815</t>
   </si>
   <si>
     <t xml:space="preserve">2.64814329147339</t>
@@ -1295,7 +1295,7 @@
     <t xml:space="preserve">2.57248210906982</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57968783378601</t>
+    <t xml:space="preserve">2.57968807220459</t>
   </si>
   <si>
     <t xml:space="preserve">2.55807065963745</t>
@@ -1304,7 +1304,7 @@
     <t xml:space="preserve">2.56167340278625</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55086445808411</t>
+    <t xml:space="preserve">2.55086493492126</t>
   </si>
   <si>
     <t xml:space="preserve">2.56887936592102</t>
@@ -1313,19 +1313,19 @@
     <t xml:space="preserve">2.43557167053223</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37432169914246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30946922302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39593935012817</t>
+    <t xml:space="preserve">2.37432217597961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30946946144104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39593958854675</t>
   </si>
   <si>
     <t xml:space="preserve">2.41755676269531</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41395354270935</t>
+    <t xml:space="preserve">2.41395378112793</t>
   </si>
   <si>
     <t xml:space="preserve">2.36351323127747</t>
@@ -1346,28 +1346,28 @@
     <t xml:space="preserve">2.52204155921936</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4283652305603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4463803768158</t>
+    <t xml:space="preserve">2.42836570739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44638013839722</t>
   </si>
   <si>
     <t xml:space="preserve">2.4211597442627</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50762987136841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59409952163696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56527638435364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63012933731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65174627304077</t>
+    <t xml:space="preserve">2.50762963294983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59409976005554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56527614593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63012886047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65174651145935</t>
   </si>
   <si>
     <t xml:space="preserve">2.62292289733887</t>
@@ -1376,7 +1376,7 @@
     <t xml:space="preserve">2.60130548477173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60851120948792</t>
+    <t xml:space="preserve">2.60851144790649</t>
   </si>
   <si>
     <t xml:space="preserve">2.63733458518982</t>
@@ -1388,28 +1388,28 @@
     <t xml:space="preserve">2.66615796089172</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69137835502625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67696642875671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73281216621399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62172222137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49582004547119</t>
+    <t xml:space="preserve">2.69137859344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67696666717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73281192779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62172198295593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49582028388977</t>
   </si>
   <si>
     <t xml:space="preserve">2.48841404914856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40324521064758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43657231330872</t>
+    <t xml:space="preserve">2.403244972229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43657207489014</t>
   </si>
   <si>
     <t xml:space="preserve">2.45879006385803</t>
@@ -1421,46 +1421,46 @@
     <t xml:space="preserve">2.40694832801819</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36991786956787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29956126213074</t>
+    <t xml:space="preserve">2.36991834640503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29956150054932</t>
   </si>
   <si>
     <t xml:space="preserve">2.21068930625916</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32548236846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37732434272766</t>
+    <t xml:space="preserve">2.32548213005066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37732410430908</t>
   </si>
   <si>
     <t xml:space="preserve">2.38843321800232</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4291660785675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41805696487427</t>
+    <t xml:space="preserve">2.42916631698608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41805720329285</t>
   </si>
   <si>
     <t xml:space="preserve">2.46989917755127</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5032262802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52174091339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53285026550293</t>
+    <t xml:space="preserve">2.50322604179382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52174115180969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53285002708435</t>
   </si>
   <si>
     <t xml:space="preserve">2.57728600502014</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5254442691803</t>
+    <t xml:space="preserve">2.52544403076172</t>
   </si>
   <si>
     <t xml:space="preserve">2.45508718490601</t>
@@ -1472,43 +1472,43 @@
     <t xml:space="preserve">2.54395890235901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4736020565033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44768095016479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53655314445496</t>
+    <t xml:space="preserve">2.47360229492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44768118858337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53655290603638</t>
   </si>
   <si>
     <t xml:space="preserve">2.4773051738739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51433515548706</t>
+    <t xml:space="preserve">2.51433491706848</t>
   </si>
   <si>
     <t xml:space="preserve">2.48100805282593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46619629859924</t>
+    <t xml:space="preserve">2.46619606018066</t>
   </si>
   <si>
     <t xml:space="preserve">2.39583897590637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41065144538879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35140323638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36621499061584</t>
+    <t xml:space="preserve">2.41065120697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35140299797058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.366215467453</t>
   </si>
   <si>
     <t xml:space="preserve">2.34399724006653</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35880947113037</t>
+    <t xml:space="preserve">2.35880923271179</t>
   </si>
   <si>
     <t xml:space="preserve">2.35510611534119</t>
@@ -1517,10 +1517,10 @@
     <t xml:space="preserve">2.3625123500824</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30696702003479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31067037582397</t>
+    <t xml:space="preserve">2.30696725845337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3106701374054</t>
   </si>
   <si>
     <t xml:space="preserve">2.32177925109863</t>
@@ -1529,61 +1529,61 @@
     <t xml:space="preserve">2.39954209327698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38102722167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41435432434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37362146377563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31807637214661</t>
+    <t xml:space="preserve">2.38102698326111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41435408592224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37362122535706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31807613372803</t>
   </si>
   <si>
     <t xml:space="preserve">2.29585838317871</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28104591369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26993751525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30326414108276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32918524742126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27734327316284</t>
+    <t xml:space="preserve">2.28104639053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26993727684021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30326437950134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32918500900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27734375</t>
   </si>
   <si>
     <t xml:space="preserve">2.2662341594696</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29215526580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27364015579224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2884521484375</t>
+    <t xml:space="preserve">2.29215550422668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27364039421082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28845238685608</t>
   </si>
   <si>
     <t xml:space="preserve">2.28474950790405</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38473010063171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20698666572571</t>
+    <t xml:space="preserve">2.38473033905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20698642730713</t>
   </si>
   <si>
     <t xml:space="preserve">2.24031329154968</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15514445304871</t>
+    <t xml:space="preserve">2.15514421463013</t>
   </si>
   <si>
     <t xml:space="preserve">2.13292646408081</t>
@@ -1592,7 +1592,7 @@
     <t xml:space="preserve">2.14773845672607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1033022403717</t>
+    <t xml:space="preserve">2.10330247879028</t>
   </si>
   <si>
     <t xml:space="preserve">2.09959936141968</t>
@@ -1601,19 +1601,19 @@
     <t xml:space="preserve">2.08849024772644</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10700535774231</t>
+    <t xml:space="preserve">2.10700559616089</t>
   </si>
   <si>
     <t xml:space="preserve">2.0625696182251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98850929737091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95147943496704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02553915977478</t>
+    <t xml:space="preserve">1.98850953578949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95147931575775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02553939819336</t>
   </si>
   <si>
     <t xml:space="preserve">2.06627249717712</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">2.06997561454773</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12922310829163</t>
+    <t xml:space="preserve">2.12922358512878</t>
   </si>
   <si>
     <t xml:space="preserve">2.14403533935547</t>
@@ -1637,7 +1637,7 @@
     <t xml:space="preserve">2.18847131729126</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21439218521118</t>
+    <t xml:space="preserve">2.21439242362976</t>
   </si>
   <si>
     <t xml:space="preserve">2.23290753364563</t>
@@ -1652,13 +1652,13 @@
     <t xml:space="preserve">2.1995804309845</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21809506416321</t>
+    <t xml:space="preserve">2.21809530258179</t>
   </si>
   <si>
     <t xml:space="preserve">2.11811447143555</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0736780166626</t>
+    <t xml:space="preserve">2.07367849349976</t>
   </si>
   <si>
     <t xml:space="preserve">2.11070847511292</t>
@@ -1676,43 +1676,43 @@
     <t xml:space="preserve">2.65504908561707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68096971511841</t>
+    <t xml:space="preserve">2.68096995353699</t>
   </si>
   <si>
     <t xml:space="preserve">2.60320711135864</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62912797927856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65875172615051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65134596824646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62542486190796</t>
+    <t xml:space="preserve">2.62912821769714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65875196456909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65134620666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62542533874512</t>
   </si>
   <si>
     <t xml:space="preserve">2.71800017356873</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70318818092346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72910904884338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69207906723022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71429681777954</t>
+    <t xml:space="preserve">2.70318794250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7291088104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69207882881165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71429705619812</t>
   </si>
   <si>
     <t xml:space="preserve">2.75502991676331</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80316877365112</t>
+    <t xml:space="preserve">2.80316925048828</t>
   </si>
   <si>
     <t xml:space="preserve">2.81798100471497</t>
@@ -1724,19 +1724,19 @@
     <t xml:space="preserve">2.87352585792542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86241698265076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88093209266663</t>
+    <t xml:space="preserve">2.86241674423218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88093185424805</t>
   </si>
   <si>
     <t xml:space="preserve">2.76243591308594</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76984190940857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79946565628052</t>
+    <t xml:space="preserve">2.76984167098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79946613311768</t>
   </si>
   <si>
     <t xml:space="preserve">2.79205989837646</t>
@@ -1748,10 +1748,10 @@
     <t xml:space="preserve">2.79576301574707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75873303413391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85871386528015</t>
+    <t xml:space="preserve">2.75873279571533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85871362686157</t>
   </si>
   <si>
     <t xml:space="preserve">2.90314984321594</t>
@@ -1760,10 +1760,10 @@
     <t xml:space="preserve">2.89574384689331</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90685296058655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88833785057068</t>
+    <t xml:space="preserve">2.90685272216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88833808898926</t>
   </si>
   <si>
     <t xml:space="preserve">2.962397813797</t>
@@ -1772,19 +1772,19 @@
     <t xml:space="preserve">2.98091292381287</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91796183586121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94758582115173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95128846168518</t>
+    <t xml:space="preserve">2.91796159744263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94758558273315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95128870010376</t>
   </si>
   <si>
     <t xml:space="preserve">2.9364767074585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95499157905579</t>
+    <t xml:space="preserve">2.95499181747437</t>
   </si>
   <si>
     <t xml:space="preserve">2.93277382850647</t>
@@ -1796,46 +1796,46 @@
     <t xml:space="preserve">2.96980404853821</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97720956802368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9401798248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89944648742676</t>
+    <t xml:space="preserve">2.97721004486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94017958641052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89944672584534</t>
   </si>
   <si>
     <t xml:space="preserve">2.81057500839233</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86611938476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80687165260315</t>
+    <t xml:space="preserve">2.86611986160278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80687212944031</t>
   </si>
   <si>
     <t xml:space="preserve">2.83279275894165</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85501098632812</t>
+    <t xml:space="preserve">2.85501074790955</t>
   </si>
   <si>
     <t xml:space="preserve">2.71059393882751</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70689105987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61061310768127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64023733139038</t>
+    <t xml:space="preserve">2.70689082145691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6106128692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6402370929718</t>
   </si>
   <si>
     <t xml:space="preserve">2.6365339756012</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63283085823059</t>
+    <t xml:space="preserve">2.63283109664917</t>
   </si>
   <si>
     <t xml:space="preserve">2.61801910400391</t>
@@ -1844,13 +1844,13 @@
     <t xml:space="preserve">2.69578194618225</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68467307090759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68837594985962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61431622505188</t>
+    <t xml:space="preserve">2.68467283248901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68837571144104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6143159866333</t>
   </si>
   <si>
     <t xml:space="preserve">2.56988000869751</t>
@@ -1862,10 +1862,10 @@
     <t xml:space="preserve">2.50692892074585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34770059585571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23661041259766</t>
+    <t xml:space="preserve">2.34770011901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23661017417908</t>
   </si>
   <si>
     <t xml:space="preserve">2.18476819992065</t>
@@ -1874,49 +1874,49 @@
     <t xml:space="preserve">2.19587731361389</t>
   </si>
   <si>
-    <t xml:space="preserve">2.299480676651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21777319908142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10883021354675</t>
+    <t xml:space="preserve">2.29948091506958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2177734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10882997512817</t>
   </si>
   <si>
     <t xml:space="preserve">2.12439346313477</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08937573432922</t>
+    <t xml:space="preserve">2.0893759727478</t>
   </si>
   <si>
     <t xml:space="preserve">2.10104846954346</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10493946075439</t>
+    <t xml:space="preserve">2.10493922233582</t>
   </si>
   <si>
     <t xml:space="preserve">2.09326696395874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12050271034241</t>
+    <t xml:space="preserve">2.12050247192383</t>
   </si>
   <si>
     <t xml:space="preserve">2.13995671272278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12828397750854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07770371437073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05046772956848</t>
+    <t xml:space="preserve">2.12828421592712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07770347595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0504674911499</t>
   </si>
   <si>
     <t xml:space="preserve">2.04657697677612</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03490424156189</t>
+    <t xml:space="preserve">2.03490447998047</t>
   </si>
   <si>
     <t xml:space="preserve">2.05435848236084</t>
@@ -1934,19 +1934,19 @@
     <t xml:space="preserve">2.04268598556519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22944593429565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1866466999054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96876013278961</t>
+    <t xml:space="preserve">2.22944617271423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18664646148682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9687602519989</t>
   </si>
   <si>
     <t xml:space="preserve">2.00377774238586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.929851770401</t>
+    <t xml:space="preserve">1.92985188961029</t>
   </si>
   <si>
     <t xml:space="preserve">2.02712273597717</t>
@@ -1955,34 +1955,34 @@
     <t xml:space="preserve">1.94152438640594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84425354003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79367291927338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76643693447113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8092360496521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75087368488312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74698269367218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69251132011414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78978192806244</t>
+    <t xml:space="preserve">1.84425365924835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79367303848267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76643705368042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80923628807068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75087380409241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74698281288147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69251120090485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78978204727173</t>
   </si>
   <si>
     <t xml:space="preserve">1.82090854644775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73920106887817</t>
+    <t xml:space="preserve">1.73920118808746</t>
   </si>
   <si>
     <t xml:space="preserve">1.74309206008911</t>
@@ -1994,31 +1994,31 @@
     <t xml:space="preserve">1.7119654417038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71974718570709</t>
+    <t xml:space="preserve">1.7197470664978</t>
   </si>
   <si>
     <t xml:space="preserve">1.70418381690979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78589129447937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73141944408417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71585607528687</t>
+    <t xml:space="preserve">1.78589141368866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73141932487488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71585619449615</t>
   </si>
   <si>
     <t xml:space="preserve">1.7353104352951</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78200018405914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8325811624527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80145454406738</t>
+    <t xml:space="preserve">1.78200042247772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83258140087128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80145466327667</t>
   </si>
   <si>
     <t xml:space="preserve">1.84036290645599</t>
@@ -2027,7 +2027,7 @@
     <t xml:space="preserve">1.85592615604401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83647203445435</t>
+    <t xml:space="preserve">1.83647215366364</t>
   </si>
   <si>
     <t xml:space="preserve">1.87927114963531</t>
@@ -2036,19 +2036,19 @@
     <t xml:space="preserve">1.79756379127502</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77032780647278</t>
+    <t xml:space="preserve">1.77032792568207</t>
   </si>
   <si>
     <t xml:space="preserve">1.82869040966034</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75476455688477</t>
+    <t xml:space="preserve">1.75476467609406</t>
   </si>
   <si>
     <t xml:space="preserve">1.75865542888641</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76254618167877</t>
+    <t xml:space="preserve">1.76254630088806</t>
   </si>
   <si>
     <t xml:space="preserve">1.80534529685974</t>
@@ -2057,31 +2057,31 @@
     <t xml:space="preserve">1.8170177936554</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82479953765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91428864002228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93374276161194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89094376564026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87538027763367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90650725364685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89483439922333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85981702804565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92207038402557</t>
+    <t xml:space="preserve">1.82479965686798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91428852081299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93374240398407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89094352722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87538039684296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90650701522827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89483428001404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85981714725494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92207026481628</t>
   </si>
   <si>
     <t xml:space="preserve">2.01155948638916</t>
@@ -2093,7 +2093,7 @@
     <t xml:space="preserve">2.16330170631409</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08159446716309</t>
+    <t xml:space="preserve">2.08159422874451</t>
   </si>
   <si>
     <t xml:space="preserve">2.06214022636414</t>
@@ -2105,10 +2105,10 @@
     <t xml:space="preserve">2.2099916934967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19053769111633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15551996231079</t>
+    <t xml:space="preserve">2.19053745269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15552020072937</t>
   </si>
   <si>
     <t xml:space="preserve">2.19831919670105</t>
@@ -2117,7 +2117,7 @@
     <t xml:space="preserve">2.17108345031738</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14384746551514</t>
+    <t xml:space="preserve">2.14384770393372</t>
   </si>
   <si>
     <t xml:space="preserve">2.11272072792053</t>
@@ -2138,43 +2138,43 @@
     <t xml:space="preserve">2.13606595993042</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01934099197388</t>
+    <t xml:space="preserve">2.01934123039246</t>
   </si>
   <si>
     <t xml:space="preserve">1.87148940563202</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91039764881134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92596089839935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89872539043427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9531968832016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99988687038422</t>
+    <t xml:space="preserve">1.91039752960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92596101760864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89872527122498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95319712162018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99988698959351</t>
   </si>
   <si>
     <t xml:space="preserve">1.95708787441254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96486937999725</t>
+    <t xml:space="preserve">1.96486949920654</t>
   </si>
   <si>
     <t xml:space="preserve">1.99210524559021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72752857208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6886203289032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62636709213257</t>
+    <t xml:space="preserve">1.72752869129181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68862044811249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62636697292328</t>
   </si>
   <si>
     <t xml:space="preserve">1.59524047374725</t>
@@ -2183,40 +2183,40 @@
     <t xml:space="preserve">1.54232513904572</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48941004276276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45361423492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33844578266144</t>
+    <t xml:space="preserve">1.48940992355347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45361435413361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33844566345215</t>
   </si>
   <si>
     <t xml:space="preserve">1.30420637130737</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27619230747223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09098887443542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16102385520935</t>
+    <t xml:space="preserve">1.27619242668152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09098875522614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16102373600006</t>
   </si>
   <si>
     <t xml:space="preserve">1.08009457588196</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05986213684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08476364612579</t>
+    <t xml:space="preserve">1.05986225605011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0847635269165</t>
   </si>
   <si>
     <t xml:space="preserve">1.10188317298889</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22483336925507</t>
+    <t xml:space="preserve">1.22483348846436</t>
   </si>
   <si>
     <t xml:space="preserve">1.31976974010468</t>
@@ -2231,7 +2231,7 @@
     <t xml:space="preserve">1.26685440540314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27152323722839</t>
+    <t xml:space="preserve">1.27152335643768</t>
   </si>
   <si>
     <t xml:space="preserve">1.32288241386414</t>
@@ -2240,7 +2240,7 @@
     <t xml:space="preserve">1.28864300251007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28397393226624</t>
+    <t xml:space="preserve">1.28397417068481</t>
   </si>
   <si>
     <t xml:space="preserve">1.29331207275391</t>
@@ -2252,10 +2252,10 @@
     <t xml:space="preserve">1.36179065704346</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26062917709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29642474651337</t>
+    <t xml:space="preserve">1.26062905788422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29642462730408</t>
   </si>
   <si>
     <t xml:space="preserve">1.29798102378845</t>
@@ -2267,7 +2267,7 @@
     <t xml:space="preserve">1.29953742027283</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31354439258575</t>
+    <t xml:space="preserve">1.31354427337646</t>
   </si>
   <si>
     <t xml:space="preserve">1.29175567626953</t>
@@ -2279,7 +2279,7 @@
     <t xml:space="preserve">1.2295024394989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23884046077728</t>
+    <t xml:space="preserve">1.23884034156799</t>
   </si>
   <si>
     <t xml:space="preserve">1.24350941181183</t>
@@ -2288,58 +2288,58 @@
     <t xml:space="preserve">1.20927011966705</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17503082752228</t>
+    <t xml:space="preserve">1.17503070831299</t>
   </si>
   <si>
     <t xml:space="preserve">1.13300979137421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10343956947327</t>
+    <t xml:space="preserve">1.10343945026398</t>
   </si>
   <si>
     <t xml:space="preserve">1.10499584674835</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08631992340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05674970149994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06764376163483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12211561203003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10655224323273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14234805107117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15012955665588</t>
+    <t xml:space="preserve">1.08631980419159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05674958229065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06764388084412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12211549282074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10655236244202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14234793186188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15012943744659</t>
   </si>
   <si>
     <t xml:space="preserve">1.13923513889313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19837558269501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24506568908691</t>
+    <t xml:space="preserve">1.19837582111359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2450658082962</t>
   </si>
   <si>
     <t xml:space="preserve">1.23728406429291</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2217208147049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28708672523499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27930498123169</t>
+    <t xml:space="preserve">1.22172069549561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28708684444427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27930510044098</t>
   </si>
   <si>
     <t xml:space="preserve">1.17969977855682</t>
@@ -2351,7 +2351,7 @@
     <t xml:space="preserve">1.23572778701782</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20615744590759</t>
+    <t xml:space="preserve">1.20615756511688</t>
   </si>
   <si>
     <t xml:space="preserve">1.20771384239197</t>
@@ -2375,7 +2375,7 @@
     <t xml:space="preserve">1.15791118144989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14079141616821</t>
+    <t xml:space="preserve">1.1407915353775</t>
   </si>
   <si>
     <t xml:space="preserve">1.18436884880066</t>
@@ -2390,19 +2390,19 @@
     <t xml:space="preserve">1.16724920272827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1734744310379</t>
+    <t xml:space="preserve">1.17347455024719</t>
   </si>
   <si>
     <t xml:space="preserve">1.15168583393097</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17191815376282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1656928062439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15635466575623</t>
+    <t xml:space="preserve">1.17191827297211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16569292545319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15635478496552</t>
   </si>
   <si>
     <t xml:space="preserve">1.1252281665802</t>
@@ -2420,28 +2420,28 @@
     <t xml:space="preserve">1.08320713043213</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06297481060028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04896807670593</t>
+    <t xml:space="preserve">1.06297492980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04896795749664</t>
   </si>
   <si>
     <t xml:space="preserve">1.09410154819489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07075655460358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09721422195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06141865253448</t>
+    <t xml:space="preserve">1.07075667381287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09721410274506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0614185333252</t>
   </si>
   <si>
     <t xml:space="preserve">1.05052423477173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04585516452789</t>
+    <t xml:space="preserve">1.04585528373718</t>
   </si>
   <si>
     <t xml:space="preserve">1.03962993621826</t>
@@ -2450,49 +2450,49 @@
     <t xml:space="preserve">1.04118633270264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03340458869934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03496086597443</t>
+    <t xml:space="preserve">1.03340446949005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03496098518372</t>
   </si>
   <si>
     <t xml:space="preserve">1.0365172624588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02251029014587</t>
+    <t xml:space="preserve">1.02251017093658</t>
   </si>
   <si>
     <t xml:space="preserve">0.996052622795105</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01628494262695</t>
+    <t xml:space="preserve">1.01628482341766</t>
   </si>
   <si>
     <t xml:space="preserve">1.00850319862366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01005959510803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00072157382965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.991383612155914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966482222080231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9649258852005</t>
+    <t xml:space="preserve">1.01005947589874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00072169303894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99138355255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.966482281684875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964925944805145</t>
   </si>
   <si>
     <t xml:space="preserve">0.958700597286224</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954031527042389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975820302963257</t>
+    <t xml:space="preserve">0.954031646251678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975820124149323</t>
   </si>
   <si>
     <t xml:space="preserve">0.989827215671539</t>
@@ -2501,19 +2501,19 @@
     <t xml:space="preserve">0.969595015048981</t>
   </si>
   <si>
-    <t xml:space="preserve">0.949362695217133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96803867816925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.957144320011139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980489373207092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999165236949921</t>
+    <t xml:space="preserve">0.949362635612488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.968038558959961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.957144260406494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980489313602448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999165296554565</t>
   </si>
   <si>
     <t xml:space="preserve">1.06453132629395</t>
@@ -2522,22 +2522,22 @@
     <t xml:space="preserve">1.05830585956573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02406668663025</t>
+    <t xml:space="preserve">1.02406656742096</t>
   </si>
   <si>
     <t xml:space="preserve">0.988270998001099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.985158324241638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.941581070423126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93379944562912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.904228985309601</t>
+    <t xml:space="preserve">0.985158205032349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.941581010818481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93379932641983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.904229044914246</t>
   </si>
   <si>
     <t xml:space="preserve">0.879327714443207</t>
@@ -2549,22 +2549,22 @@
     <t xml:space="preserve">0.888665616512299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891778409481049</t>
+    <t xml:space="preserve">0.891778349876404</t>
   </si>
   <si>
     <t xml:space="preserve">0.83575040102005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.803067326545715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.787504136562347</t>
+    <t xml:space="preserve">0.80306738615036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.787504076957703</t>
   </si>
   <si>
     <t xml:space="preserve">0.829525053501129</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831081330776215</t>
+    <t xml:space="preserve">0.831081449985504</t>
   </si>
   <si>
     <t xml:space="preserve">0.840419411659241</t>
@@ -2576,22 +2576,22 @@
     <t xml:space="preserve">0.817074358463287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866877019405365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.896447360515594</t>
+    <t xml:space="preserve">0.86687707901001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89644730091095</t>
   </si>
   <si>
     <t xml:space="preserve">0.902672648429871</t>
   </si>
   <si>
-    <t xml:space="preserve">0.915123343467712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940024495124817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977376639842987</t>
+    <t xml:space="preserve">0.915123283863068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940024554729462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977376699447632</t>
   </si>
   <si>
     <t xml:space="preserve">0.963369607925415</t>
@@ -2600,7 +2600,7 @@
     <t xml:space="preserve">0.983601987361908</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978932917118073</t>
+    <t xml:space="preserve">0.978933036327362</t>
   </si>
   <si>
     <t xml:space="preserve">0.92913031578064</t>
@@ -2609,55 +2609,55 @@
     <t xml:space="preserve">0.961813271045685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946249902248383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.943137407302856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.930686712265015</t>
+    <t xml:space="preserve">0.946249961853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.943137288093567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93068665266037</t>
   </si>
   <si>
     <t xml:space="preserve">0.952475309371948</t>
   </si>
   <si>
-    <t xml:space="preserve">0.927573919296265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.926017761230469</t>
+    <t xml:space="preserve">0.927574038505554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.926017701625824</t>
   </si>
   <si>
     <t xml:space="preserve">0.935355663299561</t>
   </si>
   <si>
-    <t xml:space="preserve">0.971151292324066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947806239128113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.919792294502258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913567066192627</t>
+    <t xml:space="preserve">0.971151351928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947806417942047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.919792413711548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913567006587982</t>
   </si>
   <si>
     <t xml:space="preserve">0.907341718673706</t>
   </si>
   <si>
-    <t xml:space="preserve">0.916679739952087</t>
+    <t xml:space="preserve">0.916679561138153</t>
   </si>
   <si>
     <t xml:space="preserve">0.89955997467041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.918236017227173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.908897995948792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.894890964031219</t>
+    <t xml:space="preserve">0.918236076831818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.908897936344147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.894891023635864</t>
   </si>
   <si>
     <t xml:space="preserve">0.910454273223877</t>
@@ -2669,16 +2669,16 @@
     <t xml:space="preserve">1.01784121990204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05363690853119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13767886161804</t>
+    <t xml:space="preserve">1.05363702774048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13767874240875</t>
   </si>
   <si>
     <t xml:space="preserve">1.15946757793427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12989735603333</t>
+    <t xml:space="preserve">1.12989723682404</t>
   </si>
   <si>
     <t xml:space="preserve">1.10032689571381</t>
@@ -2687,7 +2687,7 @@
     <t xml:space="preserve">1.09877049922943</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07231283187866</t>
+    <t xml:space="preserve">1.07231295108795</t>
   </si>
   <si>
     <t xml:space="preserve">1.12834084033966</t>
@@ -2705,7 +2705,7 @@
     <t xml:space="preserve">1.31198811531067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25907278060913</t>
+    <t xml:space="preserve">1.25907289981842</t>
   </si>
   <si>
     <t xml:space="preserve">1.24662208557129</t>
@@ -2732,7 +2732,7 @@
     <t xml:space="preserve">1.26841068267822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27307987213135</t>
+    <t xml:space="preserve">1.27307975292206</t>
   </si>
   <si>
     <t xml:space="preserve">1.36023437976837</t>
@@ -2759,13 +2759,13 @@
     <t xml:space="preserve">1.38980460166931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39758622646332</t>
+    <t xml:space="preserve">1.39758634567261</t>
   </si>
   <si>
     <t xml:space="preserve">1.39136099815369</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4053680896759</t>
+    <t xml:space="preserve">1.40536797046661</t>
   </si>
   <si>
     <t xml:space="preserve">1.4380509853363</t>
@@ -2777,22 +2777,22 @@
     <t xml:space="preserve">1.57189548015594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56022310256958</t>
+    <t xml:space="preserve">1.56022322177887</t>
   </si>
   <si>
     <t xml:space="preserve">1.58745884895325</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53765606880188</t>
+    <t xml:space="preserve">1.53765618801117</t>
   </si>
   <si>
     <t xml:space="preserve">1.51431119441986</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50341689586639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50497317314148</t>
+    <t xml:space="preserve">1.50341701507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50497329235077</t>
   </si>
   <si>
     <t xml:space="preserve">1.49096620082855</t>
@@ -2801,13 +2801,13 @@
     <t xml:space="preserve">1.51798808574677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46871316432953</t>
+    <t xml:space="preserve">1.46871304512024</t>
   </si>
   <si>
     <t xml:space="preserve">1.45281779766083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46712338924408</t>
+    <t xml:space="preserve">1.46712350845337</t>
   </si>
   <si>
     <t xml:space="preserve">1.47348153591156</t>
@@ -2816,7 +2816,7 @@
     <t xml:space="preserve">1.48619771003723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48937678337097</t>
+    <t xml:space="preserve">1.48937666416168</t>
   </si>
   <si>
     <t xml:space="preserve">1.48142910003662</t>
@@ -2828,10 +2828,10 @@
     <t xml:space="preserve">1.54818880558014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55454683303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55613648891449</t>
+    <t xml:space="preserve">1.55454695224762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5561363697052</t>
   </si>
   <si>
     <t xml:space="preserve">1.57044196128845</t>
@@ -2843,10 +2843,10 @@
     <t xml:space="preserve">1.567263007164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53706216812134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52752506732941</t>
+    <t xml:space="preserve">1.53706228733063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5275251865387</t>
   </si>
   <si>
     <t xml:space="preserve">1.47030258178711</t>
@@ -2855,10 +2855,10 @@
     <t xml:space="preserve">1.4432806968689</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40672183036804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43374371528625</t>
+    <t xml:space="preserve">1.40672194957733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43374359607697</t>
   </si>
   <si>
     <t xml:space="preserve">1.44487023353577</t>
@@ -2882,7 +2882,7 @@
     <t xml:space="preserve">1.35585725307465</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31929838657379</t>
+    <t xml:space="preserve">1.31929850578308</t>
   </si>
   <si>
     <t xml:space="preserve">1.31453001499176</t>
@@ -2891,7 +2891,7 @@
     <t xml:space="preserve">1.27638149261475</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3018137216568</t>
+    <t xml:space="preserve">1.30181384086609</t>
   </si>
   <si>
     <t xml:space="preserve">1.30499279499054</t>
@@ -2906,13 +2906,13 @@
     <t xml:space="preserve">1.2843291759491</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27479195594788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22074854373932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2223379611969</t>
+    <t xml:space="preserve">1.27479207515717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22074842453003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22233808040619</t>
   </si>
   <si>
     <t xml:space="preserve">1.2557178735733</t>
@@ -2927,7 +2927,7 @@
     <t xml:space="preserve">1.28273963928223</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2271066904068</t>
+    <t xml:space="preserve">1.22710657119751</t>
   </si>
   <si>
     <t xml:space="preserve">1.2112113237381</t>
@@ -2942,28 +2942,28 @@
     <t xml:space="preserve">1.37652099132538</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36698400974274</t>
+    <t xml:space="preserve">1.36698389053345</t>
   </si>
   <si>
     <t xml:space="preserve">1.35267841815948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37493169307709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37969994544983</t>
+    <t xml:space="preserve">1.3749315738678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37970006465912</t>
   </si>
   <si>
     <t xml:space="preserve">1.38128972053528</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34314131736755</t>
+    <t xml:space="preserve">1.34314119815826</t>
   </si>
   <si>
     <t xml:space="preserve">1.33678317070007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36221528053284</t>
+    <t xml:space="preserve">1.36221539974213</t>
   </si>
   <si>
     <t xml:space="preserve">1.363804936409</t>
@@ -2978,13 +2978,13 @@
     <t xml:space="preserve">1.40513241291046</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5338830947876</t>
+    <t xml:space="preserve">1.53388321399689</t>
   </si>
   <si>
     <t xml:space="preserve">1.49732422828674</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47189211845398</t>
+    <t xml:space="preserve">1.47189199924469</t>
   </si>
   <si>
     <t xml:space="preserve">1.42738556861877</t>
@@ -3038,7 +3038,7 @@
     <t xml:space="preserve">1.50050342082977</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52116715908051</t>
+    <t xml:space="preserve">1.52116703987122</t>
   </si>
   <si>
     <t xml:space="preserve">1.49573481082916</t>
@@ -3047,7 +3047,7 @@
     <t xml:space="preserve">1.50845098495483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51162993907928</t>
+    <t xml:space="preserve">1.51162981987</t>
   </si>
   <si>
     <t xml:space="preserve">1.50209283828735</t>
@@ -3056,37 +3056,37 @@
     <t xml:space="preserve">1.51321947574615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47507095336914</t>
+    <t xml:space="preserve">1.47507107257843</t>
   </si>
   <si>
     <t xml:space="preserve">1.44010174274445</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4877872467041</t>
+    <t xml:space="preserve">1.48778712749481</t>
   </si>
   <si>
     <t xml:space="preserve">1.47983956336975</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45599687099457</t>
+    <t xml:space="preserve">1.45599699020386</t>
   </si>
   <si>
     <t xml:space="preserve">1.48301875591278</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51004028320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56249439716339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63720178604126</t>
+    <t xml:space="preserve">1.51004040241241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56249451637268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63720166683197</t>
   </si>
   <si>
     <t xml:space="preserve">1.66501832008362</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67693960666656</t>
+    <t xml:space="preserve">1.67693948745728</t>
   </si>
   <si>
     <t xml:space="preserve">1.70078253746033</t>
@@ -3107,40 +3107,40 @@
     <t xml:space="preserve">1.43851220607758</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44645977020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45440745353699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45122838020325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49414527416229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51639842987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61335909366608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61733281612396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63322794437408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62130653858185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59349024295807</t>
+    <t xml:space="preserve">1.44645988941193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4544073343277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45122826099396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49414539337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5163985490799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61335897445679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61733293533325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63322806358337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62130665779114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59349012374878</t>
   </si>
   <si>
     <t xml:space="preserve">1.58792674541473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60143780708313</t>
+    <t xml:space="preserve">1.60143768787384</t>
   </si>
   <si>
     <t xml:space="preserve">1.62925410270691</t>
@@ -3149,16 +3149,16 @@
     <t xml:space="preserve">1.66104435920715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5386518239975</t>
+    <t xml:space="preserve">1.53865170478821</t>
   </si>
   <si>
     <t xml:space="preserve">1.51957750320435</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54183077812195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52911472320557</t>
+    <t xml:space="preserve">1.54183065891266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52911460399628</t>
   </si>
   <si>
     <t xml:space="preserve">1.53070414066315</t>
@@ -3173,10 +3173,10 @@
     <t xml:space="preserve">1.37334203720093</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30817186832428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30022442340851</t>
+    <t xml:space="preserve">1.30817174911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30022430419922</t>
   </si>
   <si>
     <t xml:space="preserve">1.22869598865509</t>
@@ -3188,16 +3188,16 @@
     <t xml:space="preserve">1.36539447307587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36062598228455</t>
+    <t xml:space="preserve">1.36062586307526</t>
   </si>
   <si>
     <t xml:space="preserve">1.40831136703491</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59746372699738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7484678030014</t>
+    <t xml:space="preserve">1.59746384620667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74846792221069</t>
   </si>
   <si>
     <t xml:space="preserve">1.78423190116882</t>
@@ -3209,19 +3209,19 @@
     <t xml:space="preserve">1.77231061458588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78025805950165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74449408054352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81999599933624</t>
+    <t xml:space="preserve">1.78025817871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74449396133423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81999611854553</t>
   </si>
   <si>
     <t xml:space="preserve">1.81204855442047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83191752433777</t>
+    <t xml:space="preserve">1.83191764354706</t>
   </si>
   <si>
     <t xml:space="preserve">1.82794368267059</t>
@@ -3230,48 +3230,51 @@
     <t xml:space="preserve">1.85178649425507</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83589124679565</t>
+    <t xml:space="preserve">1.83589136600494</t>
   </si>
   <si>
     <t xml:space="preserve">1.83986520767212</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82396996021271</t>
+    <t xml:space="preserve">1.823970079422</t>
   </si>
   <si>
     <t xml:space="preserve">1.77628433704376</t>
   </si>
   <si>
+    <t xml:space="preserve">1.79217970371246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76833665370941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78820586204529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72859883308411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64514923095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71667754650116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73654639720917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75641548633575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76436305046082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80410087108612</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.79217958450317</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76833689212799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78820586204529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7285989522934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64514923095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71667766571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73654651641846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75641560554504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76436305046082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80410087108612</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.7403576374054</t>
   </si>
   <si>
@@ -3281,22 +3284,22 @@
     <t xml:space="preserve">1.76195001602173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75763154029846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77490556240082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7533130645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73603892326355</t>
+    <t xml:space="preserve">1.75763165950775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77490568161011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75331294536591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73603904247284</t>
   </si>
   <si>
     <t xml:space="preserve">1.67730736732483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.644486784935</t>
+    <t xml:space="preserve">1.64448666572571</t>
   </si>
   <si>
     <t xml:space="preserve">1.55811655521393</t>
@@ -3317,16 +3320,16 @@
     <t xml:space="preserve">1.50456702709198</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50283980369568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47865617275238</t>
+    <t xml:space="preserve">1.50283968448639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47865605354309</t>
   </si>
   <si>
     <t xml:space="preserve">1.51665902137756</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48038339614868</t>
+    <t xml:space="preserve">1.48038351535797</t>
   </si>
   <si>
     <t xml:space="preserve">1.4890204668045</t>
@@ -3344,16 +3347,16 @@
     <t xml:space="preserve">1.3819215297699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40092289447784</t>
+    <t xml:space="preserve">1.40092301368713</t>
   </si>
   <si>
     <t xml:space="preserve">1.43028879165649</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4061051607132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37501204013824</t>
+    <t xml:space="preserve">1.40610527992249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37501192092896</t>
   </si>
   <si>
     <t xml:space="preserve">1.37328457832336</t>
@@ -3362,13 +3365,13 @@
     <t xml:space="preserve">1.34737348556519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52875065803528</t>
+    <t xml:space="preserve">1.52875077724457</t>
   </si>
   <si>
     <t xml:space="preserve">1.59957420825958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54775214195251</t>
+    <t xml:space="preserve">1.5477522611618</t>
   </si>
   <si>
     <t xml:space="preserve">1.55293428897858</t>
@@ -3377,13 +3380,13 @@
     <t xml:space="preserve">1.55466175079346</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60648393630981</t>
+    <t xml:space="preserve">1.60648381710052</t>
   </si>
   <si>
     <t xml:space="preserve">1.60475647449493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58230018615723</t>
+    <t xml:space="preserve">1.58230030536652</t>
   </si>
   <si>
     <t xml:space="preserve">1.58057284355164</t>
@@ -3407,10 +3410,10 @@
     <t xml:space="preserve">1.4665641784668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45447242259979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42510652542114</t>
+    <t xml:space="preserve">1.45447254180908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42510664463043</t>
   </si>
   <si>
     <t xml:space="preserve">1.43547093868256</t>
@@ -3452,7 +3455,7 @@
     <t xml:space="preserve">1.33009946346283</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3801943063736</t>
+    <t xml:space="preserve">1.38019418716431</t>
   </si>
   <si>
     <t xml:space="preserve">1.35082840919495</t>
@@ -3485,7 +3488,7 @@
     <t xml:space="preserve">1.2005443572998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22300064563751</t>
+    <t xml:space="preserve">1.22300052642822</t>
   </si>
   <si>
     <t xml:space="preserve">1.1884526014328</t>
@@ -3518,16 +3521,13 @@
     <t xml:space="preserve">1.35773801803589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39574074745178</t>
+    <t xml:space="preserve">1.39574086666107</t>
   </si>
   <si>
     <t xml:space="preserve">1.39746820926666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43374359607697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44929027557373</t>
+    <t xml:space="preserve">1.44929015636444</t>
   </si>
   <si>
     <t xml:space="preserve">1.44065320491791</t>
@@ -3536,7 +3536,7 @@
     <t xml:space="preserve">1.43719851970673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41992437839508</t>
+    <t xml:space="preserve">1.41992449760437</t>
   </si>
   <si>
     <t xml:space="preserve">1.40265035629272</t>
@@ -3545,7 +3545,7 @@
     <t xml:space="preserve">1.40437793731689</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41301488876343</t>
+    <t xml:space="preserve">1.41301476955414</t>
   </si>
   <si>
     <t xml:space="preserve">1.42165184020996</t>
@@ -3554,19 +3554,19 @@
     <t xml:space="preserve">1.45101761817932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38710367679596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36464762687683</t>
+    <t xml:space="preserve">1.38710379600525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36464750766754</t>
   </si>
   <si>
     <t xml:space="preserve">1.32837212085724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33182692527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30591595172882</t>
+    <t xml:space="preserve">1.331827044487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30591583251953</t>
   </si>
   <si>
     <t xml:space="preserve">1.31455290317535</t>
@@ -3575,22 +3575,22 @@
     <t xml:space="preserve">1.31109809875488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34564614295959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30937075614929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27827739715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27136790752411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28345954418182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27655017375946</t>
+    <t xml:space="preserve">1.34564602375031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30937063694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27827751636505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27136778831482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28345966339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27655005455017</t>
   </si>
   <si>
     <t xml:space="preserve">1.29900622367859</t>
@@ -3599,7 +3599,7 @@
     <t xml:space="preserve">1.28518712520599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29036927223206</t>
+    <t xml:space="preserve">1.29036915302277</t>
   </si>
   <si>
     <t xml:space="preserve">1.30764329433441</t>
@@ -3617,7 +3617,7 @@
     <t xml:space="preserve">1.33528172969818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34910094738007</t>
+    <t xml:space="preserve">1.34910106658936</t>
   </si>
   <si>
     <t xml:space="preserve">1.36982977390289</t>
@@ -3632,7 +3632,7 @@
     <t xml:space="preserve">1.51147675514221</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49938476085663</t>
+    <t xml:space="preserve">1.49938488006592</t>
   </si>
   <si>
     <t xml:space="preserve">1.53393292427063</t>
@@ -3647,7 +3647,7 @@
     <t xml:space="preserve">1.52011370658875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51838624477386</t>
+    <t xml:space="preserve">1.51838636398315</t>
   </si>
   <si>
     <t xml:space="preserve">1.5373877286911</t>
@@ -3659,7 +3659,7 @@
     <t xml:space="preserve">1.47520124912262</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50974929332733</t>
+    <t xml:space="preserve">1.50974941253662</t>
   </si>
   <si>
     <t xml:space="preserve">1.49593007564545</t>
@@ -3668,10 +3668,10 @@
     <t xml:space="preserve">1.48383831977844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41819703578949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48729312419891</t>
+    <t xml:space="preserve">1.4181969165802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48729300498962</t>
   </si>
   <si>
     <t xml:space="preserve">1.54256999492645</t>
@@ -3698,7 +3698,7 @@
     <t xml:space="preserve">1.5857549905777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60302889347076</t>
+    <t xml:space="preserve">1.60302901268005</t>
   </si>
   <si>
     <t xml:space="preserve">1.6203031539917</t>
@@ -3707,16 +3707,16 @@
     <t xml:space="preserve">1.64966893196106</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62894010543823</t>
+    <t xml:space="preserve">1.62893998622894</t>
   </si>
   <si>
     <t xml:space="preserve">1.63757705688477</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63239479064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59093725681305</t>
+    <t xml:space="preserve">1.6323949098587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59093713760376</t>
   </si>
   <si>
     <t xml:space="preserve">1.61684823036194</t>
@@ -3737,10 +3737,10 @@
     <t xml:space="preserve">1.63412225246429</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62548530101776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5719358921051</t>
+    <t xml:space="preserve">1.62548518180847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57193577289581</t>
   </si>
   <si>
     <t xml:space="preserve">1.57020831108093</t>
@@ -46858,7 +46858,7 @@
         <v>2.07500004768372</v>
       </c>
       <c r="G1625" t="s">
-        <v>1076</v>
+        <v>1086</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -46884,7 +46884,7 @@
         <v>2.01500010490417</v>
       </c>
       <c r="G1626" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -46910,7 +46910,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1627" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -46936,7 +46936,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1628" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -46962,7 +46962,7 @@
         <v>2.03500008583069</v>
       </c>
       <c r="G1629" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -46988,7 +46988,7 @@
         <v>2.0550000667572</v>
       </c>
       <c r="G1630" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -47014,7 +47014,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1631" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -47040,7 +47040,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1632" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -47066,7 +47066,7 @@
         <v>2.0550000667572</v>
       </c>
       <c r="G1633" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -47092,7 +47092,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1634" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -47118,7 +47118,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1635" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -47144,7 +47144,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1636" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -47170,7 +47170,7 @@
         <v>1.94200003147125</v>
       </c>
       <c r="G1637" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -47196,7 +47196,7 @@
         <v>1.90400004386902</v>
       </c>
       <c r="G1638" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -47222,7 +47222,7 @@
         <v>1.80400002002716</v>
       </c>
       <c r="G1639" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -47248,7 +47248,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G1640" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -47274,7 +47274,7 @@
         <v>1.69599997997284</v>
       </c>
       <c r="G1641" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -47300,7 +47300,7 @@
         <v>1.68799996376038</v>
       </c>
       <c r="G1642" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -47326,7 +47326,7 @@
         <v>1.64800000190735</v>
       </c>
       <c r="G1643" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -47352,7 +47352,7 @@
         <v>1.74199998378754</v>
       </c>
       <c r="G1644" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -47378,7 +47378,7 @@
         <v>1.74199998378754</v>
       </c>
       <c r="G1645" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -47404,7 +47404,7 @@
         <v>1.74199998378754</v>
       </c>
       <c r="G1646" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -47430,7 +47430,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G1647" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -47456,7 +47456,7 @@
         <v>1.71200001239777</v>
       </c>
       <c r="G1648" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -47482,7 +47482,7 @@
         <v>1.75600004196167</v>
       </c>
       <c r="G1649" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -47508,7 +47508,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G1650" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -47534,7 +47534,7 @@
         <v>1.75600004196167</v>
       </c>
       <c r="G1651" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -47560,7 +47560,7 @@
         <v>1.71399998664856</v>
       </c>
       <c r="G1652" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -47586,7 +47586,7 @@
         <v>1.72399997711182</v>
       </c>
       <c r="G1653" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -47612,7 +47612,7 @@
         <v>1.71599996089935</v>
       </c>
       <c r="G1654" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -47638,7 +47638,7 @@
         <v>1.70200002193451</v>
       </c>
       <c r="G1655" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -47664,7 +47664,7 @@
         <v>1.63399994373322</v>
       </c>
       <c r="G1656" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -47690,7 +47690,7 @@
         <v>1.60000002384186</v>
       </c>
       <c r="G1657" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -47716,7 +47716,7 @@
         <v>1.62199997901917</v>
       </c>
       <c r="G1658" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -47742,7 +47742,7 @@
         <v>1.65600001811981</v>
       </c>
       <c r="G1659" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -47768,7 +47768,7 @@
         <v>1.62800002098083</v>
       </c>
       <c r="G1660" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -47794,7 +47794,7 @@
         <v>1.59200000762939</v>
       </c>
       <c r="G1661" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -47820,7 +47820,7 @@
         <v>1.5900000333786</v>
       </c>
       <c r="G1662" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -47846,7 +47846,7 @@
         <v>1.55999994277954</v>
       </c>
       <c r="G1663" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -47872,7 +47872,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G1664" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -47898,7 +47898,7 @@
         <v>1.74199998378754</v>
       </c>
       <c r="G1665" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -47924,7 +47924,7 @@
         <v>1.85199999809265</v>
       </c>
       <c r="G1666" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -47950,7 +47950,7 @@
         <v>1.80400002002716</v>
       </c>
       <c r="G1667" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -47976,7 +47976,7 @@
         <v>1.79200005531311</v>
       </c>
       <c r="G1668" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -48002,7 +48002,7 @@
         <v>1.79799997806549</v>
       </c>
       <c r="G1669" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -48028,7 +48028,7 @@
         <v>1.79200005531311</v>
       </c>
       <c r="G1670" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -48054,7 +48054,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G1671" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -48080,7 +48080,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G1672" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -48106,7 +48106,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G1673" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -48132,7 +48132,7 @@
         <v>1.85800004005432</v>
       </c>
       <c r="G1674" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -48158,7 +48158,7 @@
         <v>1.83200001716614</v>
       </c>
       <c r="G1675" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -48184,7 +48184,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G1676" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -48210,7 +48210,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G1677" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -48236,7 +48236,7 @@
         <v>1.77199995517731</v>
       </c>
       <c r="G1678" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -48262,7 +48262,7 @@
         <v>1.76600003242493</v>
       </c>
       <c r="G1679" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -48288,7 +48288,7 @@
         <v>1.75399994850159</v>
       </c>
       <c r="G1680" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -48314,7 +48314,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G1681" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -48340,7 +48340,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G1682" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -48366,7 +48366,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G1683" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -48392,7 +48392,7 @@
         <v>1.74199998378754</v>
       </c>
       <c r="G1684" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -48418,7 +48418,7 @@
         <v>1.73399996757507</v>
       </c>
       <c r="G1685" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -48444,7 +48444,7 @@
         <v>1.70200002193451</v>
       </c>
       <c r="G1686" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -48470,7 +48470,7 @@
         <v>1.69799995422363</v>
       </c>
       <c r="G1687" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -48496,7 +48496,7 @@
         <v>1.68400001525879</v>
       </c>
       <c r="G1688" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -48522,7 +48522,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G1689" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -48548,7 +48548,7 @@
         <v>1.66199994087219</v>
       </c>
       <c r="G1690" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -48574,7 +48574,7 @@
         <v>1.67599999904633</v>
       </c>
       <c r="G1691" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -48600,7 +48600,7 @@
         <v>1.65400004386902</v>
       </c>
       <c r="G1692" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -48626,7 +48626,7 @@
         <v>1.61199998855591</v>
       </c>
       <c r="G1693" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -48652,7 +48652,7 @@
         <v>1.58200001716614</v>
       </c>
       <c r="G1694" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -48678,7 +48678,7 @@
         <v>1.56599998474121</v>
       </c>
       <c r="G1695" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -48704,7 +48704,7 @@
         <v>1.54999995231628</v>
       </c>
       <c r="G1696" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -48730,7 +48730,7 @@
         <v>1.52999997138977</v>
       </c>
       <c r="G1697" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -48756,7 +48756,7 @@
         <v>1.53199994564056</v>
       </c>
       <c r="G1698" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -48782,7 +48782,7 @@
         <v>1.52799999713898</v>
       </c>
       <c r="G1699" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -48808,7 +48808,7 @@
         <v>1.52400004863739</v>
       </c>
       <c r="G1700" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -48834,7 +48834,7 @@
         <v>1.51999998092651</v>
       </c>
       <c r="G1701" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -48860,7 +48860,7 @@
         <v>1.53999996185303</v>
       </c>
       <c r="G1702" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -48886,7 +48886,7 @@
         <v>1.53999996185303</v>
       </c>
       <c r="G1703" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -48912,7 +48912,7 @@
         <v>1.59800004959106</v>
       </c>
       <c r="G1704" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -48938,7 +48938,7 @@
         <v>1.56400001049042</v>
       </c>
       <c r="G1705" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -48964,7 +48964,7 @@
         <v>1.5440000295639</v>
       </c>
       <c r="G1706" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -48990,7 +48990,7 @@
         <v>1.52600002288818</v>
       </c>
       <c r="G1707" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -49016,7 +49016,7 @@
         <v>1.5</v>
       </c>
       <c r="G1708" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -49042,7 +49042,7 @@
         <v>1.46800005435944</v>
       </c>
       <c r="G1709" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -49068,7 +49068,7 @@
         <v>1.432000041008</v>
       </c>
       <c r="G1710" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -49094,7 +49094,7 @@
         <v>1.4559999704361</v>
       </c>
       <c r="G1711" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -49120,7 +49120,7 @@
         <v>1.4559999704361</v>
       </c>
       <c r="G1712" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -49146,7 +49146,7 @@
         <v>1.41799998283386</v>
       </c>
       <c r="G1713" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -49172,7 +49172,7 @@
         <v>1.43400001525879</v>
       </c>
       <c r="G1714" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -49198,7 +49198,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1715" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -49224,7 +49224,7 @@
         <v>1.41600000858307</v>
       </c>
       <c r="G1716" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -49250,7 +49250,7 @@
         <v>1.37600004673004</v>
       </c>
       <c r="G1717" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -49276,7 +49276,7 @@
         <v>1.41199994087219</v>
       </c>
       <c r="G1718" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -49302,7 +49302,7 @@
         <v>1.46000003814697</v>
       </c>
       <c r="G1719" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -49328,7 +49328,7 @@
         <v>1.5</v>
       </c>
       <c r="G1720" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -49354,7 +49354,7 @@
         <v>1.49000000953674</v>
       </c>
       <c r="G1721" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -49380,7 +49380,7 @@
         <v>1.50999999046326</v>
       </c>
       <c r="G1722" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -49406,7 +49406,7 @@
         <v>1.53600001335144</v>
       </c>
       <c r="G1723" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -49432,7 +49432,7 @@
         <v>1.56599998474121</v>
       </c>
       <c r="G1724" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -49458,7 +49458,7 @@
         <v>1.49800002574921</v>
       </c>
       <c r="G1725" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -49484,7 +49484,7 @@
         <v>1.44400000572205</v>
       </c>
       <c r="G1726" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -49510,7 +49510,7 @@
         <v>1.5</v>
       </c>
       <c r="G1727" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -49536,7 +49536,7 @@
         <v>1.47399997711182</v>
       </c>
       <c r="G1728" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -49562,7 +49562,7 @@
         <v>1.52999997138977</v>
       </c>
       <c r="G1729" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -49588,7 +49588,7 @@
         <v>1.52600002288818</v>
       </c>
       <c r="G1730" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -49614,7 +49614,7 @@
         <v>1.57200002670288</v>
       </c>
       <c r="G1731" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -49640,7 +49640,7 @@
         <v>1.61600005626678</v>
       </c>
       <c r="G1732" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -49666,7 +49666,7 @@
         <v>1.56599998474121</v>
       </c>
       <c r="G1733" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -49692,7 +49692,7 @@
         <v>1.61800003051758</v>
       </c>
       <c r="G1734" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -49718,7 +49718,7 @@
         <v>1.6599999666214</v>
       </c>
       <c r="G1735" t="s">
-        <v>1170</v>
+        <v>948</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -49874,7 +49874,7 @@
         <v>1.61800003051758</v>
       </c>
       <c r="G1741" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -49900,7 +49900,7 @@
         <v>1.62199997901917</v>
       </c>
       <c r="G1742" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -49978,7 +49978,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G1745" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -50030,7 +50030,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G1747" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -50082,7 +50082,7 @@
         <v>1.65600001811981</v>
       </c>
       <c r="G1749" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -50290,7 +50290,7 @@
         <v>1.52400004863739</v>
       </c>
       <c r="G1757" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -50368,7 +50368,7 @@
         <v>1.51999998092651</v>
       </c>
       <c r="G1760" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -50394,7 +50394,7 @@
         <v>1.53199994564056</v>
       </c>
       <c r="G1761" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -50446,7 +50446,7 @@
         <v>1.56599998474121</v>
       </c>
       <c r="G1763" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -50498,7 +50498,7 @@
         <v>1.54999995231628</v>
       </c>
       <c r="G1765" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -50550,7 +50550,7 @@
         <v>1.51999998092651</v>
       </c>
       <c r="G1767" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -50628,7 +50628,7 @@
         <v>1.52799999713898</v>
       </c>
       <c r="G1770" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -50680,7 +50680,7 @@
         <v>1.5</v>
       </c>
       <c r="G1772" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -50888,7 +50888,7 @@
         <v>1.47399997711182</v>
       </c>
       <c r="G1780" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -51018,7 +51018,7 @@
         <v>1.53999996185303</v>
       </c>
       <c r="G1785" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -51122,7 +51122,7 @@
         <v>1.53999996185303</v>
       </c>
       <c r="G1789" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -51148,7 +51148,7 @@
         <v>1.52999997138977</v>
       </c>
       <c r="G1790" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -51200,7 +51200,7 @@
         <v>1.53999996185303</v>
       </c>
       <c r="G1792" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -51252,7 +51252,7 @@
         <v>1.54999995231628</v>
       </c>
       <c r="G1794" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -51330,7 +51330,7 @@
         <v>1.5440000295639</v>
       </c>
       <c r="G1797" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -51356,7 +51356,7 @@
         <v>1.54999995231628</v>
       </c>
       <c r="G1798" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -51382,7 +51382,7 @@
         <v>1.53600001335144</v>
       </c>
       <c r="G1799" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -51486,7 +51486,7 @@
         <v>1.66199994087219</v>
       </c>
       <c r="G1803" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -51538,7 +51538,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G1805" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -51902,7 +51902,7 @@
         <v>1.72399997711182</v>
       </c>
       <c r="G1819" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -51954,7 +51954,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G1821" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -52006,7 +52006,7 @@
         <v>1.75600004196167</v>
       </c>
       <c r="G1823" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -52110,7 +52110,7 @@
         <v>1.74199998378754</v>
       </c>
       <c r="G1827" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -52136,7 +52136,7 @@
         <v>1.73399996757507</v>
       </c>
       <c r="G1828" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -52240,7 +52240,7 @@
         <v>1.69599997997284</v>
       </c>
       <c r="G1832" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -52266,7 +52266,7 @@
         <v>1.64800000190735</v>
       </c>
       <c r="G1833" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -52318,7 +52318,7 @@
         <v>1.61800003051758</v>
       </c>
       <c r="G1835" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -52344,7 +52344,7 @@
         <v>1.62800002098083</v>
       </c>
       <c r="G1836" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -52370,7 +52370,7 @@
         <v>1.61800003051758</v>
       </c>
       <c r="G1837" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -52448,7 +52448,7 @@
         <v>1.73399996757507</v>
       </c>
       <c r="G1840" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -52500,7 +52500,7 @@
         <v>1.79799997806549</v>
       </c>
       <c r="G1842" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -52682,7 +52682,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G1849" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -52864,7 +52864,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G1856" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -53124,7 +53124,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G1866" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -53384,7 +53384,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G1876" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -53514,7 +53514,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G1881" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -61478,7 +61478,7 @@
     </row>
     <row r="2188">
       <c r="A2188" s="1" t="n">
-        <v>45509.649375</v>
+        <v>45509.2916666667</v>
       </c>
       <c r="B2188" t="n">
         <v>416355</v>
@@ -61499,6 +61499,58 @@
         <v>1404</v>
       </c>
       <c r="H2188" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" s="1" t="n">
+        <v>45510.2916666667</v>
+      </c>
+      <c r="B2189" t="n">
+        <v>183873</v>
+      </c>
+      <c r="C2189" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="D2189" t="n">
+        <v>2.03999996185303</v>
+      </c>
+      <c r="E2189" t="n">
+        <v>2.0699999332428</v>
+      </c>
+      <c r="F2189" t="n">
+        <v>2.08500003814697</v>
+      </c>
+      <c r="G2189" t="s">
+        <v>1403</v>
+      </c>
+      <c r="H2189" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" s="1" t="n">
+        <v>45511.6494212963</v>
+      </c>
+      <c r="B2190" t="n">
+        <v>186346</v>
+      </c>
+      <c r="C2190" t="n">
+        <v>2.14499998092651</v>
+      </c>
+      <c r="D2190" t="n">
+        <v>2.08500003814697</v>
+      </c>
+      <c r="E2190" t="n">
+        <v>2.08500003814697</v>
+      </c>
+      <c r="F2190" t="n">
+        <v>2.13000011444092</v>
+      </c>
+      <c r="G2190" t="s">
+        <v>1405</v>
+      </c>
+      <c r="H2190" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CAI.MI.xlsx
+++ b/data/CAI.MI.xlsx
@@ -38,46 +38,46 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07385444641113</t>
+    <t xml:space="preserve">3.07385492324829</t>
   </si>
   <si>
     <t xml:space="preserve">CAI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08614468574524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01786732673645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97690105438232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98099708557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88131165504456</t>
+    <t xml:space="preserve">3.08614420890808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01786708831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97690033912659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98099756240845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88131189346313</t>
   </si>
   <si>
     <t xml:space="preserve">2.94003081321716</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80620694160461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86082863807678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7584125995636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73929476737976</t>
+    <t xml:space="preserve">2.80620670318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86082887649536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75841236114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73929452896118</t>
   </si>
   <si>
     <t xml:space="preserve">2.69013500213623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71744608879089</t>
+    <t xml:space="preserve">2.71744585037231</t>
   </si>
   <si>
     <t xml:space="preserve">2.866290807724</t>
@@ -92,322 +92,322 @@
     <t xml:space="preserve">2.7570469379425</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71061778068542</t>
+    <t xml:space="preserve">2.71061825752258</t>
   </si>
   <si>
     <t xml:space="preserve">2.73110103607178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76114344596863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72563934326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69696259498596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72290825843811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62868475914001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45935678482056</t>
+    <t xml:space="preserve">2.76114368438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72563910484314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69696283340454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72290802001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62868523597717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45935726165771</t>
   </si>
   <si>
     <t xml:space="preserve">2.45799112319946</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30095291137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38971376419067</t>
+    <t xml:space="preserve">2.30095314979553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38971352577209</t>
   </si>
   <si>
     <t xml:space="preserve">2.53992438316345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50442004203796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67511367797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81713104248047</t>
+    <t xml:space="preserve">2.50442028045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67511391639709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81713128089905</t>
   </si>
   <si>
     <t xml:space="preserve">2.74885368347168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7816264629364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68467259407043</t>
+    <t xml:space="preserve">2.78162670135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68467235565186</t>
   </si>
   <si>
     <t xml:space="preserve">2.86219429969788</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83351802825928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84717297554016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88404321670532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88540840148926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89769840240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85126948356628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94685888290405</t>
+    <t xml:space="preserve">2.83351755142212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84717321395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88404297828674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88540816307068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89769864082336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85126996040344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94685840606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94958972930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05883359909058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12164926528931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16124987602234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18173265457153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20767855644226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17900228500366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17217421531677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23635506629944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25001096725464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21040964126587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2226996421814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2308931350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22952747344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14076638221741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14895987510681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.225430727005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29234290122986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21587204933167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30463242530823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27732157707214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34559893608093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36608242988586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40704846382141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38656568527222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33330941200256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34833025932312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32511591911316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32375049591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29780459403992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26366662979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29097723960876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26022291183472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19182634353638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15620303153992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1348295211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17330241203308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09208202362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1490786075592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32291960716248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34856724739075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3343186378479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31151986122131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38419079780579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44403767585754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41981410980225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43406319618225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48108577728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47681093215942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43833827972412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45116233825684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40841460227966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39844036102295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34714269638062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20607566833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02796053886414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94246506690979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89971733093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89686727523804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06643319129944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08495712280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13197946548462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14195370674133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02938508987427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84984493255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95671439170837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06500864028931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16332769393921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96526408195496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95528936386108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9923369884491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12058019638062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1704523563385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23599910736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17757701873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13625478744507</t>
   </si>
   <si>
     <t xml:space="preserve">2.9495894908905</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05883359909058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12164926528931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16125011444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18173289299011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20767903327942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17900204658508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17217373847961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23635458946228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25001096725464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21041011810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22269940376282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2308931350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22952747344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14076685905457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14895987510681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22543096542358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29234290122986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21587204933167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30463290214539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27732133865356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34559917449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36608171463013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40704846382141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38656544685364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33330917358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34833002090454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32511591911316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32375073432922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29780507087708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26366662979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29097771644592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26022291183472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19182658195496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1562032699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1348295211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17330241203308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09208250045776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14907884597778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3229193687439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34856796264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3343186378479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31151986122131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38419103622437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4440381526947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41981387138367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43406367301941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48108601570129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47681093215942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4383385181427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45116209983826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4084141254425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39843988418579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34714317321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20607566833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02796030044556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94246530532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89971733093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89686751365662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06643319129944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08495712280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13197922706604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14195418357849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02938532829285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84984493255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95671439170837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06500840187073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16332817077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96526384353638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95528936386108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9923369884491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12058043479919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17045211791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23599910736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17757725715637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13625431060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94958925247192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83702087402344</t>
+    <t xml:space="preserve">2.83702063560486</t>
   </si>
   <si>
     <t xml:space="preserve">2.9196662902832</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86551928520203</t>
+    <t xml:space="preserve">2.86551880836487</t>
   </si>
   <si>
     <t xml:space="preserve">2.90399241447449</t>
@@ -416,7 +416,7 @@
     <t xml:space="preserve">2.84129548072815</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87549352645874</t>
+    <t xml:space="preserve">2.87549328804016</t>
   </si>
   <si>
     <t xml:space="preserve">2.83559584617615</t>
@@ -428,10 +428,10 @@
     <t xml:space="preserve">2.73442649841309</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7771737575531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88546848297119</t>
+    <t xml:space="preserve">2.77717423439026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88546824455261</t>
   </si>
   <si>
     <t xml:space="preserve">2.87406873703003</t>
@@ -440,7 +440,7 @@
     <t xml:space="preserve">2.84272050857544</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87834358215332</t>
+    <t xml:space="preserve">2.87834334373474</t>
   </si>
   <si>
     <t xml:space="preserve">2.92821574211121</t>
@@ -452,31 +452,31 @@
     <t xml:space="preserve">2.94103980064392</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86694431304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85839486122131</t>
+    <t xml:space="preserve">2.86694407463074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85839462280273</t>
   </si>
   <si>
     <t xml:space="preserve">2.86409425735474</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81707215309143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76007509231567</t>
+    <t xml:space="preserve">2.81707191467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76007485389709</t>
   </si>
   <si>
     <t xml:space="preserve">2.80567240715027</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77289938926697</t>
+    <t xml:space="preserve">2.77289915084839</t>
   </si>
   <si>
     <t xml:space="preserve">2.7586498260498</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77859926223755</t>
+    <t xml:space="preserve">2.77859878540039</t>
   </si>
   <si>
     <t xml:space="preserve">2.68597888946533</t>
@@ -485,7 +485,7 @@
     <t xml:space="preserve">2.62470722198486</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59478402137756</t>
+    <t xml:space="preserve">2.59478378295898</t>
   </si>
   <si>
     <t xml:space="preserve">2.54776167869568</t>
@@ -494,25 +494,25 @@
     <t xml:space="preserve">2.58480930328369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65605545043945</t>
+    <t xml:space="preserve">2.65605568885803</t>
   </si>
   <si>
     <t xml:space="preserve">2.65463066101074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63610696792603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60333323478699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57198524475098</t>
+    <t xml:space="preserve">2.63610672950745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60333347320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57198476791382</t>
   </si>
   <si>
     <t xml:space="preserve">2.45086693763733</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44516682624817</t>
+    <t xml:space="preserve">2.44516706466675</t>
   </si>
   <si>
     <t xml:space="preserve">2.42379331588745</t>
@@ -521,7 +521,7 @@
     <t xml:space="preserve">2.44374203681946</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41666865348816</t>
+    <t xml:space="preserve">2.41666889190674</t>
   </si>
   <si>
     <t xml:space="preserve">2.45941615104675</t>
@@ -530,34 +530,34 @@
     <t xml:space="preserve">2.61900758743286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61045813560486</t>
+    <t xml:space="preserve">2.61045837402344</t>
   </si>
   <si>
     <t xml:space="preserve">2.54918646812439</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57910966873169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5506112575531</t>
+    <t xml:space="preserve">2.57910990715027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55061101913452</t>
   </si>
   <si>
     <t xml:space="preserve">2.5235378742218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57341003417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64465594291687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69310355186462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64038133621216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63895678520203</t>
+    <t xml:space="preserve">2.57340979576111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64465641975403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6931037902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64038157463074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63895630836487</t>
   </si>
   <si>
     <t xml:space="preserve">2.62898206710815</t>
@@ -566,13 +566,13 @@
     <t xml:space="preserve">2.63325691223145</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67172956466675</t>
+    <t xml:space="preserve">2.67173004150391</t>
   </si>
   <si>
     <t xml:space="preserve">2.74867558479309</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73727631568909</t>
+    <t xml:space="preserve">2.73727607727051</t>
   </si>
   <si>
     <t xml:space="preserve">2.67315483093262</t>
@@ -584,16 +584,16 @@
     <t xml:space="preserve">2.71447730064392</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70735263824463</t>
+    <t xml:space="preserve">2.70735287666321</t>
   </si>
   <si>
     <t xml:space="preserve">2.65178060531616</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66887974739075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63753128051758</t>
+    <t xml:space="preserve">2.66887950897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63753151893616</t>
   </si>
   <si>
     <t xml:space="preserve">2.65748047828674</t>
@@ -605,34 +605,34 @@
     <t xml:space="preserve">2.52211284637451</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51498794555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41524386405945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43234300613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43661761283875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39386963844299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39244484901428</t>
+    <t xml:space="preserve">2.51498818397522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41524362564087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43234252929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43661737442017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39386987686157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39244508743286</t>
   </si>
   <si>
     <t xml:space="preserve">2.45799136161804</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35112190246582</t>
+    <t xml:space="preserve">2.3511221408844</t>
   </si>
   <si>
     <t xml:space="preserve">2.42236828804016</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53066277503967</t>
+    <t xml:space="preserve">2.53066229820251</t>
   </si>
   <si>
     <t xml:space="preserve">2.57768487930298</t>
@@ -641,13 +641,13 @@
     <t xml:space="preserve">2.58908438682556</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63468194007874</t>
+    <t xml:space="preserve">2.63468170166016</t>
   </si>
   <si>
     <t xml:space="preserve">2.69595336914062</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68027949333191</t>
+    <t xml:space="preserve">2.68027901649475</t>
   </si>
   <si>
     <t xml:space="preserve">2.69167876243591</t>
@@ -656,16 +656,16 @@
     <t xml:space="preserve">2.69737815856934</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74012613296509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74297547340393</t>
+    <t xml:space="preserve">2.74012589454651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74297571182251</t>
   </si>
   <si>
     <t xml:space="preserve">2.72445178031921</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72302675247192</t>
+    <t xml:space="preserve">2.7230269908905</t>
   </si>
   <si>
     <t xml:space="preserve">2.7287266254425</t>
@@ -677,43 +677,43 @@
     <t xml:space="preserve">2.75152540206909</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7558000087738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7116277217865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69025373458862</t>
+    <t xml:space="preserve">2.75580024719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71162724494934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69025349617004</t>
   </si>
   <si>
     <t xml:space="preserve">2.65035581588745</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60760831832886</t>
+    <t xml:space="preserve">2.60760807991028</t>
   </si>
   <si>
     <t xml:space="preserve">2.5833842754364</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5534610748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52068829536438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60618329048157</t>
+    <t xml:space="preserve">2.55346131324768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5206880569458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60618305206299</t>
   </si>
   <si>
     <t xml:space="preserve">2.56058549880981</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54491186141968</t>
+    <t xml:space="preserve">2.5449116230011</t>
   </si>
   <si>
     <t xml:space="preserve">2.54063677787781</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50501346588135</t>
+    <t xml:space="preserve">2.50501394271851</t>
   </si>
   <si>
     <t xml:space="preserve">2.49788904190063</t>
@@ -722,28 +722,28 @@
     <t xml:space="preserve">2.50643873214722</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53351211547852</t>
+    <t xml:space="preserve">2.53351235389709</t>
   </si>
   <si>
     <t xml:space="preserve">2.57625985145569</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60048365592957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59193396568298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58195972442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55916094779968</t>
+    <t xml:space="preserve">2.60048389434814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59193420410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58195948600769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5591607093811</t>
   </si>
   <si>
     <t xml:space="preserve">2.58623433113098</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53636193275452</t>
+    <t xml:space="preserve">2.5363621711731</t>
   </si>
   <si>
     <t xml:space="preserve">2.48506474494934</t>
@@ -752,13 +752,13 @@
     <t xml:space="preserve">2.54348659515381</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6874041557312</t>
+    <t xml:space="preserve">2.68740391731262</t>
   </si>
   <si>
     <t xml:space="preserve">2.69452857971191</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75722503662109</t>
+    <t xml:space="preserve">2.75722479820251</t>
   </si>
   <si>
     <t xml:space="preserve">2.77147436141968</t>
@@ -779,64 +779,61 @@
     <t xml:space="preserve">2.90541696548462</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03508543968201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06215810775757</t>
+    <t xml:space="preserve">3.03508496284485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06215858459473</t>
   </si>
   <si>
     <t xml:space="preserve">3.15477848052979</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29727077484131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25737309455872</t>
+    <t xml:space="preserve">3.29727053642273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25737285614014</t>
   </si>
   <si>
     <t xml:space="preserve">3.07783269882202</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1676025390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16190338134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16047787666321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21889972686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22174978256226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27589654922485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28159666061401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26877164840698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23172450065613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17900228500366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12912964820862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19610142707825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10063147544861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19752621650696</t>
+    <t xml:space="preserve">3.16760301589966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16190314292908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16047811508179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21889996528625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22174954414368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27589702606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28159642219543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26877212524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23172402381897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12913012504578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19610095024109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10063171386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19752597808838</t>
   </si>
   <si>
     <t xml:space="preserve">3.23884868621826</t>
@@ -845,19 +842,19 @@
     <t xml:space="preserve">3.22602438926697</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29157114028931</t>
+    <t xml:space="preserve">3.29157090187073</t>
   </si>
   <si>
     <t xml:space="preserve">3.32576942443848</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28302145004272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31864500045776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34001874923706</t>
+    <t xml:space="preserve">3.28302097320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31864428520203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3400182723999</t>
   </si>
   <si>
     <t xml:space="preserve">3.39559030532837</t>
@@ -869,28 +866,28 @@
     <t xml:space="preserve">3.23457384109497</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27019739151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0892322063446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06358337402344</t>
+    <t xml:space="preserve">3.27019715309143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08923196792603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06358361244202</t>
   </si>
   <si>
     <t xml:space="preserve">3.17488980293274</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09706664085388</t>
+    <t xml:space="preserve">3.09706687927246</t>
   </si>
   <si>
     <t xml:space="preserve">3.11147856712341</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13886070251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14462542533875</t>
+    <t xml:space="preserve">3.13886022567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14462518692017</t>
   </si>
   <si>
     <t xml:space="preserve">3.11003732681274</t>
@@ -902,19 +899,19 @@
     <t xml:space="preserve">3.07112574577332</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03797888755798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04806733131409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99762606620789</t>
+    <t xml:space="preserve">3.03797912597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04806709289551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99762630462646</t>
   </si>
   <si>
     <t xml:space="preserve">3.00627303123474</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97745013237</t>
+    <t xml:space="preserve">2.97744989395142</t>
   </si>
   <si>
     <t xml:space="preserve">2.9183623790741</t>
@@ -923,58 +920,58 @@
     <t xml:space="preserve">2.8722448348999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90395069122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89098024368286</t>
+    <t xml:space="preserve">2.90395045280457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89098000526428</t>
   </si>
   <si>
     <t xml:space="preserve">2.87512731552124</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84918642044067</t>
+    <t xml:space="preserve">2.84918618202209</t>
   </si>
   <si>
     <t xml:space="preserve">2.92700886726379</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90683317184448</t>
+    <t xml:space="preserve">2.9068329334259</t>
   </si>
   <si>
     <t xml:space="preserve">2.86936235427856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87800931930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85783290863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8535099029541</t>
+    <t xml:space="preserve">2.878009557724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85783314704895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85350966453552</t>
   </si>
   <si>
     <t xml:space="preserve">2.87080359458923</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8246865272522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79298067092896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76415729522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81027483940125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80018663406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79153966903687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72956895828247</t>
+    <t xml:space="preserve">2.82468605041504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79298043251038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76415753364563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81027460098267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80018639564514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79153943061829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72956943511963</t>
   </si>
   <si>
     <t xml:space="preserve">2.75262784957886</t>
@@ -983,10 +980,10 @@
     <t xml:space="preserve">2.75983381271362</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74686360359192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95439147949219</t>
+    <t xml:space="preserve">2.74686336517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95439124107361</t>
   </si>
   <si>
     <t xml:space="preserve">2.92124438285828</t>
@@ -995,67 +992,67 @@
     <t xml:space="preserve">2.92845034599304</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92556762695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83189225196838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.843421459198</t>
+    <t xml:space="preserve">2.92556810379028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83189249038696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84342193603516</t>
   </si>
   <si>
     <t xml:space="preserve">2.80450987815857</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83045077323914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82612752914429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78865718841553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80739212036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.808833360672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84053921699524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85495114326477</t>
+    <t xml:space="preserve">2.83045125007629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82612729072571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78865694999695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80739235877991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80883383750916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84053897857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85495066642761</t>
   </si>
   <si>
     <t xml:space="preserve">2.86503911018372</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87656855583191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90827393531799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83909845352173</t>
+    <t xml:space="preserve">2.87656831741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90827369689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83909821510315</t>
   </si>
   <si>
     <t xml:space="preserve">2.73821640014648</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75551009178162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76848101615906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70218706130981</t>
+    <t xml:space="preserve">2.7555103302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76848077774048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70218753814697</t>
   </si>
   <si>
     <t xml:space="preserve">2.72668695449829</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71371626853943</t>
+    <t xml:space="preserve">2.71371650695801</t>
   </si>
   <si>
     <t xml:space="preserve">2.7252459526062</t>
@@ -1064,7 +1061,7 @@
     <t xml:space="preserve">2.68056964874268</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67480492591858</t>
+    <t xml:space="preserve">2.67480516433716</t>
   </si>
   <si>
     <t xml:space="preserve">2.67336392402649</t>
@@ -1073,19 +1070,19 @@
     <t xml:space="preserve">2.65895223617554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67624592781067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75406908988953</t>
+    <t xml:space="preserve">2.67624616622925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75406932830811</t>
   </si>
   <si>
     <t xml:space="preserve">2.79442191123962</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79874515533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74542188644409</t>
+    <t xml:space="preserve">2.79874563217163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74542212486267</t>
   </si>
   <si>
     <t xml:space="preserve">2.78577494621277</t>
@@ -1100,31 +1097,31 @@
     <t xml:space="preserve">3.02644944190979</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06968450546265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10571360588074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12156653404236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17056608200073</t>
+    <t xml:space="preserve">3.06968474388123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10571384429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12156629562378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17056632041931</t>
   </si>
   <si>
     <t xml:space="preserve">3.14174294471741</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13597893714905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09850835800171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05671381950378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07689023017883</t>
+    <t xml:space="preserve">3.13597869873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09850811958313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05671405792236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07689046859741</t>
   </si>
   <si>
     <t xml:space="preserve">3.08409667015076</t>
@@ -1136,16 +1133,16 @@
     <t xml:space="preserve">3.04086112976074</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05383133888245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17921328544617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12589001655579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05527281761169</t>
+    <t xml:space="preserve">3.05383205413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17921352386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12589025497437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05527305603027</t>
   </si>
   <si>
     <t xml:space="preserve">3.07977294921875</t>
@@ -1160,46 +1157,46 @@
     <t xml:space="preserve">3.1475076675415</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09994959831238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13453722000122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15903663635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15471291542053</t>
+    <t xml:space="preserve">3.0999493598938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13453698158264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1590371131897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15471315383911</t>
   </si>
   <si>
     <t xml:space="preserve">3.12877249717712</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11580204963684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10427284240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12012577056885</t>
+    <t xml:space="preserve">3.11580181121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10427260398865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12012529373169</t>
   </si>
   <si>
     <t xml:space="preserve">3.05815505981445</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00483202934265</t>
+    <t xml:space="preserve">3.00483226776123</t>
   </si>
   <si>
     <t xml:space="preserve">2.97168564796448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78433394432068</t>
+    <t xml:space="preserve">2.7843337059021</t>
   </si>
   <si>
     <t xml:space="preserve">2.82180380821228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8679211139679</t>
+    <t xml:space="preserve">2.86792135238647</t>
   </si>
   <si>
     <t xml:space="preserve">2.89674472808838</t>
@@ -1208,19 +1205,19 @@
     <t xml:space="preserve">2.88233280181885</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85062766075134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8290102481842</t>
+    <t xml:space="preserve">2.85062742233276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82901000976562</t>
   </si>
   <si>
     <t xml:space="preserve">2.82324504852295</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70362830162048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72236394882202</t>
+    <t xml:space="preserve">2.70362854003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72236371040344</t>
   </si>
   <si>
     <t xml:space="preserve">2.70506930351257</t>
@@ -1229,16 +1226,16 @@
     <t xml:space="preserve">2.71227550506592</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65607023239136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69858431816101</t>
+    <t xml:space="preserve">2.65606999397278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69858384132385</t>
   </si>
   <si>
     <t xml:space="preserve">2.76703953742981</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78505444526672</t>
+    <t xml:space="preserve">2.78505420684814</t>
   </si>
   <si>
     <t xml:space="preserve">2.72740745544434</t>
@@ -1250,16 +1247,16 @@
     <t xml:space="preserve">2.73461365699768</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7057900428772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7310106754303</t>
+    <t xml:space="preserve">2.70579028129578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73101019859314</t>
   </si>
   <si>
     <t xml:space="preserve">2.72020196914673</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79226016998291</t>
+    <t xml:space="preserve">2.79225993156433</t>
   </si>
   <si>
     <t xml:space="preserve">2.84630370140076</t>
@@ -1268,19 +1265,19 @@
     <t xml:space="preserve">2.77424550056458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77064275741577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70939326286316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74181914329529</t>
+    <t xml:space="preserve">2.77064251899719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.709392786026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74181938171387</t>
   </si>
   <si>
     <t xml:space="preserve">2.71299600601196</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63373184204102</t>
+    <t xml:space="preserve">2.63373160362244</t>
   </si>
   <si>
     <t xml:space="preserve">2.62652611732483</t>
@@ -1292,7 +1289,7 @@
     <t xml:space="preserve">2.65534925460815</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64814376831055</t>
+    <t xml:space="preserve">2.64814352989197</t>
   </si>
   <si>
     <t xml:space="preserve">2.58689379692078</t>
@@ -1301,7 +1298,7 @@
     <t xml:space="preserve">2.57248210906982</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57968807220459</t>
+    <t xml:space="preserve">2.57968783378601</t>
   </si>
   <si>
     <t xml:space="preserve">2.55807042121887</t>
@@ -1310,19 +1307,19 @@
     <t xml:space="preserve">2.56167340278625</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55086445808411</t>
+    <t xml:space="preserve">2.55086469650269</t>
   </si>
   <si>
     <t xml:space="preserve">2.56887936592102</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43557143211365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37432169914246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30946946144104</t>
+    <t xml:space="preserve">2.43557167053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37432193756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30946922302246</t>
   </si>
   <si>
     <t xml:space="preserve">2.39593935012817</t>
@@ -1331,7 +1328,7 @@
     <t xml:space="preserve">2.41755676269531</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41395401954651</t>
+    <t xml:space="preserve">2.41395378112793</t>
   </si>
   <si>
     <t xml:space="preserve">2.36351299285889</t>
@@ -1343,10 +1340,10 @@
     <t xml:space="preserve">2.29505753517151</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44998335838318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35270404815674</t>
+    <t xml:space="preserve">2.4499831199646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3527045249939</t>
   </si>
   <si>
     <t xml:space="preserve">2.52204132080078</t>
@@ -1355,13 +1352,13 @@
     <t xml:space="preserve">2.42836546897888</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44637989997864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42115950584412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50762987136841</t>
+    <t xml:space="preserve">2.44638013839722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4211597442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50762963294983</t>
   </si>
   <si>
     <t xml:space="preserve">2.59409976005554</t>
@@ -1373,337 +1370,340 @@
     <t xml:space="preserve">2.63012909889221</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65174651145935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62292265892029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60130548477173</t>
+    <t xml:space="preserve">2.65174627304077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62292313575745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60130524635315</t>
   </si>
   <si>
     <t xml:space="preserve">2.60851144790649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6373348236084</t>
+    <t xml:space="preserve">2.63733458518982</t>
   </si>
   <si>
     <t xml:space="preserve">2.68417263031006</t>
   </si>
   <si>
+    <t xml:space="preserve">2.6661581993103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69137835502625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67696642875671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73281192779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62172198295593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49582004547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48841404914856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.403244972229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43657207489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45879006385803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39213609695435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40694832801819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36991786956787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29956126213074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21068906784058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32548236846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37732434272766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38843297958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4291660785675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41805744171143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46989917755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5032262802124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52174091339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53285002708435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57728600502014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5254442691803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45508718490601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58098888397217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54395890235901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4736020565033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44768095016479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53655314445496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4773051738739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51433515548706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48100805282593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46619606018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39583921432495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41065120697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35140299797058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36621522903442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34399724006653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35880899429321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35510635375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3625123500824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30696749687195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31066989898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32177925109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39954209327698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38102698326111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41435408592224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37362122535706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31807637214661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29585838317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28104615211487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26993703842163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30326414108276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32918500900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27734351158142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26623439788818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29215502738953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27364015579224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2884521484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28474926948547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38473033905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20698642730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24031329154968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15514445304871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13292646408081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14773845672607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10330247879028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09959936141968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08849048614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10700535774231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06256937980652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98850953578949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95147967338562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02553939819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06627249717712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04775762557983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06997537612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12922334671021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14403557777405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13662934303284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18847131729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21439218521118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23290729522705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25512528419495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20328330993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1995804309845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21809506416321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11811399459839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07367825508118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11070823669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24771928787231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3365912437439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51063203811646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65504884719849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68096995353699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60320734977722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62912797927856</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.66615796089172</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69137835502625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67696642875671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73281192779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62172222137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49582004547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48841404914856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40324521064758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43657207489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45879006385803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39213585853577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40694832801819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36991834640503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29956126213074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21068906784058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32548236846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37732434272766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38843297958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4291660785675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41805744171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46989917755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50322604179382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52174115180969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53285026550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57728600502014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5254442691803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45508718490601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58098912239075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54395890235901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47360181808472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44768095016479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53655314445496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4773051738739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51433515548706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48100781440735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46619629859924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39583921432495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41065120697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35140323638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36621499061584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34399747848511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35880899429321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35510635375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36251211166382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30696702003479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3106701374054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32177925109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39954209327698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38102722167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41435408592224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37362146377563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31807637214661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29585814476013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28104615211487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26993703842163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30326437950134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32918524742126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27734303474426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26623439788818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29215526580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27364015579224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28845238685608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28474950790405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38473033905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20698642730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24031352996826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15514421463013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13292646408081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14773845672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1033022403717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09959959983826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08849048614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10700535774231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0625696182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98850929737091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95147943496704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02553963661194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06627225875854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04775738716125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06997537612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12922310829163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14403557777405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13662934303284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18847107887268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21439242362976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23290753364563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25512552261353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20328330993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1995804309845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21809506416321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11811423301697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07367825508118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11070847511292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24771928787231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3365912437439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51063227653503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65504908561707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68096995353699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60320711135864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62912797927856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65875172615051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65134596824646</t>
+    <t xml:space="preserve">2.65875196456909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65134572982788</t>
   </si>
   <si>
     <t xml:space="preserve">2.62542510032654</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71799993515015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70318794250488</t>
+    <t xml:space="preserve">2.71800017356873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70318818092346</t>
   </si>
   <si>
     <t xml:space="preserve">2.7291088104248</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">2.75502991676331</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8031690120697</t>
+    <t xml:space="preserve">2.80316877365112</t>
   </si>
   <si>
     <t xml:space="preserve">2.81798100471497</t>
@@ -1736,16 +1736,16 @@
     <t xml:space="preserve">2.88093185424805</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76243615150452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76984214782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79946565628052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79206013679504</t>
+    <t xml:space="preserve">2.76243591308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76984190940857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79946613311768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79205965995789</t>
   </si>
   <si>
     <t xml:space="preserve">2.81427788734436</t>
@@ -1754,43 +1754,43 @@
     <t xml:space="preserve">2.79576301574707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75873279571533</t>
+    <t xml:space="preserve">2.75873303413391</t>
   </si>
   <si>
     <t xml:space="preserve">2.85871386528015</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90314984321594</t>
+    <t xml:space="preserve">2.90314960479736</t>
   </si>
   <si>
     <t xml:space="preserve">2.89574384689331</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90685296058655</t>
+    <t xml:space="preserve">2.90685272216797</t>
   </si>
   <si>
     <t xml:space="preserve">2.88833785057068</t>
   </si>
   <si>
-    <t xml:space="preserve">2.962397813797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98091292381287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91796183586121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94758605957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95128846168518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93647694587708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95499157905579</t>
+    <t xml:space="preserve">2.96239757537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98091268539429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91796207427979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94758582115173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95128893852234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9364767074585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95499181747437</t>
   </si>
   <si>
     <t xml:space="preserve">2.93277382850647</t>
@@ -1802,37 +1802,37 @@
     <t xml:space="preserve">2.96980404853821</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97720956802368</t>
+    <t xml:space="preserve">2.97720980644226</t>
   </si>
   <si>
     <t xml:space="preserve">2.94018006324768</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89944672584534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81057476997375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86611986160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80687189102173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83279275894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85501074790955</t>
+    <t xml:space="preserve">2.89944696426392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81057500839233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8661196231842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80687165260315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83279299736023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85501098632812</t>
   </si>
   <si>
     <t xml:space="preserve">2.71059393882751</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70689105987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61061310768127</t>
+    <t xml:space="preserve">2.70689082145691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6106128692627</t>
   </si>
   <si>
     <t xml:space="preserve">2.6402370929718</t>
@@ -1853,7 +1853,7 @@
     <t xml:space="preserve">2.68467283248901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6883761882782</t>
+    <t xml:space="preserve">2.68837594985962</t>
   </si>
   <si>
     <t xml:space="preserve">2.6143159866333</t>
@@ -1868,7 +1868,7 @@
     <t xml:space="preserve">2.50692915916443</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34770035743713</t>
+    <t xml:space="preserve">2.34770011901855</t>
   </si>
   <si>
     <t xml:space="preserve">2.23661017417908</t>
@@ -1877,16 +1877,16 @@
     <t xml:space="preserve">2.18476843833923</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19587731361389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.299480676651</t>
+    <t xml:space="preserve">2.19587707519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29948091506958</t>
   </si>
   <si>
     <t xml:space="preserve">2.21777319908142</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10883045196533</t>
+    <t xml:space="preserve">2.10882997512817</t>
   </si>
   <si>
     <t xml:space="preserve">2.12439346313477</t>
@@ -1901,34 +1901,34 @@
     <t xml:space="preserve">2.10493922233582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09326696395874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12050271034241</t>
+    <t xml:space="preserve">2.09326672554016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12050247192383</t>
   </si>
   <si>
     <t xml:space="preserve">2.13995671272278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12828397750854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07770371437073</t>
+    <t xml:space="preserve">2.12828421592712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07770347595215</t>
   </si>
   <si>
     <t xml:space="preserve">2.05046772956848</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04657673835754</t>
+    <t xml:space="preserve">2.04657697677612</t>
   </si>
   <si>
     <t xml:space="preserve">2.03490424156189</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05435872077942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03101348876953</t>
+    <t xml:space="preserve">2.05435848236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03101325035095</t>
   </si>
   <si>
     <t xml:space="preserve">2.02323174476624</t>
@@ -1943,16 +1943,16 @@
     <t xml:space="preserve">2.22944593429565</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1866466999054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96876013278961</t>
+    <t xml:space="preserve">2.18664646148682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96876001358032</t>
   </si>
   <si>
     <t xml:space="preserve">2.00377774238586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92985200881958</t>
+    <t xml:space="preserve">1.92985165119171</t>
   </si>
   <si>
     <t xml:space="preserve">2.02712273597717</t>
@@ -1961,7 +1961,7 @@
     <t xml:space="preserve">1.94152438640594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84425354003906</t>
+    <t xml:space="preserve">1.84425342082977</t>
   </si>
   <si>
     <t xml:space="preserve">1.79367291927338</t>
@@ -1973,16 +1973,16 @@
     <t xml:space="preserve">1.8092360496521</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75087380409241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74698281288147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69251132011414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78978204727173</t>
+    <t xml:space="preserve">1.75087368488312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74698269367218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69251108169556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78978192806244</t>
   </si>
   <si>
     <t xml:space="preserve">1.82090854644775</t>
@@ -1997,28 +1997,28 @@
     <t xml:space="preserve">1.69640207290649</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71196532249451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71974718570709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70418393611908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78589129447937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73141956329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71585619449615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7353104352951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78200018405914</t>
+    <t xml:space="preserve">1.7119654417038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7197470664978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7041836977005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78589117527008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73141932487488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71585607528687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73531031608582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78200030326843</t>
   </si>
   <si>
     <t xml:space="preserve">1.8325811624527</t>
@@ -2027,19 +2027,19 @@
     <t xml:space="preserve">1.80145454406738</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8403627872467</t>
+    <t xml:space="preserve">1.84036290645599</t>
   </si>
   <si>
     <t xml:space="preserve">1.85592615604401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83647203445435</t>
+    <t xml:space="preserve">1.83647191524506</t>
   </si>
   <si>
     <t xml:space="preserve">1.87927114963531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79756367206573</t>
+    <t xml:space="preserve">1.79756355285645</t>
   </si>
   <si>
     <t xml:space="preserve">1.77032780647278</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">1.75476455688477</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75865542888641</t>
+    <t xml:space="preserve">1.75865530967712</t>
   </si>
   <si>
     <t xml:space="preserve">1.76254630088806</t>
@@ -2060,31 +2060,31 @@
     <t xml:space="preserve">1.80534529685974</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81701791286469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82479953765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91428864002228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93374276161194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89094376564026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87538027763367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90650725364685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89483439922333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85981702804565</t>
+    <t xml:space="preserve">1.8170177936554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8247994184494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91428852081299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93374240398407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89094352722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87538039684296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90650677680969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89483428001404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85981714725494</t>
   </si>
   <si>
     <t xml:space="preserve">1.92207026481628</t>
@@ -2099,7 +2099,7 @@
     <t xml:space="preserve">2.16330170631409</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08159446716309</t>
+    <t xml:space="preserve">2.08159422874451</t>
   </si>
   <si>
     <t xml:space="preserve">2.06214022636414</t>
@@ -2111,13 +2111,13 @@
     <t xml:space="preserve">2.2099916934967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19053769111633</t>
+    <t xml:space="preserve">2.19053745269775</t>
   </si>
   <si>
     <t xml:space="preserve">2.15551996231079</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19831919670105</t>
+    <t xml:space="preserve">2.19831895828247</t>
   </si>
   <si>
     <t xml:space="preserve">2.17108345031738</t>
@@ -2126,7 +2126,7 @@
     <t xml:space="preserve">2.14384770393372</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11272096633911</t>
+    <t xml:space="preserve">2.11272072792053</t>
   </si>
   <si>
     <t xml:space="preserve">2.08548521995544</t>
@@ -2144,37 +2144,37 @@
     <t xml:space="preserve">2.13606572151184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01934123039246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8714896440506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91039764881134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92596089839935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89872515201569</t>
+    <t xml:space="preserve">2.01934099197388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87148940563202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91039752960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92596101760864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89872527122498</t>
   </si>
   <si>
     <t xml:space="preserve">1.9531968832016</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99988687038422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95708763599396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96486937999725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99210524559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7275288105011</t>
+    <t xml:space="preserve">1.99988675117493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95708787441254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96486949920654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99210500717163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72752869129181</t>
   </si>
   <si>
     <t xml:space="preserve">1.68862044811249</t>
@@ -2189,34 +2189,34 @@
     <t xml:space="preserve">1.542325258255</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48941004276276</t>
+    <t xml:space="preserve">1.48940992355347</t>
   </si>
   <si>
     <t xml:space="preserve">1.45361435413361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33844578266144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30420625209808</t>
+    <t xml:space="preserve">1.33844566345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30420649051666</t>
   </si>
   <si>
     <t xml:space="preserve">1.27619230747223</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09098887443542</t>
+    <t xml:space="preserve">1.09098875522614</t>
   </si>
   <si>
     <t xml:space="preserve">1.16102373600006</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08009457588196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05986213684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08476364612579</t>
+    <t xml:space="preserve">1.08009445667267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05986225605011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0847635269165</t>
   </si>
   <si>
     <t xml:space="preserve">1.10188317298889</t>
@@ -2237,16 +2237,16 @@
     <t xml:space="preserve">1.26685440540314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27152323722839</t>
+    <t xml:space="preserve">1.27152335643768</t>
   </si>
   <si>
     <t xml:space="preserve">1.32288241386414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28864300251007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28397405147552</t>
+    <t xml:space="preserve">1.28864312171936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28397417068481</t>
   </si>
   <si>
     <t xml:space="preserve">1.29331207275391</t>
@@ -2258,49 +2258,49 @@
     <t xml:space="preserve">1.36179065704346</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26062917709351</t>
+    <t xml:space="preserve">1.26062905788422</t>
   </si>
   <si>
     <t xml:space="preserve">1.29642474651337</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29798102378845</t>
+    <t xml:space="preserve">1.29798114299774</t>
   </si>
   <si>
     <t xml:space="preserve">1.33688938617706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29953742027283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31354439258575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29175555706024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28241777420044</t>
+    <t xml:space="preserve">1.29953730106354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31354427337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29175567626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28241765499115</t>
   </si>
   <si>
     <t xml:space="preserve">1.2295024394989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23884034156799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24350953102112</t>
+    <t xml:space="preserve">1.23884046077728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24350941181183</t>
   </si>
   <si>
     <t xml:space="preserve">1.20927011966705</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17503094673157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13300979137421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10343945026398</t>
+    <t xml:space="preserve">1.17503070831299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1330099105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10343956947327</t>
   </si>
   <si>
     <t xml:space="preserve">1.10499584674835</t>
@@ -2309,52 +2309,52 @@
     <t xml:space="preserve">1.08631992340088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05674970149994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06764376163483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12211561203003</t>
+    <t xml:space="preserve">1.05674958229065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06764388084412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12211549282074</t>
   </si>
   <si>
     <t xml:space="preserve">1.10655224323273</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14234805107117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15012955665588</t>
+    <t xml:space="preserve">1.14234781265259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15012943744659</t>
   </si>
   <si>
     <t xml:space="preserve">1.13923513889313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1983757019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24506568908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2372841835022</t>
+    <t xml:space="preserve">1.19837582111359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2450658082962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23728406429291</t>
   </si>
   <si>
     <t xml:space="preserve">1.2217208147049</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28708672523499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27930510044098</t>
+    <t xml:space="preserve">1.28708684444427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27930521965027</t>
   </si>
   <si>
     <t xml:space="preserve">1.17969989776611</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16413652896881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23572778701782</t>
+    <t xml:space="preserve">1.16413640975952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23572766780853</t>
   </si>
   <si>
     <t xml:space="preserve">1.20615744590759</t>
@@ -2372,7 +2372,7 @@
     <t xml:space="preserve">1.17814350128174</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18592512607574</t>
+    <t xml:space="preserve">1.18592524528503</t>
   </si>
   <si>
     <t xml:space="preserve">1.13612246513367</t>
@@ -2381,7 +2381,7 @@
     <t xml:space="preserve">1.15791118144989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14079141616821</t>
+    <t xml:space="preserve">1.1407915353775</t>
   </si>
   <si>
     <t xml:space="preserve">1.18436884880066</t>
@@ -2390,7 +2390,7 @@
     <t xml:space="preserve">1.17036175727844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14546048641205</t>
+    <t xml:space="preserve">1.14546060562134</t>
   </si>
   <si>
     <t xml:space="preserve">1.16724920272827</t>
@@ -2408,7 +2408,7 @@
     <t xml:space="preserve">1.1656928062439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15635466575623</t>
+    <t xml:space="preserve">1.15635478496552</t>
   </si>
   <si>
     <t xml:space="preserve">1.1252281665802</t>
@@ -2423,19 +2423,19 @@
     <t xml:space="preserve">1.06608760356903</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08320724964142</t>
+    <t xml:space="preserve">1.08320713043213</t>
   </si>
   <si>
     <t xml:space="preserve">1.06297492980957</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04896807670593</t>
+    <t xml:space="preserve">1.04896783828735</t>
   </si>
   <si>
     <t xml:space="preserve">1.09410154819489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07075643539429</t>
+    <t xml:space="preserve">1.07075655460358</t>
   </si>
   <si>
     <t xml:space="preserve">1.09721410274506</t>
@@ -2447,10 +2447,10 @@
     <t xml:space="preserve">1.05052423477173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04585516452789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03962993621826</t>
+    <t xml:space="preserve">1.04585528373718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03963005542755</t>
   </si>
   <si>
     <t xml:space="preserve">1.04118621349335</t>
@@ -2459,16 +2459,16 @@
     <t xml:space="preserve">1.03340458869934</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03496086597443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03651738166809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02251029014587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.996052622795105</t>
+    <t xml:space="preserve">1.03496098518372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03651714324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02251017093658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.996052503585815</t>
   </si>
   <si>
     <t xml:space="preserve">1.01628494262695</t>
@@ -2483,13 +2483,13 @@
     <t xml:space="preserve">1.00072169303894</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991383612155914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966482222080231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96492600440979</t>
+    <t xml:space="preserve">0.99138355255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.966482281684875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964925825595856</t>
   </si>
   <si>
     <t xml:space="preserve">0.958700597286224</t>
@@ -2498,37 +2498,37 @@
     <t xml:space="preserve">0.954031646251678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975820183753967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.989827334880829</t>
+    <t xml:space="preserve">0.975820243358612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.989827215671539</t>
   </si>
   <si>
     <t xml:space="preserve">0.969595015048981</t>
   </si>
   <si>
-    <t xml:space="preserve">0.949362576007843</t>
+    <t xml:space="preserve">0.949362635612488</t>
   </si>
   <si>
     <t xml:space="preserve">0.96803867816925</t>
   </si>
   <si>
-    <t xml:space="preserve">0.957144320011139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980489373207092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999165236949921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06453132629395</t>
+    <t xml:space="preserve">0.957144260406494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980489313602448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999165415763855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06453120708466</t>
   </si>
   <si>
     <t xml:space="preserve">1.05830585956573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02406668663025</t>
+    <t xml:space="preserve">1.02406656742096</t>
   </si>
   <si>
     <t xml:space="preserve">0.988270878791809</t>
@@ -2537,7 +2537,7 @@
     <t xml:space="preserve">0.985158324241638</t>
   </si>
   <si>
-    <t xml:space="preserve">0.941581070423126</t>
+    <t xml:space="preserve">0.941581010818481</t>
   </si>
   <si>
     <t xml:space="preserve">0.93379932641983</t>
@@ -2546,10 +2546,10 @@
     <t xml:space="preserve">0.904228985309601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879327714443207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887109339237213</t>
+    <t xml:space="preserve">0.879327654838562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887109279632568</t>
   </si>
   <si>
     <t xml:space="preserve">0.888665616512299</t>
@@ -2564,7 +2564,7 @@
     <t xml:space="preserve">0.80306738615036</t>
   </si>
   <si>
-    <t xml:space="preserve">0.787504136562347</t>
+    <t xml:space="preserve">0.787504076957703</t>
   </si>
   <si>
     <t xml:space="preserve">0.829525053501129</t>
@@ -2585,19 +2585,19 @@
     <t xml:space="preserve">0.866877019405365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.896447360515594</t>
+    <t xml:space="preserve">0.896447241306305</t>
   </si>
   <si>
     <t xml:space="preserve">0.902672648429871</t>
   </si>
   <si>
-    <t xml:space="preserve">0.915123343467712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940024495124817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977376639842987</t>
+    <t xml:space="preserve">0.915123283863068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940024673938751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977376580238342</t>
   </si>
   <si>
     <t xml:space="preserve">0.963369727134705</t>
@@ -2606,7 +2606,7 @@
     <t xml:space="preserve">0.983601987361908</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978932917118073</t>
+    <t xml:space="preserve">0.978933036327362</t>
   </si>
   <si>
     <t xml:space="preserve">0.92913031578064</t>
@@ -2615,19 +2615,19 @@
     <t xml:space="preserve">0.961813271045685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946249902248383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.943137407302856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.930686712265015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.952475190162659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.927573978900909</t>
+    <t xml:space="preserve">0.946249961853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.943137288093567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93068665266037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.952475309371948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.927574038505554</t>
   </si>
   <si>
     <t xml:space="preserve">0.926017701625824</t>
@@ -2636,34 +2636,34 @@
     <t xml:space="preserve">0.935355663299561</t>
   </si>
   <si>
-    <t xml:space="preserve">0.971151292324066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947806358337402</t>
+    <t xml:space="preserve">0.971151351928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947806417942047</t>
   </si>
   <si>
     <t xml:space="preserve">0.919792294502258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913567066192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907341659069061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916679620742798</t>
+    <t xml:space="preserve">0.913567006587982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907341718673706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916679680347443</t>
   </si>
   <si>
     <t xml:space="preserve">0.899560034275055</t>
   </si>
   <si>
-    <t xml:space="preserve">0.918236017227173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.908897995948792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.894891023635864</t>
+    <t xml:space="preserve">0.918235957622528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.908898055553436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.894890964031219</t>
   </si>
   <si>
     <t xml:space="preserve">0.910454273223877</t>
@@ -2672,19 +2672,19 @@
     <t xml:space="preserve">0.944693624973297</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01784110069275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05363702774048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13767886161804</t>
+    <t xml:space="preserve">1.01784121990204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05363690853119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13767874240875</t>
   </si>
   <si>
     <t xml:space="preserve">1.15946757793427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12989723682404</t>
+    <t xml:space="preserve">1.12989711761475</t>
   </si>
   <si>
     <t xml:space="preserve">1.10032689571381</t>
@@ -2696,7 +2696,7 @@
     <t xml:space="preserve">1.07231283187866</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12834084033966</t>
+    <t xml:space="preserve">1.12834095954895</t>
   </si>
   <si>
     <t xml:space="preserve">1.12055921554565</t>
@@ -2717,22 +2717,22 @@
     <t xml:space="preserve">1.24662208557129</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2528475522995</t>
+    <t xml:space="preserve">1.25284743309021</t>
   </si>
   <si>
     <t xml:space="preserve">1.2544037103653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22638976573944</t>
+    <t xml:space="preserve">1.22638988494873</t>
   </si>
   <si>
     <t xml:space="preserve">1.23105883598328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26996719837189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25751650333405</t>
+    <t xml:space="preserve">1.2699670791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25751662254333</t>
   </si>
   <si>
     <t xml:space="preserve">1.26841068267822</t>
@@ -2747,10 +2747,10 @@
     <t xml:space="preserve">1.38513565063477</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40069901943207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40381169319153</t>
+    <t xml:space="preserve">1.40069890022278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40381181240082</t>
   </si>
   <si>
     <t xml:space="preserve">1.37112867832184</t>
@@ -2765,16 +2765,16 @@
     <t xml:space="preserve">1.38980460166931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39758622646332</t>
+    <t xml:space="preserve">1.39758634567261</t>
   </si>
   <si>
     <t xml:space="preserve">1.39136099815369</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4053680896759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43805110454559</t>
+    <t xml:space="preserve">1.40536797046661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4380509853363</t>
   </si>
   <si>
     <t xml:space="preserve">1.52053654193878</t>
@@ -2783,37 +2783,37 @@
     <t xml:space="preserve">1.57189548015594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56022310256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58745884895325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53765606880188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51431131362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50341689586639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50497317314148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49096632003784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51798808574677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46871316432953</t>
+    <t xml:space="preserve">1.56022322177887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58745872974396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53765618801117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51431119441986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50341701507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50497329235077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49096620082855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51798796653748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46871304512024</t>
   </si>
   <si>
     <t xml:space="preserve">1.45281779766083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46712338924408</t>
+    <t xml:space="preserve">1.46712350845337</t>
   </si>
   <si>
     <t xml:space="preserve">1.47348153591156</t>
@@ -2822,7 +2822,7 @@
     <t xml:space="preserve">1.48619771003723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48937678337097</t>
+    <t xml:space="preserve">1.48937666416168</t>
   </si>
   <si>
     <t xml:space="preserve">1.48142910003662</t>
@@ -2834,31 +2834,31 @@
     <t xml:space="preserve">1.55454683303833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55613648891449</t>
+    <t xml:space="preserve">1.5561363697052</t>
   </si>
   <si>
     <t xml:space="preserve">1.57044196128845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56567347049713</t>
+    <t xml:space="preserve">1.56567358970642</t>
   </si>
   <si>
     <t xml:space="preserve">1.567263007164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53706216812134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52752506732941</t>
+    <t xml:space="preserve">1.53706228733063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5275251865387</t>
   </si>
   <si>
     <t xml:space="preserve">1.47030258178711</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4432806968689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40672183036804</t>
+    <t xml:space="preserve">1.44328081607819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40672194957733</t>
   </si>
   <si>
     <t xml:space="preserve">1.43374371528625</t>
@@ -2879,13 +2879,13 @@
     <t xml:space="preserve">1.34790980815887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33201456069946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35585725307465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31929838657379</t>
+    <t xml:space="preserve">1.33201467990875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35585737228394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31929850578308</t>
   </si>
   <si>
     <t xml:space="preserve">1.31453001499176</t>
@@ -2894,7 +2894,7 @@
     <t xml:space="preserve">1.27638149261475</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3018137216568</t>
+    <t xml:space="preserve">1.30181384086609</t>
   </si>
   <si>
     <t xml:space="preserve">1.30499279499054</t>
@@ -2903,13 +2903,13 @@
     <t xml:space="preserve">1.31135094165802</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30340337753296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2843291759491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27479195594788</t>
+    <t xml:space="preserve">1.30340325832367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28432929515839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27479207515717</t>
   </si>
   <si>
     <t xml:space="preserve">1.22074854373932</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">1.2557178735733</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24935984611511</t>
+    <t xml:space="preserve">1.24935972690582</t>
   </si>
   <si>
     <t xml:space="preserve">1.25412821769714</t>
@@ -2930,10 +2930,10 @@
     <t xml:space="preserve">1.28273963928223</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2271066904068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2112113237381</t>
+    <t xml:space="preserve">1.22710657119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21121144294739</t>
   </si>
   <si>
     <t xml:space="preserve">1.2732025384903</t>
@@ -2945,19 +2945,19 @@
     <t xml:space="preserve">1.37652099132538</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36698400974274</t>
+    <t xml:space="preserve">1.36698389053345</t>
   </si>
   <si>
     <t xml:space="preserve">1.35267841815948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37493169307709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37969994544983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38128972053528</t>
+    <t xml:space="preserve">1.3749315738678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37970018386841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38128960132599</t>
   </si>
   <si>
     <t xml:space="preserve">1.34314131736755</t>
@@ -2966,28 +2966,28 @@
     <t xml:space="preserve">1.33678317070007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36221528053284</t>
+    <t xml:space="preserve">1.36221539974213</t>
   </si>
   <si>
     <t xml:space="preserve">1.363804936409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39877438545227</t>
+    <t xml:space="preserve">1.39877426624298</t>
   </si>
   <si>
     <t xml:space="preserve">1.42897510528564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40513241291046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5338830947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49732422828674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47189211845398</t>
+    <t xml:space="preserve">1.40513229370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53388321399689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49732434749603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47189199924469</t>
   </si>
   <si>
     <t xml:space="preserve">1.42738556861877</t>
@@ -3017,7 +3017,7 @@
     <t xml:space="preserve">1.34155166149139</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3351936340332</t>
+    <t xml:space="preserve">1.33519351482391</t>
   </si>
   <si>
     <t xml:space="preserve">1.37811064720154</t>
@@ -3038,16 +3038,16 @@
     <t xml:space="preserve">1.38287913799286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50050342082977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52116715908051</t>
+    <t xml:space="preserve">1.50050330162048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52116703987122</t>
   </si>
   <si>
     <t xml:space="preserve">1.49573481082916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50845098495483</t>
+    <t xml:space="preserve">1.50845086574554</t>
   </si>
   <si>
     <t xml:space="preserve">1.51162993907928</t>
@@ -3059,7 +3059,7 @@
     <t xml:space="preserve">1.51321947574615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47507095336914</t>
+    <t xml:space="preserve">1.47507119178772</t>
   </si>
   <si>
     <t xml:space="preserve">1.44010174274445</t>
@@ -3068,34 +3068,34 @@
     <t xml:space="preserve">1.4877872467041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47983956336975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45599687099457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48301875591278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51004028320312</t>
+    <t xml:space="preserve">1.47983968257904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45599699020386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48301863670349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51004040241241</t>
   </si>
   <si>
     <t xml:space="preserve">1.56249439716339</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63720178604126</t>
+    <t xml:space="preserve">1.63720166683197</t>
   </si>
   <si>
     <t xml:space="preserve">1.66501832008362</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67693960666656</t>
+    <t xml:space="preserve">1.67693948745728</t>
   </si>
   <si>
     <t xml:space="preserve">1.70078253746033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65309679508209</t>
+    <t xml:space="preserve">1.65309691429138</t>
   </si>
   <si>
     <t xml:space="preserve">1.60541141033173</t>
@@ -3110,10 +3110,10 @@
     <t xml:space="preserve">1.43851220607758</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44645977020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45440745353699</t>
+    <t xml:space="preserve">1.44645988941193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4544073343277</t>
   </si>
   <si>
     <t xml:space="preserve">1.45122838020325</t>
@@ -3122,13 +3122,13 @@
     <t xml:space="preserve">1.49414527416229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51639842987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61335909366608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61733281612396</t>
+    <t xml:space="preserve">1.5163985490799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61335897445679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61733293533325</t>
   </si>
   <si>
     <t xml:space="preserve">1.63322794437408</t>
@@ -3137,22 +3137,22 @@
     <t xml:space="preserve">1.62130653858185</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59349024295807</t>
+    <t xml:space="preserve">1.59349012374878</t>
   </si>
   <si>
     <t xml:space="preserve">1.58792674541473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60143780708313</t>
+    <t xml:space="preserve">1.60143768787384</t>
   </si>
   <si>
     <t xml:space="preserve">1.62925410270691</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66104435920715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5386518239975</t>
+    <t xml:space="preserve">1.66104447841644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53865170478821</t>
   </si>
   <si>
     <t xml:space="preserve">1.51957750320435</t>
@@ -3164,13 +3164,13 @@
     <t xml:space="preserve">1.52911472320557</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53070414066315</t>
+    <t xml:space="preserve">1.53070402145386</t>
   </si>
   <si>
     <t xml:space="preserve">1.52434611320496</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43056464195251</t>
+    <t xml:space="preserve">1.43056452274323</t>
   </si>
   <si>
     <t xml:space="preserve">1.37334203720093</t>
@@ -3182,7 +3182,7 @@
     <t xml:space="preserve">1.30022442340851</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22869598865509</t>
+    <t xml:space="preserve">1.22869610786438</t>
   </si>
   <si>
     <t xml:space="preserve">1.23346471786499</t>
@@ -3197,82 +3197,82 @@
     <t xml:space="preserve">1.40831136703491</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59746372699738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7484678030014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78423190116882</t>
+    <t xml:space="preserve">1.59746384620667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74846792221069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78423178195953</t>
   </si>
   <si>
     <t xml:space="preserve">1.76038908958435</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77231061458588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78025805950165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74449408054352</t>
+    <t xml:space="preserve">1.77231049537659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78025817871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74449396133423</t>
   </si>
   <si>
     <t xml:space="preserve">1.81999599933624</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81204855442047</t>
+    <t xml:space="preserve">1.81204843521118</t>
   </si>
   <si>
     <t xml:space="preserve">1.83191752433777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82794368267059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85178649425507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83589124679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83986520767212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82396996021271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77628433704376</t>
+    <t xml:space="preserve">1.8279435634613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85178625583649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83589112758636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83986508846283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82396984100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77628421783447</t>
   </si>
   <si>
     <t xml:space="preserve">1.79217958450317</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76833689212799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78820586204529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7285989522934</t>
+    <t xml:space="preserve">1.76833665370941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.788205742836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72859871387482</t>
   </si>
   <si>
     <t xml:space="preserve">1.64514923095703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71667766571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73654651641846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75641560554504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76436305046082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80410087108612</t>
+    <t xml:space="preserve">1.71667754650116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73654639720917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75641548633575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76436293125153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80410075187683</t>
   </si>
   <si>
     <t xml:space="preserve">1.7403576374054</t>
@@ -3284,22 +3284,22 @@
     <t xml:space="preserve">1.76195001602173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75763154029846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77490556240082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7533130645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73603892326355</t>
+    <t xml:space="preserve">1.75763165950775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77490568161011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75331294536591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73603904247284</t>
   </si>
   <si>
     <t xml:space="preserve">1.67730736732483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.644486784935</t>
+    <t xml:space="preserve">1.64448666572571</t>
   </si>
   <si>
     <t xml:space="preserve">1.55811655521393</t>
@@ -3320,16 +3320,16 @@
     <t xml:space="preserve">1.50456702709198</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50283980369568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47865617275238</t>
+    <t xml:space="preserve">1.50283968448639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47865605354309</t>
   </si>
   <si>
     <t xml:space="preserve">1.51665902137756</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48038339614868</t>
+    <t xml:space="preserve">1.48038351535797</t>
   </si>
   <si>
     <t xml:space="preserve">1.4890204668045</t>
@@ -3347,16 +3347,16 @@
     <t xml:space="preserve">1.3819215297699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40092289447784</t>
+    <t xml:space="preserve">1.40092301368713</t>
   </si>
   <si>
     <t xml:space="preserve">1.43028879165649</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4061051607132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37501204013824</t>
+    <t xml:space="preserve">1.40610527992249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37501192092896</t>
   </si>
   <si>
     <t xml:space="preserve">1.37328457832336</t>
@@ -3365,13 +3365,13 @@
     <t xml:space="preserve">1.34737348556519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52875065803528</t>
+    <t xml:space="preserve">1.52875077724457</t>
   </si>
   <si>
     <t xml:space="preserve">1.59957420825958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54775214195251</t>
+    <t xml:space="preserve">1.5477522611618</t>
   </si>
   <si>
     <t xml:space="preserve">1.55293428897858</t>
@@ -3380,13 +3380,13 @@
     <t xml:space="preserve">1.55466175079346</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60648393630981</t>
+    <t xml:space="preserve">1.60648381710052</t>
   </si>
   <si>
     <t xml:space="preserve">1.60475647449493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58230018615723</t>
+    <t xml:space="preserve">1.58230030536652</t>
   </si>
   <si>
     <t xml:space="preserve">1.58057284355164</t>
@@ -3410,10 +3410,10 @@
     <t xml:space="preserve">1.4665641784668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45447242259979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42510652542114</t>
+    <t xml:space="preserve">1.45447254180908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42510664463043</t>
   </si>
   <si>
     <t xml:space="preserve">1.43547093868256</t>
@@ -3455,7 +3455,7 @@
     <t xml:space="preserve">1.33009946346283</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3801943063736</t>
+    <t xml:space="preserve">1.38019418716431</t>
   </si>
   <si>
     <t xml:space="preserve">1.35082840919495</t>
@@ -3488,7 +3488,7 @@
     <t xml:space="preserve">1.2005443572998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22300064563751</t>
+    <t xml:space="preserve">1.22300052642822</t>
   </si>
   <si>
     <t xml:space="preserve">1.1884526014328</t>
@@ -3521,7 +3521,7 @@
     <t xml:space="preserve">1.35773801803589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39574074745178</t>
+    <t xml:space="preserve">1.39574086666107</t>
   </si>
   <si>
     <t xml:space="preserve">1.39746820926666</t>
@@ -3530,7 +3530,7 @@
     <t xml:space="preserve">1.43374359607697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44929027557373</t>
+    <t xml:space="preserve">1.44929015636444</t>
   </si>
   <si>
     <t xml:space="preserve">1.44065320491791</t>
@@ -3539,7 +3539,7 @@
     <t xml:space="preserve">1.43719851970673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41992437839508</t>
+    <t xml:space="preserve">1.41992449760437</t>
   </si>
   <si>
     <t xml:space="preserve">1.40265035629272</t>
@@ -3548,7 +3548,7 @@
     <t xml:space="preserve">1.40437793731689</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41301488876343</t>
+    <t xml:space="preserve">1.41301476955414</t>
   </si>
   <si>
     <t xml:space="preserve">1.42165184020996</t>
@@ -3557,19 +3557,19 @@
     <t xml:space="preserve">1.45101761817932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38710367679596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36464762687683</t>
+    <t xml:space="preserve">1.38710379600525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36464750766754</t>
   </si>
   <si>
     <t xml:space="preserve">1.32837212085724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33182692527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30591595172882</t>
+    <t xml:space="preserve">1.331827044487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30591583251953</t>
   </si>
   <si>
     <t xml:space="preserve">1.31455290317535</t>
@@ -3578,22 +3578,22 @@
     <t xml:space="preserve">1.31109809875488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34564614295959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30937075614929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27827739715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27136790752411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28345954418182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27655017375946</t>
+    <t xml:space="preserve">1.34564602375031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30937063694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27827751636505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27136778831482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28345966339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27655005455017</t>
   </si>
   <si>
     <t xml:space="preserve">1.29900622367859</t>
@@ -3602,7 +3602,7 @@
     <t xml:space="preserve">1.28518712520599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29036927223206</t>
+    <t xml:space="preserve">1.29036915302277</t>
   </si>
   <si>
     <t xml:space="preserve">1.30764329433441</t>
@@ -3620,7 +3620,7 @@
     <t xml:space="preserve">1.33528172969818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34910094738007</t>
+    <t xml:space="preserve">1.34910106658936</t>
   </si>
   <si>
     <t xml:space="preserve">1.36982977390289</t>
@@ -3635,7 +3635,7 @@
     <t xml:space="preserve">1.51147675514221</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49938476085663</t>
+    <t xml:space="preserve">1.49938488006592</t>
   </si>
   <si>
     <t xml:space="preserve">1.53393292427063</t>
@@ -3650,7 +3650,7 @@
     <t xml:space="preserve">1.52011370658875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51838624477386</t>
+    <t xml:space="preserve">1.51838636398315</t>
   </si>
   <si>
     <t xml:space="preserve">1.5373877286911</t>
@@ -3662,7 +3662,7 @@
     <t xml:space="preserve">1.47520124912262</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50974929332733</t>
+    <t xml:space="preserve">1.50974941253662</t>
   </si>
   <si>
     <t xml:space="preserve">1.49593007564545</t>
@@ -3671,10 +3671,10 @@
     <t xml:space="preserve">1.48383831977844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41819703578949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48729312419891</t>
+    <t xml:space="preserve">1.4181969165802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48729300498962</t>
   </si>
   <si>
     <t xml:space="preserve">1.54256999492645</t>
@@ -3701,7 +3701,7 @@
     <t xml:space="preserve">1.5857549905777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60302889347076</t>
+    <t xml:space="preserve">1.60302901268005</t>
   </si>
   <si>
     <t xml:space="preserve">1.6203031539917</t>
@@ -3710,16 +3710,16 @@
     <t xml:space="preserve">1.64966893196106</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62894010543823</t>
+    <t xml:space="preserve">1.62893998622894</t>
   </si>
   <si>
     <t xml:space="preserve">1.63757705688477</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63239479064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59093725681305</t>
+    <t xml:space="preserve">1.6323949098587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59093713760376</t>
   </si>
   <si>
     <t xml:space="preserve">1.61684823036194</t>
@@ -3740,10 +3740,10 @@
     <t xml:space="preserve">1.63412225246429</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62548530101776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5719358921051</t>
+    <t xml:space="preserve">1.62548518180847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57193577289581</t>
   </si>
   <si>
     <t xml:space="preserve">1.57020831108093</t>
@@ -13223,7 +13223,7 @@
         <v>4.46199989318848</v>
       </c>
       <c r="G331" t="s">
-        <v>270</v>
+        <v>58</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -13249,7 +13249,7 @@
         <v>4.39200019836426</v>
       </c>
       <c r="G332" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -13275,7 +13275,7 @@
         <v>4.48600006103516</v>
       </c>
       <c r="G333" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -13327,7 +13327,7 @@
         <v>4.35200023651123</v>
       </c>
       <c r="G335" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -13353,7 +13353,7 @@
         <v>4.48799991607666</v>
       </c>
       <c r="G336" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -13405,7 +13405,7 @@
         <v>4.5460000038147</v>
       </c>
       <c r="G338" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -13431,7 +13431,7 @@
         <v>4.52799987792969</v>
       </c>
       <c r="G339" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -13483,7 +13483,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G341" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -13509,7 +13509,7 @@
         <v>4.66800022125244</v>
       </c>
       <c r="G342" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -13535,7 +13535,7 @@
         <v>4.60799980163574</v>
       </c>
       <c r="G343" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -13561,7 +13561,7 @@
         <v>4.65799999237061</v>
       </c>
       <c r="G344" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -13587,7 +13587,7 @@
         <v>4.68800020217896</v>
       </c>
       <c r="G345" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -13613,7 +13613,7 @@
         <v>4.76599979400635</v>
       </c>
       <c r="G346" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -13639,7 +13639,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G347" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -13665,7 +13665,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G348" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -13691,7 +13691,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G349" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -13717,7 +13717,7 @@
         <v>4.59000015258789</v>
       </c>
       <c r="G350" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -13769,7 +13769,7 @@
         <v>4.33599996566772</v>
       </c>
       <c r="G352" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -13795,7 +13795,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G353" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -13847,7 +13847,7 @@
         <v>4.4060001373291</v>
       </c>
       <c r="G355" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -13873,7 +13873,7 @@
         <v>4.2979998588562</v>
       </c>
       <c r="G356" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -13899,7 +13899,7 @@
         <v>4.31799983978271</v>
       </c>
       <c r="G357" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -13925,7 +13925,7 @@
         <v>4.35599994659424</v>
       </c>
       <c r="G358" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -13951,7 +13951,7 @@
         <v>4.36399984359741</v>
       </c>
       <c r="G359" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -13977,7 +13977,7 @@
         <v>4.31599998474121</v>
       </c>
       <c r="G360" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -14003,7 +14003,7 @@
         <v>4.32800006866455</v>
       </c>
       <c r="G361" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -14029,7 +14029,7 @@
         <v>4.26200008392334</v>
       </c>
       <c r="G362" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -14055,7 +14055,7 @@
         <v>4.21600008010864</v>
       </c>
       <c r="G363" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -14081,7 +14081,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G364" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -14107,7 +14107,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G365" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -14133,7 +14133,7 @@
         <v>4.17199993133545</v>
       </c>
       <c r="G366" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -14159,7 +14159,7 @@
         <v>4.13199996948242</v>
       </c>
       <c r="G367" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -14185,7 +14185,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G368" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -14211,7 +14211,7 @@
         <v>3.98600006103516</v>
       </c>
       <c r="G369" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -14237,7 +14237,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G370" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -14263,7 +14263,7 @@
         <v>4.01200008392334</v>
       </c>
       <c r="G371" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -14289,7 +14289,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G372" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -14315,7 +14315,7 @@
         <v>3.9539999961853</v>
       </c>
       <c r="G373" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -14341,7 +14341,7 @@
         <v>4.06199979782104</v>
       </c>
       <c r="G374" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -14367,7 +14367,7 @@
         <v>4.03399991989136</v>
       </c>
       <c r="G375" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -14393,7 +14393,7 @@
         <v>3.98200011253357</v>
       </c>
       <c r="G376" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -14419,7 +14419,7 @@
         <v>3.99399995803833</v>
       </c>
       <c r="G377" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -14445,7 +14445,7 @@
         <v>3.96600008010864</v>
       </c>
       <c r="G378" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -14471,7 +14471,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G379" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -14497,7 +14497,7 @@
         <v>3.98399996757507</v>
       </c>
       <c r="G380" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -14523,7 +14523,7 @@
         <v>3.9539999961853</v>
       </c>
       <c r="G381" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -14549,7 +14549,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G382" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -14575,7 +14575,7 @@
         <v>3.87599992752075</v>
       </c>
       <c r="G383" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -14601,7 +14601,7 @@
         <v>3.83599996566772</v>
       </c>
       <c r="G384" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -14627,7 +14627,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G385" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -14653,7 +14653,7 @@
         <v>3.88599991798401</v>
       </c>
       <c r="G386" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -14679,7 +14679,7 @@
         <v>3.87400007247925</v>
       </c>
       <c r="G387" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -14705,7 +14705,7 @@
         <v>3.78800010681152</v>
       </c>
       <c r="G388" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -14731,7 +14731,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G389" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -14757,7 +14757,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G390" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -14783,7 +14783,7 @@
         <v>3.81200003623962</v>
       </c>
       <c r="G391" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -14809,7 +14809,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G392" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -14835,7 +14835,7 @@
         <v>4.05399990081787</v>
       </c>
       <c r="G393" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14861,7 +14861,7 @@
         <v>4.06400012969971</v>
       </c>
       <c r="G394" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14887,7 +14887,7 @@
         <v>4.05999994277954</v>
       </c>
       <c r="G395" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -14913,7 +14913,7 @@
         <v>4.01200008392334</v>
       </c>
       <c r="G396" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14939,7 +14939,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G397" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -14965,7 +14965,7 @@
         <v>3.94600009918213</v>
       </c>
       <c r="G398" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14991,7 +14991,7 @@
         <v>3.89199995994568</v>
       </c>
       <c r="G399" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -15017,7 +15017,7 @@
         <v>3.92799997329712</v>
       </c>
       <c r="G400" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -15043,7 +15043,7 @@
         <v>3.92199993133545</v>
       </c>
       <c r="G401" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -15069,7 +15069,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G402" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -15095,7 +15095,7 @@
         <v>3.89599990844727</v>
       </c>
       <c r="G403" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -15121,7 +15121,7 @@
         <v>3.89800000190735</v>
       </c>
       <c r="G404" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -15147,7 +15147,7 @@
         <v>3.94199991226196</v>
       </c>
       <c r="G405" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -15173,7 +15173,7 @@
         <v>3.96199989318848</v>
       </c>
       <c r="G406" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -15199,7 +15199,7 @@
         <v>3.9760000705719</v>
       </c>
       <c r="G407" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -15225,7 +15225,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G408" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -15251,7 +15251,7 @@
         <v>3.99200010299683</v>
       </c>
       <c r="G409" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -15277,7 +15277,7 @@
         <v>3.98200011253357</v>
       </c>
       <c r="G410" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -15303,7 +15303,7 @@
         <v>4.03599977493286</v>
       </c>
       <c r="G411" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -15329,7 +15329,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G412" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -15355,7 +15355,7 @@
         <v>3.88599991798401</v>
       </c>
       <c r="G413" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -15381,7 +15381,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G414" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -15407,7 +15407,7 @@
         <v>3.82399988174438</v>
       </c>
       <c r="G415" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -15433,7 +15433,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G416" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -15459,7 +15459,7 @@
         <v>3.84200000762939</v>
       </c>
       <c r="G417" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -15485,7 +15485,7 @@
         <v>3.75</v>
       </c>
       <c r="G418" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -15511,7 +15511,7 @@
         <v>3.78399991989136</v>
       </c>
       <c r="G419" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -15537,7 +15537,7 @@
         <v>3.76600003242493</v>
       </c>
       <c r="G420" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -15563,7 +15563,7 @@
         <v>3.78200006484985</v>
       </c>
       <c r="G421" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -15589,7 +15589,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G422" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -15615,7 +15615,7 @@
         <v>3.71199989318848</v>
       </c>
       <c r="G423" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -15641,7 +15641,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G424" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -15667,7 +15667,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G425" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -15693,7 +15693,7 @@
         <v>3.71399998664856</v>
       </c>
       <c r="G426" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -15719,7 +15719,7 @@
         <v>3.82200002670288</v>
       </c>
       <c r="G427" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -15745,7 +15745,7 @@
         <v>3.87800002098083</v>
       </c>
       <c r="G428" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -15771,7 +15771,7 @@
         <v>3.8840000629425</v>
       </c>
       <c r="G429" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -15797,7 +15797,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G430" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -15823,7 +15823,7 @@
         <v>3.8659999370575</v>
       </c>
       <c r="G431" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -15849,7 +15849,7 @@
         <v>3.89800000190735</v>
       </c>
       <c r="G432" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -15875,7 +15875,7 @@
         <v>4.05600023269653</v>
       </c>
       <c r="G433" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -15901,7 +15901,7 @@
         <v>4.19799995422363</v>
       </c>
       <c r="G434" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -15927,7 +15927,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G435" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15953,7 +15953,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G436" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -15979,7 +15979,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G437" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -16005,7 +16005,7 @@
         <v>4.33199977874756</v>
       </c>
       <c r="G438" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -16031,7 +16031,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G439" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -16057,7 +16057,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G440" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -16083,7 +16083,7 @@
         <v>4.35200023651123</v>
       </c>
       <c r="G441" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -16109,7 +16109,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G442" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -16135,7 +16135,7 @@
         <v>4.24200010299683</v>
       </c>
       <c r="G443" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -16161,7 +16161,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G444" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -16187,7 +16187,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G445" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -16213,7 +16213,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G446" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -16239,7 +16239,7 @@
         <v>4.26599979400635</v>
       </c>
       <c r="G447" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -16265,7 +16265,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G448" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -16291,7 +16291,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G449" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -16317,7 +16317,7 @@
         <v>4.17199993133545</v>
       </c>
       <c r="G450" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -16343,7 +16343,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G451" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -16369,7 +16369,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G452" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -16395,7 +16395,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G453" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -16421,7 +16421,7 @@
         <v>4.23799991607666</v>
       </c>
       <c r="G454" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -16447,7 +16447,7 @@
         <v>4.2979998588562</v>
       </c>
       <c r="G455" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -16473,7 +16473,7 @@
         <v>4.41200017929077</v>
       </c>
       <c r="G456" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -16499,7 +16499,7 @@
         <v>4.33799982070923</v>
       </c>
       <c r="G457" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -16525,7 +16525,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G458" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -16551,7 +16551,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G459" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -16577,7 +16577,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G460" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -16603,7 +16603,7 @@
         <v>4.27400016784668</v>
       </c>
       <c r="G461" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -16629,7 +16629,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G462" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -16655,7 +16655,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G463" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -16681,7 +16681,7 @@
         <v>4.38800001144409</v>
       </c>
       <c r="G464" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -16707,7 +16707,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G465" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -16733,7 +16733,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G466" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -16759,7 +16759,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G467" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -16785,7 +16785,7 @@
         <v>4.36800003051758</v>
       </c>
       <c r="G468" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -16811,7 +16811,7 @@
         <v>4.30200004577637</v>
       </c>
       <c r="G469" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -16837,7 +16837,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G470" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -16863,7 +16863,7 @@
         <v>4.38399982452393</v>
       </c>
       <c r="G471" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -16889,7 +16889,7 @@
         <v>4.37799978256226</v>
       </c>
       <c r="G472" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -16915,7 +16915,7 @@
         <v>4.34200000762939</v>
       </c>
       <c r="G473" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -16941,7 +16941,7 @@
         <v>4.32399988174438</v>
       </c>
       <c r="G474" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16967,7 +16967,7 @@
         <v>4.30800008773804</v>
       </c>
       <c r="G475" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16993,7 +16993,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G476" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -17019,7 +17019,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G477" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -17045,7 +17045,7 @@
         <v>4.24399995803833</v>
       </c>
       <c r="G478" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -17071,7 +17071,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G479" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -17097,7 +17097,7 @@
         <v>4.12400007247925</v>
       </c>
       <c r="G480" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -17123,7 +17123,7 @@
         <v>3.94199991226196</v>
       </c>
       <c r="G481" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -17149,7 +17149,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G482" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -17175,7 +17175,7 @@
         <v>3.86400008201599</v>
       </c>
       <c r="G483" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -17201,7 +17201,7 @@
         <v>3.91599988937378</v>
       </c>
       <c r="G484" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -17227,7 +17227,7 @@
         <v>3.99399995803833</v>
       </c>
       <c r="G485" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -17253,7 +17253,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G486" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -17279,7 +17279,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G487" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -17305,7 +17305,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G488" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -17331,7 +17331,7 @@
         <v>3.87400007247925</v>
       </c>
       <c r="G489" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -17357,7 +17357,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G490" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -17383,7 +17383,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G491" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -17409,7 +17409,7 @@
         <v>4</v>
       </c>
       <c r="G492" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -17435,7 +17435,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G493" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -17461,7 +17461,7 @@
         <v>3.95600008964539</v>
       </c>
       <c r="G494" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -17487,7 +17487,7 @@
         <v>3.99399995803833</v>
       </c>
       <c r="G495" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17513,7 +17513,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G496" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17539,7 +17539,7 @@
         <v>3.92600011825562</v>
       </c>
       <c r="G497" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -17565,7 +17565,7 @@
         <v>3.91799998283386</v>
       </c>
       <c r="G498" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -17591,7 +17591,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G499" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17617,7 +17617,7 @@
         <v>3.91599988937378</v>
       </c>
       <c r="G500" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -17643,7 +17643,7 @@
         <v>3.84200000762939</v>
       </c>
       <c r="G501" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -17669,7 +17669,7 @@
         <v>3.82399988174438</v>
       </c>
       <c r="G502" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17695,7 +17695,7 @@
         <v>3.84200000762939</v>
       </c>
       <c r="G503" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -17721,7 +17721,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G504" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17747,7 +17747,7 @@
         <v>3.75200009346008</v>
       </c>
       <c r="G505" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17773,7 +17773,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G506" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17799,7 +17799,7 @@
         <v>3.78200006484985</v>
       </c>
       <c r="G507" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17825,7 +17825,7 @@
         <v>3.77800011634827</v>
       </c>
       <c r="G508" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17851,7 +17851,7 @@
         <v>3.75399994850159</v>
       </c>
       <c r="G509" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17877,7 +17877,7 @@
         <v>3.76399993896484</v>
       </c>
       <c r="G510" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17903,7 +17903,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G511" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -17929,7 +17929,7 @@
         <v>3.68600010871887</v>
       </c>
       <c r="G512" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -17955,7 +17955,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G513" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -17981,7 +17981,7 @@
         <v>3.74499988555908</v>
       </c>
       <c r="G514" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -18007,7 +18007,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G515" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -18033,7 +18033,7 @@
         <v>3.86500000953674</v>
       </c>
       <c r="G516" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -18059,7 +18059,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G517" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -18085,7 +18085,7 @@
         <v>3.78500008583069</v>
       </c>
       <c r="G518" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -18111,7 +18111,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G519" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -18137,7 +18137,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G520" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -18163,7 +18163,7 @@
         <v>3.79500007629395</v>
       </c>
       <c r="G521" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -18189,7 +18189,7 @@
         <v>3.75500011444092</v>
       </c>
       <c r="G522" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -18215,7 +18215,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G523" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -18241,7 +18241,7 @@
         <v>3.77500009536743</v>
       </c>
       <c r="G524" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -18267,7 +18267,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G525" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -18293,7 +18293,7 @@
         <v>3.875</v>
       </c>
       <c r="G526" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -18319,7 +18319,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G527" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -18345,7 +18345,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G528" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -18371,7 +18371,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G529" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -18397,7 +18397,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G530" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -18423,7 +18423,7 @@
         <v>3.84500002861023</v>
       </c>
       <c r="G531" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -18449,7 +18449,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G532" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -18475,7 +18475,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G533" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -18501,7 +18501,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G534" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -18527,7 +18527,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G535" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -18553,7 +18553,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G536" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -18579,7 +18579,7 @@
         <v>3.78500008583069</v>
       </c>
       <c r="G537" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -18605,7 +18605,7 @@
         <v>3.8050000667572</v>
       </c>
       <c r="G538" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -18631,7 +18631,7 @@
         <v>3.76500010490417</v>
       </c>
       <c r="G539" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18657,7 +18657,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G540" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -18683,7 +18683,7 @@
         <v>3.65499997138977</v>
       </c>
       <c r="G541" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18709,7 +18709,7 @@
         <v>3.64499998092651</v>
       </c>
       <c r="G542" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18735,7 +18735,7 @@
         <v>3.66499996185303</v>
       </c>
       <c r="G543" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18761,7 +18761,7 @@
         <v>3.68499994277954</v>
       </c>
       <c r="G544" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18787,7 +18787,7 @@
         <v>3.67499995231628</v>
       </c>
       <c r="G545" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18813,7 +18813,7 @@
         <v>3.65499997138977</v>
       </c>
       <c r="G546" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -18839,7 +18839,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G547" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18865,7 +18865,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G548" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18891,7 +18891,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G549" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18917,7 +18917,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G550" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -18943,7 +18943,7 @@
         <v>3.5550000667572</v>
       </c>
       <c r="G551" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -18969,7 +18969,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G552" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -18995,7 +18995,7 @@
         <v>3.56500005722046</v>
       </c>
       <c r="G553" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -19021,7 +19021,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G554" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -19047,7 +19047,7 @@
         <v>3.29500007629395</v>
       </c>
       <c r="G555" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -19073,7 +19073,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G556" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -19099,7 +19099,7 @@
         <v>3.29500007629395</v>
       </c>
       <c r="G557" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -19125,7 +19125,7 @@
         <v>3.32500004768372</v>
       </c>
       <c r="G558" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -19151,7 +19151,7 @@
         <v>3.35500001907349</v>
       </c>
       <c r="G559" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -19177,7 +19177,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G560" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -19203,7 +19203,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G561" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -19229,7 +19229,7 @@
         <v>3.27500009536743</v>
       </c>
       <c r="G562" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -19255,7 +19255,7 @@
         <v>3.18499994277954</v>
       </c>
       <c r="G563" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -19281,7 +19281,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G564" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -19307,7 +19307,7 @@
         <v>3.26500010490417</v>
       </c>
       <c r="G565" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -19333,7 +19333,7 @@
         <v>3.5</v>
       </c>
       <c r="G566" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -19359,7 +19359,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G567" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -19385,7 +19385,7 @@
         <v>3.39499998092651</v>
       </c>
       <c r="G568" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -19411,7 +19411,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G569" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -19437,7 +19437,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G570" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -19463,7 +19463,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G571" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -19489,7 +19489,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G572" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -19515,7 +19515,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G573" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -19541,7 +19541,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G574" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -19567,7 +19567,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G575" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -19593,7 +19593,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G576" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -19619,7 +19619,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G577" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -19645,7 +19645,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G578" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -19671,7 +19671,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G579" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -19697,7 +19697,7 @@
         <v>3.64499998092651</v>
       </c>
       <c r="G580" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -19723,7 +19723,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G581" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19749,7 +19749,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G582" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19775,7 +19775,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G583" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19801,7 +19801,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G584" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19827,7 +19827,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G585" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19853,7 +19853,7 @@
         <v>3.65499997138977</v>
       </c>
       <c r="G586" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -19879,7 +19879,7 @@
         <v>3.72499990463257</v>
       </c>
       <c r="G587" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -19905,7 +19905,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G588" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -19931,7 +19931,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G589" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -19957,7 +19957,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G590" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -19983,7 +19983,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G591" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -20009,7 +20009,7 @@
         <v>3.75</v>
       </c>
       <c r="G592" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -20035,7 +20035,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G593" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -20061,7 +20061,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G594" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -20087,7 +20087,7 @@
         <v>3.73499989509583</v>
       </c>
       <c r="G595" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -20113,7 +20113,7 @@
         <v>3.71499991416931</v>
       </c>
       <c r="G596" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -20139,7 +20139,7 @@
         <v>3.72499990463257</v>
       </c>
       <c r="G597" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -20165,7 +20165,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G598" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -20191,7 +20191,7 @@
         <v>3.67499995231628</v>
       </c>
       <c r="G599" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -20217,7 +20217,7 @@
         <v>3.66499996185303</v>
       </c>
       <c r="G600" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -20243,7 +20243,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G601" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -20269,7 +20269,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G602" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -20295,7 +20295,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G603" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -20321,7 +20321,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G604" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -20347,7 +20347,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G605" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -20373,7 +20373,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G606" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -20399,7 +20399,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G607" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -20425,7 +20425,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G608" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -20451,7 +20451,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G609" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -20477,7 +20477,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G610" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -20503,7 +20503,7 @@
         <v>3.25</v>
       </c>
       <c r="G611" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -20529,7 +20529,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G612" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -20555,7 +20555,7 @@
         <v>3.10500001907349</v>
       </c>
       <c r="G613" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -20581,7 +20581,7 @@
         <v>2.98499989509583</v>
       </c>
       <c r="G614" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -20607,7 +20607,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G615" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -20633,7 +20633,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G616" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -20659,7 +20659,7 @@
         <v>3.22499990463257</v>
       </c>
       <c r="G617" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -20685,7 +20685,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G618" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -20711,7 +20711,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G619" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -20737,7 +20737,7 @@
         <v>3.22499990463257</v>
       </c>
       <c r="G620" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -20763,7 +20763,7 @@
         <v>3.25</v>
       </c>
       <c r="G621" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20789,7 +20789,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G622" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -20815,7 +20815,7 @@
         <v>3.26500010490417</v>
       </c>
       <c r="G623" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -20841,7 +20841,7 @@
         <v>3.33500003814697</v>
       </c>
       <c r="G624" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20867,7 +20867,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G625" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20893,7 +20893,7 @@
         <v>3.40499997138977</v>
       </c>
       <c r="G626" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -20919,7 +20919,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G627" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -20945,7 +20945,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G628" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -20971,7 +20971,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G629" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -20997,7 +20997,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G630" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -21023,7 +21023,7 @@
         <v>3.31500005722046</v>
       </c>
       <c r="G631" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -21049,7 +21049,7 @@
         <v>3.48499989509583</v>
       </c>
       <c r="G632" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -21075,7 +21075,7 @@
         <v>3.43499994277954</v>
       </c>
       <c r="G633" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -21101,7 +21101,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G634" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -21127,7 +21127,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G635" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -21153,7 +21153,7 @@
         <v>3.3050000667572</v>
       </c>
       <c r="G636" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -21179,7 +21179,7 @@
         <v>3.42499995231628</v>
       </c>
       <c r="G637" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -21205,7 +21205,7 @@
         <v>3.34500002861023</v>
       </c>
       <c r="G638" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -21231,7 +21231,7 @@
         <v>3.39499998092651</v>
       </c>
       <c r="G639" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -21257,7 +21257,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G640" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -21283,7 +21283,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G641" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -21309,7 +21309,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G642" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -21335,7 +21335,7 @@
         <v>3.33500003814697</v>
       </c>
       <c r="G643" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -21361,7 +21361,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G644" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -21387,7 +21387,7 @@
         <v>3.23499989509583</v>
       </c>
       <c r="G645" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -21413,7 +21413,7 @@
         <v>3.25500011444092</v>
       </c>
       <c r="G646" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -21439,7 +21439,7 @@
         <v>3.23499989509583</v>
       </c>
       <c r="G647" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -21465,7 +21465,7 @@
         <v>3.17499995231628</v>
       </c>
       <c r="G648" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -21491,7 +21491,7 @@
         <v>3.1949999332428</v>
       </c>
       <c r="G649" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -21517,7 +21517,7 @@
         <v>3.16499996185303</v>
       </c>
       <c r="G650" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21543,7 +21543,7 @@
         <v>3.18499994277954</v>
       </c>
       <c r="G651" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21569,7 +21569,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G652" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21595,7 +21595,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G653" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21621,7 +21621,7 @@
         <v>3.1949999332428</v>
       </c>
       <c r="G654" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21647,7 +21647,7 @@
         <v>3.11500000953674</v>
       </c>
       <c r="G655" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21673,7 +21673,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G656" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -21699,7 +21699,7 @@
         <v>3.13499999046326</v>
       </c>
       <c r="G657" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -21725,7 +21725,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G658" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -21751,7 +21751,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G659" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -21777,7 +21777,7 @@
         <v>3.22499990463257</v>
       </c>
       <c r="G660" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -21803,7 +21803,7 @@
         <v>3.21499991416931</v>
       </c>
       <c r="G661" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -21829,7 +21829,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G662" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -21855,7 +21855,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G663" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21881,7 +21881,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G664" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -21907,7 +21907,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G665" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -21933,7 +21933,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G666" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -21959,7 +21959,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G667" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -21985,7 +21985,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G668" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -22011,7 +22011,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G669" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22037,7 +22037,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G670" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -22063,7 +22063,7 @@
         <v>3.17499995231628</v>
       </c>
       <c r="G671" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -22089,7 +22089,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G672" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -22115,7 +22115,7 @@
         <v>3.17499995231628</v>
       </c>
       <c r="G673" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -22141,7 +22141,7 @@
         <v>3.21499991416931</v>
       </c>
       <c r="G674" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -22167,7 +22167,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G675" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -22193,7 +22193,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G676" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -22219,7 +22219,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G677" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -22245,7 +22245,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G678" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -22271,7 +22271,7 @@
         <v>3.06500005722046</v>
       </c>
       <c r="G679" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -22297,7 +22297,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G680" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -22323,7 +22323,7 @@
         <v>3.14499998092651</v>
       </c>
       <c r="G681" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -22349,7 +22349,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G682" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22375,7 +22375,7 @@
         <v>3.07500004768372</v>
       </c>
       <c r="G683" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22401,7 +22401,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G684" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -22427,7 +22427,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G685" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22453,7 +22453,7 @@
         <v>3.09500002861023</v>
       </c>
       <c r="G686" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22479,7 +22479,7 @@
         <v>3.07500004768372</v>
       </c>
       <c r="G687" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22505,7 +22505,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G688" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -22531,7 +22531,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G689" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22557,7 +22557,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G690" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -22583,7 +22583,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G691" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -22609,7 +22609,7 @@
         <v>3.10500001907349</v>
       </c>
       <c r="G692" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -22635,7 +22635,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G693" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -22661,7 +22661,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G694" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -22687,7 +22687,7 @@
         <v>3.09500002861023</v>
       </c>
       <c r="G695" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -22713,7 +22713,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G696" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -22739,7 +22739,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G697" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -22765,7 +22765,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G698" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -22791,7 +22791,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G699" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -22817,7 +22817,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G700" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -22843,7 +22843,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G701" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -22869,7 +22869,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G702" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -22895,7 +22895,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G703" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -22921,7 +22921,7 @@
         <v>2.98499989509583</v>
       </c>
       <c r="G704" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -22947,7 +22947,7 @@
         <v>3.02500009536743</v>
       </c>
       <c r="G705" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -22973,7 +22973,7 @@
         <v>2.98499989509583</v>
       </c>
       <c r="G706" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -22999,7 +22999,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G707" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -23025,7 +23025,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G708" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -23051,7 +23051,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G709" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -23077,7 +23077,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G710" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -23103,7 +23103,7 @@
         <v>2.83500003814697</v>
       </c>
       <c r="G711" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -23129,7 +23129,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G712" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -23155,7 +23155,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G713" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -23181,7 +23181,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G714" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -23207,7 +23207,7 @@
         <v>2.84500002861023</v>
       </c>
       <c r="G715" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -23233,7 +23233,7 @@
         <v>2.78500008583069</v>
       </c>
       <c r="G716" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -23259,7 +23259,7 @@
         <v>2.78500008583069</v>
       </c>
       <c r="G717" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -23285,7 +23285,7 @@
         <v>2.68499994277954</v>
       </c>
       <c r="G718" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -23311,7 +23311,7 @@
         <v>2.63499999046326</v>
       </c>
       <c r="G719" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -23337,7 +23337,7 @@
         <v>2.78500008583069</v>
       </c>
       <c r="G720" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -23363,7 +23363,7 @@
         <v>2.73499989509583</v>
       </c>
       <c r="G721" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -23389,7 +23389,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G722" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -23415,7 +23415,7 @@
         <v>2.76500010490417</v>
       </c>
       <c r="G723" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23441,7 +23441,7 @@
         <v>2.79500007629395</v>
       </c>
       <c r="G724" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -23467,7 +23467,7 @@
         <v>2.875</v>
       </c>
       <c r="G725" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -23493,7 +23493,7 @@
         <v>2.89499998092651</v>
       </c>
       <c r="G726" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -23519,7 +23519,7 @@
         <v>2.88499999046326</v>
       </c>
       <c r="G727" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -23545,7 +23545,7 @@
         <v>2.95499992370605</v>
       </c>
       <c r="G728" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -23571,7 +23571,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G729" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -23597,7 +23597,7 @@
         <v>3.01500010490417</v>
       </c>
       <c r="G730" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -23623,7 +23623,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G731" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -23649,7 +23649,7 @@
         <v>3.04500007629395</v>
       </c>
       <c r="G732" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -23675,7 +23675,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G733" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -23701,7 +23701,7 @@
         <v>3.01500010490417</v>
       </c>
       <c r="G734" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -23727,7 +23727,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G735" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -23753,7 +23753,7 @@
         <v>2.99499988555908</v>
       </c>
       <c r="G736" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -23779,7 +23779,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G737" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -23805,7 +23805,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G738" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -23831,7 +23831,7 @@
         <v>2.83500003814697</v>
       </c>
       <c r="G739" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -23857,7 +23857,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G740" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -23883,7 +23883,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G741" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -23909,7 +23909,7 @@
         <v>3.04500007629395</v>
       </c>
       <c r="G742" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -23935,7 +23935,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G743" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -23961,7 +23961,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G744" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -23987,7 +23987,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G745" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -24013,7 +24013,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G746" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -24039,7 +24039,7 @@
         <v>3.21499991416931</v>
       </c>
       <c r="G747" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -24065,7 +24065,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G748" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -24091,7 +24091,7 @@
         <v>3.23499989509583</v>
       </c>
       <c r="G749" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -24117,7 +24117,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G750" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -24143,7 +24143,7 @@
         <v>3.14499998092651</v>
       </c>
       <c r="G751" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -24169,7 +24169,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G752" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -24195,7 +24195,7 @@
         <v>3.03500008583069</v>
       </c>
       <c r="G753" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -24221,7 +24221,7 @@
         <v>3.14499998092651</v>
       </c>
       <c r="G754" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -24247,7 +24247,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G755" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -24273,7 +24273,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G756" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -24299,7 +24299,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G757" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -24325,7 +24325,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G758" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -24351,7 +24351,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G759" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -24377,7 +24377,7 @@
         <v>3.31500005722046</v>
       </c>
       <c r="G760" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -24403,7 +24403,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G761" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -24429,7 +24429,7 @@
         <v>3.40499997138977</v>
       </c>
       <c r="G762" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -24455,7 +24455,7 @@
         <v>3.42499995231628</v>
       </c>
       <c r="G763" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -24481,7 +24481,7 @@
         <v>3.58500003814697</v>
       </c>
       <c r="G764" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -24507,7 +24507,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G765" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -24533,7 +24533,7 @@
         <v>3.51500010490417</v>
       </c>
       <c r="G766" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -24559,7 +24559,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G767" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -24585,7 +24585,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G768" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -24611,7 +24611,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G769" t="s">
-        <v>459</v>
+        <v>558</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -26327,7 +26327,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G835" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -26405,7 +26405,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G838" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -26509,7 +26509,7 @@
         <v>3.51500010490417</v>
       </c>
       <c r="G842" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -26717,7 +26717,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G850" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -26847,7 +26847,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G855" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -26873,7 +26873,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G856" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -26899,7 +26899,7 @@
         <v>3.06500005722046</v>
       </c>
       <c r="G857" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -26951,7 +26951,7 @@
         <v>3.01500010490417</v>
       </c>
       <c r="G859" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -27029,7 +27029,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G862" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -27107,7 +27107,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G865" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -27367,7 +27367,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G875" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -28017,7 +28017,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G900" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -30981,7 +30981,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G1014" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -62085,7 +62085,7 @@
     </row>
     <row r="2211">
       <c r="A2211" s="1" t="n">
-        <v>45541.6495023148</v>
+        <v>45541.2916666667</v>
       </c>
       <c r="B2211" t="n">
         <v>113718</v>
@@ -62106,6 +62106,32 @@
         <v>1399</v>
       </c>
       <c r="H2211" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="A2212" s="1" t="n">
+        <v>45544.6493981481</v>
+      </c>
+      <c r="B2212" t="n">
+        <v>140181</v>
+      </c>
+      <c r="C2212" t="n">
+        <v>2.11999988555908</v>
+      </c>
+      <c r="D2212" t="n">
+        <v>2.08500003814697</v>
+      </c>
+      <c r="E2212" t="n">
+        <v>2.08999991416931</v>
+      </c>
+      <c r="F2212" t="n">
+        <v>2.09999990463257</v>
+      </c>
+      <c r="G2212" t="s">
+        <v>1405</v>
+      </c>
+      <c r="H2212" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CAI.MI.xlsx
+++ b/data/CAI.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07385468482971</t>
+    <t xml:space="preserve">3.07385492324829</t>
   </si>
   <si>
     <t xml:space="preserve">CAI.MI</t>
@@ -47,22 +47,22 @@
     <t xml:space="preserve">3.08614444732666</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01786708831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97690057754517</t>
+    <t xml:space="preserve">3.01786732673645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97690033912659</t>
   </si>
   <si>
     <t xml:space="preserve">2.98099756240845</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88131189346313</t>
+    <t xml:space="preserve">2.88131213188171</t>
   </si>
   <si>
     <t xml:space="preserve">2.94003081321716</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80620694160461</t>
+    <t xml:space="preserve">2.80620646476746</t>
   </si>
   <si>
     <t xml:space="preserve">2.86082863807678</t>
@@ -71,13 +71,13 @@
     <t xml:space="preserve">2.75841236114502</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73929476737976</t>
+    <t xml:space="preserve">2.73929452896118</t>
   </si>
   <si>
     <t xml:space="preserve">2.69013500213623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71744585037231</t>
+    <t xml:space="preserve">2.71744608879089</t>
   </si>
   <si>
     <t xml:space="preserve">2.866290807724</t>
@@ -86,16 +86,16 @@
     <t xml:space="preserve">2.76387453079224</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7447566986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75704669952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.710618019104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73110151290894</t>
+    <t xml:space="preserve">2.74475693702698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75704717636108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71061825752258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73110127449036</t>
   </si>
   <si>
     <t xml:space="preserve">2.76114368438721</t>
@@ -104,22 +104,22 @@
     <t xml:space="preserve">2.72563934326172</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69696307182312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72290825843811</t>
+    <t xml:space="preserve">2.69696283340454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72290802001953</t>
   </si>
   <si>
     <t xml:space="preserve">2.62868499755859</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45935654640198</t>
+    <t xml:space="preserve">2.45935702323914</t>
   </si>
   <si>
     <t xml:space="preserve">2.45799112319946</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30095291137695</t>
+    <t xml:space="preserve">2.30095338821411</t>
   </si>
   <si>
     <t xml:space="preserve">2.38971352577209</t>
@@ -128,16 +128,16 @@
     <t xml:space="preserve">2.53992438316345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50441980361938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67511391639709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81713104248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74885368347168</t>
+    <t xml:space="preserve">2.50442004203796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67511367797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81713151931763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7488534450531</t>
   </si>
   <si>
     <t xml:space="preserve">2.78162693977356</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">2.68467259407043</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86219429969788</t>
+    <t xml:space="preserve">2.8621940612793</t>
   </si>
   <si>
     <t xml:space="preserve">2.8335177898407</t>
@@ -155,19 +155,19 @@
     <t xml:space="preserve">2.84717321395874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88404273986816</t>
+    <t xml:space="preserve">2.88404297828674</t>
   </si>
   <si>
     <t xml:space="preserve">2.88540840148926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89769864082336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85126972198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94685840606689</t>
+    <t xml:space="preserve">2.89769840240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85126996040344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94685864448547</t>
   </si>
   <si>
     <t xml:space="preserve">2.9495894908905</t>
@@ -176,28 +176,28 @@
     <t xml:space="preserve">3.05883359909058</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12164926528931</t>
+    <t xml:space="preserve">3.12164878845215</t>
   </si>
   <si>
     <t xml:space="preserve">3.16124987602234</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18173289299011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20767831802368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17900204658508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17217421531677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23635482788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25001120567322</t>
+    <t xml:space="preserve">3.18173313140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20767855644226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1790018081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17217445373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23635530471802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25001096725464</t>
   </si>
   <si>
     <t xml:space="preserve">3.21040987968445</t>
@@ -209,52 +209,52 @@
     <t xml:space="preserve">3.23089289665222</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22952747344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14076662063599</t>
+    <t xml:space="preserve">3.22952723503113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14076685905457</t>
   </si>
   <si>
     <t xml:space="preserve">3.14896011352539</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22543048858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29234266281128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21587181091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30463314056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27732181549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34559917449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36608266830444</t>
+    <t xml:space="preserve">3.225430727005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29234290122986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21587228775024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30463266372681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2773220539093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34559893608093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36608219146729</t>
   </si>
   <si>
     <t xml:space="preserve">3.40704894065857</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38656520843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33330893516541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34833025932312</t>
+    <t xml:space="preserve">3.38656568527222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33330917358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34833002090454</t>
   </si>
   <si>
     <t xml:space="preserve">3.32511591911316</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32375049591064</t>
+    <t xml:space="preserve">3.32375025749207</t>
   </si>
   <si>
     <t xml:space="preserve">3.29780507087708</t>
@@ -263,28 +263,28 @@
     <t xml:space="preserve">3.2636661529541</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29097747802734</t>
+    <t xml:space="preserve">3.29097723960876</t>
   </si>
   <si>
     <t xml:space="preserve">3.26022267341614</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19182658195496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15620350837708</t>
+    <t xml:space="preserve">3.19182634353638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1562032699585</t>
   </si>
   <si>
     <t xml:space="preserve">3.13482928276062</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17330241203308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09208226203918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14907908439636</t>
+    <t xml:space="preserve">3.17330265045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09208178520203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1490786075592</t>
   </si>
   <si>
     <t xml:space="preserve">3.32291913032532</t>
@@ -293,130 +293,130 @@
     <t xml:space="preserve">3.34856796264648</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33431839942932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31151962280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38419079780579</t>
+    <t xml:space="preserve">3.3343186378479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31151986122131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38419127464294</t>
   </si>
   <si>
     <t xml:space="preserve">3.44403767585754</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41981434822083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43406343460083</t>
+    <t xml:space="preserve">3.41981410980225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43406319618225</t>
   </si>
   <si>
     <t xml:space="preserve">3.48108577728271</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47681045532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43833827972412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45116186141968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40841460227966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39844012260437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34714317321777</t>
+    <t xml:space="preserve">3.476811170578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4383385181427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45116209983826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40841484069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39844036102295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34714269638062</t>
   </si>
   <si>
     <t xml:space="preserve">3.20607566833496</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02796053886414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94246530532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8997175693512</t>
+    <t xml:space="preserve">3.02796030044556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94246506690979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89971733093262</t>
   </si>
   <si>
     <t xml:space="preserve">2.89686751365662</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06643319129944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08495736122131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13197994232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14195394515991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02938532829285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84984493255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95671415328979</t>
+    <t xml:space="preserve">3.06643271446228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08495688438416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1319797039032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14195370674133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02938508987427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84984517097473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95671439170837</t>
   </si>
   <si>
     <t xml:space="preserve">3.06500816345215</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16332840919495</t>
+    <t xml:space="preserve">3.16332793235779</t>
   </si>
   <si>
     <t xml:space="preserve">2.96526408195496</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95528888702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99233722686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12058043479919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17045211791992</t>
+    <t xml:space="preserve">2.95528936386108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9923369884491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12058019638062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17045259475708</t>
   </si>
   <si>
     <t xml:space="preserve">3.23599886894226</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17757725715637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13625407218933</t>
+    <t xml:space="preserve">3.17757701873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13625454902649</t>
   </si>
   <si>
     <t xml:space="preserve">2.83702087402344</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9196662902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86551904678345</t>
+    <t xml:space="preserve">2.91966652870178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86551928520203</t>
   </si>
   <si>
     <t xml:space="preserve">2.90399241447449</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84129548072815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87549352645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83559608459473</t>
+    <t xml:space="preserve">2.84129524230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87549328804016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83559584617615</t>
   </si>
   <si>
     <t xml:space="preserve">2.79854774475098</t>
@@ -428,34 +428,34 @@
     <t xml:space="preserve">2.7771737575531</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88546848297119</t>
+    <t xml:space="preserve">2.88546824455261</t>
   </si>
   <si>
     <t xml:space="preserve">2.87406849861145</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84272050857544</t>
+    <t xml:space="preserve">2.84272027015686</t>
   </si>
   <si>
     <t xml:space="preserve">2.87834358215332</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92821550369263</t>
+    <t xml:space="preserve">2.92821598052979</t>
   </si>
   <si>
     <t xml:space="preserve">2.92109131813049</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9410400390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86694383621216</t>
+    <t xml:space="preserve">2.94103980064392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86694431304932</t>
   </si>
   <si>
     <t xml:space="preserve">2.85839486122131</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86409425735474</t>
+    <t xml:space="preserve">2.86409449577332</t>
   </si>
   <si>
     <t xml:space="preserve">2.81707191467285</t>
@@ -479,25 +479,25 @@
     <t xml:space="preserve">2.68597888946533</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62470746040344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59478425979614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5477614402771</t>
+    <t xml:space="preserve">2.62470722198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59478378295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54776191711426</t>
   </si>
   <si>
     <t xml:space="preserve">2.58480954170227</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65605568885803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65463089942932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63610672950745</t>
+    <t xml:space="preserve">2.65605592727661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65463066101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63610649108887</t>
   </si>
   <si>
     <t xml:space="preserve">2.60333347320557</t>
@@ -512,13 +512,13 @@
     <t xml:space="preserve">2.44516682624817</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42379331588745</t>
+    <t xml:space="preserve">2.42379307746887</t>
   </si>
   <si>
     <t xml:space="preserve">2.44374203681946</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41666841506958</t>
+    <t xml:space="preserve">2.41666865348816</t>
   </si>
   <si>
     <t xml:space="preserve">2.45941638946533</t>
@@ -527,7 +527,7 @@
     <t xml:space="preserve">2.61900758743286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61045813560486</t>
+    <t xml:space="preserve">2.61045837402344</t>
   </si>
   <si>
     <t xml:space="preserve">2.54918646812439</t>
@@ -536,7 +536,7 @@
     <t xml:space="preserve">2.57910990715027</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55061149597168</t>
+    <t xml:space="preserve">2.5506112575531</t>
   </si>
   <si>
     <t xml:space="preserve">2.52353763580322</t>
@@ -545,28 +545,28 @@
     <t xml:space="preserve">2.57341003417969</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64465594291687</t>
+    <t xml:space="preserve">2.64465618133545</t>
   </si>
   <si>
     <t xml:space="preserve">2.69310355186462</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64038157463074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63895702362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62898182868958</t>
+    <t xml:space="preserve">2.64038181304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63895630836487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62898206710815</t>
   </si>
   <si>
     <t xml:space="preserve">2.63325691223145</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67172956466675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74867534637451</t>
+    <t xml:space="preserve">2.67172980308533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74867558479309</t>
   </si>
   <si>
     <t xml:space="preserve">2.73727607727051</t>
@@ -584,10 +584,10 @@
     <t xml:space="preserve">2.70735263824463</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65178084373474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66887998580933</t>
+    <t xml:space="preserve">2.65178060531616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66887974739075</t>
   </si>
   <si>
     <t xml:space="preserve">2.63753151893616</t>
@@ -596,7 +596,7 @@
     <t xml:space="preserve">2.65748047828674</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56486034393311</t>
+    <t xml:space="preserve">2.56486082077026</t>
   </si>
   <si>
     <t xml:space="preserve">2.52211284637451</t>
@@ -605,7 +605,7 @@
     <t xml:space="preserve">2.51498818397522</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41524386405945</t>
+    <t xml:space="preserve">2.41524362564087</t>
   </si>
   <si>
     <t xml:space="preserve">2.43234300613403</t>
@@ -614,97 +614,97 @@
     <t xml:space="preserve">2.43661761283875</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39386963844299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39244508743286</t>
+    <t xml:space="preserve">2.39386987686157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39244484901428</t>
   </si>
   <si>
     <t xml:space="preserve">2.45799136161804</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35112190246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42236828804016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53066253662109</t>
+    <t xml:space="preserve">2.3511221408844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42236804962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53066229820251</t>
   </si>
   <si>
     <t xml:space="preserve">2.57768487930298</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58908414840698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63468170166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69595336914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68027949333191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69167852401733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69737839698792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74012565612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74297571182251</t>
+    <t xml:space="preserve">2.58908438682556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63468194007874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6959536075592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68027925491333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69167876243591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69737863540649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74012589454651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74297547340393</t>
   </si>
   <si>
     <t xml:space="preserve">2.72445178031921</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72302675247192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72872686386108</t>
+    <t xml:space="preserve">2.7230269908905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7287266254425</t>
   </si>
   <si>
     <t xml:space="preserve">2.76434969902039</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75152540206909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7558000087738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7116277217865</t>
+    <t xml:space="preserve">2.75152587890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75580024719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71162748336792</t>
   </si>
   <si>
     <t xml:space="preserve">2.69025373458862</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65035581588745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60760855674744</t>
+    <t xml:space="preserve">2.65035557746887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60760807991028</t>
   </si>
   <si>
     <t xml:space="preserve">2.58338451385498</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5534610748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5206880569458</t>
+    <t xml:space="preserve">2.55346131324768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52068781852722</t>
   </si>
   <si>
     <t xml:space="preserve">2.60618329048157</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56058597564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54491186141968</t>
+    <t xml:space="preserve">2.56058573722839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5449116230011</t>
   </si>
   <si>
     <t xml:space="preserve">2.54063677787781</t>
@@ -713,67 +713,67 @@
     <t xml:space="preserve">2.50501394271851</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49788904190063</t>
+    <t xml:space="preserve">2.49788928031921</t>
   </si>
   <si>
     <t xml:space="preserve">2.50643849372864</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53351211547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57626008987427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60048389434814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59193420410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58195948600769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55916118621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58623456954956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53636169433594</t>
+    <t xml:space="preserve">2.53351235389709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57625961303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60048365592957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59193396568298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58195972442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55916094779968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58623433113098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5363621711731</t>
   </si>
   <si>
     <t xml:space="preserve">2.48506474494934</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54348683357239</t>
+    <t xml:space="preserve">2.54348659515381</t>
   </si>
   <si>
     <t xml:space="preserve">2.68740391731262</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69452834129333</t>
+    <t xml:space="preserve">2.69452857971191</t>
   </si>
   <si>
     <t xml:space="preserve">2.75722503662109</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7714741230011</t>
+    <t xml:space="preserve">2.77147436141968</t>
   </si>
   <si>
     <t xml:space="preserve">2.79712295532227</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78857326507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79997277259827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83132100105286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9054172039032</t>
+    <t xml:space="preserve">2.78857350349426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79997253417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83132076263428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90541696548462</t>
   </si>
   <si>
     <t xml:space="preserve">3.03508496284485</t>
@@ -782,10 +782,10 @@
     <t xml:space="preserve">3.06215834617615</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15477800369263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29727029800415</t>
+    <t xml:space="preserve">3.15477824211121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29727053642273</t>
   </si>
   <si>
     <t xml:space="preserve">3.25737309455872</t>
@@ -803,49 +803,49 @@
     <t xml:space="preserve">3.16047811508179</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21890020370483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22175002098083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27589678764343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28159689903259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26877188682556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23172426223755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1291298866272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19610142707825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10063195228577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19752597808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23884892463684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22602486610413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29157066345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32576894760132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28302145004272</t>
+    <t xml:space="preserve">3.21889996528625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22174978256226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27589702606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28159642219543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26877212524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23172402381897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12913012504578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19610071182251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10063147544861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1975257396698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23884868621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22602438926697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29157090187073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3257691860199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28302121162415</t>
   </si>
   <si>
     <t xml:space="preserve">3.31864476203918</t>
@@ -854,73 +854,73 @@
     <t xml:space="preserve">3.34001851081848</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39558982849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35569262504578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23457384109497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27019715309143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08923196792603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06358313560486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17489004135132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09706687927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11147832870483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13886070251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14462518692017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11003732681274</t>
+    <t xml:space="preserve">3.39559030532837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35569286346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23457407951355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27019739151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0892322063446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06358337402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1748902797699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09706664085388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11147880554199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13886046409607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14462542533875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1100378036499</t>
   </si>
   <si>
     <t xml:space="preserve">3.11868453025818</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07112622261047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03797912597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04806709289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99762630462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00627326965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97745013237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91836214065552</t>
+    <t xml:space="preserve">3.07112574577332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03797888755798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04806733131409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99762606620789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00627303123474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97744989395142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9183623790741</t>
   </si>
   <si>
     <t xml:space="preserve">2.8722448348999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90395092964172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89098000526428</t>
+    <t xml:space="preserve">2.90395069122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89098024368286</t>
   </si>
   <si>
     <t xml:space="preserve">2.87512707710266</t>
@@ -932,13 +932,13 @@
     <t xml:space="preserve">2.92700886726379</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9068329334259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86936283111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87800931930542</t>
+    <t xml:space="preserve">2.90683269500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86936259269714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.878009557724</t>
   </si>
   <si>
     <t xml:space="preserve">2.85783314704895</t>
@@ -956,7 +956,7 @@
     <t xml:space="preserve">2.79298043251038</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76415729522705</t>
+    <t xml:space="preserve">2.76415753364563</t>
   </si>
   <si>
     <t xml:space="preserve">2.81027460098267</t>
@@ -968,31 +968,31 @@
     <t xml:space="preserve">2.79153966903687</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72956919670105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75262808799744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75983357429504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74686336517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95439124107361</t>
+    <t xml:space="preserve">2.72956943511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75262832641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75983381271362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74686312675476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95439147949219</t>
   </si>
   <si>
     <t xml:space="preserve">2.92124462127686</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92845034599304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92556810379028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83189225196838</t>
+    <t xml:space="preserve">2.92845058441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9255678653717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8318920135498</t>
   </si>
   <si>
     <t xml:space="preserve">2.84342169761658</t>
@@ -1001,19 +1001,19 @@
     <t xml:space="preserve">2.80450987815857</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83045077323914</t>
+    <t xml:space="preserve">2.83045101165771</t>
   </si>
   <si>
     <t xml:space="preserve">2.82612729072571</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78865694999695</t>
+    <t xml:space="preserve">2.78865718841553</t>
   </si>
   <si>
     <t xml:space="preserve">2.80739212036133</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80883359909058</t>
+    <t xml:space="preserve">2.808833360672</t>
   </si>
   <si>
     <t xml:space="preserve">2.84053921699524</t>
@@ -1025,67 +1025,67 @@
     <t xml:space="preserve">2.86503911018372</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87656879425049</t>
+    <t xml:space="preserve">2.87656855583191</t>
   </si>
   <si>
     <t xml:space="preserve">2.90827369689941</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83909821510315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73821663856506</t>
+    <t xml:space="preserve">2.83909797668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73821616172791</t>
   </si>
   <si>
     <t xml:space="preserve">2.7555103302002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76848101615906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70218753814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72668695449829</t>
+    <t xml:space="preserve">2.76848077774048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70218729972839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72668719291687</t>
   </si>
   <si>
     <t xml:space="preserve">2.71371650695801</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72524571418762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68056964874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67480516433716</t>
+    <t xml:space="preserve">2.7252459526062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6805694103241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67480492591858</t>
   </si>
   <si>
     <t xml:space="preserve">2.67336392402649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65895199775696</t>
+    <t xml:space="preserve">2.65895223617554</t>
   </si>
   <si>
     <t xml:space="preserve">2.67624616622925</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75406908988953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79442191123962</t>
+    <t xml:space="preserve">2.75406932830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79442167282104</t>
   </si>
   <si>
     <t xml:space="preserve">2.79874539375305</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74542236328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78577470779419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92268586158752</t>
+    <t xml:space="preserve">2.74542212486267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78577494621277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9226861000061</t>
   </si>
   <si>
     <t xml:space="preserve">3.0250084400177</t>
@@ -1103,19 +1103,19 @@
     <t xml:space="preserve">3.12156629562378</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17056632041931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14174294471741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13597869873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09850811958313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05671405792236</t>
+    <t xml:space="preserve">3.17056608200073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14174318313599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13597846031189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09850788116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05671429634094</t>
   </si>
   <si>
     <t xml:space="preserve">3.07689046859741</t>
@@ -1124,43 +1124,43 @@
     <t xml:space="preserve">3.08409643173218</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07400798797607</t>
+    <t xml:space="preserve">3.07400822639465</t>
   </si>
   <si>
     <t xml:space="preserve">3.04086112976074</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05383157730103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17921328544617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12589001655579</t>
+    <t xml:space="preserve">3.0538318157196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17921352386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12589025497437</t>
   </si>
   <si>
     <t xml:space="preserve">3.05527281761169</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07977294921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14894843101501</t>
+    <t xml:space="preserve">3.07977318763733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14894866943359</t>
   </si>
   <si>
     <t xml:space="preserve">3.16191935539246</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14750742912292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09994912147522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13453698158264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15903663635254</t>
+    <t xml:space="preserve">3.1475076675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09994888305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13453674316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15903687477112</t>
   </si>
   <si>
     <t xml:space="preserve">3.15471315383911</t>
@@ -1169,43 +1169,43 @@
     <t xml:space="preserve">3.12877249717712</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11580204963684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10427284240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12012529373169</t>
+    <t xml:space="preserve">3.11580181121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10427260398865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12012505531311</t>
   </si>
   <si>
     <t xml:space="preserve">3.05815505981445</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00483226776123</t>
+    <t xml:space="preserve">3.00483202934265</t>
   </si>
   <si>
     <t xml:space="preserve">2.97168564796448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7843337059021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82180380821228</t>
+    <t xml:space="preserve">2.78433418273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82180404663086</t>
   </si>
   <si>
     <t xml:space="preserve">2.86792135238647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89674472808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88233280181885</t>
+    <t xml:space="preserve">2.89674496650696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88233304023743</t>
   </si>
   <si>
     <t xml:space="preserve">2.85062742233276</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82900977134705</t>
+    <t xml:space="preserve">2.82901000976562</t>
   </si>
   <si>
     <t xml:space="preserve">2.82324528694153</t>
@@ -1220,13 +1220,13 @@
     <t xml:space="preserve">2.70506954193115</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71227550506592</t>
+    <t xml:space="preserve">2.71227502822876</t>
   </si>
   <si>
     <t xml:space="preserve">2.65606999397278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69858431816101</t>
+    <t xml:space="preserve">2.69858407974243</t>
   </si>
   <si>
     <t xml:space="preserve">2.76703977584839</t>
@@ -1238,19 +1238,19 @@
     <t xml:space="preserve">2.72740769386292</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69498133659363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7346134185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70579028129578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7310106754303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72020196914673</t>
+    <t xml:space="preserve">2.69498157501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73461365699768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7057900428772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73101043701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72020220756531</t>
   </si>
   <si>
     <t xml:space="preserve">2.79226016998291</t>
@@ -1259,7 +1259,7 @@
     <t xml:space="preserve">2.84630393981934</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77424550056458</t>
+    <t xml:space="preserve">2.774245262146</t>
   </si>
   <si>
     <t xml:space="preserve">2.77064275741577</t>
@@ -1268,7 +1268,7 @@
     <t xml:space="preserve">2.70939302444458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74181914329529</t>
+    <t xml:space="preserve">2.74181938171387</t>
   </si>
   <si>
     <t xml:space="preserve">2.71299576759338</t>
@@ -1277,10 +1277,10 @@
     <t xml:space="preserve">2.63373160362244</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62652587890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64093732833862</t>
+    <t xml:space="preserve">2.62652611732483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6409375667572</t>
   </si>
   <si>
     <t xml:space="preserve">2.65534925460815</t>
@@ -1292,61 +1292,61 @@
     <t xml:space="preserve">2.58689379692078</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5724823474884</t>
+    <t xml:space="preserve">2.57248210906982</t>
   </si>
   <si>
     <t xml:space="preserve">2.57968807220459</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55807042121887</t>
+    <t xml:space="preserve">2.55807065963745</t>
   </si>
   <si>
     <t xml:space="preserve">2.56167364120483</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55086493492126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5688796043396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43557167053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37432193756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30946946144104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39593935012817</t>
+    <t xml:space="preserve">2.55086469650269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56887936592102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43557143211365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37432217597961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30946922302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39593958854675</t>
   </si>
   <si>
     <t xml:space="preserve">2.41755676269531</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41395401954651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36351299285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35991024971008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29505753517151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4499831199646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35270428657532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52204132080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42836546897888</t>
+    <t xml:space="preserve">2.41395378112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36351323127747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35991048812866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29505777359009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44998288154602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35270404815674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52204155921936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42836570739746</t>
   </si>
   <si>
     <t xml:space="preserve">2.44637989997864</t>
@@ -1358,10 +1358,10 @@
     <t xml:space="preserve">2.50762963294983</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59409952163696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56527614593506</t>
+    <t xml:space="preserve">2.59409999847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56527638435364</t>
   </si>
   <si>
     <t xml:space="preserve">2.63012886047363</t>
@@ -1370,16 +1370,16 @@
     <t xml:space="preserve">2.65174651145935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62292289733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60130572319031</t>
+    <t xml:space="preserve">2.62292313575745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60130548477173</t>
   </si>
   <si>
     <t xml:space="preserve">2.60851144790649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63733506202698</t>
+    <t xml:space="preserve">2.63733458518982</t>
   </si>
   <si>
     <t xml:space="preserve">2.68417263031006</t>
@@ -1391,7 +1391,7 @@
     <t xml:space="preserve">2.69137835502625</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67696666717529</t>
+    <t xml:space="preserve">2.67696690559387</t>
   </si>
   <si>
     <t xml:space="preserve">2.73281192779541</t>
@@ -1406,22 +1406,22 @@
     <t xml:space="preserve">2.48841404914856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.403244972229</t>
+    <t xml:space="preserve">2.40324521064758</t>
   </si>
   <si>
     <t xml:space="preserve">2.43657231330872</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45879030227661</t>
+    <t xml:space="preserve">2.45879006385803</t>
   </si>
   <si>
     <t xml:space="preserve">2.39213633537292</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40694832801819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36991834640503</t>
+    <t xml:space="preserve">2.40694808959961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36991810798645</t>
   </si>
   <si>
     <t xml:space="preserve">2.29956150054932</t>
@@ -1433,16 +1433,16 @@
     <t xml:space="preserve">2.32548236846924</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37732410430908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38843297958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4291660785675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41805720329285</t>
+    <t xml:space="preserve">2.37732434272766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38843321800232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42916631698608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41805696487427</t>
   </si>
   <si>
     <t xml:space="preserve">2.46989917755127</t>
@@ -1451,28 +1451,28 @@
     <t xml:space="preserve">2.50322604179382</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52174115180969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53285002708435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57728576660156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52544403076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45508742332458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58098912239075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54395890235901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4736020565033</t>
+    <t xml:space="preserve">2.52174091339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53285026550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57728600502014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5254442691803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45508718490601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58098888397217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54395914077759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47360229492188</t>
   </si>
   <si>
     <t xml:space="preserve">2.44768118858337</t>
@@ -1481,7 +1481,7 @@
     <t xml:space="preserve">2.53655290603638</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47730541229248</t>
+    <t xml:space="preserve">2.4773051738739</t>
   </si>
   <si>
     <t xml:space="preserve">2.51433491706848</t>
@@ -1490,10 +1490,10 @@
     <t xml:space="preserve">2.48100805282593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46619606018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39583897590637</t>
+    <t xml:space="preserve">2.46619629859924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39583921432495</t>
   </si>
   <si>
     <t xml:space="preserve">2.41065120697021</t>
@@ -1505,7 +1505,7 @@
     <t xml:space="preserve">2.36621522903442</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34399700164795</t>
+    <t xml:space="preserve">2.34399724006653</t>
   </si>
   <si>
     <t xml:space="preserve">2.35880923271179</t>
@@ -1514,7 +1514,7 @@
     <t xml:space="preserve">2.35510611534119</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36251211166382</t>
+    <t xml:space="preserve">2.3625123500824</t>
   </si>
   <si>
     <t xml:space="preserve">2.30696749687195</t>
@@ -1523,373 +1523,373 @@
     <t xml:space="preserve">2.3106701374054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32177925109863</t>
+    <t xml:space="preserve">2.32177901268005</t>
   </si>
   <si>
     <t xml:space="preserve">2.39954209327698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38102722167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41435408592224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37362122535706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31807613372803</t>
+    <t xml:space="preserve">2.38102698326111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41435432434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37362098693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31807637214661</t>
   </si>
   <si>
     <t xml:space="preserve">2.29585838317871</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28104639053345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26993727684021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30326437950134</t>
+    <t xml:space="preserve">2.28104615211487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26993751525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30326414108276</t>
   </si>
   <si>
     <t xml:space="preserve">2.32918524742126</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27734351158142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2662341594696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29215526580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27364015579224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28845238685608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28474950790405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38473033905029</t>
+    <t xml:space="preserve">2.27734327316284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26623439788818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29215550422668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27364039421082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2884521484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28474926948547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38473010063171</t>
   </si>
   <si>
     <t xml:space="preserve">2.20698618888855</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24031329154968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15514445304871</t>
+    <t xml:space="preserve">2.24031352996826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15514421463013</t>
   </si>
   <si>
     <t xml:space="preserve">2.13292646408081</t>
   </si>
   <si>
+    <t xml:space="preserve">2.1477382183075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10330247879028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09959959983826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08849024772644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10700535774231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0625696182251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98850929737091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95147931575775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02553939819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06627249717712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04775738716125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06997561454773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12922358512878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14403510093689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13662934303284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18847131729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21439242362976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23290729522705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25512528419495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20328307151794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1995804309845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21809506416321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11811447143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07367849349976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11070847511292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24771952629089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3365912437439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51063203811646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65504908561707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68096995353699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60320734977722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62912821769714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6661581993103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65875196456909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65134596824646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62542510032654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71799993515015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70318794250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7291088104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69207906723022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71429681777954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75502967834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8031690120697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81798100471497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84390187263489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87352585792542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86241698265076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88093185424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76243591308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76984214782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7994658946991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79205989837646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81427764892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79576325416565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75873303413391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85871386528015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90314984321594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89574384689331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90685272216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88833785057068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.962397813797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98091268539429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91796183586121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94758582115173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95128870010376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9364767074585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95499157905579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93277382850647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91055560112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96980381011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97721004486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9401798248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89944672584534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81057500839233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86611986160278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80687189102173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83279299736023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85501098632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71059393882751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70689082145691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61061310768127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6402370929718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6365339756012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63283109664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61801910400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69578194618225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68837594985962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6143159866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56988024711609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49211740493774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50692892074585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34770011901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23661041259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18476819992065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19587731361389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29948091506958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2177734375</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.14773845672607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10330247879028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09959936141968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08849048614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10700559616089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06256985664368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98850953578949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95147931575775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02553915977478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06627249717712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04775738716125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06997537612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12922358512878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14403510093689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13662934303284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18847131729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21439242362976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23290753364563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25512552261353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20328330993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1995804309845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21809530258179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11811423301697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07367849349976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11070823669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24771928787231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33659100532532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51063203811646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65504884719849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68096995353699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60320734977722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62912797927856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65875196456909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65134596824646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62542533874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71799993515015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70318794250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72910857200623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69207906723022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71429681777954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75502991676331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8031690120697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81798076629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84390187263489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87352585792542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86241674423218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88093185424805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76243615150452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76984190940857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7994658946991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79205965995789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81427764892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79576301574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75873279571533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85871386528015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90314984321594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89574384689331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90685272216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8883376121521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96239757537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98091292381287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91796183586121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94758558273315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95128870010376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9364767074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95499181747437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93277406692505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91055583953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96980381011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97721004486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94017958641052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89944672584534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81057476997375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86611986160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80687189102173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83279299736023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85501098632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71059393882751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70689058303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61061310768127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6402370929718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6365339756012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63283109664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61801910400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69578194618225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68467283248901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68837594985962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61431622505188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56988000869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49211692810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50692892074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34770035743713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23661041259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18476819992065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19587707519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.299480676651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21777319908142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1477382183075</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.10883021354675</t>
   </si>
   <si>
     <t xml:space="preserve">2.12439346313477</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0893759727478</t>
+    <t xml:space="preserve">2.08937573432922</t>
   </si>
   <si>
     <t xml:space="preserve">2.10104846954346</t>
@@ -1907,10 +1907,10 @@
     <t xml:space="preserve">2.13995671272278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12828397750854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07770371437073</t>
+    <t xml:space="preserve">2.12828421592712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07770347595215</t>
   </si>
   <si>
     <t xml:space="preserve">2.0504674911499</t>
@@ -1922,7 +1922,7 @@
     <t xml:space="preserve">2.03490447998047</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05435848236084</t>
+    <t xml:space="preserve">2.05435872077942</t>
   </si>
   <si>
     <t xml:space="preserve">2.03101372718811</t>
@@ -1937,7 +1937,7 @@
     <t xml:space="preserve">2.04268598556519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22944569587708</t>
+    <t xml:space="preserve">2.22944593429565</t>
   </si>
   <si>
     <t xml:space="preserve">2.18664693832397</t>
@@ -1946,7 +1946,7 @@
     <t xml:space="preserve">1.9687602519989</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00377774238586</t>
+    <t xml:space="preserve">2.00377798080444</t>
   </si>
   <si>
     <t xml:space="preserve">1.92985188961029</t>
@@ -1961,7 +1961,7 @@
     <t xml:space="preserve">1.84425377845764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79367291927338</t>
+    <t xml:space="preserve">1.79367303848267</t>
   </si>
   <si>
     <t xml:space="preserve">1.76643705368042</t>
@@ -1970,7 +1970,7 @@
     <t xml:space="preserve">1.80923628807068</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75087380409241</t>
+    <t xml:space="preserve">1.75087368488312</t>
   </si>
   <si>
     <t xml:space="preserve">1.74698281288147</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">1.82090866565704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73920106887817</t>
+    <t xml:space="preserve">1.73920118808746</t>
   </si>
   <si>
     <t xml:space="preserve">1.7430921792984</t>
@@ -1994,7 +1994,7 @@
     <t xml:space="preserve">1.69640207290649</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71196532249451</t>
+    <t xml:space="preserve">1.7119654417038</t>
   </si>
   <si>
     <t xml:space="preserve">1.7197470664978</t>
@@ -2012,13 +2012,13 @@
     <t xml:space="preserve">1.71585619449615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7353104352951</t>
+    <t xml:space="preserve">1.73531031608582</t>
   </si>
   <si>
     <t xml:space="preserve">1.78200042247772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83258140087128</t>
+    <t xml:space="preserve">1.83258128166199</t>
   </si>
   <si>
     <t xml:space="preserve">1.80145454406738</t>
@@ -2030,7 +2030,7 @@
     <t xml:space="preserve">1.85592603683472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83647191524506</t>
+    <t xml:space="preserve">1.83647203445435</t>
   </si>
   <si>
     <t xml:space="preserve">1.87927103042603</t>
@@ -2042,13 +2042,13 @@
     <t xml:space="preserve">1.77032804489136</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82869029045105</t>
+    <t xml:space="preserve">1.82869040966034</t>
   </si>
   <si>
     <t xml:space="preserve">1.75476467609406</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75865530967712</t>
+    <t xml:space="preserve">1.75865542888641</t>
   </si>
   <si>
     <t xml:space="preserve">1.76254630088806</t>
@@ -2060,16 +2060,16 @@
     <t xml:space="preserve">1.81701803207397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82479965686798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91428875923157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93374276161194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89094352722168</t>
+    <t xml:space="preserve">1.82479953765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91428852081299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93374252319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89094376564026</t>
   </si>
   <si>
     <t xml:space="preserve">1.87538015842438</t>
@@ -2078,13 +2078,13 @@
     <t xml:space="preserve">1.90650689601898</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89483416080475</t>
+    <t xml:space="preserve">1.89483439922333</t>
   </si>
   <si>
     <t xml:space="preserve">1.85981714725494</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92207026481628</t>
+    <t xml:space="preserve">1.92207050323486</t>
   </si>
   <si>
     <t xml:space="preserve">2.01155948638916</t>
@@ -2105,7 +2105,7 @@
     <t xml:space="preserve">2.13217520713806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2099916934967</t>
+    <t xml:space="preserve">2.20999193191528</t>
   </si>
   <si>
     <t xml:space="preserve">2.19053769111633</t>
@@ -2117,7 +2117,7 @@
     <t xml:space="preserve">2.19831943511963</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17108345031738</t>
+    <t xml:space="preserve">2.1710832118988</t>
   </si>
   <si>
     <t xml:space="preserve">2.14384770393372</t>
@@ -2129,16 +2129,16 @@
     <t xml:space="preserve">2.08548521995544</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01545023918152</t>
+    <t xml:space="preserve">2.01545000076294</t>
   </si>
   <si>
     <t xml:space="preserve">1.98821449279785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15941119194031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13606572151184</t>
+    <t xml:space="preserve">2.15941095352173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13606595993042</t>
   </si>
   <si>
     <t xml:space="preserve">2.01934123039246</t>
@@ -2150,7 +2150,7 @@
     <t xml:space="preserve">1.91039776802063</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92596101760864</t>
+    <t xml:space="preserve">1.92596089839935</t>
   </si>
   <si>
     <t xml:space="preserve">1.89872527122498</t>
@@ -2177,7 +2177,7 @@
     <t xml:space="preserve">1.68862044811249</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62636709213257</t>
+    <t xml:space="preserve">1.62636697292328</t>
   </si>
   <si>
     <t xml:space="preserve">1.59524047374725</t>
@@ -2186,7 +2186,7 @@
     <t xml:space="preserve">1.54232513904572</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48940992355347</t>
+    <t xml:space="preserve">1.48941004276276</t>
   </si>
   <si>
     <t xml:space="preserve">1.45361435413361</t>
@@ -2201,7 +2201,7 @@
     <t xml:space="preserve">1.27619230747223</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09098875522614</t>
+    <t xml:space="preserve">1.09098887443542</t>
   </si>
   <si>
     <t xml:space="preserve">1.16102373600006</t>
@@ -2225,7 +2225,7 @@
     <t xml:space="preserve">1.31976974010468</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32910764217377</t>
+    <t xml:space="preserve">1.32910776138306</t>
   </si>
   <si>
     <t xml:space="preserve">1.35400891304016</t>
@@ -2249,7 +2249,7 @@
     <t xml:space="preserve">1.29331207275391</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39291727542877</t>
+    <t xml:space="preserve">1.39291739463806</t>
   </si>
   <si>
     <t xml:space="preserve">1.36179077625275</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">1.26062905788422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29642462730408</t>
+    <t xml:space="preserve">1.29642474651337</t>
   </si>
   <si>
     <t xml:space="preserve">1.29798102378845</t>
@@ -2273,7 +2273,7 @@
     <t xml:space="preserve">1.31354439258575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29175579547882</t>
+    <t xml:space="preserve">1.29175567626953</t>
   </si>
   <si>
     <t xml:space="preserve">1.28241777420044</t>
@@ -2288,7 +2288,7 @@
     <t xml:space="preserve">1.24350941181183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20927023887634</t>
+    <t xml:space="preserve">1.20927011966705</t>
   </si>
   <si>
     <t xml:space="preserve">1.17503082752228</t>
@@ -2300,16 +2300,16 @@
     <t xml:space="preserve">1.10343945026398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10499584674835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08631992340088</t>
+    <t xml:space="preserve">1.10499596595764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08631980419159</t>
   </si>
   <si>
     <t xml:space="preserve">1.05674970149994</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06764388084412</t>
+    <t xml:space="preserve">1.06764376163483</t>
   </si>
   <si>
     <t xml:space="preserve">1.12211561203003</t>
@@ -2324,10 +2324,10 @@
     <t xml:space="preserve">1.15012955665588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13923513889313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19837582111359</t>
+    <t xml:space="preserve">1.13923525810242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1983757019043</t>
   </si>
   <si>
     <t xml:space="preserve">1.2450658082962</t>
@@ -2342,25 +2342,25 @@
     <t xml:space="preserve">1.28708684444427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27930498123169</t>
+    <t xml:space="preserve">1.27930510044098</t>
   </si>
   <si>
     <t xml:space="preserve">1.17969977855682</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1641366481781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23572778701782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20615756511688</t>
+    <t xml:space="preserve">1.16413652896881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23572790622711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20615744590759</t>
   </si>
   <si>
     <t xml:space="preserve">1.20771384239197</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18748140335083</t>
+    <t xml:space="preserve">1.18748152256012</t>
   </si>
   <si>
     <t xml:space="preserve">1.21082639694214</t>
@@ -2372,7 +2372,7 @@
     <t xml:space="preserve">1.18592512607574</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13612246513367</t>
+    <t xml:space="preserve">1.13612258434296</t>
   </si>
   <si>
     <t xml:space="preserve">1.15791118144989</t>
@@ -2399,7 +2399,7 @@
     <t xml:space="preserve">1.15168583393097</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17191815376282</t>
+    <t xml:space="preserve">1.17191827297211</t>
   </si>
   <si>
     <t xml:space="preserve">1.1656928062439</t>
@@ -2423,16 +2423,16 @@
     <t xml:space="preserve">1.08320713043213</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06297492980957</t>
+    <t xml:space="preserve">1.06297504901886</t>
   </si>
   <si>
     <t xml:space="preserve">1.04896783828735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0941014289856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07075667381287</t>
+    <t xml:space="preserve">1.09410154819489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07075655460358</t>
   </si>
   <si>
     <t xml:space="preserve">1.09721422195435</t>
@@ -2450,7 +2450,7 @@
     <t xml:space="preserve">1.03962993621826</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04118621349335</t>
+    <t xml:space="preserve">1.04118633270264</t>
   </si>
   <si>
     <t xml:space="preserve">1.03340458869934</t>
@@ -2462,7 +2462,7 @@
     <t xml:space="preserve">1.03651738166809</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02251029014587</t>
+    <t xml:space="preserve">1.02251017093658</t>
   </si>
   <si>
     <t xml:space="preserve">0.996052622795105</t>
@@ -2471,34 +2471,34 @@
     <t xml:space="preserve">1.01628482341766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00850319862366</t>
+    <t xml:space="preserve">1.00850331783295</t>
   </si>
   <si>
     <t xml:space="preserve">1.01005959510803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00072169303894</t>
+    <t xml:space="preserve">1.00072157382965</t>
   </si>
   <si>
     <t xml:space="preserve">0.991383612155914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966482162475586</t>
+    <t xml:space="preserve">0.966482281684875</t>
   </si>
   <si>
     <t xml:space="preserve">0.964925944805145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.958700597286224</t>
+    <t xml:space="preserve">0.95870053768158</t>
   </si>
   <si>
     <t xml:space="preserve">0.954031646251678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975820183753967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.989827275276184</t>
+    <t xml:space="preserve">0.975820302963257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.989827215671539</t>
   </si>
   <si>
     <t xml:space="preserve">0.969595074653625</t>
@@ -2507,28 +2507,28 @@
     <t xml:space="preserve">0.949362635612488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.968038618564606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.957144379615784</t>
+    <t xml:space="preserve">0.968038499355316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.957144260406494</t>
   </si>
   <si>
     <t xml:space="preserve">0.980489313602448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999165177345276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06453132629395</t>
+    <t xml:space="preserve">0.999165296554565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06453120708466</t>
   </si>
   <si>
     <t xml:space="preserve">1.05830585956573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02406656742096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988270878791809</t>
+    <t xml:space="preserve">1.02406668663025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988270938396454</t>
   </si>
   <si>
     <t xml:space="preserve">0.985158324241638</t>
@@ -2537,13 +2537,13 @@
     <t xml:space="preserve">0.941580951213837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933799266815186</t>
+    <t xml:space="preserve">0.933799386024475</t>
   </si>
   <si>
     <t xml:space="preserve">0.904228985309601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879327654838562</t>
+    <t xml:space="preserve">0.879327714443207</t>
   </si>
   <si>
     <t xml:space="preserve">0.887109339237213</t>
@@ -2552,16 +2552,16 @@
     <t xml:space="preserve">0.888665616512299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891778349876404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.835750460624695</t>
+    <t xml:space="preserve">0.891778290271759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83575040102005</t>
   </si>
   <si>
     <t xml:space="preserve">0.80306738615036</t>
   </si>
   <si>
-    <t xml:space="preserve">0.787504076957703</t>
+    <t xml:space="preserve">0.787504017353058</t>
   </si>
   <si>
     <t xml:space="preserve">0.829525053501129</t>
@@ -2573,13 +2573,13 @@
     <t xml:space="preserve">0.840419411659241</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826412439346313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817074298858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866877019405365</t>
+    <t xml:space="preserve">0.826412379741669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817074358463287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86687707901001</t>
   </si>
   <si>
     <t xml:space="preserve">0.89644730091095</t>
@@ -2597,7 +2597,7 @@
     <t xml:space="preserve">0.977376639842987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.963369607925415</t>
+    <t xml:space="preserve">0.963369727134705</t>
   </si>
   <si>
     <t xml:space="preserve">0.983601987361908</t>
@@ -2606,19 +2606,19 @@
     <t xml:space="preserve">0.978933095932007</t>
   </si>
   <si>
-    <t xml:space="preserve">0.929130375385284</t>
+    <t xml:space="preserve">0.929130256175995</t>
   </si>
   <si>
     <t xml:space="preserve">0.961813271045685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946249961853027</t>
+    <t xml:space="preserve">0.946250081062317</t>
   </si>
   <si>
     <t xml:space="preserve">0.943137288093567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.930686593055725</t>
+    <t xml:space="preserve">0.930686712265015</t>
   </si>
   <si>
     <t xml:space="preserve">0.952475309371948</t>
@@ -2627,7 +2627,7 @@
     <t xml:space="preserve">0.927574038505554</t>
   </si>
   <si>
-    <t xml:space="preserve">0.926017701625824</t>
+    <t xml:space="preserve">0.926017582416534</t>
   </si>
   <si>
     <t xml:space="preserve">0.935355722904205</t>
@@ -2639,7 +2639,7 @@
     <t xml:space="preserve">0.947806417942047</t>
   </si>
   <si>
-    <t xml:space="preserve">0.919792354106903</t>
+    <t xml:space="preserve">0.919792413711548</t>
   </si>
   <si>
     <t xml:space="preserve">0.913567066192627</t>
@@ -2648,13 +2648,13 @@
     <t xml:space="preserve">0.907341659069061</t>
   </si>
   <si>
-    <t xml:space="preserve">0.916679620742798</t>
+    <t xml:space="preserve">0.916679680347443</t>
   </si>
   <si>
     <t xml:space="preserve">0.89955997467041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.918235957622528</t>
+    <t xml:space="preserve">0.918236017227173</t>
   </si>
   <si>
     <t xml:space="preserve">0.908897936344147</t>
@@ -2672,10 +2672,10 @@
     <t xml:space="preserve">1.01784121990204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05363702774048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13767874240875</t>
+    <t xml:space="preserve">1.05363690853119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13767886161804</t>
   </si>
   <si>
     <t xml:space="preserve">1.15946745872498</t>
@@ -2684,7 +2684,7 @@
     <t xml:space="preserve">1.12989723682404</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10032689571381</t>
+    <t xml:space="preserve">1.10032677650452</t>
   </si>
   <si>
     <t xml:space="preserve">1.09877049922943</t>
@@ -2708,10 +2708,10 @@
     <t xml:space="preserve">1.31198799610138</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25907289981842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.246621966362</t>
+    <t xml:space="preserve">1.25907278060913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24662208557129</t>
   </si>
   <si>
     <t xml:space="preserve">1.25284743309021</t>
@@ -2723,19 +2723,19 @@
     <t xml:space="preserve">1.22638976573944</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23105883598328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2699670791626</t>
+    <t xml:space="preserve">1.23105871677399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26996695995331</t>
   </si>
   <si>
     <t xml:space="preserve">1.25751638412476</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26841068267822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27307975292206</t>
+    <t xml:space="preserve">1.26841080188751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27307963371277</t>
   </si>
   <si>
     <t xml:space="preserve">1.36023437976837</t>
@@ -2759,7 +2759,7 @@
     <t xml:space="preserve">1.39447379112244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38980460166931</t>
+    <t xml:space="preserve">1.3898047208786</t>
   </si>
   <si>
     <t xml:space="preserve">1.39758634567261</t>
@@ -2771,13 +2771,13 @@
     <t xml:space="preserve">1.40536797046661</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4380509853363</t>
+    <t xml:space="preserve">1.43805110454559</t>
   </si>
   <si>
     <t xml:space="preserve">1.52053654193878</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57189559936523</t>
+    <t xml:space="preserve">1.57189548015594</t>
   </si>
   <si>
     <t xml:space="preserve">1.56022310256958</t>
@@ -2786,13 +2786,13 @@
     <t xml:space="preserve">1.58745884895325</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53765618801117</t>
+    <t xml:space="preserve">1.53765630722046</t>
   </si>
   <si>
     <t xml:space="preserve">1.51431119441986</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50341689586639</t>
+    <t xml:space="preserve">1.50341701507568</t>
   </si>
   <si>
     <t xml:space="preserve">1.50497329235077</t>
@@ -24608,7 +24608,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G769" t="s">
-        <v>457</v>
+        <v>557</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -24634,7 +24634,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G770" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -24660,7 +24660,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G771" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -24686,7 +24686,7 @@
         <v>3.54500007629395</v>
       </c>
       <c r="G772" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -24712,7 +24712,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G773" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -24738,7 +24738,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G774" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -24764,7 +24764,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G775" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -24790,7 +24790,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G776" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -24816,7 +24816,7 @@
         <v>3.68499994277954</v>
       </c>
       <c r="G777" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -24842,7 +24842,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G778" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -24868,7 +24868,7 @@
         <v>3.63499999046326</v>
       </c>
       <c r="G779" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -24894,7 +24894,7 @@
         <v>3.66499996185303</v>
       </c>
       <c r="G780" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -24920,7 +24920,7 @@
         <v>3.66499996185303</v>
       </c>
       <c r="G781" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -24946,7 +24946,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G782" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -24972,7 +24972,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G783" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -24998,7 +24998,7 @@
         <v>3.78500008583069</v>
       </c>
       <c r="G784" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -25024,7 +25024,7 @@
         <v>3.8050000667572</v>
       </c>
       <c r="G785" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -25050,7 +25050,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G786" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -25076,7 +25076,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G787" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -25102,7 +25102,7 @@
         <v>3.86500000953674</v>
       </c>
       <c r="G788" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -25128,7 +25128,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G789" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -25154,7 +25154,7 @@
         <v>3.8050000667572</v>
       </c>
       <c r="G790" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -25180,7 +25180,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G791" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -25206,7 +25206,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G792" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -25232,7 +25232,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G793" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -25258,7 +25258,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G794" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -25284,7 +25284,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G795" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -25310,7 +25310,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G796" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -25336,7 +25336,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G797" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -25362,7 +25362,7 @@
         <v>3.77500009536743</v>
       </c>
       <c r="G798" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -25388,7 +25388,7 @@
         <v>3.72499990463257</v>
       </c>
       <c r="G799" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -25414,7 +25414,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G800" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -25440,7 +25440,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G801" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -25466,7 +25466,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G802" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25492,7 +25492,7 @@
         <v>3.92499995231628</v>
       </c>
       <c r="G803" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -25518,7 +25518,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G804" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -25544,7 +25544,7 @@
         <v>4</v>
       </c>
       <c r="G805" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -25570,7 +25570,7 @@
         <v>4.02500009536743</v>
       </c>
       <c r="G806" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25596,7 +25596,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G807" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25622,7 +25622,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G808" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -25648,7 +25648,7 @@
         <v>3.98499989509583</v>
       </c>
       <c r="G809" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -25674,7 +25674,7 @@
         <v>3.96499991416931</v>
       </c>
       <c r="G810" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -25700,7 +25700,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G811" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -25726,7 +25726,7 @@
         <v>3.96499991416931</v>
       </c>
       <c r="G812" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -25752,7 +25752,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G813" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -25778,7 +25778,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G814" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -25804,7 +25804,7 @@
         <v>3.98499989509583</v>
       </c>
       <c r="G815" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -25830,7 +25830,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G816" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -25856,7 +25856,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G817" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -25882,7 +25882,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G818" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -25908,7 +25908,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G819" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -25934,7 +25934,7 @@
         <v>3.91499996185303</v>
       </c>
       <c r="G820" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -25960,7 +25960,7 @@
         <v>3.86500000953674</v>
       </c>
       <c r="G821" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -25986,7 +25986,7 @@
         <v>3.79500007629395</v>
       </c>
       <c r="G822" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -26012,7 +26012,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G823" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -26038,7 +26038,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G824" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -26064,7 +26064,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G825" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -26090,7 +26090,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G826" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -26116,7 +26116,7 @@
         <v>3.86500000953674</v>
       </c>
       <c r="G827" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -26142,7 +26142,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G828" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -26168,7 +26168,7 @@
         <v>3.82500004768372</v>
       </c>
       <c r="G829" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -26194,7 +26194,7 @@
         <v>3.85500001907349</v>
       </c>
       <c r="G830" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -26220,7 +26220,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G831" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -26246,7 +26246,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G832" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -26272,7 +26272,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G833" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -26298,7 +26298,7 @@
         <v>3.65499997138977</v>
       </c>
       <c r="G834" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -26350,7 +26350,7 @@
         <v>3.52500009536743</v>
       </c>
       <c r="G836" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -26376,7 +26376,7 @@
         <v>3.56500005722046</v>
       </c>
       <c r="G837" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -26428,7 +26428,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G839" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -26454,7 +26454,7 @@
         <v>3.5550000667572</v>
       </c>
       <c r="G840" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -26480,7 +26480,7 @@
         <v>3.53500008583069</v>
       </c>
       <c r="G841" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -26532,7 +26532,7 @@
         <v>3.5550000667572</v>
       </c>
       <c r="G843" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26558,7 +26558,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G844" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -26584,7 +26584,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G845" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -26610,7 +26610,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G846" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -26636,7 +26636,7 @@
         <v>3.625</v>
       </c>
       <c r="G847" t="s">
-        <v>610</v>
+        <v>43</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -62264,7 +62264,7 @@
     </row>
     <row r="2218">
       <c r="A2218" s="1" t="n">
-        <v>45552.649525463</v>
+        <v>45552.2916666667</v>
       </c>
       <c r="B2218" t="n">
         <v>78551</v>
@@ -62285,6 +62285,32 @@
         <v>1395</v>
       </c>
       <c r="H2218" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" s="1" t="n">
+        <v>45553.6496412037</v>
+      </c>
+      <c r="B2219" t="n">
+        <v>53696</v>
+      </c>
+      <c r="C2219" t="n">
+        <v>2.15000009536743</v>
+      </c>
+      <c r="D2219" t="n">
+        <v>2.11999988555908</v>
+      </c>
+      <c r="E2219" t="n">
+        <v>2.13499999046326</v>
+      </c>
+      <c r="F2219" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="G2219" t="s">
+        <v>1421</v>
+      </c>
+      <c r="H2219" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CAI.MI.xlsx
+++ b/data/CAI.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07385492324829</t>
+    <t xml:space="preserve">3.07385444641113</t>
   </si>
   <si>
     <t xml:space="preserve">CAI.MI</t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">3.08614444732666</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01786684989929</t>
+    <t xml:space="preserve">3.01786708831787</t>
   </si>
   <si>
     <t xml:space="preserve">2.97690057754517</t>
@@ -56,10 +56,10 @@
     <t xml:space="preserve">2.98099732398987</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88131189346313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94003129005432</t>
+    <t xml:space="preserve">2.88131165504456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94003081321716</t>
   </si>
   <si>
     <t xml:space="preserve">2.80620694160461</t>
@@ -68,19 +68,19 @@
     <t xml:space="preserve">2.86082887649536</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7584125995636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73929500579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69013476371765</t>
+    <t xml:space="preserve">2.75841236114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73929476737976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69013500213623</t>
   </si>
   <si>
     <t xml:space="preserve">2.71744585037231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86629104614258</t>
+    <t xml:space="preserve">2.866290807724</t>
   </si>
   <si>
     <t xml:space="preserve">2.76387453079224</t>
@@ -98,775 +98,775 @@
     <t xml:space="preserve">2.73110127449036</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76114392280579</t>
+    <t xml:space="preserve">2.76114368438721</t>
   </si>
   <si>
     <t xml:space="preserve">2.72563934326172</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69696283340454</t>
+    <t xml:space="preserve">2.69696259498596</t>
   </si>
   <si>
     <t xml:space="preserve">2.72290802001953</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62868499755859</t>
+    <t xml:space="preserve">2.62868523597717</t>
   </si>
   <si>
     <t xml:space="preserve">2.45935678482056</t>
   </si>
   <si>
+    <t xml:space="preserve">2.45799136161804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30095291137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38971400260925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53992462158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50442004203796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67511391639709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81713104248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74885368347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78162670135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68467259407043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8621940612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8335177898407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84717321395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8840434551239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88540840148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89769864082336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85126996040344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94685840606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94958925247192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.058833360672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12164855003357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16125059127808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18173313140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20767903327942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1790018081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17217397689819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23635530471802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25001120567322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21040987968445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2226996421814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2308931350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22952771186829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14076685905457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14895987510681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22543048858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29234266281128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21587181091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30463290214539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27732181549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34559965133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36608266830444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40704894065857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38656544685364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33330893516541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3483304977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32511591911316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32375049591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29780507087708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2636661529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29097723960876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26022267341614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19182634353638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1562032699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13482928276062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17330265045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09208202362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1490786075592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3229193687439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34856796264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3343186378479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31151986122131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38419103622437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44403767585754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41981410980225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43406343460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48108577728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47681093215942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43833827972412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4511616230011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4084141254425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39844036102295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34714341163635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20607542991638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02796006202698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94246506690979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8997175693512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89686727523804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06643295288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08495712280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1319797039032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14195394515991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02938532829285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84984493255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95671439170837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06500840187073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16332817077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96526384353638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95528864860535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99233722686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12058043479919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1704523563385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23599910736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17757701873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13625431060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9495894908905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83702063560486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9196662902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86551904678345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90399217605591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84129524230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87549328804016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83559584617615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79854798316956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73442625999451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77717399597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88546800613403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87406897544861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84272050857544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87834334373474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92821598052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92109107971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94103980064392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86694431304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85839486122131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86409425735474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81707167625427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76007485389709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80567240715027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77289915084839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7586498260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77859902381897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68597912788391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62470746040344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59478402137756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54776120185852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58480954170227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65605545043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65463042259216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63610672950745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60333347320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57198476791382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45086669921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44516682624817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42379307746887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44374203681946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41666865348816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45941591262817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61900758743286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61045837402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54918646812439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57910966873169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5506112575531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5235378742218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57340979576111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64465594291687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69310355186462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64038133621216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63895654678345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62898206710815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63325691223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67172980308533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74867534637451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73727607727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67315459251404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70307779312134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71447706222534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70735263824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65178060531616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66887974739075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63753128051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65748071670532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56486058235168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52211284637451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51498818397522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41524386405945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43234300613403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43661785125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39386963844299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39244484901428</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.45799160003662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30095291137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38971376419067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53992438316345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50442004203796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67511391639709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81713104248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74885392189026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7816264629364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68467259407043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86219429969788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8335177898407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84717297554016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88404321670532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88540863990784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89769816398621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85126972198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94685864448547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94958972930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.058833360672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12164926528931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16124963760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18173360824585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20767879486084</t>
+    <t xml:space="preserve">2.35112190246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42236852645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53066253662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57768487930298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58908414840698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63468170166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69595336914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68027925491333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69167852401733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69737815856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74012613296509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74297595024109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72445154190063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72302675247192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7287266254425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76434969902039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75152540206909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75579977035522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7116277217865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69025373458862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65035605430603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60760807991028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58338403701782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55346155166626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52068781852722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60618329048157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56058573722839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5449116230011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54063701629639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50501394271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49788928031921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50643849372864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53351235389709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57625985145569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60048365592957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59193420410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58195948600769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55916094779968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5862340927124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53636193275452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48506474494934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54348683357239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68740391731262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69452834129333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75722503662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77147436141968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79712295532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78857350349426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79997277259827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8313205242157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9054172039032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03508496284485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06215810775757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15477824211121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29727077484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25737261772156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07783246040344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16760301589966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1619029045105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16047835350037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21890020370483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22174954414368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27589726448059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28159666061401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26877188682556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23172426223755</t>
   </si>
   <si>
     <t xml:space="preserve">3.17900204658508</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17217421531677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23635530471802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25001049041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21040964126587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22269988059998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23089265823364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22952747344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14076638221741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14895987510681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.225430727005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29234313964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21587204933167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30463266372681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27732181549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34559941291809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36608219146729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40704894065857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3865659236908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33330965042114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34833073616028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.325115442276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32375001907349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29780507087708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26366591453552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29097771644592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26022291183472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1918261051178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15620303153992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13482999801636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17330288887024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09208202362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1490786075592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3229193687439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34856796264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3343186378479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31151962280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38419103622437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44403767585754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41981410980225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43406367301941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48108625411987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47681093215942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4383385181427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45116209983826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40841460227966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39844012260437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34714317321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20607590675354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02796030044556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94246506690979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89971733093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8968677520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06643295288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08495712280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1319797039032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14195418357849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02938532829285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84984493255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95671439170837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06500816345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16332793235779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96526408195496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9552891254425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99233722686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12058019638062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1704523563385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23599886894226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17757725715637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13625431060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9495894908905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83702063560486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9196662902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86551880836487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90399241447449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84129548072815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87549352645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83559560775757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79854798316956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73442625999451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77717399597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88546824455261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87406873703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84272027015686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87834358215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92821598052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92109131813049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9410400390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86694407463074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85839486122131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86409425735474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81707167625427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76007485389709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80567264556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77289915084839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7586498260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77859878540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68597888946533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62470722198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59478402137756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54776167869568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58480930328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65605545043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65463089942932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63610649108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60333371162415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57198524475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45086693763733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44516706466675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42379307746887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44374227523804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41666841506958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45941615104675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61900758743286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61045837402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54918622970581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57910990715027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55061149597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52353763580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57341003417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64465618133545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69310355186462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64038181304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63895630836487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62898182868958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63325691223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67172956466675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74867558479309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73727607727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67315483093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70307779312134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71447706222534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70735287666321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65178084373474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66887998580933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63753151893616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65748023986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56486082077026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52211284637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5149884223938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41524362564087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43234300613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43661737442017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39387011528015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39244508743286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45799136161804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3511221408844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42236828804016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53066253662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57768487930298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58908414840698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63468170166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69595336914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68027949333191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69167852401733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69737863540649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74012565612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74297571182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72445178031921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7230269908905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7287266254425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76434993743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75152516365051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75580024719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7116277217865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69025373458862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65035605430603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60760831832886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58338451385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5534610748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5206880569458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60618329048157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56058597564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54491186141968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54063677787781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50501394271851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49788928031921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50643849372864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53351211547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57625985145569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60048341751099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59193396568298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58195948600769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5591607093811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58623433113098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5363621711731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48506498336792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54348659515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68740367889404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69452834129333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75722503662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77147436141968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79712271690369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78857374191284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79997253417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83132100105286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90541696548462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03508520126343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06215834617615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15477848052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29727053642273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25737309455872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0778329372406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1676025390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16190314292908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16047811508179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21889972686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22174978256226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27589678764343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28159666061401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26877212524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23172354698181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1790018081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1291298866272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19610095024109</t>
+    <t xml:space="preserve">3.12913012504578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19610118865967</t>
   </si>
   <si>
     <t xml:space="preserve">3.10063147544861</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1975257396698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23884844779968</t>
+    <t xml:space="preserve">3.19752621650696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23884892463684</t>
   </si>
   <si>
     <t xml:space="preserve">3.22602486610413</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29157066345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3257691860199</t>
+    <t xml:space="preserve">3.29157114028931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32576966285706</t>
   </si>
   <si>
     <t xml:space="preserve">3.28302145004272</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31864404678345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34001898765564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39559078216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35569262504578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23457407951355</t>
+    <t xml:space="preserve">3.31864452362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3400182723999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39559030532837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3556923866272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23457384109497</t>
   </si>
   <si>
     <t xml:space="preserve">3.27019739151001</t>
@@ -878,46 +878,46 @@
     <t xml:space="preserve">3.06358337402344</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17488980293274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09706687927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11147856712341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13886070251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14462518692017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11003756523132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11868476867676</t>
+    <t xml:space="preserve">3.17489004135132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09706664085388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11147809028625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13886094093323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14462566375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11003732681274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1186842918396</t>
   </si>
   <si>
     <t xml:space="preserve">3.07112598419189</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03797888755798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04806685447693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99762630462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0062735080719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97745013237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9183623790741</t>
+    <t xml:space="preserve">3.0379786491394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04806733131409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99762606620789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00627303123474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97744965553284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91836214065552</t>
   </si>
   <si>
     <t xml:space="preserve">2.8722448348999</t>
@@ -935,7 +935,7 @@
     <t xml:space="preserve">2.84918594360352</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92700886726379</t>
+    <t xml:space="preserve">2.92700910568237</t>
   </si>
   <si>
     <t xml:space="preserve">2.9068329334259</t>
@@ -944,10 +944,10 @@
     <t xml:space="preserve">2.86936259269714</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87800908088684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85783338546753</t>
+    <t xml:space="preserve">2.878009557724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85783314704895</t>
   </si>
   <si>
     <t xml:space="preserve">2.85350966453552</t>
@@ -956,13 +956,13 @@
     <t xml:space="preserve">2.87080359458923</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82468628883362</t>
+    <t xml:space="preserve">2.8246865272522</t>
   </si>
   <si>
     <t xml:space="preserve">2.79298067092896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76415705680847</t>
+    <t xml:space="preserve">2.76415729522705</t>
   </si>
   <si>
     <t xml:space="preserve">2.81027483940125</t>
@@ -974,22 +974,22 @@
     <t xml:space="preserve">2.79153943061829</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72956943511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75262784957886</t>
+    <t xml:space="preserve">2.72956919670105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75262808799744</t>
   </si>
   <si>
     <t xml:space="preserve">2.75983381271362</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74686312675476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95439124107361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92124462127686</t>
+    <t xml:space="preserve">2.74686360359192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95439147949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92124438285828</t>
   </si>
   <si>
     <t xml:space="preserve">2.92845034599304</t>
@@ -1007,58 +1007,58 @@
     <t xml:space="preserve">2.80450987815857</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83045101165771</t>
+    <t xml:space="preserve">2.83045125007629</t>
   </si>
   <si>
     <t xml:space="preserve">2.82612752914429</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78865742683411</t>
+    <t xml:space="preserve">2.78865694999695</t>
   </si>
   <si>
     <t xml:space="preserve">2.80739235877991</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80883383750916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84053897857666</t>
+    <t xml:space="preserve">2.80883359909058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84053921699524</t>
   </si>
   <si>
     <t xml:space="preserve">2.85495090484619</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86503911018372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87656855583191</t>
+    <t xml:space="preserve">2.86503887176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87656831741333</t>
   </si>
   <si>
     <t xml:space="preserve">2.90827369689941</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83909797668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73821616172791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7555103302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76848101615906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70218706130981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72668671607971</t>
+    <t xml:space="preserve">2.83909821510315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73821640014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75551009178162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76848077774048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70218753814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72668719291687</t>
   </si>
   <si>
     <t xml:space="preserve">2.71371650695801</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7252459526062</t>
+    <t xml:space="preserve">2.72524571418762</t>
   </si>
   <si>
     <t xml:space="preserve">2.68056988716125</t>
@@ -1067,13 +1067,13 @@
     <t xml:space="preserve">2.67480492591858</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67336368560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65895223617554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67624616622925</t>
+    <t xml:space="preserve">2.67336392402649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65895199775696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67624640464783</t>
   </si>
   <si>
     <t xml:space="preserve">2.75406908988953</t>
@@ -1082,7 +1082,7 @@
     <t xml:space="preserve">2.79442191123962</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79874563217163</t>
+    <t xml:space="preserve">2.79874539375305</t>
   </si>
   <si>
     <t xml:space="preserve">2.74542212486267</t>
@@ -1094,43 +1094,43 @@
     <t xml:space="preserve">2.92268586158752</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0250084400177</t>
+    <t xml:space="preserve">3.02500820159912</t>
   </si>
   <si>
     <t xml:space="preserve">3.02644944190979</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0696849822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10571384429932</t>
+    <t xml:space="preserve">3.06968474388123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10571360588074</t>
   </si>
   <si>
     <t xml:space="preserve">3.12156629562378</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17056632041931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14174270629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13597822189331</t>
+    <t xml:space="preserve">3.17056608200073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14174294471741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13597869873047</t>
   </si>
   <si>
     <t xml:space="preserve">3.09850788116455</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05671429634094</t>
+    <t xml:space="preserve">3.05671405792236</t>
   </si>
   <si>
     <t xml:space="preserve">3.07689023017883</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08409643173218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07400822639465</t>
+    <t xml:space="preserve">3.08409667015076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0740077495575</t>
   </si>
   <si>
     <t xml:space="preserve">3.04086089134216</t>
@@ -1139,28 +1139,28 @@
     <t xml:space="preserve">3.05383157730103</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17921328544617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12589001655579</t>
+    <t xml:space="preserve">3.17921352386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12588977813721</t>
   </si>
   <si>
     <t xml:space="preserve">3.05527305603027</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07977294921875</t>
+    <t xml:space="preserve">3.07977318763733</t>
   </si>
   <si>
     <t xml:space="preserve">3.14894866943359</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16191911697388</t>
+    <t xml:space="preserve">3.1619188785553</t>
   </si>
   <si>
     <t xml:space="preserve">3.1475076675415</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09994912147522</t>
+    <t xml:space="preserve">3.0999493598938</t>
   </si>
   <si>
     <t xml:space="preserve">3.13453698158264</t>
@@ -1172,10 +1172,10 @@
     <t xml:space="preserve">3.15471315383911</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12877225875854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11580181121826</t>
+    <t xml:space="preserve">3.1287727355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11580228805542</t>
   </si>
   <si>
     <t xml:space="preserve">3.10427284240723</t>
@@ -1184,10 +1184,10 @@
     <t xml:space="preserve">3.12012553215027</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05815505981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00483226776123</t>
+    <t xml:space="preserve">3.05815529823303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00483202934265</t>
   </si>
   <si>
     <t xml:space="preserve">2.9716854095459</t>
@@ -1196,13 +1196,13 @@
     <t xml:space="preserve">2.7843337059021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82180380821228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86792135238647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89674472808838</t>
+    <t xml:space="preserve">2.82180404663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8679211139679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8967444896698</t>
   </si>
   <si>
     <t xml:space="preserve">2.88233304023743</t>
@@ -1211,7 +1211,7 @@
     <t xml:space="preserve">2.85062742233276</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82900977134705</t>
+    <t xml:space="preserve">2.82901000976562</t>
   </si>
   <si>
     <t xml:space="preserve">2.82324528694153</t>
@@ -1220,37 +1220,37 @@
     <t xml:space="preserve">2.70362830162048</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72236371040344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70506978034973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71227526664734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65607023239136</t>
+    <t xml:space="preserve">2.72236347198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70506954193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71227550506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65606999397278</t>
   </si>
   <si>
     <t xml:space="preserve">2.69858431816101</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76703953742981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78505444526672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72740769386292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69498157501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7346134185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7057900428772</t>
+    <t xml:space="preserve">2.76703977584839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78505420684814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72740745544434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69498133659363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73461365699768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70579028129578</t>
   </si>
   <si>
     <t xml:space="preserve">2.73101043701172</t>
@@ -1259,16 +1259,16 @@
     <t xml:space="preserve">2.72020173072815</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79226040840149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84630417823792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77424550056458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77064251899719</t>
+    <t xml:space="preserve">2.79225993156433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84630370140076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77424573898315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77064299583435</t>
   </si>
   <si>
     <t xml:space="preserve">2.70939302444458</t>
@@ -1277,49 +1277,49 @@
     <t xml:space="preserve">2.74181938171387</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71299600601196</t>
+    <t xml:space="preserve">2.71299624443054</t>
   </si>
   <si>
     <t xml:space="preserve">2.63373184204102</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62652611732483</t>
+    <t xml:space="preserve">2.62652587890625</t>
   </si>
   <si>
     <t xml:space="preserve">2.6409375667572</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65534901618958</t>
+    <t xml:space="preserve">2.65534925460815</t>
   </si>
   <si>
     <t xml:space="preserve">2.64814329147339</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58689379692078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57248210906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57968807220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55807042121887</t>
+    <t xml:space="preserve">2.5868935585022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5724823474884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57968783378601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55807065963745</t>
   </si>
   <si>
     <t xml:space="preserve">2.56167364120483</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55086469650269</t>
+    <t xml:space="preserve">2.55086445808411</t>
   </si>
   <si>
     <t xml:space="preserve">2.56887936592102</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43557119369507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37432193756104</t>
+    <t xml:space="preserve">2.43557143211365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37432169914246</t>
   </si>
   <si>
     <t xml:space="preserve">2.30946922302246</t>
@@ -1328,7 +1328,7 @@
     <t xml:space="preserve">2.39593935012817</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41755700111389</t>
+    <t xml:space="preserve">2.41755676269531</t>
   </si>
   <si>
     <t xml:space="preserve">2.41395378112793</t>
@@ -1337,7 +1337,7 @@
     <t xml:space="preserve">2.36351299285889</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3599100112915</t>
+    <t xml:space="preserve">2.35991024971008</t>
   </si>
   <si>
     <t xml:space="preserve">2.29505753517151</t>
@@ -1355,40 +1355,40 @@
     <t xml:space="preserve">2.42836546897888</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44638013839722</t>
+    <t xml:space="preserve">2.44637989997864</t>
   </si>
   <si>
     <t xml:space="preserve">2.4211597442627</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50762987136841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59409976005554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56527614593506</t>
+    <t xml:space="preserve">2.50762963294983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59409999847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56527638435364</t>
   </si>
   <si>
     <t xml:space="preserve">2.63012909889221</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65174627304077</t>
+    <t xml:space="preserve">2.65174651145935</t>
   </si>
   <si>
     <t xml:space="preserve">2.62292289733887</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60130548477173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60851144790649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6373348236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68417239189148</t>
+    <t xml:space="preserve">2.60130524635315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60851120948792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63733458518982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68417263031006</t>
   </si>
   <si>
     <t xml:space="preserve">2.66615796089172</t>
@@ -1397,31 +1397,31 @@
     <t xml:space="preserve">2.69137835502625</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67696642875671</t>
+    <t xml:space="preserve">2.67696666717529</t>
   </si>
   <si>
     <t xml:space="preserve">2.73281192779541</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62172198295593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49582028388977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48841404914856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.403244972229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43657231330872</t>
+    <t xml:space="preserve">2.62172174453735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49581980705261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48841428756714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40324544906616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43657207489014</t>
   </si>
   <si>
     <t xml:space="preserve">2.45879006385803</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39213609695435</t>
+    <t xml:space="preserve">2.39213633537292</t>
   </si>
   <si>
     <t xml:space="preserve">2.40694832801819</t>
@@ -1439,28 +1439,28 @@
     <t xml:space="preserve">2.32548236846924</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37732434272766</t>
+    <t xml:space="preserve">2.37732410430908</t>
   </si>
   <si>
     <t xml:space="preserve">2.38843321800232</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4291660785675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41805720329285</t>
+    <t xml:space="preserve">2.42916631698608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41805696487427</t>
   </si>
   <si>
     <t xml:space="preserve">2.46989917755127</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50322604179382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52174091339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53285002708435</t>
+    <t xml:space="preserve">2.5032262802124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52174115180969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53285026550293</t>
   </si>
   <si>
     <t xml:space="preserve">2.57728600502014</t>
@@ -1469,10 +1469,10 @@
     <t xml:space="preserve">2.5254442691803</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45508742332458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58098888397217</t>
+    <t xml:space="preserve">2.45508718490601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58098912239075</t>
   </si>
   <si>
     <t xml:space="preserve">2.54395914077759</t>
@@ -1484,22 +1484,22 @@
     <t xml:space="preserve">2.44768118858337</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53655290603638</t>
+    <t xml:space="preserve">2.53655314445496</t>
   </si>
   <si>
     <t xml:space="preserve">2.4773051738739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51433515548706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48100829124451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46619629859924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39583921432495</t>
+    <t xml:space="preserve">2.51433491706848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48100781440735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46619606018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39583897590637</t>
   </si>
   <si>
     <t xml:space="preserve">2.41065120697021</t>
@@ -1511,16 +1511,16 @@
     <t xml:space="preserve">2.36621522903442</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34399724006653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35880923271179</t>
+    <t xml:space="preserve">2.34399747848511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35880899429321</t>
   </si>
   <si>
     <t xml:space="preserve">2.35510635375977</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36251211166382</t>
+    <t xml:space="preserve">2.3625123500824</t>
   </si>
   <si>
     <t xml:space="preserve">2.30696749687195</t>
@@ -1529,31 +1529,31 @@
     <t xml:space="preserve">2.3106701374054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32177901268005</t>
+    <t xml:space="preserve">2.32177925109863</t>
   </si>
   <si>
     <t xml:space="preserve">2.39954209327698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38102698326111</t>
+    <t xml:space="preserve">2.38102722167969</t>
   </si>
   <si>
     <t xml:space="preserve">2.41435408592224</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37362098693848</t>
+    <t xml:space="preserve">2.37362122535706</t>
   </si>
   <si>
     <t xml:space="preserve">2.31807637214661</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29585838317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28104615211487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26993751525879</t>
+    <t xml:space="preserve">2.29585814476013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28104639053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26993727684021</t>
   </si>
   <si>
     <t xml:space="preserve">2.30326414108276</t>
@@ -1565,31 +1565,31 @@
     <t xml:space="preserve">2.27734327316284</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26623439788818</t>
+    <t xml:space="preserve">2.2662341594696</t>
   </si>
   <si>
     <t xml:space="preserve">2.29215526580811</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27364015579224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28845238685608</t>
+    <t xml:space="preserve">2.27364039421082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28845191001892</t>
   </si>
   <si>
     <t xml:space="preserve">2.28474926948547</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38473033905029</t>
+    <t xml:space="preserve">2.38473010063171</t>
   </si>
   <si>
     <t xml:space="preserve">2.20698618888855</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24031352996826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15514445304871</t>
+    <t xml:space="preserve">2.24031329154968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15514421463013</t>
   </si>
   <si>
     <t xml:space="preserve">2.13292646408081</t>
@@ -1598,28 +1598,28 @@
     <t xml:space="preserve">2.14773845672607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10330247879028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09959959983826</t>
+    <t xml:space="preserve">2.1033022403717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09959936141968</t>
   </si>
   <si>
     <t xml:space="preserve">2.08849048614502</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10700559616089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0625696182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9885094165802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95147931575775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02553915977478</t>
+    <t xml:space="preserve">2.10700535774231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06256937980652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98850929737091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95147979259491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02553939819336</t>
   </si>
   <si>
     <t xml:space="preserve">2.06627249717712</t>
@@ -1628,22 +1628,22 @@
     <t xml:space="preserve">2.04775738716125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06997537612915</t>
+    <t xml:space="preserve">2.06997561454773</t>
   </si>
   <si>
     <t xml:space="preserve">2.12922358512878</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14403510093689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13662934303284</t>
+    <t xml:space="preserve">2.14403533935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13662958145142</t>
   </si>
   <si>
     <t xml:space="preserve">2.18847131729126</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21439218521118</t>
+    <t xml:space="preserve">2.21439242362976</t>
   </si>
   <si>
     <t xml:space="preserve">2.23290729522705</t>
@@ -1652,10 +1652,10 @@
     <t xml:space="preserve">2.25512528419495</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20328307151794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1995804309845</t>
+    <t xml:space="preserve">2.20328330993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19958066940308</t>
   </si>
   <si>
     <t xml:space="preserve">2.21809530258179</t>
@@ -1667,22 +1667,22 @@
     <t xml:space="preserve">2.07367849349976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11070847511292</t>
+    <t xml:space="preserve">2.11070799827576</t>
   </si>
   <si>
     <t xml:space="preserve">2.24771952629089</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3365912437439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51063203811646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65504908561707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68096995353699</t>
+    <t xml:space="preserve">2.33659100532532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51063227653503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65504932403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68096971511841</t>
   </si>
   <si>
     <t xml:space="preserve">2.60320711135864</t>
@@ -1694,16 +1694,16 @@
     <t xml:space="preserve">2.65875196456909</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65134596824646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62542510032654</t>
+    <t xml:space="preserve">2.65134620666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62542486190796</t>
   </si>
   <si>
     <t xml:space="preserve">2.71799993515015</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70318794250488</t>
+    <t xml:space="preserve">2.70318818092346</t>
   </si>
   <si>
     <t xml:space="preserve">2.7291088104248</t>
@@ -1712,40 +1712,40 @@
     <t xml:space="preserve">2.69207882881165</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71429681777954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75503015518188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8031690120697</t>
+    <t xml:space="preserve">2.7142972946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75502991676331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80316877365112</t>
   </si>
   <si>
     <t xml:space="preserve">2.81798100471497</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84390211105347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87352585792542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86241698265076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88093161582947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76243591308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76984190940857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79946613311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79205965995789</t>
+    <t xml:space="preserve">2.84390187263489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87352609634399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86241674423218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88093209266663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76243615150452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76984214782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7994658946991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79205989837646</t>
   </si>
   <si>
     <t xml:space="preserve">2.81427788734436</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">2.79576301574707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75873279571533</t>
+    <t xml:space="preserve">2.75873303413391</t>
   </si>
   <si>
     <t xml:space="preserve">2.85871386528015</t>
@@ -1775,7 +1775,7 @@
     <t xml:space="preserve">2.962397813797</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98091292381287</t>
+    <t xml:space="preserve">2.98091268539429</t>
   </si>
   <si>
     <t xml:space="preserve">2.91796183586121</t>
@@ -1787,7 +1787,7 @@
     <t xml:space="preserve">2.95128870010376</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93647694587708</t>
+    <t xml:space="preserve">2.9364767074585</t>
   </si>
   <si>
     <t xml:space="preserve">2.95499181747437</t>
@@ -1796,7 +1796,7 @@
     <t xml:space="preserve">2.93277382850647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91055583953857</t>
+    <t xml:space="preserve">2.91055560112</t>
   </si>
   <si>
     <t xml:space="preserve">2.96980381011963</t>
@@ -1805,16 +1805,16 @@
     <t xml:space="preserve">2.97720980644226</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94017958641052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89944648742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81057476997375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86612010002136</t>
+    <t xml:space="preserve">2.94018006324768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89944672584534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81057500839233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8661196231842</t>
   </si>
   <si>
     <t xml:space="preserve">2.80687189102173</t>
@@ -1823,19 +1823,19 @@
     <t xml:space="preserve">2.83279299736023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85501098632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71059393882751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70689105987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61061310768127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64023733139038</t>
+    <t xml:space="preserve">2.85501074790955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71059417724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70689082145691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6106128692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6402370929718</t>
   </si>
   <si>
     <t xml:space="preserve">2.6365339756012</t>
@@ -1847,43 +1847,46 @@
     <t xml:space="preserve">2.61801910400391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69578194618225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68467307090759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68837594985962</t>
+    <t xml:space="preserve">2.69578218460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68467283248901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6883761882782</t>
   </si>
   <si>
     <t xml:space="preserve">2.6143159866333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56988000869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49211716651917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50692892074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34770035743713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23661041259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18476796150208</t>
+    <t xml:space="preserve">2.56988024711609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49211692810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50692915916443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34770011901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23661017417908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18476843833923</t>
   </si>
   <si>
     <t xml:space="preserve">2.19587731361389</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29948091506958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2177734375</t>
+    <t xml:space="preserve">2.299480676651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21777296066284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1477382183075</t>
   </si>
   <si>
     <t xml:space="preserve">2.10883021354675</t>
@@ -1892,10 +1895,10 @@
     <t xml:space="preserve">2.12439346313477</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08937573432922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10104846954346</t>
+    <t xml:space="preserve">2.0893759727478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10104870796204</t>
   </si>
   <si>
     <t xml:space="preserve">2.10493922233582</t>
@@ -1904,19 +1907,19 @@
     <t xml:space="preserve">2.09326696395874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12050247192383</t>
+    <t xml:space="preserve">2.12050271034241</t>
   </si>
   <si>
     <t xml:space="preserve">2.13995671272278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12828421592712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07770323753357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0504674911499</t>
+    <t xml:space="preserve">2.12828397750854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07770371437073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05046772956848</t>
   </si>
   <si>
     <t xml:space="preserve">2.04657673835754</t>
@@ -1925,13 +1928,13 @@
     <t xml:space="preserve">2.03490447998047</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05435848236084</t>
+    <t xml:space="preserve">2.05435872077942</t>
   </si>
   <si>
     <t xml:space="preserve">2.03101348876953</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02323198318481</t>
+    <t xml:space="preserve">2.02323174476624</t>
   </si>
   <si>
     <t xml:space="preserve">2.0582492351532</t>
@@ -1940,64 +1943,64 @@
     <t xml:space="preserve">2.04268598556519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22944617271423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1866466999054</t>
+    <t xml:space="preserve">2.22944569587708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18664693832397</t>
   </si>
   <si>
     <t xml:space="preserve">1.9687602519989</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00377798080444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92985200881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02712273597717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94152438640594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84425365924835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79367303848267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76643693447113</t>
+    <t xml:space="preserve">2.00377774238586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92985188961029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02712249755859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94152414798737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84425377845764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79367291927338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76643705368042</t>
   </si>
   <si>
     <t xml:space="preserve">1.80923616886139</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75087368488312</t>
+    <t xml:space="preserve">1.75087380409241</t>
   </si>
   <si>
     <t xml:space="preserve">1.74698281288147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69251120090485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78978204727173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82090854644775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73920118808746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74309206008911</t>
+    <t xml:space="preserve">1.69251132011414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78978180885315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82090866565704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73920106887817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7430921792984</t>
   </si>
   <si>
     <t xml:space="preserve">1.69640219211578</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7119654417038</t>
+    <t xml:space="preserve">1.71196556091309</t>
   </si>
   <si>
     <t xml:space="preserve">1.7197470664978</t>
@@ -2006,13 +2009,13 @@
     <t xml:space="preserve">1.7041836977005</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78589129447937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73141956329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71585607528687</t>
+    <t xml:space="preserve">1.78589117527008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73141968250275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71585619449615</t>
   </si>
   <si>
     <t xml:space="preserve">1.7353104352951</t>
@@ -2021,7 +2024,7 @@
     <t xml:space="preserve">1.78200042247772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83258128166199</t>
+    <t xml:space="preserve">1.8325811624527</t>
   </si>
   <si>
     <t xml:space="preserve">1.80145454406738</t>
@@ -2033,10 +2036,10 @@
     <t xml:space="preserve">1.85592603683472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83647203445435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87927114963531</t>
+    <t xml:space="preserve">1.83647191524506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8792712688446</t>
   </si>
   <si>
     <t xml:space="preserve">1.79756367206573</t>
@@ -2045,49 +2048,49 @@
     <t xml:space="preserve">1.77032792568207</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82869052886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75476455688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75865542888641</t>
+    <t xml:space="preserve">1.82869029045105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75476467609406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75865530967712</t>
   </si>
   <si>
     <t xml:space="preserve">1.76254630088806</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80534541606903</t>
+    <t xml:space="preserve">1.80534529685974</t>
   </si>
   <si>
     <t xml:space="preserve">1.81701803207397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82479953765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91428852081299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93374264240265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89094376564026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87538039684296</t>
+    <t xml:space="preserve">1.8247994184494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91428875923157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93374276161194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89094352722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87538015842438</t>
   </si>
   <si>
     <t xml:space="preserve">1.90650689601898</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89483428001404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85981702804565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92207038402557</t>
+    <t xml:space="preserve">1.89483416080475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85981714725494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92207050323486</t>
   </si>
   <si>
     <t xml:space="preserve">2.01155948638916</t>
@@ -2099,16 +2102,16 @@
     <t xml:space="preserve">2.16330170631409</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08159399032593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06214022636414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13217520713806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20999193191528</t>
+    <t xml:space="preserve">2.08159422874451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06213998794556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13217496871948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2099916934967</t>
   </si>
   <si>
     <t xml:space="preserve">2.19053769111633</t>
@@ -2117,16 +2120,16 @@
     <t xml:space="preserve">2.15552020072937</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19831943511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1710832118988</t>
+    <t xml:space="preserve">2.19831919670105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17108345031738</t>
   </si>
   <si>
     <t xml:space="preserve">2.14384770393372</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11272096633911</t>
+    <t xml:space="preserve">2.11272072792053</t>
   </si>
   <si>
     <t xml:space="preserve">2.08548521995544</t>
@@ -2135,10 +2138,10 @@
     <t xml:space="preserve">2.01545023918152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98821461200714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15941095352173</t>
+    <t xml:space="preserve">1.98821449279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15941119194031</t>
   </si>
   <si>
     <t xml:space="preserve">2.13606595993042</t>
@@ -2147,7 +2150,7 @@
     <t xml:space="preserve">2.01934123039246</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87148928642273</t>
+    <t xml:space="preserve">1.87148940563202</t>
   </si>
   <si>
     <t xml:space="preserve">1.91039776802063</t>
@@ -2156,40 +2159,40 @@
     <t xml:space="preserve">1.92596101760864</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89872539043427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95319700241089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99988687038422</t>
+    <t xml:space="preserve">1.89872527122498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9531968832016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99988698959351</t>
   </si>
   <si>
     <t xml:space="preserve">1.95708775520325</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96486949920654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9921053647995</t>
+    <t xml:space="preserve">1.96486961841583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99210524559021</t>
   </si>
   <si>
     <t xml:space="preserve">1.7275288105011</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68862044811249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62636697292328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59524047374725</t>
+    <t xml:space="preserve">1.68862056732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62636709213257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59524035453796</t>
   </si>
   <si>
     <t xml:space="preserve">1.54232513904572</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48941004276276</t>
+    <t xml:space="preserve">1.48940992355347</t>
   </si>
   <si>
     <t xml:space="preserve">1.45361435413361</t>
@@ -2204,22 +2207,22 @@
     <t xml:space="preserve">1.27619230747223</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09098887443542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16102373600006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08009469509125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05986213684082</t>
+    <t xml:space="preserve">1.09098875522614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16102385520935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08009457588196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05986225605011</t>
   </si>
   <si>
     <t xml:space="preserve">1.0847635269165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1018830537796</t>
+    <t xml:space="preserve">1.10188317298889</t>
   </si>
   <si>
     <t xml:space="preserve">1.22483336925507</t>
@@ -2228,34 +2231,34 @@
     <t xml:space="preserve">1.31976974010468</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32910776138306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35400903224945</t>
+    <t xml:space="preserve">1.32910764217377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35400891304016</t>
   </si>
   <si>
     <t xml:space="preserve">1.26685440540314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27152323722839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32288229465485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28864300251007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28397405147552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29331195354462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39291739463806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36179065704346</t>
+    <t xml:space="preserve">1.27152335643768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32288253307343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28864312171936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28397417068481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29331207275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39291727542877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36179077625275</t>
   </si>
   <si>
     <t xml:space="preserve">1.26062905788422</t>
@@ -2270,43 +2273,43 @@
     <t xml:space="preserve">1.33688938617706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29953742027283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31354427337646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29175579547882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28241789340973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22950232028961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23884034156799</t>
+    <t xml:space="preserve">1.29953730106354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31354439258575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29175567626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28241765499115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22950255870819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23884046077728</t>
   </si>
   <si>
     <t xml:space="preserve">1.24350941181183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20927011966705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17503082752228</t>
+    <t xml:space="preserve">1.20927023887634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17503070831299</t>
   </si>
   <si>
     <t xml:space="preserve">1.13300979137421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10343956947327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10499596595764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08631980419159</t>
+    <t xml:space="preserve">1.10343945026398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10499584674835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08631992340088</t>
   </si>
   <si>
     <t xml:space="preserve">1.05674970149994</t>
@@ -2315,19 +2318,19 @@
     <t xml:space="preserve">1.06764388084412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12211561203003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10655224323273</t>
+    <t xml:space="preserve">1.12211549282074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10655236244202</t>
   </si>
   <si>
     <t xml:space="preserve">1.14234793186188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15012943744659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13923525810242</t>
+    <t xml:space="preserve">1.15012955665588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13923513889313</t>
   </si>
   <si>
     <t xml:space="preserve">1.19837582111359</t>
@@ -2345,10 +2348,10 @@
     <t xml:space="preserve">1.28708684444427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27930510044098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17969977855682</t>
+    <t xml:space="preserve">1.27930498123169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17969989776611</t>
   </si>
   <si>
     <t xml:space="preserve">1.16413652896881</t>
@@ -2360,22 +2363,22 @@
     <t xml:space="preserve">1.20615744590759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20771384239197</t>
+    <t xml:space="preserve">1.20771372318268</t>
   </si>
   <si>
     <t xml:space="preserve">1.18748140335083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21082639694214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17814338207245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18592524528503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13612246513367</t>
+    <t xml:space="preserve">1.21082651615143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17814350128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18592512607574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13612258434296</t>
   </si>
   <si>
     <t xml:space="preserve">1.15791118144989</t>
@@ -2387,10 +2390,10 @@
     <t xml:space="preserve">1.18436884880066</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17036175727844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14546036720276</t>
+    <t xml:space="preserve">1.17036187648773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14546048641205</t>
   </si>
   <si>
     <t xml:space="preserve">1.16724920272827</t>
@@ -2399,19 +2402,19 @@
     <t xml:space="preserve">1.17347455024719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15168595314026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17191827297211</t>
+    <t xml:space="preserve">1.15168571472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17191815376282</t>
   </si>
   <si>
     <t xml:space="preserve">1.1656928062439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1563549041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1252281665802</t>
+    <t xml:space="preserve">1.15635478496552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12522828578949</t>
   </si>
   <si>
     <t xml:space="preserve">1.09565794467926</t>
@@ -2420,16 +2423,16 @@
     <t xml:space="preserve">1.08165085315704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06608760356903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08320713043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06297504901886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04896795749664</t>
+    <t xml:space="preserve">1.06608748435974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08320724964142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06297492980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04896783828735</t>
   </si>
   <si>
     <t xml:space="preserve">1.09410154819489</t>
@@ -2438,22 +2441,22 @@
     <t xml:space="preserve">1.07075667381287</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09721422195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06141865253448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05052423477173</t>
+    <t xml:space="preserve">1.09721410274506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0614185333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05052435398102</t>
   </si>
   <si>
     <t xml:space="preserve">1.04585528373718</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03962981700897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04118633270264</t>
+    <t xml:space="preserve">1.03962993621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04118621349335</t>
   </si>
   <si>
     <t xml:space="preserve">1.03340458869934</t>
@@ -2468,10 +2471,10 @@
     <t xml:space="preserve">1.02251017093658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.99605268239975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01628494262695</t>
+    <t xml:space="preserve">0.996052622795105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01628482341766</t>
   </si>
   <si>
     <t xml:space="preserve">1.00850331783295</t>
@@ -2480,7 +2483,7 @@
     <t xml:space="preserve">1.01005959510803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00072157382965</t>
+    <t xml:space="preserve">1.00072169303894</t>
   </si>
   <si>
     <t xml:space="preserve">0.991383612155914</t>
@@ -2489,7 +2492,7 @@
     <t xml:space="preserve">0.966482281684875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.96492600440979</t>
+    <t xml:space="preserve">0.964925944805145</t>
   </si>
   <si>
     <t xml:space="preserve">0.958700597286224</t>
@@ -2501,61 +2504,61 @@
     <t xml:space="preserve">0.975820302963257</t>
   </si>
   <si>
-    <t xml:space="preserve">0.989827156066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.969595015048981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949362695217133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.968038558959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.957144260406494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980489253997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999165236949921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06453120708466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05830597877502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02406668663025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988270938396454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985158205032349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.941580951213837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93379932641983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.904228925704956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879327714443207</t>
+    <t xml:space="preserve">0.989827275276184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.969594955444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949362635612488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.968038618564606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.957144379615784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980489194393158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999165177345276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06453132629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05830585956573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02406656742096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988270878791809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985158324241638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.941581070423126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933799386024475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.904228985309601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879327654838562</t>
   </si>
   <si>
     <t xml:space="preserve">0.887109339237213</t>
   </si>
   <si>
-    <t xml:space="preserve">0.888665676116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891778290271759</t>
+    <t xml:space="preserve">0.888665616512299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891778349876404</t>
   </si>
   <si>
     <t xml:space="preserve">0.83575040102005</t>
@@ -2567,7 +2570,7 @@
     <t xml:space="preserve">0.787504076957703</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829525113105774</t>
+    <t xml:space="preserve">0.829525053501129</t>
   </si>
   <si>
     <t xml:space="preserve">0.831081390380859</t>
@@ -2576,10 +2579,10 @@
     <t xml:space="preserve">0.840419411659241</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826412379741669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817074358463287</t>
+    <t xml:space="preserve">0.826412439346313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817074298858643</t>
   </si>
   <si>
     <t xml:space="preserve">0.866877019405365</t>
@@ -2588,64 +2591,64 @@
     <t xml:space="preserve">0.89644730091095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.902672708034515</t>
+    <t xml:space="preserve">0.902672648429871</t>
   </si>
   <si>
     <t xml:space="preserve">0.915123343467712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940024554729462</t>
+    <t xml:space="preserve">0.940024614334106</t>
   </si>
   <si>
     <t xml:space="preserve">0.977376639842987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.96336966753006</t>
+    <t xml:space="preserve">0.963369607925415</t>
   </si>
   <si>
     <t xml:space="preserve">0.983601987361908</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978933036327362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92913031578064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96181333065033</t>
+    <t xml:space="preserve">0.978933095932007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.929130375385284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961813151836395</t>
   </si>
   <si>
     <t xml:space="preserve">0.946249961853027</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943137228488922</t>
+    <t xml:space="preserve">0.943137288093567</t>
   </si>
   <si>
     <t xml:space="preserve">0.930686712265015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.952475368976593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.927573978900909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.926017642021179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935355722904205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971151351928711</t>
+    <t xml:space="preserve">0.952475309371948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.927573919296265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.926017701625824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935355603694916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971151292324066</t>
   </si>
   <si>
     <t xml:space="preserve">0.947806417942047</t>
   </si>
   <si>
-    <t xml:space="preserve">0.919792413711548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913567066192627</t>
+    <t xml:space="preserve">0.919792354106903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913567006587982</t>
   </si>
   <si>
     <t xml:space="preserve">0.907341659069061</t>
@@ -2654,25 +2657,25 @@
     <t xml:space="preserve">0.916679620742798</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89955997467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.918236017227173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.908897876739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.894891023635864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910454273223877</t>
+    <t xml:space="preserve">0.8995600938797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918235957622528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.908898055553436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.894890904426575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.910454332828522</t>
   </si>
   <si>
     <t xml:space="preserve">0.944693624973297</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01784110069275</t>
+    <t xml:space="preserve">1.01784121990204</t>
   </si>
   <si>
     <t xml:space="preserve">1.05363690853119</t>
@@ -2684,7 +2687,7 @@
     <t xml:space="preserve">1.15946745872498</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12989723682404</t>
+    <t xml:space="preserve">1.12989711761475</t>
   </si>
   <si>
     <t xml:space="preserve">1.10032689571381</t>
@@ -2696,7 +2699,7 @@
     <t xml:space="preserve">1.07231295108795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12834084033966</t>
+    <t xml:space="preserve">1.12834095954895</t>
   </si>
   <si>
     <t xml:space="preserve">1.12055921554565</t>
@@ -2708,10 +2711,10 @@
     <t xml:space="preserve">1.15479850769043</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31198811531067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25907278060913</t>
+    <t xml:space="preserve">1.31198799610138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25907289981842</t>
   </si>
   <si>
     <t xml:space="preserve">1.24662208557129</t>
@@ -2723,19 +2726,19 @@
     <t xml:space="preserve">1.2544037103653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22638976573944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23105883598328</t>
+    <t xml:space="preserve">1.22638964653015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23105871677399</t>
   </si>
   <si>
     <t xml:space="preserve">1.2699670791626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25751650333405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26841080188751</t>
+    <t xml:space="preserve">1.25751638412476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26841068267822</t>
   </si>
   <si>
     <t xml:space="preserve">1.27307975292206</t>
@@ -2744,7 +2747,7 @@
     <t xml:space="preserve">1.36023437976837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38513553142548</t>
+    <t xml:space="preserve">1.38513565063477</t>
   </si>
   <si>
     <t xml:space="preserve">1.40069901943207</t>
@@ -2756,25 +2759,25 @@
     <t xml:space="preserve">1.37112855911255</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3991425037384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39447367191315</t>
+    <t xml:space="preserve">1.39914262294769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39447379112244</t>
   </si>
   <si>
     <t xml:space="preserve">1.38980460166931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39758634567261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39136111736298</t>
+    <t xml:space="preserve">1.3975864648819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39136099815369</t>
   </si>
   <si>
     <t xml:space="preserve">1.4053680896759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43805110454559</t>
+    <t xml:space="preserve">1.4380509853363</t>
   </si>
   <si>
     <t xml:space="preserve">1.52053654193878</t>
@@ -2783,7 +2786,7 @@
     <t xml:space="preserve">1.57189548015594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56022310256958</t>
+    <t xml:space="preserve">1.56022298336029</t>
   </si>
   <si>
     <t xml:space="preserve">1.58745884895325</t>
@@ -2801,7 +2804,7 @@
     <t xml:space="preserve">1.50497329235077</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49096620082855</t>
+    <t xml:space="preserve">1.49096632003784</t>
   </si>
   <si>
     <t xml:space="preserve">1.51798808574677</t>
@@ -2826,9 +2829,6 @@
   </si>
   <si>
     <t xml:space="preserve">1.48142910003662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49096632003784</t>
   </si>
   <si>
     <t xml:space="preserve">1.54818880558014</t>
@@ -27110,7 +27110,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G865" t="s">
-        <v>527</v>
+        <v>624</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -27136,7 +27136,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G866" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -27162,7 +27162,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G867" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -27188,7 +27188,7 @@
         <v>2.68499994277954</v>
       </c>
       <c r="G868" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -27214,7 +27214,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G869" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -27240,7 +27240,7 @@
         <v>2.70499992370605</v>
       </c>
       <c r="G870" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -27266,7 +27266,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G871" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -27292,7 +27292,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G872" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -27318,7 +27318,7 @@
         <v>2.72499990463257</v>
       </c>
       <c r="G873" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -27344,7 +27344,7 @@
         <v>2.75</v>
       </c>
       <c r="G874" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -27370,7 +27370,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G875" t="s">
-        <v>527</v>
+        <v>624</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27396,7 +27396,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G876" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -27422,7 +27422,7 @@
         <v>2.73499989509583</v>
       </c>
       <c r="G877" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -27448,7 +27448,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G878" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -27474,7 +27474,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G879" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -27500,7 +27500,7 @@
         <v>2.70499992370605</v>
       </c>
       <c r="G880" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -27526,7 +27526,7 @@
         <v>2.72499990463257</v>
       </c>
       <c r="G881" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -27552,7 +27552,7 @@
         <v>2.75</v>
       </c>
       <c r="G882" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -27578,7 +27578,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G883" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -27604,7 +27604,7 @@
         <v>2.63499999046326</v>
       </c>
       <c r="G884" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -27630,7 +27630,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G885" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -27656,7 +27656,7 @@
         <v>2.61500000953674</v>
       </c>
       <c r="G886" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -27682,7 +27682,7 @@
         <v>2.61500000953674</v>
       </c>
       <c r="G887" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -27708,7 +27708,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G888" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -27734,7 +27734,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G889" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -27760,7 +27760,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G890" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -27786,7 +27786,7 @@
         <v>2.63499999046326</v>
       </c>
       <c r="G891" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -27812,7 +27812,7 @@
         <v>2.64499998092651</v>
       </c>
       <c r="G892" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -27838,7 +27838,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G893" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -27864,7 +27864,7 @@
         <v>2.625</v>
       </c>
       <c r="G894" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -27890,7 +27890,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G895" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -27916,7 +27916,7 @@
         <v>2.70499992370605</v>
       </c>
       <c r="G896" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -27942,7 +27942,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G897" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -27968,7 +27968,7 @@
         <v>2.86500000953674</v>
       </c>
       <c r="G898" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -27994,7 +27994,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G899" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -28020,7 +28020,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G900" t="s">
-        <v>527</v>
+        <v>624</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -28046,7 +28046,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G901" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -28072,7 +28072,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G902" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -28098,7 +28098,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G903" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -28124,7 +28124,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G904" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -28150,7 +28150,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G905" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -28176,7 +28176,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G906" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -28202,7 +28202,7 @@
         <v>2.63499999046326</v>
       </c>
       <c r="G907" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -28228,7 +28228,7 @@
         <v>2.64499998092651</v>
       </c>
       <c r="G908" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -28254,7 +28254,7 @@
         <v>2.57500004768372</v>
       </c>
       <c r="G909" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -28280,7 +28280,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G910" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -28306,7 +28306,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G911" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -28332,7 +28332,7 @@
         <v>2.60500001907349</v>
       </c>
       <c r="G912" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -28358,7 +28358,7 @@
         <v>2.49499988555908</v>
       </c>
       <c r="G913" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -28384,7 +28384,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G914" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -28410,7 +28410,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G915" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -28436,7 +28436,7 @@
         <v>2.3050000667572</v>
       </c>
       <c r="G916" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -28462,7 +28462,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G917" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -28488,7 +28488,7 @@
         <v>2.32500004768372</v>
       </c>
       <c r="G918" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -28514,7 +28514,7 @@
         <v>2.25</v>
       </c>
       <c r="G919" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -28540,7 +28540,7 @@
         <v>2.24499988555908</v>
       </c>
       <c r="G920" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -28566,7 +28566,7 @@
         <v>2.17499995231628</v>
       </c>
       <c r="G921" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -28592,7 +28592,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G922" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -28618,7 +28618,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G923" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -28644,7 +28644,7 @@
         <v>2.23499989509583</v>
       </c>
       <c r="G924" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -28670,7 +28670,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G925" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -28696,7 +28696,7 @@
         <v>2.23499989509583</v>
       </c>
       <c r="G926" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -28722,7 +28722,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G927" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -28748,7 +28748,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G928" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -28774,7 +28774,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G929" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -28800,7 +28800,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G930" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -28826,7 +28826,7 @@
         <v>2.29500007629395</v>
       </c>
       <c r="G931" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -28852,7 +28852,7 @@
         <v>2.22499990463257</v>
       </c>
       <c r="G932" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -28878,7 +28878,7 @@
         <v>2.20499992370605</v>
       </c>
       <c r="G933" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -28904,7 +28904,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G934" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -28930,7 +28930,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G935" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -28956,7 +28956,7 @@
         <v>2.35500001907349</v>
       </c>
       <c r="G936" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -28982,7 +28982,7 @@
         <v>2.31500005722046</v>
       </c>
       <c r="G937" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -29008,7 +29008,7 @@
         <v>2.36500000953674</v>
       </c>
       <c r="G938" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -29034,7 +29034,7 @@
         <v>2.38499999046326</v>
       </c>
       <c r="G939" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -29060,7 +29060,7 @@
         <v>2.36500000953674</v>
       </c>
       <c r="G940" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -29086,7 +29086,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G941" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -29112,7 +29112,7 @@
         <v>2.41499996185303</v>
       </c>
       <c r="G942" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -29138,7 +29138,7 @@
         <v>2.36500000953674</v>
       </c>
       <c r="G943" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -29164,7 +29164,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G944" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -29190,7 +29190,7 @@
         <v>2.3050000667572</v>
       </c>
       <c r="G945" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -29216,7 +29216,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G946" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -29242,7 +29242,7 @@
         <v>2.25</v>
       </c>
       <c r="G947" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -29268,7 +29268,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G948" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -29294,7 +29294,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G949" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -29320,7 +29320,7 @@
         <v>2.23499989509583</v>
       </c>
       <c r="G950" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -29346,7 +29346,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G951" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -29372,7 +29372,7 @@
         <v>2.27500009536743</v>
       </c>
       <c r="G952" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -29398,7 +29398,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G953" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -29424,7 +29424,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G954" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -29450,7 +29450,7 @@
         <v>2.25</v>
       </c>
       <c r="G955" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -29476,7 +29476,7 @@
         <v>2.25500011444092</v>
       </c>
       <c r="G956" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -29502,7 +29502,7 @@
         <v>2.24499988555908</v>
       </c>
       <c r="G957" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -29528,7 +29528,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G958" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -29554,7 +29554,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G959" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -29580,7 +29580,7 @@
         <v>2.22499990463257</v>
       </c>
       <c r="G960" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -29606,7 +29606,7 @@
         <v>2.26500010490417</v>
       </c>
       <c r="G961" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -29632,7 +29632,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G962" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -29658,7 +29658,7 @@
         <v>2.32500004768372</v>
       </c>
       <c r="G963" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -29684,7 +29684,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G964" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -29710,7 +29710,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G965" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -29736,7 +29736,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G966" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -29762,7 +29762,7 @@
         <v>2.33500003814697</v>
       </c>
       <c r="G967" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -29788,7 +29788,7 @@
         <v>2.35500001907349</v>
       </c>
       <c r="G968" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -29814,7 +29814,7 @@
         <v>2.34500002861023</v>
       </c>
       <c r="G969" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -29840,7 +29840,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G970" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -29866,7 +29866,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G971" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -29892,7 +29892,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G972" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -29918,7 +29918,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G973" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -29944,7 +29944,7 @@
         <v>2.31500005722046</v>
       </c>
       <c r="G974" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -29970,7 +29970,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G975" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -29996,7 +29996,7 @@
         <v>2.3050000667572</v>
       </c>
       <c r="G976" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -30022,7 +30022,7 @@
         <v>2.32500004768372</v>
       </c>
       <c r="G977" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -30048,7 +30048,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G978" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -30074,7 +30074,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G979" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -30100,7 +30100,7 @@
         <v>2.48499989509583</v>
       </c>
       <c r="G980" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -30126,7 +30126,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G981" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -30152,7 +30152,7 @@
         <v>2.35500001907349</v>
       </c>
       <c r="G982" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -30178,7 +30178,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G983" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -30204,7 +30204,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G984" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -30230,7 +30230,7 @@
         <v>2.43499994277954</v>
       </c>
       <c r="G985" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -30256,7 +30256,7 @@
         <v>2.38499999046326</v>
       </c>
       <c r="G986" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -30282,7 +30282,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G987" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -30308,7 +30308,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G988" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -30334,7 +30334,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G989" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -30360,7 +30360,7 @@
         <v>2.36500000953674</v>
       </c>
       <c r="G990" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -30386,7 +30386,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G991" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -30412,7 +30412,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G992" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -30438,7 +30438,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G993" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -30464,7 +30464,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G994" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -30490,7 +30490,7 @@
         <v>2.58500003814697</v>
       </c>
       <c r="G995" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -30516,7 +30516,7 @@
         <v>2.78500008583069</v>
       </c>
       <c r="G996" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -30542,7 +30542,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G997" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -30568,7 +30568,7 @@
         <v>2.67499995231628</v>
       </c>
       <c r="G998" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -30594,7 +30594,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G999" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -30620,7 +30620,7 @@
         <v>2.75</v>
       </c>
       <c r="G1000" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -30646,7 +30646,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G1001" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -30672,7 +30672,7 @@
         <v>2.75</v>
       </c>
       <c r="G1002" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -30698,7 +30698,7 @@
         <v>2.75</v>
       </c>
       <c r="G1003" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -30750,7 +30750,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1005" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -30776,7 +30776,7 @@
         <v>2.81500005722046</v>
       </c>
       <c r="G1006" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -30802,7 +30802,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G1007" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -30828,7 +30828,7 @@
         <v>2.82500004768372</v>
       </c>
       <c r="G1008" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -30854,7 +30854,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G1009" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -30880,7 +30880,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G1010" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -30906,7 +30906,7 @@
         <v>2.75</v>
       </c>
       <c r="G1011" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -30932,7 +30932,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G1012" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -30958,7 +30958,7 @@
         <v>2.75500011444092</v>
       </c>
       <c r="G1013" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -30984,7 +30984,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G1014" t="s">
-        <v>527</v>
+        <v>624</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -31010,7 +31010,7 @@
         <v>2.71499991416931</v>
       </c>
       <c r="G1015" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -31036,7 +31036,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G1016" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -31062,7 +31062,7 @@
         <v>2.71499991416931</v>
       </c>
       <c r="G1017" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -31088,7 +31088,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G1018" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -31114,7 +31114,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G1019" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -31140,7 +31140,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G1020" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -31166,7 +31166,7 @@
         <v>2.70499992370605</v>
       </c>
       <c r="G1021" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -31192,7 +31192,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G1022" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -31218,7 +31218,7 @@
         <v>2.64499998092651</v>
       </c>
       <c r="G1023" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -31244,7 +31244,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G1024" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -31270,7 +31270,7 @@
         <v>2.5550000667572</v>
       </c>
       <c r="G1025" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -31296,7 +31296,7 @@
         <v>2.58500003814697</v>
       </c>
       <c r="G1026" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -31322,7 +31322,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G1027" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -31348,7 +31348,7 @@
         <v>2.77500009536743</v>
       </c>
       <c r="G1028" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -31374,7 +31374,7 @@
         <v>2.74499988555908</v>
       </c>
       <c r="G1029" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -31400,7 +31400,7 @@
         <v>2.71499991416931</v>
       </c>
       <c r="G1030" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -31426,7 +31426,7 @@
         <v>2.72499990463257</v>
       </c>
       <c r="G1031" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -31452,7 +31452,7 @@
         <v>2.74499988555908</v>
       </c>
       <c r="G1032" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -31478,7 +31478,7 @@
         <v>2.58500003814697</v>
       </c>
       <c r="G1033" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -31504,7 +31504,7 @@
         <v>2.60500001907349</v>
       </c>
       <c r="G1034" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -31530,7 +31530,7 @@
         <v>2.59500002861023</v>
       </c>
       <c r="G1035" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -31556,7 +31556,7 @@
         <v>2.49499988555908</v>
       </c>
       <c r="G1036" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -31582,7 +31582,7 @@
         <v>2.38499999046326</v>
       </c>
       <c r="G1037" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -31608,7 +31608,7 @@
         <v>2.40499997138977</v>
       </c>
       <c r="G1038" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -31634,7 +31634,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1039" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -31660,7 +31660,7 @@
         <v>2.45499992370605</v>
       </c>
       <c r="G1040" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -31686,7 +31686,7 @@
         <v>2.47499990463257</v>
       </c>
       <c r="G1041" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -31712,7 +31712,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1042" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -31738,7 +31738,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1043" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -31764,7 +31764,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1044" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -31790,7 +31790,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1045" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -31816,7 +31816,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1046" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -31842,7 +31842,7 @@
         <v>2.59500002861023</v>
       </c>
       <c r="G1047" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -31868,7 +31868,7 @@
         <v>2.51500010490417</v>
       </c>
       <c r="G1048" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -31894,7 +31894,7 @@
         <v>2.52500009536743</v>
       </c>
       <c r="G1049" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -31920,7 +31920,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1050" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -31946,7 +31946,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1051" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -31972,7 +31972,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1052" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -31998,7 +31998,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1053" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -32024,7 +32024,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1054" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -32050,7 +32050,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1055" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -32076,7 +32076,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1056" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -32102,7 +32102,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1057" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -32128,7 +32128,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1058" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -32154,7 +32154,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1059" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -32180,7 +32180,7 @@
         <v>1.98199999332428</v>
       </c>
       <c r="G1060" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -32206,7 +32206,7 @@
         <v>1.91400003433228</v>
       </c>
       <c r="G1061" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -32232,7 +32232,7 @@
         <v>1.86800003051758</v>
       </c>
       <c r="G1062" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -32258,7 +32258,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G1063" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -32284,7 +32284,7 @@
         <v>1.67599999904633</v>
       </c>
       <c r="G1064" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -32310,7 +32310,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G1065" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -32336,7 +32336,7 @@
         <v>1.40199995040894</v>
       </c>
       <c r="G1066" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -32362,7 +32362,7 @@
         <v>1.49199998378754</v>
       </c>
       <c r="G1067" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -32388,7 +32388,7 @@
         <v>1.38800001144409</v>
       </c>
       <c r="G1068" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -32414,7 +32414,7 @@
         <v>1.36199998855591</v>
       </c>
       <c r="G1069" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -32440,7 +32440,7 @@
         <v>1.39400005340576</v>
       </c>
       <c r="G1070" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -32466,7 +32466,7 @@
         <v>1.41600000858307</v>
       </c>
       <c r="G1071" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -32492,7 +32492,7 @@
         <v>1.57400000095367</v>
       </c>
       <c r="G1072" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -32518,7 +32518,7 @@
         <v>1.69599997997284</v>
       </c>
       <c r="G1073" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -32544,7 +32544,7 @@
         <v>1.70799994468689</v>
       </c>
       <c r="G1074" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -32570,7 +32570,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G1075" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -32596,7 +32596,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G1076" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -32622,7 +32622,7 @@
         <v>1.69599997997284</v>
       </c>
       <c r="G1077" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -32648,7 +32648,7 @@
         <v>1.62800002098083</v>
       </c>
       <c r="G1078" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -32674,7 +32674,7 @@
         <v>1.57400000095367</v>
       </c>
       <c r="G1079" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -32700,7 +32700,7 @@
         <v>1.63399994373322</v>
       </c>
       <c r="G1080" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -32726,7 +32726,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G1081" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -32752,7 +32752,7 @@
         <v>1.65600001811981</v>
       </c>
       <c r="G1082" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -32778,7 +32778,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G1083" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -32804,7 +32804,7 @@
         <v>1.66199994087219</v>
       </c>
       <c r="G1084" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -32830,7 +32830,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G1085" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -32856,7 +32856,7 @@
         <v>1.75</v>
       </c>
       <c r="G1086" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -32882,7 +32882,7 @@
         <v>1.75</v>
       </c>
       <c r="G1087" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -32908,7 +32908,7 @@
         <v>1.62000000476837</v>
       </c>
       <c r="G1088" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -32934,7 +32934,7 @@
         <v>1.63399994373322</v>
       </c>
       <c r="G1089" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -32960,7 +32960,7 @@
         <v>1.66600000858307</v>
       </c>
       <c r="G1090" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -32986,7 +32986,7 @@
         <v>1.66799998283386</v>
       </c>
       <c r="G1091" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -33012,7 +33012,7 @@
         <v>1.71800005435944</v>
       </c>
       <c r="G1092" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -33038,7 +33038,7 @@
         <v>1.66999995708466</v>
       </c>
       <c r="G1093" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -33064,7 +33064,7 @@
         <v>1.68799996376038</v>
       </c>
       <c r="G1094" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -33090,7 +33090,7 @@
         <v>1.66199994087219</v>
       </c>
       <c r="G1095" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -33116,7 +33116,7 @@
         <v>1.6599999666214</v>
       </c>
       <c r="G1096" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -33142,7 +33142,7 @@
         <v>1.66999995708466</v>
       </c>
       <c r="G1097" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -33168,7 +33168,7 @@
         <v>1.66999995708466</v>
       </c>
       <c r="G1098" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -33194,7 +33194,7 @@
         <v>1.64800000190735</v>
       </c>
       <c r="G1099" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -33220,7 +33220,7 @@
         <v>1.62000000476837</v>
       </c>
       <c r="G1100" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -33246,7 +33246,7 @@
         <v>1.58000004291534</v>
       </c>
       <c r="G1101" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -33272,7 +33272,7 @@
         <v>1.59200000762939</v>
       </c>
       <c r="G1102" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -33298,7 +33298,7 @@
         <v>1.59800004959106</v>
       </c>
       <c r="G1103" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -33324,7 +33324,7 @@
         <v>1.59800004959106</v>
       </c>
       <c r="G1104" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -33350,7 +33350,7 @@
         <v>1.55400002002716</v>
       </c>
       <c r="G1105" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -33376,7 +33376,7 @@
         <v>1.50999999046326</v>
       </c>
       <c r="G1106" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -33402,7 +33402,7 @@
         <v>1.4559999704361</v>
       </c>
       <c r="G1107" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -33428,7 +33428,7 @@
         <v>1.41600000858307</v>
       </c>
       <c r="G1108" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -33454,7 +33454,7 @@
         <v>1.41799998283386</v>
       </c>
       <c r="G1109" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -33480,7 +33480,7 @@
         <v>1.41999995708466</v>
       </c>
       <c r="G1110" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -33506,7 +33506,7 @@
         <v>1.39600002765656</v>
       </c>
       <c r="G1111" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -33532,7 +33532,7 @@
         <v>1.35800004005432</v>
       </c>
       <c r="G1112" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -33558,7 +33558,7 @@
         <v>1.36199998855591</v>
       </c>
       <c r="G1113" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -33584,7 +33584,7 @@
         <v>1.37199997901917</v>
       </c>
       <c r="G1114" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -33610,7 +33610,7 @@
         <v>1.44200003147125</v>
       </c>
       <c r="G1115" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -33636,7 +33636,7 @@
         <v>1.42200005054474</v>
       </c>
       <c r="G1116" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -33662,7 +33662,7 @@
         <v>1.46800005435944</v>
       </c>
       <c r="G1117" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -33688,7 +33688,7 @@
         <v>1.47800004482269</v>
       </c>
       <c r="G1118" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -33714,7 +33714,7 @@
         <v>1.46399998664856</v>
       </c>
       <c r="G1119" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -33740,7 +33740,7 @@
         <v>1.53999996185303</v>
       </c>
       <c r="G1120" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -33766,7 +33766,7 @@
         <v>1.60000002384186</v>
       </c>
       <c r="G1121" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -33792,7 +33792,7 @@
         <v>1.5900000333786</v>
       </c>
       <c r="G1122" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -33818,7 +33818,7 @@
         <v>1.57000005245209</v>
       </c>
       <c r="G1123" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -33844,7 +33844,7 @@
         <v>1.62000000476837</v>
       </c>
       <c r="G1124" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -33870,7 +33870,7 @@
         <v>1.65600001811981</v>
       </c>
       <c r="G1125" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -33896,7 +33896,7 @@
         <v>1.65400004386902</v>
       </c>
       <c r="G1126" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -33922,7 +33922,7 @@
         <v>1.64400005340576</v>
       </c>
       <c r="G1127" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -33948,7 +33948,7 @@
         <v>1.51600003242493</v>
       </c>
       <c r="G1128" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -33974,7 +33974,7 @@
         <v>1.49600005149841</v>
       </c>
       <c r="G1129" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -34000,7 +34000,7 @@
         <v>1.50999999046326</v>
       </c>
       <c r="G1130" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -34026,7 +34026,7 @@
         <v>1.58800005912781</v>
       </c>
       <c r="G1131" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -34052,7 +34052,7 @@
         <v>1.54999995231628</v>
       </c>
       <c r="G1132" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -34078,7 +34078,7 @@
         <v>1.53999996185303</v>
       </c>
       <c r="G1133" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -34104,7 +34104,7 @@
         <v>1.55200004577637</v>
       </c>
       <c r="G1134" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -34130,7 +34130,7 @@
         <v>1.52600002288818</v>
       </c>
       <c r="G1135" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -34156,7 +34156,7 @@
         <v>1.55599999427795</v>
       </c>
       <c r="G1136" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -34182,7 +34182,7 @@
         <v>1.51400005817413</v>
       </c>
       <c r="G1137" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -34208,7 +34208,7 @@
         <v>1.52400004863739</v>
       </c>
       <c r="G1138" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -34234,7 +34234,7 @@
         <v>1.46000003814697</v>
       </c>
       <c r="G1139" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -34260,7 +34260,7 @@
         <v>1.48800003528595</v>
       </c>
       <c r="G1140" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -34286,7 +34286,7 @@
         <v>1.46599996089935</v>
       </c>
       <c r="G1141" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -34312,7 +34312,7 @@
         <v>1.46399998664856</v>
       </c>
       <c r="G1142" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -34338,7 +34338,7 @@
         <v>1.59200000762939</v>
       </c>
       <c r="G1143" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -34364,7 +34364,7 @@
         <v>1.52199995517731</v>
       </c>
       <c r="G1144" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -34390,7 +34390,7 @@
         <v>1.53999996185303</v>
       </c>
       <c r="G1145" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -34416,7 +34416,7 @@
         <v>1.50399994850159</v>
       </c>
       <c r="G1146" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -34442,7 +34442,7 @@
         <v>1.50999999046326</v>
       </c>
       <c r="G1147" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -34468,7 +34468,7 @@
         <v>1.47200000286102</v>
       </c>
       <c r="G1148" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -34494,7 +34494,7 @@
         <v>1.5</v>
       </c>
       <c r="G1149" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -34520,7 +34520,7 @@
         <v>1.50800001621246</v>
       </c>
       <c r="G1150" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -34546,7 +34546,7 @@
         <v>1.48000001907349</v>
       </c>
       <c r="G1151" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -34572,7 +34572,7 @@
         <v>1.50600004196167</v>
       </c>
       <c r="G1152" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -34598,7 +34598,7 @@
         <v>1.50999999046326</v>
       </c>
       <c r="G1153" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -34624,7 +34624,7 @@
         <v>1.49800002574921</v>
       </c>
       <c r="G1154" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -34650,7 +34650,7 @@
         <v>1.5</v>
       </c>
       <c r="G1155" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -34676,7 +34676,7 @@
         <v>1.49800002574921</v>
       </c>
       <c r="G1156" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -34702,7 +34702,7 @@
         <v>1.48599994182587</v>
       </c>
       <c r="G1157" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -34728,7 +34728,7 @@
         <v>1.46800005435944</v>
       </c>
       <c r="G1158" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -34754,7 +34754,7 @@
         <v>1.44599997997284</v>
       </c>
       <c r="G1159" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -34780,7 +34780,7 @@
         <v>1.40799999237061</v>
       </c>
       <c r="G1160" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -34806,7 +34806,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1161" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -34832,7 +34832,7 @@
         <v>1.37000000476837</v>
       </c>
       <c r="G1162" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -34858,7 +34858,7 @@
         <v>1.39199995994568</v>
       </c>
       <c r="G1163" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -34884,7 +34884,7 @@
         <v>1.36600005626678</v>
       </c>
       <c r="G1164" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -34910,7 +34910,7 @@
         <v>1.34800004959106</v>
       </c>
       <c r="G1165" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -34936,7 +34936,7 @@
         <v>1.38800001144409</v>
       </c>
       <c r="G1166" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -34962,7 +34962,7 @@
         <v>1.40600001811981</v>
       </c>
       <c r="G1167" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -34988,7 +34988,7 @@
         <v>1.39400005340576</v>
       </c>
       <c r="G1168" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -35014,7 +35014,7 @@
         <v>1.36600005626678</v>
       </c>
       <c r="G1169" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -35040,7 +35040,7 @@
         <v>1.37600004673004</v>
       </c>
       <c r="G1170" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -35066,7 +35066,7 @@
         <v>1.4099999666214</v>
       </c>
       <c r="G1171" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -35092,7 +35092,7 @@
         <v>1.40600001811981</v>
       </c>
       <c r="G1172" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -35118,7 +35118,7 @@
         <v>1.4099999666214</v>
       </c>
       <c r="G1173" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -35144,7 +35144,7 @@
         <v>1.39400005340576</v>
       </c>
       <c r="G1174" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -35170,7 +35170,7 @@
         <v>1.3639999628067</v>
       </c>
       <c r="G1175" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -35196,7 +35196,7 @@
         <v>1.36199998855591</v>
       </c>
       <c r="G1176" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -35222,7 +35222,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1177" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -35248,7 +35248,7 @@
         <v>1.34399998188019</v>
       </c>
       <c r="G1178" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -35274,7 +35274,7 @@
         <v>1.33599996566772</v>
       </c>
       <c r="G1179" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -35300,7 +35300,7 @@
         <v>1.33599996566772</v>
       </c>
       <c r="G1180" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -35326,7 +35326,7 @@
         <v>1.33599996566772</v>
       </c>
       <c r="G1181" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -35352,7 +35352,7 @@
         <v>1.33800005912781</v>
       </c>
       <c r="G1182" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -35378,7 +35378,7 @@
         <v>1.32799994945526</v>
       </c>
       <c r="G1183" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -35404,7 +35404,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="G1184" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -35430,7 +35430,7 @@
         <v>1.33200001716614</v>
       </c>
       <c r="G1185" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -35456,7 +35456,7 @@
         <v>1.31400001049042</v>
       </c>
       <c r="G1186" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -35482,7 +35482,7 @@
         <v>1.27999997138977</v>
       </c>
       <c r="G1187" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -35508,7 +35508,7 @@
         <v>1.32799994945526</v>
       </c>
       <c r="G1188" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -35534,7 +35534,7 @@
         <v>1.30599999427795</v>
       </c>
       <c r="G1189" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -35560,7 +35560,7 @@
         <v>1.30599999427795</v>
       </c>
       <c r="G1190" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -35586,7 +35586,7 @@
         <v>1.2960000038147</v>
       </c>
       <c r="G1191" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -35612,7 +35612,7 @@
         <v>1.29799997806549</v>
       </c>
       <c r="G1192" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -35638,7 +35638,7 @@
         <v>1.28600001335144</v>
       </c>
       <c r="G1193" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -35664,7 +35664,7 @@
         <v>1.28600001335144</v>
       </c>
       <c r="G1194" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -35690,7 +35690,7 @@
         <v>1.27400004863739</v>
       </c>
       <c r="G1195" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -35716,7 +35716,7 @@
         <v>1.24199998378754</v>
       </c>
       <c r="G1196" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -35742,7 +35742,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1197" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -35768,7 +35768,7 @@
         <v>1.23199999332428</v>
       </c>
       <c r="G1198" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -35794,7 +35794,7 @@
         <v>1.22599995136261</v>
       </c>
       <c r="G1199" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -35820,7 +35820,7 @@
         <v>1.25399994850159</v>
       </c>
       <c r="G1200" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -35846,7 +35846,7 @@
         <v>1.27199995517731</v>
       </c>
       <c r="G1201" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -35872,7 +35872,7 @@
         <v>1.2960000038147</v>
       </c>
       <c r="G1202" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -35898,7 +35898,7 @@
         <v>1.24600005149841</v>
       </c>
       <c r="G1203" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -35924,7 +35924,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1204" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -35950,7 +35950,7 @@
         <v>1.24399995803833</v>
       </c>
       <c r="G1205" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -35976,7 +35976,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1206" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -36002,7 +36002,7 @@
         <v>1.27199995517731</v>
       </c>
       <c r="G1207" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -36028,7 +36028,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1208" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -36054,7 +36054,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="G1209" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -36080,7 +36080,7 @@
         <v>1.28400003910065</v>
       </c>
       <c r="G1210" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -36106,7 +36106,7 @@
         <v>1.32799994945526</v>
       </c>
       <c r="G1211" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -36132,7 +36132,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G1212" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -36158,7 +36158,7 @@
         <v>1.36800003051758</v>
       </c>
       <c r="G1213" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -36184,7 +36184,7 @@
         <v>1.36000001430511</v>
       </c>
       <c r="G1214" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -36210,7 +36210,7 @@
         <v>1.31599998474121</v>
       </c>
       <c r="G1215" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -36236,7 +36236,7 @@
         <v>1.26999998092651</v>
       </c>
       <c r="G1216" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -36262,7 +36262,7 @@
         <v>1.26600003242493</v>
       </c>
       <c r="G1217" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -36288,7 +36288,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1218" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -36314,7 +36314,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1219" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -36340,7 +36340,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1220" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -36366,7 +36366,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1221" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -36392,7 +36392,7 @@
         <v>1.16199994087219</v>
       </c>
       <c r="G1222" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -36418,7 +36418,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1223" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -36444,7 +36444,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1224" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -36470,7 +36470,7 @@
         <v>1.14199995994568</v>
       </c>
       <c r="G1225" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -36496,7 +36496,7 @@
         <v>1.14600002765656</v>
       </c>
       <c r="G1226" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -36522,7 +36522,7 @@
         <v>1.07400000095367</v>
       </c>
       <c r="G1227" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -36548,7 +36548,7 @@
         <v>1.03199994564056</v>
       </c>
       <c r="G1228" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -36574,7 +36574,7 @@
         <v>1.01199996471405</v>
       </c>
       <c r="G1229" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -36600,7 +36600,7 @@
         <v>1.06599998474121</v>
       </c>
       <c r="G1230" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -36626,7 +36626,7 @@
         <v>1.067999958992</v>
       </c>
       <c r="G1231" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -36652,7 +36652,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1232" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -36678,7 +36678,7 @@
         <v>1.06200003623962</v>
       </c>
       <c r="G1233" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -36704,7 +36704,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G1234" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -36730,7 +36730,7 @@
         <v>1.1139999628067</v>
       </c>
       <c r="G1235" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -36756,7 +36756,7 @@
         <v>1.15199995040894</v>
       </c>
       <c r="G1236" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -36782,7 +36782,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1237" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -36808,7 +36808,7 @@
         <v>1.17599999904633</v>
       </c>
       <c r="G1238" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -36834,7 +36834,7 @@
         <v>1.20799994468689</v>
       </c>
       <c r="G1239" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -36860,7 +36860,7 @@
         <v>1.25600004196167</v>
       </c>
       <c r="G1240" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -36886,7 +36886,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1241" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -36912,7 +36912,7 @@
         <v>1.25600004196167</v>
       </c>
       <c r="G1242" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -36938,7 +36938,7 @@
         <v>1.23800003528595</v>
       </c>
       <c r="G1243" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -36964,7 +36964,7 @@
         <v>1.24600005149841</v>
       </c>
       <c r="G1244" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -36990,7 +36990,7 @@
         <v>1.24399995803833</v>
       </c>
       <c r="G1245" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -37016,7 +37016,7 @@
         <v>1.26400005817413</v>
       </c>
       <c r="G1246" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -37042,7 +37042,7 @@
         <v>1.26400005817413</v>
       </c>
       <c r="G1247" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -37068,7 +37068,7 @@
         <v>1.25800001621246</v>
       </c>
       <c r="G1248" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -37094,7 +37094,7 @@
         <v>1.26400005817413</v>
       </c>
       <c r="G1249" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -37120,7 +37120,7 @@
         <v>1.19400000572205</v>
       </c>
       <c r="G1250" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -37146,7 +37146,7 @@
         <v>1.22599995136261</v>
       </c>
       <c r="G1251" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -37172,7 +37172,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1252" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -37198,7 +37198,7 @@
         <v>1.23800003528595</v>
       </c>
       <c r="G1253" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -37224,7 +37224,7 @@
         <v>1.23599994182587</v>
       </c>
       <c r="G1254" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -37250,7 +37250,7 @@
         <v>1.21599996089935</v>
       </c>
       <c r="G1255" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -37276,7 +37276,7 @@
         <v>1.22599995136261</v>
       </c>
       <c r="G1256" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -37302,7 +37302,7 @@
         <v>1.23000001907349</v>
       </c>
       <c r="G1257" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -37328,7 +37328,7 @@
         <v>1.21200001239777</v>
       </c>
       <c r="G1258" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -37354,7 +37354,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1259" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -37380,7 +37380,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1260" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -37406,7 +37406,7 @@
         <v>1.19599997997284</v>
       </c>
       <c r="G1261" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -37432,7 +37432,7 @@
         <v>1.21000003814697</v>
       </c>
       <c r="G1262" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -37458,7 +37458,7 @@
         <v>1.22000002861023</v>
       </c>
       <c r="G1263" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -37484,7 +37484,7 @@
         <v>1.22399997711182</v>
       </c>
       <c r="G1264" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -37510,7 +37510,7 @@
         <v>1.19200003147125</v>
       </c>
       <c r="G1265" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -37536,7 +37536,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1266" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -37562,7 +37562,7 @@
         <v>1.20200002193451</v>
       </c>
       <c r="G1267" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -37588,7 +37588,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1268" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -37614,7 +37614,7 @@
         <v>1.25600004196167</v>
       </c>
       <c r="G1269" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -37640,7 +37640,7 @@
         <v>1.26400005817413</v>
       </c>
       <c r="G1270" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -37666,7 +37666,7 @@
         <v>1.24000000953674</v>
       </c>
       <c r="G1271" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -37692,7 +37692,7 @@
         <v>1.24399995803833</v>
       </c>
       <c r="G1272" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -37718,7 +37718,7 @@
         <v>1.25399994850159</v>
       </c>
       <c r="G1273" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -37744,7 +37744,7 @@
         <v>1.24800002574921</v>
       </c>
       <c r="G1274" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -37770,7 +37770,7 @@
         <v>1.23199999332428</v>
       </c>
       <c r="G1275" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -37796,7 +37796,7 @@
         <v>1.21800005435944</v>
       </c>
       <c r="G1276" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -37822,7 +37822,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1277" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -37848,7 +37848,7 @@
         <v>1.182000041008</v>
       </c>
       <c r="G1278" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -37874,7 +37874,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1279" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -37900,7 +37900,7 @@
         <v>1.17400002479553</v>
       </c>
       <c r="G1280" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -37926,7 +37926,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1281" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -37952,7 +37952,7 @@
         <v>1.16199994087219</v>
       </c>
       <c r="G1282" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -37978,7 +37978,7 @@
         <v>1.16600000858307</v>
       </c>
       <c r="G1283" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -38004,7 +38004,7 @@
         <v>1.17799997329712</v>
       </c>
       <c r="G1284" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -38030,7 +38030,7 @@
         <v>1.15600001811981</v>
       </c>
       <c r="G1285" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -38056,7 +38056,7 @@
         <v>1.14199995994568</v>
       </c>
       <c r="G1286" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -38082,7 +38082,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1287" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -38108,7 +38108,7 @@
         <v>1.16799998283386</v>
       </c>
       <c r="G1288" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -38134,7 +38134,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1289" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -38160,7 +38160,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1290" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -38186,7 +38186,7 @@
         <v>1.16799998283386</v>
       </c>
       <c r="G1291" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -38212,7 +38212,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1292" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -38238,7 +38238,7 @@
         <v>1.19599997997284</v>
       </c>
       <c r="G1293" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -38264,7 +38264,7 @@
         <v>1.20799994468689</v>
       </c>
       <c r="G1294" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -38290,7 +38290,7 @@
         <v>1.21399998664856</v>
       </c>
       <c r="G1295" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -38316,7 +38316,7 @@
         <v>1.30799996852875</v>
       </c>
       <c r="G1296" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -38342,7 +38342,7 @@
         <v>1.34800004959106</v>
       </c>
       <c r="G1297" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -38368,7 +38368,7 @@
         <v>1.4099999666214</v>
       </c>
       <c r="G1298" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -38394,7 +38394,7 @@
         <v>1.35800004005432</v>
       </c>
       <c r="G1299" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -38420,7 +38420,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1300" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -38446,7 +38446,7 @@
         <v>1.39600002765656</v>
       </c>
       <c r="G1301" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -38472,7 +38472,7 @@
         <v>1.35800004005432</v>
       </c>
       <c r="G1302" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -38498,7 +38498,7 @@
         <v>1.35399997234344</v>
       </c>
       <c r="G1303" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -38524,7 +38524,7 @@
         <v>1.31400001049042</v>
       </c>
       <c r="G1304" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -38550,7 +38550,7 @@
         <v>1.36000001430511</v>
       </c>
       <c r="G1305" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -38576,7 +38576,7 @@
         <v>1.46800005435944</v>
       </c>
       <c r="G1306" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -38602,7 +38602,7 @@
         <v>1.46200001239777</v>
       </c>
       <c r="G1307" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -38628,7 +38628,7 @@
         <v>1.49000000953674</v>
       </c>
       <c r="G1308" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -38654,7 +38654,7 @@
         <v>1.45200002193451</v>
       </c>
       <c r="G1309" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -38680,7 +38680,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1310" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -38706,7 +38706,7 @@
         <v>1.41400003433228</v>
       </c>
       <c r="G1311" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -38732,7 +38732,7 @@
         <v>1.41799998283386</v>
       </c>
       <c r="G1312" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -38758,7 +38758,7 @@
         <v>1.41199994087219</v>
       </c>
       <c r="G1313" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -38784,7 +38784,7 @@
         <v>1.37800002098083</v>
       </c>
       <c r="G1314" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -38810,7 +38810,7 @@
         <v>1.36000001430511</v>
       </c>
       <c r="G1315" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -38836,7 +38836,7 @@
         <v>1.36800003051758</v>
       </c>
       <c r="G1316" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -38862,7 +38862,7 @@
         <v>1.41799998283386</v>
       </c>
       <c r="G1317" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -38888,7 +38888,7 @@
         <v>1.45000004768372</v>
       </c>
       <c r="G1318" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -38914,7 +38914,7 @@
         <v>1.44000005722046</v>
       </c>
       <c r="G1319" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -38940,7 +38940,7 @@
         <v>1.43599998950958</v>
       </c>
       <c r="G1320" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -38966,7 +38966,7 @@
         <v>1.49199998378754</v>
       </c>
       <c r="G1321" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -38992,7 +38992,7 @@
         <v>1.50600004196167</v>
       </c>
       <c r="G1322" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -39018,7 +39018,7 @@
         <v>1.48399996757507</v>
       </c>
       <c r="G1323" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -39044,7 +39044,7 @@
         <v>1.52199995517731</v>
       </c>
       <c r="G1324" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -39070,7 +39070,7 @@
         <v>1.68599998950958</v>
       </c>
       <c r="G1325" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -39096,7 +39096,7 @@
         <v>1.65600001811981</v>
       </c>
       <c r="G1326" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -39122,7 +39122,7 @@
         <v>1.61800003051758</v>
       </c>
       <c r="G1327" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -39148,7 +39148,7 @@
         <v>1.61800003051758</v>
       </c>
       <c r="G1328" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -39174,7 +39174,7 @@
         <v>1.60199999809265</v>
       </c>
       <c r="G1329" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -39200,7 +39200,7 @@
         <v>1.61000001430511</v>
       </c>
       <c r="G1330" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -39226,7 +39226,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G1331" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -39252,7 +39252,7 @@
         <v>1.61199998855591</v>
       </c>
       <c r="G1332" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -39278,7 +39278,7 @@
         <v>1.57599997520447</v>
       </c>
       <c r="G1333" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -39304,7 +39304,7 @@
         <v>1.58200001716614</v>
       </c>
       <c r="G1334" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -39330,7 +39330,7 @@
         <v>1.58000004291534</v>
       </c>
       <c r="G1335" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -39356,7 +39356,7 @@
         <v>1.63199996948242</v>
       </c>
       <c r="G1336" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -39382,7 +39382,7 @@
         <v>1.61800003051758</v>
       </c>
       <c r="G1337" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -39408,7 +39408,7 @@
         <v>1.61600005626678</v>
       </c>
       <c r="G1338" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -39434,7 +39434,7 @@
         <v>1.62999999523163</v>
       </c>
       <c r="G1339" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -39460,7 +39460,7 @@
         <v>1.6360000371933</v>
       </c>
       <c r="G1340" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -39486,7 +39486,7 @@
         <v>1.62000000476837</v>
       </c>
       <c r="G1341" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -39512,7 +39512,7 @@
         <v>1.61199998855591</v>
       </c>
       <c r="G1342" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -39538,7 +39538,7 @@
         <v>1.62999999523163</v>
       </c>
       <c r="G1343" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -39564,7 +39564,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G1344" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -39590,7 +39590,7 @@
         <v>1.59200000762939</v>
       </c>
       <c r="G1345" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -39616,7 +39616,7 @@
         <v>1.74800002574921</v>
       </c>
       <c r="G1346" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -39642,7 +39642,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G1347" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -39668,7 +39668,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G1348" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -39694,7 +39694,7 @@
         <v>1.80400002002716</v>
       </c>
       <c r="G1349" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -39720,7 +39720,7 @@
         <v>1.76199996471405</v>
       </c>
       <c r="G1350" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -39746,7 +39746,7 @@
         <v>1.79799997806549</v>
       </c>
       <c r="G1351" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -39772,7 +39772,7 @@
         <v>1.79200005531311</v>
       </c>
       <c r="G1352" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -39798,7 +39798,7 @@
         <v>1.78600001335144</v>
       </c>
       <c r="G1353" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -39824,7 +39824,7 @@
         <v>1.7960000038147</v>
       </c>
       <c r="G1354" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -39850,7 +39850,7 @@
         <v>1.78799998760223</v>
       </c>
       <c r="G1355" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -39876,7 +39876,7 @@
         <v>1.7960000038147</v>
       </c>
       <c r="G1356" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -39902,7 +39902,7 @@
         <v>1.80599999427795</v>
       </c>
       <c r="G1357" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -39928,7 +39928,7 @@
         <v>1.84800004959106</v>
       </c>
       <c r="G1358" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -39954,7 +39954,7 @@
         <v>1.9539999961853</v>
       </c>
       <c r="G1359" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -39980,7 +39980,7 @@
         <v>1.9539999961853</v>
       </c>
       <c r="G1360" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -40006,7 +40006,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1361" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -40032,7 +40032,7 @@
         <v>2.00500011444092</v>
       </c>
       <c r="G1362" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -40058,7 +40058,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1363" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -40084,7 +40084,7 @@
         <v>1.97599995136261</v>
       </c>
       <c r="G1364" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -40110,7 +40110,7 @@
         <v>1.94599997997284</v>
       </c>
       <c r="G1365" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -40136,7 +40136,7 @@
         <v>1.932000041008</v>
       </c>
       <c r="G1366" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -40162,7 +40162,7 @@
         <v>1.93400001525879</v>
       </c>
       <c r="G1367" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -40188,7 +40188,7 @@
         <v>1.91600000858307</v>
       </c>
       <c r="G1368" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -40214,7 +40214,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G1369" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -40240,7 +40240,7 @@
         <v>1.84800004959106</v>
       </c>
       <c r="G1370" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -40266,7 +40266,7 @@
         <v>1.82799994945526</v>
       </c>
       <c r="G1371" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -40292,7 +40292,7 @@
         <v>1.84599995613098</v>
       </c>
       <c r="G1372" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -40318,7 +40318,7 @@
         <v>1.85399997234344</v>
       </c>
       <c r="G1373" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -40344,7 +40344,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G1374" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -40370,7 +40370,7 @@
         <v>1.87399995326996</v>
       </c>
       <c r="G1375" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -40396,7 +40396,7 @@
         <v>1.8639999628067</v>
       </c>
       <c r="G1376" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -40422,7 +40422,7 @@
         <v>1.87600004673004</v>
       </c>
       <c r="G1377" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -40448,7 +40448,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G1378" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -40734,7 +40734,7 @@
         <v>1.87399995326996</v>
       </c>
       <c r="G1389" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -42086,7 +42086,7 @@
         <v>1.8639999628067</v>
       </c>
       <c r="G1441" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -42164,7 +42164,7 @@
         <v>1.84800004959106</v>
       </c>
       <c r="G1444" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -42918,7 +42918,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G1473" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -42996,7 +42996,7 @@
         <v>1.87399995326996</v>
       </c>
       <c r="G1476" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -43698,7 +43698,7 @@
         <v>1.82799994945526</v>
       </c>
       <c r="G1503" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -43776,7 +43776,7 @@
         <v>1.84599995613098</v>
       </c>
       <c r="G1506" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -43802,7 +43802,7 @@
         <v>1.82799994945526</v>
       </c>
       <c r="G1507" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -44140,7 +44140,7 @@
         <v>1.87399995326996</v>
       </c>
       <c r="G1520" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -44738,7 +44738,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G1543" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -62504,7 +62504,7 @@
     </row>
     <row r="2227">
       <c r="A2227" s="1" t="n">
-        <v>45565.6493981481</v>
+        <v>45565.2916666667</v>
       </c>
       <c r="B2227" t="n">
         <v>113744</v>
@@ -62513,7 +62513,7 @@
         <v>2.20499992370605</v>
       </c>
       <c r="D2227" t="n">
-        <v>2.15499997138977</v>
+        <v>2.15000009536743</v>
       </c>
       <c r="E2227" t="n">
         <v>2.20499992370605</v>
@@ -62525,6 +62525,32 @@
         <v>1410</v>
       </c>
       <c r="H2227" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" s="1" t="n">
+        <v>45566.6496064815</v>
+      </c>
+      <c r="B2228" t="n">
+        <v>108194</v>
+      </c>
+      <c r="C2228" t="n">
+        <v>2.17000007629395</v>
+      </c>
+      <c r="D2228" t="n">
+        <v>2.13499999046326</v>
+      </c>
+      <c r="E2228" t="n">
+        <v>2.15000009536743</v>
+      </c>
+      <c r="F2228" t="n">
+        <v>2.15000009536743</v>
+      </c>
+      <c r="G2228" t="s">
+        <v>1410</v>
+      </c>
+      <c r="H2228" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CAI.MI.xlsx
+++ b/data/CAI.MI.xlsx
@@ -44,19 +44,19 @@
     <t xml:space="preserve">CAI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08614468574524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01786732673645</t>
+    <t xml:space="preserve">3.08614444732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01786708831787</t>
   </si>
   <si>
     <t xml:space="preserve">2.97690057754517</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98099732398987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88131213188171</t>
+    <t xml:space="preserve">2.98099756240845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88131189346313</t>
   </si>
   <si>
     <t xml:space="preserve">2.94003081321716</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">2.80620670318604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86082911491394</t>
+    <t xml:space="preserve">2.86082887649536</t>
   </si>
   <si>
     <t xml:space="preserve">2.75841236114502</t>
@@ -74,46 +74,46 @@
     <t xml:space="preserve">2.73929476737976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69013476371765</t>
+    <t xml:space="preserve">2.69013500213623</t>
   </si>
   <si>
     <t xml:space="preserve">2.71744585037231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86629056930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76387476921082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7447566986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75704717636108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.710618019104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73110127449036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76114368438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7256395816803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69696259498596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72290825843811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62868499755859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45935678482056</t>
+    <t xml:space="preserve">2.86629104614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76387453079224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74475693702698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7570469379425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71061825752258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73110151290894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76114416122437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72563934326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69696283340454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72290802001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62868475914001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45935702323914</t>
   </si>
   <si>
     <t xml:space="preserve">2.45799136161804</t>
@@ -122,7 +122,7 @@
     <t xml:space="preserve">2.30095291137695</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38971400260925</t>
+    <t xml:space="preserve">2.38971376419067</t>
   </si>
   <si>
     <t xml:space="preserve">2.53992438316345</t>
@@ -131,7 +131,7 @@
     <t xml:space="preserve">2.50442004203796</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67511391639709</t>
+    <t xml:space="preserve">2.67511367797852</t>
   </si>
   <si>
     <t xml:space="preserve">2.81713104248047</t>
@@ -140,7 +140,7 @@
     <t xml:space="preserve">2.74885368347168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78162693977356</t>
+    <t xml:space="preserve">2.78162670135498</t>
   </si>
   <si>
     <t xml:space="preserve">2.68467259407043</t>
@@ -155,10 +155,10 @@
     <t xml:space="preserve">2.84717321395874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88404273986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88540887832642</t>
+    <t xml:space="preserve">2.88404321670532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88540863990784</t>
   </si>
   <si>
     <t xml:space="preserve">2.89769840240479</t>
@@ -167,10 +167,10 @@
     <t xml:space="preserve">2.85126996040344</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94685840606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94958972930908</t>
+    <t xml:space="preserve">2.94685864448547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9495894908905</t>
   </si>
   <si>
     <t xml:space="preserve">3.05883359909058</t>
@@ -179,97 +179,97 @@
     <t xml:space="preserve">3.12164926528931</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16125011444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18173289299011</t>
+    <t xml:space="preserve">3.16124987602234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18173313140869</t>
   </si>
   <si>
     <t xml:space="preserve">3.20767831802368</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1790018081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17217421531677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23635458946228</t>
+    <t xml:space="preserve">3.17900228500366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17217445373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23635530471802</t>
   </si>
   <si>
     <t xml:space="preserve">3.25001072883606</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21041011810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22269988059998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23089289665222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22952723503113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14076662063599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14895987510681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.225430727005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2923424243927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21587181091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30463290214539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27732181549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34559965133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36608266830444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40704894065857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38656544685364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33330893516541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34833025932312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32511591911316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32375073432922</t>
+    <t xml:space="preserve">3.21040964126587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22269940376282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23089265823364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22952747344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14076638221741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14896011352539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22543120384216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29234313964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21587204933167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30463266372681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27732157707214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34559917449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36608195304871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40704917907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38656568527222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33330941200256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3483304977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32511568069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32375025749207</t>
   </si>
   <si>
     <t xml:space="preserve">3.29780507087708</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26366662979126</t>
+    <t xml:space="preserve">3.26366639137268</t>
   </si>
   <si>
     <t xml:space="preserve">3.29097700119019</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26022291183472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1918261051178</t>
+    <t xml:space="preserve">3.26022267341614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19182634353638</t>
   </si>
   <si>
     <t xml:space="preserve">3.15620303153992</t>
@@ -278,25 +278,25 @@
     <t xml:space="preserve">3.1348295211792</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17330241203308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09208202362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14907908439636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32291889190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34856796264648</t>
+    <t xml:space="preserve">3.17330288887024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09208178520203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14907884597778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3229193687439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34856748580933</t>
   </si>
   <si>
     <t xml:space="preserve">3.33431839942932</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31151986122131</t>
+    <t xml:space="preserve">3.31151962280273</t>
   </si>
   <si>
     <t xml:space="preserve">3.38419103622437</t>
@@ -305,7 +305,7 @@
     <t xml:space="preserve">3.44403791427612</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41981434822083</t>
+    <t xml:space="preserve">3.41981387138367</t>
   </si>
   <si>
     <t xml:space="preserve">3.43406295776367</t>
@@ -320,22 +320,22 @@
     <t xml:space="preserve">3.43833804130554</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45116209983826</t>
+    <t xml:space="preserve">3.45116233825684</t>
   </si>
   <si>
     <t xml:space="preserve">3.40841484069824</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39844036102295</t>
+    <t xml:space="preserve">3.39844012260437</t>
   </si>
   <si>
     <t xml:space="preserve">3.34714269638062</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20607566833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02796053886414</t>
+    <t xml:space="preserve">3.20607542991638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02796030044556</t>
   </si>
   <si>
     <t xml:space="preserve">2.94246506690979</t>
@@ -344,7 +344,7 @@
     <t xml:space="preserve">2.8997175693512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89686727523804</t>
+    <t xml:space="preserve">2.89686751365662</t>
   </si>
   <si>
     <t xml:space="preserve">3.06643319129944</t>
@@ -353,13 +353,13 @@
     <t xml:space="preserve">3.08495736122131</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13197994232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14195394515991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02938485145569</t>
+    <t xml:space="preserve">3.13197922706604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14195370674133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02938508987427</t>
   </si>
   <si>
     <t xml:space="preserve">2.84984517097473</t>
@@ -368,34 +368,34 @@
     <t xml:space="preserve">2.95671415328979</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06500840187073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16332793235779</t>
+    <t xml:space="preserve">3.06500816345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16332769393921</t>
   </si>
   <si>
     <t xml:space="preserve">2.96526384353638</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95528888702393</t>
+    <t xml:space="preserve">2.95528936386108</t>
   </si>
   <si>
     <t xml:space="preserve">2.9923369884491</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12058067321777</t>
+    <t xml:space="preserve">3.12058019638062</t>
   </si>
   <si>
     <t xml:space="preserve">3.1704523563385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23599886894226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17757725715637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13625454902649</t>
+    <t xml:space="preserve">3.23599934577942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17757701873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13625478744507</t>
   </si>
   <si>
     <t xml:space="preserve">2.94958925247192</t>
@@ -404,28 +404,28 @@
     <t xml:space="preserve">2.83702087402344</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9196662902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86551904678345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90399217605591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84129524230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87549352645874</t>
+    <t xml:space="preserve">2.91966652870178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86551880836487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90399241447449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84129548072815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87549328804016</t>
   </si>
   <si>
     <t xml:space="preserve">2.83559584617615</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79854798316956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73442625999451</t>
+    <t xml:space="preserve">2.7985475063324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73442649841309</t>
   </si>
   <si>
     <t xml:space="preserve">2.77717399597168</t>
@@ -437,13 +437,13 @@
     <t xml:space="preserve">2.87406849861145</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84272050857544</t>
+    <t xml:space="preserve">2.84272027015686</t>
   </si>
   <si>
     <t xml:space="preserve">2.87834334373474</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92821550369263</t>
+    <t xml:space="preserve">2.92821574211121</t>
   </si>
   <si>
     <t xml:space="preserve">2.92109107971191</t>
@@ -452,25 +452,25 @@
     <t xml:space="preserve">2.94103980064392</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86694431304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85839438438416</t>
+    <t xml:space="preserve">2.8669445514679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85839462280273</t>
   </si>
   <si>
     <t xml:space="preserve">2.86409425735474</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81707191467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76007485389709</t>
+    <t xml:space="preserve">2.81707215309143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76007509231567</t>
   </si>
   <si>
     <t xml:space="preserve">2.80567264556885</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77289938926697</t>
+    <t xml:space="preserve">2.77289915084839</t>
   </si>
   <si>
     <t xml:space="preserve">2.7586498260498</t>
@@ -479,16 +479,16 @@
     <t xml:space="preserve">2.77859902381897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68597888946533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62470746040344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59478402137756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5477614402771</t>
+    <t xml:space="preserve">2.68597912788391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62470722198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59478378295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54776167869568</t>
   </si>
   <si>
     <t xml:space="preserve">2.58480954170227</t>
@@ -497,10 +497,10 @@
     <t xml:space="preserve">2.65605568885803</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65463089942932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63610696792603</t>
+    <t xml:space="preserve">2.65463066101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63610672950745</t>
   </si>
   <si>
     <t xml:space="preserve">2.60333347320557</t>
@@ -518,25 +518,25 @@
     <t xml:space="preserve">2.42379331588745</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44374203681946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41666841506958</t>
+    <t xml:space="preserve">2.44374179840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41666865348816</t>
   </si>
   <si>
     <t xml:space="preserve">2.45941615104675</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61900782585144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61045789718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54918670654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57910966873169</t>
+    <t xml:space="preserve">2.61900758743286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61045813560486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54918646812439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57910943031311</t>
   </si>
   <si>
     <t xml:space="preserve">2.5506112575531</t>
@@ -548,7 +548,7 @@
     <t xml:space="preserve">2.57341027259827</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64465594291687</t>
+    <t xml:space="preserve">2.64465641975403</t>
   </si>
   <si>
     <t xml:space="preserve">2.69310355186462</t>
@@ -557,70 +557,70 @@
     <t xml:space="preserve">2.64038157463074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63895678520203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62898230552673</t>
+    <t xml:space="preserve">2.63895654678345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62898206710815</t>
   </si>
   <si>
     <t xml:space="preserve">2.63325691223145</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67172956466675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74867534637451</t>
+    <t xml:space="preserve">2.67172980308533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74867558479309</t>
   </si>
   <si>
     <t xml:space="preserve">2.73727631568909</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6731550693512</t>
+    <t xml:space="preserve">2.67315459251404</t>
   </si>
   <si>
     <t xml:space="preserve">2.70307803153992</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71447730064392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70735263824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65178060531616</t>
+    <t xml:space="preserve">2.7144775390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70735311508179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65178084373474</t>
   </si>
   <si>
     <t xml:space="preserve">2.66887974739075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63753151893616</t>
+    <t xml:space="preserve">2.63753175735474</t>
   </si>
   <si>
     <t xml:space="preserve">2.65748047828674</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56486034393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52211308479309</t>
+    <t xml:space="preserve">2.56486058235168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52211284637451</t>
   </si>
   <si>
     <t xml:space="preserve">2.5149884223938</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41524362564087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43234276771545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43661737442017</t>
+    <t xml:space="preserve">2.41524386405945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43234252929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43661761283875</t>
   </si>
   <si>
     <t xml:space="preserve">2.39386963844299</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39244484901428</t>
+    <t xml:space="preserve">2.39244532585144</t>
   </si>
   <si>
     <t xml:space="preserve">2.3511221408844</t>
@@ -629,37 +629,37 @@
     <t xml:space="preserve">2.42236852645874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53066229820251</t>
+    <t xml:space="preserve">2.53066205978394</t>
   </si>
   <si>
     <t xml:space="preserve">2.57768487930298</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58908438682556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63468146324158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69595313072205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68027925491333</t>
+    <t xml:space="preserve">2.58908462524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63468194007874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69595336914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68027901649475</t>
   </si>
   <si>
     <t xml:space="preserve">2.69167852401733</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69737863540649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74012589454651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74297571182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72445178031921</t>
+    <t xml:space="preserve">2.69737839698792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74012613296509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74297547340393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72445154190063</t>
   </si>
   <si>
     <t xml:space="preserve">2.7230269908905</t>
@@ -668,28 +668,28 @@
     <t xml:space="preserve">2.72872638702393</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76434993743896</t>
+    <t xml:space="preserve">2.76434969902039</t>
   </si>
   <si>
     <t xml:space="preserve">2.75152540206909</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7558000087738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71162748336792</t>
+    <t xml:space="preserve">2.75580048561096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71162724494934</t>
   </si>
   <si>
     <t xml:space="preserve">2.69025373458862</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65035605430603</t>
+    <t xml:space="preserve">2.65035581588745</t>
   </si>
   <si>
     <t xml:space="preserve">2.60760831832886</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58338451385498</t>
+    <t xml:space="preserve">2.5833842754364</t>
   </si>
   <si>
     <t xml:space="preserve">2.5534610748291</t>
@@ -698,7 +698,7 @@
     <t xml:space="preserve">2.5206880569458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60618352890015</t>
+    <t xml:space="preserve">2.60618329048157</t>
   </si>
   <si>
     <t xml:space="preserve">2.56058573722839</t>
@@ -707,22 +707,22 @@
     <t xml:space="preserve">2.54491138458252</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54063701629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50501394271851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49788928031921</t>
+    <t xml:space="preserve">2.54063677787781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50501370429993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49788904190063</t>
   </si>
   <si>
     <t xml:space="preserve">2.50643849372864</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53351211547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57626008987427</t>
+    <t xml:space="preserve">2.53351235389709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57625961303711</t>
   </si>
   <si>
     <t xml:space="preserve">2.60048389434814</t>
@@ -731,7 +731,7 @@
     <t xml:space="preserve">2.59193396568298</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58195948600769</t>
+    <t xml:space="preserve">2.58195972442627</t>
   </si>
   <si>
     <t xml:space="preserve">2.55916094779968</t>
@@ -743,13 +743,13 @@
     <t xml:space="preserve">2.53636193275452</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48506474494934</t>
+    <t xml:space="preserve">2.48506498336792</t>
   </si>
   <si>
     <t xml:space="preserve">2.54348635673523</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6874041557312</t>
+    <t xml:space="preserve">2.68740367889404</t>
   </si>
   <si>
     <t xml:space="preserve">2.69452834129333</t>
@@ -779,37 +779,37 @@
     <t xml:space="preserve">3.03508520126343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06215834617615</t>
+    <t xml:space="preserve">3.06215882301331</t>
   </si>
   <si>
     <t xml:space="preserve">3.15477848052979</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29727053642273</t>
+    <t xml:space="preserve">3.29727029800415</t>
   </si>
   <si>
     <t xml:space="preserve">3.25737309455872</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0778329372406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1676025390625</t>
+    <t xml:space="preserve">3.07783269882202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16760277748108</t>
   </si>
   <si>
     <t xml:space="preserve">3.16190338134766</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16047787666321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21890020370483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22174954414368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27589702606201</t>
+    <t xml:space="preserve">3.16047811508179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21889996528625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22175002098083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27589678764343</t>
   </si>
   <si>
     <t xml:space="preserve">3.28159642219543</t>
@@ -821,43 +821,43 @@
     <t xml:space="preserve">3.23172402381897</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17900228500366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12912964820862</t>
+    <t xml:space="preserve">3.17900204658508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12913036346436</t>
   </si>
   <si>
     <t xml:space="preserve">3.19610142707825</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10063147544861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1975257396698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23884868621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22602415084839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29157114028931</t>
+    <t xml:space="preserve">3.10063171386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19752597808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23884844779968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22602438926697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29157090187073</t>
   </si>
   <si>
     <t xml:space="preserve">3.3257691860199</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2830216884613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31864476203918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3400182723999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39559030532837</t>
+    <t xml:space="preserve">3.28302121162415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31864452362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34001851081848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39559006690979</t>
   </si>
   <si>
     <t xml:space="preserve">3.35569262504578</t>
@@ -869,22 +869,22 @@
     <t xml:space="preserve">3.27019739151001</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08923196792603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06358313560486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17488980293274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09706687927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11147809028625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13886094093323</t>
+    <t xml:space="preserve">3.08923172950745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0635838508606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17488956451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09706711769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11147832870483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13886070251465</t>
   </si>
   <si>
     <t xml:space="preserve">3.14462518692017</t>
@@ -893,7 +893,7 @@
     <t xml:space="preserve">3.11003732681274</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11868405342102</t>
+    <t xml:space="preserve">3.1186842918396</t>
   </si>
   <si>
     <t xml:space="preserve">3.07112598419189</t>
@@ -908,10 +908,10 @@
     <t xml:space="preserve">2.99762630462646</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00627303123474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97745013237</t>
+    <t xml:space="preserve">3.00627326965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97744989395142</t>
   </si>
   <si>
     <t xml:space="preserve">2.9183623790741</t>
@@ -920,7 +920,7 @@
     <t xml:space="preserve">2.8722448348999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90395092964172</t>
+    <t xml:space="preserve">2.90395069122314</t>
   </si>
   <si>
     <t xml:space="preserve">2.89098000526428</t>
@@ -929,28 +929,28 @@
     <t xml:space="preserve">2.87512707710266</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84918618202209</t>
+    <t xml:space="preserve">2.84918642044067</t>
   </si>
   <si>
     <t xml:space="preserve">2.92700886726379</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90683245658875</t>
+    <t xml:space="preserve">2.90683269500732</t>
   </si>
   <si>
     <t xml:space="preserve">2.86936259269714</t>
   </si>
   <si>
-    <t xml:space="preserve">2.878009557724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85783338546753</t>
+    <t xml:space="preserve">2.87800931930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85783314704895</t>
   </si>
   <si>
     <t xml:space="preserve">2.85350966453552</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87080383300781</t>
+    <t xml:space="preserve">2.87080359458923</t>
   </si>
   <si>
     <t xml:space="preserve">2.82468628883362</t>
@@ -959,19 +959,19 @@
     <t xml:space="preserve">2.79298043251038</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76415729522705</t>
+    <t xml:space="preserve">2.76415753364563</t>
   </si>
   <si>
     <t xml:space="preserve">2.81027483940125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80018663406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79153943061829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72956919670105</t>
+    <t xml:space="preserve">2.80018639564514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79153966903687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72956967353821</t>
   </si>
   <si>
     <t xml:space="preserve">2.75262808799744</t>
@@ -986,7 +986,7 @@
     <t xml:space="preserve">2.95439124107361</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92124462127686</t>
+    <t xml:space="preserve">2.92124485969543</t>
   </si>
   <si>
     <t xml:space="preserve">2.92845034599304</t>
@@ -998,13 +998,13 @@
     <t xml:space="preserve">2.83189225196838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84342169761658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80451011657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83045101165771</t>
+    <t xml:space="preserve">2.843421459198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80450987815857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83045077323914</t>
   </si>
   <si>
     <t xml:space="preserve">2.82612729072571</t>
@@ -1013,7 +1013,7 @@
     <t xml:space="preserve">2.78865718841553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80739212036133</t>
+    <t xml:space="preserve">2.80739188194275</t>
   </si>
   <si>
     <t xml:space="preserve">2.80883359909058</t>
@@ -1022,7 +1022,7 @@
     <t xml:space="preserve">2.84053921699524</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85495090484619</t>
+    <t xml:space="preserve">2.85495066642761</t>
   </si>
   <si>
     <t xml:space="preserve">2.86503934860229</t>
@@ -1031,22 +1031,22 @@
     <t xml:space="preserve">2.87656855583191</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90827393531799</t>
+    <t xml:space="preserve">2.90827369689941</t>
   </si>
   <si>
     <t xml:space="preserve">2.83909797668457</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73821640014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7555103302002</t>
+    <t xml:space="preserve">2.73821663856506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75551009178162</t>
   </si>
   <si>
     <t xml:space="preserve">2.76848101615906</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70218706130981</t>
+    <t xml:space="preserve">2.70218729972839</t>
   </si>
   <si>
     <t xml:space="preserve">2.72668695449829</t>
@@ -1055,16 +1055,16 @@
     <t xml:space="preserve">2.71371650695801</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72524547576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68056988716125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67480492591858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67336392402649</t>
+    <t xml:space="preserve">2.72524571418762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68056964874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67480516433716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67336368560791</t>
   </si>
   <si>
     <t xml:space="preserve">2.65895223617554</t>
@@ -1085,13 +1085,13 @@
     <t xml:space="preserve">2.74542236328125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78577494621277</t>
+    <t xml:space="preserve">2.78577470779419</t>
   </si>
   <si>
     <t xml:space="preserve">2.92268586158752</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0250084400177</t>
+    <t xml:space="preserve">3.02500867843628</t>
   </si>
   <si>
     <t xml:space="preserve">3.02644944190979</t>
@@ -1112,37 +1112,37 @@
     <t xml:space="preserve">3.14174294471741</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13597846031189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09850788116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05671405792236</t>
+    <t xml:space="preserve">3.13597869873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09850835800171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05671429634094</t>
   </si>
   <si>
     <t xml:space="preserve">3.07689023017883</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08409643173218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0740077495575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04086136817932</t>
+    <t xml:space="preserve">3.08409667015076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07400798797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04086112976074</t>
   </si>
   <si>
     <t xml:space="preserve">3.0538318157196</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17921328544617</t>
+    <t xml:space="preserve">3.17921352386475</t>
   </si>
   <si>
     <t xml:space="preserve">3.12588977813721</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05527281761169</t>
+    <t xml:space="preserve">3.05527257919312</t>
   </si>
   <si>
     <t xml:space="preserve">3.07977294921875</t>
@@ -1151,28 +1151,28 @@
     <t xml:space="preserve">3.14894843101501</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16191935539246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14750790596008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09994912147522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1345374584198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15903663635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15471363067627</t>
+    <t xml:space="preserve">3.16191911697388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1475076675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09994888305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13453698158264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15903687477112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15471339225769</t>
   </si>
   <si>
     <t xml:space="preserve">3.12877249717712</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11580181121826</t>
+    <t xml:space="preserve">3.11580204963684</t>
   </si>
   <si>
     <t xml:space="preserve">3.10427260398865</t>
@@ -1184,22 +1184,22 @@
     <t xml:space="preserve">3.05815529823303</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00483250617981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9716854095459</t>
+    <t xml:space="preserve">3.00483226776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97168564796448</t>
   </si>
   <si>
     <t xml:space="preserve">2.7843337059021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82180404663086</t>
+    <t xml:space="preserve">2.82180380821228</t>
   </si>
   <si>
     <t xml:space="preserve">2.86792135238647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8967444896698</t>
+    <t xml:space="preserve">2.89674472808838</t>
   </si>
   <si>
     <t xml:space="preserve">2.88233304023743</t>
@@ -1214,43 +1214,43 @@
     <t xml:space="preserve">2.82324504852295</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70362854003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72236323356628</t>
+    <t xml:space="preserve">2.70362830162048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72236347198486</t>
   </si>
   <si>
     <t xml:space="preserve">2.70506954193115</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71227550506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6560697555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69858407974243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76703977584839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78505420684814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72740745544434</t>
+    <t xml:space="preserve">2.71227526664734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65606999397278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69858431816101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76703929901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78505444526672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72740769386292</t>
   </si>
   <si>
     <t xml:space="preserve">2.69498109817505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7346134185791</t>
+    <t xml:space="preserve">2.73461365699768</t>
   </si>
   <si>
     <t xml:space="preserve">2.70579028129578</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7310106754303</t>
+    <t xml:space="preserve">2.73101043701172</t>
   </si>
   <si>
     <t xml:space="preserve">2.72020173072815</t>
@@ -1274,7 +1274,7 @@
     <t xml:space="preserve">2.74181938171387</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71299624443054</t>
+    <t xml:space="preserve">2.71299600601196</t>
   </si>
   <si>
     <t xml:space="preserve">2.63373160362244</t>
@@ -1298,7 +1298,7 @@
     <t xml:space="preserve">2.57248187065125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57968783378601</t>
+    <t xml:space="preserve">2.57968807220459</t>
   </si>
   <si>
     <t xml:space="preserve">2.55807042121887</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">2.56167364120483</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55086493492126</t>
+    <t xml:space="preserve">2.55086469650269</t>
   </si>
   <si>
     <t xml:space="preserve">2.56887936592102</t>
@@ -1322,7 +1322,7 @@
     <t xml:space="preserve">2.30946946144104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39593935012817</t>
+    <t xml:space="preserve">2.39593911170959</t>
   </si>
   <si>
     <t xml:space="preserve">2.41755676269531</t>
@@ -1331,7 +1331,7 @@
     <t xml:space="preserve">2.41395378112793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36351299285889</t>
+    <t xml:space="preserve">2.36351323127747</t>
   </si>
   <si>
     <t xml:space="preserve">2.35991024971008</t>
@@ -1343,7 +1343,7 @@
     <t xml:space="preserve">2.44998335838318</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35270428657532</t>
+    <t xml:space="preserve">2.3527045249939</t>
   </si>
   <si>
     <t xml:space="preserve">2.52204132080078</t>
@@ -1358,10 +1358,10 @@
     <t xml:space="preserve">2.42115950584412</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50762963294983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59409952163696</t>
+    <t xml:space="preserve">2.50762987136841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59409976005554</t>
   </si>
   <si>
     <t xml:space="preserve">2.56527614593506</t>
@@ -1370,7 +1370,7 @@
     <t xml:space="preserve">2.63012909889221</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65174651145935</t>
+    <t xml:space="preserve">2.65174674987793</t>
   </si>
   <si>
     <t xml:space="preserve">2.62292289733887</t>
@@ -1379,22 +1379,22 @@
     <t xml:space="preserve">2.60130548477173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60851144790649</t>
+    <t xml:space="preserve">2.60851097106934</t>
   </si>
   <si>
     <t xml:space="preserve">2.6373348236084</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68417263031006</t>
+    <t xml:space="preserve">2.68417239189148</t>
   </si>
   <si>
     <t xml:space="preserve">2.6661581993103</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69137859344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67696666717529</t>
+    <t xml:space="preserve">2.69137835502625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67696690559387</t>
   </si>
   <si>
     <t xml:space="preserve">2.73281192779541</t>
@@ -1406,16 +1406,16 @@
     <t xml:space="preserve">2.49582004547119</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48841404914856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.403244972229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43657207489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45879006385803</t>
+    <t xml:space="preserve">2.48841381072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40324473381042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43657231330872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45878982543945</t>
   </si>
   <si>
     <t xml:space="preserve">2.39213609695435</t>
@@ -1424,7 +1424,7 @@
     <t xml:space="preserve">2.40694832801819</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36991810798645</t>
+    <t xml:space="preserve">2.36991834640503</t>
   </si>
   <si>
     <t xml:space="preserve">2.29956150054932</t>
@@ -1436,37 +1436,37 @@
     <t xml:space="preserve">2.32548236846924</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37732434272766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3884334564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42916631698608</t>
+    <t xml:space="preserve">2.37732410430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38843297958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4291660785675</t>
   </si>
   <si>
     <t xml:space="preserve">2.41805720329285</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46989917755127</t>
+    <t xml:space="preserve">2.46989893913269</t>
   </si>
   <si>
     <t xml:space="preserve">2.5032262802124</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52174091339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53284978866577</t>
+    <t xml:space="preserve">2.52174139022827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53285002708435</t>
   </si>
   <si>
     <t xml:space="preserve">2.57728600502014</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5254442691803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45508742332458</t>
+    <t xml:space="preserve">2.52544403076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45508718490601</t>
   </si>
   <si>
     <t xml:space="preserve">2.58098912239075</t>
@@ -1475,10 +1475,10 @@
     <t xml:space="preserve">2.54395890235901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47360229492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44768095016479</t>
+    <t xml:space="preserve">2.4736020565033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44768118858337</t>
   </si>
   <si>
     <t xml:space="preserve">2.53655290603638</t>
@@ -1493,7 +1493,7 @@
     <t xml:space="preserve">2.48100805282593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46619629859924</t>
+    <t xml:space="preserve">2.46619606018066</t>
   </si>
   <si>
     <t xml:space="preserve">2.39583897590637</t>
@@ -1502,34 +1502,34 @@
     <t xml:space="preserve">2.41065144538879</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35140299797058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.366215467453</t>
+    <t xml:space="preserve">2.35140323638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36621522903442</t>
   </si>
   <si>
     <t xml:space="preserve">2.34399724006653</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35880899429321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35510611534119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3625123500824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30696725845337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3106701374054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32177948951721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39954233169556</t>
+    <t xml:space="preserve">2.35880923271179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35510635375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36251211166382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30696702003479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31066989898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32177925109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39954209327698</t>
   </si>
   <si>
     <t xml:space="preserve">2.38102698326111</t>
@@ -1547,7 +1547,7 @@
     <t xml:space="preserve">2.29585814476013</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28104639053345</t>
+    <t xml:space="preserve">2.28104615211487</t>
   </si>
   <si>
     <t xml:space="preserve">2.26993727684021</t>
@@ -1556,7 +1556,7 @@
     <t xml:space="preserve">2.30326437950134</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32918500900269</t>
+    <t xml:space="preserve">2.32918524742126</t>
   </si>
   <si>
     <t xml:space="preserve">2.27734351158142</t>
@@ -1571,10 +1571,10 @@
     <t xml:space="preserve">2.27364015579224</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28845238685608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28474950790405</t>
+    <t xml:space="preserve">2.2884521484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28474926948547</t>
   </si>
   <si>
     <t xml:space="preserve">2.38473033905029</t>
@@ -1586,7 +1586,7 @@
     <t xml:space="preserve">2.24031329154968</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15514421463013</t>
+    <t xml:space="preserve">2.15514445304871</t>
   </si>
   <si>
     <t xml:space="preserve">2.13292646408081</t>
@@ -1604,34 +1604,34 @@
     <t xml:space="preserve">2.08849024772644</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10700559616089</t>
+    <t xml:space="preserve">2.10700535774231</t>
   </si>
   <si>
     <t xml:space="preserve">2.0625696182251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98850929737091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95147931575775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02553939819336</t>
+    <t xml:space="preserve">1.98850953578949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95147955417633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02553915977478</t>
   </si>
   <si>
     <t xml:space="preserve">2.06627249717712</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04775738716125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06997537612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12922334671021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14403533935547</t>
+    <t xml:space="preserve">2.04775762557983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06997561454773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12922358512878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14403510093689</t>
   </si>
   <si>
     <t xml:space="preserve">2.13662934303284</t>
@@ -1643,25 +1643,25 @@
     <t xml:space="preserve">2.21439242362976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23290753364563</t>
+    <t xml:space="preserve">2.23290729522705</t>
   </si>
   <si>
     <t xml:space="preserve">2.25512528419495</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20328330993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1995804309845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21809506416321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11811447143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07367825508118</t>
+    <t xml:space="preserve">2.20328307151794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19958019256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21809530258179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11811399459839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07367849349976</t>
   </si>
   <si>
     <t xml:space="preserve">2.11070823669434</t>
@@ -1679,10 +1679,10 @@
     <t xml:space="preserve">2.65504908561707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68096995353699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60320734977722</t>
+    <t xml:space="preserve">2.68096971511841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60320711135864</t>
   </si>
   <si>
     <t xml:space="preserve">2.62912797927856</t>
@@ -1691,10 +1691,10 @@
     <t xml:space="preserve">2.66615796089172</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65875196456909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65134620666504</t>
+    <t xml:space="preserve">2.65875172615051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65134596824646</t>
   </si>
   <si>
     <t xml:space="preserve">2.62542510032654</t>
@@ -1703,7 +1703,7 @@
     <t xml:space="preserve">2.71799993515015</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70318818092346</t>
+    <t xml:space="preserve">2.70318794250488</t>
   </si>
   <si>
     <t xml:space="preserve">2.7291088104248</t>
@@ -1718,16 +1718,16 @@
     <t xml:space="preserve">2.75502991676331</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80316877365112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81798076629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84390211105347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87352585792542</t>
+    <t xml:space="preserve">2.8031690120697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81798100471497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84390187263489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87352609634399</t>
   </si>
   <si>
     <t xml:space="preserve">2.86241674423218</t>
@@ -1739,7 +1739,7 @@
     <t xml:space="preserve">2.76243591308594</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76984190940857</t>
+    <t xml:space="preserve">2.76984167098999</t>
   </si>
   <si>
     <t xml:space="preserve">2.7994658946991</t>
@@ -1748,13 +1748,13 @@
     <t xml:space="preserve">2.79205989837646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8142774105072</t>
+    <t xml:space="preserve">2.81427788734436</t>
   </si>
   <si>
     <t xml:space="preserve">2.79576277732849</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75873303413391</t>
+    <t xml:space="preserve">2.75873279571533</t>
   </si>
   <si>
     <t xml:space="preserve">2.85871362686157</t>
@@ -1763,19 +1763,19 @@
     <t xml:space="preserve">2.90314960479736</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89574384689331</t>
+    <t xml:space="preserve">2.89574408531189</t>
   </si>
   <si>
     <t xml:space="preserve">2.90685272216797</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88833808898926</t>
+    <t xml:space="preserve">2.88833785057068</t>
   </si>
   <si>
     <t xml:space="preserve">2.962397813797</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98091268539429</t>
+    <t xml:space="preserve">2.98091292381287</t>
   </si>
   <si>
     <t xml:space="preserve">2.91796183586121</t>
@@ -1790,25 +1790,25 @@
     <t xml:space="preserve">2.9364767074585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95499157905579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93277406692505</t>
+    <t xml:space="preserve">2.95499181747437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93277382850647</t>
   </si>
   <si>
     <t xml:space="preserve">2.91055583953857</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96980404853821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97720956802368</t>
+    <t xml:space="preserve">2.96980381011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97721004486084</t>
   </si>
   <si>
     <t xml:space="preserve">2.9401798248291</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89944672584534</t>
+    <t xml:space="preserve">2.89944696426392</t>
   </si>
   <si>
     <t xml:space="preserve">2.81057500839233</t>
@@ -1823,7 +1823,7 @@
     <t xml:space="preserve">2.83279299736023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85501098632812</t>
+    <t xml:space="preserve">2.85501074790955</t>
   </si>
   <si>
     <t xml:space="preserve">2.71059393882751</t>
@@ -1838,43 +1838,43 @@
     <t xml:space="preserve">2.6402370929718</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63653373718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63283085823059</t>
+    <t xml:space="preserve">2.6365339756012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63283109664917</t>
   </si>
   <si>
     <t xml:space="preserve">2.61801886558533</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69578194618225</t>
+    <t xml:space="preserve">2.69578218460083</t>
   </si>
   <si>
     <t xml:space="preserve">2.68467283248901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68837594985962</t>
+    <t xml:space="preserve">2.68837571144104</t>
   </si>
   <si>
     <t xml:space="preserve">2.6143159866333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56988024711609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49211692810059</t>
+    <t xml:space="preserve">2.56988000869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49211716651917</t>
   </si>
   <si>
     <t xml:space="preserve">2.50692915916443</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34770035743713</t>
+    <t xml:space="preserve">2.34770011901855</t>
   </si>
   <si>
     <t xml:space="preserve">2.23661041259766</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18476843833923</t>
+    <t xml:space="preserve">2.18476819992065</t>
   </si>
   <si>
     <t xml:space="preserve">2.19587731361389</t>
@@ -1892,31 +1892,31 @@
     <t xml:space="preserve">2.12439346313477</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08937573432922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10104870796204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10493946075439</t>
+    <t xml:space="preserve">2.0893759727478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10104823112488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10493898391724</t>
   </si>
   <si>
     <t xml:space="preserve">2.09326696395874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12050271034241</t>
+    <t xml:space="preserve">2.12050247192383</t>
   </si>
   <si>
     <t xml:space="preserve">2.13995671272278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12828421592712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07770371437073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0504674911499</t>
+    <t xml:space="preserve">2.12828397750854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07770347595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05046772956848</t>
   </si>
   <si>
     <t xml:space="preserve">2.04657673835754</t>
@@ -1925,28 +1925,28 @@
     <t xml:space="preserve">2.03490424156189</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05435872077942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03101348876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02323174476624</t>
+    <t xml:space="preserve">2.05435848236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03101325035095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02323198318481</t>
   </si>
   <si>
     <t xml:space="preserve">2.0582492351532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04268622398376</t>
+    <t xml:space="preserve">2.04268574714661</t>
   </si>
   <si>
     <t xml:space="preserve">2.22944593429565</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1866466999054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96876001358032</t>
+    <t xml:space="preserve">2.18664646148682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96876013278961</t>
   </si>
   <si>
     <t xml:space="preserve">2.00377774238586</t>
@@ -1955,7 +1955,7 @@
     <t xml:space="preserve">1.92985200881958</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02712273597717</t>
+    <t xml:space="preserve">2.02712249755859</t>
   </si>
   <si>
     <t xml:space="preserve">1.94152438640594</t>
@@ -1973,58 +1973,58 @@
     <t xml:space="preserve">1.8092360496521</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75087380409241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74698281288147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69251132011414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78978204727173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82090842723846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73920118808746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74309194087982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69640219211578</t>
+    <t xml:space="preserve">1.75087368488312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74698269367218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69251108169556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78978192806244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82090854644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73920094966888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74309206008911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6964019536972</t>
   </si>
   <si>
     <t xml:space="preserve">1.71196532249451</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71974718570709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70418393611908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78589129447937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73141968250275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71585607528687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7353104352951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78200030326843</t>
+    <t xml:space="preserve">1.7197470664978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7041836977005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78589117527008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73141932487488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71585619449615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73531031608582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78200018405914</t>
   </si>
   <si>
     <t xml:space="preserve">1.8325811624527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80145466327667</t>
+    <t xml:space="preserve">1.80145454406738</t>
   </si>
   <si>
     <t xml:space="preserve">1.8403627872467</t>
@@ -2033,13 +2033,13 @@
     <t xml:space="preserve">1.85592615604401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83647215366364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8792712688446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79756367206573</t>
+    <t xml:space="preserve">1.83647191524506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87927103042603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79756355285645</t>
   </si>
   <si>
     <t xml:space="preserve">1.77032780647278</t>
@@ -2063,34 +2063,34 @@
     <t xml:space="preserve">1.8170177936554</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82479953765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91428852081299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93374264240265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89094376564026</t>
+    <t xml:space="preserve">1.8247994184494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91428864002228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93374276161194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89094352722168</t>
   </si>
   <si>
     <t xml:space="preserve">1.87538027763367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90650713443756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89483451843262</t>
+    <t xml:space="preserve">1.90650701522827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89483416080475</t>
   </si>
   <si>
     <t xml:space="preserve">1.85981702804565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92207038402557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01155948638916</t>
+    <t xml:space="preserve">1.92207026481628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01155924797058</t>
   </si>
   <si>
     <t xml:space="preserve">2.16719269752502</t>
@@ -2099,25 +2099,25 @@
     <t xml:space="preserve">2.16330170631409</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08159422874451</t>
+    <t xml:space="preserve">2.08159446716309</t>
   </si>
   <si>
     <t xml:space="preserve">2.06214022636414</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13217520713806</t>
+    <t xml:space="preserve">2.13217496871948</t>
   </si>
   <si>
     <t xml:space="preserve">2.2099916934967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19053769111633</t>
+    <t xml:space="preserve">2.19053745269775</t>
   </si>
   <si>
     <t xml:space="preserve">2.15551996231079</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19831943511963</t>
+    <t xml:space="preserve">2.19831919670105</t>
   </si>
   <si>
     <t xml:space="preserve">2.17108345031738</t>
@@ -2126,16 +2126,16 @@
     <t xml:space="preserve">2.14384770393372</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11272096633911</t>
+    <t xml:space="preserve">2.11272072792053</t>
   </si>
   <si>
     <t xml:space="preserve">2.08548521995544</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01545023918152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98821437358856</t>
+    <t xml:space="preserve">2.01545000076294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98821425437927</t>
   </si>
   <si>
     <t xml:space="preserve">2.15941095352173</t>
@@ -2153,13 +2153,13 @@
     <t xml:space="preserve">1.91039764881134</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92596101760864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89872527122498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95319700241089</t>
+    <t xml:space="preserve">1.92596089839935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89872515201569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95319664478302</t>
   </si>
   <si>
     <t xml:space="preserve">1.99988687038422</t>
@@ -2168,31 +2168,31 @@
     <t xml:space="preserve">1.95708763599396</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96486926078796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99210512638092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7275288105011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68862056732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62636697292328</t>
+    <t xml:space="preserve">1.96486937999725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99210524559021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72752869129181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68862044811249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62636709213257</t>
   </si>
   <si>
     <t xml:space="preserve">1.59524047374725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54232513904572</t>
+    <t xml:space="preserve">1.542325258255</t>
   </si>
   <si>
     <t xml:space="preserve">1.48941004276276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45361423492432</t>
+    <t xml:space="preserve">1.45361435413361</t>
   </si>
   <si>
     <t xml:space="preserve">1.33844578266144</t>
@@ -2201,7 +2201,7 @@
     <t xml:space="preserve">1.30420637130737</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27619242668152</t>
+    <t xml:space="preserve">1.27619230747223</t>
   </si>
   <si>
     <t xml:space="preserve">1.09098887443542</t>
@@ -2210,13 +2210,13 @@
     <t xml:space="preserve">1.16102373600006</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08009457588196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05986225605011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0847635269165</t>
+    <t xml:space="preserve">1.08009445667267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05986213684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08476364612579</t>
   </si>
   <si>
     <t xml:space="preserve">1.10188317298889</t>
@@ -2228,7 +2228,7 @@
     <t xml:space="preserve">1.31976974010468</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32910776138306</t>
+    <t xml:space="preserve">1.32910752296448</t>
   </si>
   <si>
     <t xml:space="preserve">1.35400903224945</t>
@@ -2237,13 +2237,13 @@
     <t xml:space="preserve">1.26685440540314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27152323722839</t>
+    <t xml:space="preserve">1.27152335643768</t>
   </si>
   <si>
     <t xml:space="preserve">1.32288241386414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28864300251007</t>
+    <t xml:space="preserve">1.28864312171936</t>
   </si>
   <si>
     <t xml:space="preserve">1.28397405147552</t>
@@ -2252,16 +2252,16 @@
     <t xml:space="preserve">1.29331207275391</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39291739463806</t>
+    <t xml:space="preserve">1.39291727542877</t>
   </si>
   <si>
     <t xml:space="preserve">1.36179065704346</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26062917709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29642462730408</t>
+    <t xml:space="preserve">1.26062905788422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29642474651337</t>
   </si>
   <si>
     <t xml:space="preserve">1.29798102378845</t>
@@ -2270,25 +2270,25 @@
     <t xml:space="preserve">1.33688938617706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29953742027283</t>
+    <t xml:space="preserve">1.29953730106354</t>
   </si>
   <si>
     <t xml:space="preserve">1.31354427337646</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29175567626953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28241777420044</t>
+    <t xml:space="preserve">1.29175555706024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28241765499115</t>
   </si>
   <si>
     <t xml:space="preserve">1.2295024394989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23884046077728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24350953102112</t>
+    <t xml:space="preserve">1.23884034156799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24350941181183</t>
   </si>
   <si>
     <t xml:space="preserve">1.20927011966705</t>
@@ -2297,10 +2297,10 @@
     <t xml:space="preserve">1.17503082752228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13300979137421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10343945026398</t>
+    <t xml:space="preserve">1.1330099105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10343956947327</t>
   </si>
   <si>
     <t xml:space="preserve">1.10499584674835</t>
@@ -2309,16 +2309,16 @@
     <t xml:space="preserve">1.08631992340088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05674970149994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06764388084412</t>
+    <t xml:space="preserve">1.05674958229065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06764376163483</t>
   </si>
   <si>
     <t xml:space="preserve">1.12211561203003</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10655212402344</t>
+    <t xml:space="preserve">1.10655224323273</t>
   </si>
   <si>
     <t xml:space="preserve">1.14234793186188</t>
@@ -2327,34 +2327,34 @@
     <t xml:space="preserve">1.15012955665588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13923525810242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19837582111359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24506568908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23728406429291</t>
+    <t xml:space="preserve">1.13923513889313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1983757019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2450658082962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2372841835022</t>
   </si>
   <si>
     <t xml:space="preserve">1.2217208147049</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28708684444427</t>
+    <t xml:space="preserve">1.28708672523499</t>
   </si>
   <si>
     <t xml:space="preserve">1.27930510044098</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17969977855682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16413652896881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23572790622711</t>
+    <t xml:space="preserve">1.17969989776611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1641366481781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23572778701782</t>
   </si>
   <si>
     <t xml:space="preserve">1.20615744590759</t>
@@ -2378,7 +2378,7 @@
     <t xml:space="preserve">1.13612246513367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15791118144989</t>
+    <t xml:space="preserve">1.1579110622406</t>
   </si>
   <si>
     <t xml:space="preserve">1.14079141616821</t>
@@ -2390,13 +2390,13 @@
     <t xml:space="preserve">1.17036175727844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14546048641205</t>
+    <t xml:space="preserve">1.14546036720276</t>
   </si>
   <si>
     <t xml:space="preserve">1.16724920272827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17347455024719</t>
+    <t xml:space="preserve">1.1734744310379</t>
   </si>
   <si>
     <t xml:space="preserve">1.15168583393097</t>
@@ -2405,13 +2405,13 @@
     <t xml:space="preserve">1.17191827297211</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1656928062439</t>
+    <t xml:space="preserve">1.16569268703461</t>
   </si>
   <si>
     <t xml:space="preserve">1.15635478496552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12522828578949</t>
+    <t xml:space="preserve">1.1252281665802</t>
   </si>
   <si>
     <t xml:space="preserve">1.09565794467926</t>
@@ -2420,10 +2420,10 @@
     <t xml:space="preserve">1.08165085315704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06608760356903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08320724964142</t>
+    <t xml:space="preserve">1.06608748435974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08320713043213</t>
   </si>
   <si>
     <t xml:space="preserve">1.06297492980957</t>
@@ -2432,7 +2432,7 @@
     <t xml:space="preserve">1.04896795749664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09410154819489</t>
+    <t xml:space="preserve">1.09410166740417</t>
   </si>
   <si>
     <t xml:space="preserve">1.07075655460358</t>
@@ -2444,7 +2444,7 @@
     <t xml:space="preserve">1.0614185333252</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05052435398102</t>
+    <t xml:space="preserve">1.05052411556244</t>
   </si>
   <si>
     <t xml:space="preserve">1.04585516452789</t>
@@ -2462,16 +2462,16 @@
     <t xml:space="preserve">1.03496086597443</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03651738166809</t>
+    <t xml:space="preserve">1.0365172624588</t>
   </si>
   <si>
     <t xml:space="preserve">1.02251029014587</t>
   </si>
   <si>
-    <t xml:space="preserve">0.99605256319046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01628494262695</t>
+    <t xml:space="preserve">0.996052622795105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01628506183624</t>
   </si>
   <si>
     <t xml:space="preserve">1.00850331783295</t>
@@ -2480,13 +2480,13 @@
     <t xml:space="preserve">1.01005959510803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00072157382965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.991383731365204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966482281684875</t>
+    <t xml:space="preserve">1.00072169303894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.991383612155914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.966482222080231</t>
   </si>
   <si>
     <t xml:space="preserve">0.96492600440979</t>
@@ -2495,61 +2495,61 @@
     <t xml:space="preserve">0.958700597286224</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954031586647034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975820243358612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.989827275276184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.969594955444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949362635612488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96803867816925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.957144260406494</t>
+    <t xml:space="preserve">0.954031646251678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975820183753967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.989827215671539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96959513425827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949362576007843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.968038558959961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.957144320011139</t>
   </si>
   <si>
     <t xml:space="preserve">0.980489253997803</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999165236949921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06453120708466</t>
+    <t xml:space="preserve">0.99916535615921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06453132629395</t>
   </si>
   <si>
     <t xml:space="preserve">1.05830585956573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02406668663025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988270938396454</t>
+    <t xml:space="preserve">1.02406656742096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988270878791809</t>
   </si>
   <si>
     <t xml:space="preserve">0.985158324241638</t>
   </si>
   <si>
-    <t xml:space="preserve">0.941581070423126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933799386024475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.904228985309601</t>
+    <t xml:space="preserve">0.941580951213837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933799207210541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.904228925704956</t>
   </si>
   <si>
     <t xml:space="preserve">0.879327714443207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887109339237213</t>
+    <t xml:space="preserve">0.887109279632568</t>
   </si>
   <si>
     <t xml:space="preserve">0.888665616512299</t>
@@ -2558,7 +2558,7 @@
     <t xml:space="preserve">0.891778409481049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835750460624695</t>
+    <t xml:space="preserve">0.835750341415405</t>
   </si>
   <si>
     <t xml:space="preserve">0.80306738615036</t>
@@ -2567,25 +2567,25 @@
     <t xml:space="preserve">0.787504136562347</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829525053501129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.831081390380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.840419471263885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826412379741669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817074418067932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86687707901001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.896447360515594</t>
+    <t xml:space="preserve">0.829525113105774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.831081330776215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.840419411659241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826412439346313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817074358463287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86687695980072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89644730091095</t>
   </si>
   <si>
     <t xml:space="preserve">0.902672648429871</t>
@@ -2594,19 +2594,19 @@
     <t xml:space="preserve">0.915123343467712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940024495124817</t>
+    <t xml:space="preserve">0.940024614334106</t>
   </si>
   <si>
     <t xml:space="preserve">0.977376639842987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.96336966753006</t>
+    <t xml:space="preserve">0.963369727134705</t>
   </si>
   <si>
     <t xml:space="preserve">0.983601987361908</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978932917118073</t>
+    <t xml:space="preserve">0.978933036327362</t>
   </si>
   <si>
     <t xml:space="preserve">0.92913031578064</t>
@@ -2615,16 +2615,16 @@
     <t xml:space="preserve">0.961813271045685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946249961853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.943137347698212</t>
+    <t xml:space="preserve">0.946249902248383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.943137407302856</t>
   </si>
   <si>
     <t xml:space="preserve">0.930686712265015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.952475249767303</t>
+    <t xml:space="preserve">0.952475309371948</t>
   </si>
   <si>
     <t xml:space="preserve">0.927573978900909</t>
@@ -2633,49 +2633,49 @@
     <t xml:space="preserve">0.926017701625824</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935355722904205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971151351928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947806358337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.919792354106903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913567066192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907341659069061</t>
+    <t xml:space="preserve">0.935355663299561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971151292324066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947806477546692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.919792294502258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913567006587982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907341718673706</t>
   </si>
   <si>
     <t xml:space="preserve">0.916679620742798</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8995600938797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.918236076831818</t>
+    <t xml:space="preserve">0.899560034275055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918235957622528</t>
   </si>
   <si>
     <t xml:space="preserve">0.908897995948792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894891023635864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910454213619232</t>
+    <t xml:space="preserve">0.894890964031219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.910454273223877</t>
   </si>
   <si>
     <t xml:space="preserve">0.944693624973297</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01784110069275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05363702774048</t>
+    <t xml:space="preserve">1.01784121990204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05363690853119</t>
   </si>
   <si>
     <t xml:space="preserve">1.13767886161804</t>
@@ -2717,7 +2717,7 @@
     <t xml:space="preserve">1.24662208557129</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2528475522995</t>
+    <t xml:space="preserve">1.25284743309021</t>
   </si>
   <si>
     <t xml:space="preserve">1.2544037103653</t>
@@ -2726,10 +2726,10 @@
     <t xml:space="preserve">1.22638976573944</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23105883598328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26996719837189</t>
+    <t xml:space="preserve">1.23105871677399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2699670791626</t>
   </si>
   <si>
     <t xml:space="preserve">1.25751650333405</t>
@@ -2744,7 +2744,7 @@
     <t xml:space="preserve">1.36023426055908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38513553142548</t>
+    <t xml:space="preserve">1.38513565063477</t>
   </si>
   <si>
     <t xml:space="preserve">1.40069901943207</t>
@@ -2765,7 +2765,7 @@
     <t xml:space="preserve">1.38980460166931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39758634567261</t>
+    <t xml:space="preserve">1.39758622646332</t>
   </si>
   <si>
     <t xml:space="preserve">1.39136099815369</t>
@@ -2774,7 +2774,7 @@
     <t xml:space="preserve">1.4053680896759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43805110454559</t>
+    <t xml:space="preserve">1.4380509853363</t>
   </si>
   <si>
     <t xml:space="preserve">1.52053654193878</t>
@@ -2783,7 +2783,7 @@
     <t xml:space="preserve">1.57189548015594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56022322177887</t>
+    <t xml:space="preserve">1.56022310256958</t>
   </si>
   <si>
     <t xml:space="preserve">1.58745884895325</t>
@@ -2792,52 +2792,52 @@
     <t xml:space="preserve">1.53765606880188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51431131362915</t>
+    <t xml:space="preserve">1.51431119441986</t>
   </si>
   <si>
     <t xml:space="preserve">1.50341689586639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50497317314148</t>
+    <t xml:space="preserve">1.50497329235077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49096632003784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51798808574677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46871304512024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45281779766083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46712350845337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47348153591156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48619771003723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48937678337097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48142910003662</t>
   </si>
   <si>
     <t xml:space="preserve">1.49096620082855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51798808574677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46871316432953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45281779766083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46712338924408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47348153591156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48619771003723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48937678337097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48142910003662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49096632003784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54818880558014</t>
+    <t xml:space="preserve">1.54818868637085</t>
   </si>
   <si>
     <t xml:space="preserve">1.55454683303833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55613648891449</t>
+    <t xml:space="preserve">1.5561363697052</t>
   </si>
   <si>
     <t xml:space="preserve">1.57044196128845</t>
@@ -2846,19 +2846,19 @@
     <t xml:space="preserve">1.56567347049713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.567263007164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53706216812134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52752506732941</t>
+    <t xml:space="preserve">1.56726312637329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53706228733063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5275251865387</t>
   </si>
   <si>
     <t xml:space="preserve">1.47030258178711</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4432806968689</t>
+    <t xml:space="preserve">1.44328081607819</t>
   </si>
   <si>
     <t xml:space="preserve">1.40672183036804</t>
@@ -2873,7 +2873,7 @@
     <t xml:space="preserve">1.39241623878479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35744690895081</t>
+    <t xml:space="preserve">1.35744678974152</t>
   </si>
   <si>
     <t xml:space="preserve">1.34949922561646</t>
@@ -2882,10 +2882,10 @@
     <t xml:space="preserve">1.34790980815887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33201456069946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35585725307465</t>
+    <t xml:space="preserve">1.33201467990875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35585737228394</t>
   </si>
   <si>
     <t xml:space="preserve">1.31929838657379</t>
@@ -2894,7 +2894,7 @@
     <t xml:space="preserve">1.31453001499176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27638149261475</t>
+    <t xml:space="preserve">1.27638161182404</t>
   </si>
   <si>
     <t xml:space="preserve">1.3018137216568</t>
@@ -2918,7 +2918,7 @@
     <t xml:space="preserve">1.22074854373932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2223379611969</t>
+    <t xml:space="preserve">1.22233784198761</t>
   </si>
   <si>
     <t xml:space="preserve">1.2557178735733</t>
@@ -2933,10 +2933,10 @@
     <t xml:space="preserve">1.28273963928223</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2271066904068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2112113237381</t>
+    <t xml:space="preserve">1.22710657119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21121144294739</t>
   </si>
   <si>
     <t xml:space="preserve">1.2732025384903</t>
@@ -2954,13 +2954,13 @@
     <t xml:space="preserve">1.35267841815948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37493169307709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37969994544983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38128972053528</t>
+    <t xml:space="preserve">1.3749315738678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37970006465912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38128960132599</t>
   </si>
   <si>
     <t xml:space="preserve">1.34314131736755</t>
@@ -2969,16 +2969,16 @@
     <t xml:space="preserve">1.33678317070007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36221528053284</t>
+    <t xml:space="preserve">1.36221539974213</t>
   </si>
   <si>
     <t xml:space="preserve">1.363804936409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39877438545227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42897510528564</t>
+    <t xml:space="preserve">1.39877426624298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42897498607635</t>
   </si>
   <si>
     <t xml:space="preserve">1.40513241291046</t>
@@ -2987,7 +2987,7 @@
     <t xml:space="preserve">1.5338830947876</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49732422828674</t>
+    <t xml:space="preserve">1.49732434749603</t>
   </si>
   <si>
     <t xml:space="preserve">1.47189211845398</t>
@@ -3005,7 +3005,7 @@
     <t xml:space="preserve">1.45917594432831</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46076548099518</t>
+    <t xml:space="preserve">1.46076536178589</t>
   </si>
   <si>
     <t xml:space="preserve">1.41943800449371</t>
@@ -3017,7 +3017,7 @@
     <t xml:space="preserve">1.33996224403381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34155166149139</t>
+    <t xml:space="preserve">1.3415515422821</t>
   </si>
   <si>
     <t xml:space="preserve">1.3351936340332</t>
@@ -3047,10 +3047,10 @@
     <t xml:space="preserve">1.52116715908051</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49573481082916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50845098495483</t>
+    <t xml:space="preserve">1.49573469161987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50845086574554</t>
   </si>
   <si>
     <t xml:space="preserve">1.51162993907928</t>
@@ -3062,7 +3062,7 @@
     <t xml:space="preserve">1.51321947574615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47507095336914</t>
+    <t xml:space="preserve">1.47507107257843</t>
   </si>
   <si>
     <t xml:space="preserve">1.44010174274445</t>
@@ -3071,7 +3071,7 @@
     <t xml:space="preserve">1.4877872467041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47983956336975</t>
+    <t xml:space="preserve">1.47983968257904</t>
   </si>
   <si>
     <t xml:space="preserve">1.45599687099457</t>
@@ -3080,7 +3080,7 @@
     <t xml:space="preserve">1.48301875591278</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51004028320312</t>
+    <t xml:space="preserve">1.51004040241241</t>
   </si>
   <si>
     <t xml:space="preserve">1.56249439716339</t>
@@ -3110,7 +3110,7 @@
     <t xml:space="preserve">1.57362115383148</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43851220607758</t>
+    <t xml:space="preserve">1.43851208686829</t>
   </si>
   <si>
     <t xml:space="preserve">1.44645977020264</t>
@@ -3128,13 +3128,13 @@
     <t xml:space="preserve">1.51639842987061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61335909366608</t>
+    <t xml:space="preserve">1.61335897445679</t>
   </si>
   <si>
     <t xml:space="preserve">1.61733281612396</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63322794437408</t>
+    <t xml:space="preserve">1.63322806358337</t>
   </si>
   <si>
     <t xml:space="preserve">1.62130653858185</t>
@@ -3146,7 +3146,7 @@
     <t xml:space="preserve">1.58792674541473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60143780708313</t>
+    <t xml:space="preserve">1.60143768787384</t>
   </si>
   <si>
     <t xml:space="preserve">1.62925410270691</t>
@@ -3155,7 +3155,7 @@
     <t xml:space="preserve">1.66104435920715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5386518239975</t>
+    <t xml:space="preserve">1.53865170478821</t>
   </si>
   <si>
     <t xml:space="preserve">1.51957750320435</t>
@@ -3167,7 +3167,7 @@
     <t xml:space="preserve">1.52911472320557</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53070414066315</t>
+    <t xml:space="preserve">1.53070402145386</t>
   </si>
   <si>
     <t xml:space="preserve">1.52434611320496</t>
@@ -3179,13 +3179,13 @@
     <t xml:space="preserve">1.37334203720093</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30817186832428</t>
+    <t xml:space="preserve">1.30817198753357</t>
   </si>
   <si>
     <t xml:space="preserve">1.30022442340851</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22869598865509</t>
+    <t xml:space="preserve">1.22869610786438</t>
   </si>
   <si>
     <t xml:space="preserve">1.23346471786499</t>
@@ -3200,64 +3200,64 @@
     <t xml:space="preserve">1.40831136703491</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59746372699738</t>
+    <t xml:space="preserve">1.59746384620667</t>
   </si>
   <si>
     <t xml:space="preserve">1.7484678030014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78423190116882</t>
+    <t xml:space="preserve">1.78423178195953</t>
   </si>
   <si>
     <t xml:space="preserve">1.76038908958435</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77231061458588</t>
+    <t xml:space="preserve">1.77231049537659</t>
   </si>
   <si>
     <t xml:space="preserve">1.78025805950165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74449408054352</t>
+    <t xml:space="preserve">1.74449396133423</t>
   </si>
   <si>
     <t xml:space="preserve">1.81999599933624</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81204855442047</t>
+    <t xml:space="preserve">1.81204843521118</t>
   </si>
   <si>
     <t xml:space="preserve">1.83191752433777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82794368267059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85178649425507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83589124679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83986520767212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82396996021271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77628433704376</t>
+    <t xml:space="preserve">1.8279435634613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85178625583649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83589112758636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83986508846283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82396984100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77628421783447</t>
   </si>
   <si>
     <t xml:space="preserve">1.79217958450317</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76833689212799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78820586204529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7285989522934</t>
+    <t xml:space="preserve">1.76833665370941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.788205742836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72859871387482</t>
   </si>
   <si>
     <t xml:space="preserve">1.64514923095703</t>
@@ -3266,16 +3266,16 @@
     <t xml:space="preserve">1.71667766571045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73654651641846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75641560554504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76436305046082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80410087108612</t>
+    <t xml:space="preserve">1.73654639720917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75641548633575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76436293125153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80410075187683</t>
   </si>
   <si>
     <t xml:space="preserve">1.7403576374054</t>
@@ -62585,7 +62585,7 @@
     </row>
     <row r="2230">
       <c r="A2230" s="1" t="n">
-        <v>45568.6494328704</v>
+        <v>45568.2916666667</v>
       </c>
       <c r="B2230" t="n">
         <v>332793</v>
@@ -62606,6 +62606,32 @@
         <v>1424</v>
       </c>
       <c r="H2230" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" s="1" t="n">
+        <v>45569.6494328704</v>
+      </c>
+      <c r="B2231" t="n">
+        <v>210101</v>
+      </c>
+      <c r="C2231" t="n">
+        <v>2.18499994277954</v>
+      </c>
+      <c r="D2231" t="n">
+        <v>2.11500000953674</v>
+      </c>
+      <c r="E2231" t="n">
+        <v>2.11500000953674</v>
+      </c>
+      <c r="F2231" t="n">
+        <v>2.17000007629395</v>
+      </c>
+      <c r="G2231" t="s">
+        <v>1402</v>
+      </c>
+      <c r="H2231" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CAI.MI.xlsx
+++ b/data/CAI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="1426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="1425">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">3.08614444732666</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01786684989929</t>
+    <t xml:space="preserve">3.01786732673645</t>
   </si>
   <si>
     <t xml:space="preserve">2.97690033912659</t>
@@ -56,88 +56,88 @@
     <t xml:space="preserve">2.98099732398987</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88131213188171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94003081321716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80620694160461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86082887649536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75841236114502</t>
+    <t xml:space="preserve">2.88131165504456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94003057479858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80620670318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86082863807678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7584125995636</t>
   </si>
   <si>
     <t xml:space="preserve">2.73929476737976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69013476371765</t>
+    <t xml:space="preserve">2.69013524055481</t>
   </si>
   <si>
     <t xml:space="preserve">2.71744585037231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.866290807724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76387476921082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74475693702698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75704717636108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71061825752258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73110151290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76114392280579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72563910484314</t>
+    <t xml:space="preserve">2.86629128456116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76387429237366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7447566986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75704669952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.710618019104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73110127449036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76114368438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7256395816803</t>
   </si>
   <si>
     <t xml:space="preserve">2.69696283340454</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72290849685669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62868499755859</t>
+    <t xml:space="preserve">2.72290825843811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62868523597717</t>
   </si>
   <si>
     <t xml:space="preserve">2.45935702323914</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45799136161804</t>
+    <t xml:space="preserve">2.45799160003662</t>
   </si>
   <si>
     <t xml:space="preserve">2.30095291137695</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38971352577209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53992438316345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50442004203796</t>
+    <t xml:space="preserve">2.38971376419067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53992462158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50442028045654</t>
   </si>
   <si>
     <t xml:space="preserve">2.67511367797852</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81713104248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74885368347168</t>
+    <t xml:space="preserve">2.81713080406189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7488534450531</t>
   </si>
   <si>
     <t xml:space="preserve">2.7816264629364</t>
@@ -149,25 +149,25 @@
     <t xml:space="preserve">2.86219429969788</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8335177898407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84717297554016</t>
+    <t xml:space="preserve">2.83351755142212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84717321395874</t>
   </si>
   <si>
     <t xml:space="preserve">2.88404321670532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88540840148926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89769864082336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85127019882202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94685864448547</t>
+    <t xml:space="preserve">2.88540863990784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89769840240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85126972198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94685840606689</t>
   </si>
   <si>
     <t xml:space="preserve">2.94958972930908</t>
@@ -179,34 +179,34 @@
     <t xml:space="preserve">3.12164926528931</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16124987602234</t>
+    <t xml:space="preserve">3.16124963760376</t>
   </si>
   <si>
     <t xml:space="preserve">3.18173313140869</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20767831802368</t>
+    <t xml:space="preserve">3.20767855644226</t>
   </si>
   <si>
     <t xml:space="preserve">3.17900204658508</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17217445373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23635506629944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25001072883606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21040987968445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2226996421814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23089289665222</t>
+    <t xml:space="preserve">3.17217421531677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2363555431366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25001096725464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21041011810303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22269988059998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23089265823364</t>
   </si>
   <si>
     <t xml:space="preserve">3.22952747344971</t>
@@ -218,37 +218,37 @@
     <t xml:space="preserve">3.14895987510681</t>
   </si>
   <si>
-    <t xml:space="preserve">3.225430727005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29234337806702</t>
+    <t xml:space="preserve">3.22543048858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29234313964844</t>
   </si>
   <si>
     <t xml:space="preserve">3.21587181091309</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30463242530823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27732157707214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34559941291809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36608219146729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40704894065857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3865659236908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33330965042114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34833025932312</t>
+    <t xml:space="preserve">3.30463218688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27732181549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34559917449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36608290672302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40704917907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38656616210938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33330893516541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3483304977417</t>
   </si>
   <si>
     <t xml:space="preserve">3.32511568069458</t>
@@ -257,70 +257,70 @@
     <t xml:space="preserve">3.32375049591064</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29780459403992</t>
+    <t xml:space="preserve">3.29780507087708</t>
   </si>
   <si>
     <t xml:space="preserve">3.26366639137268</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29097723960876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26022291183472</t>
+    <t xml:space="preserve">3.29097700119019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26022267341614</t>
   </si>
   <si>
     <t xml:space="preserve">3.1918261051178</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15620303153992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13482928276062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17330241203308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09208226203918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1490786075592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32291960716248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34856748580933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33431816101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31151986122131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38419103622437</t>
+    <t xml:space="preserve">3.15620350837708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13483023643494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17330265045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09208178520203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14907884597778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3229193687439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34856796264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3343186378479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31151962280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38419055938721</t>
   </si>
   <si>
     <t xml:space="preserve">3.44403767585754</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41981387138367</t>
+    <t xml:space="preserve">3.41981410980225</t>
   </si>
   <si>
     <t xml:space="preserve">3.43406319618225</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48108601570129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47681093215942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43833827972412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45116209983826</t>
+    <t xml:space="preserve">3.48108553886414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47681164741516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4383385181427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45116233825684</t>
   </si>
   <si>
     <t xml:space="preserve">3.40841484069824</t>
@@ -329,19 +329,19 @@
     <t xml:space="preserve">3.39844036102295</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34714269638062</t>
+    <t xml:space="preserve">3.34714341163635</t>
   </si>
   <si>
     <t xml:space="preserve">3.20607566833496</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02796030044556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94246482849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8997175693512</t>
+    <t xml:space="preserve">3.02796006202698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94246506690979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89971733093262</t>
   </si>
   <si>
     <t xml:space="preserve">2.89686751365662</t>
@@ -350,73 +350,73 @@
     <t xml:space="preserve">3.06643319129944</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08495712280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13197946548462</t>
+    <t xml:space="preserve">3.08495736122131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1319797039032</t>
   </si>
   <si>
     <t xml:space="preserve">3.14195394515991</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02938508987427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84984517097473</t>
+    <t xml:space="preserve">3.02938532829285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84984469413757</t>
   </si>
   <si>
     <t xml:space="preserve">2.95671439170837</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06500840187073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16332745552063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96526384353638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95528936386108</t>
+    <t xml:space="preserve">3.06500816345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16332817077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96526408195496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9552891254425</t>
   </si>
   <si>
     <t xml:space="preserve">2.99233722686768</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12058019638062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1704523563385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23599934577942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17757725715637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13625454902649</t>
+    <t xml:space="preserve">3.12058067321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17045259475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23599886894226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17757701873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13625431060791</t>
   </si>
   <si>
     <t xml:space="preserve">2.9495894908905</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83702063560486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91966652870178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86551880836487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90399241447449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84129595756531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87549328804016</t>
+    <t xml:space="preserve">2.83702087402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9196662902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86551904678345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90399217605591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84129524230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87549352645874</t>
   </si>
   <si>
     <t xml:space="preserve">2.83559584617615</t>
@@ -425,19 +425,19 @@
     <t xml:space="preserve">2.79854774475098</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73442625999451</t>
+    <t xml:space="preserve">2.73442649841309</t>
   </si>
   <si>
     <t xml:space="preserve">2.77717399597168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88546800613403</t>
+    <t xml:space="preserve">2.88546824455261</t>
   </si>
   <si>
     <t xml:space="preserve">2.87406873703003</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84272027015686</t>
+    <t xml:space="preserve">2.84272050857544</t>
   </si>
   <si>
     <t xml:space="preserve">2.87834334373474</t>
@@ -446,13 +446,13 @@
     <t xml:space="preserve">2.92821598052979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92109107971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9410400390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86694431304932</t>
+    <t xml:space="preserve">2.92109131813049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94103980064392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86694407463074</t>
   </si>
   <si>
     <t xml:space="preserve">2.85839462280273</t>
@@ -464,10 +464,10 @@
     <t xml:space="preserve">2.81707191467285</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76007485389709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80567264556885</t>
+    <t xml:space="preserve">2.76007509231567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80567216873169</t>
   </si>
   <si>
     <t xml:space="preserve">2.77289915084839</t>
@@ -488,7 +488,7 @@
     <t xml:space="preserve">2.59478378295898</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5477614402771</t>
+    <t xml:space="preserve">2.54776120185852</t>
   </si>
   <si>
     <t xml:space="preserve">2.58480954170227</t>
@@ -497,67 +497,67 @@
     <t xml:space="preserve">2.65605545043945</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65463066101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63610672950745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60333323478699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5719850063324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45086669921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44516682624817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42379331588745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44374203681946</t>
+    <t xml:space="preserve">2.65463089942932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63610649108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60333347320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57198524475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45086693763733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44516706466675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42379307746887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44374227523804</t>
   </si>
   <si>
     <t xml:space="preserve">2.41666841506958</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45941615104675</t>
+    <t xml:space="preserve">2.45941591262817</t>
   </si>
   <si>
     <t xml:space="preserve">2.61900758743286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61045813560486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54918670654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57910943031311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5506112575531</t>
+    <t xml:space="preserve">2.61045837402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54918622970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57910966873169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55061149597168</t>
   </si>
   <si>
     <t xml:space="preserve">2.5235378742218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57341027259827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64465594291687</t>
+    <t xml:space="preserve">2.57341003417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64465618133545</t>
   </si>
   <si>
     <t xml:space="preserve">2.69310355186462</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64038157463074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63895678520203</t>
+    <t xml:space="preserve">2.64038133621216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63895654678345</t>
   </si>
   <si>
     <t xml:space="preserve">2.62898206710815</t>
@@ -578,7 +578,7 @@
     <t xml:space="preserve">2.67315459251404</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70307779312134</t>
+    <t xml:space="preserve">2.7030782699585</t>
   </si>
   <si>
     <t xml:space="preserve">2.71447730064392</t>
@@ -587,25 +587,25 @@
     <t xml:space="preserve">2.70735287666321</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65178084373474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66887998580933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63753151893616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65748047828674</t>
+    <t xml:space="preserve">2.65178108215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66887974739075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.637531042099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65748071670532</t>
   </si>
   <si>
     <t xml:space="preserve">2.56486058235168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52211260795593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5149884223938</t>
+    <t xml:space="preserve">2.52211284637451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51498818397522</t>
   </si>
   <si>
     <t xml:space="preserve">2.41524386405945</t>
@@ -614,10 +614,10 @@
     <t xml:space="preserve">2.43234300613403</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43661713600159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39386963844299</t>
+    <t xml:space="preserve">2.43661785125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39387011528015</t>
   </si>
   <si>
     <t xml:space="preserve">2.39244508743286</t>
@@ -626,10 +626,10 @@
     <t xml:space="preserve">2.3511221408844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42236852645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53066205978394</t>
+    <t xml:space="preserve">2.42236828804016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53066253662109</t>
   </si>
   <si>
     <t xml:space="preserve">2.57768487930298</t>
@@ -638,46 +638,46 @@
     <t xml:space="preserve">2.58908414840698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63468146324158</t>
+    <t xml:space="preserve">2.63468170166016</t>
   </si>
   <si>
     <t xml:space="preserve">2.6959536075592</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68027949333191</t>
+    <t xml:space="preserve">2.68027925491333</t>
   </si>
   <si>
     <t xml:space="preserve">2.69167876243591</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69737815856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74012565612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74297571182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72445178031921</t>
+    <t xml:space="preserve">2.69737839698792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74012613296509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74297595024109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72445154190063</t>
   </si>
   <si>
     <t xml:space="preserve">2.72302675247192</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72872638702393</t>
+    <t xml:space="preserve">2.7287266254425</t>
   </si>
   <si>
     <t xml:space="preserve">2.76434969902039</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75152516365051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75580048561096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71162748336792</t>
+    <t xml:space="preserve">2.75152540206909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7558000087738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7116277217865</t>
   </si>
   <si>
     <t xml:space="preserve">2.69025373458862</t>
@@ -692,25 +692,25 @@
     <t xml:space="preserve">2.58338451385498</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55346131324768</t>
+    <t xml:space="preserve">2.5534610748291</t>
   </si>
   <si>
     <t xml:space="preserve">2.5206880569458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60618329048157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56058597564697</t>
+    <t xml:space="preserve">2.60618305206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56058573722839</t>
   </si>
   <si>
     <t xml:space="preserve">2.5449116230011</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54063677787781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50501394271851</t>
+    <t xml:space="preserve">2.54063701629639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50501370429993</t>
   </si>
   <si>
     <t xml:space="preserve">2.49788928031921</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">2.53351235389709</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57625985145569</t>
+    <t xml:space="preserve">2.57626008987427</t>
   </si>
   <si>
     <t xml:space="preserve">2.60048365592957</t>
@@ -731,10 +731,10 @@
     <t xml:space="preserve">2.59193420410156</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58195972442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55916047096252</t>
+    <t xml:space="preserve">2.58195996284485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55916094779968</t>
   </si>
   <si>
     <t xml:space="preserve">2.58623433113098</t>
@@ -743,52 +743,52 @@
     <t xml:space="preserve">2.53636193275452</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48506498336792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54348683357239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68740367889404</t>
+    <t xml:space="preserve">2.48506474494934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54348659515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68740391731262</t>
   </si>
   <si>
     <t xml:space="preserve">2.69452834129333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75722503662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77147436141968</t>
+    <t xml:space="preserve">2.75722479820251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7714741230011</t>
   </si>
   <si>
     <t xml:space="preserve">2.79712295532227</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78857350349426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79997277259827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83132123947144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90541696548462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03508496284485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06215858459473</t>
+    <t xml:space="preserve">2.78857326507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79997253417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83132076263428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9054172039032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03508520126343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06215834617615</t>
   </si>
   <si>
     <t xml:space="preserve">3.15477824211121</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29727029800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25737309455872</t>
+    <t xml:space="preserve">3.29727101325989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25737285614014</t>
   </si>
   <si>
     <t xml:space="preserve">3.0778329372406</t>
@@ -797,40 +797,40 @@
     <t xml:space="preserve">3.16760301589966</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16190314292908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16047787666321</t>
+    <t xml:space="preserve">3.16190338134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16047811508179</t>
   </si>
   <si>
     <t xml:space="preserve">3.21889972686768</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22174954414368</t>
+    <t xml:space="preserve">3.22175002098083</t>
   </si>
   <si>
     <t xml:space="preserve">3.27589678764343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28159642219543</t>
+    <t xml:space="preserve">3.28159618377686</t>
   </si>
   <si>
     <t xml:space="preserve">3.26877188682556</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23172378540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1291298866272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19610142707825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10063171386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19752597808838</t>
+    <t xml:space="preserve">3.23172402381897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12913012504578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19610118865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10063147544861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1975257396698</t>
   </si>
   <si>
     <t xml:space="preserve">3.23884868621826</t>
@@ -839,64 +839,64 @@
     <t xml:space="preserve">3.22602438926697</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29157090187073</t>
+    <t xml:space="preserve">3.29157114028931</t>
   </si>
   <si>
     <t xml:space="preserve">3.32576942443848</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28302121162415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31864452362061</t>
+    <t xml:space="preserve">3.28302097320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31864428520203</t>
   </si>
   <si>
     <t xml:space="preserve">3.34001874923706</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39559006690979</t>
+    <t xml:space="preserve">3.39558982849121</t>
   </si>
   <si>
     <t xml:space="preserve">3.3556923866272</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23457384109497</t>
+    <t xml:space="preserve">3.23457431793213</t>
   </si>
   <si>
     <t xml:space="preserve">3.27019715309143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0892322063446</t>
+    <t xml:space="preserve">3.08923196792603</t>
   </si>
   <si>
     <t xml:space="preserve">3.06358361244202</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17489004135132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09706687927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11147832870483</t>
+    <t xml:space="preserve">3.17488980293274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09706664085388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11147856712341</t>
   </si>
   <si>
     <t xml:space="preserve">3.13886046409607</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14462542533875</t>
+    <t xml:space="preserve">3.14462518692017</t>
   </si>
   <si>
     <t xml:space="preserve">3.11003732681274</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1186842918396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07112574577332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03797912597656</t>
+    <t xml:space="preserve">3.11868453025818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07112598419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03797888755798</t>
   </si>
   <si>
     <t xml:space="preserve">3.04806733131409</t>
@@ -905,7 +905,7 @@
     <t xml:space="preserve">2.99762630462646</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00627326965332</t>
+    <t xml:space="preserve">3.0062735080719</t>
   </si>
   <si>
     <t xml:space="preserve">2.97744989395142</t>
@@ -917,19 +917,19 @@
     <t xml:space="preserve">2.8722448348999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90395045280457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8909797668457</t>
+    <t xml:space="preserve">2.90395069122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89098000526428</t>
   </si>
   <si>
     <t xml:space="preserve">2.87512707710266</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84918618202209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92700886726379</t>
+    <t xml:space="preserve">2.84918594360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92700910568237</t>
   </si>
   <si>
     <t xml:space="preserve">2.9068329334259</t>
@@ -938,19 +938,19 @@
     <t xml:space="preserve">2.86936259269714</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87800931930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85783338546753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8535099029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87080359458923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82468628883362</t>
+    <t xml:space="preserve">2.878009557724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85783314704895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85350966453552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87080383300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8246865272522</t>
   </si>
   <si>
     <t xml:space="preserve">2.79298067092896</t>
@@ -962,37 +962,37 @@
     <t xml:space="preserve">2.81027483940125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80018639564514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79153943061829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72956967353821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75262808799744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75983357429504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74686360359192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95439100265503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92124485969543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92845010757446</t>
+    <t xml:space="preserve">2.80018615722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79153966903687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72956943511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75262784957886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75983381271362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74686336517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95439147949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92124438285828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92845034599304</t>
   </si>
   <si>
     <t xml:space="preserve">2.9255678653717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83189225196838</t>
+    <t xml:space="preserve">2.8318920135498</t>
   </si>
   <si>
     <t xml:space="preserve">2.84342169761658</t>
@@ -1007,22 +1007,22 @@
     <t xml:space="preserve">2.82612752914429</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78865718841553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80739212036133</t>
+    <t xml:space="preserve">2.78865694999695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80739235877991</t>
   </si>
   <si>
     <t xml:space="preserve">2.80883359909058</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84053897857666</t>
+    <t xml:space="preserve">2.84053921699524</t>
   </si>
   <si>
     <t xml:space="preserve">2.85495066642761</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86503911018372</t>
+    <t xml:space="preserve">2.86503887176514</t>
   </si>
   <si>
     <t xml:space="preserve">2.87656831741333</t>
@@ -1031,19 +1031,19 @@
     <t xml:space="preserve">2.90827369689941</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83909773826599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73821640014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7555103302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76848101615906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70218706130981</t>
+    <t xml:space="preserve">2.83909797668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73821663856506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75551009178162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76848077774048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70218729972839</t>
   </si>
   <si>
     <t xml:space="preserve">2.72668719291687</t>
@@ -1061,25 +1061,25 @@
     <t xml:space="preserve">2.67480492591858</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67336416244507</t>
+    <t xml:space="preserve">2.67336392402649</t>
   </si>
   <si>
     <t xml:space="preserve">2.65895223617554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67624616622925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75406885147095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7944221496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79874539375305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74542212486267</t>
+    <t xml:space="preserve">2.67624592781067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75406932830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79442167282104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79874563217163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74542236328125</t>
   </si>
   <si>
     <t xml:space="preserve">2.78577494621277</t>
@@ -1088,40 +1088,40 @@
     <t xml:space="preserve">2.92268586158752</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0250084400177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02644944190979</t>
+    <t xml:space="preserve">3.02500867843628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02644920349121</t>
   </si>
   <si>
     <t xml:space="preserve">3.06968474388123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1057140827179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12156653404236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17056608200073</t>
+    <t xml:space="preserve">3.10571384429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12156629562378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17056655883789</t>
   </si>
   <si>
     <t xml:space="preserve">3.14174270629883</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13597869873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09850835800171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05671453475952</t>
+    <t xml:space="preserve">3.13597846031189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09850811958313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05671405792236</t>
   </si>
   <si>
     <t xml:space="preserve">3.07689046859741</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08409643173218</t>
+    <t xml:space="preserve">3.08409667015076</t>
   </si>
   <si>
     <t xml:space="preserve">3.07400798797607</t>
@@ -1130,151 +1130,151 @@
     <t xml:space="preserve">3.04086112976074</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0538318157196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17921352386475</t>
+    <t xml:space="preserve">3.05383157730103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17921328544617</t>
   </si>
   <si>
     <t xml:space="preserve">3.12589001655579</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05527281761169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07977294921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14894866943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16191911697388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1475076675415</t>
+    <t xml:space="preserve">3.05527257919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07977271080017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14894890785217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16191935539246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14750742912292</t>
   </si>
   <si>
     <t xml:space="preserve">3.09994912147522</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13453674316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15903687477112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15471339225769</t>
+    <t xml:space="preserve">3.13453722000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1590371131897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15471315383911</t>
   </si>
   <si>
     <t xml:space="preserve">3.12877225875854</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11580204963684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10427260398865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12012529373169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05815553665161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00483226776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97168564796448</t>
+    <t xml:space="preserve">3.11580181121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10427284240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12012577056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05815529823303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00483202934265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9716854095459</t>
   </si>
   <si>
     <t xml:space="preserve">2.7843337059021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82180380821228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86792159080505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89674472808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88233327865601</t>
+    <t xml:space="preserve">2.82180404663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86792135238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8967444896698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88233304023743</t>
   </si>
   <si>
     <t xml:space="preserve">2.85062742233276</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82900977134705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82324504852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7036280632019</t>
+    <t xml:space="preserve">2.82901000976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82324528694153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70362830162048</t>
   </si>
   <si>
     <t xml:space="preserve">2.72236371040344</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70506978034973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71227502822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6560697555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69858431816101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76703953742981</t>
+    <t xml:space="preserve">2.70506954193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71227526664734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65606999397278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69858407974243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76703977584839</t>
   </si>
   <si>
     <t xml:space="preserve">2.78505420684814</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72740793228149</t>
+    <t xml:space="preserve">2.72740769386292</t>
   </si>
   <si>
     <t xml:space="preserve">2.69498133659363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7346134185791</t>
+    <t xml:space="preserve">2.73461365699768</t>
   </si>
   <si>
     <t xml:space="preserve">2.7057900428772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7310106754303</t>
+    <t xml:space="preserve">2.73101043701172</t>
   </si>
   <si>
     <t xml:space="preserve">2.72020173072815</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79226016998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84630393981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.774245262146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77064251899719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70939302444458</t>
+    <t xml:space="preserve">2.79225993156433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84630370140076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77424550056458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77064275741577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.709392786026</t>
   </si>
   <si>
     <t xml:space="preserve">2.74181938171387</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71299624443054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63373184204102</t>
+    <t xml:space="preserve">2.71299600601196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63373160362244</t>
   </si>
   <si>
     <t xml:space="preserve">2.62652587890625</t>
@@ -1286,7 +1286,7 @@
     <t xml:space="preserve">2.65534925460815</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64814329147339</t>
+    <t xml:space="preserve">2.64814352989197</t>
   </si>
   <si>
     <t xml:space="preserve">2.58689379692078</t>
@@ -1295,40 +1295,40 @@
     <t xml:space="preserve">2.5724823474884</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57968783378601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55807065963745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56167340278625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55086445808411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56887912750244</t>
+    <t xml:space="preserve">2.57968807220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55807042121887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56167364120483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55086469650269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56887936592102</t>
   </si>
   <si>
     <t xml:space="preserve">2.43557143211365</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37432193756104</t>
+    <t xml:space="preserve">2.37432169914246</t>
   </si>
   <si>
     <t xml:space="preserve">2.30946898460388</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39593911170959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41755700111389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41395354270935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36351323127747</t>
+    <t xml:space="preserve">2.39593935012817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41755676269531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41395378112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36351299285889</t>
   </si>
   <si>
     <t xml:space="preserve">2.35991024971008</t>
@@ -1337,7 +1337,7 @@
     <t xml:space="preserve">2.29505753517151</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4499831199646</t>
+    <t xml:space="preserve">2.44998288154602</t>
   </si>
   <si>
     <t xml:space="preserve">2.3527045249939</t>
@@ -1352,16 +1352,16 @@
     <t xml:space="preserve">2.44638013839722</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4211597442627</t>
+    <t xml:space="preserve">2.42115998268127</t>
   </si>
   <si>
     <t xml:space="preserve">2.50762987136841</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59409976005554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56527614593506</t>
+    <t xml:space="preserve">2.59409999847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56527638435364</t>
   </si>
   <si>
     <t xml:space="preserve">2.63012909889221</t>
@@ -1370,7 +1370,7 @@
     <t xml:space="preserve">2.65174651145935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62292313575745</t>
+    <t xml:space="preserve">2.62292289733887</t>
   </si>
   <si>
     <t xml:space="preserve">2.60130548477173</t>
@@ -1382,7 +1382,7 @@
     <t xml:space="preserve">2.6373348236084</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6841721534729</t>
+    <t xml:space="preserve">2.68417239189148</t>
   </si>
   <si>
     <t xml:space="preserve">2.66615796089172</t>
@@ -1391,19 +1391,19 @@
     <t xml:space="preserve">2.69137835502625</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67696690559387</t>
+    <t xml:space="preserve">2.67696666717529</t>
   </si>
   <si>
     <t xml:space="preserve">2.73281192779541</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62172174453735</t>
+    <t xml:space="preserve">2.62172198295593</t>
   </si>
   <si>
     <t xml:space="preserve">2.49582004547119</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48841404914856</t>
+    <t xml:space="preserve">2.48841428756714</t>
   </si>
   <si>
     <t xml:space="preserve">2.403244972229</t>
@@ -1412,13 +1412,13 @@
     <t xml:space="preserve">2.43657207489014</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45878982543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39213585853577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40694832801819</t>
+    <t xml:space="preserve">2.45879006385803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39213609695435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40694808959961</t>
   </si>
   <si>
     <t xml:space="preserve">2.36991810798645</t>
@@ -1430,16 +1430,16 @@
     <t xml:space="preserve">2.21068906784058</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32548236846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37732410430908</t>
+    <t xml:space="preserve">2.32548213005066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37732434272766</t>
   </si>
   <si>
     <t xml:space="preserve">2.38843321800232</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42916631698608</t>
+    <t xml:space="preserve">2.4291660785675</t>
   </si>
   <si>
     <t xml:space="preserve">2.41805720329285</t>
@@ -1454,31 +1454,31 @@
     <t xml:space="preserve">2.52174115180969</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53284978866577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57728600502014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5254442691803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45508718490601</t>
+    <t xml:space="preserve">2.53285026550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57728624343872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52544403076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45508694648743</t>
   </si>
   <si>
     <t xml:space="preserve">2.58098888397217</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54395914077759</t>
+    <t xml:space="preserve">2.54395890235901</t>
   </si>
   <si>
     <t xml:space="preserve">2.4736020565033</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44768142700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53655290603638</t>
+    <t xml:space="preserve">2.44768118858337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53655314445496</t>
   </si>
   <si>
     <t xml:space="preserve">2.4773051738739</t>
@@ -1490,46 +1490,46 @@
     <t xml:space="preserve">2.48100805282593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46619606018066</t>
+    <t xml:space="preserve">2.46619582176208</t>
   </si>
   <si>
     <t xml:space="preserve">2.39583897590637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41065120697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35140299797058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.366215467453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34399724006653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35880923271179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35510635375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3625123500824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30696725845337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31066989898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32177901268005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39954209327698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38102698326111</t>
+    <t xml:space="preserve">2.41065144538879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35140323638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36621522903442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34399747848511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35880899429321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35510659217834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36251211166382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30696749687195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3106701374054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32177925109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39954233169556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38102722167969</t>
   </si>
   <si>
     <t xml:space="preserve">2.41435408592224</t>
@@ -1538,7 +1538,7 @@
     <t xml:space="preserve">2.37362098693848</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31807637214661</t>
+    <t xml:space="preserve">2.31807661056519</t>
   </si>
   <si>
     <t xml:space="preserve">2.29585838317871</t>
@@ -1553,37 +1553,37 @@
     <t xml:space="preserve">2.30326414108276</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32918500900269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27734327316284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26623439788818</t>
+    <t xml:space="preserve">2.32918548583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27734303474426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2662341594696</t>
   </si>
   <si>
     <t xml:space="preserve">2.29215526580811</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27364015579224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28845238685608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28474926948547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38473033905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20698642730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24031329154968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15514445304871</t>
+    <t xml:space="preserve">2.27364039421082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2884521484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28474950790405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38473010063171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20698618888855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24031352996826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15514421463013</t>
   </si>
   <si>
     <t xml:space="preserve">2.13292646408081</t>
@@ -1595,34 +1595,34 @@
     <t xml:space="preserve">2.1033022403717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09959936141968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08849024772644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10700559616089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0625696182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9885094165802</t>
+    <t xml:space="preserve">2.09959959983826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08849048614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10700535774231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06256937980652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98850929737091</t>
   </si>
   <si>
     <t xml:space="preserve">1.95147931575775</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02553915977478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0662727355957</t>
+    <t xml:space="preserve">2.02553939819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06627225875854</t>
   </si>
   <si>
     <t xml:space="preserve">2.04775738716125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06997537612915</t>
+    <t xml:space="preserve">2.06997561454773</t>
   </si>
   <si>
     <t xml:space="preserve">2.12922334671021</t>
@@ -1631,13 +1631,13 @@
     <t xml:space="preserve">2.14403533935547</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13662958145142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18847107887268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21439218521118</t>
+    <t xml:space="preserve">2.13662934303284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18847155570984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21439242362976</t>
   </si>
   <si>
     <t xml:space="preserve">2.23290705680847</t>
@@ -1655,10 +1655,10 @@
     <t xml:space="preserve">2.21809530258179</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11811423301697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07367825508118</t>
+    <t xml:space="preserve">2.11811447143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07367849349976</t>
   </si>
   <si>
     <t xml:space="preserve">2.11070823669434</t>
@@ -1667,25 +1667,25 @@
     <t xml:space="preserve">2.24771952629089</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3365912437439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51063203811646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65504908561707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68096971511841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60320687294006</t>
+    <t xml:space="preserve">2.33659100532532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51063227653503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65504932403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68096995353699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60320734977722</t>
   </si>
   <si>
     <t xml:space="preserve">2.62912797927856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65875196456909</t>
+    <t xml:space="preserve">2.65875172615051</t>
   </si>
   <si>
     <t xml:space="preserve">2.65134596824646</t>
@@ -1694,28 +1694,28 @@
     <t xml:space="preserve">2.62542510032654</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71799993515015</t>
+    <t xml:space="preserve">2.71800017356873</t>
   </si>
   <si>
     <t xml:space="preserve">2.70318818092346</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72910904884338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69207882881165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71429681777954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75502991676331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8031690120697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81798100471497</t>
+    <t xml:space="preserve">2.7291088104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69207906723022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71429705619812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75502967834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80316877365112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81798076629639</t>
   </si>
   <si>
     <t xml:space="preserve">2.84390187263489</t>
@@ -1724,13 +1724,13 @@
     <t xml:space="preserve">2.87352585792542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86241698265076</t>
+    <t xml:space="preserve">2.86241674423218</t>
   </si>
   <si>
     <t xml:space="preserve">2.88093185424805</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76243591308594</t>
+    <t xml:space="preserve">2.76243615150452</t>
   </si>
   <si>
     <t xml:space="preserve">2.76984190940857</t>
@@ -1739,19 +1739,19 @@
     <t xml:space="preserve">2.7994658946991</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79205989837646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81427788734436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79576301574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75873255729675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85871362686157</t>
+    <t xml:space="preserve">2.79205965995789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81427764892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79576325416565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75873279571533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85871386528015</t>
   </si>
   <si>
     <t xml:space="preserve">2.90314984321594</t>
@@ -1772,7 +1772,7 @@
     <t xml:space="preserve">2.98091268539429</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91796159744263</t>
+    <t xml:space="preserve">2.91796183586121</t>
   </si>
   <si>
     <t xml:space="preserve">2.94758582115173</t>
@@ -1787,19 +1787,19 @@
     <t xml:space="preserve">2.95499181747437</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93277406692505</t>
+    <t xml:space="preserve">2.93277359008789</t>
   </si>
   <si>
     <t xml:space="preserve">2.91055583953857</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96980404853821</t>
+    <t xml:space="preserve">2.96980381011963</t>
   </si>
   <si>
     <t xml:space="preserve">2.97720980644226</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94017958641052</t>
+    <t xml:space="preserve">2.94018006324768</t>
   </si>
   <si>
     <t xml:space="preserve">2.89944672584534</t>
@@ -1811,16 +1811,16 @@
     <t xml:space="preserve">2.86611986160278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80687189102173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83279299736023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85501074790955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71059393882751</t>
+    <t xml:space="preserve">2.80687212944031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83279323577881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85501098632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71059370040894</t>
   </si>
   <si>
     <t xml:space="preserve">2.70689105987549</t>
@@ -1841,10 +1841,10 @@
     <t xml:space="preserve">2.61801910400391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69578194618225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68467307090759</t>
+    <t xml:space="preserve">2.69578218460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68467283248901</t>
   </si>
   <si>
     <t xml:space="preserve">2.68837594985962</t>
@@ -1853,40 +1853,40 @@
     <t xml:space="preserve">2.6143159866333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56988024711609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49211692810059</t>
+    <t xml:space="preserve">2.56988000869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49211716651917</t>
   </si>
   <si>
     <t xml:space="preserve">2.50692915916443</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34770035743713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23661017417908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18476819992065</t>
+    <t xml:space="preserve">2.34770011901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23661041259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18476843833923</t>
   </si>
   <si>
     <t xml:space="preserve">2.19587731361389</t>
   </si>
   <si>
-    <t xml:space="preserve">2.299480676651</t>
+    <t xml:space="preserve">2.29948091506958</t>
   </si>
   <si>
     <t xml:space="preserve">2.21777319908142</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10882997512817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12439346313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08937573432922</t>
+    <t xml:space="preserve">2.10883021354675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12439370155334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0893759727478</t>
   </si>
   <si>
     <t xml:space="preserve">2.10104846954346</t>
@@ -1895,58 +1895,58 @@
     <t xml:space="preserve">2.10493922233582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09326696395874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12050247192383</t>
+    <t xml:space="preserve">2.09326672554016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12050271034241</t>
   </si>
   <si>
     <t xml:space="preserve">2.13995671272278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12828421592712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07770347595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0504674911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04657673835754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03490424156189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05435848236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03101325035095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02323198318481</t>
+    <t xml:space="preserve">2.12828397750854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07770371437073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05046772956848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04657697677612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03490447998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05435872077942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03101348876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02323174476624</t>
   </si>
   <si>
     <t xml:space="preserve">2.0582492351532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04268598556519</t>
+    <t xml:space="preserve">2.04268622398376</t>
   </si>
   <si>
     <t xml:space="preserve">2.22944593429565</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18664646148682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96876001358032</t>
+    <t xml:space="preserve">2.18664693832397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9687602519989</t>
   </si>
   <si>
     <t xml:space="preserve">2.00377774238586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92985200881958</t>
+    <t xml:space="preserve">1.92985188961029</t>
   </si>
   <si>
     <t xml:space="preserve">2.02712249755859</t>
@@ -1961,100 +1961,100 @@
     <t xml:space="preserve">1.79367291927338</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76643681526184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8092360496521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75087368488312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74698269367218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69251108169556</t>
+    <t xml:space="preserve">1.76643693447113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80923616886139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7508739233017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74698281288147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69251120090485</t>
   </si>
   <si>
     <t xml:space="preserve">1.78978192806244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82090842723846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73920106887817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74309194087982</t>
+    <t xml:space="preserve">1.82090878486633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73920118808746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74309206008911</t>
   </si>
   <si>
     <t xml:space="preserve">1.69640207290649</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71196532249451</t>
+    <t xml:space="preserve">1.7119654417038</t>
   </si>
   <si>
     <t xml:space="preserve">1.7197470664978</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7041836977005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78589117527008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73141944408417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71585607528687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73531031608582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78200030326843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8325811624527</t>
+    <t xml:space="preserve">1.70418381690979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78589129447937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73141956329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71585619449615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7353104352951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78200042247772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83258104324341</t>
   </si>
   <si>
     <t xml:space="preserve">1.80145454406738</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8403627872467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85592615604401</t>
+    <t xml:space="preserve">1.84036290645599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85592603683472</t>
   </si>
   <si>
     <t xml:space="preserve">1.83647191524506</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87927103042603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79756355285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77032780647278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82869017124176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75476455688477</t>
+    <t xml:space="preserve">1.8792712688446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79756367206573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77032792568207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82869029045105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75476467609406</t>
   </si>
   <si>
     <t xml:space="preserve">1.75865530967712</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76254630088806</t>
+    <t xml:space="preserve">1.76254618167877</t>
   </si>
   <si>
     <t xml:space="preserve">1.80534529685974</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81701767444611</t>
+    <t xml:space="preserve">1.81701803207397</t>
   </si>
   <si>
     <t xml:space="preserve">1.82479953765869</t>
@@ -2063,25 +2063,25 @@
     <t xml:space="preserve">1.91428852081299</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93374264240265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89094364643097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87538027763367</t>
+    <t xml:space="preserve">1.93374276161194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89094376564026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87538015842438</t>
   </si>
   <si>
     <t xml:space="preserve">1.90650689601898</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89483428001404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85981702804565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92207038402557</t>
+    <t xml:space="preserve">1.89483439922333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85981726646423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92207050323486</t>
   </si>
   <si>
     <t xml:space="preserve">2.01155948638916</t>
@@ -2096,7 +2096,7 @@
     <t xml:space="preserve">2.08159422874451</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06214022636414</t>
+    <t xml:space="preserve">2.06213998794556</t>
   </si>
   <si>
     <t xml:space="preserve">2.13217496871948</t>
@@ -2108,13 +2108,13 @@
     <t xml:space="preserve">2.19053769111633</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15551996231079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19831919670105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17108345031738</t>
+    <t xml:space="preserve">2.15552020072937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19831943511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1710832118988</t>
   </si>
   <si>
     <t xml:space="preserve">2.14384770393372</t>
@@ -2129,22 +2129,22 @@
     <t xml:space="preserve">2.01545023918152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98821437358856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15941095352173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13606572151184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01934123039246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87148928642273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91039764881134</t>
+    <t xml:space="preserve">1.98821449279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15941119194031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13606595993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01934099197388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87148940563202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91039776802063</t>
   </si>
   <si>
     <t xml:space="preserve">1.92596101760864</t>
@@ -2153,58 +2153,58 @@
     <t xml:space="preserve">1.89872527122498</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95319676399231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99988687038422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95708763599396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96486926078796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99210512638092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72752869129181</t>
+    <t xml:space="preserve">1.9531968832016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99988675117493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95708775520325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96486961841583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99210524559021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72752857208252</t>
   </si>
   <si>
     <t xml:space="preserve">1.68862056732178</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62636697292328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59524047374725</t>
+    <t xml:space="preserve">1.62636709213257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59524035453796</t>
   </si>
   <si>
     <t xml:space="preserve">1.54232513904572</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48941004276276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45361423492432</t>
+    <t xml:space="preserve">1.48940992355347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45361435413361</t>
   </si>
   <si>
     <t xml:space="preserve">1.33844578266144</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30420649051666</t>
+    <t xml:space="preserve">1.30420637130737</t>
   </si>
   <si>
     <t xml:space="preserve">1.27619242668152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09098887443542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16102373600006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08009445667267</t>
+    <t xml:space="preserve">1.09098875522614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16102385520935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08009457588196</t>
   </si>
   <si>
     <t xml:space="preserve">1.05986225605011</t>
@@ -2216,7 +2216,7 @@
     <t xml:space="preserve">1.10188317298889</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22483348846436</t>
+    <t xml:space="preserve">1.22483336925507</t>
   </si>
   <si>
     <t xml:space="preserve">1.31976974010468</t>
@@ -2231,7 +2231,7 @@
     <t xml:space="preserve">1.26685440540314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27152335643768</t>
+    <t xml:space="preserve">1.27152347564697</t>
   </si>
   <si>
     <t xml:space="preserve">1.32288241386414</t>
@@ -2240,7 +2240,7 @@
     <t xml:space="preserve">1.28864312171936</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28397405147552</t>
+    <t xml:space="preserve">1.28397417068481</t>
   </si>
   <si>
     <t xml:space="preserve">1.29331207275391</t>
@@ -2255,7 +2255,7 @@
     <t xml:space="preserve">1.26062905788422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29642462730408</t>
+    <t xml:space="preserve">1.29642474651337</t>
   </si>
   <si>
     <t xml:space="preserve">1.29798102378845</t>
@@ -2267,13 +2267,13 @@
     <t xml:space="preserve">1.29953730106354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31354415416718</t>
+    <t xml:space="preserve">1.31354439258575</t>
   </si>
   <si>
     <t xml:space="preserve">1.29175567626953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28241765499115</t>
+    <t xml:space="preserve">1.28241777420044</t>
   </si>
   <si>
     <t xml:space="preserve">1.2295024394989</t>
@@ -2291,7 +2291,7 @@
     <t xml:space="preserve">1.17503070831299</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1330099105835</t>
+    <t xml:space="preserve">1.13300979137421</t>
   </si>
   <si>
     <t xml:space="preserve">1.10343956947327</t>
@@ -2309,22 +2309,22 @@
     <t xml:space="preserve">1.06764388084412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12211561203003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10655212402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14234793186188</t>
+    <t xml:space="preserve">1.12211549282074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10655224323273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14234781265259</t>
   </si>
   <si>
     <t xml:space="preserve">1.15012955665588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13923525810242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19837582111359</t>
+    <t xml:space="preserve">1.13923513889313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1983757019043</t>
   </si>
   <si>
     <t xml:space="preserve">1.2450658082962</t>
@@ -2339,25 +2339,25 @@
     <t xml:space="preserve">1.28708684444427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27930510044098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17969977855682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1641366481781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23572778701782</t>
+    <t xml:space="preserve">1.27930498123169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17969989776611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16413652896881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23572790622711</t>
   </si>
   <si>
     <t xml:space="preserve">1.20615744590759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20771384239197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18748152256012</t>
+    <t xml:space="preserve">1.20771372318268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18748140335083</t>
   </si>
   <si>
     <t xml:space="preserve">1.21082651615143</t>
@@ -2366,16 +2366,16 @@
     <t xml:space="preserve">1.17814350128174</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18592524528503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13612246513367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1579110622406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14079141616821</t>
+    <t xml:space="preserve">1.18592512607574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13612258434296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15791118144989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1407915353775</t>
   </si>
   <si>
     <t xml:space="preserve">1.18436884880066</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">1.17036175727844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14546036720276</t>
+    <t xml:space="preserve">1.14546048641205</t>
   </si>
   <si>
     <t xml:space="preserve">1.16724920272827</t>
@@ -2396,19 +2396,19 @@
     <t xml:space="preserve">1.15168583393097</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17191827297211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16569268703461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1563549041748</t>
+    <t xml:space="preserve">1.17191815376282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1656928062439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15635478496552</t>
   </si>
   <si>
     <t xml:space="preserve">1.12522828578949</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09565794467926</t>
+    <t xml:space="preserve">1.09565782546997</t>
   </si>
   <si>
     <t xml:space="preserve">1.08165085315704</t>
@@ -2417,10 +2417,10 @@
     <t xml:space="preserve">1.06608748435974</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08320713043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06297492980957</t>
+    <t xml:space="preserve">1.08320724964142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06297504901886</t>
   </si>
   <si>
     <t xml:space="preserve">1.04896783828735</t>
@@ -2429,13 +2429,13 @@
     <t xml:space="preserve">1.09410154819489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07075667381287</t>
+    <t xml:space="preserve">1.07075655460358</t>
   </si>
   <si>
     <t xml:space="preserve">1.09721410274506</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0614185333252</t>
+    <t xml:space="preserve">1.06141841411591</t>
   </si>
   <si>
     <t xml:space="preserve">1.05052423477173</t>
@@ -2450,76 +2450,76 @@
     <t xml:space="preserve">1.04118621349335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03340470790863</t>
+    <t xml:space="preserve">1.03340458869934</t>
   </si>
   <si>
     <t xml:space="preserve">1.03496086597443</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0365172624588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02251029014587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99605256319046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01628506183624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00850343704224</t>
+    <t xml:space="preserve">1.03651738166809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02251017093658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.996052622795105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01628482341766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00850331783295</t>
   </si>
   <si>
     <t xml:space="preserve">1.01005959510803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00072157382965</t>
+    <t xml:space="preserve">1.00072169303894</t>
   </si>
   <si>
     <t xml:space="preserve">0.991383731365204</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966482281684875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96492600440979</t>
+    <t xml:space="preserve">0.966482400894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964925944805145</t>
   </si>
   <si>
     <t xml:space="preserve">0.958700597286224</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954031586647034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975820243358612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.989827156066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.969595015048981</t>
+    <t xml:space="preserve">0.954031646251678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975820302963257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.989827215671539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.969594955444336</t>
   </si>
   <si>
     <t xml:space="preserve">0.949362635612488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.968038558959961</t>
+    <t xml:space="preserve">0.968038499355316</t>
   </si>
   <si>
     <t xml:space="preserve">0.957144260406494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.980489134788513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99916535615921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06453120708466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05830585956573</t>
+    <t xml:space="preserve">0.980489313602448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999165296554565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06453132629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05830597877502</t>
   </si>
   <si>
     <t xml:space="preserve">1.02406656742096</t>
@@ -2531,19 +2531,19 @@
     <t xml:space="preserve">0.985158324241638</t>
   </si>
   <si>
-    <t xml:space="preserve">0.941580951213837</t>
+    <t xml:space="preserve">0.941581070423126</t>
   </si>
   <si>
     <t xml:space="preserve">0.933799266815186</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904228925704956</t>
+    <t xml:space="preserve">0.904228985309601</t>
   </si>
   <si>
     <t xml:space="preserve">0.879327654838562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887109279632568</t>
+    <t xml:space="preserve">0.887109339237213</t>
   </si>
   <si>
     <t xml:space="preserve">0.888665616512299</t>
@@ -2555,31 +2555,31 @@
     <t xml:space="preserve">0.83575040102005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80306738615036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.787504136562347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.829525113105774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.831081330776215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.840419471263885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826412379741669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817074418067932</t>
+    <t xml:space="preserve">0.803067326545715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.787504017353058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.829525053501129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.831081390380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.840419411659241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826412439346313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817074358463287</t>
   </si>
   <si>
     <t xml:space="preserve">0.866877019405365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89644730091095</t>
+    <t xml:space="preserve">0.896447241306305</t>
   </si>
   <si>
     <t xml:space="preserve">0.902672648429871</t>
@@ -2594,34 +2594,34 @@
     <t xml:space="preserve">0.977376639842987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.96336966753006</t>
+    <t xml:space="preserve">0.963369607925415</t>
   </si>
   <si>
     <t xml:space="preserve">0.983601987361908</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978933036327362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92913031578064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961813271045685</t>
+    <t xml:space="preserve">0.978932976722717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.929130256175995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961813151836395</t>
   </si>
   <si>
     <t xml:space="preserve">0.946249961853027</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943137347698212</t>
+    <t xml:space="preserve">0.943137288093567</t>
   </si>
   <si>
     <t xml:space="preserve">0.930686712265015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.952475368976593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.927573978900909</t>
+    <t xml:space="preserve">0.952475309371948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.927574038505554</t>
   </si>
   <si>
     <t xml:space="preserve">0.926017701625824</t>
@@ -2630,22 +2630,22 @@
     <t xml:space="preserve">0.935355722904205</t>
   </si>
   <si>
-    <t xml:space="preserve">0.971151351928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947806477546692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.919792354106903</t>
+    <t xml:space="preserve">0.971151411533356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947806417942047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.919792294502258</t>
   </si>
   <si>
     <t xml:space="preserve">0.913567006587982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.907341718673706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916679620742798</t>
+    <t xml:space="preserve">0.907341599464417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916679680347443</t>
   </si>
   <si>
     <t xml:space="preserve">0.8995600938797</t>
@@ -2660,7 +2660,7 @@
     <t xml:space="preserve">0.894890964031219</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910454213619232</t>
+    <t xml:space="preserve">0.910454392433167</t>
   </si>
   <si>
     <t xml:space="preserve">0.944693624973297</t>
@@ -2675,7 +2675,7 @@
     <t xml:space="preserve">1.13767886161804</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15946757793427</t>
+    <t xml:space="preserve">1.15946745872498</t>
   </si>
   <si>
     <t xml:space="preserve">1.12989723682404</t>
@@ -2687,22 +2687,22 @@
     <t xml:space="preserve">1.09877049922943</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07231283187866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12834084033966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12055921554565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11744654178619</t>
+    <t xml:space="preserve">1.07231295108795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12834095954895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12055909633636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1174464225769</t>
   </si>
   <si>
     <t xml:space="preserve">1.15479850769043</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31198811531067</t>
+    <t xml:space="preserve">1.31198799610138</t>
   </si>
   <si>
     <t xml:space="preserve">1.25907278060913</t>
@@ -2723,22 +2723,22 @@
     <t xml:space="preserve">1.23105871677399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2699670791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25751650333405</t>
+    <t xml:space="preserve">1.26996695995331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25751638412476</t>
   </si>
   <si>
     <t xml:space="preserve">1.26841068267822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27307987213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36023426055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38513553142548</t>
+    <t xml:space="preserve">1.27307975292206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36023437976837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38513565063477</t>
   </si>
   <si>
     <t xml:space="preserve">1.40069901943207</t>
@@ -2747,13 +2747,13 @@
     <t xml:space="preserve">1.40381169319153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37112867832184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3991425037384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39447367191315</t>
+    <t xml:space="preserve">1.37112855911255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39914274215698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39447379112244</t>
   </si>
   <si>
     <t xml:space="preserve">1.38980460166931</t>
@@ -2765,10 +2765,10 @@
     <t xml:space="preserve">1.39136099815369</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4053680896759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4380509853363</t>
+    <t xml:space="preserve">1.40536797046661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43805086612701</t>
   </si>
   <si>
     <t xml:space="preserve">1.52053654193878</t>
@@ -2777,13 +2777,13 @@
     <t xml:space="preserve">1.57189548015594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56022322177887</t>
+    <t xml:space="preserve">1.56022310256958</t>
   </si>
   <si>
     <t xml:space="preserve">1.58745884895325</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53765606880188</t>
+    <t xml:space="preserve">1.53765618801117</t>
   </si>
   <si>
     <t xml:space="preserve">1.51431119441986</t>
@@ -2795,37 +2795,37 @@
     <t xml:space="preserve">1.50497329235077</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49096620082855</t>
+    <t xml:space="preserve">1.49096632003784</t>
   </si>
   <si>
     <t xml:space="preserve">1.51798808574677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46871304512024</t>
+    <t xml:space="preserve">1.46871316432953</t>
   </si>
   <si>
     <t xml:space="preserve">1.45281779766083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46712350845337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47348153591156</t>
+    <t xml:space="preserve">1.46712338924408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47348165512085</t>
   </si>
   <si>
     <t xml:space="preserve">1.48619771003723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48937678337097</t>
+    <t xml:space="preserve">1.48937666416168</t>
   </si>
   <si>
     <t xml:space="preserve">1.48142910003662</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54818868637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55454683303833</t>
+    <t xml:space="preserve">1.54818880558014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55454695224762</t>
   </si>
   <si>
     <t xml:space="preserve">1.5561363697052</t>
@@ -2837,7 +2837,7 @@
     <t xml:space="preserve">1.56567347049713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56726312637329</t>
+    <t xml:space="preserve">1.567263007164</t>
   </si>
   <si>
     <t xml:space="preserve">1.53706228733063</t>
@@ -2849,22 +2849,22 @@
     <t xml:space="preserve">1.47030258178711</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44328081607819</t>
+    <t xml:space="preserve">1.4432806968689</t>
   </si>
   <si>
     <t xml:space="preserve">1.40672183036804</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43374371528625</t>
+    <t xml:space="preserve">1.43374359607697</t>
   </si>
   <si>
     <t xml:space="preserve">1.44487023353577</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39241623878479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35744678974152</t>
+    <t xml:space="preserve">1.39241635799408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35744690895081</t>
   </si>
   <si>
     <t xml:space="preserve">1.34949922561646</t>
@@ -2873,43 +2873,43 @@
     <t xml:space="preserve">1.34790980815887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33201467990875</t>
+    <t xml:space="preserve">1.33201456069946</t>
   </si>
   <si>
     <t xml:space="preserve">1.35585737228394</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31929838657379</t>
+    <t xml:space="preserve">1.31929850578308</t>
   </si>
   <si>
     <t xml:space="preserve">1.31453001499176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27638161182404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3018137216568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30499279499054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31135094165802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30340337753296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2843291759491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27479195594788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22074854373932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22233784198761</t>
+    <t xml:space="preserve">1.27638149261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30181384086609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30499291419983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31135082244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30340325832367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28432905673981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27479207515717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22074842453003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2223379611969</t>
   </si>
   <si>
     <t xml:space="preserve">1.2557178735733</t>
@@ -2939,22 +2939,22 @@
     <t xml:space="preserve">1.37652099132538</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36698400974274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35267841815948</t>
+    <t xml:space="preserve">1.36698389053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3526782989502</t>
   </si>
   <si>
     <t xml:space="preserve">1.3749315738678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37970006465912</t>
+    <t xml:space="preserve">1.37969994544983</t>
   </si>
   <si>
     <t xml:space="preserve">1.38128960132599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34314131736755</t>
+    <t xml:space="preserve">1.34314119815826</t>
   </si>
   <si>
     <t xml:space="preserve">1.33678317070007</t>
@@ -2978,10 +2978,10 @@
     <t xml:space="preserve">1.5338830947876</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49732434749603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47189211845398</t>
+    <t xml:space="preserve">1.49732422828674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47189199924469</t>
   </si>
   <si>
     <t xml:space="preserve">1.42738556861877</t>
@@ -2990,13 +2990,13 @@
     <t xml:space="preserve">1.4146693944931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42420661449432</t>
+    <t xml:space="preserve">1.42420649528503</t>
   </si>
   <si>
     <t xml:space="preserve">1.45917594432831</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46076536178589</t>
+    <t xml:space="preserve">1.46076548099518</t>
   </si>
   <si>
     <t xml:space="preserve">1.41943800449371</t>
@@ -3008,7 +3008,7 @@
     <t xml:space="preserve">1.33996224403381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3415515422821</t>
+    <t xml:space="preserve">1.34155166149139</t>
   </si>
   <si>
     <t xml:space="preserve">1.3351936340332</t>
@@ -3029,7 +3029,7 @@
     <t xml:space="preserve">1.33837270736694</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38287913799286</t>
+    <t xml:space="preserve">1.38287925720215</t>
   </si>
   <si>
     <t xml:space="preserve">1.50050342082977</t>
@@ -3038,10 +3038,10 @@
     <t xml:space="preserve">1.52116715908051</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49573469161987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50845086574554</t>
+    <t xml:space="preserve">1.49573481082916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50845098495483</t>
   </si>
   <si>
     <t xml:space="preserve">1.51162993907928</t>
@@ -3050,10 +3050,10 @@
     <t xml:space="preserve">1.50209283828735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51321947574615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47507107257843</t>
+    <t xml:space="preserve">1.51321959495544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47507095336914</t>
   </si>
   <si>
     <t xml:space="preserve">1.44010174274445</t>
@@ -3062,7 +3062,7 @@
     <t xml:space="preserve">1.4877872467041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47983968257904</t>
+    <t xml:space="preserve">1.47983956336975</t>
   </si>
   <si>
     <t xml:space="preserve">1.45599687099457</t>
@@ -3086,7 +3086,7 @@
     <t xml:space="preserve">1.67693960666656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70078253746033</t>
+    <t xml:space="preserve">1.70078241825104</t>
   </si>
   <si>
     <t xml:space="preserve">1.65309679508209</t>
@@ -3098,13 +3098,13 @@
     <t xml:space="preserve">1.55772590637207</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57362115383148</t>
+    <t xml:space="preserve">1.57362103462219</t>
   </si>
   <si>
     <t xml:space="preserve">1.43851208686829</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44645977020264</t>
+    <t xml:space="preserve">1.44645988941193</t>
   </si>
   <si>
     <t xml:space="preserve">1.45440745353699</t>
@@ -3116,16 +3116,16 @@
     <t xml:space="preserve">1.49414527416229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51639842987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61335897445679</t>
+    <t xml:space="preserve">1.5163985490799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61335909366608</t>
   </si>
   <si>
     <t xml:space="preserve">1.61733281612396</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63322806358337</t>
+    <t xml:space="preserve">1.63322794437408</t>
   </si>
   <si>
     <t xml:space="preserve">1.62130653858185</t>
@@ -3134,43 +3134,43 @@
     <t xml:space="preserve">1.59349024295807</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58792674541473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60143768787384</t>
+    <t xml:space="preserve">1.58792662620544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60143780708313</t>
   </si>
   <si>
     <t xml:space="preserve">1.62925410270691</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66104435920715</t>
+    <t xml:space="preserve">1.66104447841644</t>
   </si>
   <si>
     <t xml:space="preserve">1.53865170478821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51957750320435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54183077812195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52911472320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53070402145386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52434611320496</t>
+    <t xml:space="preserve">1.51957738399506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54183089733124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52911460399628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53070425987244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52434599399567</t>
   </si>
   <si>
     <t xml:space="preserve">1.43056464195251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37334203720093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30817198753357</t>
+    <t xml:space="preserve">1.37334215641022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30817186832428</t>
   </si>
   <si>
     <t xml:space="preserve">1.30022442340851</t>
@@ -3191,31 +3191,31 @@
     <t xml:space="preserve">1.40831136703491</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59746384620667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7484678030014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78423178195953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76038908958435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77231049537659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78025805950165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74449396133423</t>
+    <t xml:space="preserve">1.59746372699738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74846792221069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78423202037811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76038920879364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77231073379517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78025817871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74449408054352</t>
   </si>
   <si>
     <t xml:space="preserve">1.81999599933624</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81204843521118</t>
+    <t xml:space="preserve">1.81204855442047</t>
   </si>
   <si>
     <t xml:space="preserve">1.83191752433777</t>
@@ -3224,16 +3224,16 @@
     <t xml:space="preserve">1.8279435634613</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85178625583649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83589112758636</t>
+    <t xml:space="preserve">1.85178637504578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83589136600494</t>
   </si>
   <si>
     <t xml:space="preserve">1.83986508846283</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82396984100342</t>
+    <t xml:space="preserve">1.823970079422</t>
   </si>
   <si>
     <t xml:space="preserve">1.77628421783447</t>
@@ -3242,13 +3242,13 @@
     <t xml:space="preserve">1.79217958450317</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76833665370941</t>
+    <t xml:space="preserve">1.7683367729187</t>
   </si>
   <si>
     <t xml:space="preserve">1.788205742836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72859871387482</t>
+    <t xml:space="preserve">1.7285989522934</t>
   </si>
   <si>
     <t xml:space="preserve">1.64514923095703</t>
@@ -3266,7 +3266,7 @@
     <t xml:space="preserve">1.76436293125153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80410075187683</t>
+    <t xml:space="preserve">1.80410087108612</t>
   </si>
   <si>
     <t xml:space="preserve">1.7403576374054</t>
@@ -3519,9 +3519,6 @@
   </si>
   <si>
     <t xml:space="preserve">1.39746820926666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43374359607697</t>
   </si>
   <si>
     <t xml:space="preserve">1.44929027557373</t>
@@ -49733,7 +49730,7 @@
         <v>1.6599999666214</v>
       </c>
       <c r="G1735" t="s">
-        <v>1169</v>
+        <v>947</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -49759,7 +49756,7 @@
         <v>1.67799997329712</v>
       </c>
       <c r="G1736" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -49785,7 +49782,7 @@
         <v>1.66799998283386</v>
       </c>
       <c r="G1737" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -49811,7 +49808,7 @@
         <v>1.66400003433228</v>
       </c>
       <c r="G1738" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -49837,7 +49834,7 @@
         <v>1.64400005340576</v>
       </c>
       <c r="G1739" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -49863,7 +49860,7 @@
         <v>1.62399995326996</v>
       </c>
       <c r="G1740" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -49941,7 +49938,7 @@
         <v>1.62600004673004</v>
       </c>
       <c r="G1743" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -49967,7 +49964,7 @@
         <v>1.6360000371933</v>
       </c>
       <c r="G1744" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -50019,7 +50016,7 @@
         <v>1.64600002765656</v>
       </c>
       <c r="G1746" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -50071,7 +50068,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G1748" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -50123,7 +50120,7 @@
         <v>1.60599994659424</v>
       </c>
       <c r="G1750" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -50149,7 +50146,7 @@
         <v>1.58000004291534</v>
       </c>
       <c r="G1751" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -50175,7 +50172,7 @@
         <v>1.53799998760223</v>
       </c>
       <c r="G1752" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -50201,7 +50198,7 @@
         <v>1.54200005531311</v>
       </c>
       <c r="G1753" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -50227,7 +50224,7 @@
         <v>1.51199996471405</v>
       </c>
       <c r="G1754" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -50253,7 +50250,7 @@
         <v>1.52199995517731</v>
       </c>
       <c r="G1755" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -50279,7 +50276,7 @@
         <v>1.51800000667572</v>
       </c>
       <c r="G1756" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -50331,7 +50328,7 @@
         <v>1.52199995517731</v>
       </c>
       <c r="G1758" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -50357,7 +50354,7 @@
         <v>1.51800000667572</v>
       </c>
       <c r="G1759" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -50435,7 +50432,7 @@
         <v>1.51800000667572</v>
       </c>
       <c r="G1762" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -50487,7 +50484,7 @@
         <v>1.55799996852875</v>
       </c>
       <c r="G1764" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -50539,7 +50536,7 @@
         <v>1.51800000667572</v>
       </c>
       <c r="G1766" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -50591,7 +50588,7 @@
         <v>1.51199996471405</v>
       </c>
       <c r="G1768" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -50617,7 +50614,7 @@
         <v>1.51600003242493</v>
       </c>
       <c r="G1769" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -50669,7 +50666,7 @@
         <v>1.51600003242493</v>
       </c>
       <c r="G1771" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -50721,7 +50718,7 @@
         <v>1.48000001907349</v>
       </c>
       <c r="G1773" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -50747,7 +50744,7 @@
         <v>1.47200000286102</v>
       </c>
       <c r="G1774" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -50773,7 +50770,7 @@
         <v>1.47200000286102</v>
       </c>
       <c r="G1775" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -50799,7 +50796,7 @@
         <v>1.48000001907349</v>
       </c>
       <c r="G1776" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -50825,7 +50822,7 @@
         <v>1.48599994182587</v>
       </c>
       <c r="G1777" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -50851,7 +50848,7 @@
         <v>1.48599994182587</v>
       </c>
       <c r="G1778" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -50877,7 +50874,7 @@
         <v>1.47800004482269</v>
       </c>
       <c r="G1779" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -50929,7 +50926,7 @@
         <v>1.50399994850159</v>
       </c>
       <c r="G1781" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -50955,7 +50952,7 @@
         <v>1.48800003528595</v>
       </c>
       <c r="G1782" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -50981,7 +50978,7 @@
         <v>1.49399995803833</v>
       </c>
       <c r="G1783" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -51007,7 +51004,7 @@
         <v>1.51800000667572</v>
       </c>
       <c r="G1784" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -51059,7 +51056,7 @@
         <v>1.51600003242493</v>
       </c>
       <c r="G1786" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -51085,7 +51082,7 @@
         <v>1.51400005817413</v>
       </c>
       <c r="G1787" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -51111,7 +51108,7 @@
         <v>1.55799996852875</v>
       </c>
       <c r="G1788" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -51189,7 +51186,7 @@
         <v>1.54799997806549</v>
       </c>
       <c r="G1791" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -51241,7 +51238,7 @@
         <v>1.54799997806549</v>
       </c>
       <c r="G1793" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -51293,7 +51290,7 @@
         <v>1.55599999427795</v>
       </c>
       <c r="G1795" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -51319,7 +51316,7 @@
         <v>1.55400002002716</v>
       </c>
       <c r="G1796" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -51423,7 +51420,7 @@
         <v>1.5460000038147</v>
       </c>
       <c r="G1800" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -51449,7 +51446,7 @@
         <v>1.56200003623962</v>
       </c>
       <c r="G1801" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -51475,7 +51472,7 @@
         <v>1.58599996566772</v>
       </c>
       <c r="G1802" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -51527,7 +51524,7 @@
         <v>1.63800001144409</v>
       </c>
       <c r="G1804" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -51579,7 +51576,7 @@
         <v>1.66400003433228</v>
       </c>
       <c r="G1806" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -51605,7 +51602,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G1807" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -51631,7 +51628,7 @@
         <v>1.75</v>
       </c>
       <c r="G1808" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -51657,7 +51654,7 @@
         <v>1.73599994182587</v>
       </c>
       <c r="G1809" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -51683,7 +51680,7 @@
         <v>1.77600002288818</v>
       </c>
       <c r="G1810" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -51709,7 +51706,7 @@
         <v>1.80599999427795</v>
       </c>
       <c r="G1811" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -51735,7 +51732,7 @@
         <v>1.77400004863739</v>
       </c>
       <c r="G1812" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -51761,7 +51758,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1813" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -51787,7 +51784,7 @@
         <v>1.75800001621246</v>
       </c>
       <c r="G1814" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -51813,7 +51810,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G1815" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -51839,7 +51836,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1816" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -51865,7 +51862,7 @@
         <v>1.74399995803833</v>
       </c>
       <c r="G1817" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -51891,7 +51888,7 @@
         <v>1.74399995803833</v>
       </c>
       <c r="G1818" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -51943,7 +51940,7 @@
         <v>1.70799994468689</v>
       </c>
       <c r="G1820" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -51995,7 +51992,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G1822" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -52047,7 +52044,7 @@
         <v>1.73599994182587</v>
       </c>
       <c r="G1824" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -52073,7 +52070,7 @@
         <v>1.74800002574921</v>
       </c>
       <c r="G1825" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -52099,7 +52096,7 @@
         <v>1.73199999332428</v>
       </c>
       <c r="G1826" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -52177,7 +52174,7 @@
         <v>1.71800005435944</v>
       </c>
       <c r="G1829" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -52203,7 +52200,7 @@
         <v>1.73199999332428</v>
       </c>
       <c r="G1830" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -52229,7 +52226,7 @@
         <v>1.73199999332428</v>
       </c>
       <c r="G1831" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -52307,7 +52304,7 @@
         <v>1.66400003433228</v>
       </c>
       <c r="G1834" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -52411,7 +52408,7 @@
         <v>1.64199995994568</v>
       </c>
       <c r="G1838" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -52437,7 +52434,7 @@
         <v>1.72200000286102</v>
       </c>
       <c r="G1839" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -52489,7 +52486,7 @@
         <v>1.78600001335144</v>
       </c>
       <c r="G1841" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -52541,7 +52538,7 @@
         <v>1.76400005817413</v>
       </c>
       <c r="G1843" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -52567,7 +52564,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G1844" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -52593,7 +52590,7 @@
         <v>1.84800004959106</v>
       </c>
       <c r="G1845" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -52619,7 +52616,7 @@
         <v>1.84599995613098</v>
       </c>
       <c r="G1846" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -52645,7 +52642,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G1847" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -52671,7 +52668,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G1848" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -52723,7 +52720,7 @@
         <v>1.81400001049042</v>
       </c>
       <c r="G1850" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -52749,7 +52746,7 @@
         <v>1.83599996566772</v>
       </c>
       <c r="G1851" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -52775,7 +52772,7 @@
         <v>1.85599994659424</v>
       </c>
       <c r="G1852" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -52801,7 +52798,7 @@
         <v>1.87600004673004</v>
       </c>
       <c r="G1853" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -52827,7 +52824,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G1854" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -52853,7 +52850,7 @@
         <v>1.8860000371933</v>
       </c>
       <c r="G1855" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -52905,7 +52902,7 @@
         <v>1.89600002765656</v>
       </c>
       <c r="G1857" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -52931,7 +52928,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G1858" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -52957,7 +52954,7 @@
         <v>1.84200000762939</v>
       </c>
       <c r="G1859" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -52983,7 +52980,7 @@
         <v>1.87199997901917</v>
       </c>
       <c r="G1860" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -53009,7 +53006,7 @@
         <v>1.86600005626678</v>
       </c>
       <c r="G1861" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -53035,7 +53032,7 @@
         <v>1.82400000095367</v>
       </c>
       <c r="G1862" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -53061,7 +53058,7 @@
         <v>1.81599998474121</v>
       </c>
       <c r="G1863" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -53087,7 +53084,7 @@
         <v>1.80599999427795</v>
       </c>
       <c r="G1864" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -53113,7 +53110,7 @@
         <v>1.82400000095367</v>
       </c>
       <c r="G1865" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -53165,7 +53162,7 @@
         <v>1.80200004577637</v>
       </c>
       <c r="G1867" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -53191,7 +53188,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G1868" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -53217,7 +53214,7 @@
         <v>1.85599994659424</v>
       </c>
       <c r="G1869" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -53243,7 +53240,7 @@
         <v>1.87600004673004</v>
       </c>
       <c r="G1870" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -53269,7 +53266,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G1871" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -53295,7 +53292,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G1872" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -53321,7 +53318,7 @@
         <v>1.89199995994568</v>
       </c>
       <c r="G1873" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -53347,7 +53344,7 @@
         <v>1.88199996948242</v>
       </c>
       <c r="G1874" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -53373,7 +53370,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G1875" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -53425,7 +53422,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G1877" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -53451,7 +53448,7 @@
         <v>1.817999958992</v>
       </c>
       <c r="G1878" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -53477,7 +53474,7 @@
         <v>1.82200002670288</v>
       </c>
       <c r="G1879" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -53503,7 +53500,7 @@
         <v>1.84399998188019</v>
       </c>
       <c r="G1880" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -53555,7 +53552,7 @@
         <v>1.84800004959106</v>
       </c>
       <c r="G1882" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -53581,7 +53578,7 @@
         <v>1.84399998188019</v>
       </c>
       <c r="G1883" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -53607,7 +53604,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G1884" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -53633,7 +53630,7 @@
         <v>1.68400001525879</v>
       </c>
       <c r="G1885" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -53659,7 +53656,7 @@
         <v>1.65400004386902</v>
       </c>
       <c r="G1886" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -53685,7 +53682,7 @@
         <v>1.6139999628067</v>
       </c>
       <c r="G1887" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -53711,7 +53708,7 @@
         <v>1.61000001430511</v>
       </c>
       <c r="G1888" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -53737,7 +53734,7 @@
         <v>1.64199995994568</v>
       </c>
       <c r="G1889" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -53763,7 +53760,7 @@
         <v>1.66999995708466</v>
       </c>
       <c r="G1890" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -53789,7 +53786,7 @@
         <v>1.64800000190735</v>
       </c>
       <c r="G1891" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -53815,7 +53812,7 @@
         <v>1.65600001811981</v>
       </c>
       <c r="G1892" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -53841,7 +53838,7 @@
         <v>1.66600000858307</v>
       </c>
       <c r="G1893" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -53867,7 +53864,7 @@
         <v>1.67400002479553</v>
       </c>
       <c r="G1894" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -53893,7 +53890,7 @@
         <v>1.69200003147125</v>
       </c>
       <c r="G1895" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -53919,7 +53916,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G1896" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -53945,7 +53942,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G1897" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -53971,7 +53968,7 @@
         <v>1.72599995136261</v>
       </c>
       <c r="G1898" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -53997,7 +53994,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G1899" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -54023,7 +54020,7 @@
         <v>1.75</v>
       </c>
       <c r="G1900" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -54049,7 +54046,7 @@
         <v>1.71599996089935</v>
       </c>
       <c r="G1901" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -54075,7 +54072,7 @@
         <v>1.69200003147125</v>
       </c>
       <c r="G1902" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -54101,7 +54098,7 @@
         <v>1.65600001811981</v>
       </c>
       <c r="G1903" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -54127,7 +54124,7 @@
         <v>1.6360000371933</v>
       </c>
       <c r="G1904" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -54153,7 +54150,7 @@
         <v>1.62800002098083</v>
       </c>
       <c r="G1905" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -54179,7 +54176,7 @@
         <v>1.62999999523163</v>
       </c>
       <c r="G1906" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -54205,7 +54202,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G1907" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -54231,7 +54228,7 @@
         <v>1.66400003433228</v>
       </c>
       <c r="G1908" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -54257,7 +54254,7 @@
         <v>1.65199995040894</v>
       </c>
       <c r="G1909" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -54283,7 +54280,7 @@
         <v>1.66199994087219</v>
       </c>
       <c r="G1910" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -54309,7 +54306,7 @@
         <v>1.67200005054474</v>
       </c>
       <c r="G1911" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -54335,7 +54332,7 @@
         <v>1.66999995708466</v>
       </c>
       <c r="G1912" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -54361,7 +54358,7 @@
         <v>1.65799999237061</v>
       </c>
       <c r="G1913" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -54387,7 +54384,7 @@
         <v>1.66400003433228</v>
       </c>
       <c r="G1914" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -54413,7 +54410,7 @@
         <v>1.65400004386902</v>
       </c>
       <c r="G1915" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -54439,7 +54436,7 @@
         <v>1.67599999904633</v>
       </c>
       <c r="G1916" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -54465,7 +54462,7 @@
         <v>1.66799998283386</v>
       </c>
       <c r="G1917" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -54491,7 +54488,7 @@
         <v>1.66999995708466</v>
       </c>
       <c r="G1918" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -54517,7 +54514,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G1919" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -54543,7 +54540,7 @@
         <v>1.66199994087219</v>
       </c>
       <c r="G1920" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -54569,7 +54566,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G1921" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -54595,7 +54592,7 @@
         <v>1.69599997997284</v>
       </c>
       <c r="G1922" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -54621,7 +54618,7 @@
         <v>1.69400000572205</v>
       </c>
       <c r="G1923" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -54647,7 +54644,7 @@
         <v>1.68400001525879</v>
       </c>
       <c r="G1924" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -54673,7 +54670,7 @@
         <v>1.69200003147125</v>
       </c>
       <c r="G1925" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -54699,7 +54696,7 @@
         <v>1.69200003147125</v>
       </c>
       <c r="G1926" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -54725,7 +54722,7 @@
         <v>1.69200003147125</v>
       </c>
       <c r="G1927" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -54751,7 +54748,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G1928" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -54777,7 +54774,7 @@
         <v>1.73399996757507</v>
       </c>
       <c r="G1929" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -54803,7 +54800,7 @@
         <v>1.74399995803833</v>
       </c>
       <c r="G1930" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -54829,7 +54826,7 @@
         <v>1.73800003528595</v>
       </c>
       <c r="G1931" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -54855,7 +54852,7 @@
         <v>1.74600005149841</v>
       </c>
       <c r="G1932" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -54881,7 +54878,7 @@
         <v>1.71800005435944</v>
       </c>
       <c r="G1933" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -54907,7 +54904,7 @@
         <v>1.74600005149841</v>
       </c>
       <c r="G1934" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -54933,7 +54930,7 @@
         <v>1.69200003147125</v>
       </c>
       <c r="G1935" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -54959,7 +54956,7 @@
         <v>1.61000001430511</v>
       </c>
       <c r="G1936" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -54985,7 +54982,7 @@
         <v>1.60199999809265</v>
       </c>
       <c r="G1937" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -55011,7 +55008,7 @@
         <v>1.62199997901917</v>
       </c>
       <c r="G1938" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -55037,7 +55034,7 @@
         <v>1.61800003051758</v>
       </c>
       <c r="G1939" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -55063,7 +55060,7 @@
         <v>1.62600004673004</v>
       </c>
       <c r="G1940" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -55089,7 +55086,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G1941" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -55115,7 +55112,7 @@
         <v>1.6139999628067</v>
       </c>
       <c r="G1942" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -55141,7 +55138,7 @@
         <v>1.61600005626678</v>
       </c>
       <c r="G1943" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -55167,7 +55164,7 @@
         <v>1.62000000476837</v>
       </c>
       <c r="G1944" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -55193,7 +55190,7 @@
         <v>1.63199996948242</v>
       </c>
       <c r="G1945" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -55219,7 +55216,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G1946" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -55245,7 +55242,7 @@
         <v>1.63800001144409</v>
       </c>
       <c r="G1947" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -55271,7 +55268,7 @@
         <v>1.62199997901917</v>
       </c>
       <c r="G1948" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -55297,7 +55294,7 @@
         <v>1.63399994373322</v>
       </c>
       <c r="G1949" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -55323,7 +55320,7 @@
         <v>1.64600002765656</v>
       </c>
       <c r="G1950" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -55349,7 +55346,7 @@
         <v>1.67400002479553</v>
       </c>
       <c r="G1951" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -55375,7 +55372,7 @@
         <v>1.66199994087219</v>
       </c>
       <c r="G1952" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -55401,7 +55398,7 @@
         <v>1.6599999666214</v>
       </c>
       <c r="G1953" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -55427,7 +55424,7 @@
         <v>1.64600002765656</v>
       </c>
       <c r="G1954" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -55453,7 +55450,7 @@
         <v>1.64400005340576</v>
       </c>
       <c r="G1955" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -55479,7 +55476,7 @@
         <v>1.61000001430511</v>
       </c>
       <c r="G1956" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -55505,7 +55502,7 @@
         <v>1.59399998188019</v>
       </c>
       <c r="G1957" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -55531,7 +55528,7 @@
         <v>1.5900000333786</v>
       </c>
       <c r="G1958" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -55557,7 +55554,7 @@
         <v>1.58599996566772</v>
       </c>
       <c r="G1959" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -55583,7 +55580,7 @@
         <v>1.60000002384186</v>
       </c>
       <c r="G1960" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -55609,7 +55606,7 @@
         <v>1.60000002384186</v>
       </c>
       <c r="G1961" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -55635,7 +55632,7 @@
         <v>1.62000000476837</v>
       </c>
       <c r="G1962" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -55661,7 +55658,7 @@
         <v>1.60000002384186</v>
       </c>
       <c r="G1963" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -55687,7 +55684,7 @@
         <v>1.61000001430511</v>
       </c>
       <c r="G1964" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -55713,7 +55710,7 @@
         <v>1.6360000371933</v>
       </c>
       <c r="G1965" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -55739,7 +55736,7 @@
         <v>1.63800001144409</v>
       </c>
       <c r="G1966" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -55765,7 +55762,7 @@
         <v>1.64199995994568</v>
       </c>
       <c r="G1967" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -55791,7 +55788,7 @@
         <v>1.61800003051758</v>
       </c>
       <c r="G1968" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -55817,7 +55814,7 @@
         <v>1.59399998188019</v>
       </c>
       <c r="G1969" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -55843,7 +55840,7 @@
         <v>1.58599996566772</v>
       </c>
       <c r="G1970" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -55869,7 +55866,7 @@
         <v>1.57200002670288</v>
       </c>
       <c r="G1971" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -55895,7 +55892,7 @@
         <v>1.58200001716614</v>
       </c>
       <c r="G1972" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -55921,7 +55918,7 @@
         <v>1.61000001430511</v>
       </c>
       <c r="G1973" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -55947,7 +55944,7 @@
         <v>1.6139999628067</v>
       </c>
       <c r="G1974" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -55973,7 +55970,7 @@
         <v>1.58200001716614</v>
       </c>
       <c r="G1975" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -55999,7 +55996,7 @@
         <v>1.57200002670288</v>
       </c>
       <c r="G1976" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -56025,7 +56022,7 @@
         <v>1.59200000762939</v>
       </c>
       <c r="G1977" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -56051,7 +56048,7 @@
         <v>1.60000002384186</v>
       </c>
       <c r="G1978" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -56077,7 +56074,7 @@
         <v>1.60000002384186</v>
       </c>
       <c r="G1979" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -56103,7 +56100,7 @@
         <v>1.61000001430511</v>
       </c>
       <c r="G1980" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -56129,7 +56126,7 @@
         <v>1.60599994659424</v>
       </c>
       <c r="G1981" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -56155,7 +56152,7 @@
         <v>1.61199998855591</v>
       </c>
       <c r="G1982" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -56181,7 +56178,7 @@
         <v>1.60199999809265</v>
       </c>
       <c r="G1983" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -56207,7 +56204,7 @@
         <v>1.61199998855591</v>
       </c>
       <c r="G1984" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -56233,7 +56230,7 @@
         <v>1.61199998855591</v>
       </c>
       <c r="G1985" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -56259,7 +56256,7 @@
         <v>1.60199999809265</v>
       </c>
       <c r="G1986" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -56285,7 +56282,7 @@
         <v>1.60199999809265</v>
       </c>
       <c r="G1987" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -56311,7 +56308,7 @@
         <v>1.60199999809265</v>
       </c>
       <c r="G1988" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -56337,7 +56334,7 @@
         <v>1.60800004005432</v>
       </c>
       <c r="G1989" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -56363,7 +56360,7 @@
         <v>1.60399997234344</v>
       </c>
       <c r="G1990" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -56389,7 +56386,7 @@
         <v>1.60599994659424</v>
       </c>
       <c r="G1991" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -56415,7 +56412,7 @@
         <v>1.60199999809265</v>
       </c>
       <c r="G1992" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -56441,7 +56438,7 @@
         <v>1.61000001430511</v>
       </c>
       <c r="G1993" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -56467,7 +56464,7 @@
         <v>1.6139999628067</v>
       </c>
       <c r="G1994" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -56493,7 +56490,7 @@
         <v>1.62199997901917</v>
       </c>
       <c r="G1995" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -56519,7 +56516,7 @@
         <v>1.66400003433228</v>
       </c>
       <c r="G1996" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -56545,7 +56542,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G1997" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -56571,7 +56568,7 @@
         <v>1.72599995136261</v>
       </c>
       <c r="G1998" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -56597,7 +56594,7 @@
         <v>1.67599999904633</v>
       </c>
       <c r="G1999" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -56623,7 +56620,7 @@
         <v>1.65199995040894</v>
       </c>
       <c r="G2000" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -56649,7 +56646,7 @@
         <v>1.66400003433228</v>
       </c>
       <c r="G2001" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -56675,7 +56672,7 @@
         <v>1.6599999666214</v>
       </c>
       <c r="G2002" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -56701,7 +56698,7 @@
         <v>1.64800000190735</v>
       </c>
       <c r="G2003" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -56727,7 +56724,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G2004" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -56753,7 +56750,7 @@
         <v>1.7059999704361</v>
       </c>
       <c r="G2005" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -56779,7 +56776,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G2006" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -56805,7 +56802,7 @@
         <v>1.67799997329712</v>
       </c>
       <c r="G2007" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -56831,7 +56828,7 @@
         <v>1.70799994468689</v>
       </c>
       <c r="G2008" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -56857,7 +56854,7 @@
         <v>1.7039999961853</v>
       </c>
       <c r="G2009" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -56883,7 +56880,7 @@
         <v>1.682000041008</v>
       </c>
       <c r="G2010" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -56909,7 +56906,7 @@
         <v>1.7039999961853</v>
       </c>
       <c r="G2011" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -56935,7 +56932,7 @@
         <v>1.68799996376038</v>
       </c>
       <c r="G2012" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -56961,7 +56958,7 @@
         <v>1.682000041008</v>
       </c>
       <c r="G2013" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -56987,7 +56984,7 @@
         <v>1.7059999704361</v>
       </c>
       <c r="G2014" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -57013,7 +57010,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G2015" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -57039,7 +57036,7 @@
         <v>1.71599996089935</v>
       </c>
       <c r="G2016" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -57065,7 +57062,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G2017" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -57091,7 +57088,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G2018" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -57117,7 +57114,7 @@
         <v>1.682000041008</v>
       </c>
       <c r="G2019" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -57143,7 +57140,7 @@
         <v>1.69400000572205</v>
       </c>
       <c r="G2020" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -57169,7 +57166,7 @@
         <v>1.68400001525879</v>
       </c>
       <c r="G2021" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -57195,7 +57192,7 @@
         <v>1.70200002193451</v>
       </c>
       <c r="G2022" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -57221,7 +57218,7 @@
         <v>1.69200003147125</v>
       </c>
       <c r="G2023" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -57247,7 +57244,7 @@
         <v>1.72200000286102</v>
       </c>
       <c r="G2024" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -57273,7 +57270,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G2025" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -57299,7 +57296,7 @@
         <v>1.69599997997284</v>
       </c>
       <c r="G2026" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -57325,7 +57322,7 @@
         <v>1.7059999704361</v>
       </c>
       <c r="G2027" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -57351,7 +57348,7 @@
         <v>1.74199998378754</v>
       </c>
       <c r="G2028" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -57377,7 +57374,7 @@
         <v>1.74399995803833</v>
       </c>
       <c r="G2029" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -57403,7 +57400,7 @@
         <v>1.75</v>
       </c>
       <c r="G2030" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -57429,7 +57426,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G2031" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -57455,7 +57452,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G2032" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -57481,7 +57478,7 @@
         <v>1.77799999713898</v>
       </c>
       <c r="G2033" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -57507,7 +57504,7 @@
         <v>1.80799996852875</v>
       </c>
       <c r="G2034" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -57533,7 +57530,7 @@
         <v>1.84800004959106</v>
       </c>
       <c r="G2035" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -57559,7 +57556,7 @@
         <v>1.80799996852875</v>
       </c>
       <c r="G2036" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -57585,7 +57582,7 @@
         <v>1.81400001049042</v>
       </c>
       <c r="G2037" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -57611,7 +57608,7 @@
         <v>1.78199994564056</v>
       </c>
       <c r="G2038" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -57637,7 +57634,7 @@
         <v>1.83399999141693</v>
       </c>
       <c r="G2039" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -57663,7 +57660,7 @@
         <v>1.84800004959106</v>
       </c>
       <c r="G2040" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -57689,7 +57686,7 @@
         <v>1.90799999237061</v>
       </c>
       <c r="G2041" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -57715,7 +57712,7 @@
         <v>1.90799999237061</v>
       </c>
       <c r="G2042" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -57741,7 +57738,7 @@
         <v>1.91400003433228</v>
       </c>
       <c r="G2043" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -57767,7 +57764,7 @@
         <v>1.87800002098083</v>
       </c>
       <c r="G2044" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -57793,7 +57790,7 @@
         <v>1.87800002098083</v>
       </c>
       <c r="G2045" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -57819,7 +57816,7 @@
         <v>1.85599994659424</v>
       </c>
       <c r="G2046" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -57845,7 +57842,7 @@
         <v>1.83399999141693</v>
       </c>
       <c r="G2047" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -57871,7 +57868,7 @@
         <v>1.83599996566772</v>
       </c>
       <c r="G2048" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -57897,7 +57894,7 @@
         <v>1.81599998474121</v>
       </c>
       <c r="G2049" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -57923,7 +57920,7 @@
         <v>1.7960000038147</v>
       </c>
       <c r="G2050" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -57949,7 +57946,7 @@
         <v>1.80400002002716</v>
       </c>
       <c r="G2051" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -57975,7 +57972,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2052" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -58001,7 +57998,7 @@
         <v>1.81599998474121</v>
       </c>
       <c r="G2053" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -58027,7 +58024,7 @@
         <v>1.82200002670288</v>
       </c>
       <c r="G2054" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -58053,7 +58050,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G2055" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -58079,7 +58076,7 @@
         <v>1.80799996852875</v>
       </c>
       <c r="G2056" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -58105,7 +58102,7 @@
         <v>1.80799996852875</v>
       </c>
       <c r="G2057" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -58131,7 +58128,7 @@
         <v>1.80200004577637</v>
       </c>
       <c r="G2058" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -58157,7 +58154,7 @@
         <v>1.79200005531311</v>
       </c>
       <c r="G2059" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -58183,7 +58180,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G2060" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -58209,7 +58206,7 @@
         <v>1.77799999713898</v>
       </c>
       <c r="G2061" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -58235,7 +58232,7 @@
         <v>1.7960000038147</v>
       </c>
       <c r="G2062" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -58261,7 +58258,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G2063" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -58287,7 +58284,7 @@
         <v>1.76800000667572</v>
       </c>
       <c r="G2064" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -58313,7 +58310,7 @@
         <v>1.75199997425079</v>
       </c>
       <c r="G2065" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -58339,7 +58336,7 @@
         <v>1.77199995517731</v>
       </c>
       <c r="G2066" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -58365,7 +58362,7 @@
         <v>1.77799999713898</v>
       </c>
       <c r="G2067" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -58391,7 +58388,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G2068" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -58417,7 +58414,7 @@
         <v>1.82799994945526</v>
       </c>
       <c r="G2069" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -58443,7 +58440,7 @@
         <v>1.82200002670288</v>
       </c>
       <c r="G2070" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -58469,7 +58466,7 @@
         <v>1.83200001716614</v>
       </c>
       <c r="G2071" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -58495,7 +58492,7 @@
         <v>1.817999958992</v>
       </c>
       <c r="G2072" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -58521,7 +58518,7 @@
         <v>1.82200002670288</v>
       </c>
       <c r="G2073" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -58547,7 +58544,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G2074" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -58573,7 +58570,7 @@
         <v>1.80799996852875</v>
       </c>
       <c r="G2075" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -58599,7 +58596,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G2076" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -58625,7 +58622,7 @@
         <v>1.79200005531311</v>
       </c>
       <c r="G2077" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -58651,7 +58648,7 @@
         <v>1.79200005531311</v>
       </c>
       <c r="G2078" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -58677,7 +58674,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G2079" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -58703,7 +58700,7 @@
         <v>1.78199994564056</v>
       </c>
       <c r="G2080" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -58729,7 +58726,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2081" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -58755,7 +58752,7 @@
         <v>1.79200005531311</v>
       </c>
       <c r="G2082" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -58781,7 +58778,7 @@
         <v>1.79200005531311</v>
       </c>
       <c r="G2083" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -58807,7 +58804,7 @@
         <v>1.79799997806549</v>
       </c>
       <c r="G2084" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -58833,7 +58830,7 @@
         <v>1.80599999427795</v>
       </c>
       <c r="G2085" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -58859,7 +58856,7 @@
         <v>1.77600002288818</v>
       </c>
       <c r="G2086" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -58885,7 +58882,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G2087" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -58911,7 +58908,7 @@
         <v>1.78199994564056</v>
       </c>
       <c r="G2088" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -58937,7 +58934,7 @@
         <v>1.79799997806549</v>
       </c>
       <c r="G2089" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -58963,7 +58960,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G2090" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58989,7 +58986,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2091" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -59015,7 +59012,7 @@
         <v>1.87800002098083</v>
       </c>
       <c r="G2092" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -59041,7 +59038,7 @@
         <v>1.85399997234344</v>
       </c>
       <c r="G2093" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -59067,7 +59064,7 @@
         <v>1.89800000190735</v>
       </c>
       <c r="G2094" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -59093,7 +59090,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2095" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -59119,7 +59116,7 @@
         <v>1.96800005435944</v>
       </c>
       <c r="G2096" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -59145,7 +59142,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2097" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -59171,7 +59168,7 @@
         <v>1.99399995803833</v>
       </c>
       <c r="G2098" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -59197,7 +59194,7 @@
         <v>2</v>
       </c>
       <c r="G2099" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -59223,7 +59220,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2100" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -59249,7 +59246,7 @@
         <v>2.11500000953674</v>
       </c>
       <c r="G2101" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -59275,7 +59272,7 @@
         <v>2.125</v>
       </c>
       <c r="G2102" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -59301,7 +59298,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G2103" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -59327,7 +59324,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G2104" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -59353,7 +59350,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2105" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -59379,7 +59376,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2106" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -59405,7 +59402,7 @@
         <v>2.15499997138977</v>
       </c>
       <c r="G2107" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -59431,7 +59428,7 @@
         <v>2.125</v>
       </c>
       <c r="G2108" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -59457,7 +59454,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2109" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -59483,7 +59480,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2110" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -59509,7 +59506,7 @@
         <v>2.15499997138977</v>
       </c>
       <c r="G2111" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -59535,7 +59532,7 @@
         <v>2.15499997138977</v>
       </c>
       <c r="G2112" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -59561,7 +59558,7 @@
         <v>2.125</v>
       </c>
       <c r="G2113" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -59587,7 +59584,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G2114" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -59613,7 +59610,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2115" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -59639,7 +59636,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2116" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -59665,7 +59662,7 @@
         <v>2.14499998092651</v>
       </c>
       <c r="G2117" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -59691,7 +59688,7 @@
         <v>2.16499996185303</v>
       </c>
       <c r="G2118" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -59717,7 +59714,7 @@
         <v>2.20499992370605</v>
       </c>
       <c r="G2119" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -59743,7 +59740,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2120" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -59769,7 +59766,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2121" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -59795,7 +59792,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2122" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -59821,7 +59818,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G2123" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -59847,7 +59844,7 @@
         <v>2.4449999332428</v>
       </c>
       <c r="G2124" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -59873,7 +59870,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G2125" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -59899,7 +59896,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G2126" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -59925,7 +59922,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G2127" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -59951,7 +59948,7 @@
         <v>2.51500010490417</v>
       </c>
       <c r="G2128" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -59977,7 +59974,7 @@
         <v>2.54500007629395</v>
       </c>
       <c r="G2129" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -60003,7 +60000,7 @@
         <v>2.4449999332428</v>
       </c>
       <c r="G2130" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -60029,7 +60026,7 @@
         <v>2.42499995231628</v>
       </c>
       <c r="G2131" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -60055,7 +60052,7 @@
         <v>2.40499997138977</v>
       </c>
       <c r="G2132" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -60081,7 +60078,7 @@
         <v>2.43499994277954</v>
       </c>
       <c r="G2133" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -60107,7 +60104,7 @@
         <v>2.375</v>
       </c>
       <c r="G2134" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -60133,7 +60130,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G2135" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -60159,7 +60156,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G2136" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -60185,7 +60182,7 @@
         <v>2.39499998092651</v>
       </c>
       <c r="G2137" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -60211,7 +60208,7 @@
         <v>2.10500001907349</v>
       </c>
       <c r="G2138" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -60237,7 +60234,7 @@
         <v>2.07500004768372</v>
       </c>
       <c r="G2139" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -60263,7 +60260,7 @@
         <v>2.03500008583069</v>
       </c>
       <c r="G2140" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -60289,7 +60286,7 @@
         <v>2.07500004768372</v>
       </c>
       <c r="G2141" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -60315,7 +60312,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2142" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -60341,7 +60338,7 @@
         <v>2.0550000667572</v>
       </c>
       <c r="G2143" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -60367,7 +60364,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2144" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -60393,7 +60390,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G2145" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -60419,7 +60416,7 @@
         <v>2.09500002861023</v>
       </c>
       <c r="G2146" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -60445,7 +60442,7 @@
         <v>2.13499999046326</v>
       </c>
       <c r="G2147" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -60471,7 +60468,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G2148" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -60497,7 +60494,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2149" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -60523,7 +60520,7 @@
         <v>2.10500001907349</v>
       </c>
       <c r="G2150" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -60549,7 +60546,7 @@
         <v>2.04500007629395</v>
       </c>
       <c r="G2151" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -60575,7 +60572,7 @@
         <v>2.01500010490417</v>
       </c>
       <c r="G2152" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -60601,7 +60598,7 @@
         <v>2.04500007629395</v>
       </c>
       <c r="G2153" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -60627,7 +60624,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G2154" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -60653,7 +60650,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G2155" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -60679,7 +60676,7 @@
         <v>2.16499996185303</v>
       </c>
       <c r="G2156" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -60705,7 +60702,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2157" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -60731,7 +60728,7 @@
         <v>2.17499995231628</v>
       </c>
       <c r="G2158" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -60757,7 +60754,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G2159" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -60783,7 +60780,7 @@
         <v>2.08500003814697</v>
       </c>
       <c r="G2160" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -60809,7 +60806,7 @@
         <v>2.10500001907349</v>
       </c>
       <c r="G2161" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -60835,7 +60832,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2162" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -60861,7 +60858,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2163" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -60887,7 +60884,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G2164" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -60913,7 +60910,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2165" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -60939,7 +60936,7 @@
         <v>2.13499999046326</v>
       </c>
       <c r="G2166" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -60965,7 +60962,7 @@
         <v>2.14499998092651</v>
       </c>
       <c r="G2167" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -60991,7 +60988,7 @@
         <v>2.13499999046326</v>
       </c>
       <c r="G2168" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -61017,7 +61014,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2169" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -61043,7 +61040,7 @@
         <v>2.15499997138977</v>
       </c>
       <c r="G2170" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -61069,7 +61066,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2171" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -61095,7 +61092,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2172" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -61121,7 +61118,7 @@
         <v>2.14499998092651</v>
       </c>
       <c r="G2173" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -61147,7 +61144,7 @@
         <v>2.15499997138977</v>
       </c>
       <c r="G2174" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -61173,7 +61170,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2175" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -61199,7 +61196,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2176" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -61225,7 +61222,7 @@
         <v>2.20499992370605</v>
       </c>
       <c r="G2177" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -61251,7 +61248,7 @@
         <v>2.25500011444092</v>
       </c>
       <c r="G2178" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="H2178" t="s">
         <v>9</v>
@@ -61277,7 +61274,7 @@
         <v>2.24499988555908</v>
       </c>
       <c r="G2179" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="H2179" t="s">
         <v>9</v>
@@ -61303,7 +61300,7 @@
         <v>2.21499991416931</v>
       </c>
       <c r="G2180" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="H2180" t="s">
         <v>9</v>
@@ -61329,7 +61326,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2181" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="H2181" t="s">
         <v>9</v>
@@ -61355,7 +61352,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G2182" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="H2182" t="s">
         <v>9</v>
@@ -61381,7 +61378,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G2183" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="H2183" t="s">
         <v>9</v>
@@ -61407,7 +61404,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G2184" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="H2184" t="s">
         <v>9</v>
@@ -61433,7 +61430,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G2185" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="H2185" t="s">
         <v>9</v>
@@ -61459,7 +61456,7 @@
         <v>2.28500008583069</v>
       </c>
       <c r="G2186" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="H2186" t="s">
         <v>9</v>
@@ -61485,7 +61482,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2187" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H2187" t="s">
         <v>9</v>
@@ -61511,7 +61508,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2188" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="H2188" t="s">
         <v>9</v>
@@ -61537,7 +61534,7 @@
         <v>2.08500003814697</v>
       </c>
       <c r="G2189" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="H2189" t="s">
         <v>9</v>
@@ -61563,7 +61560,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2190" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="H2190" t="s">
         <v>9</v>
@@ -61589,7 +61586,7 @@
         <v>2.125</v>
       </c>
       <c r="G2191" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H2191" t="s">
         <v>9</v>
@@ -61615,7 +61612,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G2192" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="H2192" t="s">
         <v>9</v>
@@ -61641,7 +61638,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G2193" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="H2193" t="s">
         <v>9</v>
@@ -61667,7 +61664,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G2194" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="H2194" t="s">
         <v>9</v>
@@ -61693,7 +61690,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G2195" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="H2195" t="s">
         <v>9</v>
@@ -61719,7 +61716,7 @@
         <v>2.11500000953674</v>
       </c>
       <c r="G2196" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H2196" t="s">
         <v>9</v>
@@ -61745,7 +61742,7 @@
         <v>2.11500000953674</v>
       </c>
       <c r="G2197" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H2197" t="s">
         <v>9</v>
@@ -61771,7 +61768,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G2198" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="H2198" t="s">
         <v>9</v>
@@ -61797,7 +61794,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2199" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="H2199" t="s">
         <v>9</v>
@@ -61823,7 +61820,7 @@
         <v>2.10500001907349</v>
       </c>
       <c r="G2200" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H2200" t="s">
         <v>9</v>
@@ -61849,7 +61846,7 @@
         <v>2.13499999046326</v>
       </c>
       <c r="G2201" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="H2201" t="s">
         <v>9</v>
@@ -61875,7 +61872,7 @@
         <v>2.125</v>
       </c>
       <c r="G2202" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H2202" t="s">
         <v>9</v>
@@ -61901,7 +61898,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2203" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="H2203" t="s">
         <v>9</v>
@@ -61927,7 +61924,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2204" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="H2204" t="s">
         <v>9</v>
@@ -61953,7 +61950,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2205" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="H2205" t="s">
         <v>9</v>
@@ -61979,7 +61976,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2206" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="H2206" t="s">
         <v>9</v>
@@ -62005,7 +62002,7 @@
         <v>2.16499996185303</v>
       </c>
       <c r="G2207" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="H2207" t="s">
         <v>9</v>
@@ -62031,7 +62028,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2208" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="H2208" t="s">
         <v>9</v>
@@ -62057,7 +62054,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2209" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="H2209" t="s">
         <v>9</v>
@@ -62083,7 +62080,7 @@
         <v>2.11500000953674</v>
       </c>
       <c r="G2210" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H2210" t="s">
         <v>9</v>
@@ -62109,7 +62106,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G2211" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="H2211" t="s">
         <v>9</v>
@@ -62135,7 +62132,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2212" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="H2212" t="s">
         <v>9</v>
@@ -62161,7 +62158,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2213" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="H2213" t="s">
         <v>9</v>
@@ -62187,7 +62184,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G2214" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="H2214" t="s">
         <v>9</v>
@@ -62213,7 +62210,7 @@
         <v>2.10500001907349</v>
       </c>
       <c r="G2215" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H2215" t="s">
         <v>9</v>
@@ -62239,7 +62236,7 @@
         <v>2.10500001907349</v>
       </c>
       <c r="G2216" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H2216" t="s">
         <v>9</v>
@@ -62265,7 +62262,7 @@
         <v>2.125</v>
       </c>
       <c r="G2217" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H2217" t="s">
         <v>9</v>
@@ -62291,7 +62288,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G2218" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H2218" t="s">
         <v>9</v>
@@ -62317,7 +62314,7 @@
         <v>2.125</v>
       </c>
       <c r="G2219" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H2219" t="s">
         <v>9</v>
@@ -62343,7 +62340,7 @@
         <v>2.16499996185303</v>
       </c>
       <c r="G2220" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="H2220" t="s">
         <v>9</v>
@@ -62369,7 +62366,7 @@
         <v>2.14499998092651</v>
       </c>
       <c r="G2221" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H2221" t="s">
         <v>9</v>
@@ -62395,7 +62392,7 @@
         <v>2.125</v>
       </c>
       <c r="G2222" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H2222" t="s">
         <v>9</v>
@@ -62421,7 +62418,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G2223" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H2223" t="s">
         <v>9</v>
@@ -62447,7 +62444,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G2224" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="H2224" t="s">
         <v>9</v>
@@ -62473,7 +62470,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2225" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="H2225" t="s">
         <v>9</v>
@@ -62499,7 +62496,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2226" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H2226" t="s">
         <v>9</v>
@@ -62525,7 +62522,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2227" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="H2227" t="s">
         <v>9</v>
@@ -62551,7 +62548,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2228" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="H2228" t="s">
         <v>9</v>
@@ -62577,7 +62574,7 @@
         <v>2.125</v>
       </c>
       <c r="G2229" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H2229" t="s">
         <v>9</v>
@@ -62603,7 +62600,7 @@
         <v>2.11500000953674</v>
       </c>
       <c r="G2230" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H2230" t="s">
         <v>9</v>
@@ -62629,7 +62626,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2231" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H2231" t="s">
         <v>9</v>
@@ -62655,7 +62652,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2232" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H2232" t="s">
         <v>9</v>
@@ -62681,7 +62678,7 @@
         <v>2.15499997138977</v>
       </c>
       <c r="G2233" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="H2233" t="s">
         <v>9</v>
@@ -62707,7 +62704,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2234" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H2234" t="s">
         <v>9</v>
@@ -62733,7 +62730,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2235" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="H2235" t="s">
         <v>9</v>
@@ -62759,7 +62756,7 @@
         <v>2.17499995231628</v>
       </c>
       <c r="G2236" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="H2236" t="s">
         <v>9</v>
@@ -62785,7 +62782,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2237" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H2237" t="s">
         <v>9</v>
@@ -62811,7 +62808,7 @@
         <v>2.24499988555908</v>
       </c>
       <c r="G2238" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="H2238" t="s">
         <v>9</v>
@@ -62837,7 +62834,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G2239" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="H2239" t="s">
         <v>9</v>
@@ -62863,7 +62860,7 @@
         <v>2.28500008583069</v>
       </c>
       <c r="G2240" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="H2240" t="s">
         <v>9</v>
@@ -62871,7 +62868,7 @@
     </row>
     <row r="2241">
       <c r="A2241" s="1" t="n">
-        <v>45583.6495949074</v>
+        <v>45583.2916666667</v>
       </c>
       <c r="B2241" t="n">
         <v>119605</v>
@@ -62889,9 +62886,35 @@
         <v>2.26500010490417</v>
       </c>
       <c r="G2241" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="H2241" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2242">
+      <c r="A2242" s="1" t="n">
+        <v>45586.6496296296</v>
+      </c>
+      <c r="B2242" t="n">
+        <v>273597</v>
+      </c>
+      <c r="C2242" t="n">
+        <v>2.31500005722046</v>
+      </c>
+      <c r="D2242" t="n">
+        <v>2.26500010490417</v>
+      </c>
+      <c r="E2242" t="n">
+        <v>2.26500010490417</v>
+      </c>
+      <c r="F2242" t="n">
+        <v>2.26500010490417</v>
+      </c>
+      <c r="G2242" t="s">
+        <v>1424</v>
+      </c>
+      <c r="H2242" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CAI.MI.xlsx
+++ b/data/CAI.MI.xlsx
@@ -38,52 +38,52 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07385468482971</t>
+    <t xml:space="preserve">3.07385492324829</t>
   </si>
   <si>
     <t xml:space="preserve">CAI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08614468574524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01786732673645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97690033912659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98099708557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88131213188171</t>
+    <t xml:space="preserve">3.08614420890808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01786684989929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97690057754517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98099756240845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88131165504456</t>
   </si>
   <si>
     <t xml:space="preserve">2.94003105163574</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80620670318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86082887649536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75841236114502</t>
+    <t xml:space="preserve">2.80620694160461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86082863807678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7584125995636</t>
   </si>
   <si>
     <t xml:space="preserve">2.73929476737976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69013500213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71744608879089</t>
+    <t xml:space="preserve">2.69013524055481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71744632720947</t>
   </si>
   <si>
     <t xml:space="preserve">2.866290807724</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76387453079224</t>
+    <t xml:space="preserve">2.76387500762939</t>
   </si>
   <si>
     <t xml:space="preserve">2.74475693702698</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">2.73110127449036</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76114392280579</t>
+    <t xml:space="preserve">2.76114368438721</t>
   </si>
   <si>
     <t xml:space="preserve">2.72563934326172</t>
@@ -110,7 +110,7 @@
     <t xml:space="preserve">2.72290802001953</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62868523597717</t>
+    <t xml:space="preserve">2.62868547439575</t>
   </si>
   <si>
     <t xml:space="preserve">2.45935702323914</t>
@@ -125,49 +125,49 @@
     <t xml:space="preserve">2.38971376419067</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53992462158203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50442004203796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67511415481567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81713128089905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74885320663452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78162717819214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68467259407043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86219429969788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8335177898407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84717321395874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8840434551239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88540840148926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89769840240479</t>
+    <t xml:space="preserve">2.53992438316345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50441980361938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67511391639709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81713080406189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7488534450531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78162670135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68467283248901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8621940612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83351755142212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84717345237732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88404321670532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88540863990784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89769864082336</t>
   </si>
   <si>
     <t xml:space="preserve">2.85126972198486</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94685816764832</t>
+    <t xml:space="preserve">2.94685840606689</t>
   </si>
   <si>
     <t xml:space="preserve">2.9495894908905</t>
@@ -182,43 +182,43 @@
     <t xml:space="preserve">3.16124987602234</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18173313140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20767855644226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17900228500366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17217397689819</t>
+    <t xml:space="preserve">3.18173289299011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20767879486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1790018081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17217445373535</t>
   </si>
   <si>
     <t xml:space="preserve">3.23635458946228</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25001096725464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21040987968445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22269940376282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23089289665222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22952723503113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14076685905457</t>
+    <t xml:space="preserve">3.25001072883606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21041035652161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22269916534424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23089337348938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22952747344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14076638221741</t>
   </si>
   <si>
     <t xml:space="preserve">3.14895987510681</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22543048858643</t>
+    <t xml:space="preserve">3.225430727005</t>
   </si>
   <si>
     <t xml:space="preserve">3.29234266281128</t>
@@ -230,16 +230,16 @@
     <t xml:space="preserve">3.30463266372681</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27732157707214</t>
+    <t xml:space="preserve">3.27732181549072</t>
   </si>
   <si>
     <t xml:space="preserve">3.34559941291809</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36608266830444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40704917907715</t>
+    <t xml:space="preserve">3.36608219146729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40704870223999</t>
   </si>
   <si>
     <t xml:space="preserve">3.38656616210938</t>
@@ -248,19 +248,19 @@
     <t xml:space="preserve">3.33330941200256</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3483304977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32511615753174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32375001907349</t>
+    <t xml:space="preserve">3.34833025932312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32511568069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32375025749207</t>
   </si>
   <si>
     <t xml:space="preserve">3.29780459403992</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2636661529541</t>
+    <t xml:space="preserve">3.26366591453552</t>
   </si>
   <si>
     <t xml:space="preserve">3.29097723960876</t>
@@ -272,70 +272,70 @@
     <t xml:space="preserve">3.1918261051178</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1562032699585</t>
+    <t xml:space="preserve">3.15620303153992</t>
   </si>
   <si>
     <t xml:space="preserve">3.1348295211792</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17330265045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09208178520203</t>
+    <t xml:space="preserve">3.1733021736145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09208202362061</t>
   </si>
   <si>
     <t xml:space="preserve">3.1490786075592</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32291913032532</t>
+    <t xml:space="preserve">3.3229193687439</t>
   </si>
   <si>
     <t xml:space="preserve">3.34856772422791</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33431839942932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31151986122131</t>
+    <t xml:space="preserve">3.33431816101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31151962280273</t>
   </si>
   <si>
     <t xml:space="preserve">3.38419079780579</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44403791427612</t>
+    <t xml:space="preserve">3.44403767585754</t>
   </si>
   <si>
     <t xml:space="preserve">3.41981410980225</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43406319618225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48108577728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.476811170578</t>
+    <t xml:space="preserve">3.43406343460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48108553886414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47681093215942</t>
   </si>
   <si>
     <t xml:space="preserve">3.43833804130554</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45116209983826</t>
+    <t xml:space="preserve">3.45116233825684</t>
   </si>
   <si>
     <t xml:space="preserve">3.40841484069824</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39843988418579</t>
+    <t xml:space="preserve">3.39844012260437</t>
   </si>
   <si>
     <t xml:space="preserve">3.34714293479919</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20607566833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02796053886414</t>
+    <t xml:space="preserve">3.20607542991638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02796006202698</t>
   </si>
   <si>
     <t xml:space="preserve">2.94246506690979</t>
@@ -347,19 +347,19 @@
     <t xml:space="preserve">2.89686751365662</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06643295288086</t>
+    <t xml:space="preserve">3.06643319129944</t>
   </si>
   <si>
     <t xml:space="preserve">3.08495736122131</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13197994232178</t>
+    <t xml:space="preserve">3.1319797039032</t>
   </si>
   <si>
     <t xml:space="preserve">3.14195394515991</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02938508987427</t>
+    <t xml:space="preserve">3.02938532829285</t>
   </si>
   <si>
     <t xml:space="preserve">2.84984517097473</t>
@@ -368,73 +368,73 @@
     <t xml:space="preserve">2.95671439170837</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06500864028931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16332793235779</t>
+    <t xml:space="preserve">3.06500840187073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16332769393921</t>
   </si>
   <si>
     <t xml:space="preserve">2.96526384353638</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9552891254425</t>
+    <t xml:space="preserve">2.95528888702393</t>
   </si>
   <si>
     <t xml:space="preserve">2.9923369884491</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12058067321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17045283317566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23599886894226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17757749557495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13625431060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83702063560486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9196662902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86551928520203</t>
+    <t xml:space="preserve">3.12058019638062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1704523563385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23599910736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17757701873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13625454902649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83702087402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91966652870178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86551904678345</t>
   </si>
   <si>
     <t xml:space="preserve">2.90399241447449</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84129548072815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87549328804016</t>
+    <t xml:space="preserve">2.84129571914673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87549352645874</t>
   </si>
   <si>
     <t xml:space="preserve">2.83559584617615</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79854798316956</t>
+    <t xml:space="preserve">2.79854774475098</t>
   </si>
   <si>
     <t xml:space="preserve">2.73442625999451</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7771737575531</t>
+    <t xml:space="preserve">2.77717399597168</t>
   </si>
   <si>
     <t xml:space="preserve">2.88546824455261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87406849861145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84272027015686</t>
+    <t xml:space="preserve">2.87406897544861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84272050857544</t>
   </si>
   <si>
     <t xml:space="preserve">2.87834334373474</t>
@@ -443,7 +443,7 @@
     <t xml:space="preserve">2.92821574211121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92109131813049</t>
+    <t xml:space="preserve">2.92109107971191</t>
   </si>
   <si>
     <t xml:space="preserve">2.9410400390625</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">2.85839486122131</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86409425735474</t>
+    <t xml:space="preserve">2.86409449577332</t>
   </si>
   <si>
     <t xml:space="preserve">2.81707191467285</t>
@@ -464,22 +464,22 @@
     <t xml:space="preserve">2.76007509231567</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80567240715027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77289891242981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75865006446838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77859926223755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68597912788391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62470722198486</t>
+    <t xml:space="preserve">2.80567264556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77289915084839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7586498260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77859902381897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68597865104675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62470698356628</t>
   </si>
   <si>
     <t xml:space="preserve">2.59478378295898</t>
@@ -491,22 +491,22 @@
     <t xml:space="preserve">2.58480930328369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65605545043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65463089942932</t>
+    <t xml:space="preserve">2.65605568885803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65463042259216</t>
   </si>
   <si>
     <t xml:space="preserve">2.63610672950745</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60333371162415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57198524475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45086669921875</t>
+    <t xml:space="preserve">2.60333347320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57198476791382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45086693763733</t>
   </si>
   <si>
     <t xml:space="preserve">2.44516706466675</t>
@@ -518,7 +518,7 @@
     <t xml:space="preserve">2.44374203681946</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41666841506958</t>
+    <t xml:space="preserve">2.41666865348816</t>
   </si>
   <si>
     <t xml:space="preserve">2.45941615104675</t>
@@ -539,16 +539,16 @@
     <t xml:space="preserve">2.5506112575531</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52353811264038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57341003417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64465570449829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69310355186462</t>
+    <t xml:space="preserve">2.5235378742218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57341027259827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64465594291687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6931037902832</t>
   </si>
   <si>
     <t xml:space="preserve">2.64038157463074</t>
@@ -557,22 +557,22 @@
     <t xml:space="preserve">2.63895630836487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62898230552673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63325691223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67172956466675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74867582321167</t>
+    <t xml:space="preserve">2.62898206710815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63325667381287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67172980308533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74867558479309</t>
   </si>
   <si>
     <t xml:space="preserve">2.73727583885193</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6731550693512</t>
+    <t xml:space="preserve">2.67315435409546</t>
   </si>
   <si>
     <t xml:space="preserve">2.70307803153992</t>
@@ -581,10 +581,10 @@
     <t xml:space="preserve">2.71447730064392</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70735263824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65178084373474</t>
+    <t xml:space="preserve">2.70735239982605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65178060531616</t>
   </si>
   <si>
     <t xml:space="preserve">2.66887998580933</t>
@@ -593,13 +593,13 @@
     <t xml:space="preserve">2.63753151893616</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65748023986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56486058235168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52211260795593</t>
+    <t xml:space="preserve">2.65748047828674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56486082077026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52211284637451</t>
   </si>
   <si>
     <t xml:space="preserve">2.5149884223938</t>
@@ -608,7 +608,7 @@
     <t xml:space="preserve">2.41524362564087</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43234276771545</t>
+    <t xml:space="preserve">2.43234300613403</t>
   </si>
   <si>
     <t xml:space="preserve">2.43661737442017</t>
@@ -620,19 +620,16 @@
     <t xml:space="preserve">2.39244508743286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45799136161804</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.35112190246582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42236852645874</t>
+    <t xml:space="preserve">2.42236828804016</t>
   </si>
   <si>
     <t xml:space="preserve">2.53066229820251</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57768511772156</t>
+    <t xml:space="preserve">2.57768487930298</t>
   </si>
   <si>
     <t xml:space="preserve">2.58908414840698</t>
@@ -641,10 +638,10 @@
     <t xml:space="preserve">2.63468170166016</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6959536075592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68027925491333</t>
+    <t xml:space="preserve">2.69595336914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68027949333191</t>
   </si>
   <si>
     <t xml:space="preserve">2.69167876243591</t>
@@ -659,22 +656,22 @@
     <t xml:space="preserve">2.74297571182251</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72445154190063</t>
+    <t xml:space="preserve">2.72445178031921</t>
   </si>
   <si>
     <t xml:space="preserve">2.7230269908905</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72872638702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76434993743896</t>
+    <t xml:space="preserve">2.7287266254425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76434969902039</t>
   </si>
   <si>
     <t xml:space="preserve">2.75152540206909</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75580048561096</t>
+    <t xml:space="preserve">2.75580024719238</t>
   </si>
   <si>
     <t xml:space="preserve">2.71162748336792</t>
@@ -683,43 +680,43 @@
     <t xml:space="preserve">2.69025373458862</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65035629272461</t>
+    <t xml:space="preserve">2.65035581588745</t>
   </si>
   <si>
     <t xml:space="preserve">2.60760831832886</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58338475227356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5534610748291</t>
+    <t xml:space="preserve">2.5833842754364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55346155166626</t>
   </si>
   <si>
     <t xml:space="preserve">2.5206880569458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60618352890015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56058621406555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5449116230011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54063701629639</t>
+    <t xml:space="preserve">2.60618305206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56058573722839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54491186141968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54063677787781</t>
   </si>
   <si>
     <t xml:space="preserve">2.50501370429993</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49788951873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50643849372864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53351211547852</t>
+    <t xml:space="preserve">2.49788928031921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50643873214722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53351235389709</t>
   </si>
   <si>
     <t xml:space="preserve">2.57625985145569</t>
@@ -728,10 +725,10 @@
     <t xml:space="preserve">2.60048365592957</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59193420410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58195924758911</t>
+    <t xml:space="preserve">2.59193396568298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58195948600769</t>
   </si>
   <si>
     <t xml:space="preserve">2.5591607093811</t>
@@ -746,16 +743,16 @@
     <t xml:space="preserve">2.48506498336792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54348659515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68740367889404</t>
+    <t xml:space="preserve">2.54348683357239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68740391731262</t>
   </si>
   <si>
     <t xml:space="preserve">2.69452834129333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75722479820251</t>
+    <t xml:space="preserve">2.75722503662109</t>
   </si>
   <si>
     <t xml:space="preserve">2.77147459983826</t>
@@ -764,25 +761,25 @@
     <t xml:space="preserve">2.79712295532227</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78857326507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79997253417969</t>
+    <t xml:space="preserve">2.78857350349426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79997277259827</t>
   </si>
   <si>
     <t xml:space="preserve">2.83132100105286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90541672706604</t>
+    <t xml:space="preserve">2.9054172039032</t>
   </si>
   <si>
     <t xml:space="preserve">3.03508496284485</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06215834617615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15477848052979</t>
+    <t xml:space="preserve">3.06215858459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15477824211121</t>
   </si>
   <si>
     <t xml:space="preserve">3.29727053642273</t>
@@ -794,10 +791,10 @@
     <t xml:space="preserve">3.07783269882202</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1676025390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16190338134766</t>
+    <t xml:space="preserve">3.16760301589966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16190314292908</t>
   </si>
   <si>
     <t xml:space="preserve">3.16047787666321</t>
@@ -806,61 +803,64 @@
     <t xml:space="preserve">3.21889996528625</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22174954414368</t>
+    <t xml:space="preserve">3.22174978256226</t>
   </si>
   <si>
     <t xml:space="preserve">3.27589678764343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28159618377686</t>
+    <t xml:space="preserve">3.28159666061401</t>
   </si>
   <si>
     <t xml:space="preserve">3.26877212524414</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23172402381897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12912964820862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19610118865967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10063147544861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19752597808838</t>
+    <t xml:space="preserve">3.23172378540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17900204658508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12913012504578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19610142707825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10063171386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1975257396698</t>
   </si>
   <si>
     <t xml:space="preserve">3.23884892463684</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22602462768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29157114028931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32576942443848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2830216884613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31864428520203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34001851081848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39559030532837</t>
+    <t xml:space="preserve">3.22602438926697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29157066345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3257691860199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28302121162415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31864452362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34001874923706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39559054374695</t>
   </si>
   <si>
     <t xml:space="preserve">3.35569262504578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23457407951355</t>
+    <t xml:space="preserve">3.23457384109497</t>
   </si>
   <si>
     <t xml:space="preserve">3.27019739151001</t>
@@ -869,22 +869,22 @@
     <t xml:space="preserve">3.08923196792603</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06358337402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17489004135132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09706664085388</t>
+    <t xml:space="preserve">3.06358361244202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17488980293274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09706687927246</t>
   </si>
   <si>
     <t xml:space="preserve">3.11147832870483</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13886070251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14462494850159</t>
+    <t xml:space="preserve">3.13886046409607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14462518692017</t>
   </si>
   <si>
     <t xml:space="preserve">3.11003732681274</t>
@@ -893,10 +893,10 @@
     <t xml:space="preserve">3.1186842918396</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07112598419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03797888755798</t>
+    <t xml:space="preserve">3.07112574577332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03797912597656</t>
   </si>
   <si>
     <t xml:space="preserve">3.04806709289551</t>
@@ -914,13 +914,13 @@
     <t xml:space="preserve">2.91836261749268</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87224507331848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90395069122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89098000526428</t>
+    <t xml:space="preserve">2.8722448348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90395045280457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8909797668457</t>
   </si>
   <si>
     <t xml:space="preserve">2.87512707710266</t>
@@ -929,22 +929,22 @@
     <t xml:space="preserve">2.84918642044067</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92700886726379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90683269500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86936259269714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.878009557724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85783314704895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85350966453552</t>
+    <t xml:space="preserve">2.92700910568237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9068329334259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86936283111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87800931930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85783338546753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8535099029541</t>
   </si>
   <si>
     <t xml:space="preserve">2.87080359458923</t>
@@ -953,13 +953,13 @@
     <t xml:space="preserve">2.82468628883362</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79298067092896</t>
+    <t xml:space="preserve">2.79298043251038</t>
   </si>
   <si>
     <t xml:space="preserve">2.76415729522705</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81027483940125</t>
+    <t xml:space="preserve">2.81027460098267</t>
   </si>
   <si>
     <t xml:space="preserve">2.80018639564514</t>
@@ -968,31 +968,31 @@
     <t xml:space="preserve">2.79153966903687</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72956919670105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75262808799744</t>
+    <t xml:space="preserve">2.72956943511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75262784957886</t>
   </si>
   <si>
     <t xml:space="preserve">2.75983381271362</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74686360359192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95439100265503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92124485969543</t>
+    <t xml:space="preserve">2.74686312675476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95439124107361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92124438285828</t>
   </si>
   <si>
     <t xml:space="preserve">2.92845034599304</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92556810379028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83189225196838</t>
+    <t xml:space="preserve">2.9255678653717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83189249038696</t>
   </si>
   <si>
     <t xml:space="preserve">2.84342169761658</t>
@@ -1004,7 +1004,7 @@
     <t xml:space="preserve">2.83045125007629</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82612729072571</t>
+    <t xml:space="preserve">2.82612752914429</t>
   </si>
   <si>
     <t xml:space="preserve">2.78865671157837</t>
@@ -1016,10 +1016,10 @@
     <t xml:space="preserve">2.80883359909058</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84053921699524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85495090484619</t>
+    <t xml:space="preserve">2.84053897857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85495066642761</t>
   </si>
   <si>
     <t xml:space="preserve">2.86503911018372</t>
@@ -1028,10 +1028,10 @@
     <t xml:space="preserve">2.87656831741333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90827393531799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83909773826599</t>
+    <t xml:space="preserve">2.90827369689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83909797668457</t>
   </si>
   <si>
     <t xml:space="preserve">2.73821616172791</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">2.7555103302002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76848077774048</t>
+    <t xml:space="preserve">2.76848101615906</t>
   </si>
   <si>
     <t xml:space="preserve">2.70218706130981</t>
@@ -1049,16 +1049,16 @@
     <t xml:space="preserve">2.72668695449829</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71371650695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72524571418762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68057012557983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6748046875</t>
+    <t xml:space="preserve">2.71371626853943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7252459526062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68056988716125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67480516433716</t>
   </si>
   <si>
     <t xml:space="preserve">2.67336368560791</t>
@@ -1067,37 +1067,37 @@
     <t xml:space="preserve">2.65895247459412</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67624640464783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75406908988953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79442191123962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79874539375305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74542212486267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78577470779419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92268586158752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0250084400177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02644920349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06968474388123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10571384429932</t>
+    <t xml:space="preserve">2.67624616622925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75406932830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7944221496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79874563217163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74542236328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78577494621277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9226861000061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02500867843628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02644944190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0696849822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1057140827179</t>
   </si>
   <si>
     <t xml:space="preserve">3.12156653404236</t>
@@ -1109,7 +1109,7 @@
     <t xml:space="preserve">3.14174294471741</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13597846031189</t>
+    <t xml:space="preserve">3.13597869873047</t>
   </si>
   <si>
     <t xml:space="preserve">3.09850811958313</t>
@@ -1118,19 +1118,19 @@
     <t xml:space="preserve">3.05671429634094</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07689046859741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08409643173218</t>
+    <t xml:space="preserve">3.07689023017883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08409667015076</t>
   </si>
   <si>
     <t xml:space="preserve">3.07400798797607</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04086136817932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0538318157196</t>
+    <t xml:space="preserve">3.04086112976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05383157730103</t>
   </si>
   <si>
     <t xml:space="preserve">3.17921352386475</t>
@@ -1145,19 +1145,19 @@
     <t xml:space="preserve">3.07977294921875</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14894866943359</t>
+    <t xml:space="preserve">3.14894843101501</t>
   </si>
   <si>
     <t xml:space="preserve">3.16191935539246</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14750790596008</t>
+    <t xml:space="preserve">3.14750742912292</t>
   </si>
   <si>
     <t xml:space="preserve">3.0999493598938</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13453722000122</t>
+    <t xml:space="preserve">3.13453698158264</t>
   </si>
   <si>
     <t xml:space="preserve">3.15903687477112</t>
@@ -1166,13 +1166,13 @@
     <t xml:space="preserve">3.15471339225769</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12877249717712</t>
+    <t xml:space="preserve">3.12877225875854</t>
   </si>
   <si>
     <t xml:space="preserve">3.11580181121826</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10427284240723</t>
+    <t xml:space="preserve">3.10427260398865</t>
   </si>
   <si>
     <t xml:space="preserve">3.12012553215027</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">3.00483226776123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97168564796448</t>
+    <t xml:space="preserve">2.9716854095459</t>
   </si>
   <si>
     <t xml:space="preserve">2.7843337059021</t>
@@ -1202,43 +1202,43 @@
     <t xml:space="preserve">2.88233304023743</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85062742233276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82900977134705</t>
+    <t xml:space="preserve">2.85062718391418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82900953292847</t>
   </si>
   <si>
     <t xml:space="preserve">2.82324528694153</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70362854003906</t>
+    <t xml:space="preserve">2.70362830162048</t>
   </si>
   <si>
     <t xml:space="preserve">2.72236371040344</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70506954193115</t>
+    <t xml:space="preserve">2.70506930351257</t>
   </si>
   <si>
     <t xml:space="preserve">2.71227550506592</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65606999397278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69858407974243</t>
+    <t xml:space="preserve">2.6560697555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69858431816101</t>
   </si>
   <si>
     <t xml:space="preserve">2.76703953742981</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78505420684814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72740793228149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69498157501221</t>
+    <t xml:space="preserve">2.78505396842957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72740745544434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69498133659363</t>
   </si>
   <si>
     <t xml:space="preserve">2.7346134185791</t>
@@ -1247,16 +1247,16 @@
     <t xml:space="preserve">2.70579028129578</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7310106754303</t>
+    <t xml:space="preserve">2.73101043701172</t>
   </si>
   <si>
     <t xml:space="preserve">2.72020196914673</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79225993156433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84630417823792</t>
+    <t xml:space="preserve">2.79226016998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84630370140076</t>
   </si>
   <si>
     <t xml:space="preserve">2.77424550056458</t>
@@ -1265,22 +1265,22 @@
     <t xml:space="preserve">2.77064251899719</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70939302444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74181938171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71299576759338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63373184204102</t>
+    <t xml:space="preserve">2.709392786026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74181962013245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71299600601196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63373160362244</t>
   </si>
   <si>
     <t xml:space="preserve">2.62652587890625</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6409375667572</t>
+    <t xml:space="preserve">2.64093780517578</t>
   </si>
   <si>
     <t xml:space="preserve">2.65534925460815</t>
@@ -1292,43 +1292,43 @@
     <t xml:space="preserve">2.58689379692078</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57248210906982</t>
+    <t xml:space="preserve">2.5724823474884</t>
   </si>
   <si>
     <t xml:space="preserve">2.57968783378601</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55807065963745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56167364120483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55086445808411</t>
+    <t xml:space="preserve">2.55807042121887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56167340278625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55086469650269</t>
   </si>
   <si>
     <t xml:space="preserve">2.56887936592102</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43557143211365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37432217597961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30946922302246</t>
+    <t xml:space="preserve">2.43557167053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37432193756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30946898460388</t>
   </si>
   <si>
     <t xml:space="preserve">2.39593935012817</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41755676269531</t>
+    <t xml:space="preserve">2.41755700111389</t>
   </si>
   <si>
     <t xml:space="preserve">2.41395378112793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36351299285889</t>
+    <t xml:space="preserve">2.36351275444031</t>
   </si>
   <si>
     <t xml:space="preserve">2.35991024971008</t>
@@ -1337,37 +1337,37 @@
     <t xml:space="preserve">2.29505753517151</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44998335838318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3527045249939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52204155921936</t>
+    <t xml:space="preserve">2.4499831199646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35270428657532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52204132080078</t>
   </si>
   <si>
     <t xml:space="preserve">2.4283652305603</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44638013839722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4211597442627</t>
+    <t xml:space="preserve">2.44637989997864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42115950584412</t>
   </si>
   <si>
     <t xml:space="preserve">2.50762987136841</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59409976005554</t>
+    <t xml:space="preserve">2.59409952163696</t>
   </si>
   <si>
     <t xml:space="preserve">2.56527638435364</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63012886047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65174627304077</t>
+    <t xml:space="preserve">2.63012909889221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65174603462219</t>
   </si>
   <si>
     <t xml:space="preserve">2.62292313575745</t>
@@ -1379,16 +1379,16 @@
     <t xml:space="preserve">2.60851144790649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6373348236084</t>
+    <t xml:space="preserve">2.63733458518982</t>
   </si>
   <si>
     <t xml:space="preserve">2.68417263031006</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66615796089172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69137859344482</t>
+    <t xml:space="preserve">2.6661581993103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69137835502625</t>
   </si>
   <si>
     <t xml:space="preserve">2.67696666717529</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">2.73281192779541</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62172174453735</t>
+    <t xml:space="preserve">2.62172198295593</t>
   </si>
   <si>
     <t xml:space="preserve">2.49582004547119</t>
@@ -1412,31 +1412,31 @@
     <t xml:space="preserve">2.43657207489014</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45878982543945</t>
+    <t xml:space="preserve">2.45879006385803</t>
   </si>
   <si>
     <t xml:space="preserve">2.39213609695435</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40694808959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36991810798645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29956126213074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21068930625916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32548213005066</t>
+    <t xml:space="preserve">2.40694832801819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36991786956787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29956102371216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21068906784058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32548236846924</t>
   </si>
   <si>
     <t xml:space="preserve">2.37732434272766</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3884334564209</t>
+    <t xml:space="preserve">2.38843321800232</t>
   </si>
   <si>
     <t xml:space="preserve">2.4291660785675</t>
@@ -1445,7 +1445,7 @@
     <t xml:space="preserve">2.41805720329285</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46989917755127</t>
+    <t xml:space="preserve">2.46989893913269</t>
   </si>
   <si>
     <t xml:space="preserve">2.5032262802124</t>
@@ -1457,7 +1457,7 @@
     <t xml:space="preserve">2.53285002708435</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57728624343872</t>
+    <t xml:space="preserve">2.57728600502014</t>
   </si>
   <si>
     <t xml:space="preserve">2.5254442691803</t>
@@ -1472,22 +1472,22 @@
     <t xml:space="preserve">2.54395914077759</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47360229492188</t>
+    <t xml:space="preserve">2.4736020565033</t>
   </si>
   <si>
     <t xml:space="preserve">2.44768118858337</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53655290603638</t>
+    <t xml:space="preserve">2.53655314445496</t>
   </si>
   <si>
     <t xml:space="preserve">2.4773051738739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51433515548706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48100829124451</t>
+    <t xml:space="preserve">2.51433491706848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48100805282593</t>
   </si>
   <si>
     <t xml:space="preserve">2.46619606018066</t>
@@ -1496,46 +1496,46 @@
     <t xml:space="preserve">2.39583897590637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41065144538879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35140323638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36621522903442</t>
+    <t xml:space="preserve">2.41065120697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35140299797058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.366215467453</t>
   </si>
   <si>
     <t xml:space="preserve">2.34399724006653</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35880923271179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35510611534119</t>
+    <t xml:space="preserve">2.35880899429321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35510635375977</t>
   </si>
   <si>
     <t xml:space="preserve">2.3625123500824</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30696725845337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31067037582397</t>
+    <t xml:space="preserve">2.30696749687195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31066989898682</t>
   </si>
   <si>
     <t xml:space="preserve">2.32177901268005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39954233169556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38102698326111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41435432434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37362122535706</t>
+    <t xml:space="preserve">2.39954209327698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38102722167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41435408592224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37362098693848</t>
   </si>
   <si>
     <t xml:space="preserve">2.31807637214661</t>
@@ -1547,7 +1547,7 @@
     <t xml:space="preserve">2.28104615211487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26993751525879</t>
+    <t xml:space="preserve">2.26993727684021</t>
   </si>
   <si>
     <t xml:space="preserve">2.30326414108276</t>
@@ -1556,16 +1556,16 @@
     <t xml:space="preserve">2.32918500900269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27734303474426</t>
+    <t xml:space="preserve">2.27734327316284</t>
   </si>
   <si>
     <t xml:space="preserve">2.26623439788818</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29215550422668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27364039421082</t>
+    <t xml:space="preserve">2.29215526580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27364015579224</t>
   </si>
   <si>
     <t xml:space="preserve">2.2884521484375</t>
@@ -1577,13 +1577,13 @@
     <t xml:space="preserve">2.38473033905029</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20698618888855</t>
+    <t xml:space="preserve">2.20698642730713</t>
   </si>
   <si>
     <t xml:space="preserve">2.24031329154968</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15514421463013</t>
+    <t xml:space="preserve">2.15514445304871</t>
   </si>
   <si>
     <t xml:space="preserve">2.13292646408081</t>
@@ -1601,28 +1601,28 @@
     <t xml:space="preserve">2.08849048614502</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10700559616089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06256937980652</t>
+    <t xml:space="preserve">2.10700535774231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0625696182251</t>
   </si>
   <si>
     <t xml:space="preserve">1.9885094165802</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95147943496704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02553915977478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0662727355957</t>
+    <t xml:space="preserve">1.95147955417633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02553939819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06627249717712</t>
   </si>
   <si>
     <t xml:space="preserve">2.04775738716125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06997537612915</t>
+    <t xml:space="preserve">2.06997513771057</t>
   </si>
   <si>
     <t xml:space="preserve">2.12922334671021</t>
@@ -1634,10 +1634,10 @@
     <t xml:space="preserve">2.13662958145142</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18847131729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21439242362976</t>
+    <t xml:space="preserve">2.18847107887268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21439218521118</t>
   </si>
   <si>
     <t xml:space="preserve">2.23290729522705</t>
@@ -1649,22 +1649,22 @@
     <t xml:space="preserve">2.20328330993652</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1995804309845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21809530258179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11811447143555</t>
+    <t xml:space="preserve">2.19958019256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21809506416321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11811399459839</t>
   </si>
   <si>
     <t xml:space="preserve">2.07367825508118</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11070847511292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24771952629089</t>
+    <t xml:space="preserve">2.11070823669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24771928787231</t>
   </si>
   <si>
     <t xml:space="preserve">2.3365912437439</t>
@@ -1679,31 +1679,34 @@
     <t xml:space="preserve">2.68096995353699</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60320734977722</t>
+    <t xml:space="preserve">2.60320711135864</t>
   </si>
   <si>
     <t xml:space="preserve">2.62912797927856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65875196456909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65134596824646</t>
+    <t xml:space="preserve">2.66615772247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65875220298767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65134572982788</t>
   </si>
   <si>
     <t xml:space="preserve">2.62542486190796</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71799993515015</t>
+    <t xml:space="preserve">2.71800017356873</t>
   </si>
   <si>
     <t xml:space="preserve">2.70318818092346</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7291088104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69207906723022</t>
+    <t xml:space="preserve">2.72910904884338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69207882881165</t>
   </si>
   <si>
     <t xml:space="preserve">2.71429681777954</t>
@@ -1712,55 +1715,55 @@
     <t xml:space="preserve">2.75503015518188</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8031690120697</t>
+    <t xml:space="preserve">2.80316877365112</t>
   </si>
   <si>
     <t xml:space="preserve">2.81798100471497</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84390187263489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87352609634399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86241698265076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88093209266663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76243567466736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76984214782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7994658946991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79206013679504</t>
+    <t xml:space="preserve">2.84390163421631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87352585792542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86241674423218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88093185424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76243591308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76984190940857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79946613311768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79205989837646</t>
   </si>
   <si>
     <t xml:space="preserve">2.81427788734436</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79576325416565</t>
+    <t xml:space="preserve">2.79576301574707</t>
   </si>
   <si>
     <t xml:space="preserve">2.75873279571533</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85871362686157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90314984321594</t>
+    <t xml:space="preserve">2.85871386528015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90314960479736</t>
   </si>
   <si>
     <t xml:space="preserve">2.89574384689331</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90685296058655</t>
+    <t xml:space="preserve">2.90685272216797</t>
   </si>
   <si>
     <t xml:space="preserve">2.88833808898926</t>
@@ -1772,7 +1775,7 @@
     <t xml:space="preserve">2.98091292381287</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91796159744263</t>
+    <t xml:space="preserve">2.91796183586121</t>
   </si>
   <si>
     <t xml:space="preserve">2.94758582115173</t>
@@ -1781,10 +1784,10 @@
     <t xml:space="preserve">2.95128870010376</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9364767074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95499157905579</t>
+    <t xml:space="preserve">2.93647694587708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95499181747437</t>
   </si>
   <si>
     <t xml:space="preserve">2.93277382850647</t>
@@ -1799,7 +1802,7 @@
     <t xml:space="preserve">2.97720980644226</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94017958641052</t>
+    <t xml:space="preserve">2.9401798248291</t>
   </si>
   <si>
     <t xml:space="preserve">2.89944696426392</t>
@@ -1811,19 +1814,19 @@
     <t xml:space="preserve">2.8661196231842</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80687189102173</t>
+    <t xml:space="preserve">2.80687165260315</t>
   </si>
   <si>
     <t xml:space="preserve">2.83279275894165</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85501098632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71059393882751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70689129829407</t>
+    <t xml:space="preserve">2.85501074790955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71059370040894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70689105987549</t>
   </si>
   <si>
     <t xml:space="preserve">2.61061310768127</t>
@@ -1835,31 +1838,28 @@
     <t xml:space="preserve">2.6365339756012</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63283085823059</t>
+    <t xml:space="preserve">2.63283109664917</t>
   </si>
   <si>
     <t xml:space="preserve">2.61801910400391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69578218460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68467307090759</t>
+    <t xml:space="preserve">2.69578194618225</t>
   </si>
   <si>
     <t xml:space="preserve">2.68837594985962</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61431622505188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56988024711609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49211716651917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50692915916443</t>
+    <t xml:space="preserve">2.6143159866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56988000869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49211692810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50692892074585</t>
   </si>
   <si>
     <t xml:space="preserve">2.34770011901855</t>
@@ -1871,7 +1871,7 @@
     <t xml:space="preserve">2.18476843833923</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19587755203247</t>
+    <t xml:space="preserve">2.19587731361389</t>
   </si>
   <si>
     <t xml:space="preserve">2.29948091506958</t>
@@ -1880,7 +1880,7 @@
     <t xml:space="preserve">2.21777319908142</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10883045196533</t>
+    <t xml:space="preserve">2.10883021354675</t>
   </si>
   <si>
     <t xml:space="preserve">2.12439346313477</t>
@@ -1895,34 +1895,34 @@
     <t xml:space="preserve">2.10493922233582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09326696395874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12050271034241</t>
+    <t xml:space="preserve">2.09326672554016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12050247192383</t>
   </si>
   <si>
     <t xml:space="preserve">2.13995671272278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12828397750854</t>
+    <t xml:space="preserve">2.12828421592712</t>
   </si>
   <si>
     <t xml:space="preserve">2.07770347595215</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0504674911499</t>
+    <t xml:space="preserve">2.05046772956848</t>
   </si>
   <si>
     <t xml:space="preserve">2.04657697677612</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03490447998047</t>
+    <t xml:space="preserve">2.03490424156189</t>
   </si>
   <si>
     <t xml:space="preserve">2.05435848236084</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03101348876953</t>
+    <t xml:space="preserve">2.03101325035095</t>
   </si>
   <si>
     <t xml:space="preserve">2.02323174476624</t>
@@ -1937,43 +1937,43 @@
     <t xml:space="preserve">2.22944593429565</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1866466999054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9687602519989</t>
+    <t xml:space="preserve">2.18664646148682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96876001358032</t>
   </si>
   <si>
     <t xml:space="preserve">2.00377774238586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.929851770401</t>
+    <t xml:space="preserve">1.92985188961029</t>
   </si>
   <si>
     <t xml:space="preserve">2.02712273597717</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94152414798737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84425365924835</t>
+    <t xml:space="preserve">1.94152426719666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84425342082977</t>
   </si>
   <si>
     <t xml:space="preserve">1.79367291927338</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76643693447113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80923616886139</t>
+    <t xml:space="preserve">1.76643681526184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8092360496521</t>
   </si>
   <si>
     <t xml:space="preserve">1.75087368488312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74698293209076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69251132011414</t>
+    <t xml:space="preserve">1.74698269367218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69251108169556</t>
   </si>
   <si>
     <t xml:space="preserve">1.78978192806244</t>
@@ -1988,7 +1988,7 @@
     <t xml:space="preserve">1.74309206008911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69640219211578</t>
+    <t xml:space="preserve">1.69640207290649</t>
   </si>
   <si>
     <t xml:space="preserve">1.7119654417038</t>
@@ -1997,25 +1997,25 @@
     <t xml:space="preserve">1.7197470664978</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70418393611908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78589141368866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73141956329346</t>
+    <t xml:space="preserve">1.7041836977005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78589117527008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73141944408417</t>
   </si>
   <si>
     <t xml:space="preserve">1.71585607528687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73531055450439</t>
+    <t xml:space="preserve">1.73531031608582</t>
   </si>
   <si>
     <t xml:space="preserve">1.78200030326843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83258128166199</t>
+    <t xml:space="preserve">1.8325811624527</t>
   </si>
   <si>
     <t xml:space="preserve">1.80145454406738</t>
@@ -2027,55 +2027,55 @@
     <t xml:space="preserve">1.85592603683472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83647203445435</t>
+    <t xml:space="preserve">1.83647191524506</t>
   </si>
   <si>
     <t xml:space="preserve">1.87927114963531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79756379127502</t>
+    <t xml:space="preserve">1.79756355285645</t>
   </si>
   <si>
     <t xml:space="preserve">1.77032780647278</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82869029045105</t>
+    <t xml:space="preserve">1.82869017124176</t>
   </si>
   <si>
     <t xml:space="preserve">1.75476455688477</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75865542888641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76254630088806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80534517765045</t>
+    <t xml:space="preserve">1.75865530967712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76254618167877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80534529685974</t>
   </si>
   <si>
     <t xml:space="preserve">1.8170177936554</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82479953765869</t>
+    <t xml:space="preserve">1.8247994184494</t>
   </si>
   <si>
     <t xml:space="preserve">1.91428852081299</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93374276161194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89094376564026</t>
+    <t xml:space="preserve">1.93374264240265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89094352722168</t>
   </si>
   <si>
     <t xml:space="preserve">1.87538039684296</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90650689601898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89483451843262</t>
+    <t xml:space="preserve">1.90650677680969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89483428001404</t>
   </si>
   <si>
     <t xml:space="preserve">1.85981702804565</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">1.92207038402557</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01155948638916</t>
+    <t xml:space="preserve">2.01155924797058</t>
   </si>
   <si>
     <t xml:space="preserve">2.16719245910645</t>
@@ -2099,7 +2099,7 @@
     <t xml:space="preserve">2.06214022636414</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13217544555664</t>
+    <t xml:space="preserve">2.13217520713806</t>
   </si>
   <si>
     <t xml:space="preserve">2.2099916934967</t>
@@ -2111,10 +2111,10 @@
     <t xml:space="preserve">2.15551996231079</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19831943511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17108345031738</t>
+    <t xml:space="preserve">2.19831919670105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1710832118988</t>
   </si>
   <si>
     <t xml:space="preserve">2.14384770393372</t>
@@ -2123,40 +2123,40 @@
     <t xml:space="preserve">2.11272096633911</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08548521995544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01545023918152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98821461200714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15941119194031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13606595993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01934123039246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87148940563202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91039776802063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92596101760864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89872539043427</t>
+    <t xml:space="preserve">2.08548498153687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01545000076294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98821437358856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15941095352173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13606572151184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01934099197388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87148928642273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91039752960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92596113681793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89872527122498</t>
   </si>
   <si>
     <t xml:space="preserve">1.95319676399231</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99988687038422</t>
+    <t xml:space="preserve">1.99988663196564</t>
   </si>
   <si>
     <t xml:space="preserve">1.95708775520325</t>
@@ -2171,7 +2171,7 @@
     <t xml:space="preserve">1.72752869129181</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68862044811249</t>
+    <t xml:space="preserve">1.68862056732178</t>
   </si>
   <si>
     <t xml:space="preserve">1.62636709213257</t>
@@ -2180,19 +2180,19 @@
     <t xml:space="preserve">1.59524047374725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54232513904572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48941004276276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45361423492432</t>
+    <t xml:space="preserve">1.542325258255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48940992355347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45361435413361</t>
   </si>
   <si>
     <t xml:space="preserve">1.33844566345215</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30420637130737</t>
+    <t xml:space="preserve">1.30420649051666</t>
   </si>
   <si>
     <t xml:space="preserve">1.27619230747223</t>
@@ -2204,7 +2204,7 @@
     <t xml:space="preserve">1.16102373600006</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08009457588196</t>
+    <t xml:space="preserve">1.08009445667267</t>
   </si>
   <si>
     <t xml:space="preserve">1.05986213684082</t>
@@ -2216,7 +2216,7 @@
     <t xml:space="preserve">1.10188317298889</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22483336925507</t>
+    <t xml:space="preserve">1.22483348846436</t>
   </si>
   <si>
     <t xml:space="preserve">1.31976974010468</t>
@@ -2225,7 +2225,7 @@
     <t xml:space="preserve">1.32910776138306</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35400915145874</t>
+    <t xml:space="preserve">1.35400903224945</t>
   </si>
   <si>
     <t xml:space="preserve">1.26685428619385</t>
@@ -2237,22 +2237,22 @@
     <t xml:space="preserve">1.32288241386414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28864300251007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28397393226624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29331195354462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39291739463806</t>
+    <t xml:space="preserve">1.28864312171936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28397405147552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29331207275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39291727542877</t>
   </si>
   <si>
     <t xml:space="preserve">1.36179065704346</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26062917709351</t>
+    <t xml:space="preserve">1.26062905788422</t>
   </si>
   <si>
     <t xml:space="preserve">1.29642474651337</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">1.33688938617706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29953742027283</t>
+    <t xml:space="preserve">1.29953730106354</t>
   </si>
   <si>
     <t xml:space="preserve">1.31354427337646</t>
@@ -2273,7 +2273,7 @@
     <t xml:space="preserve">1.29175579547882</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28241789340973</t>
+    <t xml:space="preserve">1.28241777420044</t>
   </si>
   <si>
     <t xml:space="preserve">1.2295024394989</t>
@@ -2282,16 +2282,16 @@
     <t xml:space="preserve">1.23884046077728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24350953102112</t>
+    <t xml:space="preserve">1.24350941181183</t>
   </si>
   <si>
     <t xml:space="preserve">1.20927011966705</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17503082752228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13300979137421</t>
+    <t xml:space="preserve">1.17503070831299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1330099105835</t>
   </si>
   <si>
     <t xml:space="preserve">1.10343956947327</t>
@@ -2303,25 +2303,25 @@
     <t xml:space="preserve">1.08631992340088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05674970149994</t>
+    <t xml:space="preserve">1.05674958229065</t>
   </si>
   <si>
     <t xml:space="preserve">1.06764388084412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12211549282074</t>
+    <t xml:space="preserve">1.12211561203003</t>
   </si>
   <si>
     <t xml:space="preserve">1.10655212402344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14234793186188</t>
+    <t xml:space="preserve">1.14234781265259</t>
   </si>
   <si>
     <t xml:space="preserve">1.15012955665588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13923513889313</t>
+    <t xml:space="preserve">1.13923525810242</t>
   </si>
   <si>
     <t xml:space="preserve">1.19837582111359</t>
@@ -2345,10 +2345,10 @@
     <t xml:space="preserve">1.17969989776611</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16413640975952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23572790622711</t>
+    <t xml:space="preserve">1.16413652896881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23572778701782</t>
   </si>
   <si>
     <t xml:space="preserve">1.20615744590759</t>
@@ -2357,13 +2357,13 @@
     <t xml:space="preserve">1.20771384239197</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18748140335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21082639694214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17814338207245</t>
+    <t xml:space="preserve">1.18748152256012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21082651615143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17814350128174</t>
   </si>
   <si>
     <t xml:space="preserve">1.18592524528503</t>
@@ -2375,10 +2375,10 @@
     <t xml:space="preserve">1.15791118144989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14079141616821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18436884880066</t>
+    <t xml:space="preserve">1.1407915353775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18436872959137</t>
   </si>
   <si>
     <t xml:space="preserve">1.17036175727844</t>
@@ -2399,7 +2399,7 @@
     <t xml:space="preserve">1.17191827297211</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1656928062439</t>
+    <t xml:space="preserve">1.16569268703461</t>
   </si>
   <si>
     <t xml:space="preserve">1.15635478496552</t>
@@ -2414,34 +2414,34 @@
     <t xml:space="preserve">1.08165085315704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06608772277832</t>
+    <t xml:space="preserve">1.06608760356903</t>
   </si>
   <si>
     <t xml:space="preserve">1.08320724964142</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06297492980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04896795749664</t>
+    <t xml:space="preserve">1.06297504901886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04896783828735</t>
   </si>
   <si>
     <t xml:space="preserve">1.09410154819489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07075667381287</t>
+    <t xml:space="preserve">1.07075655460358</t>
   </si>
   <si>
     <t xml:space="preserve">1.09721422195435</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06141865253448</t>
+    <t xml:space="preserve">1.0614185333252</t>
   </si>
   <si>
     <t xml:space="preserve">1.05052423477173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04585516452789</t>
+    <t xml:space="preserve">1.04585528373718</t>
   </si>
   <si>
     <t xml:space="preserve">1.03962993621826</t>
@@ -2465,7 +2465,7 @@
     <t xml:space="preserve">0.99605256319046</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01628494262695</t>
+    <t xml:space="preserve">1.01628506183624</t>
   </si>
   <si>
     <t xml:space="preserve">1.00850331783295</t>
@@ -2483,7 +2483,7 @@
     <t xml:space="preserve">0.966482281684875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9649258852005</t>
+    <t xml:space="preserve">0.964925944805145</t>
   </si>
   <si>
     <t xml:space="preserve">0.958700656890869</t>
@@ -2498,10 +2498,10 @@
     <t xml:space="preserve">0.989827275276184</t>
   </si>
   <si>
-    <t xml:space="preserve">0.969594895839691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949362695217133</t>
+    <t xml:space="preserve">0.969594955444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949362635612488</t>
   </si>
   <si>
     <t xml:space="preserve">0.968038618564606</t>
@@ -2513,7 +2513,7 @@
     <t xml:space="preserve">0.980489253997803</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999165236949921</t>
+    <t xml:space="preserve">0.99916535615921</t>
   </si>
   <si>
     <t xml:space="preserve">1.06453120708466</t>
@@ -2522,7 +2522,7 @@
     <t xml:space="preserve">1.05830585956573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02406668663025</t>
+    <t xml:space="preserve">1.02406656742096</t>
   </si>
   <si>
     <t xml:space="preserve">0.988270938396454</t>
@@ -2534,109 +2534,109 @@
     <t xml:space="preserve">0.941581070423126</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93379932641983</t>
+    <t xml:space="preserve">0.933799266815186</t>
   </si>
   <si>
     <t xml:space="preserve">0.904228925704956</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879327714443207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887109339237213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.888665616512299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891778409481049</t>
+    <t xml:space="preserve">0.879327654838562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887109279632568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.888665676116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891778349876404</t>
   </si>
   <si>
     <t xml:space="preserve">0.83575040102005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.803067326545715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.787504136562347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.829525113105774</t>
+    <t xml:space="preserve">0.80306738615036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.787504076957703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.829525053501129</t>
   </si>
   <si>
     <t xml:space="preserve">0.831081330776215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840419471263885</t>
+    <t xml:space="preserve">0.840419411659241</t>
   </si>
   <si>
     <t xml:space="preserve">0.826412379741669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.817074358463287</t>
+    <t xml:space="preserve">0.817074418067932</t>
   </si>
   <si>
     <t xml:space="preserve">0.866877019405365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.896447360515594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.902672588825226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915123343467712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940024554729462</t>
+    <t xml:space="preserve">0.896447241306305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.902672648429871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915123283863068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940024614334106</t>
   </si>
   <si>
     <t xml:space="preserve">0.977376639842987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.96336966753006</t>
+    <t xml:space="preserve">0.963369727134705</t>
   </si>
   <si>
     <t xml:space="preserve">0.983601987361908</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978932917118073</t>
+    <t xml:space="preserve">0.978932976722717</t>
   </si>
   <si>
     <t xml:space="preserve">0.92913031578064</t>
   </si>
   <si>
-    <t xml:space="preserve">0.96181321144104</t>
+    <t xml:space="preserve">0.961813271045685</t>
   </si>
   <si>
     <t xml:space="preserve">0.946249961853027</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943137347698212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.930686712265015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.952475249767303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.927573978900909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.926017761230469</t>
+    <t xml:space="preserve">0.943137288093567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93068665266037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.952475309371948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.927574038505554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.926017642021179</t>
   </si>
   <si>
     <t xml:space="preserve">0.935355663299561</t>
   </si>
   <si>
-    <t xml:space="preserve">0.971151351928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947806298732758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.919792413711548</t>
+    <t xml:space="preserve">0.971151411533356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947806417942047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.919792294502258</t>
   </si>
   <si>
     <t xml:space="preserve">0.913567066192627</t>
@@ -2648,13 +2648,13 @@
     <t xml:space="preserve">0.916679620742798</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899560034275055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.918236017227173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.908897995948792</t>
+    <t xml:space="preserve">0.8995600938797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918235957622528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.908898055553436</t>
   </si>
   <si>
     <t xml:space="preserve">0.894890964031219</t>
@@ -2666,31 +2666,31 @@
     <t xml:space="preserve">0.944693624973297</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01784110069275</t>
+    <t xml:space="preserve">1.01784121990204</t>
   </si>
   <si>
     <t xml:space="preserve">1.05363690853119</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13767886161804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15946745872498</t>
+    <t xml:space="preserve">1.13767874240875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15946757793427</t>
   </si>
   <si>
     <t xml:space="preserve">1.12989723682404</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1003270149231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09877049922943</t>
+    <t xml:space="preserve">1.10032689571381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09877038002014</t>
   </si>
   <si>
     <t xml:space="preserve">1.07231283187866</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12834095954895</t>
+    <t xml:space="preserve">1.12834084033966</t>
   </si>
   <si>
     <t xml:space="preserve">1.12055921554565</t>
@@ -2705,7 +2705,7 @@
     <t xml:space="preserve">1.31198811531067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25907278060913</t>
+    <t xml:space="preserve">1.25907266139984</t>
   </si>
   <si>
     <t xml:space="preserve">1.24662208557129</t>
@@ -2717,19 +2717,19 @@
     <t xml:space="preserve">1.2544037103653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22638976573944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23105883598328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26996719837189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25751638412476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26841080188751</t>
+    <t xml:space="preserve">1.22638988494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23105871677399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2699670791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25751662254333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26841068267822</t>
   </si>
   <si>
     <t xml:space="preserve">1.27307987213135</t>
@@ -2741,19 +2741,19 @@
     <t xml:space="preserve">1.38513553142548</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40069901943207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40381157398224</t>
+    <t xml:space="preserve">1.40069890022278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40381169319153</t>
   </si>
   <si>
     <t xml:space="preserve">1.37112867832184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3991425037384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39447355270386</t>
+    <t xml:space="preserve">1.39914262294769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39447367191315</t>
   </si>
   <si>
     <t xml:space="preserve">1.38980460166931</t>
@@ -2765,19 +2765,19 @@
     <t xml:space="preserve">1.39136099815369</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4053680896759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43805110454559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52053642272949</t>
+    <t xml:space="preserve">1.40536797046661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4380509853363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52053654193878</t>
   </si>
   <si>
     <t xml:space="preserve">1.57189548015594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56022322177887</t>
+    <t xml:space="preserve">1.56022310256958</t>
   </si>
   <si>
     <t xml:space="preserve">1.58745884895325</t>
@@ -2798,19 +2798,19 @@
     <t xml:space="preserve">1.49096620082855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51798808574677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46871316432953</t>
+    <t xml:space="preserve">1.51798796653748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46871304512024</t>
   </si>
   <si>
     <t xml:space="preserve">1.45281779766083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46712338924408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47348165512085</t>
+    <t xml:space="preserve">1.46712350845337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47348153591156</t>
   </si>
   <si>
     <t xml:space="preserve">1.48619771003723</t>
@@ -2822,13 +2822,10 @@
     <t xml:space="preserve">1.48142910003662</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49096632003784</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.54818880558014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55454695224762</t>
+    <t xml:space="preserve">1.55454683303833</t>
   </si>
   <si>
     <t xml:space="preserve">1.5561363697052</t>
@@ -2837,7 +2834,7 @@
     <t xml:space="preserve">1.57044196128845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56567347049713</t>
+    <t xml:space="preserve">1.56567358970642</t>
   </si>
   <si>
     <t xml:space="preserve">1.567263007164</t>
@@ -2852,679 +2849,682 @@
     <t xml:space="preserve">1.47030258178711</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4432806968689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40672183036804</t>
+    <t xml:space="preserve">1.44328081607819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40672194957733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43374371528625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44487023353577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39241623878479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35744690895081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34949922561646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34790980815887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33201467990875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35585737228394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31929850578308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31453001499176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27638149261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30181384086609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30499279499054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31135094165802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30340325832367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28432929515839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27479207515717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22074854373932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2223379611969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2557178735733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24935972690582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25412821769714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28273963928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22710657119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21121144294739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2732025384903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26366543769836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37652099132538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36698389053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35267841815948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3749315738678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37970018386841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38128960132599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34314131736755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33678317070007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36221539974213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.363804936409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39877426624298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42897510528564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40513229370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53388321399689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49732434749603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47189199924469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42738556861877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4146693944931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42420661449432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45917594432831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46076548099518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41943800449371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39082670211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33996224403381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34155166149139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33519351482391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37811064720154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35426783561707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33042514324188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37175250053406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33837270736694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38287913799286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50050330162048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52116703987122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49573481082916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50845086574554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51162993907928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50209283828735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51321947574615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47507119178772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44010174274445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4877872467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47983968257904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45599699020386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48301863670349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51004040241241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56249439716339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63720166683197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66501832008362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67693948745728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70078253746033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65309691429138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60541141033173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55772590637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57362115383148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43851220607758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44645988941193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4544073343277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45122838020325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49414527416229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5163985490799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61335897445679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61733293533325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63322794437408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62130653858185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59349012374878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58792674541473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60143768787384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62925410270691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66104447841644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53865170478821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51957750320435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54183077812195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52911472320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53070402145386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52434611320496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43056452274323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37334203720093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30817186832428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30022442340851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22869610786438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23346471786499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36539447307587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36062598228455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40831136703491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59746384620667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74846792221069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78423178195953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76038908958435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77231049537659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78025817871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74449396133423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81999599933624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81204843521118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83191752433777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8279435634613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85178625583649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83589112758636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83986508846283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82396984100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77628421783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79217958450317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76833665370941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.788205742836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72859871387482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64514923095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71667754650116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73654639720917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75641548633575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76436293125153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80410075187683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7403576374054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71012794971466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76195001602173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75763165950775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77490568161011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75331294536591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73603904247284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67730736732483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64448666572571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55811655521393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4769287109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46483683586121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45792722702026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42337930202484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50456702709198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50283968448639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47865605354309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51665902137756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48038351535797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4890204668045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48211085796356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47001910209656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41128730773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3819215297699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40092301368713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43028879165649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40610527992249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37501192092896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37328457832336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34737348556519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52875077724457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59957420825958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5477522611618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55293428897858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55466175079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60648381710052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60475647449493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58230030536652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58057284355164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53047811985016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5252959728241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51493144035339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49420273303986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49765753746033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4665641784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45447254180908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42510664463043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43547093868256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44756281375885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4285614490509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39228594303131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36637496948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35255575180054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33873653411865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3214625120163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32318985462189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31973516941071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31628036499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31282544136047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33009946346283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38019418716431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35082840919495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33355438709259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31800770759583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29555153846741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26791310310364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2368198633194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25754857063293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2247279882431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23854720592499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2005443572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22300052642822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1884526014328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21954572200775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2610034942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28691446781158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30418848991394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32664465904236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29382407665253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24718427658081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2730952501297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35773801803589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39574086666107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39746820926666</t>
   </si>
   <si>
     <t xml:space="preserve">1.43374359607697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44487023353577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39241635799408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35744690895081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34949922561646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34790980815887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33201456069946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35585737228394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31929850578308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31453001499176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27638149261475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30181384086609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30499291419983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31135082244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30340325832367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28432905673981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27479207515717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22074842453003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2223379611969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2557178735733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24935984611511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25412821769714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28273963928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22710657119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21121144294739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2732025384903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26366543769836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37652099132538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36698389053345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3526782989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3749315738678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37969994544983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38128960132599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34314119815826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33678317070007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36221539974213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.363804936409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39877426624298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42897498607635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40513241291046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5338830947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49732422828674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47189199924469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42738556861877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4146693944931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42420649528503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45917594432831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46076548099518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41943800449371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39082670211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33996224403381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34155166149139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3351936340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37811064720154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35426783561707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33042514324188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37175250053406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33837270736694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38287925720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50050342082977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52116715908051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49573481082916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50845098495483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51162993907928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50209283828735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51321959495544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47507095336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44010174274445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4877872467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47983956336975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45599687099457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48301875591278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51004040241241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56249439716339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63720178604126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66501832008362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67693960666656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70078241825104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65309679508209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60541141033173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55772590637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57362103462219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43851208686829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44645988941193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45440745353699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45122838020325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49414527416229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5163985490799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61335909366608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61733281612396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63322794437408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62130653858185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59349024295807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58792662620544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60143780708313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62925410270691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66104447841644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53865170478821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51957738399506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54183089733124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52911460399628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53070425987244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52434599399567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43056464195251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37334215641022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30817186832428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30022442340851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22869610786438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23346471786499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36539447307587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36062598228455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40831136703491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59746372699738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74846792221069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78423202037811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76038920879364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77231073379517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78025817871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74449408054352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81999599933624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81204855442047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83191752433777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8279435634613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85178637504578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83589136600494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83986508846283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.823970079422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77628421783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79217958450317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7683367729187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.788205742836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7285989522934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64514923095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71667766571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73654639720917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75641548633575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76436293125153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80410087108612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7403576374054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71012794971466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76195001602173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75763154029846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77490556240082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7533130645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73603892326355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67730736732483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.644486784935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55811655521393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4769287109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46483683586121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45792722702026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42337930202484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50456702709198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50283980369568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47865617275238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51665902137756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48038339614868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4890204668045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48211085796356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47001910209656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41128730773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3819215297699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40092289447784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43028879165649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4061051607132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37501204013824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37328457832336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34737348556519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52875065803528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59957420825958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54775214195251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55293428897858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55466175079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60648393630981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60475647449493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58230018615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58057284355164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53047811985016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5252959728241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51493144035339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49420273303986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49765753746033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4665641784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45447242259979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42510652542114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43547093868256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44756281375885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4285614490509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39228594303131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36637496948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35255575180054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33873653411865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3214625120163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32318985462189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31973516941071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31628036499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31282544136047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33009946346283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3801943063736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35082840919495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33355438709259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31800770759583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29555153846741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26791310310364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2368198633194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25754857063293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2247279882431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23854720592499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2005443572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22300064563751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1884526014328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21954572200775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2610034942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28691446781158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30418848991394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32664465904236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29382407665253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24718427658081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2730952501297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35773801803589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39574074745178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39746820926666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44929027557373</t>
+    <t xml:space="preserve">1.44929015636444</t>
   </si>
   <si>
     <t xml:space="preserve">1.44065320491791</t>
@@ -3533,7 +3533,7 @@
     <t xml:space="preserve">1.43719851970673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41992437839508</t>
+    <t xml:space="preserve">1.41992449760437</t>
   </si>
   <si>
     <t xml:space="preserve">1.40265035629272</t>
@@ -3542,7 +3542,7 @@
     <t xml:space="preserve">1.40437793731689</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41301488876343</t>
+    <t xml:space="preserve">1.41301476955414</t>
   </si>
   <si>
     <t xml:space="preserve">1.42165184020996</t>
@@ -3551,19 +3551,19 @@
     <t xml:space="preserve">1.45101761817932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38710367679596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36464762687683</t>
+    <t xml:space="preserve">1.38710379600525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36464750766754</t>
   </si>
   <si>
     <t xml:space="preserve">1.32837212085724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33182692527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30591595172882</t>
+    <t xml:space="preserve">1.331827044487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30591583251953</t>
   </si>
   <si>
     <t xml:space="preserve">1.31455290317535</t>
@@ -3572,22 +3572,22 @@
     <t xml:space="preserve">1.31109809875488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34564614295959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30937075614929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27827739715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27136790752411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28345954418182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27655017375946</t>
+    <t xml:space="preserve">1.34564602375031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30937063694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27827751636505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27136778831482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28345966339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27655005455017</t>
   </si>
   <si>
     <t xml:space="preserve">1.29900622367859</t>
@@ -3596,7 +3596,7 @@
     <t xml:space="preserve">1.28518712520599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29036927223206</t>
+    <t xml:space="preserve">1.29036915302277</t>
   </si>
   <si>
     <t xml:space="preserve">1.30764329433441</t>
@@ -3614,7 +3614,7 @@
     <t xml:space="preserve">1.33528172969818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34910094738007</t>
+    <t xml:space="preserve">1.34910106658936</t>
   </si>
   <si>
     <t xml:space="preserve">1.36982977390289</t>
@@ -3629,7 +3629,7 @@
     <t xml:space="preserve">1.51147675514221</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49938476085663</t>
+    <t xml:space="preserve">1.49938488006592</t>
   </si>
   <si>
     <t xml:space="preserve">1.53393292427063</t>
@@ -3644,7 +3644,7 @@
     <t xml:space="preserve">1.52011370658875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51838624477386</t>
+    <t xml:space="preserve">1.51838636398315</t>
   </si>
   <si>
     <t xml:space="preserve">1.5373877286911</t>
@@ -3656,7 +3656,7 @@
     <t xml:space="preserve">1.47520124912262</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50974929332733</t>
+    <t xml:space="preserve">1.50974941253662</t>
   </si>
   <si>
     <t xml:space="preserve">1.49593007564545</t>
@@ -3665,10 +3665,10 @@
     <t xml:space="preserve">1.48383831977844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41819703578949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48729312419891</t>
+    <t xml:space="preserve">1.4181969165802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48729300498962</t>
   </si>
   <si>
     <t xml:space="preserve">1.54256999492645</t>
@@ -3695,7 +3695,7 @@
     <t xml:space="preserve">1.5857549905777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60302889347076</t>
+    <t xml:space="preserve">1.60302901268005</t>
   </si>
   <si>
     <t xml:space="preserve">1.6203031539917</t>
@@ -3704,16 +3704,16 @@
     <t xml:space="preserve">1.64966893196106</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62894010543823</t>
+    <t xml:space="preserve">1.62893998622894</t>
   </si>
   <si>
     <t xml:space="preserve">1.63757705688477</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63239479064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59093725681305</t>
+    <t xml:space="preserve">1.6323949098587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59093713760376</t>
   </si>
   <si>
     <t xml:space="preserve">1.61684823036194</t>
@@ -3734,10 +3734,10 @@
     <t xml:space="preserve">1.63412225246429</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62548530101776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5719358921051</t>
+    <t xml:space="preserve">1.62548518180847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57193577289581</t>
   </si>
   <si>
     <t xml:space="preserve">1.57020831108093</t>
@@ -10791,7 +10791,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G237" t="s">
-        <v>202</v>
+        <v>34</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10817,7 +10817,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G238" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -10843,7 +10843,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G239" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -10869,7 +10869,7 @@
         <v>3.55200004577637</v>
       </c>
       <c r="G240" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -10921,7 +10921,7 @@
         <v>3.61800003051758</v>
       </c>
       <c r="G242" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -10947,7 +10947,7 @@
         <v>3.6340000629425</v>
       </c>
       <c r="G243" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -11025,7 +11025,7 @@
         <v>3.69799995422363</v>
       </c>
       <c r="G246" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -11155,7 +11155,7 @@
         <v>3.78399991989136</v>
       </c>
       <c r="G251" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -11181,7 +11181,7 @@
         <v>3.76200008392334</v>
       </c>
       <c r="G252" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -11233,7 +11233,7 @@
         <v>3.77800011634827</v>
       </c>
       <c r="G254" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -11259,7 +11259,7 @@
         <v>3.78600001335144</v>
       </c>
       <c r="G255" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -11337,7 +11337,7 @@
         <v>3.84599995613098</v>
       </c>
       <c r="G258" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -11363,7 +11363,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G259" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -11389,7 +11389,7 @@
         <v>3.78600001335144</v>
       </c>
       <c r="G260" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -11415,7 +11415,7 @@
         <v>3.82399988174438</v>
       </c>
       <c r="G261" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -11441,7 +11441,7 @@
         <v>3.82200002670288</v>
       </c>
       <c r="G262" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -11545,7 +11545,7 @@
         <v>3.77800011634827</v>
       </c>
       <c r="G266" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -11597,7 +11597,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G268" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11623,7 +11623,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G269" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -11649,7 +11649,7 @@
         <v>3.86199998855591</v>
       </c>
       <c r="G270" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -11675,7 +11675,7 @@
         <v>3.86800003051758</v>
       </c>
       <c r="G271" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -11701,7 +11701,7 @@
         <v>3.86199998855591</v>
       </c>
       <c r="G272" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -11727,7 +11727,7 @@
         <v>3.80599999427795</v>
       </c>
       <c r="G273" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -11753,7 +11753,7 @@
         <v>3.77600002288818</v>
       </c>
       <c r="G274" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -11779,7 +11779,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G275" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -11831,7 +11831,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G277" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -11857,7 +11857,7 @@
         <v>3.62599992752075</v>
       </c>
       <c r="G278" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -11909,7 +11909,7 @@
         <v>3.58400011062622</v>
       </c>
       <c r="G280" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -11935,7 +11935,7 @@
         <v>3.53800010681152</v>
       </c>
       <c r="G281" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -11961,7 +11961,7 @@
         <v>3.65799999237061</v>
       </c>
       <c r="G282" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -11987,7 +11987,7 @@
         <v>3.59400010108948</v>
       </c>
       <c r="G283" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -12013,7 +12013,7 @@
         <v>3.57200002670288</v>
       </c>
       <c r="G284" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -12039,7 +12039,7 @@
         <v>3.56599998474121</v>
       </c>
       <c r="G285" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -12065,7 +12065,7 @@
         <v>3.51600003242493</v>
       </c>
       <c r="G286" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -12091,7 +12091,7 @@
         <v>3.50600004196167</v>
       </c>
       <c r="G287" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -12117,7 +12117,7 @@
         <v>3.51799988746643</v>
       </c>
       <c r="G288" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -12143,7 +12143,7 @@
         <v>3.55599999427795</v>
       </c>
       <c r="G289" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -12169,7 +12169,7 @@
         <v>3.6159999370575</v>
       </c>
       <c r="G290" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -12195,7 +12195,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G291" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -12221,7 +12221,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G292" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -12247,7 +12247,7 @@
         <v>3.62400007247925</v>
       </c>
       <c r="G293" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -12273,7 +12273,7 @@
         <v>3.59200000762939</v>
       </c>
       <c r="G294" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -12299,7 +12299,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G295" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -12325,7 +12325,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G296" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -12351,7 +12351,7 @@
         <v>3.48799991607666</v>
       </c>
       <c r="G297" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -12403,7 +12403,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G299" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -12429,7 +12429,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G300" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -12455,7 +12455,7 @@
         <v>3.7720000743866</v>
       </c>
       <c r="G301" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -12481,7 +12481,7 @@
         <v>3.78200006484985</v>
       </c>
       <c r="G302" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -12533,7 +12533,7 @@
         <v>3.76200008392334</v>
       </c>
       <c r="G304" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -12559,7 +12559,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G305" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12585,7 +12585,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G306" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12611,7 +12611,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G307" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12637,7 +12637,7 @@
         <v>3.92600011825562</v>
       </c>
       <c r="G308" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -12663,7 +12663,7 @@
         <v>3.91400003433228</v>
       </c>
       <c r="G309" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -12689,7 +12689,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G310" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -12715,7 +12715,7 @@
         <v>3.97399997711182</v>
       </c>
       <c r="G311" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -12741,7 +12741,7 @@
         <v>4.07800006866455</v>
       </c>
       <c r="G312" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -12793,7 +12793,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G314" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -12819,7 +12819,7 @@
         <v>4.2979998588562</v>
       </c>
       <c r="G315" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -12845,7 +12845,7 @@
         <v>4.42799997329712</v>
       </c>
       <c r="G316" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -12871,7 +12871,7 @@
         <v>4.62799978256226</v>
       </c>
       <c r="G317" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -12897,7 +12897,7 @@
         <v>4.57200002670288</v>
       </c>
       <c r="G318" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -12975,7 +12975,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G321" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -13001,7 +13001,7 @@
         <v>4.44600009918213</v>
       </c>
       <c r="G322" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -13027,7 +13027,7 @@
         <v>4.43800020217896</v>
       </c>
       <c r="G323" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -13053,7 +13053,7 @@
         <v>4.43599987030029</v>
       </c>
       <c r="G324" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -13079,7 +13079,7 @@
         <v>4.51800012588501</v>
       </c>
       <c r="G325" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -13105,7 +13105,7 @@
         <v>4.52199983596802</v>
       </c>
       <c r="G326" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -13131,7 +13131,7 @@
         <v>4.59800004959106</v>
       </c>
       <c r="G327" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -13157,7 +13157,7 @@
         <v>4.60599994659424</v>
       </c>
       <c r="G328" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -13183,7 +13183,7 @@
         <v>4.58799982070923</v>
       </c>
       <c r="G329" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -13209,7 +13209,7 @@
         <v>4.53599977493286</v>
       </c>
       <c r="G330" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -13235,7 +13235,7 @@
         <v>4.46199989318848</v>
       </c>
       <c r="G331" t="s">
-        <v>58</v>
+        <v>268</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -13833,7 +13833,7 @@
         <v>4.43599987030029</v>
       </c>
       <c r="G354" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -24623,7 +24623,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G769" t="s">
-        <v>457</v>
+        <v>557</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -24649,7 +24649,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G770" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -24675,7 +24675,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G771" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -24701,7 +24701,7 @@
         <v>3.54500007629395</v>
       </c>
       <c r="G772" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -24727,7 +24727,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G773" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -24753,7 +24753,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G774" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -24779,7 +24779,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G775" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -24805,7 +24805,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G776" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -24831,7 +24831,7 @@
         <v>3.68499994277954</v>
       </c>
       <c r="G777" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -24857,7 +24857,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G778" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -24883,7 +24883,7 @@
         <v>3.63499999046326</v>
       </c>
       <c r="G779" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -24909,7 +24909,7 @@
         <v>3.66499996185303</v>
       </c>
       <c r="G780" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -24935,7 +24935,7 @@
         <v>3.66499996185303</v>
       </c>
       <c r="G781" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -24961,7 +24961,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G782" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -24987,7 +24987,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G783" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -25013,7 +25013,7 @@
         <v>3.78500008583069</v>
       </c>
       <c r="G784" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -25039,7 +25039,7 @@
         <v>3.8050000667572</v>
       </c>
       <c r="G785" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -25065,7 +25065,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G786" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -25091,7 +25091,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G787" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -25117,7 +25117,7 @@
         <v>3.86500000953674</v>
       </c>
       <c r="G788" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -25143,7 +25143,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G789" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -25169,7 +25169,7 @@
         <v>3.8050000667572</v>
       </c>
       <c r="G790" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -25195,7 +25195,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G791" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -25221,7 +25221,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G792" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -25247,7 +25247,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G793" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -25273,7 +25273,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G794" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -25299,7 +25299,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G795" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -25325,7 +25325,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G796" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -25351,7 +25351,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G797" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -25377,7 +25377,7 @@
         <v>3.77500009536743</v>
       </c>
       <c r="G798" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -25403,7 +25403,7 @@
         <v>3.72499990463257</v>
       </c>
       <c r="G799" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -25429,7 +25429,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G800" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -25455,7 +25455,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G801" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -25481,7 +25481,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G802" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25507,7 +25507,7 @@
         <v>3.92499995231628</v>
       </c>
       <c r="G803" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -25533,7 +25533,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G804" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -25559,7 +25559,7 @@
         <v>4</v>
       </c>
       <c r="G805" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -25585,7 +25585,7 @@
         <v>4.02500009536743</v>
       </c>
       <c r="G806" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25611,7 +25611,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G807" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25637,7 +25637,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G808" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -25663,7 +25663,7 @@
         <v>3.98499989509583</v>
       </c>
       <c r="G809" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -25689,7 +25689,7 @@
         <v>3.96499991416931</v>
       </c>
       <c r="G810" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -25715,7 +25715,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G811" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -25741,7 +25741,7 @@
         <v>3.96499991416931</v>
       </c>
       <c r="G812" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -25767,7 +25767,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G813" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -25793,7 +25793,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G814" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -25819,7 +25819,7 @@
         <v>3.98499989509583</v>
       </c>
       <c r="G815" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -25845,7 +25845,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G816" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -25871,7 +25871,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G817" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -25897,7 +25897,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G818" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -25923,7 +25923,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G819" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -25949,7 +25949,7 @@
         <v>3.91499996185303</v>
       </c>
       <c r="G820" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -25975,7 +25975,7 @@
         <v>3.86500000953674</v>
       </c>
       <c r="G821" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -26001,7 +26001,7 @@
         <v>3.79500007629395</v>
       </c>
       <c r="G822" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -26027,7 +26027,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G823" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -26053,7 +26053,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G824" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -26079,7 +26079,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G825" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -26105,7 +26105,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G826" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -26131,7 +26131,7 @@
         <v>3.86500000953674</v>
       </c>
       <c r="G827" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -26157,7 +26157,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G828" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -26183,7 +26183,7 @@
         <v>3.82500004768372</v>
       </c>
       <c r="G829" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -26209,7 +26209,7 @@
         <v>3.85500001907349</v>
       </c>
       <c r="G830" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -26235,7 +26235,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G831" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -26261,7 +26261,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G832" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -26287,7 +26287,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G833" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -26313,7 +26313,7 @@
         <v>3.65499997138977</v>
       </c>
       <c r="G834" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -26365,7 +26365,7 @@
         <v>3.52500009536743</v>
       </c>
       <c r="G836" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -26391,7 +26391,7 @@
         <v>3.56500005722046</v>
       </c>
       <c r="G837" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -26443,7 +26443,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G839" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -26469,7 +26469,7 @@
         <v>3.5550000667572</v>
       </c>
       <c r="G840" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -26495,7 +26495,7 @@
         <v>3.53500008583069</v>
       </c>
       <c r="G841" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -26547,7 +26547,7 @@
         <v>3.5550000667572</v>
       </c>
       <c r="G843" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26573,7 +26573,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G844" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -26599,7 +26599,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G845" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -26625,7 +26625,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G846" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -26651,7 +26651,7 @@
         <v>3.625</v>
       </c>
       <c r="G847" t="s">
-        <v>610</v>
+        <v>43</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -40431,7 +40431,7 @@
         <v>1.87600004673004</v>
       </c>
       <c r="G1377" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -40483,7 +40483,7 @@
         <v>1.94799995422363</v>
       </c>
       <c r="G1379" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -40509,7 +40509,7 @@
         <v>1.9559999704361</v>
       </c>
       <c r="G1380" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -40535,7 +40535,7 @@
         <v>1.95799994468689</v>
       </c>
       <c r="G1381" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -40561,7 +40561,7 @@
         <v>1.97599995136261</v>
       </c>
       <c r="G1382" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -40587,7 +40587,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1383" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -40613,7 +40613,7 @@
         <v>1.97200000286102</v>
       </c>
       <c r="G1384" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -40639,7 +40639,7 @@
         <v>1.95799994468689</v>
       </c>
       <c r="G1385" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -40665,7 +40665,7 @@
         <v>1.93400001525879</v>
       </c>
       <c r="G1386" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -40691,7 +40691,7 @@
         <v>1.92200005054474</v>
       </c>
       <c r="G1387" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -40717,7 +40717,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G1388" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -40769,7 +40769,7 @@
         <v>1.81599998474121</v>
       </c>
       <c r="G1390" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -40795,7 +40795,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G1391" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -40821,7 +40821,7 @@
         <v>1.80400002002716</v>
       </c>
       <c r="G1392" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -40847,7 +40847,7 @@
         <v>1.817999958992</v>
       </c>
       <c r="G1393" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -40873,7 +40873,7 @@
         <v>1.75199997425079</v>
       </c>
       <c r="G1394" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -40899,7 +40899,7 @@
         <v>1.70799994468689</v>
       </c>
       <c r="G1395" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -40925,7 +40925,7 @@
         <v>1.69799995422363</v>
       </c>
       <c r="G1396" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -40951,7 +40951,7 @@
         <v>1.69599997997284</v>
       </c>
       <c r="G1397" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -40977,7 +40977,7 @@
         <v>1.67599999904633</v>
       </c>
       <c r="G1398" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -41003,7 +41003,7 @@
         <v>1.7059999704361</v>
       </c>
       <c r="G1399" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -41029,7 +41029,7 @@
         <v>1.6599999666214</v>
       </c>
       <c r="G1400" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -41055,7 +41055,7 @@
         <v>1.65400004386902</v>
       </c>
       <c r="G1401" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -41081,7 +41081,7 @@
         <v>1.60599994659424</v>
       </c>
       <c r="G1402" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -41107,7 +41107,7 @@
         <v>1.63800001144409</v>
       </c>
       <c r="G1403" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -41133,7 +41133,7 @@
         <v>1.64199995994568</v>
       </c>
       <c r="G1404" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -41159,7 +41159,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G1405" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -41185,7 +41185,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G1406" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -41211,7 +41211,7 @@
         <v>1.61600005626678</v>
       </c>
       <c r="G1407" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -41237,7 +41237,7 @@
         <v>1.60399997234344</v>
       </c>
       <c r="G1408" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -41263,7 +41263,7 @@
         <v>1.53600001335144</v>
       </c>
       <c r="G1409" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -41289,7 +41289,7 @@
         <v>1.53799998760223</v>
       </c>
       <c r="G1410" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -41315,7 +41315,7 @@
         <v>1.58000004291534</v>
       </c>
       <c r="G1411" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -41341,7 +41341,7 @@
         <v>1.57200002670288</v>
       </c>
       <c r="G1412" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -41367,7 +41367,7 @@
         <v>1.57799994945526</v>
       </c>
       <c r="G1413" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -41393,7 +41393,7 @@
         <v>1.6139999628067</v>
       </c>
       <c r="G1414" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -41419,7 +41419,7 @@
         <v>1.5440000295639</v>
       </c>
       <c r="G1415" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -41445,7 +41445,7 @@
         <v>1.52400004863739</v>
       </c>
       <c r="G1416" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -41471,7 +41471,7 @@
         <v>1.52400004863739</v>
       </c>
       <c r="G1417" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -41497,7 +41497,7 @@
         <v>1.53799998760223</v>
       </c>
       <c r="G1418" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -41523,7 +41523,7 @@
         <v>1.60199999809265</v>
       </c>
       <c r="G1419" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -41549,7 +41549,7 @@
         <v>1.5900000333786</v>
       </c>
       <c r="G1420" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -41575,7 +41575,7 @@
         <v>1.73199999332428</v>
       </c>
       <c r="G1421" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -41601,7 +41601,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G1422" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -41627,7 +41627,7 @@
         <v>1.7059999704361</v>
       </c>
       <c r="G1423" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -41653,7 +41653,7 @@
         <v>1.7059999704361</v>
       </c>
       <c r="G1424" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -41679,7 +41679,7 @@
         <v>1.70200002193451</v>
       </c>
       <c r="G1425" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -41705,7 +41705,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G1426" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -41731,7 +41731,7 @@
         <v>1.73599994182587</v>
       </c>
       <c r="G1427" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -41757,7 +41757,7 @@
         <v>1.73800003528595</v>
       </c>
       <c r="G1428" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -41783,7 +41783,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G1429" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -41809,7 +41809,7 @@
         <v>1.682000041008</v>
       </c>
       <c r="G1430" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -41835,7 +41835,7 @@
         <v>1.70799994468689</v>
       </c>
       <c r="G1431" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -41861,7 +41861,7 @@
         <v>1.71399998664856</v>
       </c>
       <c r="G1432" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -41887,7 +41887,7 @@
         <v>1.71599996089935</v>
       </c>
       <c r="G1433" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -41913,7 +41913,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1434" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -41939,7 +41939,7 @@
         <v>1.79799997806549</v>
       </c>
       <c r="G1435" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -41965,7 +41965,7 @@
         <v>1.76800000667572</v>
       </c>
       <c r="G1436" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -41991,7 +41991,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1437" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -42017,7 +42017,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1438" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -42043,7 +42043,7 @@
         <v>1.92200005054474</v>
       </c>
       <c r="G1439" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -42069,7 +42069,7 @@
         <v>1.88399994373322</v>
       </c>
       <c r="G1440" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -42121,7 +42121,7 @@
         <v>1.85199999809265</v>
       </c>
       <c r="G1442" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -42147,7 +42147,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G1443" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -42199,7 +42199,7 @@
         <v>1.7960000038147</v>
       </c>
       <c r="G1445" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -42225,7 +42225,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G1446" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -42251,7 +42251,7 @@
         <v>1.79799997806549</v>
       </c>
       <c r="G1447" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -42277,7 +42277,7 @@
         <v>1.79200005531311</v>
       </c>
       <c r="G1448" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -42303,7 +42303,7 @@
         <v>1.83599996566772</v>
       </c>
       <c r="G1449" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -42329,7 +42329,7 @@
         <v>1.83800005912781</v>
       </c>
       <c r="G1450" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -42355,7 +42355,7 @@
         <v>1.78600001335144</v>
       </c>
       <c r="G1451" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -42381,7 +42381,7 @@
         <v>1.75</v>
       </c>
       <c r="G1452" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -42407,7 +42407,7 @@
         <v>1.68599998950958</v>
       </c>
       <c r="G1453" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -42433,7 +42433,7 @@
         <v>1.68799996376038</v>
       </c>
       <c r="G1454" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -42459,7 +42459,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G1455" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -42485,7 +42485,7 @@
         <v>1.70200002193451</v>
       </c>
       <c r="G1456" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -42511,7 +42511,7 @@
         <v>1.73199999332428</v>
       </c>
       <c r="G1457" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -42537,7 +42537,7 @@
         <v>1.73399996757507</v>
       </c>
       <c r="G1458" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -42563,7 +42563,7 @@
         <v>1.75</v>
       </c>
       <c r="G1459" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -42589,7 +42589,7 @@
         <v>1.7039999961853</v>
       </c>
       <c r="G1460" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -42615,7 +42615,7 @@
         <v>1.67400002479553</v>
       </c>
       <c r="G1461" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -42641,7 +42641,7 @@
         <v>1.71399998664856</v>
       </c>
       <c r="G1462" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -42667,7 +42667,7 @@
         <v>1.72599995136261</v>
       </c>
       <c r="G1463" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -42693,7 +42693,7 @@
         <v>1.73199999332428</v>
       </c>
       <c r="G1464" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -42719,7 +42719,7 @@
         <v>1.73800003528595</v>
       </c>
       <c r="G1465" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -42745,7 +42745,7 @@
         <v>1.68400001525879</v>
       </c>
       <c r="G1466" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -42771,7 +42771,7 @@
         <v>1.7059999704361</v>
       </c>
       <c r="G1467" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -42797,7 +42797,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G1468" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -42823,7 +42823,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G1469" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -42849,7 +42849,7 @@
         <v>1.81599998474121</v>
       </c>
       <c r="G1470" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -42875,7 +42875,7 @@
         <v>1.88800001144409</v>
       </c>
       <c r="G1471" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -42901,7 +42901,7 @@
         <v>1.91400003433228</v>
       </c>
       <c r="G1472" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -42953,7 +42953,7 @@
         <v>1.88199996948242</v>
       </c>
       <c r="G1474" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -42979,7 +42979,7 @@
         <v>1.89800000190735</v>
       </c>
       <c r="G1475" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -43031,7 +43031,7 @@
         <v>1.90199995040894</v>
       </c>
       <c r="G1477" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -43057,7 +43057,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G1478" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -43083,7 +43083,7 @@
         <v>1.88199996948242</v>
       </c>
       <c r="G1479" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -43109,7 +43109,7 @@
         <v>1.90400004386902</v>
       </c>
       <c r="G1480" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -43135,7 +43135,7 @@
         <v>1.85599994659424</v>
       </c>
       <c r="G1481" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -43161,7 +43161,7 @@
         <v>1.81200003623962</v>
       </c>
       <c r="G1482" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -43187,7 +43187,7 @@
         <v>1.81200003623962</v>
       </c>
       <c r="G1483" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -43213,7 +43213,7 @@
         <v>1.87199997901917</v>
       </c>
       <c r="G1484" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -43239,7 +43239,7 @@
         <v>1.86199998855591</v>
       </c>
       <c r="G1485" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -43265,7 +43265,7 @@
         <v>1.83200001716614</v>
       </c>
       <c r="G1486" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -43291,7 +43291,7 @@
         <v>1.86600005626678</v>
       </c>
       <c r="G1487" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -43317,7 +43317,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1488" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -43343,7 +43343,7 @@
         <v>1.96599996089935</v>
       </c>
       <c r="G1489" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -43369,7 +43369,7 @@
         <v>1.94799995422363</v>
       </c>
       <c r="G1490" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -43395,7 +43395,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1491" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -43421,7 +43421,7 @@
         <v>2.09500002861023</v>
       </c>
       <c r="G1492" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -43447,7 +43447,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1493" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -43473,7 +43473,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1494" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -43499,7 +43499,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1495" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -43525,7 +43525,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1496" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -43551,7 +43551,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1497" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -43577,7 +43577,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1498" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -43603,7 +43603,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1499" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -43629,7 +43629,7 @@
         <v>1.97599995136261</v>
       </c>
       <c r="G1500" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -43655,7 +43655,7 @@
         <v>1.9559999704361</v>
       </c>
       <c r="G1501" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -43681,7 +43681,7 @@
         <v>1.93400001525879</v>
       </c>
       <c r="G1502" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -43733,7 +43733,7 @@
         <v>1.81200003623962</v>
       </c>
       <c r="G1504" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -43759,7 +43759,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G1505" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -43837,7 +43837,7 @@
         <v>1.7960000038147</v>
       </c>
       <c r="G1508" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -43863,7 +43863,7 @@
         <v>1.81599998474121</v>
       </c>
       <c r="G1509" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -43889,7 +43889,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G1510" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -43915,7 +43915,7 @@
         <v>1.817999958992</v>
       </c>
       <c r="G1511" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -43941,7 +43941,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G1512" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -43967,7 +43967,7 @@
         <v>1.82599997520447</v>
       </c>
       <c r="G1513" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -43993,7 +43993,7 @@
         <v>1.79799997806549</v>
       </c>
       <c r="G1514" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -44019,7 +44019,7 @@
         <v>1.7960000038147</v>
       </c>
       <c r="G1515" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -44045,7 +44045,7 @@
         <v>1.817999958992</v>
       </c>
       <c r="G1516" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -44071,7 +44071,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G1517" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -44097,7 +44097,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G1518" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -44123,7 +44123,7 @@
         <v>1.85599994659424</v>
       </c>
       <c r="G1519" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -44175,7 +44175,7 @@
         <v>1.90799999237061</v>
       </c>
       <c r="G1521" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -44201,7 +44201,7 @@
         <v>1.97599995136261</v>
       </c>
       <c r="G1522" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -44227,7 +44227,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1523" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -44253,7 +44253,7 @@
         <v>2.03500008583069</v>
       </c>
       <c r="G1524" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -44279,7 +44279,7 @@
         <v>2.0550000667572</v>
       </c>
       <c r="G1525" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -44305,7 +44305,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1526" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -44331,7 +44331,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1527" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -44357,7 +44357,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1528" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -44383,7 +44383,7 @@
         <v>2.00500011444092</v>
       </c>
       <c r="G1529" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -44409,7 +44409,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1530" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -44435,7 +44435,7 @@
         <v>1.99800002574921</v>
       </c>
       <c r="G1531" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -44461,7 +44461,7 @@
         <v>2.01500010490417</v>
       </c>
       <c r="G1532" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -44487,7 +44487,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1533" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -44513,7 +44513,7 @@
         <v>2.0550000667572</v>
       </c>
       <c r="G1534" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -44539,7 +44539,7 @@
         <v>2.01500010490417</v>
       </c>
       <c r="G1535" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -44565,7 +44565,7 @@
         <v>2.03500008583069</v>
       </c>
       <c r="G1536" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -44591,7 +44591,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1537" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -44617,7 +44617,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1538" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -44643,7 +44643,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1539" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -44669,7 +44669,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1540" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -44695,7 +44695,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1541" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -44721,7 +44721,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G1542" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -44773,7 +44773,7 @@
         <v>1.93599998950958</v>
       </c>
       <c r="G1544" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -44799,7 +44799,7 @@
         <v>1.90199995040894</v>
       </c>
       <c r="G1545" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -44825,7 +44825,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G1546" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -44851,7 +44851,7 @@
         <v>1.90799999237061</v>
       </c>
       <c r="G1547" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -44877,7 +44877,7 @@
         <v>1.91400003433228</v>
       </c>
       <c r="G1548" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -44903,7 +44903,7 @@
         <v>1.90799999237061</v>
       </c>
       <c r="G1549" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -44929,7 +44929,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G1550" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -44955,7 +44955,7 @@
         <v>1.88399994373322</v>
       </c>
       <c r="G1551" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -44981,7 +44981,7 @@
         <v>1.85199999809265</v>
       </c>
       <c r="G1552" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -45007,7 +45007,7 @@
         <v>1.88800001144409</v>
       </c>
       <c r="G1553" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -45033,7 +45033,7 @@
         <v>1.91199994087219</v>
       </c>
       <c r="G1554" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -45059,7 +45059,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1555" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -45085,7 +45085,7 @@
         <v>1.92400002479553</v>
       </c>
       <c r="G1556" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -45111,7 +45111,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G1557" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -45137,7 +45137,7 @@
         <v>1.92599999904633</v>
       </c>
       <c r="G1558" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -45163,7 +45163,7 @@
         <v>1.91799998283386</v>
       </c>
       <c r="G1559" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -45189,7 +45189,7 @@
         <v>1.88199996948242</v>
       </c>
       <c r="G1560" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -45215,7 +45215,7 @@
         <v>1.86199998855591</v>
       </c>
       <c r="G1561" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -45241,7 +45241,7 @@
         <v>1.82599997520447</v>
       </c>
       <c r="G1562" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -45267,7 +45267,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G1563" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -45293,7 +45293,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G1564" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -45319,7 +45319,7 @@
         <v>1.72800004482269</v>
       </c>
       <c r="G1565" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -45345,7 +45345,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G1566" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -45371,7 +45371,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G1567" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -45397,7 +45397,7 @@
         <v>1.682000041008</v>
       </c>
       <c r="G1568" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -45423,7 +45423,7 @@
         <v>1.64600002765656</v>
       </c>
       <c r="G1569" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -45449,7 +45449,7 @@
         <v>1.6360000371933</v>
       </c>
       <c r="G1570" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -45475,7 +45475,7 @@
         <v>1.5460000038147</v>
       </c>
       <c r="G1571" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -45501,7 +45501,7 @@
         <v>1.55200004577637</v>
       </c>
       <c r="G1572" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -45527,7 +45527,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G1573" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -45553,7 +45553,7 @@
         <v>1.68599998950958</v>
       </c>
       <c r="G1574" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -45579,7 +45579,7 @@
         <v>1.6599999666214</v>
       </c>
       <c r="G1575" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -45605,7 +45605,7 @@
         <v>1.64199995994568</v>
       </c>
       <c r="G1576" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -45631,7 +45631,7 @@
         <v>1.71800005435944</v>
       </c>
       <c r="G1577" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -45657,7 +45657,7 @@
         <v>1.71399998664856</v>
       </c>
       <c r="G1578" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -45683,7 +45683,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G1579" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -45709,7 +45709,7 @@
         <v>1.73199999332428</v>
       </c>
       <c r="G1580" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -45735,7 +45735,7 @@
         <v>1.71200001239777</v>
       </c>
       <c r="G1581" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -45761,7 +45761,7 @@
         <v>1.77199995517731</v>
       </c>
       <c r="G1582" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -45787,7 +45787,7 @@
         <v>1.81200003623962</v>
       </c>
       <c r="G1583" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -45813,7 +45813,7 @@
         <v>1.7960000038147</v>
       </c>
       <c r="G1584" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -45839,7 +45839,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1585" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -45865,7 +45865,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1586" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -45891,7 +45891,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1587" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -45917,7 +45917,7 @@
         <v>2.09500002861023</v>
       </c>
       <c r="G1588" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -45943,7 +45943,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1589" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -45969,7 +45969,7 @@
         <v>2.24499988555908</v>
       </c>
       <c r="G1590" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -45995,7 +45995,7 @@
         <v>2.21499991416931</v>
       </c>
       <c r="G1591" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -46021,7 +46021,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1592" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -46047,7 +46047,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1593" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -46073,7 +46073,7 @@
         <v>2.1949999332428</v>
       </c>
       <c r="G1594" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -46099,7 +46099,7 @@
         <v>2.1949999332428</v>
       </c>
       <c r="G1595" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -46125,7 +46125,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1596" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -46151,7 +46151,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1597" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -46177,7 +46177,7 @@
         <v>2.3050000667572</v>
       </c>
       <c r="G1598" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -46203,7 +46203,7 @@
         <v>2.3050000667572</v>
       </c>
       <c r="G1599" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -46229,7 +46229,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1600" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -46255,7 +46255,7 @@
         <v>2.3050000667572</v>
       </c>
       <c r="G1601" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -46281,7 +46281,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1602" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -46307,7 +46307,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1603" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -46333,7 +46333,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1604" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -46359,7 +46359,7 @@
         <v>2.31500005722046</v>
       </c>
       <c r="G1605" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -46385,7 +46385,7 @@
         <v>2.3050000667572</v>
       </c>
       <c r="G1606" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -46411,7 +46411,7 @@
         <v>2.29500007629395</v>
       </c>
       <c r="G1607" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -46437,7 +46437,7 @@
         <v>2.23499989509583</v>
       </c>
       <c r="G1608" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -46463,7 +46463,7 @@
         <v>2.25500011444092</v>
       </c>
       <c r="G1609" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -46489,7 +46489,7 @@
         <v>2.22499990463257</v>
       </c>
       <c r="G1610" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -46515,7 +46515,7 @@
         <v>2.25</v>
       </c>
       <c r="G1611" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -46541,7 +46541,7 @@
         <v>2.22499990463257</v>
       </c>
       <c r="G1612" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -46567,7 +46567,7 @@
         <v>2.21499991416931</v>
       </c>
       <c r="G1613" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -46593,7 +46593,7 @@
         <v>2.17499995231628</v>
       </c>
       <c r="G1614" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -46619,7 +46619,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1615" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -46645,7 +46645,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1616" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -46671,7 +46671,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1617" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -46697,7 +46697,7 @@
         <v>2.18499994277954</v>
       </c>
       <c r="G1618" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -46723,7 +46723,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1619" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -46749,7 +46749,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1620" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -46775,7 +46775,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1621" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -46801,7 +46801,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1622" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -46827,7 +46827,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1623" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -46853,7 +46853,7 @@
         <v>2.25500011444092</v>
       </c>
       <c r="G1624" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -46879,7 +46879,7 @@
         <v>2.07500004768372</v>
       </c>
       <c r="G1625" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -46905,7 +46905,7 @@
         <v>2.01500010490417</v>
       </c>
       <c r="G1626" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -46931,7 +46931,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1627" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -46957,7 +46957,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1628" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -46983,7 +46983,7 @@
         <v>2.03500008583069</v>
       </c>
       <c r="G1629" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -47009,7 +47009,7 @@
         <v>2.0550000667572</v>
       </c>
       <c r="G1630" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -47035,7 +47035,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1631" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -47061,7 +47061,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1632" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -47087,7 +47087,7 @@
         <v>2.0550000667572</v>
       </c>
       <c r="G1633" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -47113,7 +47113,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1634" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -47139,7 +47139,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1635" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -47165,7 +47165,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1636" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -47191,7 +47191,7 @@
         <v>1.94200003147125</v>
       </c>
       <c r="G1637" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -47217,7 +47217,7 @@
         <v>1.90400004386902</v>
       </c>
       <c r="G1638" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -47243,7 +47243,7 @@
         <v>1.80400002002716</v>
       </c>
       <c r="G1639" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -47269,7 +47269,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G1640" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -47295,7 +47295,7 @@
         <v>1.69599997997284</v>
       </c>
       <c r="G1641" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -47321,7 +47321,7 @@
         <v>1.68799996376038</v>
       </c>
       <c r="G1642" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -47347,7 +47347,7 @@
         <v>1.64800000190735</v>
       </c>
       <c r="G1643" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -47373,7 +47373,7 @@
         <v>1.74199998378754</v>
       </c>
       <c r="G1644" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -47399,7 +47399,7 @@
         <v>1.74199998378754</v>
       </c>
       <c r="G1645" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -47425,7 +47425,7 @@
         <v>1.74199998378754</v>
       </c>
       <c r="G1646" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -47451,7 +47451,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G1647" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -47477,7 +47477,7 @@
         <v>1.71200001239777</v>
       </c>
       <c r="G1648" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -47503,7 +47503,7 @@
         <v>1.75600004196167</v>
       </c>
       <c r="G1649" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -47529,7 +47529,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G1650" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -47555,7 +47555,7 @@
         <v>1.75600004196167</v>
       </c>
       <c r="G1651" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -47581,7 +47581,7 @@
         <v>1.71399998664856</v>
       </c>
       <c r="G1652" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -47607,7 +47607,7 @@
         <v>1.72399997711182</v>
       </c>
       <c r="G1653" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -47633,7 +47633,7 @@
         <v>1.71599996089935</v>
       </c>
       <c r="G1654" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -47659,7 +47659,7 @@
         <v>1.70200002193451</v>
       </c>
       <c r="G1655" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -47685,7 +47685,7 @@
         <v>1.63399994373322</v>
       </c>
       <c r="G1656" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -47711,7 +47711,7 @@
         <v>1.60000002384186</v>
       </c>
       <c r="G1657" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -47737,7 +47737,7 @@
         <v>1.62199997901917</v>
       </c>
       <c r="G1658" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -47763,7 +47763,7 @@
         <v>1.65600001811981</v>
       </c>
       <c r="G1659" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -47789,7 +47789,7 @@
         <v>1.62800002098083</v>
       </c>
       <c r="G1660" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -47815,7 +47815,7 @@
         <v>1.59200000762939</v>
       </c>
       <c r="G1661" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -47841,7 +47841,7 @@
         <v>1.5900000333786</v>
       </c>
       <c r="G1662" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -47867,7 +47867,7 @@
         <v>1.55999994277954</v>
       </c>
       <c r="G1663" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -47893,7 +47893,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G1664" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -47919,7 +47919,7 @@
         <v>1.74199998378754</v>
       </c>
       <c r="G1665" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -47945,7 +47945,7 @@
         <v>1.85199999809265</v>
       </c>
       <c r="G1666" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -47971,7 +47971,7 @@
         <v>1.80400002002716</v>
       </c>
       <c r="G1667" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -47997,7 +47997,7 @@
         <v>1.79200005531311</v>
       </c>
       <c r="G1668" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -48023,7 +48023,7 @@
         <v>1.79799997806549</v>
       </c>
       <c r="G1669" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -48049,7 +48049,7 @@
         <v>1.79200005531311</v>
       </c>
       <c r="G1670" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -48075,7 +48075,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G1671" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -48101,7 +48101,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G1672" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -48127,7 +48127,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G1673" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -48153,7 +48153,7 @@
         <v>1.85800004005432</v>
       </c>
       <c r="G1674" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -48179,7 +48179,7 @@
         <v>1.83200001716614</v>
       </c>
       <c r="G1675" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -48205,7 +48205,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G1676" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -48231,7 +48231,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G1677" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -48257,7 +48257,7 @@
         <v>1.77199995517731</v>
       </c>
       <c r="G1678" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -48283,7 +48283,7 @@
         <v>1.76600003242493</v>
       </c>
       <c r="G1679" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -48309,7 +48309,7 @@
         <v>1.75399994850159</v>
       </c>
       <c r="G1680" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -48335,7 +48335,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G1681" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -48361,7 +48361,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G1682" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -48387,7 +48387,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G1683" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -48413,7 +48413,7 @@
         <v>1.74199998378754</v>
       </c>
       <c r="G1684" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -48439,7 +48439,7 @@
         <v>1.73399996757507</v>
       </c>
       <c r="G1685" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -48465,7 +48465,7 @@
         <v>1.70200002193451</v>
       </c>
       <c r="G1686" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -48491,7 +48491,7 @@
         <v>1.69799995422363</v>
       </c>
       <c r="G1687" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -48517,7 +48517,7 @@
         <v>1.68400001525879</v>
       </c>
       <c r="G1688" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -48543,7 +48543,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G1689" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -48569,7 +48569,7 @@
         <v>1.66199994087219</v>
       </c>
       <c r="G1690" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -48595,7 +48595,7 @@
         <v>1.67599999904633</v>
       </c>
       <c r="G1691" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -48621,7 +48621,7 @@
         <v>1.65400004386902</v>
       </c>
       <c r="G1692" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -48647,7 +48647,7 @@
         <v>1.61199998855591</v>
       </c>
       <c r="G1693" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -48673,7 +48673,7 @@
         <v>1.58200001716614</v>
       </c>
       <c r="G1694" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -48699,7 +48699,7 @@
         <v>1.56599998474121</v>
       </c>
       <c r="G1695" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -48725,7 +48725,7 @@
         <v>1.54999995231628</v>
       </c>
       <c r="G1696" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -48751,7 +48751,7 @@
         <v>1.52999997138977</v>
       </c>
       <c r="G1697" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -48777,7 +48777,7 @@
         <v>1.53199994564056</v>
       </c>
       <c r="G1698" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -48803,7 +48803,7 @@
         <v>1.52799999713898</v>
       </c>
       <c r="G1699" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -48829,7 +48829,7 @@
         <v>1.52400004863739</v>
       </c>
       <c r="G1700" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -48855,7 +48855,7 @@
         <v>1.51999998092651</v>
       </c>
       <c r="G1701" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -48881,7 +48881,7 @@
         <v>1.53999996185303</v>
       </c>
       <c r="G1702" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -48907,7 +48907,7 @@
         <v>1.53999996185303</v>
       </c>
       <c r="G1703" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -48933,7 +48933,7 @@
         <v>1.59800004959106</v>
       </c>
       <c r="G1704" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -48959,7 +48959,7 @@
         <v>1.56400001049042</v>
       </c>
       <c r="G1705" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -48985,7 +48985,7 @@
         <v>1.5440000295639</v>
       </c>
       <c r="G1706" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -49011,7 +49011,7 @@
         <v>1.52600002288818</v>
       </c>
       <c r="G1707" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -49037,7 +49037,7 @@
         <v>1.5</v>
       </c>
       <c r="G1708" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -49063,7 +49063,7 @@
         <v>1.46800005435944</v>
       </c>
       <c r="G1709" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -49089,7 +49089,7 @@
         <v>1.432000041008</v>
       </c>
       <c r="G1710" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -49115,7 +49115,7 @@
         <v>1.4559999704361</v>
       </c>
       <c r="G1711" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -49141,7 +49141,7 @@
         <v>1.4559999704361</v>
       </c>
       <c r="G1712" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -49167,7 +49167,7 @@
         <v>1.41799998283386</v>
       </c>
       <c r="G1713" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -49193,7 +49193,7 @@
         <v>1.43400001525879</v>
       </c>
       <c r="G1714" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -49219,7 +49219,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G1715" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -49245,7 +49245,7 @@
         <v>1.41600000858307</v>
       </c>
       <c r="G1716" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -49271,7 +49271,7 @@
         <v>1.37600004673004</v>
       </c>
       <c r="G1717" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -49297,7 +49297,7 @@
         <v>1.41199994087219</v>
       </c>
       <c r="G1718" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -49323,7 +49323,7 @@
         <v>1.46000003814697</v>
       </c>
       <c r="G1719" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -49349,7 +49349,7 @@
         <v>1.5</v>
       </c>
       <c r="G1720" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -49375,7 +49375,7 @@
         <v>1.49000000953674</v>
       </c>
       <c r="G1721" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -49401,7 +49401,7 @@
         <v>1.50999999046326</v>
       </c>
       <c r="G1722" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -49427,7 +49427,7 @@
         <v>1.53600001335144</v>
       </c>
       <c r="G1723" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -49453,7 +49453,7 @@
         <v>1.56599998474121</v>
       </c>
       <c r="G1724" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -49479,7 +49479,7 @@
         <v>1.49800002574921</v>
       </c>
       <c r="G1725" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -49505,7 +49505,7 @@
         <v>1.44400000572205</v>
       </c>
       <c r="G1726" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -49531,7 +49531,7 @@
         <v>1.5</v>
       </c>
       <c r="G1727" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -49557,7 +49557,7 @@
         <v>1.47399997711182</v>
       </c>
       <c r="G1728" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -49583,7 +49583,7 @@
         <v>1.52999997138977</v>
       </c>
       <c r="G1729" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -49609,7 +49609,7 @@
         <v>1.52600002288818</v>
       </c>
       <c r="G1730" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -49635,7 +49635,7 @@
         <v>1.57200002670288</v>
       </c>
       <c r="G1731" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -49661,7 +49661,7 @@
         <v>1.61600005626678</v>
       </c>
       <c r="G1732" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -49687,7 +49687,7 @@
         <v>1.56599998474121</v>
       </c>
       <c r="G1733" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -49713,7 +49713,7 @@
         <v>1.61800003051758</v>
       </c>
       <c r="G1734" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -49739,7 +49739,7 @@
         <v>1.6599999666214</v>
       </c>
       <c r="G1735" t="s">
-        <v>948</v>
+        <v>1169</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -49895,7 +49895,7 @@
         <v>1.61800003051758</v>
       </c>
       <c r="G1741" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -49921,7 +49921,7 @@
         <v>1.62199997901917</v>
       </c>
       <c r="G1742" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -49999,7 +49999,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G1745" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -50051,7 +50051,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G1747" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -50103,7 +50103,7 @@
         <v>1.65600001811981</v>
       </c>
       <c r="G1749" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -50311,7 +50311,7 @@
         <v>1.52400004863739</v>
       </c>
       <c r="G1757" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -50389,7 +50389,7 @@
         <v>1.51999998092651</v>
       </c>
       <c r="G1760" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -50415,7 +50415,7 @@
         <v>1.53199994564056</v>
       </c>
       <c r="G1761" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -50467,7 +50467,7 @@
         <v>1.56599998474121</v>
       </c>
       <c r="G1763" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -50519,7 +50519,7 @@
         <v>1.54999995231628</v>
       </c>
       <c r="G1765" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -50571,7 +50571,7 @@
         <v>1.51999998092651</v>
       </c>
       <c r="G1767" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -50649,7 +50649,7 @@
         <v>1.52799999713898</v>
       </c>
       <c r="G1770" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -50701,7 +50701,7 @@
         <v>1.5</v>
       </c>
       <c r="G1772" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -50909,7 +50909,7 @@
         <v>1.47399997711182</v>
       </c>
       <c r="G1780" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -51039,7 +51039,7 @@
         <v>1.53999996185303</v>
       </c>
       <c r="G1785" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -51143,7 +51143,7 @@
         <v>1.53999996185303</v>
       </c>
       <c r="G1789" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -51169,7 +51169,7 @@
         <v>1.52999997138977</v>
       </c>
       <c r="G1790" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -51221,7 +51221,7 @@
         <v>1.53999996185303</v>
       </c>
       <c r="G1792" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -51273,7 +51273,7 @@
         <v>1.54999995231628</v>
       </c>
       <c r="G1794" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -51351,7 +51351,7 @@
         <v>1.5440000295639</v>
       </c>
       <c r="G1797" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -51377,7 +51377,7 @@
         <v>1.54999995231628</v>
       </c>
       <c r="G1798" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -51403,7 +51403,7 @@
         <v>1.53600001335144</v>
       </c>
       <c r="G1799" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -51507,7 +51507,7 @@
         <v>1.66199994087219</v>
       </c>
       <c r="G1803" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -51559,7 +51559,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G1805" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -51923,7 +51923,7 @@
         <v>1.72399997711182</v>
       </c>
       <c r="G1819" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -51975,7 +51975,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G1821" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -52027,7 +52027,7 @@
         <v>1.75600004196167</v>
       </c>
       <c r="G1823" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -52131,7 +52131,7 @@
         <v>1.74199998378754</v>
       </c>
       <c r="G1827" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -52157,7 +52157,7 @@
         <v>1.73399996757507</v>
       </c>
       <c r="G1828" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -52261,7 +52261,7 @@
         <v>1.69599997997284</v>
       </c>
       <c r="G1832" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -52287,7 +52287,7 @@
         <v>1.64800000190735</v>
       </c>
       <c r="G1833" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -52339,7 +52339,7 @@
         <v>1.61800003051758</v>
       </c>
       <c r="G1835" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -52365,7 +52365,7 @@
         <v>1.62800002098083</v>
       </c>
       <c r="G1836" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -52391,7 +52391,7 @@
         <v>1.61800003051758</v>
       </c>
       <c r="G1837" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -52469,7 +52469,7 @@
         <v>1.73399996757507</v>
       </c>
       <c r="G1840" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -52521,7 +52521,7 @@
         <v>1.79799997806549</v>
       </c>
       <c r="G1842" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -52703,7 +52703,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G1849" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -52885,7 +52885,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G1856" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -53145,7 +53145,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G1866" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -53405,7 +53405,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G1876" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -53535,7 +53535,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G1881" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -62981,7 +62981,7 @@
     </row>
     <row r="2245">
       <c r="A2245" s="1" t="n">
-        <v>45589.6493055556</v>
+        <v>45589.2916666667</v>
       </c>
       <c r="B2245" t="n">
         <v>118201</v>
@@ -62990,7 +62990,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="D2245" t="n">
-        <v>2.27500009536743</v>
+        <v>2.26999998092651</v>
       </c>
       <c r="E2245" t="n">
         <v>2.27500009536743</v>
@@ -63002,6 +63002,32 @@
         <v>1427</v>
       </c>
       <c r="H2245" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2246">
+      <c r="A2246" s="1" t="n">
+        <v>45590.6496064815</v>
+      </c>
+      <c r="B2246" t="n">
+        <v>94118</v>
+      </c>
+      <c r="C2246" t="n">
+        <v>2.27500009536743</v>
+      </c>
+      <c r="D2246" t="n">
+        <v>2.23000001907349</v>
+      </c>
+      <c r="E2246" t="n">
+        <v>2.26999998092651</v>
+      </c>
+      <c r="F2246" t="n">
+        <v>2.23000001907349</v>
+      </c>
+      <c r="G2246" t="s">
+        <v>1424</v>
+      </c>
+      <c r="H2246" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CAI.MI.xlsx
+++ b/data/CAI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="1428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="1427">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07385492324829</t>
+    <t xml:space="preserve">3.07385468482971</t>
   </si>
   <si>
     <t xml:space="preserve">CAI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08614420890808</t>
+    <t xml:space="preserve">3.08614492416382</t>
   </si>
   <si>
     <t xml:space="preserve">3.01786684989929</t>
@@ -59,31 +59,31 @@
     <t xml:space="preserve">2.88131165504456</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94003105163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80620694160461</t>
+    <t xml:space="preserve">2.94003033638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80620646476746</t>
   </si>
   <si>
     <t xml:space="preserve">2.86082863807678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7584125995636</t>
+    <t xml:space="preserve">2.75841212272644</t>
   </si>
   <si>
     <t xml:space="preserve">2.73929476737976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69013524055481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71744632720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.866290807724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76387500762939</t>
+    <t xml:space="preserve">2.69013500213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71744585037231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86629104614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76387476921082</t>
   </si>
   <si>
     <t xml:space="preserve">2.74475693702698</t>
@@ -101,25 +101,25 @@
     <t xml:space="preserve">2.76114368438721</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72563934326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69696283340454</t>
+    <t xml:space="preserve">2.72563910484314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69696259498596</t>
   </si>
   <si>
     <t xml:space="preserve">2.72290802001953</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62868547439575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45935702323914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45799112319946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30095291137695</t>
+    <t xml:space="preserve">2.62868499755859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45935678482056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45799136161804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30095267295837</t>
   </si>
   <si>
     <t xml:space="preserve">2.38971376419067</t>
@@ -128,19 +128,19 @@
     <t xml:space="preserve">2.53992438316345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50441980361938</t>
+    <t xml:space="preserve">2.50442004203796</t>
   </si>
   <si>
     <t xml:space="preserve">2.67511391639709</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81713080406189</t>
+    <t xml:space="preserve">2.81713104248047</t>
   </si>
   <si>
     <t xml:space="preserve">2.7488534450531</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78162670135498</t>
+    <t xml:space="preserve">2.78162693977356</t>
   </si>
   <si>
     <t xml:space="preserve">2.68467283248901</t>
@@ -155,73 +155,73 @@
     <t xml:space="preserve">2.84717345237732</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88404321670532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88540863990784</t>
+    <t xml:space="preserve">2.88404273986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88540840148926</t>
   </si>
   <si>
     <t xml:space="preserve">2.89769864082336</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85126972198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94685840606689</t>
+    <t xml:space="preserve">2.85126996040344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94685792922974</t>
   </si>
   <si>
     <t xml:space="preserve">2.9495894908905</t>
   </si>
   <si>
-    <t xml:space="preserve">3.058833360672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12164902687073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16124987602234</t>
+    <t xml:space="preserve">3.05883359909058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12164878845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16125011444092</t>
   </si>
   <si>
     <t xml:space="preserve">3.18173289299011</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20767879486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1790018081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17217445373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23635458946228</t>
+    <t xml:space="preserve">3.20767855644226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17900252342224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17217421531677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23635530471802</t>
   </si>
   <si>
     <t xml:space="preserve">3.25001072883606</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21041035652161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22269916534424</t>
+    <t xml:space="preserve">3.21040964126587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2226996421814</t>
   </si>
   <si>
     <t xml:space="preserve">3.23089337348938</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22952747344971</t>
+    <t xml:space="preserve">3.22952795028687</t>
   </si>
   <si>
     <t xml:space="preserve">3.14076638221741</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14895987510681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.225430727005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29234266281128</t>
+    <t xml:space="preserve">3.14896011352539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22543048858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29234337806702</t>
   </si>
   <si>
     <t xml:space="preserve">3.21587204933167</t>
@@ -239,28 +239,28 @@
     <t xml:space="preserve">3.36608219146729</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40704870223999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38656616210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33330941200256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34833025932312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32511568069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32375025749207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29780459403992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26366591453552</t>
+    <t xml:space="preserve">3.40704894065857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3865659236908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33330893516541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3483304977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32511591911316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32375073432922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29780507087708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2636661529541</t>
   </si>
   <si>
     <t xml:space="preserve">3.29097723960876</t>
@@ -269,49 +269,49 @@
     <t xml:space="preserve">3.26022291183472</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1918261051178</t>
+    <t xml:space="preserve">3.19182658195496</t>
   </si>
   <si>
     <t xml:space="preserve">3.15620303153992</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1348295211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1733021736145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09208202362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1490786075592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3229193687439</t>
+    <t xml:space="preserve">3.13482975959778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17330265045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09208226203918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14907908439636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32291913032532</t>
   </si>
   <si>
     <t xml:space="preserve">3.34856772422791</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33431816101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31151962280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38419079780579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44403767585754</t>
+    <t xml:space="preserve">3.33431887626648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31152009963989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38419103622437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44403743743896</t>
   </si>
   <si>
     <t xml:space="preserve">3.41981410980225</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43406343460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48108553886414</t>
+    <t xml:space="preserve">3.43406295776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48108625411987</t>
   </si>
   <si>
     <t xml:space="preserve">3.47681093215942</t>
@@ -326,40 +326,40 @@
     <t xml:space="preserve">3.40841484069824</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39844012260437</t>
+    <t xml:space="preserve">3.39844036102295</t>
   </si>
   <si>
     <t xml:space="preserve">3.34714293479919</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20607542991638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02796006202698</t>
+    <t xml:space="preserve">3.20607590675354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02796053886414</t>
   </si>
   <si>
     <t xml:space="preserve">2.94246506690979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89971733093262</t>
+    <t xml:space="preserve">2.8997175693512</t>
   </si>
   <si>
     <t xml:space="preserve">2.89686751365662</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06643319129944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08495736122131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1319797039032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14195394515991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02938532829285</t>
+    <t xml:space="preserve">3.06643295288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08495712280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13197922706604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14195370674133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02938508987427</t>
   </si>
   <si>
     <t xml:space="preserve">2.84984517097473</t>
@@ -371,13 +371,13 @@
     <t xml:space="preserve">3.06500840187073</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16332769393921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96526384353638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95528888702393</t>
+    <t xml:space="preserve">3.16332793235779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96526432037354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95528936386108</t>
   </si>
   <si>
     <t xml:space="preserve">2.9923369884491</t>
@@ -386,40 +386,40 @@
     <t xml:space="preserve">3.12058019638062</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1704523563385</t>
+    <t xml:space="preserve">3.17045259475708</t>
   </si>
   <si>
     <t xml:space="preserve">3.23599910736084</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17757701873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13625454902649</t>
+    <t xml:space="preserve">3.17757725715637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13625431060791</t>
   </si>
   <si>
     <t xml:space="preserve">2.83702087402344</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91966652870178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86551904678345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90399241447449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84129571914673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87549352645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83559584617615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79854774475098</t>
+    <t xml:space="preserve">2.9196662902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86551928520203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90399217605591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84129524230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87549328804016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83559560775757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79854798316956</t>
   </si>
   <si>
     <t xml:space="preserve">2.73442625999451</t>
@@ -428,10 +428,10 @@
     <t xml:space="preserve">2.77717399597168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88546824455261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87406897544861</t>
+    <t xml:space="preserve">2.88546800613403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87406873703003</t>
   </si>
   <si>
     <t xml:space="preserve">2.84272050857544</t>
@@ -446,7 +446,7 @@
     <t xml:space="preserve">2.92109107971191</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9410400390625</t>
+    <t xml:space="preserve">2.94103980064392</t>
   </si>
   <si>
     <t xml:space="preserve">2.86694431304932</t>
@@ -455,13 +455,13 @@
     <t xml:space="preserve">2.85839486122131</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86409449577332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81707191467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76007509231567</t>
+    <t xml:space="preserve">2.86409425735474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81707167625427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76007485389709</t>
   </si>
   <si>
     <t xml:space="preserve">2.80567264556885</t>
@@ -476,10 +476,10 @@
     <t xml:space="preserve">2.77859902381897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68597865104675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62470698356628</t>
+    <t xml:space="preserve">2.68597912788391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62470722198486</t>
   </si>
   <si>
     <t xml:space="preserve">2.59478378295898</t>
@@ -488,28 +488,28 @@
     <t xml:space="preserve">2.5477614402771</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58480930328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65605568885803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65463042259216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63610672950745</t>
+    <t xml:space="preserve">2.58480954170227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65605545043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65463066101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63610649108887</t>
   </si>
   <si>
     <t xml:space="preserve">2.60333347320557</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57198476791382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45086693763733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44516706466675</t>
+    <t xml:space="preserve">2.5719850063324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45086669921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44516682624817</t>
   </si>
   <si>
     <t xml:space="preserve">2.42379307746887</t>
@@ -524,10 +524,10 @@
     <t xml:space="preserve">2.45941615104675</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61900758743286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61045813560486</t>
+    <t xml:space="preserve">2.61900782585144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61045789718628</t>
   </si>
   <si>
     <t xml:space="preserve">2.54918646812439</t>
@@ -539,16 +539,16 @@
     <t xml:space="preserve">2.5506112575531</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5235378742218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57341027259827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64465594291687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6931037902832</t>
+    <t xml:space="preserve">2.52353763580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57340979576111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64465618133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69310331344604</t>
   </si>
   <si>
     <t xml:space="preserve">2.64038157463074</t>
@@ -557,79 +557,79 @@
     <t xml:space="preserve">2.63895630836487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62898206710815</t>
+    <t xml:space="preserve">2.62898182868958</t>
   </si>
   <si>
     <t xml:space="preserve">2.63325667381287</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67172980308533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74867558479309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73727583885193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67315435409546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70307803153992</t>
+    <t xml:space="preserve">2.67173004150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74867534637451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73727631568909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67315483093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70307779312134</t>
   </si>
   <si>
     <t xml:space="preserve">2.71447730064392</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70735239982605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65178060531616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66887998580933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63753151893616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65748047828674</t>
+    <t xml:space="preserve">2.70735287666321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65178084373474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66887974739075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63753128051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65748023986816</t>
   </si>
   <si>
     <t xml:space="preserve">2.56486082077026</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52211284637451</t>
+    <t xml:space="preserve">2.52211260795593</t>
   </si>
   <si>
     <t xml:space="preserve">2.5149884223938</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41524362564087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43234300613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43661737442017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39386963844299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39244508743286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35112190246582</t>
+    <t xml:space="preserve">2.41524386405945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43234276771545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43661785125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39386987686157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39244484901428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3511221408844</t>
   </si>
   <si>
     <t xml:space="preserve">2.42236828804016</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53066229820251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57768487930298</t>
+    <t xml:space="preserve">2.53066253662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5776846408844</t>
   </si>
   <si>
     <t xml:space="preserve">2.58908414840698</t>
@@ -638,28 +638,28 @@
     <t xml:space="preserve">2.63468170166016</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69595336914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68027949333191</t>
+    <t xml:space="preserve">2.6959536075592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68027925491333</t>
   </si>
   <si>
     <t xml:space="preserve">2.69167876243591</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69737815856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74012589454651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74297571182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72445178031921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7230269908905</t>
+    <t xml:space="preserve">2.69737839698792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74012613296509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74297595024109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72445154190063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72302675247192</t>
   </si>
   <si>
     <t xml:space="preserve">2.7287266254425</t>
@@ -686,73 +686,73 @@
     <t xml:space="preserve">2.60760831832886</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5833842754364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55346155166626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5206880569458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60618305206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56058573722839</t>
+    <t xml:space="preserve">2.58338451385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55346131324768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52068781852722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60618329048157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56058597564697</t>
   </si>
   <si>
     <t xml:space="preserve">2.54491186141968</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54063677787781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50501370429993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49788928031921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50643873214722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53351235389709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57625985145569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60048365592957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59193396568298</t>
+    <t xml:space="preserve">2.54063701629639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50501394271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49788904190063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50643849372864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53351211547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57625961303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60048389434814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5919337272644</t>
   </si>
   <si>
     <t xml:space="preserve">2.58195948600769</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5591607093811</t>
+    <t xml:space="preserve">2.55916118621826</t>
   </si>
   <si>
     <t xml:space="preserve">2.58623433113098</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53636193275452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48506498336792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54348683357239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68740391731262</t>
+    <t xml:space="preserve">2.5363621711731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48506474494934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54348659515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6874041557312</t>
   </si>
   <si>
     <t xml:space="preserve">2.69452834129333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75722503662109</t>
+    <t xml:space="preserve">2.75722455978394</t>
   </si>
   <si>
     <t xml:space="preserve">2.77147459983826</t>
@@ -761,7 +761,7 @@
     <t xml:space="preserve">2.79712295532227</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78857350349426</t>
+    <t xml:space="preserve">2.78857326507568</t>
   </si>
   <si>
     <t xml:space="preserve">2.79997277259827</t>
@@ -770,52 +770,52 @@
     <t xml:space="preserve">2.83132100105286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9054172039032</t>
+    <t xml:space="preserve">2.90541696548462</t>
   </si>
   <si>
     <t xml:space="preserve">3.03508496284485</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06215858459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15477824211121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29727053642273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25737309455872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07783269882202</t>
+    <t xml:space="preserve">3.06215834617615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15477848052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29727029800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25737261772156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07783246040344</t>
   </si>
   <si>
     <t xml:space="preserve">3.16760301589966</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16190314292908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16047787666321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21889996528625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22174978256226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27589678764343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28159666061401</t>
+    <t xml:space="preserve">3.16190338134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16047811508179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21889972686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2217493057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27589702606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28159642219543</t>
   </si>
   <si>
     <t xml:space="preserve">3.26877212524414</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23172378540039</t>
+    <t xml:space="preserve">3.23172402381897</t>
   </si>
   <si>
     <t xml:space="preserve">3.17900204658508</t>
@@ -824,10 +824,10 @@
     <t xml:space="preserve">3.12913012504578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19610142707825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10063171386719</t>
+    <t xml:space="preserve">3.19610118865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10063147544861</t>
   </si>
   <si>
     <t xml:space="preserve">3.1975257396698</t>
@@ -836,31 +836,31 @@
     <t xml:space="preserve">3.23884892463684</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22602438926697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29157066345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3257691860199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28302121162415</t>
+    <t xml:space="preserve">3.22602486610413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29157137870789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32576894760132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28302097320557</t>
   </si>
   <si>
     <t xml:space="preserve">3.31864452362061</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34001874923706</t>
+    <t xml:space="preserve">3.34001851081848</t>
   </si>
   <si>
     <t xml:space="preserve">3.39559054374695</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35569262504578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23457384109497</t>
+    <t xml:space="preserve">3.35569286346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23457407951355</t>
   </si>
   <si>
     <t xml:space="preserve">3.27019739151001</t>
@@ -872,79 +872,79 @@
     <t xml:space="preserve">3.06358361244202</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17488980293274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09706687927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11147832870483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13886046409607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14462518692017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11003732681274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1186842918396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07112574577332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03797912597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04806709289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99762630462646</t>
+    <t xml:space="preserve">3.17489004135132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09706664085388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11147809028625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13886070251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14462542533875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11003708839417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11868453025818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07112598419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03797888755798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04806733131409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99762582778931</t>
   </si>
   <si>
     <t xml:space="preserve">3.00627326965332</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97744989395142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91836261749268</t>
+    <t xml:space="preserve">2.97744965553284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91836214065552</t>
   </si>
   <si>
     <t xml:space="preserve">2.8722448348999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90395045280457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8909797668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87512707710266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84918642044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92700910568237</t>
+    <t xml:space="preserve">2.90395069122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89098024368286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87512731552124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84918594360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92700886726379</t>
   </si>
   <si>
     <t xml:space="preserve">2.9068329334259</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86936283111572</t>
+    <t xml:space="preserve">2.86936259269714</t>
   </si>
   <si>
     <t xml:space="preserve">2.87800931930542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85783338546753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8535099029541</t>
+    <t xml:space="preserve">2.85783314704895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85350966453552</t>
   </si>
   <si>
     <t xml:space="preserve">2.87080359458923</t>
@@ -953,19 +953,19 @@
     <t xml:space="preserve">2.82468628883362</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79298043251038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76415729522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81027460098267</t>
+    <t xml:space="preserve">2.79298067092896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76415705680847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81027483940125</t>
   </si>
   <si>
     <t xml:space="preserve">2.80018639564514</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79153966903687</t>
+    <t xml:space="preserve">2.79153943061829</t>
   </si>
   <si>
     <t xml:space="preserve">2.72956943511963</t>
@@ -977,7 +977,7 @@
     <t xml:space="preserve">2.75983381271362</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74686312675476</t>
+    <t xml:space="preserve">2.74686360359192</t>
   </si>
   <si>
     <t xml:space="preserve">2.95439124107361</t>
@@ -986,16 +986,16 @@
     <t xml:space="preserve">2.92124438285828</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92845034599304</t>
+    <t xml:space="preserve">2.92845010757446</t>
   </si>
   <si>
     <t xml:space="preserve">2.9255678653717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83189249038696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84342169761658</t>
+    <t xml:space="preserve">2.83189225196838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.843421459198</t>
   </si>
   <si>
     <t xml:space="preserve">2.80450987815857</t>
@@ -1016,7 +1016,7 @@
     <t xml:space="preserve">2.80883359909058</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84053897857666</t>
+    <t xml:space="preserve">2.84053921699524</t>
   </si>
   <si>
     <t xml:space="preserve">2.85495066642761</t>
@@ -1025,67 +1025,67 @@
     <t xml:space="preserve">2.86503911018372</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87656831741333</t>
+    <t xml:space="preserve">2.87656855583191</t>
   </si>
   <si>
     <t xml:space="preserve">2.90827369689941</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83909797668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73821616172791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7555103302002</t>
+    <t xml:space="preserve">2.83909821510315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73821640014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75551009178162</t>
   </si>
   <si>
     <t xml:space="preserve">2.76848101615906</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70218706130981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72668695449829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71371626853943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7252459526062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68056988716125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67480516433716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67336368560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65895247459412</t>
+    <t xml:space="preserve">2.70218753814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72668719291687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71371650695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72524571418762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68056964874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67480492591858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67336392402649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65895199775696</t>
   </si>
   <si>
     <t xml:space="preserve">2.67624616622925</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75406932830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7944221496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79874563217163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74542236328125</t>
+    <t xml:space="preserve">2.75406908988953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79442191123962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79874515533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74542212486267</t>
   </si>
   <si>
     <t xml:space="preserve">2.78577494621277</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9226861000061</t>
+    <t xml:space="preserve">2.92268586158752</t>
   </si>
   <si>
     <t xml:space="preserve">3.02500867843628</t>
@@ -1094,28 +1094,28 @@
     <t xml:space="preserve">3.02644944190979</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0696849822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1057140827179</t>
+    <t xml:space="preserve">3.06968474388123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10571360588074</t>
   </si>
   <si>
     <t xml:space="preserve">3.12156653404236</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17056632041931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14174294471741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13597869873047</t>
+    <t xml:space="preserve">3.17056655883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14174318313599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13597846031189</t>
   </si>
   <si>
     <t xml:space="preserve">3.09850811958313</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05671429634094</t>
+    <t xml:space="preserve">3.05671405792236</t>
   </si>
   <si>
     <t xml:space="preserve">3.07689023017883</t>
@@ -1124,10 +1124,10 @@
     <t xml:space="preserve">3.08409667015076</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07400798797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04086112976074</t>
+    <t xml:space="preserve">3.07400822639465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04086089134216</t>
   </si>
   <si>
     <t xml:space="preserve">3.05383157730103</t>
@@ -1136,7 +1136,7 @@
     <t xml:space="preserve">3.17921352386475</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12589001655579</t>
+    <t xml:space="preserve">3.12588977813721</t>
   </si>
   <si>
     <t xml:space="preserve">3.05527305603027</t>
@@ -1145,37 +1145,37 @@
     <t xml:space="preserve">3.07977294921875</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14894843101501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16191935539246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14750742912292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0999493598938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13453698158264</t>
+    <t xml:space="preserve">3.14894866943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16191911697388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14750814437866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09994912147522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13453722000122</t>
   </si>
   <si>
     <t xml:space="preserve">3.15903687477112</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15471339225769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12877225875854</t>
+    <t xml:space="preserve">3.15471363067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12877249717712</t>
   </si>
   <si>
     <t xml:space="preserve">3.11580181121826</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10427260398865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12012553215027</t>
+    <t xml:space="preserve">3.10427284240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12012529373169</t>
   </si>
   <si>
     <t xml:space="preserve">3.05815529823303</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">3.00483226776123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9716854095459</t>
+    <t xml:space="preserve">2.97168564796448</t>
   </si>
   <si>
     <t xml:space="preserve">2.7843337059021</t>
@@ -1193,7 +1193,7 @@
     <t xml:space="preserve">2.82180404663086</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86792159080505</t>
+    <t xml:space="preserve">2.8679211139679</t>
   </si>
   <si>
     <t xml:space="preserve">2.89674472808838</t>
@@ -1202,37 +1202,37 @@
     <t xml:space="preserve">2.88233304023743</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85062718391418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82900953292847</t>
+    <t xml:space="preserve">2.85062766075134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82901000976562</t>
   </si>
   <si>
     <t xml:space="preserve">2.82324528694153</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70362830162048</t>
+    <t xml:space="preserve">2.70362854003906</t>
   </si>
   <si>
     <t xml:space="preserve">2.72236371040344</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70506930351257</t>
+    <t xml:space="preserve">2.70506954193115</t>
   </si>
   <si>
     <t xml:space="preserve">2.71227550506592</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6560697555542</t>
+    <t xml:space="preserve">2.65606999397278</t>
   </si>
   <si>
     <t xml:space="preserve">2.69858431816101</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76703953742981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78505396842957</t>
+    <t xml:space="preserve">2.76703977584839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78505420684814</t>
   </si>
   <si>
     <t xml:space="preserve">2.72740745544434</t>
@@ -1241,7 +1241,7 @@
     <t xml:space="preserve">2.69498133659363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7346134185791</t>
+    <t xml:space="preserve">2.73461365699768</t>
   </si>
   <si>
     <t xml:space="preserve">2.70579028129578</t>
@@ -1250,31 +1250,31 @@
     <t xml:space="preserve">2.73101043701172</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72020196914673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79226016998291</t>
+    <t xml:space="preserve">2.72020173072815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79225993156433</t>
   </si>
   <si>
     <t xml:space="preserve">2.84630370140076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77424550056458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77064251899719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.709392786026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74181962013245</t>
+    <t xml:space="preserve">2.77424573898315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77064275741577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70939302444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74181938171387</t>
   </si>
   <si>
     <t xml:space="preserve">2.71299600601196</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63373160362244</t>
+    <t xml:space="preserve">2.63373184204102</t>
   </si>
   <si>
     <t xml:space="preserve">2.62652587890625</t>
@@ -1289,22 +1289,22 @@
     <t xml:space="preserve">2.64814329147339</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58689379692078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5724823474884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57968783378601</t>
+    <t xml:space="preserve">2.5868935585022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57248210906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57968807220459</t>
   </si>
   <si>
     <t xml:space="preserve">2.55807042121887</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56167340278625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55086469650269</t>
+    <t xml:space="preserve">2.56167364120483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55086445808411</t>
   </si>
   <si>
     <t xml:space="preserve">2.56887936592102</t>
@@ -1316,19 +1316,19 @@
     <t xml:space="preserve">2.37432193756104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30946898460388</t>
+    <t xml:space="preserve">2.30946922302246</t>
   </si>
   <si>
     <t xml:space="preserve">2.39593935012817</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41755700111389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41395378112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36351275444031</t>
+    <t xml:space="preserve">2.41755676269531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41395354270935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36351299285889</t>
   </si>
   <si>
     <t xml:space="preserve">2.35991024971008</t>
@@ -1352,13 +1352,13 @@
     <t xml:space="preserve">2.44637989997864</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42115950584412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50762987136841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59409952163696</t>
+    <t xml:space="preserve">2.4211597442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50762963294983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59409999847412</t>
   </si>
   <si>
     <t xml:space="preserve">2.56527638435364</t>
@@ -1367,7 +1367,7 @@
     <t xml:space="preserve">2.63012909889221</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65174603462219</t>
+    <t xml:space="preserve">2.65174627304077</t>
   </si>
   <si>
     <t xml:space="preserve">2.62292313575745</t>
@@ -1376,19 +1376,19 @@
     <t xml:space="preserve">2.60130548477173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60851144790649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63733458518982</t>
+    <t xml:space="preserve">2.60851120948792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6373348236084</t>
   </si>
   <si>
     <t xml:space="preserve">2.68417263031006</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6661581993103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69137835502625</t>
+    <t xml:space="preserve">2.66615796089172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69137811660767</t>
   </si>
   <si>
     <t xml:space="preserve">2.67696666717529</t>
@@ -1397,16 +1397,16 @@
     <t xml:space="preserve">2.73281192779541</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62172198295593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49582004547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48841404914856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40324521064758</t>
+    <t xml:space="preserve">2.62172174453735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49581980705261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48841428756714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40324544906616</t>
   </si>
   <si>
     <t xml:space="preserve">2.43657207489014</t>
@@ -1415,37 +1415,37 @@
     <t xml:space="preserve">2.45879006385803</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39213609695435</t>
+    <t xml:space="preserve">2.39213633537292</t>
   </si>
   <si>
     <t xml:space="preserve">2.40694832801819</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36991786956787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29956102371216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21068906784058</t>
+    <t xml:space="preserve">2.36991810798645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29956126213074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21068930625916</t>
   </si>
   <si>
     <t xml:space="preserve">2.32548236846924</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37732434272766</t>
+    <t xml:space="preserve">2.37732410430908</t>
   </si>
   <si>
     <t xml:space="preserve">2.38843321800232</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4291660785675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41805720329285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46989893913269</t>
+    <t xml:space="preserve">2.42916631698608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41805696487427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46989917755127</t>
   </si>
   <si>
     <t xml:space="preserve">2.5032262802124</t>
@@ -1454,7 +1454,7 @@
     <t xml:space="preserve">2.52174115180969</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53285002708435</t>
+    <t xml:space="preserve">2.53285026550293</t>
   </si>
   <si>
     <t xml:space="preserve">2.57728600502014</t>
@@ -1466,7 +1466,7 @@
     <t xml:space="preserve">2.45508718490601</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58098888397217</t>
+    <t xml:space="preserve">2.58098912239075</t>
   </si>
   <si>
     <t xml:space="preserve">2.54395914077759</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">2.51433491706848</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48100805282593</t>
+    <t xml:space="preserve">2.48100781440735</t>
   </si>
   <si>
     <t xml:space="preserve">2.46619606018066</t>
@@ -1502,10 +1502,10 @@
     <t xml:space="preserve">2.35140299797058</t>
   </si>
   <si>
-    <t xml:space="preserve">2.366215467453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34399724006653</t>
+    <t xml:space="preserve">2.36621522903442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34399747848511</t>
   </si>
   <si>
     <t xml:space="preserve">2.35880899429321</t>
@@ -1520,10 +1520,10 @@
     <t xml:space="preserve">2.30696749687195</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31066989898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32177901268005</t>
+    <t xml:space="preserve">2.3106701374054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32177925109863</t>
   </si>
   <si>
     <t xml:space="preserve">2.39954209327698</t>
@@ -1535,16 +1535,16 @@
     <t xml:space="preserve">2.41435408592224</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37362098693848</t>
+    <t xml:space="preserve">2.37362122535706</t>
   </si>
   <si>
     <t xml:space="preserve">2.31807637214661</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29585838317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28104615211487</t>
+    <t xml:space="preserve">2.29585814476013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28104639053345</t>
   </si>
   <si>
     <t xml:space="preserve">2.26993727684021</t>
@@ -1553,37 +1553,37 @@
     <t xml:space="preserve">2.30326414108276</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32918500900269</t>
+    <t xml:space="preserve">2.32918524742126</t>
   </si>
   <si>
     <t xml:space="preserve">2.27734327316284</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26623439788818</t>
+    <t xml:space="preserve">2.2662341594696</t>
   </si>
   <si>
     <t xml:space="preserve">2.29215526580811</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27364015579224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2884521484375</t>
+    <t xml:space="preserve">2.27364039421082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28845191001892</t>
   </si>
   <si>
     <t xml:space="preserve">2.28474926948547</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38473033905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20698642730713</t>
+    <t xml:space="preserve">2.38473010063171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20698618888855</t>
   </si>
   <si>
     <t xml:space="preserve">2.24031329154968</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15514445304871</t>
+    <t xml:space="preserve">2.15514421463013</t>
   </si>
   <si>
     <t xml:space="preserve">2.13292646408081</t>
@@ -1604,13 +1604,13 @@
     <t xml:space="preserve">2.10700535774231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0625696182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9885094165802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95147955417633</t>
+    <t xml:space="preserve">2.06256937980652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98850929737091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95147979259491</t>
   </si>
   <si>
     <t xml:space="preserve">2.02553939819336</t>
@@ -1622,10 +1622,10 @@
     <t xml:space="preserve">2.04775738716125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06997513771057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12922334671021</t>
+    <t xml:space="preserve">2.06997561454773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12922358512878</t>
   </si>
   <si>
     <t xml:space="preserve">2.14403533935547</t>
@@ -1634,10 +1634,10 @@
     <t xml:space="preserve">2.13662958145142</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18847107887268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21439218521118</t>
+    <t xml:space="preserve">2.18847131729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21439242362976</t>
   </si>
   <si>
     <t xml:space="preserve">2.23290729522705</t>
@@ -1649,34 +1649,34 @@
     <t xml:space="preserve">2.20328330993652</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19958019256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21809506416321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11811399459839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07367825508118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11070823669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24771928787231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3365912437439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51063203811646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65504908561707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68096995353699</t>
+    <t xml:space="preserve">2.19958066940308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21809530258179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11811447143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07367849349976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11070799827576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24771952629089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33659100532532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51063227653503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65504932403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68096971511841</t>
   </si>
   <si>
     <t xml:space="preserve">2.60320711135864</t>
@@ -1685,34 +1685,31 @@
     <t xml:space="preserve">2.62912797927856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66615772247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65875220298767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65134572982788</t>
+    <t xml:space="preserve">2.65875196456909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65134620666504</t>
   </si>
   <si>
     <t xml:space="preserve">2.62542486190796</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71800017356873</t>
+    <t xml:space="preserve">2.71799993515015</t>
   </si>
   <si>
     <t xml:space="preserve">2.70318818092346</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72910904884338</t>
+    <t xml:space="preserve">2.7291088104248</t>
   </si>
   <si>
     <t xml:space="preserve">2.69207882881165</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71429681777954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75503015518188</t>
+    <t xml:space="preserve">2.7142972946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75502991676331</t>
   </si>
   <si>
     <t xml:space="preserve">2.80316877365112</t>
@@ -1721,25 +1718,25 @@
     <t xml:space="preserve">2.81798100471497</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84390163421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87352585792542</t>
+    <t xml:space="preserve">2.84390187263489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87352609634399</t>
   </si>
   <si>
     <t xml:space="preserve">2.86241674423218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88093185424805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76243591308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76984190940857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79946613311768</t>
+    <t xml:space="preserve">2.88093209266663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76243615150452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76984214782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7994658946991</t>
   </si>
   <si>
     <t xml:space="preserve">2.79205989837646</t>
@@ -1751,13 +1748,13 @@
     <t xml:space="preserve">2.79576301574707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75873279571533</t>
+    <t xml:space="preserve">2.75873303413391</t>
   </si>
   <si>
     <t xml:space="preserve">2.85871386528015</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90314960479736</t>
+    <t xml:space="preserve">2.90314984321594</t>
   </si>
   <si>
     <t xml:space="preserve">2.89574384689331</t>
@@ -1766,13 +1763,13 @@
     <t xml:space="preserve">2.90685272216797</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88833808898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96239757537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98091292381287</t>
+    <t xml:space="preserve">2.88833785057068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.962397813797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98091268539429</t>
   </si>
   <si>
     <t xml:space="preserve">2.91796183586121</t>
@@ -1784,7 +1781,7 @@
     <t xml:space="preserve">2.95128870010376</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93647694587708</t>
+    <t xml:space="preserve">2.9364767074585</t>
   </si>
   <si>
     <t xml:space="preserve">2.95499181747437</t>
@@ -1793,19 +1790,19 @@
     <t xml:space="preserve">2.93277382850647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91055607795715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96980404853821</t>
+    <t xml:space="preserve">2.91055560112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96980381011963</t>
   </si>
   <si>
     <t xml:space="preserve">2.97720980644226</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9401798248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89944696426392</t>
+    <t xml:space="preserve">2.94018006324768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89944672584534</t>
   </si>
   <si>
     <t xml:space="preserve">2.81057500839233</t>
@@ -1814,22 +1811,22 @@
     <t xml:space="preserve">2.8661196231842</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80687165260315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83279275894165</t>
+    <t xml:space="preserve">2.80687189102173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83279299736023</t>
   </si>
   <si>
     <t xml:space="preserve">2.85501074790955</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71059370040894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70689105987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61061310768127</t>
+    <t xml:space="preserve">2.71059417724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70689082145691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6106128692627</t>
   </si>
   <si>
     <t xml:space="preserve">2.6402370929718</t>
@@ -1844,22 +1841,22 @@
     <t xml:space="preserve">2.61801910400391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69578194618225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68837594985962</t>
+    <t xml:space="preserve">2.69578218460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6883761882782</t>
   </si>
   <si>
     <t xml:space="preserve">2.6143159866333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56988000869751</t>
+    <t xml:space="preserve">2.56988024711609</t>
   </si>
   <si>
     <t xml:space="preserve">2.49211692810059</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50692892074585</t>
+    <t xml:space="preserve">2.50692915916443</t>
   </si>
   <si>
     <t xml:space="preserve">2.34770011901855</t>
@@ -1874,10 +1871,13 @@
     <t xml:space="preserve">2.19587731361389</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29948091506958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21777319908142</t>
+    <t xml:space="preserve">2.299480676651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21777296066284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1477382183075</t>
   </si>
   <si>
     <t xml:space="preserve">2.10883021354675</t>
@@ -1886,43 +1886,43 @@
     <t xml:space="preserve">2.12439346313477</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08937573432922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10104846954346</t>
+    <t xml:space="preserve">2.0893759727478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10104870796204</t>
   </si>
   <si>
     <t xml:space="preserve">2.10493922233582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09326672554016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12050247192383</t>
+    <t xml:space="preserve">2.09326696395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12050271034241</t>
   </si>
   <si>
     <t xml:space="preserve">2.13995671272278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12828421592712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07770347595215</t>
+    <t xml:space="preserve">2.12828397750854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07770371437073</t>
   </si>
   <si>
     <t xml:space="preserve">2.05046772956848</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04657697677612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03490424156189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05435848236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03101325035095</t>
+    <t xml:space="preserve">2.04657673835754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03490447998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05435872077942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03101348876953</t>
   </si>
   <si>
     <t xml:space="preserve">2.02323174476624</t>
@@ -1934,13 +1934,13 @@
     <t xml:space="preserve">2.04268598556519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22944593429565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18664646148682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96876001358032</t>
+    <t xml:space="preserve">2.22944569587708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18664693832397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9687602519989</t>
   </si>
   <si>
     <t xml:space="preserve">2.00377774238586</t>
@@ -1949,49 +1949,49 @@
     <t xml:space="preserve">1.92985188961029</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02712273597717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94152426719666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84425342082977</t>
+    <t xml:space="preserve">2.02712249755859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94152414798737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84425377845764</t>
   </si>
   <si>
     <t xml:space="preserve">1.79367291927338</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76643681526184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8092360496521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75087368488312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74698269367218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69251108169556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78978192806244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82090854644775</t>
+    <t xml:space="preserve">1.76643705368042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80923616886139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75087380409241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74698281288147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69251132011414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78978180885315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82090866565704</t>
   </si>
   <si>
     <t xml:space="preserve">1.73920106887817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74309206008911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69640207290649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7119654417038</t>
+    <t xml:space="preserve">1.7430921792984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69640219211578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71196556091309</t>
   </si>
   <si>
     <t xml:space="preserve">1.7197470664978</t>
@@ -2003,16 +2003,16 @@
     <t xml:space="preserve">1.78589117527008</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73141944408417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71585607528687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73531031608582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78200030326843</t>
+    <t xml:space="preserve">1.73141968250275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71585619449615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7353104352951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78200042247772</t>
   </si>
   <si>
     <t xml:space="preserve">1.8325811624527</t>
@@ -2030,64 +2030,64 @@
     <t xml:space="preserve">1.83647191524506</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87927114963531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79756355285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77032780647278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82869017124176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75476455688477</t>
+    <t xml:space="preserve">1.8792712688446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79756367206573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77032792568207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82869029045105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75476467609406</t>
   </si>
   <si>
     <t xml:space="preserve">1.75865530967712</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76254618167877</t>
+    <t xml:space="preserve">1.76254630088806</t>
   </si>
   <si>
     <t xml:space="preserve">1.80534529685974</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8170177936554</t>
+    <t xml:space="preserve">1.81701803207397</t>
   </si>
   <si>
     <t xml:space="preserve">1.8247994184494</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91428852081299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93374264240265</t>
+    <t xml:space="preserve">1.91428875923157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93374276161194</t>
   </si>
   <si>
     <t xml:space="preserve">1.89094352722168</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87538039684296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90650677680969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89483428001404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85981702804565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92207038402557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01155924797058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16719245910645</t>
+    <t xml:space="preserve">1.87538015842438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90650689601898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89483416080475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85981714725494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92207050323486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01155948638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16719269752502</t>
   </si>
   <si>
     <t xml:space="preserve">2.16330170631409</t>
@@ -2096,10 +2096,10 @@
     <t xml:space="preserve">2.08159422874451</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06214022636414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13217520713806</t>
+    <t xml:space="preserve">2.06213998794556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13217496871948</t>
   </si>
   <si>
     <t xml:space="preserve">2.2099916934967</t>
@@ -2108,67 +2108,67 @@
     <t xml:space="preserve">2.19053769111633</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15551996231079</t>
+    <t xml:space="preserve">2.15552020072937</t>
   </si>
   <si>
     <t xml:space="preserve">2.19831919670105</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1710832118988</t>
+    <t xml:space="preserve">2.17108345031738</t>
   </si>
   <si>
     <t xml:space="preserve">2.14384770393372</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11272096633911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08548498153687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01545000076294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98821437358856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15941095352173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13606572151184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01934099197388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87148928642273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91039752960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92596113681793</t>
+    <t xml:space="preserve">2.11272072792053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08548521995544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01545023918152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98821449279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15941119194031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13606595993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01934123039246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87148940563202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91039776802063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92596101760864</t>
   </si>
   <si>
     <t xml:space="preserve">1.89872527122498</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95319676399231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99988663196564</t>
+    <t xml:space="preserve">1.9531968832016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99988698959351</t>
   </si>
   <si>
     <t xml:space="preserve">1.95708775520325</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96486949920654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99210512638092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72752869129181</t>
+    <t xml:space="preserve">1.96486961841583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99210524559021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7275288105011</t>
   </si>
   <si>
     <t xml:space="preserve">1.68862056732178</t>
@@ -2177,10 +2177,10 @@
     <t xml:space="preserve">1.62636709213257</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59524047374725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.542325258255</t>
+    <t xml:space="preserve">1.59524035453796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54232513904572</t>
   </si>
   <si>
     <t xml:space="preserve">1.48940992355347</t>
@@ -2192,22 +2192,22 @@
     <t xml:space="preserve">1.33844566345215</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30420649051666</t>
+    <t xml:space="preserve">1.30420637130737</t>
   </si>
   <si>
     <t xml:space="preserve">1.27619230747223</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09098887443542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16102373600006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08009445667267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05986213684082</t>
+    <t xml:space="preserve">1.09098875522614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16102385520935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08009457588196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05986225605011</t>
   </si>
   <si>
     <t xml:space="preserve">1.0847635269165</t>
@@ -2216,31 +2216,31 @@
     <t xml:space="preserve">1.10188317298889</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22483348846436</t>
+    <t xml:space="preserve">1.22483336925507</t>
   </si>
   <si>
     <t xml:space="preserve">1.31976974010468</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32910776138306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35400903224945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26685428619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27152323722839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32288241386414</t>
+    <t xml:space="preserve">1.32910764217377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35400891304016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26685440540314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27152335643768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32288253307343</t>
   </si>
   <si>
     <t xml:space="preserve">1.28864312171936</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28397405147552</t>
+    <t xml:space="preserve">1.28397417068481</t>
   </si>
   <si>
     <t xml:space="preserve">1.29331207275391</t>
@@ -2249,7 +2249,7 @@
     <t xml:space="preserve">1.39291727542877</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36179065704346</t>
+    <t xml:space="preserve">1.36179077625275</t>
   </si>
   <si>
     <t xml:space="preserve">1.26062905788422</t>
@@ -2267,16 +2267,16 @@
     <t xml:space="preserve">1.29953730106354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31354427337646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29175579547882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28241777420044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2295024394989</t>
+    <t xml:space="preserve">1.31354439258575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29175567626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28241765499115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22950255870819</t>
   </si>
   <si>
     <t xml:space="preserve">1.23884046077728</t>
@@ -2285,16 +2285,16 @@
     <t xml:space="preserve">1.24350941181183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20927011966705</t>
+    <t xml:space="preserve">1.20927023887634</t>
   </si>
   <si>
     <t xml:space="preserve">1.17503070831299</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1330099105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10343956947327</t>
+    <t xml:space="preserve">1.13300979137421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10343945026398</t>
   </si>
   <si>
     <t xml:space="preserve">1.10499584674835</t>
@@ -2303,25 +2303,25 @@
     <t xml:space="preserve">1.08631992340088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05674958229065</t>
+    <t xml:space="preserve">1.05674970149994</t>
   </si>
   <si>
     <t xml:space="preserve">1.06764388084412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12211561203003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10655212402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14234781265259</t>
+    <t xml:space="preserve">1.12211549282074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10655236244202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14234793186188</t>
   </si>
   <si>
     <t xml:space="preserve">1.15012955665588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13923525810242</t>
+    <t xml:space="preserve">1.13923513889313</t>
   </si>
   <si>
     <t xml:space="preserve">1.19837582111359</t>
@@ -2339,7 +2339,7 @@
     <t xml:space="preserve">1.28708684444427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27930510044098</t>
+    <t xml:space="preserve">1.27930498123169</t>
   </si>
   <si>
     <t xml:space="preserve">1.17969989776611</t>
@@ -2348,16 +2348,16 @@
     <t xml:space="preserve">1.16413652896881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23572778701782</t>
+    <t xml:space="preserve">1.23572790622711</t>
   </si>
   <si>
     <t xml:space="preserve">1.20615744590759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20771384239197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18748152256012</t>
+    <t xml:space="preserve">1.20771372318268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18748140335083</t>
   </si>
   <si>
     <t xml:space="preserve">1.21082651615143</t>
@@ -2366,22 +2366,22 @@
     <t xml:space="preserve">1.17814350128174</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18592524528503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13612246513367</t>
+    <t xml:space="preserve">1.18592512607574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13612258434296</t>
   </si>
   <si>
     <t xml:space="preserve">1.15791118144989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1407915353775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18436872959137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17036175727844</t>
+    <t xml:space="preserve">1.14079141616821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18436884880066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17036187648773</t>
   </si>
   <si>
     <t xml:space="preserve">1.14546048641205</t>
@@ -2390,22 +2390,22 @@
     <t xml:space="preserve">1.16724920272827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1734744310379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15168583393097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17191827297211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16569268703461</t>
+    <t xml:space="preserve">1.17347455024719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15168571472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17191815376282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1656928062439</t>
   </si>
   <si>
     <t xml:space="preserve">1.15635478496552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1252281665802</t>
+    <t xml:space="preserve">1.12522828578949</t>
   </si>
   <si>
     <t xml:space="preserve">1.09565794467926</t>
@@ -2414,13 +2414,13 @@
     <t xml:space="preserve">1.08165085315704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06608760356903</t>
+    <t xml:space="preserve">1.06608748435974</t>
   </si>
   <si>
     <t xml:space="preserve">1.08320724964142</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06297504901886</t>
+    <t xml:space="preserve">1.06297492980957</t>
   </si>
   <si>
     <t xml:space="preserve">1.04896783828735</t>
@@ -2429,16 +2429,16 @@
     <t xml:space="preserve">1.09410154819489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07075655460358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09721422195435</t>
+    <t xml:space="preserve">1.07075667381287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09721410274506</t>
   </si>
   <si>
     <t xml:space="preserve">1.0614185333252</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05052423477173</t>
+    <t xml:space="preserve">1.05052435398102</t>
   </si>
   <si>
     <t xml:space="preserve">1.04585528373718</t>
@@ -2453,7 +2453,7 @@
     <t xml:space="preserve">1.03340458869934</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03496098518372</t>
+    <t xml:space="preserve">1.03496086597443</t>
   </si>
   <si>
     <t xml:space="preserve">1.0365172624588</t>
@@ -2462,10 +2462,10 @@
     <t xml:space="preserve">1.02251017093658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.99605256319046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01628506183624</t>
+    <t xml:space="preserve">0.996052622795105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01628482341766</t>
   </si>
   <si>
     <t xml:space="preserve">1.00850331783295</t>
@@ -2474,7 +2474,7 @@
     <t xml:space="preserve">1.01005959510803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00072157382965</t>
+    <t xml:space="preserve">1.00072169303894</t>
   </si>
   <si>
     <t xml:space="preserve">0.991383612155914</t>
@@ -2486,7 +2486,7 @@
     <t xml:space="preserve">0.964925944805145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.958700656890869</t>
+    <t xml:space="preserve">0.958700597286224</t>
   </si>
   <si>
     <t xml:space="preserve">0.954031646251678</t>
@@ -2507,16 +2507,16 @@
     <t xml:space="preserve">0.968038618564606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.957144260406494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980489253997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99916535615921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06453120708466</t>
+    <t xml:space="preserve">0.957144379615784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980489194393158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999165177345276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06453132629395</t>
   </si>
   <si>
     <t xml:space="preserve">1.05830585956573</t>
@@ -2525,7 +2525,7 @@
     <t xml:space="preserve">1.02406656742096</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988270938396454</t>
+    <t xml:space="preserve">0.988270878791809</t>
   </si>
   <si>
     <t xml:space="preserve">0.985158324241638</t>
@@ -2534,19 +2534,19 @@
     <t xml:space="preserve">0.941581070423126</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933799266815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.904228925704956</t>
+    <t xml:space="preserve">0.933799386024475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.904228985309601</t>
   </si>
   <si>
     <t xml:space="preserve">0.879327654838562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887109279632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.888665676116943</t>
+    <t xml:space="preserve">0.887109339237213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.888665616512299</t>
   </si>
   <si>
     <t xml:space="preserve">0.891778349876404</t>
@@ -2555,7 +2555,7 @@
     <t xml:space="preserve">0.83575040102005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80306738615036</t>
+    <t xml:space="preserve">0.803067326545715</t>
   </si>
   <si>
     <t xml:space="preserve">0.787504076957703</t>
@@ -2564,28 +2564,28 @@
     <t xml:space="preserve">0.829525053501129</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831081330776215</t>
+    <t xml:space="preserve">0.831081390380859</t>
   </si>
   <si>
     <t xml:space="preserve">0.840419411659241</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826412379741669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817074418067932</t>
+    <t xml:space="preserve">0.826412439346313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817074298858643</t>
   </si>
   <si>
     <t xml:space="preserve">0.866877019405365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.896447241306305</t>
+    <t xml:space="preserve">0.89644730091095</t>
   </si>
   <si>
     <t xml:space="preserve">0.902672648429871</t>
   </si>
   <si>
-    <t xml:space="preserve">0.915123283863068</t>
+    <t xml:space="preserve">0.915123343467712</t>
   </si>
   <si>
     <t xml:space="preserve">0.940024614334106</t>
@@ -2594,19 +2594,19 @@
     <t xml:space="preserve">0.977376639842987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.963369727134705</t>
+    <t xml:space="preserve">0.963369607925415</t>
   </si>
   <si>
     <t xml:space="preserve">0.983601987361908</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978932976722717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92913031578064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961813271045685</t>
+    <t xml:space="preserve">0.978933095932007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.929130375385284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961813151836395</t>
   </si>
   <si>
     <t xml:space="preserve">0.946249961853027</t>
@@ -2615,31 +2615,31 @@
     <t xml:space="preserve">0.943137288093567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93068665266037</t>
+    <t xml:space="preserve">0.930686712265015</t>
   </si>
   <si>
     <t xml:space="preserve">0.952475309371948</t>
   </si>
   <si>
-    <t xml:space="preserve">0.927574038505554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.926017642021179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935355663299561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971151411533356</t>
+    <t xml:space="preserve">0.927573919296265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.926017701625824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935355603694916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971151292324066</t>
   </si>
   <si>
     <t xml:space="preserve">0.947806417942047</t>
   </si>
   <si>
-    <t xml:space="preserve">0.919792294502258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913567066192627</t>
+    <t xml:space="preserve">0.919792354106903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913567006587982</t>
   </si>
   <si>
     <t xml:space="preserve">0.907341659069061</t>
@@ -2657,10 +2657,10 @@
     <t xml:space="preserve">0.908898055553436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894890964031219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910454273223877</t>
+    <t xml:space="preserve">0.894890904426575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.910454332828522</t>
   </si>
   <si>
     <t xml:space="preserve">0.944693624973297</t>
@@ -2672,25 +2672,25 @@
     <t xml:space="preserve">1.05363690853119</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13767874240875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15946757793427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12989723682404</t>
+    <t xml:space="preserve">1.13767886161804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15946745872498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12989711761475</t>
   </si>
   <si>
     <t xml:space="preserve">1.10032689571381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09877038002014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07231283187866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12834084033966</t>
+    <t xml:space="preserve">1.09877049922943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07231295108795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12834095954895</t>
   </si>
   <si>
     <t xml:space="preserve">1.12055921554565</t>
@@ -2702,10 +2702,10 @@
     <t xml:space="preserve">1.15479850769043</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31198811531067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25907266139984</t>
+    <t xml:space="preserve">1.31198799610138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25907289981842</t>
   </si>
   <si>
     <t xml:space="preserve">1.24662208557129</t>
@@ -2717,7 +2717,7 @@
     <t xml:space="preserve">1.2544037103653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22638988494873</t>
+    <t xml:space="preserve">1.22638964653015</t>
   </si>
   <si>
     <t xml:space="preserve">1.23105871677399</t>
@@ -2726,46 +2726,46 @@
     <t xml:space="preserve">1.2699670791626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25751662254333</t>
+    <t xml:space="preserve">1.25751638412476</t>
   </si>
   <si>
     <t xml:space="preserve">1.26841068267822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27307987213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36023426055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38513553142548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40069890022278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40381169319153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37112867832184</t>
+    <t xml:space="preserve">1.27307975292206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36023437976837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38513565063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40069901943207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40381157398224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37112855911255</t>
   </si>
   <si>
     <t xml:space="preserve">1.39914262294769</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39447367191315</t>
+    <t xml:space="preserve">1.39447379112244</t>
   </si>
   <si>
     <t xml:space="preserve">1.38980460166931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39758634567261</t>
+    <t xml:space="preserve">1.3975864648819</t>
   </si>
   <si>
     <t xml:space="preserve">1.39136099815369</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40536797046661</t>
+    <t xml:space="preserve">1.4053680896759</t>
   </si>
   <si>
     <t xml:space="preserve">1.4380509853363</t>
@@ -2777,13 +2777,13 @@
     <t xml:space="preserve">1.57189548015594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56022310256958</t>
+    <t xml:space="preserve">1.56022298336029</t>
   </si>
   <si>
     <t xml:space="preserve">1.58745884895325</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53765606880188</t>
+    <t xml:space="preserve">1.53765618801117</t>
   </si>
   <si>
     <t xml:space="preserve">1.51431119441986</t>
@@ -2795,22 +2795,22 @@
     <t xml:space="preserve">1.50497329235077</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49096620082855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51798796653748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46871304512024</t>
+    <t xml:space="preserve">1.49096632003784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51798808574677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46871316432953</t>
   </si>
   <si>
     <t xml:space="preserve">1.45281779766083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46712350845337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47348153591156</t>
+    <t xml:space="preserve">1.46712338924408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47348165512085</t>
   </si>
   <si>
     <t xml:space="preserve">1.48619771003723</t>
@@ -2825,13 +2825,13 @@
     <t xml:space="preserve">1.54818880558014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55454683303833</t>
+    <t xml:space="preserve">1.55454695224762</t>
   </si>
   <si>
     <t xml:space="preserve">1.5561363697052</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57044196128845</t>
+    <t xml:space="preserve">1.57044208049774</t>
   </si>
   <si>
     <t xml:space="preserve">1.56567358970642</t>
@@ -2849,13 +2849,13 @@
     <t xml:space="preserve">1.47030258178711</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44328081607819</t>
+    <t xml:space="preserve">1.4432806968689</t>
   </si>
   <si>
     <t xml:space="preserve">1.40672194957733</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43374371528625</t>
+    <t xml:space="preserve">1.43374359607697</t>
   </si>
   <si>
     <t xml:space="preserve">1.44487023353577</t>
@@ -2873,7 +2873,7 @@
     <t xml:space="preserve">1.34790980815887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33201467990875</t>
+    <t xml:space="preserve">1.33201456069946</t>
   </si>
   <si>
     <t xml:space="preserve">1.35585737228394</t>
@@ -2885,7 +2885,7 @@
     <t xml:space="preserve">1.31453001499176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27638149261475</t>
+    <t xml:space="preserve">1.27638161182404</t>
   </si>
   <si>
     <t xml:space="preserve">1.30181384086609</t>
@@ -2900,22 +2900,22 @@
     <t xml:space="preserve">1.30340325832367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28432929515839</t>
+    <t xml:space="preserve">1.2843291759491</t>
   </si>
   <si>
     <t xml:space="preserve">1.27479207515717</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22074854373932</t>
+    <t xml:space="preserve">1.22074842453003</t>
   </si>
   <si>
     <t xml:space="preserve">1.2223379611969</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2557178735733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24935972690582</t>
+    <t xml:space="preserve">1.25571775436401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24935984611511</t>
   </si>
   <si>
     <t xml:space="preserve">1.25412821769714</t>
@@ -2942,19 +2942,19 @@
     <t xml:space="preserve">1.36698389053345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35267841815948</t>
+    <t xml:space="preserve">1.3526782989502</t>
   </si>
   <si>
     <t xml:space="preserve">1.3749315738678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37970018386841</t>
+    <t xml:space="preserve">1.37970006465912</t>
   </si>
   <si>
     <t xml:space="preserve">1.38128960132599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34314131736755</t>
+    <t xml:space="preserve">1.34314119815826</t>
   </si>
   <si>
     <t xml:space="preserve">1.33678317070007</t>
@@ -2969,16 +2969,16 @@
     <t xml:space="preserve">1.39877426624298</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42897510528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40513229370117</t>
+    <t xml:space="preserve">1.42897498607635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40513241291046</t>
   </si>
   <si>
     <t xml:space="preserve">1.53388321399689</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49732434749603</t>
+    <t xml:space="preserve">1.49732422828674</t>
   </si>
   <si>
     <t xml:space="preserve">1.47189199924469</t>
@@ -3011,7 +3011,7 @@
     <t xml:space="preserve">1.34155166149139</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33519351482391</t>
+    <t xml:space="preserve">1.3351936340332</t>
   </si>
   <si>
     <t xml:space="preserve">1.37811064720154</t>
@@ -3035,40 +3035,40 @@
     <t xml:space="preserve">1.50050330162048</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52116703987122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49573481082916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50845086574554</t>
+    <t xml:space="preserve">1.52116715908051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49573469161987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50845098495483</t>
   </si>
   <si>
     <t xml:space="preserve">1.51162993907928</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50209283828735</t>
+    <t xml:space="preserve">1.50209295749664</t>
   </si>
   <si>
     <t xml:space="preserve">1.51321947574615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47507119178772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44010174274445</t>
+    <t xml:space="preserve">1.47507107257843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44010186195374</t>
   </si>
   <si>
     <t xml:space="preserve">1.4877872467041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47983968257904</t>
+    <t xml:space="preserve">1.47983956336975</t>
   </si>
   <si>
     <t xml:space="preserve">1.45599699020386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48301863670349</t>
+    <t xml:space="preserve">1.48301875591278</t>
   </si>
   <si>
     <t xml:space="preserve">1.51004040241241</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">1.56249439716339</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63720166683197</t>
+    <t xml:space="preserve">1.63720178604126</t>
   </si>
   <si>
     <t xml:space="preserve">1.66501832008362</t>
@@ -3089,7 +3089,7 @@
     <t xml:space="preserve">1.70078253746033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65309691429138</t>
+    <t xml:space="preserve">1.65309679508209</t>
   </si>
   <si>
     <t xml:space="preserve">1.60541141033173</t>
@@ -3098,19 +3098,19 @@
     <t xml:space="preserve">1.55772590637207</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57362115383148</t>
+    <t xml:space="preserve">1.57362103462219</t>
   </si>
   <si>
     <t xml:space="preserve">1.43851220607758</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44645988941193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4544073343277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45122838020325</t>
+    <t xml:space="preserve">1.44645977020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45440745353699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45122826099396</t>
   </si>
   <si>
     <t xml:space="preserve">1.49414527416229</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">1.61733293533325</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63322794437408</t>
+    <t xml:space="preserve">1.63322806358337</t>
   </si>
   <si>
     <t xml:space="preserve">1.62130653858185</t>
@@ -3137,13 +3137,13 @@
     <t xml:space="preserve">1.58792674541473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60143768787384</t>
+    <t xml:space="preserve">1.60143780708313</t>
   </si>
   <si>
     <t xml:space="preserve">1.62925410270691</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66104447841644</t>
+    <t xml:space="preserve">1.66104435920715</t>
   </si>
   <si>
     <t xml:space="preserve">1.53865170478821</t>
@@ -3155,25 +3155,25 @@
     <t xml:space="preserve">1.54183077812195</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52911472320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53070402145386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52434611320496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43056452274323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37334203720093</t>
+    <t xml:space="preserve">1.52911460399628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53070414066315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52434599399567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43056464195251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37334215641022</t>
   </si>
   <si>
     <t xml:space="preserve">1.30817186832428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30022442340851</t>
+    <t xml:space="preserve">1.30022430419922</t>
   </si>
   <si>
     <t xml:space="preserve">1.22869610786438</t>
@@ -3185,7 +3185,7 @@
     <t xml:space="preserve">1.36539447307587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36062598228455</t>
+    <t xml:space="preserve">1.36062586307526</t>
   </si>
   <si>
     <t xml:space="preserve">1.40831136703491</t>
@@ -3197,58 +3197,58 @@
     <t xml:space="preserve">1.74846792221069</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78423178195953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76038908958435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77231049537659</t>
+    <t xml:space="preserve">1.78423190116882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76038920879364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77231061458588</t>
   </si>
   <si>
     <t xml:space="preserve">1.78025817871094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74449396133423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81999599933624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81204843521118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83191752433777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8279435634613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85178625583649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83589112758636</t>
+    <t xml:space="preserve">1.74449408054352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81999611854553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81204855442047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83191764354706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82794368267059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85178637504578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83589124679565</t>
   </si>
   <si>
     <t xml:space="preserve">1.83986508846283</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82396984100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77628421783447</t>
+    <t xml:space="preserve">1.82396996021271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77628433704376</t>
   </si>
   <si>
     <t xml:space="preserve">1.79217958450317</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76833665370941</t>
+    <t xml:space="preserve">1.7683367729187</t>
   </si>
   <si>
     <t xml:space="preserve">1.788205742836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72859871387482</t>
+    <t xml:space="preserve">1.72859883308411</t>
   </si>
   <si>
     <t xml:space="preserve">1.64514923095703</t>
@@ -3263,10 +3263,10 @@
     <t xml:space="preserve">1.75641548633575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76436293125153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80410075187683</t>
+    <t xml:space="preserve">1.76436305046082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80410087108612</t>
   </si>
   <si>
     <t xml:space="preserve">1.7403576374054</t>
@@ -3519,9 +3519,6 @@
   </si>
   <si>
     <t xml:space="preserve">1.39746820926666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43374359607697</t>
   </si>
   <si>
     <t xml:space="preserve">1.44929015636444</t>
@@ -24623,7 +24620,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G769" t="s">
-        <v>557</v>
+        <v>457</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -24649,7 +24646,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G770" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -24675,7 +24672,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G771" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -24701,7 +24698,7 @@
         <v>3.54500007629395</v>
       </c>
       <c r="G772" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -24727,7 +24724,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G773" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -24753,7 +24750,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G774" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -24779,7 +24776,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G775" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -24805,7 +24802,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G776" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -24831,7 +24828,7 @@
         <v>3.68499994277954</v>
       </c>
       <c r="G777" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -24857,7 +24854,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G778" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -24883,7 +24880,7 @@
         <v>3.63499999046326</v>
       </c>
       <c r="G779" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -24909,7 +24906,7 @@
         <v>3.66499996185303</v>
       </c>
       <c r="G780" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -24935,7 +24932,7 @@
         <v>3.66499996185303</v>
       </c>
       <c r="G781" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -24961,7 +24958,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G782" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -24987,7 +24984,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G783" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -25013,7 +25010,7 @@
         <v>3.78500008583069</v>
       </c>
       <c r="G784" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -25039,7 +25036,7 @@
         <v>3.8050000667572</v>
       </c>
       <c r="G785" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -25065,7 +25062,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G786" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -25091,7 +25088,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G787" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -25117,7 +25114,7 @@
         <v>3.86500000953674</v>
       </c>
       <c r="G788" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -25143,7 +25140,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G789" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -25169,7 +25166,7 @@
         <v>3.8050000667572</v>
       </c>
       <c r="G790" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -25195,7 +25192,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G791" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -25221,7 +25218,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G792" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -25247,7 +25244,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G793" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -25273,7 +25270,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G794" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -25299,7 +25296,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G795" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -25325,7 +25322,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G796" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -25351,7 +25348,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G797" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -25377,7 +25374,7 @@
         <v>3.77500009536743</v>
       </c>
       <c r="G798" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -25403,7 +25400,7 @@
         <v>3.72499990463257</v>
       </c>
       <c r="G799" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -25429,7 +25426,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G800" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -25455,7 +25452,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G801" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -25481,7 +25478,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G802" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25507,7 +25504,7 @@
         <v>3.92499995231628</v>
       </c>
       <c r="G803" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -25533,7 +25530,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G804" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -25559,7 +25556,7 @@
         <v>4</v>
       </c>
       <c r="G805" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -25585,7 +25582,7 @@
         <v>4.02500009536743</v>
       </c>
       <c r="G806" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25611,7 +25608,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G807" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25637,7 +25634,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G808" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -25663,7 +25660,7 @@
         <v>3.98499989509583</v>
       </c>
       <c r="G809" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -25689,7 +25686,7 @@
         <v>3.96499991416931</v>
       </c>
       <c r="G810" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -25715,7 +25712,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G811" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -25741,7 +25738,7 @@
         <v>3.96499991416931</v>
       </c>
       <c r="G812" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -25767,7 +25764,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G813" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -25793,7 +25790,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G814" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -25819,7 +25816,7 @@
         <v>3.98499989509583</v>
       </c>
       <c r="G815" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -25845,7 +25842,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G816" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -25871,7 +25868,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G817" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -25897,7 +25894,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G818" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -25923,7 +25920,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G819" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -25949,7 +25946,7 @@
         <v>3.91499996185303</v>
       </c>
       <c r="G820" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -25975,7 +25972,7 @@
         <v>3.86500000953674</v>
       </c>
       <c r="G821" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -26001,7 +25998,7 @@
         <v>3.79500007629395</v>
       </c>
       <c r="G822" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -26027,7 +26024,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G823" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -26053,7 +26050,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G824" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -26079,7 +26076,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G825" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -26105,7 +26102,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G826" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -26131,7 +26128,7 @@
         <v>3.86500000953674</v>
       </c>
       <c r="G827" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -26157,7 +26154,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G828" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -26183,7 +26180,7 @@
         <v>3.82500004768372</v>
       </c>
       <c r="G829" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -26209,7 +26206,7 @@
         <v>3.85500001907349</v>
       </c>
       <c r="G830" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -26235,7 +26232,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G831" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -26261,7 +26258,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G832" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -26287,7 +26284,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G833" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -26313,7 +26310,7 @@
         <v>3.65499997138977</v>
       </c>
       <c r="G834" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -26365,7 +26362,7 @@
         <v>3.52500009536743</v>
       </c>
       <c r="G836" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -26391,7 +26388,7 @@
         <v>3.56500005722046</v>
       </c>
       <c r="G837" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -26443,7 +26440,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G839" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -26469,7 +26466,7 @@
         <v>3.5550000667572</v>
       </c>
       <c r="G840" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -26495,7 +26492,7 @@
         <v>3.53500008583069</v>
       </c>
       <c r="G841" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -26547,7 +26544,7 @@
         <v>3.5550000667572</v>
       </c>
       <c r="G843" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26573,7 +26570,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G844" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -26599,7 +26596,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G845" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -26625,7 +26622,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G846" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -26677,7 +26674,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G848" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -26703,7 +26700,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G849" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -26755,7 +26752,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G851" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -26781,7 +26778,7 @@
         <v>3.36500000953674</v>
       </c>
       <c r="G852" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -26807,7 +26804,7 @@
         <v>3.38499999046326</v>
       </c>
       <c r="G853" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -26833,7 +26830,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G854" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -26937,7 +26934,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G858" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -26989,7 +26986,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G860" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -27015,7 +27012,7 @@
         <v>2.96499991416931</v>
       </c>
       <c r="G861" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -27067,7 +27064,7 @@
         <v>2.95499992370605</v>
       </c>
       <c r="G863" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -27093,7 +27090,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G864" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -27119,7 +27116,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G865" t="s">
-        <v>525</v>
+        <v>621</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -27379,7 +27376,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G875" t="s">
-        <v>525</v>
+        <v>621</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -28029,7 +28026,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G900" t="s">
-        <v>525</v>
+        <v>621</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -30733,7 +30730,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1004" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -30993,7 +30990,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G1014" t="s">
-        <v>525</v>
+        <v>621</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -49739,7 +49736,7 @@
         <v>1.6599999666214</v>
       </c>
       <c r="G1735" t="s">
-        <v>1169</v>
+        <v>947</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -49765,7 +49762,7 @@
         <v>1.67799997329712</v>
       </c>
       <c r="G1736" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -49791,7 +49788,7 @@
         <v>1.66799998283386</v>
       </c>
       <c r="G1737" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -49817,7 +49814,7 @@
         <v>1.66400003433228</v>
       </c>
       <c r="G1738" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -49843,7 +49840,7 @@
         <v>1.64400005340576</v>
       </c>
       <c r="G1739" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -49869,7 +49866,7 @@
         <v>1.62399995326996</v>
       </c>
       <c r="G1740" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -49947,7 +49944,7 @@
         <v>1.62600004673004</v>
       </c>
       <c r="G1743" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -49973,7 +49970,7 @@
         <v>1.6360000371933</v>
       </c>
       <c r="G1744" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -50025,7 +50022,7 @@
         <v>1.64600002765656</v>
       </c>
       <c r="G1746" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -50077,7 +50074,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G1748" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -50129,7 +50126,7 @@
         <v>1.60599994659424</v>
       </c>
       <c r="G1750" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -50155,7 +50152,7 @@
         <v>1.58000004291534</v>
       </c>
       <c r="G1751" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -50181,7 +50178,7 @@
         <v>1.53799998760223</v>
       </c>
       <c r="G1752" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -50207,7 +50204,7 @@
         <v>1.54200005531311</v>
       </c>
       <c r="G1753" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -50233,7 +50230,7 @@
         <v>1.51199996471405</v>
       </c>
       <c r="G1754" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -50259,7 +50256,7 @@
         <v>1.52199995517731</v>
       </c>
       <c r="G1755" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -50285,7 +50282,7 @@
         <v>1.51800000667572</v>
       </c>
       <c r="G1756" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -50337,7 +50334,7 @@
         <v>1.52199995517731</v>
       </c>
       <c r="G1758" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -50363,7 +50360,7 @@
         <v>1.51800000667572</v>
       </c>
       <c r="G1759" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -50441,7 +50438,7 @@
         <v>1.51800000667572</v>
       </c>
       <c r="G1762" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -50493,7 +50490,7 @@
         <v>1.55799996852875</v>
       </c>
       <c r="G1764" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -50545,7 +50542,7 @@
         <v>1.51800000667572</v>
       </c>
       <c r="G1766" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -50597,7 +50594,7 @@
         <v>1.51199996471405</v>
       </c>
       <c r="G1768" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -50623,7 +50620,7 @@
         <v>1.51600003242493</v>
       </c>
       <c r="G1769" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -50675,7 +50672,7 @@
         <v>1.51600003242493</v>
       </c>
       <c r="G1771" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -50727,7 +50724,7 @@
         <v>1.48000001907349</v>
       </c>
       <c r="G1773" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -50753,7 +50750,7 @@
         <v>1.47200000286102</v>
       </c>
       <c r="G1774" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -50779,7 +50776,7 @@
         <v>1.47200000286102</v>
       </c>
       <c r="G1775" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -50805,7 +50802,7 @@
         <v>1.48000001907349</v>
       </c>
       <c r="G1776" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -50831,7 +50828,7 @@
         <v>1.48599994182587</v>
       </c>
       <c r="G1777" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -50857,7 +50854,7 @@
         <v>1.48599994182587</v>
       </c>
       <c r="G1778" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -50883,7 +50880,7 @@
         <v>1.47800004482269</v>
       </c>
       <c r="G1779" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -50935,7 +50932,7 @@
         <v>1.50399994850159</v>
       </c>
       <c r="G1781" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -50961,7 +50958,7 @@
         <v>1.48800003528595</v>
       </c>
       <c r="G1782" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -50987,7 +50984,7 @@
         <v>1.49399995803833</v>
       </c>
       <c r="G1783" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -51013,7 +51010,7 @@
         <v>1.51800000667572</v>
       </c>
       <c r="G1784" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -51065,7 +51062,7 @@
         <v>1.51600003242493</v>
       </c>
       <c r="G1786" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -51091,7 +51088,7 @@
         <v>1.51400005817413</v>
       </c>
       <c r="G1787" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -51117,7 +51114,7 @@
         <v>1.55799996852875</v>
       </c>
       <c r="G1788" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -51195,7 +51192,7 @@
         <v>1.54799997806549</v>
       </c>
       <c r="G1791" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -51247,7 +51244,7 @@
         <v>1.54799997806549</v>
       </c>
       <c r="G1793" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -51299,7 +51296,7 @@
         <v>1.55599999427795</v>
       </c>
       <c r="G1795" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -51325,7 +51322,7 @@
         <v>1.55400002002716</v>
       </c>
       <c r="G1796" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -51429,7 +51426,7 @@
         <v>1.5460000038147</v>
       </c>
       <c r="G1800" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -51455,7 +51452,7 @@
         <v>1.56200003623962</v>
       </c>
       <c r="G1801" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -51481,7 +51478,7 @@
         <v>1.58599996566772</v>
       </c>
       <c r="G1802" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -51533,7 +51530,7 @@
         <v>1.63800001144409</v>
       </c>
       <c r="G1804" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -51585,7 +51582,7 @@
         <v>1.66400003433228</v>
       </c>
       <c r="G1806" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -51611,7 +51608,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G1807" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -51637,7 +51634,7 @@
         <v>1.75</v>
       </c>
       <c r="G1808" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -51663,7 +51660,7 @@
         <v>1.73599994182587</v>
       </c>
       <c r="G1809" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -51689,7 +51686,7 @@
         <v>1.77600002288818</v>
       </c>
       <c r="G1810" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -51715,7 +51712,7 @@
         <v>1.80599999427795</v>
       </c>
       <c r="G1811" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -51741,7 +51738,7 @@
         <v>1.77400004863739</v>
       </c>
       <c r="G1812" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -51767,7 +51764,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1813" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -51793,7 +51790,7 @@
         <v>1.75800001621246</v>
       </c>
       <c r="G1814" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -51819,7 +51816,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G1815" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -51845,7 +51842,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1816" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -51871,7 +51868,7 @@
         <v>1.74399995803833</v>
       </c>
       <c r="G1817" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -51897,7 +51894,7 @@
         <v>1.74399995803833</v>
       </c>
       <c r="G1818" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -51949,7 +51946,7 @@
         <v>1.70799994468689</v>
       </c>
       <c r="G1820" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -52001,7 +51998,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G1822" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -52053,7 +52050,7 @@
         <v>1.73599994182587</v>
       </c>
       <c r="G1824" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -52079,7 +52076,7 @@
         <v>1.74800002574921</v>
       </c>
       <c r="G1825" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -52105,7 +52102,7 @@
         <v>1.73199999332428</v>
       </c>
       <c r="G1826" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -52183,7 +52180,7 @@
         <v>1.71800005435944</v>
       </c>
       <c r="G1829" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -52209,7 +52206,7 @@
         <v>1.73199999332428</v>
       </c>
       <c r="G1830" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -52235,7 +52232,7 @@
         <v>1.73199999332428</v>
       </c>
       <c r="G1831" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -52313,7 +52310,7 @@
         <v>1.66400003433228</v>
       </c>
       <c r="G1834" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -52417,7 +52414,7 @@
         <v>1.64199995994568</v>
       </c>
       <c r="G1838" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -52443,7 +52440,7 @@
         <v>1.72200000286102</v>
       </c>
       <c r="G1839" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -52495,7 +52492,7 @@
         <v>1.78600001335144</v>
       </c>
       <c r="G1841" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -52547,7 +52544,7 @@
         <v>1.76400005817413</v>
       </c>
       <c r="G1843" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -52573,7 +52570,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G1844" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -52599,7 +52596,7 @@
         <v>1.84800004959106</v>
       </c>
       <c r="G1845" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -52625,7 +52622,7 @@
         <v>1.84599995613098</v>
       </c>
       <c r="G1846" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -52651,7 +52648,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G1847" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -52677,7 +52674,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G1848" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -52729,7 +52726,7 @@
         <v>1.81400001049042</v>
       </c>
       <c r="G1850" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -52755,7 +52752,7 @@
         <v>1.83599996566772</v>
       </c>
       <c r="G1851" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -52781,7 +52778,7 @@
         <v>1.85599994659424</v>
       </c>
       <c r="G1852" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -52807,7 +52804,7 @@
         <v>1.87600004673004</v>
       </c>
       <c r="G1853" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -52833,7 +52830,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G1854" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -52859,7 +52856,7 @@
         <v>1.8860000371933</v>
       </c>
       <c r="G1855" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -52911,7 +52908,7 @@
         <v>1.89600002765656</v>
       </c>
       <c r="G1857" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -52937,7 +52934,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G1858" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -52963,7 +52960,7 @@
         <v>1.84200000762939</v>
       </c>
       <c r="G1859" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -52989,7 +52986,7 @@
         <v>1.87199997901917</v>
       </c>
       <c r="G1860" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -53015,7 +53012,7 @@
         <v>1.86600005626678</v>
       </c>
       <c r="G1861" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -53041,7 +53038,7 @@
         <v>1.82400000095367</v>
       </c>
       <c r="G1862" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -53067,7 +53064,7 @@
         <v>1.81599998474121</v>
       </c>
       <c r="G1863" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -53093,7 +53090,7 @@
         <v>1.80599999427795</v>
       </c>
       <c r="G1864" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -53119,7 +53116,7 @@
         <v>1.82400000095367</v>
       </c>
       <c r="G1865" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -53171,7 +53168,7 @@
         <v>1.80200004577637</v>
       </c>
       <c r="G1867" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -53197,7 +53194,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G1868" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -53223,7 +53220,7 @@
         <v>1.85599994659424</v>
       </c>
       <c r="G1869" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -53249,7 +53246,7 @@
         <v>1.87600004673004</v>
       </c>
       <c r="G1870" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -53275,7 +53272,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G1871" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -53301,7 +53298,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G1872" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -53327,7 +53324,7 @@
         <v>1.89199995994568</v>
       </c>
       <c r="G1873" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -53353,7 +53350,7 @@
         <v>1.88199996948242</v>
       </c>
       <c r="G1874" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -53379,7 +53376,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G1875" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -53431,7 +53428,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G1877" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -53457,7 +53454,7 @@
         <v>1.817999958992</v>
       </c>
       <c r="G1878" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -53483,7 +53480,7 @@
         <v>1.82200002670288</v>
       </c>
       <c r="G1879" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -53509,7 +53506,7 @@
         <v>1.84399998188019</v>
       </c>
       <c r="G1880" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -53561,7 +53558,7 @@
         <v>1.84800004959106</v>
       </c>
       <c r="G1882" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -53587,7 +53584,7 @@
         <v>1.84399998188019</v>
       </c>
       <c r="G1883" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -53613,7 +53610,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G1884" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -53639,7 +53636,7 @@
         <v>1.68400001525879</v>
       </c>
       <c r="G1885" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -53665,7 +53662,7 @@
         <v>1.65400004386902</v>
       </c>
       <c r="G1886" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -53691,7 +53688,7 @@
         <v>1.6139999628067</v>
       </c>
       <c r="G1887" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -53717,7 +53714,7 @@
         <v>1.61000001430511</v>
       </c>
       <c r="G1888" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -53743,7 +53740,7 @@
         <v>1.64199995994568</v>
       </c>
       <c r="G1889" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -53769,7 +53766,7 @@
         <v>1.66999995708466</v>
       </c>
       <c r="G1890" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -53795,7 +53792,7 @@
         <v>1.64800000190735</v>
       </c>
       <c r="G1891" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -53821,7 +53818,7 @@
         <v>1.65600001811981</v>
       </c>
       <c r="G1892" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -53847,7 +53844,7 @@
         <v>1.66600000858307</v>
       </c>
       <c r="G1893" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -53873,7 +53870,7 @@
         <v>1.67400002479553</v>
       </c>
       <c r="G1894" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -53899,7 +53896,7 @@
         <v>1.69200003147125</v>
       </c>
       <c r="G1895" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -53925,7 +53922,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G1896" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -53951,7 +53948,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G1897" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -53977,7 +53974,7 @@
         <v>1.72599995136261</v>
       </c>
       <c r="G1898" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -54003,7 +54000,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G1899" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -54029,7 +54026,7 @@
         <v>1.75</v>
       </c>
       <c r="G1900" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -54055,7 +54052,7 @@
         <v>1.71599996089935</v>
       </c>
       <c r="G1901" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -54081,7 +54078,7 @@
         <v>1.69200003147125</v>
       </c>
       <c r="G1902" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -54107,7 +54104,7 @@
         <v>1.65600001811981</v>
       </c>
       <c r="G1903" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -54133,7 +54130,7 @@
         <v>1.6360000371933</v>
       </c>
       <c r="G1904" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -54159,7 +54156,7 @@
         <v>1.62800002098083</v>
       </c>
       <c r="G1905" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -54185,7 +54182,7 @@
         <v>1.62999999523163</v>
       </c>
       <c r="G1906" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -54211,7 +54208,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G1907" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -54237,7 +54234,7 @@
         <v>1.66400003433228</v>
       </c>
       <c r="G1908" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -54263,7 +54260,7 @@
         <v>1.65199995040894</v>
       </c>
       <c r="G1909" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -54289,7 +54286,7 @@
         <v>1.66199994087219</v>
       </c>
       <c r="G1910" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -54315,7 +54312,7 @@
         <v>1.67200005054474</v>
       </c>
       <c r="G1911" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -54341,7 +54338,7 @@
         <v>1.66999995708466</v>
       </c>
       <c r="G1912" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -54367,7 +54364,7 @@
         <v>1.65799999237061</v>
       </c>
       <c r="G1913" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -54393,7 +54390,7 @@
         <v>1.66400003433228</v>
       </c>
       <c r="G1914" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -54419,7 +54416,7 @@
         <v>1.65400004386902</v>
       </c>
       <c r="G1915" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -54445,7 +54442,7 @@
         <v>1.67599999904633</v>
       </c>
       <c r="G1916" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -54471,7 +54468,7 @@
         <v>1.66799998283386</v>
       </c>
       <c r="G1917" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -54497,7 +54494,7 @@
         <v>1.66999995708466</v>
       </c>
       <c r="G1918" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -54523,7 +54520,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G1919" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -54549,7 +54546,7 @@
         <v>1.66199994087219</v>
       </c>
       <c r="G1920" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -54575,7 +54572,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G1921" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -54601,7 +54598,7 @@
         <v>1.69599997997284</v>
       </c>
       <c r="G1922" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -54627,7 +54624,7 @@
         <v>1.69400000572205</v>
       </c>
       <c r="G1923" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -54653,7 +54650,7 @@
         <v>1.68400001525879</v>
       </c>
       <c r="G1924" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -54679,7 +54676,7 @@
         <v>1.69200003147125</v>
       </c>
       <c r="G1925" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -54705,7 +54702,7 @@
         <v>1.69200003147125</v>
       </c>
       <c r="G1926" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -54731,7 +54728,7 @@
         <v>1.69200003147125</v>
       </c>
       <c r="G1927" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -54757,7 +54754,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G1928" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -54783,7 +54780,7 @@
         <v>1.73399996757507</v>
       </c>
       <c r="G1929" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -54809,7 +54806,7 @@
         <v>1.74399995803833</v>
       </c>
       <c r="G1930" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -54835,7 +54832,7 @@
         <v>1.73800003528595</v>
       </c>
       <c r="G1931" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -54861,7 +54858,7 @@
         <v>1.74600005149841</v>
       </c>
       <c r="G1932" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -54887,7 +54884,7 @@
         <v>1.71800005435944</v>
       </c>
       <c r="G1933" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -54913,7 +54910,7 @@
         <v>1.74600005149841</v>
       </c>
       <c r="G1934" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -54939,7 +54936,7 @@
         <v>1.69200003147125</v>
       </c>
       <c r="G1935" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -54965,7 +54962,7 @@
         <v>1.61000001430511</v>
       </c>
       <c r="G1936" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -54991,7 +54988,7 @@
         <v>1.60199999809265</v>
       </c>
       <c r="G1937" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -55017,7 +55014,7 @@
         <v>1.62199997901917</v>
       </c>
       <c r="G1938" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -55043,7 +55040,7 @@
         <v>1.61800003051758</v>
       </c>
       <c r="G1939" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -55069,7 +55066,7 @@
         <v>1.62600004673004</v>
       </c>
       <c r="G1940" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -55095,7 +55092,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G1941" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -55121,7 +55118,7 @@
         <v>1.6139999628067</v>
       </c>
       <c r="G1942" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -55147,7 +55144,7 @@
         <v>1.61600005626678</v>
       </c>
       <c r="G1943" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -55173,7 +55170,7 @@
         <v>1.62000000476837</v>
       </c>
       <c r="G1944" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -55199,7 +55196,7 @@
         <v>1.63199996948242</v>
       </c>
       <c r="G1945" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -55225,7 +55222,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G1946" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -55251,7 +55248,7 @@
         <v>1.63800001144409</v>
       </c>
       <c r="G1947" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -55277,7 +55274,7 @@
         <v>1.62199997901917</v>
       </c>
       <c r="G1948" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -55303,7 +55300,7 @@
         <v>1.63399994373322</v>
       </c>
       <c r="G1949" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -55329,7 +55326,7 @@
         <v>1.64600002765656</v>
       </c>
       <c r="G1950" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -55355,7 +55352,7 @@
         <v>1.67400002479553</v>
       </c>
       <c r="G1951" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -55381,7 +55378,7 @@
         <v>1.66199994087219</v>
       </c>
       <c r="G1952" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -55407,7 +55404,7 @@
         <v>1.6599999666214</v>
       </c>
       <c r="G1953" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -55433,7 +55430,7 @@
         <v>1.64600002765656</v>
       </c>
       <c r="G1954" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -55459,7 +55456,7 @@
         <v>1.64400005340576</v>
       </c>
       <c r="G1955" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -55485,7 +55482,7 @@
         <v>1.61000001430511</v>
       </c>
       <c r="G1956" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -55511,7 +55508,7 @@
         <v>1.59399998188019</v>
       </c>
       <c r="G1957" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -55537,7 +55534,7 @@
         <v>1.5900000333786</v>
       </c>
       <c r="G1958" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -55563,7 +55560,7 @@
         <v>1.58599996566772</v>
       </c>
       <c r="G1959" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -55589,7 +55586,7 @@
         <v>1.60000002384186</v>
       </c>
       <c r="G1960" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -55615,7 +55612,7 @@
         <v>1.60000002384186</v>
       </c>
       <c r="G1961" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -55641,7 +55638,7 @@
         <v>1.62000000476837</v>
       </c>
       <c r="G1962" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -55667,7 +55664,7 @@
         <v>1.60000002384186</v>
       </c>
       <c r="G1963" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -55693,7 +55690,7 @@
         <v>1.61000001430511</v>
       </c>
       <c r="G1964" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -55719,7 +55716,7 @@
         <v>1.6360000371933</v>
       </c>
       <c r="G1965" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -55745,7 +55742,7 @@
         <v>1.63800001144409</v>
       </c>
       <c r="G1966" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -55771,7 +55768,7 @@
         <v>1.64199995994568</v>
       </c>
       <c r="G1967" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -55797,7 +55794,7 @@
         <v>1.61800003051758</v>
       </c>
       <c r="G1968" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -55823,7 +55820,7 @@
         <v>1.59399998188019</v>
       </c>
       <c r="G1969" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -55849,7 +55846,7 @@
         <v>1.58599996566772</v>
       </c>
       <c r="G1970" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -55875,7 +55872,7 @@
         <v>1.57200002670288</v>
       </c>
       <c r="G1971" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -55901,7 +55898,7 @@
         <v>1.58200001716614</v>
       </c>
       <c r="G1972" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -55927,7 +55924,7 @@
         <v>1.61000001430511</v>
       </c>
       <c r="G1973" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -55953,7 +55950,7 @@
         <v>1.6139999628067</v>
       </c>
       <c r="G1974" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -55979,7 +55976,7 @@
         <v>1.58200001716614</v>
       </c>
       <c r="G1975" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -56005,7 +56002,7 @@
         <v>1.57200002670288</v>
       </c>
       <c r="G1976" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -56031,7 +56028,7 @@
         <v>1.59200000762939</v>
       </c>
       <c r="G1977" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -56057,7 +56054,7 @@
         <v>1.60000002384186</v>
       </c>
       <c r="G1978" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -56083,7 +56080,7 @@
         <v>1.60000002384186</v>
       </c>
       <c r="G1979" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -56109,7 +56106,7 @@
         <v>1.61000001430511</v>
       </c>
       <c r="G1980" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -56135,7 +56132,7 @@
         <v>1.60599994659424</v>
       </c>
       <c r="G1981" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -56161,7 +56158,7 @@
         <v>1.61199998855591</v>
       </c>
       <c r="G1982" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -56187,7 +56184,7 @@
         <v>1.60199999809265</v>
       </c>
       <c r="G1983" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -56213,7 +56210,7 @@
         <v>1.61199998855591</v>
       </c>
       <c r="G1984" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -56239,7 +56236,7 @@
         <v>1.61199998855591</v>
       </c>
       <c r="G1985" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -56265,7 +56262,7 @@
         <v>1.60199999809265</v>
       </c>
       <c r="G1986" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -56291,7 +56288,7 @@
         <v>1.60199999809265</v>
       </c>
       <c r="G1987" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -56317,7 +56314,7 @@
         <v>1.60199999809265</v>
       </c>
       <c r="G1988" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -56343,7 +56340,7 @@
         <v>1.60800004005432</v>
       </c>
       <c r="G1989" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -56369,7 +56366,7 @@
         <v>1.60399997234344</v>
       </c>
       <c r="G1990" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -56395,7 +56392,7 @@
         <v>1.60599994659424</v>
       </c>
       <c r="G1991" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -56421,7 +56418,7 @@
         <v>1.60199999809265</v>
       </c>
       <c r="G1992" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -56447,7 +56444,7 @@
         <v>1.61000001430511</v>
       </c>
       <c r="G1993" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -56473,7 +56470,7 @@
         <v>1.6139999628067</v>
       </c>
       <c r="G1994" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -56499,7 +56496,7 @@
         <v>1.62199997901917</v>
       </c>
       <c r="G1995" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -56525,7 +56522,7 @@
         <v>1.66400003433228</v>
       </c>
       <c r="G1996" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -56551,7 +56548,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G1997" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -56577,7 +56574,7 @@
         <v>1.72599995136261</v>
       </c>
       <c r="G1998" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -56603,7 +56600,7 @@
         <v>1.67599999904633</v>
       </c>
       <c r="G1999" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -56629,7 +56626,7 @@
         <v>1.65199995040894</v>
       </c>
       <c r="G2000" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -56655,7 +56652,7 @@
         <v>1.66400003433228</v>
       </c>
       <c r="G2001" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -56681,7 +56678,7 @@
         <v>1.6599999666214</v>
       </c>
       <c r="G2002" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -56707,7 +56704,7 @@
         <v>1.64800000190735</v>
       </c>
       <c r="G2003" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -56733,7 +56730,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G2004" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -56759,7 +56756,7 @@
         <v>1.7059999704361</v>
       </c>
       <c r="G2005" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -56785,7 +56782,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G2006" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -56811,7 +56808,7 @@
         <v>1.67799997329712</v>
       </c>
       <c r="G2007" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -56837,7 +56834,7 @@
         <v>1.70799994468689</v>
       </c>
       <c r="G2008" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -56863,7 +56860,7 @@
         <v>1.7039999961853</v>
       </c>
       <c r="G2009" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -56889,7 +56886,7 @@
         <v>1.682000041008</v>
       </c>
       <c r="G2010" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -56915,7 +56912,7 @@
         <v>1.7039999961853</v>
       </c>
       <c r="G2011" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -56941,7 +56938,7 @@
         <v>1.68799996376038</v>
       </c>
       <c r="G2012" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -56967,7 +56964,7 @@
         <v>1.682000041008</v>
       </c>
       <c r="G2013" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -56993,7 +56990,7 @@
         <v>1.7059999704361</v>
       </c>
       <c r="G2014" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -57019,7 +57016,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G2015" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -57045,7 +57042,7 @@
         <v>1.71599996089935</v>
       </c>
       <c r="G2016" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -57071,7 +57068,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G2017" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -57097,7 +57094,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G2018" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -57123,7 +57120,7 @@
         <v>1.682000041008</v>
       </c>
       <c r="G2019" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -57149,7 +57146,7 @@
         <v>1.69400000572205</v>
       </c>
       <c r="G2020" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -57175,7 +57172,7 @@
         <v>1.68400001525879</v>
       </c>
       <c r="G2021" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -57201,7 +57198,7 @@
         <v>1.70200002193451</v>
       </c>
       <c r="G2022" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -57227,7 +57224,7 @@
         <v>1.69200003147125</v>
       </c>
       <c r="G2023" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -57253,7 +57250,7 @@
         <v>1.72200000286102</v>
       </c>
       <c r="G2024" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -57279,7 +57276,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G2025" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -57305,7 +57302,7 @@
         <v>1.69599997997284</v>
       </c>
       <c r="G2026" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -57331,7 +57328,7 @@
         <v>1.7059999704361</v>
       </c>
       <c r="G2027" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -57357,7 +57354,7 @@
         <v>1.74199998378754</v>
       </c>
       <c r="G2028" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -57383,7 +57380,7 @@
         <v>1.74399995803833</v>
       </c>
       <c r="G2029" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -57409,7 +57406,7 @@
         <v>1.75</v>
       </c>
       <c r="G2030" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -57435,7 +57432,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G2031" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -57461,7 +57458,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G2032" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -57487,7 +57484,7 @@
         <v>1.77799999713898</v>
       </c>
       <c r="G2033" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -57513,7 +57510,7 @@
         <v>1.80799996852875</v>
       </c>
       <c r="G2034" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -57539,7 +57536,7 @@
         <v>1.84800004959106</v>
       </c>
       <c r="G2035" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -57565,7 +57562,7 @@
         <v>1.80799996852875</v>
       </c>
       <c r="G2036" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -57591,7 +57588,7 @@
         <v>1.81400001049042</v>
       </c>
       <c r="G2037" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -57617,7 +57614,7 @@
         <v>1.78199994564056</v>
       </c>
       <c r="G2038" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -57643,7 +57640,7 @@
         <v>1.83399999141693</v>
       </c>
       <c r="G2039" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -57669,7 +57666,7 @@
         <v>1.84800004959106</v>
       </c>
       <c r="G2040" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -57695,7 +57692,7 @@
         <v>1.90799999237061</v>
       </c>
       <c r="G2041" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -57721,7 +57718,7 @@
         <v>1.90799999237061</v>
       </c>
       <c r="G2042" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -57747,7 +57744,7 @@
         <v>1.91400003433228</v>
       </c>
       <c r="G2043" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -57773,7 +57770,7 @@
         <v>1.87800002098083</v>
       </c>
       <c r="G2044" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -57799,7 +57796,7 @@
         <v>1.87800002098083</v>
       </c>
       <c r="G2045" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -57825,7 +57822,7 @@
         <v>1.85599994659424</v>
       </c>
       <c r="G2046" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -57851,7 +57848,7 @@
         <v>1.83399999141693</v>
       </c>
       <c r="G2047" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -57877,7 +57874,7 @@
         <v>1.83599996566772</v>
       </c>
       <c r="G2048" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -57903,7 +57900,7 @@
         <v>1.81599998474121</v>
       </c>
       <c r="G2049" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -57929,7 +57926,7 @@
         <v>1.7960000038147</v>
       </c>
       <c r="G2050" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -57955,7 +57952,7 @@
         <v>1.80400002002716</v>
       </c>
       <c r="G2051" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -57981,7 +57978,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2052" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -58007,7 +58004,7 @@
         <v>1.81599998474121</v>
       </c>
       <c r="G2053" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -58033,7 +58030,7 @@
         <v>1.82200002670288</v>
       </c>
       <c r="G2054" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -58059,7 +58056,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G2055" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -58085,7 +58082,7 @@
         <v>1.80799996852875</v>
       </c>
       <c r="G2056" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -58111,7 +58108,7 @@
         <v>1.80799996852875</v>
       </c>
       <c r="G2057" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -58137,7 +58134,7 @@
         <v>1.80200004577637</v>
       </c>
       <c r="G2058" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -58163,7 +58160,7 @@
         <v>1.79200005531311</v>
       </c>
       <c r="G2059" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -58189,7 +58186,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G2060" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -58215,7 +58212,7 @@
         <v>1.77799999713898</v>
       </c>
       <c r="G2061" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -58241,7 +58238,7 @@
         <v>1.7960000038147</v>
       </c>
       <c r="G2062" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -58267,7 +58264,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G2063" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -58293,7 +58290,7 @@
         <v>1.76800000667572</v>
       </c>
       <c r="G2064" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -58319,7 +58316,7 @@
         <v>1.75199997425079</v>
       </c>
       <c r="G2065" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -58345,7 +58342,7 @@
         <v>1.77199995517731</v>
       </c>
       <c r="G2066" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -58371,7 +58368,7 @@
         <v>1.77799999713898</v>
       </c>
       <c r="G2067" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -58397,7 +58394,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G2068" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -58423,7 +58420,7 @@
         <v>1.82799994945526</v>
       </c>
       <c r="G2069" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -58449,7 +58446,7 @@
         <v>1.82200002670288</v>
       </c>
       <c r="G2070" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -58475,7 +58472,7 @@
         <v>1.83200001716614</v>
       </c>
       <c r="G2071" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -58501,7 +58498,7 @@
         <v>1.817999958992</v>
       </c>
       <c r="G2072" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -58527,7 +58524,7 @@
         <v>1.82200002670288</v>
       </c>
       <c r="G2073" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -58553,7 +58550,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G2074" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -58579,7 +58576,7 @@
         <v>1.80799996852875</v>
       </c>
       <c r="G2075" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -58605,7 +58602,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G2076" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -58631,7 +58628,7 @@
         <v>1.79200005531311</v>
       </c>
       <c r="G2077" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -58657,7 +58654,7 @@
         <v>1.79200005531311</v>
       </c>
       <c r="G2078" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -58683,7 +58680,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G2079" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -58709,7 +58706,7 @@
         <v>1.78199994564056</v>
       </c>
       <c r="G2080" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -58735,7 +58732,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2081" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -58761,7 +58758,7 @@
         <v>1.79200005531311</v>
       </c>
       <c r="G2082" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -58787,7 +58784,7 @@
         <v>1.79200005531311</v>
       </c>
       <c r="G2083" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -58813,7 +58810,7 @@
         <v>1.79799997806549</v>
       </c>
       <c r="G2084" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -58839,7 +58836,7 @@
         <v>1.80599999427795</v>
       </c>
       <c r="G2085" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -58865,7 +58862,7 @@
         <v>1.77600002288818</v>
       </c>
       <c r="G2086" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -58891,7 +58888,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G2087" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -58917,7 +58914,7 @@
         <v>1.78199994564056</v>
       </c>
       <c r="G2088" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -58943,7 +58940,7 @@
         <v>1.79799997806549</v>
       </c>
       <c r="G2089" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -58969,7 +58966,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G2090" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58995,7 +58992,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2091" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -59021,7 +59018,7 @@
         <v>1.87800002098083</v>
       </c>
       <c r="G2092" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -59047,7 +59044,7 @@
         <v>1.85399997234344</v>
       </c>
       <c r="G2093" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -59073,7 +59070,7 @@
         <v>1.89800000190735</v>
       </c>
       <c r="G2094" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -59099,7 +59096,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2095" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -59125,7 +59122,7 @@
         <v>1.96800005435944</v>
       </c>
       <c r="G2096" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -59151,7 +59148,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2097" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -59177,7 +59174,7 @@
         <v>1.99399995803833</v>
       </c>
       <c r="G2098" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -59203,7 +59200,7 @@
         <v>2</v>
       </c>
       <c r="G2099" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -59229,7 +59226,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2100" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -59255,7 +59252,7 @@
         <v>2.11500000953674</v>
       </c>
       <c r="G2101" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -59281,7 +59278,7 @@
         <v>2.125</v>
       </c>
       <c r="G2102" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -59307,7 +59304,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G2103" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -59333,7 +59330,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G2104" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -59359,7 +59356,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2105" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -59385,7 +59382,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2106" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -59411,7 +59408,7 @@
         <v>2.15499997138977</v>
       </c>
       <c r="G2107" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -59437,7 +59434,7 @@
         <v>2.125</v>
       </c>
       <c r="G2108" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -59463,7 +59460,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2109" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -59489,7 +59486,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2110" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -59515,7 +59512,7 @@
         <v>2.15499997138977</v>
       </c>
       <c r="G2111" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -59541,7 +59538,7 @@
         <v>2.15499997138977</v>
       </c>
       <c r="G2112" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -59567,7 +59564,7 @@
         <v>2.125</v>
       </c>
       <c r="G2113" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -59593,7 +59590,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G2114" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -59619,7 +59616,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2115" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -59645,7 +59642,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2116" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -59671,7 +59668,7 @@
         <v>2.14499998092651</v>
       </c>
       <c r="G2117" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -59697,7 +59694,7 @@
         <v>2.16499996185303</v>
       </c>
       <c r="G2118" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -59723,7 +59720,7 @@
         <v>2.20499992370605</v>
       </c>
       <c r="G2119" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -59749,7 +59746,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2120" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -59775,7 +59772,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2121" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -59801,7 +59798,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2122" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -59827,7 +59824,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G2123" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -59853,7 +59850,7 @@
         <v>2.4449999332428</v>
       </c>
       <c r="G2124" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -59879,7 +59876,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G2125" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -59905,7 +59902,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G2126" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -59931,7 +59928,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G2127" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -59957,7 +59954,7 @@
         <v>2.51500010490417</v>
       </c>
       <c r="G2128" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -59983,7 +59980,7 @@
         <v>2.54500007629395</v>
       </c>
       <c r="G2129" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -60009,7 +60006,7 @@
         <v>2.4449999332428</v>
       </c>
       <c r="G2130" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -60035,7 +60032,7 @@
         <v>2.42499995231628</v>
       </c>
       <c r="G2131" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -60061,7 +60058,7 @@
         <v>2.40499997138977</v>
       </c>
       <c r="G2132" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -60087,7 +60084,7 @@
         <v>2.43499994277954</v>
       </c>
       <c r="G2133" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -60113,7 +60110,7 @@
         <v>2.375</v>
       </c>
       <c r="G2134" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -60139,7 +60136,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G2135" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -60165,7 +60162,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G2136" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -60191,7 +60188,7 @@
         <v>2.39499998092651</v>
       </c>
       <c r="G2137" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -60217,7 +60214,7 @@
         <v>2.10500001907349</v>
       </c>
       <c r="G2138" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -60243,7 +60240,7 @@
         <v>2.07500004768372</v>
       </c>
       <c r="G2139" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -60269,7 +60266,7 @@
         <v>2.03500008583069</v>
       </c>
       <c r="G2140" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -60295,7 +60292,7 @@
         <v>2.07500004768372</v>
       </c>
       <c r="G2141" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -60321,7 +60318,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2142" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -60347,7 +60344,7 @@
         <v>2.0550000667572</v>
       </c>
       <c r="G2143" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -60373,7 +60370,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2144" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -60399,7 +60396,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G2145" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -60425,7 +60422,7 @@
         <v>2.09500002861023</v>
       </c>
       <c r="G2146" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -60451,7 +60448,7 @@
         <v>2.13499999046326</v>
       </c>
       <c r="G2147" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -60477,7 +60474,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G2148" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -60503,7 +60500,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2149" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -60529,7 +60526,7 @@
         <v>2.10500001907349</v>
       </c>
       <c r="G2150" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -60555,7 +60552,7 @@
         <v>2.04500007629395</v>
       </c>
       <c r="G2151" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -60581,7 +60578,7 @@
         <v>2.01500010490417</v>
       </c>
       <c r="G2152" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -60607,7 +60604,7 @@
         <v>2.04500007629395</v>
       </c>
       <c r="G2153" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -60633,7 +60630,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G2154" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -60659,7 +60656,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G2155" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -60685,7 +60682,7 @@
         <v>2.16499996185303</v>
       </c>
       <c r="G2156" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -60711,7 +60708,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2157" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -60737,7 +60734,7 @@
         <v>2.17499995231628</v>
       </c>
       <c r="G2158" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -60763,7 +60760,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G2159" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -60789,7 +60786,7 @@
         <v>2.08500003814697</v>
       </c>
       <c r="G2160" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -60815,7 +60812,7 @@
         <v>2.10500001907349</v>
       </c>
       <c r="G2161" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -60841,7 +60838,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2162" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -60867,7 +60864,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2163" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -60893,7 +60890,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G2164" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -60919,7 +60916,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2165" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -60945,7 +60942,7 @@
         <v>2.13499999046326</v>
       </c>
       <c r="G2166" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -60971,7 +60968,7 @@
         <v>2.14499998092651</v>
       </c>
       <c r="G2167" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -60997,7 +60994,7 @@
         <v>2.13499999046326</v>
       </c>
       <c r="G2168" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -61023,7 +61020,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2169" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -61049,7 +61046,7 @@
         <v>2.15499997138977</v>
       </c>
       <c r="G2170" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -61075,7 +61072,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2171" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -61101,7 +61098,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2172" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -61127,7 +61124,7 @@
         <v>2.14499998092651</v>
       </c>
       <c r="G2173" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -61153,7 +61150,7 @@
         <v>2.15499997138977</v>
       </c>
       <c r="G2174" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -61179,7 +61176,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2175" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -61205,7 +61202,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2176" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -61231,7 +61228,7 @@
         <v>2.20499992370605</v>
       </c>
       <c r="G2177" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -61257,7 +61254,7 @@
         <v>2.25500011444092</v>
       </c>
       <c r="G2178" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="H2178" t="s">
         <v>9</v>
@@ -61283,7 +61280,7 @@
         <v>2.24499988555908</v>
       </c>
       <c r="G2179" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="H2179" t="s">
         <v>9</v>
@@ -61309,7 +61306,7 @@
         <v>2.21499991416931</v>
       </c>
       <c r="G2180" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="H2180" t="s">
         <v>9</v>
@@ -61335,7 +61332,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2181" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="H2181" t="s">
         <v>9</v>
@@ -61361,7 +61358,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G2182" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="H2182" t="s">
         <v>9</v>
@@ -61387,7 +61384,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G2183" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="H2183" t="s">
         <v>9</v>
@@ -61413,7 +61410,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G2184" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="H2184" t="s">
         <v>9</v>
@@ -61439,7 +61436,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G2185" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="H2185" t="s">
         <v>9</v>
@@ -61465,7 +61462,7 @@
         <v>2.28500008583069</v>
       </c>
       <c r="G2186" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="H2186" t="s">
         <v>9</v>
@@ -61491,7 +61488,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2187" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H2187" t="s">
         <v>9</v>
@@ -61517,7 +61514,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2188" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="H2188" t="s">
         <v>9</v>
@@ -61543,7 +61540,7 @@
         <v>2.08500003814697</v>
       </c>
       <c r="G2189" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="H2189" t="s">
         <v>9</v>
@@ -61569,7 +61566,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2190" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="H2190" t="s">
         <v>9</v>
@@ -61595,7 +61592,7 @@
         <v>2.125</v>
       </c>
       <c r="G2191" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H2191" t="s">
         <v>9</v>
@@ -61621,7 +61618,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G2192" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="H2192" t="s">
         <v>9</v>
@@ -61647,7 +61644,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G2193" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="H2193" t="s">
         <v>9</v>
@@ -61673,7 +61670,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G2194" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="H2194" t="s">
         <v>9</v>
@@ -61699,7 +61696,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G2195" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="H2195" t="s">
         <v>9</v>
@@ -61725,7 +61722,7 @@
         <v>2.11500000953674</v>
       </c>
       <c r="G2196" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H2196" t="s">
         <v>9</v>
@@ -61751,7 +61748,7 @@
         <v>2.11500000953674</v>
       </c>
       <c r="G2197" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H2197" t="s">
         <v>9</v>
@@ -61777,7 +61774,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G2198" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="H2198" t="s">
         <v>9</v>
@@ -61803,7 +61800,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2199" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="H2199" t="s">
         <v>9</v>
@@ -61829,7 +61826,7 @@
         <v>2.10500001907349</v>
       </c>
       <c r="G2200" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H2200" t="s">
         <v>9</v>
@@ -61855,7 +61852,7 @@
         <v>2.13499999046326</v>
       </c>
       <c r="G2201" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="H2201" t="s">
         <v>9</v>
@@ -61881,7 +61878,7 @@
         <v>2.125</v>
       </c>
       <c r="G2202" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H2202" t="s">
         <v>9</v>
@@ -61907,7 +61904,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2203" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="H2203" t="s">
         <v>9</v>
@@ -61933,7 +61930,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2204" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="H2204" t="s">
         <v>9</v>
@@ -61959,7 +61956,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2205" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="H2205" t="s">
         <v>9</v>
@@ -61985,7 +61982,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2206" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="H2206" t="s">
         <v>9</v>
@@ -62011,7 +62008,7 @@
         <v>2.16499996185303</v>
       </c>
       <c r="G2207" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="H2207" t="s">
         <v>9</v>
@@ -62037,7 +62034,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2208" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="H2208" t="s">
         <v>9</v>
@@ -62063,7 +62060,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2209" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="H2209" t="s">
         <v>9</v>
@@ -62089,7 +62086,7 @@
         <v>2.11500000953674</v>
       </c>
       <c r="G2210" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H2210" t="s">
         <v>9</v>
@@ -62115,7 +62112,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G2211" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="H2211" t="s">
         <v>9</v>
@@ -62141,7 +62138,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2212" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="H2212" t="s">
         <v>9</v>
@@ -62167,7 +62164,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2213" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="H2213" t="s">
         <v>9</v>
@@ -62193,7 +62190,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G2214" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="H2214" t="s">
         <v>9</v>
@@ -62219,7 +62216,7 @@
         <v>2.10500001907349</v>
       </c>
       <c r="G2215" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H2215" t="s">
         <v>9</v>
@@ -62245,7 +62242,7 @@
         <v>2.10500001907349</v>
       </c>
       <c r="G2216" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H2216" t="s">
         <v>9</v>
@@ -62271,7 +62268,7 @@
         <v>2.125</v>
       </c>
       <c r="G2217" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H2217" t="s">
         <v>9</v>
@@ -62297,7 +62294,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G2218" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H2218" t="s">
         <v>9</v>
@@ -62323,7 +62320,7 @@
         <v>2.125</v>
       </c>
       <c r="G2219" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H2219" t="s">
         <v>9</v>
@@ -62349,7 +62346,7 @@
         <v>2.16499996185303</v>
       </c>
       <c r="G2220" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="H2220" t="s">
         <v>9</v>
@@ -62375,7 +62372,7 @@
         <v>2.14499998092651</v>
       </c>
       <c r="G2221" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H2221" t="s">
         <v>9</v>
@@ -62401,7 +62398,7 @@
         <v>2.125</v>
       </c>
       <c r="G2222" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H2222" t="s">
         <v>9</v>
@@ -62427,7 +62424,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G2223" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H2223" t="s">
         <v>9</v>
@@ -62453,7 +62450,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G2224" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="H2224" t="s">
         <v>9</v>
@@ -62479,7 +62476,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2225" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="H2225" t="s">
         <v>9</v>
@@ -62505,7 +62502,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2226" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H2226" t="s">
         <v>9</v>
@@ -62531,7 +62528,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2227" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="H2227" t="s">
         <v>9</v>
@@ -62557,7 +62554,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2228" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="H2228" t="s">
         <v>9</v>
@@ -62583,7 +62580,7 @@
         <v>2.125</v>
       </c>
       <c r="G2229" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H2229" t="s">
         <v>9</v>
@@ -62609,7 +62606,7 @@
         <v>2.11500000953674</v>
       </c>
       <c r="G2230" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H2230" t="s">
         <v>9</v>
@@ -62635,7 +62632,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2231" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H2231" t="s">
         <v>9</v>
@@ -62661,7 +62658,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2232" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H2232" t="s">
         <v>9</v>
@@ -62687,7 +62684,7 @@
         <v>2.15499997138977</v>
       </c>
       <c r="G2233" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="H2233" t="s">
         <v>9</v>
@@ -62713,7 +62710,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2234" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H2234" t="s">
         <v>9</v>
@@ -62739,7 +62736,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2235" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="H2235" t="s">
         <v>9</v>
@@ -62765,7 +62762,7 @@
         <v>2.17499995231628</v>
       </c>
       <c r="G2236" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="H2236" t="s">
         <v>9</v>
@@ -62791,7 +62788,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2237" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H2237" t="s">
         <v>9</v>
@@ -62817,7 +62814,7 @@
         <v>2.24499988555908</v>
       </c>
       <c r="G2238" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="H2238" t="s">
         <v>9</v>
@@ -62843,7 +62840,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G2239" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="H2239" t="s">
         <v>9</v>
@@ -62869,7 +62866,7 @@
         <v>2.28500008583069</v>
       </c>
       <c r="G2240" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="H2240" t="s">
         <v>9</v>
@@ -62895,7 +62892,7 @@
         <v>2.26500010490417</v>
       </c>
       <c r="G2241" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="H2241" t="s">
         <v>9</v>
@@ -62921,7 +62918,7 @@
         <v>2.26500010490417</v>
       </c>
       <c r="G2242" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="H2242" t="s">
         <v>9</v>
@@ -62947,7 +62944,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G2243" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="H2243" t="s">
         <v>9</v>
@@ -62973,7 +62970,7 @@
         <v>2.27500009536743</v>
       </c>
       <c r="G2244" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="H2244" t="s">
         <v>9</v>
@@ -62999,7 +62996,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G2245" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="H2245" t="s">
         <v>9</v>
@@ -63007,7 +63004,7 @@
     </row>
     <row r="2246">
       <c r="A2246" s="1" t="n">
-        <v>45590.6496064815</v>
+        <v>45590.2916666667</v>
       </c>
       <c r="B2246" t="n">
         <v>94118</v>
@@ -63025,9 +63022,35 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G2246" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="H2246" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2247">
+      <c r="A2247" s="1" t="n">
+        <v>45593.6910648148</v>
+      </c>
+      <c r="B2247" t="n">
+        <v>74011</v>
+      </c>
+      <c r="C2247" t="n">
+        <v>2.25500011444092</v>
+      </c>
+      <c r="D2247" t="n">
+        <v>2.20000004768372</v>
+      </c>
+      <c r="E2247" t="n">
+        <v>2.20000004768372</v>
+      </c>
+      <c r="F2247" t="n">
+        <v>2.25500011444092</v>
+      </c>
+      <c r="G2247" t="s">
+        <v>1410</v>
+      </c>
+      <c r="H2247" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CAI.MI.xlsx
+++ b/data/CAI.MI.xlsx
@@ -44,19 +44,19 @@
     <t xml:space="preserve">CAI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08614444732666</t>
+    <t xml:space="preserve">3.08614420890808</t>
   </si>
   <si>
     <t xml:space="preserve">3.01786708831787</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97690057754517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98099756240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88131165504456</t>
+    <t xml:space="preserve">2.97690033912659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98099732398987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88131213188171</t>
   </si>
   <si>
     <t xml:space="preserve">2.94003081321716</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">2.80620670318604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8608283996582</t>
+    <t xml:space="preserve">2.86082863807678</t>
   </si>
   <si>
     <t xml:space="preserve">2.75841236114502</t>
@@ -74,67 +74,67 @@
     <t xml:space="preserve">2.73929476737976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69013500213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71744632720947</t>
+    <t xml:space="preserve">2.69013524055481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71744585037231</t>
   </si>
   <si>
     <t xml:space="preserve">2.86629104614258</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76387453079224</t>
+    <t xml:space="preserve">2.76387476921082</t>
   </si>
   <si>
     <t xml:space="preserve">2.74475693702698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7570469379425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.710618019104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73110127449036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76114368438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72563934326172</t>
+    <t xml:space="preserve">2.75704741477966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71061825752258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73110103607178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76114416122437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72563910484314</t>
   </si>
   <si>
     <t xml:space="preserve">2.69696283340454</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72290825843811</t>
+    <t xml:space="preserve">2.72290778160095</t>
   </si>
   <si>
     <t xml:space="preserve">2.62868499755859</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45935726165771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45799136161804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30095314979553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38971400260925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53992438316345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50442004203796</t>
+    <t xml:space="preserve">2.45935702323914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45799112319946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30095291137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38971376419067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53992414474487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50441980361938</t>
   </si>
   <si>
     <t xml:space="preserve">2.67511367797852</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81713104248047</t>
+    <t xml:space="preserve">2.81713128089905</t>
   </si>
   <si>
     <t xml:space="preserve">2.74885368347168</t>
@@ -143,1741 +143,1741 @@
     <t xml:space="preserve">2.78162670135498</t>
   </si>
   <si>
+    <t xml:space="preserve">2.68467235565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86219429969788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8335177898407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84717321395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88404321670532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88540840148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89769840240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85126996040344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94685864448547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94958972930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05883359909058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12164926528931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16124987602234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18173313140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20767855644226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17900228500366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17217445373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23635482788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25001072883606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21040987968445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22269940376282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23089337348938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22952771186829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14076614379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14896011352539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22543120384216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29234290122986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21587181091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30463290214539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27732157707214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34559917449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36608242988586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40704894065857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38656544685364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33330941200256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3483304977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32511568069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32375049591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29780507087708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2636661529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29097747802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26022291183472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19182634353638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15620303153992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1348295211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17330241203308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09208202362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14907884597778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3229193687439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34856748580933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3343186378479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31151986122131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38419055938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44403791427612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41981387138367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43406343460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48108553886414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47681093215942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43833827972412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45116233825684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40841460227966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39844012260437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34714293479919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20607566833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02796030044556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94246506690979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8997175693512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89686727523804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06643342971802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08495712280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13197946548462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14195370674133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02938485145569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84984469413757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95671439170837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06500864028931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16332769393921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96526384353638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9552891254425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99233722686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12057995796204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1704523563385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23599910736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17757725715637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13625478744507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9495894908905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83702063560486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9196662902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86551904678345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90399241447449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84129524230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87549328804016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83559584617615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79854798316956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73442625999451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77717447280884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88546848297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87406873703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84272027015686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87834334373474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92821574211121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92109107971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94103980064392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86694407463074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85839462280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86409425735474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81707191467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76007485389709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80567240715027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77289915084839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7586498260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77859902381897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68597888946533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62470722198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59478378295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5477614402771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58480954170227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65605545043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65463066101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63610672950745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60333371162415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5719850063324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45086669921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44516706466675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42379331588745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44374227523804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41666889190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45941615104675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61900758743286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61045837402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54918646812439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57910966873169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55061078071594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5235378742218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57341003417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64465618133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6931037902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64038133621216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63895630836487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62898206710815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63325691223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67172980308533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74867534637451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73727583885193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67315459251404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70307803153992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7144775390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70735287666321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65178060531616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66887974739075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63753151893616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65748047828674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56486034393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52211308479309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51498818397522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41524362564087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43234252929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43661761283875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39386987686157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39244508743286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35112237930298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42236852645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53066253662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57768487930298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58908438682556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63468194007874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69595336914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68027901649475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69167876243591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69737839698792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74012589454651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74297571182251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72445178031921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7230269908905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7287266254425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76434993743896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75152540206909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75580024719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71162748336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69025373458862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65035557746887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60760807991028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5833842754364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55346131324768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5206880569458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60618329048157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56058573722839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5449116230011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54063701629639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50501394271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49788928031921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50643873214722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53351211547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57625985145569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60048365592957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59193444252014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58195948600769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5591607093811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58623456954956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5363621711731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48506498336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54348683357239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68740367889404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69452857971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75722479820251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77147436141968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79712295532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78857350349426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79997301101685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83132100105286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90541696548462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03508496284485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06215858459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15477848052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29727053642273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25737309455872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0778329372406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16760301589966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16190338134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16047811508179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21889972686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22174954414368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27589702606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28159642219543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26877188682556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23172378540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17900252342224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12913012504578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19610095024109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10063171386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1975257396698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23884868621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22602415084839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29157066345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32576942443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28302121162415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31864428520203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3400182723999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39559030532837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3556923866272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23457384109497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27019715309143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08923196792603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06358337402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17488980293274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09706687927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11147856712341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13886022567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14462518692017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11003732681274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1186842918396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07112574577332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03797912597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04806709289551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99762630462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00627303123474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97744989395142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9183623790741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8722448348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90395045280457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89098000526428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87512731552124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84918618202209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92700886726379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9068329334259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86936235427856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.878009557724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85783314704895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85350966453552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87080359458923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82468605041504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79298043251038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76415753364563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81027460098267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80018639564514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79153943061829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72956943511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75262784957886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75983381271362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74686336517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95439124107361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92124438285828</t>
+  </si>
+  <si>
+    <t 